--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="945">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71937322616577</t>
+    <t xml:space="preserve">7.71937417984009</t>
   </si>
   <si>
     <t xml:space="preserve">CRL.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">8.04686164855957</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95329427719116</t>
+    <t xml:space="preserve">7.953293800354</t>
   </si>
   <si>
     <t xml:space="preserve">7.8597264289856</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">7.82978296279907</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01692199707031</t>
+    <t xml:space="preserve">8.01692008972168</t>
   </si>
   <si>
     <t xml:space="preserve">8.11236000061035</t>
@@ -68,10 +68,10 @@
     <t xml:space="preserve">8.1217155456543</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57995748519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43586206436157</t>
+    <t xml:space="preserve">7.57995700836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43586158752441</t>
   </si>
   <si>
     <t xml:space="preserve">7.66229677200317</t>
@@ -80,22 +80,22 @@
     <t xml:space="preserve">7.60241317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71001768112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57902145385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66323280334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68194580078125</t>
+    <t xml:space="preserve">7.71001720428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57902193069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66323328018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68194627761841</t>
   </si>
   <si>
     <t xml:space="preserve">7.78674221038818</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94393682479858</t>
+    <t xml:space="preserve">7.9439377784729</t>
   </si>
   <si>
     <t xml:space="preserve">8.00007820129395</t>
@@ -104,13 +104,13 @@
     <t xml:space="preserve">8.0665111541748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1497859954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00943470001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16569423675537</t>
+    <t xml:space="preserve">8.14978790283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00943374633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16569328308105</t>
   </si>
   <si>
     <t xml:space="preserve">7.95703744888306</t>
@@ -119,37 +119,37 @@
     <t xml:space="preserve">7.90650987625122</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99446392059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83352613449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93458080291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88779640197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03282737731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70159578323364</t>
+    <t xml:space="preserve">7.99446487426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83352661132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93458032608032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88779592514038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03282642364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7015962600708</t>
   </si>
   <si>
     <t xml:space="preserve">7.81294107437134</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92709493637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88966798782349</t>
+    <t xml:space="preserve">7.92709636688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8896689414978</t>
   </si>
   <si>
     <t xml:space="preserve">8.14043140411377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20686340332031</t>
+    <t xml:space="preserve">8.20686531066895</t>
   </si>
   <si>
     <t xml:space="preserve">8.26206970214844</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">8.61762714385986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64101886749268</t>
+    <t xml:space="preserve">8.64101982116699</t>
   </si>
   <si>
     <t xml:space="preserve">8.91330337524414</t>
@@ -185,28 +185,28 @@
     <t xml:space="preserve">8.51470279693604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6082706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87026023864746</t>
+    <t xml:space="preserve">8.60827159881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87026119232178</t>
   </si>
   <si>
     <t xml:space="preserve">8.90768909454346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77295017242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82347869873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95447254180908</t>
+    <t xml:space="preserve">8.77295112609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82347774505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9544734954834</t>
   </si>
   <si>
     <t xml:space="preserve">9.16967964172363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03026294708252</t>
+    <t xml:space="preserve">9.0302619934082</t>
   </si>
   <si>
     <t xml:space="preserve">9.28196239471436</t>
@@ -218,22 +218,22 @@
     <t xml:space="preserve">9.50652408599854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26324844360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28289604187012</t>
+    <t xml:space="preserve">9.26324939727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28289794921875</t>
   </si>
   <si>
     <t xml:space="preserve">9.15470886230469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35307312011719</t>
+    <t xml:space="preserve">9.3530740737915</t>
   </si>
   <si>
     <t xml:space="preserve">9.22675609588623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18839263916016</t>
+    <t xml:space="preserve">9.18839359283447</t>
   </si>
   <si>
     <t xml:space="preserve">8.92546653747559</t>
@@ -242,10 +242,10 @@
     <t xml:space="preserve">9.15751647949219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20710754394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06394863128662</t>
+    <t xml:space="preserve">9.207106590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0639476776123</t>
   </si>
   <si>
     <t xml:space="preserve">8.82909202575684</t>
@@ -257,31 +257,31 @@
     <t xml:space="preserve">8.12732982635498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45762634277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56148719787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70183849334717</t>
+    <t xml:space="preserve">8.45762729644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56148624420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70183944702148</t>
   </si>
   <si>
     <t xml:space="preserve">8.74862384796143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79540824890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96850872039795</t>
+    <t xml:space="preserve">8.79540729522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96850776672363</t>
   </si>
   <si>
     <t xml:space="preserve">8.17598628997803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89247560501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06557369232178</t>
+    <t xml:space="preserve">7.89247512817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06557464599609</t>
   </si>
   <si>
     <t xml:space="preserve">8.49411773681641</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">8.93482303619385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93763160705566</t>
+    <t xml:space="preserve">8.93763065338135</t>
   </si>
   <si>
     <t xml:space="preserve">8.91423797607422</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">8.66066932678223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7561092376709</t>
+    <t xml:space="preserve">8.75610828399658</t>
   </si>
   <si>
     <t xml:space="preserve">8.85996913909912</t>
@@ -308,37 +308,37 @@
     <t xml:space="preserve">8.73365211486816</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54557991027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4931812286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71681022644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87868309020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20124912261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18814945220947</t>
+    <t xml:space="preserve">8.54558086395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49318218231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71680927276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87868213653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20125007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18815040588379</t>
   </si>
   <si>
     <t xml:space="preserve">8.23399829864502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33785915374756</t>
+    <t xml:space="preserve">8.33785820007324</t>
   </si>
   <si>
     <t xml:space="preserve">8.70464706420898</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48663425445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6644115447998</t>
+    <t xml:space="preserve">8.48663330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66441059112549</t>
   </si>
   <si>
     <t xml:space="preserve">9.08359718322754</t>
@@ -359,16 +359,16 @@
     <t xml:space="preserve">9.01061534881592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24453449249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.017165184021</t>
+    <t xml:space="preserve">9.24453353881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01716423034668</t>
   </si>
   <si>
     <t xml:space="preserve">8.45575428009033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38370704650879</t>
+    <t xml:space="preserve">8.38370609283447</t>
   </si>
   <si>
     <t xml:space="preserve">8.42113494873047</t>
@@ -380,13 +380,13 @@
     <t xml:space="preserve">8.35002136230469</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55680656433105</t>
+    <t xml:space="preserve">8.55680751800537</t>
   </si>
   <si>
     <t xml:space="preserve">8.42487716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44920444488525</t>
+    <t xml:space="preserve">8.44920635223389</t>
   </si>
   <si>
     <t xml:space="preserve">8.65505504608154</t>
@@ -413,28 +413,28 @@
     <t xml:space="preserve">8.5802001953125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63821315765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86838912963867</t>
+    <t xml:space="preserve">8.63821220397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86839008331299</t>
   </si>
   <si>
     <t xml:space="preserve">8.93107986450195</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87961864471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26605415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23049926757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06020450592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99564456939697</t>
+    <t xml:space="preserve">8.87961769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2660551071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23050022125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06020545959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99564361572266</t>
   </si>
   <si>
     <t xml:space="preserve">9.14067363739014</t>
@@ -443,58 +443,58 @@
     <t xml:space="preserve">9.21646308898926</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40359973907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37365818023682</t>
+    <t xml:space="preserve">9.40360164642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37365913391113</t>
   </si>
   <si>
     <t xml:space="preserve">9.53272438049316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56640911102295</t>
+    <t xml:space="preserve">9.56640815734863</t>
   </si>
   <si>
     <t xml:space="preserve">9.78535842895508</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82465839385986</t>
+    <t xml:space="preserve">9.82465744018555</t>
   </si>
   <si>
     <t xml:space="preserve">9.87144184112549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76851463317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81904411315918</t>
+    <t xml:space="preserve">9.76851558685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81904315948486</t>
   </si>
   <si>
     <t xml:space="preserve">9.4896821975708</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79284381866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66559028625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68430423736572</t>
+    <t xml:space="preserve">9.79284286499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6655912399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68430614471436</t>
   </si>
   <si>
     <t xml:space="preserve">9.45412731170654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63564968109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50091075897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29506206512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43167018890381</t>
+    <t xml:space="preserve">9.63564872741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50090980529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2950611114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43166923522949</t>
   </si>
   <si>
     <t xml:space="preserve">9.31377506256104</t>
@@ -506,16 +506,16 @@
     <t xml:space="preserve">9.10418224334717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53061103820801</t>
+    <t xml:space="preserve">8.53060913085938</t>
   </si>
   <si>
     <t xml:space="preserve">8.9198522567749</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17061519622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35681629180908</t>
+    <t xml:space="preserve">9.17061424255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35681819915771</t>
   </si>
   <si>
     <t xml:space="preserve">9.13225173950195</t>
@@ -524,10 +524,10 @@
     <t xml:space="preserve">9.27260589599609</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61880779266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56266593933105</t>
+    <t xml:space="preserve">9.61880588531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56266689300537</t>
   </si>
   <si>
     <t xml:space="preserve">9.91822528839111</t>
@@ -539,19 +539,19 @@
     <t xml:space="preserve">9.71237468719482</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93693828582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86208343505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0866479873657</t>
+    <t xml:space="preserve">9.93693923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86208534240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0866460800171</t>
   </si>
   <si>
     <t xml:space="preserve">10.1802158355713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2363576889038</t>
+    <t xml:space="preserve">10.2363567352295</t>
   </si>
   <si>
     <t xml:space="preserve">9.97436618804932</t>
@@ -566,31 +566,31 @@
     <t xml:space="preserve">10.1240758895874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2550706863403</t>
+    <t xml:space="preserve">10.255069732666</t>
   </si>
   <si>
     <t xml:space="preserve">10.2924976348877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84337043762207</t>
+    <t xml:space="preserve">9.8433723449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.95565319061279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0117921829224</t>
+    <t xml:space="preserve">10.011794090271</t>
   </si>
   <si>
     <t xml:space="preserve">10.049220085144</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3299245834351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3486375808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4983472824097</t>
+    <t xml:space="preserve">10.3299255371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3486385345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4983491897583</t>
   </si>
   <si>
     <t xml:space="preserve">10.217643737793</t>
@@ -599,31 +599,31 @@
     <t xml:space="preserve">10.1989297866821</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3112106323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7041997909546</t>
+    <t xml:space="preserve">10.3112115859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.704197883606</t>
   </si>
   <si>
     <t xml:space="preserve">10.7977657318115</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8539066314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9287605285645</t>
+    <t xml:space="preserve">10.8539056777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9287614822388</t>
   </si>
   <si>
     <t xml:space="preserve">10.6106300354004</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6667699813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6293430328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5170612335205</t>
+    <t xml:space="preserve">10.6667709350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6293420791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5170621871948</t>
   </si>
   <si>
     <t xml:space="preserve">10.1615028381348</t>
@@ -635,40 +635,40 @@
     <t xml:space="preserve">10.3676948547363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1221923828125</t>
+    <t xml:space="preserve">10.1221933364868</t>
   </si>
   <si>
     <t xml:space="preserve">10.0655393600464</t>
   </si>
   <si>
-    <t xml:space="preserve">10.103307723999</t>
+    <t xml:space="preserve">10.1033086776733</t>
   </si>
   <si>
     <t xml:space="preserve">10.1788463592529</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3865795135498</t>
+    <t xml:space="preserve">10.3865785598755</t>
   </si>
   <si>
     <t xml:space="preserve">10.4054622650146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2732715606689</t>
+    <t xml:space="preserve">10.2732706069946</t>
   </si>
   <si>
     <t xml:space="preserve">10.0844240188599</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2355012893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91446304321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0466547012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3488092422485</t>
+    <t xml:space="preserve">10.235502243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91446208953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0466537475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3488101959229</t>
   </si>
   <si>
     <t xml:space="preserve">10.7453880310059</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">10.5754261016846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5565404891968</t>
+    <t xml:space="preserve">10.5565414428711</t>
   </si>
   <si>
     <t xml:space="preserve">10.008885383606</t>
@@ -695,13 +695,13 @@
     <t xml:space="preserve">10.2166175842285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99000072479248</t>
+    <t xml:space="preserve">9.9900016784668</t>
   </si>
   <si>
     <t xml:space="preserve">10.2543869018555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2921552658081</t>
+    <t xml:space="preserve">10.2921543121338</t>
   </si>
   <si>
     <t xml:space="preserve">9.971116065979</t>
@@ -713,34 +713,34 @@
     <t xml:space="preserve">11.0475435256958</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6698484420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2750482559204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3685836791992</t>
+    <t xml:space="preserve">10.6698474884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2750473022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3685827255249</t>
   </si>
   <si>
     <t xml:space="preserve">11.8218154907227</t>
   </si>
   <si>
-    <t xml:space="preserve">11.614086151123</t>
+    <t xml:space="preserve">11.6140842437744</t>
   </si>
   <si>
     <t xml:space="preserve">11.7462759017944</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8407001495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7273921966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1806240081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3694715499878</t>
+    <t xml:space="preserve">11.8406991958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.727391242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.180624961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3694705963135</t>
   </si>
   <si>
     <t xml:space="preserve">12.4638948440552</t>
@@ -752,22 +752,22 @@
     <t xml:space="preserve">12.8227043151855</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4072399139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7840461730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8029298782349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.954008102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6896228790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1428546905518</t>
+    <t xml:space="preserve">12.4072408676147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.78404712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8029317855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9540090560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6896238327026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1428537368774</t>
   </si>
   <si>
     <t xml:space="preserve">12.3317022323608</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">12.4450092315674</t>
   </si>
   <si>
-    <t xml:space="preserve">12.747166633606</t>
+    <t xml:space="preserve">12.7471647262573</t>
   </si>
   <si>
     <t xml:space="preserve">12.9171276092529</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">13.502552986145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5969772338867</t>
+    <t xml:space="preserve">13.5969762802124</t>
   </si>
   <si>
     <t xml:space="preserve">13.7480535507202</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3145952224731</t>
+    <t xml:space="preserve">14.3145942687988</t>
   </si>
   <si>
     <t xml:space="preserve">13.7102832794189</t>
@@ -809,28 +809,28 @@
     <t xml:space="preserve">13.3514757156372</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6149730682373</t>
+    <t xml:space="preserve">12.614972114563</t>
   </si>
   <si>
     <t xml:space="preserve">12.5772037506104</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5205497741699</t>
+    <t xml:space="preserve">12.5205488204956</t>
   </si>
   <si>
     <t xml:space="preserve">12.6338567733765</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4261255264282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5016651153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.862250328064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.163516998291</t>
+    <t xml:space="preserve">12.4261264801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5016641616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8622493743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1635179519653</t>
   </si>
   <si>
     <t xml:space="preserve">13.6536302566528</t>
@@ -842,16 +842,16 @@
     <t xml:space="preserve">13.0870895385742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9360113143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7849340438843</t>
+    <t xml:space="preserve">12.9360122680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7849349975586</t>
   </si>
   <si>
     <t xml:space="preserve">12.5960884094238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0115509033203</t>
+    <t xml:space="preserve">13.011549949646</t>
   </si>
   <si>
     <t xml:space="preserve">13.0493211746216</t>
@@ -869,10 +869,10 @@
     <t xml:space="preserve">13.5780916213989</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2948217391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.879358291626</t>
+    <t xml:space="preserve">13.2948207855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8793573379517</t>
   </si>
   <si>
     <t xml:space="preserve">12.5394334793091</t>
@@ -902,10 +902,10 @@
     <t xml:space="preserve">11.2363901138306</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9531183242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.519660949707</t>
+    <t xml:space="preserve">10.9531192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5196599960327</t>
   </si>
   <si>
     <t xml:space="preserve">11.3308134078979</t>
@@ -920,19 +920,19 @@
     <t xml:space="preserve">11.5763139724731</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3119287490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59342098236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57453632354736</t>
+    <t xml:space="preserve">11.3119277954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59342193603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57453727722168</t>
   </si>
   <si>
     <t xml:space="preserve">9.0457649230957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72561550140381</t>
+    <t xml:space="preserve">9.72561645507812</t>
   </si>
   <si>
     <t xml:space="preserve">8.87580394744873</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">8.39424514770508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34703159332275</t>
+    <t xml:space="preserve">8.34703254699707</t>
   </si>
   <si>
     <t xml:space="preserve">8.68695735931396</t>
@@ -956,22 +956,22 @@
     <t xml:space="preserve">8.59253311157227</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82003879547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9153499603271</t>
+    <t xml:space="preserve">9.82003974914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9153490066528</t>
   </si>
   <si>
     <t xml:space="preserve">9.95223140716553</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4810018539429</t>
+    <t xml:space="preserve">10.4810028076172</t>
   </si>
   <si>
     <t xml:space="preserve">10.4243478775024</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8955774307251</t>
+    <t xml:space="preserve">9.89557647705078</t>
   </si>
   <si>
     <t xml:space="preserve">10.197732925415</t>
@@ -983,22 +983,22 @@
     <t xml:space="preserve">11.8973541259766</t>
   </si>
   <si>
-    <t xml:space="preserve">12.086199760437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7093944549561</t>
+    <t xml:space="preserve">12.0862007141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7093954086304</t>
   </si>
   <si>
     <t xml:space="preserve">12.841588973999</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9728937149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9746704101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7291698455811</t>
+    <t xml:space="preserve">11.9728927612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9746694564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7291688919067</t>
   </si>
   <si>
     <t xml:space="preserve">13.8991317749023</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">15.2021751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5034408569336</t>
+    <t xml:space="preserve">14.5034418106079</t>
   </si>
   <si>
     <t xml:space="preserve">15.5609836578369</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">16.2597160339355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6742925643921</t>
+    <t xml:space="preserve">15.6742916107178</t>
   </si>
   <si>
     <t xml:space="preserve">15.22105884552</t>
@@ -1034,31 +1034,31 @@
     <t xml:space="preserve">14.8811349868774</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7300577163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2957096099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3901329040527</t>
+    <t xml:space="preserve">14.7300567626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2957105636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3901338577271</t>
   </si>
   <si>
     <t xml:space="preserve">14.0502090454102</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0690937042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9180164337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3334789276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5789813995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9755582809448</t>
+    <t xml:space="preserve">14.0690927505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9180154800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.333477973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5789804458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9755573272705</t>
   </si>
   <si>
     <t xml:space="preserve">15.258828163147</t>
@@ -2844,6 +2844,9 @@
   </si>
   <si>
     <t xml:space="preserve">17.4200000762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5599994659424</t>
   </si>
 </sst>
 </file>
@@ -42757,7 +42760,7 @@
     </row>
     <row r="1523">
       <c r="A1523" s="1" t="n">
-        <v>45447.6495833333</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B1523" t="n">
         <v>137407</v>
@@ -42778,6 +42781,32 @@
         <v>943</v>
       </c>
       <c r="H1523" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="1" t="n">
+        <v>45448.649525463</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>33260</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>17.6000003814697</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>17.3400001525879</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>17.5400009155273</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>17.5599994659424</v>
+      </c>
+      <c r="G1524" t="s">
+        <v>944</v>
+      </c>
+      <c r="H1524" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71937417984009</t>
+    <t xml:space="preserve">7.71937322616577</t>
   </si>
   <si>
     <t xml:space="preserve">CRL.MI</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">7.953293800354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8597264289856</t>
+    <t xml:space="preserve">7.85972595214844</t>
   </si>
   <si>
     <t xml:space="preserve">7.82978296279907</t>
@@ -59,10 +59,10 @@
     <t xml:space="preserve">8.01692008972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11236000061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81387662887573</t>
+    <t xml:space="preserve">8.11235904693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81387615203857</t>
   </si>
   <si>
     <t xml:space="preserve">8.1217155456543</t>
@@ -71,40 +71,40 @@
     <t xml:space="preserve">7.57995700836182</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43586158752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66229677200317</t>
+    <t xml:space="preserve">7.43586254119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66229724884033</t>
   </si>
   <si>
     <t xml:space="preserve">7.60241317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71001720428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57902193069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66323328018188</t>
+    <t xml:space="preserve">7.71001625061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57902145385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66323232650757</t>
   </si>
   <si>
     <t xml:space="preserve">7.68194627761841</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78674221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9439377784729</t>
+    <t xml:space="preserve">7.78674268722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94393730163574</t>
   </si>
   <si>
     <t xml:space="preserve">8.00007820129395</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0665111541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14978790283203</t>
+    <t xml:space="preserve">8.06651210784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14978694915771</t>
   </si>
   <si>
     <t xml:space="preserve">8.00943374633789</t>
@@ -113,46 +113,46 @@
     <t xml:space="preserve">8.16569328308105</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95703744888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90650987625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99446487426758</t>
+    <t xml:space="preserve">7.95703554153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9065089225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99446392059326</t>
   </si>
   <si>
     <t xml:space="preserve">7.83352661132812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93458032608032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88779592514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03282642364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7015962600708</t>
+    <t xml:space="preserve">7.93458080291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8877968788147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03282833099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70159482955933</t>
   </si>
   <si>
     <t xml:space="preserve">7.81294107437134</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92709636688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8896689414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14043140411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20686531066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26206970214844</t>
+    <t xml:space="preserve">7.92709493637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88966846466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14043045043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20686435699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26206874847412</t>
   </si>
   <si>
     <t xml:space="preserve">8.45481967926025</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">8.61762714385986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64101982116699</t>
+    <t xml:space="preserve">8.64101791381836</t>
   </si>
   <si>
     <t xml:space="preserve">8.91330337524414</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12289524078369</t>
+    <t xml:space="preserve">9.12289619445801</t>
   </si>
   <si>
     <t xml:space="preserve">8.75798034667969</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">8.40242099761963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62417697906494</t>
+    <t xml:space="preserve">8.62417602539062</t>
   </si>
   <si>
     <t xml:space="preserve">8.51470279693604</t>
@@ -188,10 +188,10 @@
     <t xml:space="preserve">8.60827159881592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87026119232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90768909454346</t>
+    <t xml:space="preserve">8.87026214599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90768814086914</t>
   </si>
   <si>
     <t xml:space="preserve">8.77295112609863</t>
@@ -206,25 +206,25 @@
     <t xml:space="preserve">9.16967964172363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0302619934082</t>
+    <t xml:space="preserve">9.03026390075684</t>
   </si>
   <si>
     <t xml:space="preserve">9.28196239471436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31003284454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50652408599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26324939727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28289794921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15470886230469</t>
+    <t xml:space="preserve">9.31003189086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50652503967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26324844360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28289890289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.154709815979</t>
   </si>
   <si>
     <t xml:space="preserve">9.3530740737915</t>
@@ -233,25 +233,25 @@
     <t xml:space="preserve">9.22675609588623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18839359283447</t>
+    <t xml:space="preserve">9.18839263916016</t>
   </si>
   <si>
     <t xml:space="preserve">8.92546653747559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15751647949219</t>
+    <t xml:space="preserve">9.15751552581787</t>
   </si>
   <si>
     <t xml:space="preserve">9.207106590271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0639476776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82909202575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66254043579102</t>
+    <t xml:space="preserve">9.06394863128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82909107208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6625394821167</t>
   </si>
   <si>
     <t xml:space="preserve">8.12732982635498</t>
@@ -263,22 +263,22 @@
     <t xml:space="preserve">8.56148624420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70183944702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74862384796143</t>
+    <t xml:space="preserve">8.70183849334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74862480163574</t>
   </si>
   <si>
     <t xml:space="preserve">8.79540729522705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96850776672363</t>
+    <t xml:space="preserve">8.96850681304932</t>
   </si>
   <si>
     <t xml:space="preserve">8.17598628997803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89247512817383</t>
+    <t xml:space="preserve">7.89247560501099</t>
   </si>
   <si>
     <t xml:space="preserve">8.06557464599609</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">8.93482303619385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93763065338135</t>
+    <t xml:space="preserve">8.93763160705566</t>
   </si>
   <si>
     <t xml:space="preserve">8.91423797607422</t>
@@ -314,10 +314,10 @@
     <t xml:space="preserve">8.49318218231201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71680927276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87868213653564</t>
+    <t xml:space="preserve">8.71681022644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87868309020996</t>
   </si>
   <si>
     <t xml:space="preserve">8.20125007629395</t>
@@ -326,10 +326,10 @@
     <t xml:space="preserve">8.18815040588379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23399829864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33785820007324</t>
+    <t xml:space="preserve">8.2339973449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33785724639893</t>
   </si>
   <si>
     <t xml:space="preserve">8.70464706420898</t>
@@ -338,19 +338,19 @@
     <t xml:space="preserve">8.48663330078125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66441059112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08359718322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2033634185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13786602020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.180908203125</t>
+    <t xml:space="preserve">8.6644115447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08359813690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20336437225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13786697387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18090915679932</t>
   </si>
   <si>
     <t xml:space="preserve">9.31938934326172</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">8.45575428009033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38370609283447</t>
+    <t xml:space="preserve">8.38370704650879</t>
   </si>
   <si>
     <t xml:space="preserve">8.42113494873047</t>
@@ -377,28 +377,28 @@
     <t xml:space="preserve">8.48943901062012</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35002136230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55680751800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42487716674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44920635223389</t>
+    <t xml:space="preserve">8.350022315979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55680847167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42487812042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44920444488525</t>
   </si>
   <si>
     <t xml:space="preserve">8.65505504608154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58955764770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37435054779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50628185272217</t>
+    <t xml:space="preserve">8.58955669403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37434959411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50628280639648</t>
   </si>
   <si>
     <t xml:space="preserve">8.37060737609863</t>
@@ -407,28 +407,28 @@
     <t xml:space="preserve">8.30136775970459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5521297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5802001953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63821220397949</t>
+    <t xml:space="preserve">8.55213069915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58020114898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63821315765381</t>
   </si>
   <si>
     <t xml:space="preserve">8.86839008331299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93107986450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87961769104004</t>
+    <t xml:space="preserve">8.93108177185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87961673736572</t>
   </si>
   <si>
     <t xml:space="preserve">9.2660551071167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23050022125244</t>
+    <t xml:space="preserve">9.23049831390381</t>
   </si>
   <si>
     <t xml:space="preserve">9.06020545959473</t>
@@ -443,22 +443,22 @@
     <t xml:space="preserve">9.21646308898926</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40360164642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37365913391113</t>
+    <t xml:space="preserve">9.40359973907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37365818023682</t>
   </si>
   <si>
     <t xml:space="preserve">9.53272438049316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56640815734863</t>
+    <t xml:space="preserve">9.56640911102295</t>
   </si>
   <si>
     <t xml:space="preserve">9.78535842895508</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82465744018555</t>
+    <t xml:space="preserve">9.82465839385986</t>
   </si>
   <si>
     <t xml:space="preserve">9.87144184112549</t>
@@ -467,22 +467,22 @@
     <t xml:space="preserve">9.76851558685303</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81904315948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4896821975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79284286499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6655912399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68430614471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45412731170654</t>
+    <t xml:space="preserve">9.81904125213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48968315124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79284477233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66559028625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68430423736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45412826538086</t>
   </si>
   <si>
     <t xml:space="preserve">9.63564872741699</t>
@@ -494,37 +494,37 @@
     <t xml:space="preserve">9.2950611114502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43166923522949</t>
+    <t xml:space="preserve">9.43167018890381</t>
   </si>
   <si>
     <t xml:space="preserve">9.31377506256104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22582054138184</t>
+    <t xml:space="preserve">9.22581958770752</t>
   </si>
   <si>
     <t xml:space="preserve">9.10418224334717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53060913085938</t>
+    <t xml:space="preserve">8.53061008453369</t>
   </si>
   <si>
     <t xml:space="preserve">8.9198522567749</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17061424255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35681819915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13225173950195</t>
+    <t xml:space="preserve">9.17061519622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3568172454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13225269317627</t>
   </si>
   <si>
     <t xml:space="preserve">9.27260589599609</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61880588531494</t>
+    <t xml:space="preserve">9.61880683898926</t>
   </si>
   <si>
     <t xml:space="preserve">9.56266689300537</t>
@@ -533,31 +533,31 @@
     <t xml:space="preserve">9.91822528839111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6375207901001</t>
+    <t xml:space="preserve">9.63752174377441</t>
   </si>
   <si>
     <t xml:space="preserve">9.71237468719482</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93693923950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86208534240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0866460800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1802158355713</t>
+    <t xml:space="preserve">9.93693828582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86208438873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0866470336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1802167892456</t>
   </si>
   <si>
     <t xml:space="preserve">10.2363567352295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97436618804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1053628921509</t>
+    <t xml:space="preserve">9.974365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1053619384766</t>
   </si>
   <si>
     <t xml:space="preserve">9.99307918548584</t>
@@ -566,43 +566,43 @@
     <t xml:space="preserve">10.1240758895874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.255069732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2924976348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8433723449707</t>
+    <t xml:space="preserve">10.2550706863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.292498588562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84337139129639</t>
   </si>
   <si>
     <t xml:space="preserve">9.95565319061279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.011794090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.049220085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3299255371094</t>
+    <t xml:space="preserve">10.0117931365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0492210388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3299245834351</t>
   </si>
   <si>
     <t xml:space="preserve">10.3486385345459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4983491897583</t>
+    <t xml:space="preserve">10.498348236084</t>
   </si>
   <si>
     <t xml:space="preserve">10.217643737793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1989297866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3112115859985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.704197883606</t>
+    <t xml:space="preserve">10.1989288330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3112106323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7041988372803</t>
   </si>
   <si>
     <t xml:space="preserve">10.7977657318115</t>
@@ -611,34 +611,34 @@
     <t xml:space="preserve">10.8539056777954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9287614822388</t>
+    <t xml:space="preserve">10.9287624359131</t>
   </si>
   <si>
     <t xml:space="preserve">10.6106300354004</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6667709350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6293420791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5170621871948</t>
+    <t xml:space="preserve">10.6667718887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6293430328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5170612335205</t>
   </si>
   <si>
     <t xml:space="preserve">10.1615028381348</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0305061340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3676948547363</t>
+    <t xml:space="preserve">10.0305070877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.367693901062</t>
   </si>
   <si>
     <t xml:space="preserve">10.1221933364868</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0655393600464</t>
+    <t xml:space="preserve">10.0655384063721</t>
   </si>
   <si>
     <t xml:space="preserve">10.1033086776733</t>
@@ -650,22 +650,22 @@
     <t xml:space="preserve">10.3865785598755</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4054622650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2732706069946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0844240188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.235502243042</t>
+    <t xml:space="preserve">10.4054641723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2732715606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0844230651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2355003356934</t>
   </si>
   <si>
     <t xml:space="preserve">9.91446208953857</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0466537475586</t>
+    <t xml:space="preserve">10.0466547012329</t>
   </si>
   <si>
     <t xml:space="preserve">10.3488101959229</t>
@@ -674,13 +674,13 @@
     <t xml:space="preserve">10.7453880310059</t>
   </si>
   <si>
-    <t xml:space="preserve">10.594310760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6131954193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5754261016846</t>
+    <t xml:space="preserve">10.5943098068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6131944656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5754270553589</t>
   </si>
   <si>
     <t xml:space="preserve">10.5565414428711</t>
@@ -689,13 +689,13 @@
     <t xml:space="preserve">10.008885383606</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4998874664307</t>
+    <t xml:space="preserve">10.4998865127563</t>
   </si>
   <si>
     <t xml:space="preserve">10.2166175842285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9900016784668</t>
+    <t xml:space="preserve">9.99000072479248</t>
   </si>
   <si>
     <t xml:space="preserve">10.2543869018555</t>
@@ -704,19 +704,19 @@
     <t xml:space="preserve">10.2921543121338</t>
   </si>
   <si>
-    <t xml:space="preserve">9.971116065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4432334899902</t>
+    <t xml:space="preserve">9.97111511230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4432315826416</t>
   </si>
   <si>
     <t xml:space="preserve">11.0475435256958</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6698474884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2750473022461</t>
+    <t xml:space="preserve">10.6698484420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2750482559204</t>
   </si>
   <si>
     <t xml:space="preserve">11.3685827255249</t>
@@ -734,16 +734,16 @@
     <t xml:space="preserve">11.8406991958618</t>
   </si>
   <si>
-    <t xml:space="preserve">11.727391242981</t>
+    <t xml:space="preserve">11.7273931503296</t>
   </si>
   <si>
     <t xml:space="preserve">12.180624961853</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3694705963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4638948440552</t>
+    <t xml:space="preserve">12.3694715499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4638938903809</t>
   </si>
   <si>
     <t xml:space="preserve">12.6716260910034</t>
@@ -752,19 +752,19 @@
     <t xml:space="preserve">12.8227043151855</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4072408676147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.78404712677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8029317855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9540090560913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6896238327026</t>
+    <t xml:space="preserve">12.4072399139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7840461730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8029308319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.954008102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.689621925354</t>
   </si>
   <si>
     <t xml:space="preserve">12.1428537368774</t>
@@ -776,10 +776,10 @@
     <t xml:space="preserve">12.388355255127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4450092315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7471647262573</t>
+    <t xml:space="preserve">12.4450101852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7471656799316</t>
   </si>
   <si>
     <t xml:space="preserve">12.9171276092529</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">13.502552986145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5969762802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7480535507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3145942687988</t>
+    <t xml:space="preserve">13.5969772338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7480545043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3145933151245</t>
   </si>
   <si>
     <t xml:space="preserve">13.7102832794189</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">12.614972114563</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5772037506104</t>
+    <t xml:space="preserve">12.577202796936</t>
   </si>
   <si>
     <t xml:space="preserve">12.5205488204956</t>
@@ -824,13 +824,13 @@
     <t xml:space="preserve">12.4261264801025</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5016641616821</t>
+    <t xml:space="preserve">12.5016651153564</t>
   </si>
   <si>
     <t xml:space="preserve">14.8622493743896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1635179519653</t>
+    <t xml:space="preserve">14.163516998291</t>
   </si>
   <si>
     <t xml:space="preserve">13.6536302566528</t>
@@ -842,10 +842,10 @@
     <t xml:space="preserve">13.0870895385742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9360122680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7849349975586</t>
+    <t xml:space="preserve">12.9360113143921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7849340438843</t>
   </si>
   <si>
     <t xml:space="preserve">12.5960884094238</t>
@@ -872,28 +872,28 @@
     <t xml:space="preserve">13.2948207855225</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8793573379517</t>
+    <t xml:space="preserve">12.879358291626</t>
   </si>
   <si>
     <t xml:space="preserve">12.5394334793091</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6905117034912</t>
+    <t xml:space="preserve">12.6905107498169</t>
   </si>
   <si>
     <t xml:space="preserve">12.6527414321899</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0673170089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9917774200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5007753372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2175045013428</t>
+    <t xml:space="preserve">12.0673160552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9917783737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5007762908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2175035476685</t>
   </si>
   <si>
     <t xml:space="preserve">11.293044090271</t>
@@ -905,16 +905,16 @@
     <t xml:space="preserve">10.9531192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5196599960327</t>
+    <t xml:space="preserve">11.519660949707</t>
   </si>
   <si>
     <t xml:space="preserve">11.3308134078979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4818906784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4252376556396</t>
+    <t xml:space="preserve">11.4818897247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4252367019653</t>
   </si>
   <si>
     <t xml:space="preserve">11.5763139724731</t>
@@ -932,10 +932,10 @@
     <t xml:space="preserve">9.0457649230957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72561645507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87580394744873</t>
+    <t xml:space="preserve">9.72561550140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87580490112305</t>
   </si>
   <si>
     <t xml:space="preserve">8.97022724151611</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">8.35647487640381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39424514770508</t>
+    <t xml:space="preserve">8.39424419403076</t>
   </si>
   <si>
     <t xml:space="preserve">8.34703254699707</t>
@@ -956,40 +956,40 @@
     <t xml:space="preserve">8.59253311157227</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82003974914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9153490066528</t>
+    <t xml:space="preserve">9.82003784179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9153499603271</t>
   </si>
   <si>
     <t xml:space="preserve">9.95223140716553</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4810028076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4243478775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89557647705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.197732925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8964653015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8973541259766</t>
+    <t xml:space="preserve">10.4810037612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4243488311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89557552337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1977338790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.896466255188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8973550796509</t>
   </si>
   <si>
     <t xml:space="preserve">12.0862007141113</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7093954086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.841588973999</t>
+    <t xml:space="preserve">12.7093963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8415880203247</t>
   </si>
   <si>
     <t xml:space="preserve">11.9728927612305</t>
@@ -1004,25 +1004,25 @@
     <t xml:space="preserve">13.8991317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1644048690796</t>
+    <t xml:space="preserve">15.1644058227539</t>
   </si>
   <si>
     <t xml:space="preserve">15.3154830932617</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2021751403809</t>
+    <t xml:space="preserve">15.2021741867065</t>
   </si>
   <si>
     <t xml:space="preserve">14.5034418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5609836578369</t>
+    <t xml:space="preserve">15.5609827041626</t>
   </si>
   <si>
     <t xml:space="preserve">16.0331020355225</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2597160339355</t>
+    <t xml:space="preserve">16.2597179412842</t>
   </si>
   <si>
     <t xml:space="preserve">15.6742916107178</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">14.8811349868774</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7300567626953</t>
+    <t xml:space="preserve">14.7300577163696</t>
   </si>
   <si>
     <t xml:space="preserve">14.2957105636597</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">14.3901338577271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0502090454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0690927505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9180154800415</t>
+    <t xml:space="preserve">14.0502080917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0690937042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9180164337158</t>
   </si>
   <si>
     <t xml:space="preserve">14.333477973938</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">14.5789804458618</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9755573272705</t>
+    <t xml:space="preserve">14.9755582809448</t>
   </si>
   <si>
     <t xml:space="preserve">15.258828163147</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">15.068567276001</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1636981964111</t>
+    <t xml:space="preserve">15.1636991500854</t>
   </si>
   <si>
     <t xml:space="preserve">15.049542427063</t>
@@ -1091,19 +1091,19 @@
     <t xml:space="preserve">15.6012964248657</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2778539657593</t>
+    <t xml:space="preserve">15.2778549194336</t>
   </si>
   <si>
     <t xml:space="preserve">14.8783102035522</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3539590835571</t>
+    <t xml:space="preserve">15.3539581298828</t>
   </si>
   <si>
     <t xml:space="preserve">15.1827249526978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9163618087769</t>
+    <t xml:space="preserve">14.9163608551025</t>
   </si>
   <si>
     <t xml:space="preserve">15.4110374450684</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">14.7451276779175</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8486328125</t>
+    <t xml:space="preserve">15.8486318588257</t>
   </si>
   <si>
     <t xml:space="preserve">16.4574642181396</t>
@@ -1136,16 +1136,16 @@
     <t xml:space="preserve">17.9985694885254</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0282421112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1804523468018</t>
+    <t xml:space="preserve">17.0282440185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1804504394531</t>
   </si>
   <si>
     <t xml:space="preserve">17.7512302398682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7322044372559</t>
+    <t xml:space="preserve">17.7322063446045</t>
   </si>
   <si>
     <t xml:space="preserve">17.7131786346436</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">18.6073989868164</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6454524993896</t>
+    <t xml:space="preserve">18.6454544067383</t>
   </si>
   <si>
     <t xml:space="preserve">17.9795436859131</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">19.025972366333</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5016174316406</t>
+    <t xml:space="preserve">19.5016193389893</t>
   </si>
   <si>
     <t xml:space="preserve">18.6644763946533</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">18.2839584350586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.78928565979</t>
+    <t xml:space="preserve">17.7892837524414</t>
   </si>
   <si>
     <t xml:space="preserve">18.1317501068115</t>
@@ -1244,19 +1244,19 @@
     <t xml:space="preserve">17.0092182159424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6287002563477</t>
+    <t xml:space="preserve">16.628698348999</t>
   </si>
   <si>
     <t xml:space="preserve">16.7999324798584</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6667518615723</t>
+    <t xml:space="preserve">16.6667499542236</t>
   </si>
   <si>
     <t xml:space="preserve">16.6477241516113</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9901905059814</t>
+    <t xml:space="preserve">16.9901924133301</t>
   </si>
   <si>
     <t xml:space="preserve">16.9331130981445</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">17.0662975311279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1233730316162</t>
+    <t xml:space="preserve">17.1233749389648</t>
   </si>
   <si>
     <t xml:space="preserve">17.1043472290039</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">15.7154521942139</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2398042678833</t>
+    <t xml:space="preserve">15.239803314209</t>
   </si>
   <si>
     <t xml:space="preserve">14.9544124603271</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">14.8022050857544</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6370754241943</t>
+    <t xml:space="preserve">17.637077331543</t>
   </si>
   <si>
     <t xml:space="preserve">16.8189582824707</t>
@@ -1304,16 +1304,16 @@
     <t xml:space="preserve">16.5335693359375</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7809047698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1424007415771</t>
+    <t xml:space="preserve">16.7809066772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1423988342285</t>
   </si>
   <si>
     <t xml:space="preserve">16.7428531646729</t>
   </si>
   <si>
-    <t xml:space="preserve">17.256555557251</t>
+    <t xml:space="preserve">17.2565574645996</t>
   </si>
   <si>
     <t xml:space="preserve">17.3897380828857</t>
@@ -1337,22 +1337,22 @@
     <t xml:space="preserve">18.8737640380859</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2459030151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3790874481201</t>
+    <t xml:space="preserve">18.2459049224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3790893554688</t>
   </si>
   <si>
     <t xml:space="preserve">16.8760375976562</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0472717285156</t>
+    <t xml:space="preserve">17.047269821167</t>
   </si>
   <si>
     <t xml:space="preserve">16.8570117950439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6096725463867</t>
+    <t xml:space="preserve">16.6096744537354</t>
   </si>
   <si>
     <t xml:space="preserve">17.3326606750488</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">16.0388946533203</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8866853713989</t>
+    <t xml:space="preserve">15.8866844177246</t>
   </si>
   <si>
     <t xml:space="preserve">16.3052597045898</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">15.1256484985352</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7915554046631</t>
+    <t xml:space="preserve">15.7915563583374</t>
   </si>
   <si>
     <t xml:space="preserve">15.9247369766235</t>
@@ -1403,13 +1403,13 @@
     <t xml:space="preserve">15.8105821609497</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0008411407471</t>
+    <t xml:space="preserve">16.0008430480957</t>
   </si>
   <si>
     <t xml:space="preserve">15.7535047531128</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7344779968262</t>
+    <t xml:space="preserve">15.7344770431519</t>
   </si>
   <si>
     <t xml:space="preserve">15.9437637329102</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">16.1530494689941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5145416259766</t>
+    <t xml:space="preserve">16.5145435333252</t>
   </si>
   <si>
     <t xml:space="preserve">17.408763885498</t>
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">17.8844127655029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9224643707275</t>
+    <t xml:space="preserve">17.9224624633789</t>
   </si>
   <si>
     <t xml:space="preserve">18.0746726989746</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">20.1675300598145</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7870121002197</t>
+    <t xml:space="preserve">19.7870101928711</t>
   </si>
   <si>
     <t xml:space="preserve">19.8821392059326</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">20.3577880859375</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9285678863525</t>
+    <t xml:space="preserve">20.9285697937012</t>
   </si>
   <si>
     <t xml:space="preserve">20.833438873291</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">20.6431789398193</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5004825592041</t>
+    <t xml:space="preserve">20.5004844665527</t>
   </si>
   <si>
     <t xml:space="preserve">20.3102226257324</t>
@@ -1499,7 +1499,7 @@
     <t xml:space="preserve">21.0236988067627</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5944786071777</t>
+    <t xml:space="preserve">21.5944766998291</t>
   </si>
   <si>
     <t xml:space="preserve">21.9749984741211</t>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -47,100 +47,100 @@
     <t xml:space="preserve">8.04686069488525</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95329427719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85972690582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82978296279907</t>
+    <t xml:space="preserve">7.95329332351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85972595214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82978248596191</t>
   </si>
   <si>
     <t xml:space="preserve">8.01692008972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11236095428467</t>
+    <t xml:space="preserve">8.11235904693604</t>
   </si>
   <si>
     <t xml:space="preserve">7.81387662887573</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12171459197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57995796203613</t>
+    <t xml:space="preserve">8.12171649932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57995700836182</t>
   </si>
   <si>
     <t xml:space="preserve">7.43586206436157</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66229677200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60241365432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71001720428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57902145385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66323232650757</t>
+    <t xml:space="preserve">7.66229724884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60241317749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71001577377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57902097702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66323280334473</t>
   </si>
   <si>
     <t xml:space="preserve">7.68194627761841</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78674173355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94393730163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00007820129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06651210784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14978694915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00943374633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16569423675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95703744888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90650987625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99446487426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83352565765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93457984924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8877968788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03282737731934</t>
+    <t xml:space="preserve">7.78674221038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94393682479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00007724761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0665111541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14978885650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00943470001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16569328308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95703601837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9065089225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9944634437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83352613449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93458127975464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88779640197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03282833099365</t>
   </si>
   <si>
     <t xml:space="preserve">7.70159530639648</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8129415512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92709541320801</t>
+    <t xml:space="preserve">7.81294107437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92709589004517</t>
   </si>
   <si>
     <t xml:space="preserve">7.88966798782349</t>
@@ -155,19 +155,19 @@
     <t xml:space="preserve">8.26206874847412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45481967926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61762809753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64101982116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91330337524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12289524078369</t>
+    <t xml:space="preserve">8.45481872558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61762714385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64101886749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91330242156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12289619445801</t>
   </si>
   <si>
     <t xml:space="preserve">8.75797939300537</t>
@@ -182,37 +182,37 @@
     <t xml:space="preserve">8.62417602539062</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51470375061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6082706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87026023864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90768909454346</t>
+    <t xml:space="preserve">8.51470279693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60827159881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87026214599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90768814086914</t>
   </si>
   <si>
     <t xml:space="preserve">8.77295112609863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82347869873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9544734954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16968059539795</t>
+    <t xml:space="preserve">8.82347679138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95447254180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16967868804932</t>
   </si>
   <si>
     <t xml:space="preserve">9.03026294708252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28196334838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31003189086914</t>
+    <t xml:space="preserve">9.28196239471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31003093719482</t>
   </si>
   <si>
     <t xml:space="preserve">9.50652503967285</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">9.26324844360352</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28289604187012</t>
+    <t xml:space="preserve">9.28289794921875</t>
   </si>
   <si>
     <t xml:space="preserve">9.15470886230469</t>
@@ -233,19 +233,19 @@
     <t xml:space="preserve">9.22675609588623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18839359283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92546558380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15751552581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.207106590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06394672393799</t>
+    <t xml:space="preserve">9.18839263916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92546653747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15751647949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20710754394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06394863128662</t>
   </si>
   <si>
     <t xml:space="preserve">8.82909202575684</t>
@@ -257,55 +257,55 @@
     <t xml:space="preserve">8.12732982635498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45762634277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56148719787598</t>
+    <t xml:space="preserve">8.45762729644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56148624420166</t>
   </si>
   <si>
     <t xml:space="preserve">8.70183849334717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74862384796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79540729522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96850872039795</t>
+    <t xml:space="preserve">8.74862480163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79540824890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96850776672363</t>
   </si>
   <si>
     <t xml:space="preserve">8.17598628997803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89247560501099</t>
+    <t xml:space="preserve">7.89247608184814</t>
   </si>
   <si>
     <t xml:space="preserve">8.06557464599609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49411678314209</t>
+    <t xml:space="preserve">8.49411869049072</t>
   </si>
   <si>
     <t xml:space="preserve">8.93482303619385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93763065338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91423892974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66066837310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7561092376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85997009277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73365211486816</t>
+    <t xml:space="preserve">8.93763160705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91423797607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66066932678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75610828399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85996913909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73365306854248</t>
   </si>
   <si>
     <t xml:space="preserve">8.54558086395264</t>
@@ -314,10 +314,10 @@
     <t xml:space="preserve">8.49318313598633</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71681118011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87868309020996</t>
+    <t xml:space="preserve">8.71681022644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87868213653564</t>
   </si>
   <si>
     <t xml:space="preserve">8.20125007629395</t>
@@ -326,46 +326,46 @@
     <t xml:space="preserve">8.18815040588379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23399925231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33785820007324</t>
+    <t xml:space="preserve">8.2339973449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33785724639893</t>
   </si>
   <si>
     <t xml:space="preserve">8.70464611053467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48663330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66441059112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08359813690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2033634185791</t>
+    <t xml:space="preserve">8.48663234710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6644115447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08359718322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20336437225342</t>
   </si>
   <si>
     <t xml:space="preserve">9.13786697387695</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18090915679932</t>
+    <t xml:space="preserve">9.180908203125</t>
   </si>
   <si>
     <t xml:space="preserve">9.31939029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01061344146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24453353881836</t>
+    <t xml:space="preserve">9.01061630249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24453449249268</t>
   </si>
   <si>
     <t xml:space="preserve">9.01716423034668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45575523376465</t>
+    <t xml:space="preserve">8.45575428009033</t>
   </si>
   <si>
     <t xml:space="preserve">8.38370704650879</t>
@@ -377,19 +377,19 @@
     <t xml:space="preserve">8.48943901062012</t>
   </si>
   <si>
-    <t xml:space="preserve">8.350022315979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55680751800537</t>
+    <t xml:space="preserve">8.35002136230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55680847167969</t>
   </si>
   <si>
     <t xml:space="preserve">8.42487716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44920539855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65505409240723</t>
+    <t xml:space="preserve">8.44920444488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65505504608154</t>
   </si>
   <si>
     <t xml:space="preserve">8.58955669403076</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">8.37434959411621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50628280639648</t>
+    <t xml:space="preserve">8.50628185272217</t>
   </si>
   <si>
     <t xml:space="preserve">8.37060737609863</t>
@@ -410,16 +410,16 @@
     <t xml:space="preserve">8.55213069915771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5802001953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63821220397949</t>
+    <t xml:space="preserve">8.58020114898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63821315765381</t>
   </si>
   <si>
     <t xml:space="preserve">8.86839008331299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93107986450195</t>
+    <t xml:space="preserve">8.93108081817627</t>
   </si>
   <si>
     <t xml:space="preserve">8.87961769104004</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">9.2660551071167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23049926757812</t>
+    <t xml:space="preserve">9.23049831390381</t>
   </si>
   <si>
     <t xml:space="preserve">9.06020450592041</t>
@@ -440,55 +440,55 @@
     <t xml:space="preserve">9.14067363739014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21646308898926</t>
+    <t xml:space="preserve">9.21646404266357</t>
   </si>
   <si>
     <t xml:space="preserve">9.40360069274902</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37365818023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53272533416748</t>
+    <t xml:space="preserve">9.37365913391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53272342681885</t>
   </si>
   <si>
     <t xml:space="preserve">9.56640911102295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78535842895508</t>
+    <t xml:space="preserve">9.78535938262939</t>
   </si>
   <si>
     <t xml:space="preserve">9.82465744018555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87144184112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76851558685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81904315948486</t>
+    <t xml:space="preserve">9.8714427947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76851654052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81904220581055</t>
   </si>
   <si>
     <t xml:space="preserve">9.4896821975708</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79284477233887</t>
+    <t xml:space="preserve">9.79284381866455</t>
   </si>
   <si>
     <t xml:space="preserve">9.6655912399292</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68430519104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45412731170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63564968109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50090980529785</t>
+    <t xml:space="preserve">9.68430423736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45412826538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63564872741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50091075897217</t>
   </si>
   <si>
     <t xml:space="preserve">9.29506206512451</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">9.22582054138184</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10418128967285</t>
+    <t xml:space="preserve">9.10418224334717</t>
   </si>
   <si>
     <t xml:space="preserve">8.53061008453369</t>
@@ -512,19 +512,19 @@
     <t xml:space="preserve">8.9198522567749</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17061424255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3568172454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13225173950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27260684967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61880683898926</t>
+    <t xml:space="preserve">9.17061519622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35681629180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13225269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27260589599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61880493164062</t>
   </si>
   <si>
     <t xml:space="preserve">9.56266593933105</t>
@@ -551,28 +551,28 @@
     <t xml:space="preserve">10.1802167892456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2363576889038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97436618804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1053638458252</t>
+    <t xml:space="preserve">10.2363567352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.974365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1053628921509</t>
   </si>
   <si>
     <t xml:space="preserve">9.99307918548584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1240768432617</t>
+    <t xml:space="preserve">10.1240758895874</t>
   </si>
   <si>
     <t xml:space="preserve">10.2550706863403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2924966812134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84337043762207</t>
+    <t xml:space="preserve">10.292498588562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84337139129639</t>
   </si>
   <si>
     <t xml:space="preserve">9.95565223693848</t>
@@ -581,22 +581,22 @@
     <t xml:space="preserve">10.011794090271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0492210388184</t>
+    <t xml:space="preserve">10.049220085144</t>
   </si>
   <si>
     <t xml:space="preserve">10.3299245834351</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3486385345459</t>
+    <t xml:space="preserve">10.3486375808716</t>
   </si>
   <si>
     <t xml:space="preserve">10.4983472824097</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2176427841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1989288330078</t>
+    <t xml:space="preserve">10.217643737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1989307403564</t>
   </si>
   <si>
     <t xml:space="preserve">10.3112106323242</t>
@@ -608,16 +608,16 @@
     <t xml:space="preserve">10.7977657318115</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8539066314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9287605285645</t>
+    <t xml:space="preserve">10.8539056777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9287614822388</t>
   </si>
   <si>
     <t xml:space="preserve">10.6106300354004</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6667709350586</t>
+    <t xml:space="preserve">10.6667718887329</t>
   </si>
   <si>
     <t xml:space="preserve">10.6293430328369</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">10.3676948547363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1221923828125</t>
+    <t xml:space="preserve">10.1221933364868</t>
   </si>
   <si>
     <t xml:space="preserve">10.0655384063721</t>
@@ -647,19 +647,19 @@
     <t xml:space="preserve">10.1788463592529</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3865795135498</t>
+    <t xml:space="preserve">10.3865785598755</t>
   </si>
   <si>
     <t xml:space="preserve">10.405463218689</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2732715606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0844240188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2355003356934</t>
+    <t xml:space="preserve">10.2732706069946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0844221115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2355012893677</t>
   </si>
   <si>
     <t xml:space="preserve">9.91446208953857</t>
@@ -674,28 +674,28 @@
     <t xml:space="preserve">10.7453880310059</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5943098068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6131954193115</t>
+    <t xml:space="preserve">10.594310760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6131944656372</t>
   </si>
   <si>
     <t xml:space="preserve">10.5754270553589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5565414428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0088844299316</t>
+    <t xml:space="preserve">10.5565423965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.008885383606</t>
   </si>
   <si>
     <t xml:space="preserve">10.4998874664307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2166175842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99000072479248</t>
+    <t xml:space="preserve">10.2166166305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9900016784668</t>
   </si>
   <si>
     <t xml:space="preserve">10.2543869018555</t>
@@ -722,16 +722,16 @@
     <t xml:space="preserve">11.3685836791992</t>
   </si>
   <si>
-    <t xml:space="preserve">11.821816444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6140851974487</t>
+    <t xml:space="preserve">11.8218154907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6140842437744</t>
   </si>
   <si>
     <t xml:space="preserve">11.7462759017944</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8407001495361</t>
+    <t xml:space="preserve">11.8406991958618</t>
   </si>
   <si>
     <t xml:space="preserve">11.7273931503296</t>
@@ -740,16 +740,16 @@
     <t xml:space="preserve">12.180624961853</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3694705963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4638957977295</t>
+    <t xml:space="preserve">12.3694715499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4638948440552</t>
   </si>
   <si>
     <t xml:space="preserve">12.6716260910034</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8227043151855</t>
+    <t xml:space="preserve">12.8227033615112</t>
   </si>
   <si>
     <t xml:space="preserve">12.4072399139404</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">11.7840461730957</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8029298782349</t>
+    <t xml:space="preserve">11.8029308319092</t>
   </si>
   <si>
     <t xml:space="preserve">11.954008102417</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">11.689621925354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1428546905518</t>
+    <t xml:space="preserve">12.1428537368774</t>
   </si>
   <si>
     <t xml:space="preserve">12.3317022323608</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">12.5772037506104</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5205497741699</t>
+    <t xml:space="preserve">12.5205488204956</t>
   </si>
   <si>
     <t xml:space="preserve">12.6338577270508</t>
@@ -824,49 +824,49 @@
     <t xml:space="preserve">12.4261255264282</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5016641616821</t>
+    <t xml:space="preserve">12.5016651153564</t>
   </si>
   <si>
     <t xml:space="preserve">14.862250328064</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1635179519653</t>
+    <t xml:space="preserve">14.163516998291</t>
   </si>
   <si>
     <t xml:space="preserve">13.6536302566528</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4081296920776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0870885848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9360122680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7849340438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5960874557495</t>
+    <t xml:space="preserve">13.408130645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0870895385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9360113143921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7849349975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5960884094238</t>
   </si>
   <si>
     <t xml:space="preserve">13.0115509033203</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0493211746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1248598098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.332592010498</t>
+    <t xml:space="preserve">13.0493202209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1248588562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3325929641724</t>
   </si>
   <si>
     <t xml:space="preserve">13.3137063980103</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5780916213989</t>
+    <t xml:space="preserve">13.5780906677246</t>
   </si>
   <si>
     <t xml:space="preserve">13.2948207855225</t>
@@ -884,10 +884,10 @@
     <t xml:space="preserve">12.6527414321899</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0673160552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9917774200439</t>
+    <t xml:space="preserve">12.0673170089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9917783737183</t>
   </si>
   <si>
     <t xml:space="preserve">11.5007753372192</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">11.2175045013428</t>
   </si>
   <si>
-    <t xml:space="preserve">11.293044090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2363891601562</t>
+    <t xml:space="preserve">11.2930450439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2363901138306</t>
   </si>
   <si>
     <t xml:space="preserve">10.9531183242798</t>
@@ -908,31 +908,31 @@
     <t xml:space="preserve">11.5196599960327</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3308134078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4818906784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4252376556396</t>
+    <t xml:space="preserve">11.3308143615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4818897247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4252367019653</t>
   </si>
   <si>
     <t xml:space="preserve">11.5763130187988</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3119287490845</t>
+    <t xml:space="preserve">11.3119277954102</t>
   </si>
   <si>
     <t xml:space="preserve">9.59342193603516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57453727722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04576587677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72561454772949</t>
+    <t xml:space="preserve">9.57453632354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0457649230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72561550140381</t>
   </si>
   <si>
     <t xml:space="preserve">8.87580394744873</t>
@@ -953,13 +953,13 @@
     <t xml:space="preserve">8.68695735931396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59253311157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82003784179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9153509140015</t>
+    <t xml:space="preserve">8.59253406524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82003879547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9153499603271</t>
   </si>
   <si>
     <t xml:space="preserve">9.95223140716553</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">10.4810028076172</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4243478775024</t>
+    <t xml:space="preserve">10.4243488311768</t>
   </si>
   <si>
     <t xml:space="preserve">9.89557647705078</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1977338790894</t>
+    <t xml:space="preserve">10.197732925415</t>
   </si>
   <si>
     <t xml:space="preserve">10.8964653015137</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">12.0862007141113</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7093954086304</t>
+    <t xml:space="preserve">12.7093963623047</t>
   </si>
   <si>
     <t xml:space="preserve">12.8415880203247</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9728927612305</t>
+    <t xml:space="preserve">11.9728937149048</t>
   </si>
   <si>
     <t xml:space="preserve">13.9746704101562</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">13.7291688919067</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8991317749023</t>
+    <t xml:space="preserve">13.899130821228</t>
   </si>
   <si>
     <t xml:space="preserve">15.1644048690796</t>
   </si>
   <si>
-    <t xml:space="preserve">15.315484046936</t>
+    <t xml:space="preserve">15.3154830932617</t>
   </si>
   <si>
     <t xml:space="preserve">15.2021741867065</t>
@@ -1016,13 +1016,13 @@
     <t xml:space="preserve">14.5034418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5609827041626</t>
+    <t xml:space="preserve">15.5609836578369</t>
   </si>
   <si>
     <t xml:space="preserve">16.0331020355225</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2597179412842</t>
+    <t xml:space="preserve">16.2597160339355</t>
   </si>
   <si>
     <t xml:space="preserve">15.6742916107178</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">15.22105884552</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8811349868774</t>
+    <t xml:space="preserve">14.8811359405518</t>
   </si>
   <si>
     <t xml:space="preserve">14.7300577163696</t>
@@ -1040,19 +1040,19 @@
     <t xml:space="preserve">14.2957096099854</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3901338577271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0502080917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0690927505493</t>
+    <t xml:space="preserve">14.3901329040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0502090454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0690937042236</t>
   </si>
   <si>
     <t xml:space="preserve">13.9180164337158</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3334789276123</t>
+    <t xml:space="preserve">14.333477973938</t>
   </si>
   <si>
     <t xml:space="preserve">14.5789804458618</t>
@@ -1064,13 +1064,13 @@
     <t xml:space="preserve">15.258828163147</t>
   </si>
   <si>
-    <t xml:space="preserve">14.821231842041</t>
+    <t xml:space="preserve">14.8212308883667</t>
   </si>
   <si>
     <t xml:space="preserve">15.0685682296753</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1636981964111</t>
+    <t xml:space="preserve">15.1636991500854</t>
   </si>
   <si>
     <t xml:space="preserve">15.049542427063</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">15.030517578125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5442180633545</t>
+    <t xml:space="preserve">15.5442171096802</t>
   </si>
   <si>
     <t xml:space="preserve">15.5061664581299</t>
@@ -1088,64 +1088,64 @@
     <t xml:space="preserve">15.6964263916016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6012954711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2778539657593</t>
+    <t xml:space="preserve">15.6012964248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2778549194336</t>
   </si>
   <si>
     <t xml:space="preserve">14.8783092498779</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3539590835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1827249526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9163618087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.411036491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2017517089844</t>
+    <t xml:space="preserve">15.3539581298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1827259063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9163608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4110374450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2017507553101</t>
   </si>
   <si>
     <t xml:space="preserve">15.2968807220459</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6773996353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2207775115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7451267242432</t>
+    <t xml:space="preserve">15.6774005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2207765579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7451286315918</t>
   </si>
   <si>
     <t xml:space="preserve">15.8486328125</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4574661254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2755832672119</t>
+    <t xml:space="preserve">16.4574642181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2755813598633</t>
   </si>
   <si>
     <t xml:space="preserve">17.9985694885254</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0282421112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1804523468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7512321472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7322044372559</t>
+    <t xml:space="preserve">17.0282440185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1804504394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7512302398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7322063446045</t>
   </si>
   <si>
     <t xml:space="preserve">17.7131786346436</t>
@@ -1157,10 +1157,10 @@
     <t xml:space="preserve">18.3410358428955</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2078552246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6073989868164</t>
+    <t xml:space="preserve">18.2078533172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.607400894165</t>
   </si>
   <si>
     <t xml:space="preserve">18.6454524993896</t>
@@ -1175,16 +1175,16 @@
     <t xml:space="preserve">18.3220119476318</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0259704589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5016174316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6644763946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5503215789795</t>
+    <t xml:space="preserve">19.025972366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5016193389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.664478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5503196716309</t>
   </si>
   <si>
     <t xml:space="preserve">18.3600616455078</t>
@@ -1196,46 +1196,46 @@
     <t xml:space="preserve">18.2839584350586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.78928565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1317481994629</t>
+    <t xml:space="preserve">17.7892818450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1317501068115</t>
   </si>
   <si>
     <t xml:space="preserve">17.2375297546387</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9711647033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1149978637695</t>
+    <t xml:space="preserve">16.9711666107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1149959564209</t>
   </si>
   <si>
     <t xml:space="preserve">16.7618808746338</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2481803894043</t>
+    <t xml:space="preserve">16.2481784820557</t>
   </si>
   <si>
     <t xml:space="preserve">15.6583738327026</t>
   </si>
   <si>
-    <t xml:space="preserve">16.057918548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.837984085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8950614929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5906467437744</t>
+    <t xml:space="preserve">16.0579204559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8379859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8950634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5906448364258</t>
   </si>
   <si>
     <t xml:space="preserve">16.7238292694092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5716209411621</t>
+    <t xml:space="preserve">16.5716228485107</t>
   </si>
   <si>
     <t xml:space="preserve">17.1614246368408</t>
@@ -1247,10 +1247,10 @@
     <t xml:space="preserve">16.628698348999</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7999305725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6667518615723</t>
+    <t xml:space="preserve">16.7999324798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6667499542236</t>
   </si>
   <si>
     <t xml:space="preserve">16.6477241516113</t>
@@ -1259,16 +1259,16 @@
     <t xml:space="preserve">16.9901924133301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9331130981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9140892028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0662956237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1233749389648</t>
+    <t xml:space="preserve">16.9331150054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9140872955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0662975311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1233730316162</t>
   </si>
   <si>
     <t xml:space="preserve">17.1043472290039</t>
@@ -1280,28 +1280,28 @@
     <t xml:space="preserve">15.7154531478882</t>
   </si>
   <si>
-    <t xml:space="preserve">15.239803314209</t>
+    <t xml:space="preserve">15.2398023605347</t>
   </si>
   <si>
     <t xml:space="preserve">14.9544124603271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8022060394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6370735168457</t>
+    <t xml:space="preserve">14.8022050857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6370754241943</t>
   </si>
   <si>
     <t xml:space="preserve">16.8189582824707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9057102203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1720733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5335693359375</t>
+    <t xml:space="preserve">15.9057111740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1720752716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5335674285889</t>
   </si>
   <si>
     <t xml:space="preserve">16.7809066772461</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">17.3897380828857</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9521427154541</t>
+    <t xml:space="preserve">16.9521408081055</t>
   </si>
   <si>
     <t xml:space="preserve">17.2185020446777</t>
@@ -1328,16 +1328,16 @@
     <t xml:space="preserve">17.1994781494141</t>
   </si>
   <si>
-    <t xml:space="preserve">18.226879119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4171409606934</t>
+    <t xml:space="preserve">18.2268810272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4171390533447</t>
   </si>
   <si>
     <t xml:space="preserve">18.8737640380859</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2459049224854</t>
+    <t xml:space="preserve">18.245906829834</t>
   </si>
   <si>
     <t xml:space="preserve">18.3790874481201</t>
@@ -1358,13 +1358,13 @@
     <t xml:space="preserve">17.3326606750488</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3623352050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1340217590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0388946533203</t>
+    <t xml:space="preserve">16.3623371124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1340236663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0388927459717</t>
   </si>
   <si>
     <t xml:space="preserve">15.8866853713989</t>
@@ -1373,13 +1373,13 @@
     <t xml:space="preserve">16.3052577972412</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1911010742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.267204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.639347076416</t>
+    <t xml:space="preserve">16.1911029815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2672061920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6393480300903</t>
   </si>
   <si>
     <t xml:space="preserve">14.7831792831421</t>
@@ -1394,37 +1394,37 @@
     <t xml:space="preserve">15.7915544509888</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9247369766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9627885818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8105812072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0008411407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7535047531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7344779968262</t>
+    <t xml:space="preserve">15.9247360229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9627876281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8105821609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0008392333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7535037994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7344770431519</t>
   </si>
   <si>
     <t xml:space="preserve">15.9437637329102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1530494689941</t>
+    <t xml:space="preserve">16.1530513763428</t>
   </si>
   <si>
     <t xml:space="preserve">16.5145416259766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.408763885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4468154907227</t>
+    <t xml:space="preserve">17.4087657928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4468173980713</t>
   </si>
   <si>
     <t xml:space="preserve">18.2649326324463</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">17.9034385681152</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0936965942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.455192565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9605140686035</t>
+    <t xml:space="preserve">18.0936985015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4551906585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9605159759521</t>
   </si>
   <si>
     <t xml:space="preserve">18.816686630249</t>
@@ -1451,10 +1451,10 @@
     <t xml:space="preserve">17.4848670959473</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8844127655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9224643707275</t>
+    <t xml:space="preserve">17.8844108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9224624633789</t>
   </si>
   <si>
     <t xml:space="preserve">18.0746726989746</t>
@@ -1463,10 +1463,10 @@
     <t xml:space="preserve">20.0724010467529</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1675281524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7870121002197</t>
+    <t xml:space="preserve">20.1675300598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7870101928711</t>
   </si>
   <si>
     <t xml:space="preserve">19.8821392059326</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">20.9285678863525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8334369659424</t>
+    <t xml:space="preserve">20.833438873291</t>
   </si>
   <si>
     <t xml:space="preserve">20.6431789398193</t>
@@ -1499,25 +1499,25 @@
     <t xml:space="preserve">21.0236968994141</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5944766998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9749984741211</t>
+    <t xml:space="preserve">21.5944747924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9749965667725</t>
   </si>
   <si>
     <t xml:space="preserve">22.3555164337158</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6896076202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2139568328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4529209136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1199645996094</t>
+    <t xml:space="preserve">21.6896057128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2139587402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4529190063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1199626922607</t>
   </si>
   <si>
     <t xml:space="preserve">19.8345737457275</t>
@@ -42957,7 +42957,7 @@
     </row>
     <row r="1530">
       <c r="A1530" s="1" t="n">
-        <v>45456.649375</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B1530" t="n">
         <v>64715</v>
@@ -42978,6 +42978,32 @@
         <v>949</v>
       </c>
       <c r="H1530" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="1" t="n">
+        <v>45457.6494328704</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>154196</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>17.6000003814697</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>16.9599990844727</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>17.3999996185303</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>17.3600006103516</v>
+      </c>
+      <c r="G1531" t="s">
+        <v>947</v>
+      </c>
+      <c r="H1531" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="951">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,91 +44,91 @@
     <t xml:space="preserve">CRL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04686069488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95329332351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85972595214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82978248596191</t>
+    <t xml:space="preserve">8.04686164855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95329475402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85972690582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82978343963623</t>
   </si>
   <si>
     <t xml:space="preserve">8.01692008972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11235904693604</t>
+    <t xml:space="preserve">8.11236000061035</t>
   </si>
   <si>
     <t xml:space="preserve">7.81387662887573</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12171649932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57995700836182</t>
+    <t xml:space="preserve">8.12171459197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57995748519897</t>
   </si>
   <si>
     <t xml:space="preserve">7.43586206436157</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66229724884033</t>
+    <t xml:space="preserve">7.66229677200317</t>
   </si>
   <si>
     <t xml:space="preserve">7.60241317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71001577377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57902097702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66323280334473</t>
+    <t xml:space="preserve">7.71001672744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57902193069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66323232650757</t>
   </si>
   <si>
     <t xml:space="preserve">7.68194627761841</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78674221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94393682479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00007724761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0665111541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14978885650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00943470001221</t>
+    <t xml:space="preserve">7.78674268722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94393730163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00007820129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06651210784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14978694915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00943374633789</t>
   </si>
   <si>
     <t xml:space="preserve">8.16569328308105</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95703601837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9065089225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9944634437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83352613449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93458127975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88779640197754</t>
+    <t xml:space="preserve">7.95703649520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90650987625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99446392059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83352661132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93457984924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8877968788147</t>
   </si>
   <si>
     <t xml:space="preserve">8.03282833099365</t>
@@ -140,37 +140,37 @@
     <t xml:space="preserve">7.81294107437134</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92709589004517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88966798782349</t>
+    <t xml:space="preserve">7.92709493637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88966846466064</t>
   </si>
   <si>
     <t xml:space="preserve">8.14043045043945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20686340332031</t>
+    <t xml:space="preserve">8.20686435699463</t>
   </si>
   <si>
     <t xml:space="preserve">8.26206874847412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45481872558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61762714385986</t>
+    <t xml:space="preserve">8.45481967926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61762809753418</t>
   </si>
   <si>
     <t xml:space="preserve">8.64101886749268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91330242156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12289619445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75797939300537</t>
+    <t xml:space="preserve">8.91330337524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12289524078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75798034667969</t>
   </si>
   <si>
     <t xml:space="preserve">8.43984889984131</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">8.40242099761963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62417602539062</t>
+    <t xml:space="preserve">8.62417697906494</t>
   </si>
   <si>
     <t xml:space="preserve">8.51470279693604</t>
@@ -188,31 +188,31 @@
     <t xml:space="preserve">8.60827159881592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87026214599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90768814086914</t>
+    <t xml:space="preserve">8.87026119232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90768909454346</t>
   </si>
   <si>
     <t xml:space="preserve">8.77295112609863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82347679138184</t>
+    <t xml:space="preserve">8.82347869873047</t>
   </si>
   <si>
     <t xml:space="preserve">8.95447254180908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16967868804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03026294708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28196239471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31003093719482</t>
+    <t xml:space="preserve">9.16967964172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03026390075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28196334838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31003284454346</t>
   </si>
   <si>
     <t xml:space="preserve">9.50652503967285</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">9.28289794921875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15470886230469</t>
+    <t xml:space="preserve">9.154709815979</t>
   </si>
   <si>
     <t xml:space="preserve">9.3530740737915</t>
@@ -233,22 +233,22 @@
     <t xml:space="preserve">9.22675609588623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18839263916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92546653747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15751647949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20710754394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06394863128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82909202575684</t>
+    <t xml:space="preserve">9.18839359283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92546558380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15751552581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.207106590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0639476776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82909107208252</t>
   </si>
   <si>
     <t xml:space="preserve">8.6625394821167</t>
@@ -260,16 +260,16 @@
     <t xml:space="preserve">8.45762729644775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56148624420166</t>
+    <t xml:space="preserve">8.56148719787598</t>
   </si>
   <si>
     <t xml:space="preserve">8.70183849334717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74862480163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79540824890137</t>
+    <t xml:space="preserve">8.74862384796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79540729522705</t>
   </si>
   <si>
     <t xml:space="preserve">8.96850776672363</t>
@@ -278,46 +278,46 @@
     <t xml:space="preserve">8.17598628997803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89247608184814</t>
+    <t xml:space="preserve">7.89247560501099</t>
   </si>
   <si>
     <t xml:space="preserve">8.06557464599609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49411869049072</t>
+    <t xml:space="preserve">8.49411773681641</t>
   </si>
   <si>
     <t xml:space="preserve">8.93482303619385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93763160705566</t>
+    <t xml:space="preserve">8.93763065338135</t>
   </si>
   <si>
     <t xml:space="preserve">8.91423797607422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66066932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75610828399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85996913909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73365306854248</t>
+    <t xml:space="preserve">8.66066837310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7561092376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85997009277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73365211486816</t>
   </si>
   <si>
     <t xml:space="preserve">8.54558086395264</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49318313598633</t>
+    <t xml:space="preserve">8.49318218231201</t>
   </si>
   <si>
     <t xml:space="preserve">8.71681022644043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87868213653564</t>
+    <t xml:space="preserve">8.87868309020996</t>
   </si>
   <si>
     <t xml:space="preserve">8.20125007629395</t>
@@ -326,22 +326,22 @@
     <t xml:space="preserve">8.18815040588379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2339973449707</t>
+    <t xml:space="preserve">8.23399829864502</t>
   </si>
   <si>
     <t xml:space="preserve">8.33785724639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70464611053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48663234710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6644115447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08359718322754</t>
+    <t xml:space="preserve">8.70464706420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48663330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66441059112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08359813690186</t>
   </si>
   <si>
     <t xml:space="preserve">9.20336437225342</t>
@@ -350,16 +350,16 @@
     <t xml:space="preserve">9.13786697387695</t>
   </si>
   <si>
-    <t xml:space="preserve">9.180908203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31939029693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01061630249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24453449249268</t>
+    <t xml:space="preserve">9.18090915679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31938934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0106143951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24453258514404</t>
   </si>
   <si>
     <t xml:space="preserve">9.01716423034668</t>
@@ -368,16 +368,16 @@
     <t xml:space="preserve">8.45575428009033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38370704650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42113494873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48943901062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35002136230469</t>
+    <t xml:space="preserve">8.38370609283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42113399505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48943996429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.350022315979</t>
   </si>
   <si>
     <t xml:space="preserve">8.55680847167969</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">8.42487716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44920444488525</t>
+    <t xml:space="preserve">8.44920539855957</t>
   </si>
   <si>
     <t xml:space="preserve">8.65505504608154</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">8.37434959411621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50628185272217</t>
+    <t xml:space="preserve">8.50628280639648</t>
   </si>
   <si>
     <t xml:space="preserve">8.37060737609863</t>
@@ -422,16 +422,16 @@
     <t xml:space="preserve">8.93108081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87961769104004</t>
+    <t xml:space="preserve">8.87961673736572</t>
   </si>
   <si>
     <t xml:space="preserve">9.2660551071167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23049831390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06020450592041</t>
+    <t xml:space="preserve">9.23049926757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06020545959473</t>
   </si>
   <si>
     <t xml:space="preserve">8.99564361572266</t>
@@ -440,31 +440,31 @@
     <t xml:space="preserve">9.14067363739014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21646404266357</t>
+    <t xml:space="preserve">9.21646213531494</t>
   </si>
   <si>
     <t xml:space="preserve">9.40360069274902</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37365913391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53272342681885</t>
+    <t xml:space="preserve">9.37365818023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53272438049316</t>
   </si>
   <si>
     <t xml:space="preserve">9.56640911102295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78535938262939</t>
+    <t xml:space="preserve">9.78535842895508</t>
   </si>
   <si>
     <t xml:space="preserve">9.82465744018555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8714427947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76851654052734</t>
+    <t xml:space="preserve">9.87144184112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76851558685303</t>
   </si>
   <si>
     <t xml:space="preserve">9.81904220581055</t>
@@ -473,10 +473,10 @@
     <t xml:space="preserve">9.4896821975708</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79284381866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6655912399292</t>
+    <t xml:space="preserve">9.79284477233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66559028625488</t>
   </si>
   <si>
     <t xml:space="preserve">9.68430423736572</t>
@@ -488,19 +488,19 @@
     <t xml:space="preserve">9.63564872741699</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50091075897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29506206512451</t>
+    <t xml:space="preserve">9.50090885162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2950611114502</t>
   </si>
   <si>
     <t xml:space="preserve">9.43167018890381</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31377601623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22582054138184</t>
+    <t xml:space="preserve">9.31377506256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22581958770752</t>
   </si>
   <si>
     <t xml:space="preserve">9.10418224334717</t>
@@ -515,31 +515,31 @@
     <t xml:space="preserve">9.17061519622803</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35681629180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13225269317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27260589599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61880493164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56266593933105</t>
+    <t xml:space="preserve">9.3568172454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13225173950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27260684967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61880683898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56266689300537</t>
   </si>
   <si>
     <t xml:space="preserve">9.91822528839111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6375207901001</t>
+    <t xml:space="preserve">9.63752269744873</t>
   </si>
   <si>
     <t xml:space="preserve">9.71237468719482</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93693923950195</t>
+    <t xml:space="preserve">9.93693828582764</t>
   </si>
   <si>
     <t xml:space="preserve">9.86208438873291</t>
@@ -551,7 +551,7 @@
     <t xml:space="preserve">10.1802167892456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2363567352295</t>
+    <t xml:space="preserve">10.2363576889038</t>
   </si>
   <si>
     <t xml:space="preserve">9.974365234375</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">10.2550706863403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.292498588562</t>
+    <t xml:space="preserve">10.2924976348877</t>
   </si>
   <si>
     <t xml:space="preserve">9.84337139129639</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">9.95565223693848</t>
   </si>
   <si>
-    <t xml:space="preserve">10.011794090271</t>
+    <t xml:space="preserve">10.0117931365967</t>
   </si>
   <si>
     <t xml:space="preserve">10.049220085144</t>
@@ -587,16 +587,16 @@
     <t xml:space="preserve">10.3299245834351</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3486375808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4983472824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.217643737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1989307403564</t>
+    <t xml:space="preserve">10.3486394882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.498348236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2176427841187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1989278793335</t>
   </si>
   <si>
     <t xml:space="preserve">10.3112106323242</t>
@@ -608,16 +608,16 @@
     <t xml:space="preserve">10.7977657318115</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8539056777954</t>
+    <t xml:space="preserve">10.8539066314697</t>
   </si>
   <si>
     <t xml:space="preserve">10.9287614822388</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6106300354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6667718887329</t>
+    <t xml:space="preserve">10.6106309890747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6667709350586</t>
   </si>
   <si>
     <t xml:space="preserve">10.6293430328369</t>
@@ -629,10 +629,10 @@
     <t xml:space="preserve">10.1615028381348</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0305070877075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3676948547363</t>
+    <t xml:space="preserve">10.0305061340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.367693901062</t>
   </si>
   <si>
     <t xml:space="preserve">10.1221933364868</t>
@@ -650,16 +650,16 @@
     <t xml:space="preserve">10.3865785598755</t>
   </si>
   <si>
-    <t xml:space="preserve">10.405463218689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2732706069946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0844221115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2355012893677</t>
+    <t xml:space="preserve">10.4054641723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2732715606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0844230651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2355003356934</t>
   </si>
   <si>
     <t xml:space="preserve">9.91446208953857</t>
@@ -668,13 +668,13 @@
     <t xml:space="preserve">10.0466547012329</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3488082885742</t>
+    <t xml:space="preserve">10.3488101959229</t>
   </si>
   <si>
     <t xml:space="preserve">10.7453880310059</t>
   </si>
   <si>
-    <t xml:space="preserve">10.594310760498</t>
+    <t xml:space="preserve">10.5943098068237</t>
   </si>
   <si>
     <t xml:space="preserve">10.6131944656372</t>
@@ -683,43 +683,43 @@
     <t xml:space="preserve">10.5754270553589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5565423965454</t>
+    <t xml:space="preserve">10.5565414428711</t>
   </si>
   <si>
     <t xml:space="preserve">10.008885383606</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4998874664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2166166305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9900016784668</t>
+    <t xml:space="preserve">10.4998865127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2166175842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99000072479248</t>
   </si>
   <si>
     <t xml:space="preserve">10.2543869018555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2921552658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.971116065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4432325363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0475425720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.669849395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2750473022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3685836791992</t>
+    <t xml:space="preserve">10.2921543121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97111511230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4432315826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0475435256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6698484420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2750482559204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3685827255249</t>
   </si>
   <si>
     <t xml:space="preserve">11.8218154907227</t>
@@ -743,13 +743,13 @@
     <t xml:space="preserve">12.3694715499878</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4638948440552</t>
+    <t xml:space="preserve">12.4638938903809</t>
   </si>
   <si>
     <t xml:space="preserve">12.6716260910034</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8227033615112</t>
+    <t xml:space="preserve">12.8227043151855</t>
   </si>
   <si>
     <t xml:space="preserve">12.4072399139404</t>
@@ -779,10 +779,10 @@
     <t xml:space="preserve">12.4450101852417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.747166633606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9171266555786</t>
+    <t xml:space="preserve">12.7471656799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9171276092529</t>
   </si>
   <si>
     <t xml:space="preserve">13.2192821502686</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">13.502552986145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5969762802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7480535507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3145942687988</t>
+    <t xml:space="preserve">13.5969772338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7480545043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3145933151245</t>
   </si>
   <si>
     <t xml:space="preserve">13.7102832794189</t>
@@ -812,22 +812,22 @@
     <t xml:space="preserve">12.614972114563</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5772037506104</t>
+    <t xml:space="preserve">12.577202796936</t>
   </si>
   <si>
     <t xml:space="preserve">12.5205488204956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6338577270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4261255264282</t>
+    <t xml:space="preserve">12.6338567733765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4261264801025</t>
   </si>
   <si>
     <t xml:space="preserve">12.5016651153564</t>
   </si>
   <si>
-    <t xml:space="preserve">14.862250328064</t>
+    <t xml:space="preserve">14.8622493743896</t>
   </si>
   <si>
     <t xml:space="preserve">14.163516998291</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">13.6536302566528</t>
   </si>
   <si>
-    <t xml:space="preserve">13.408130645752</t>
+    <t xml:space="preserve">13.4081296920776</t>
   </si>
   <si>
     <t xml:space="preserve">13.0870895385742</t>
@@ -845,28 +845,28 @@
     <t xml:space="preserve">12.9360113143921</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7849349975586</t>
+    <t xml:space="preserve">12.7849340438843</t>
   </si>
   <si>
     <t xml:space="preserve">12.5960884094238</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0115509033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0493202209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1248588562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3325929641724</t>
+    <t xml:space="preserve">13.011549949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0493211746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1248598098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.332592010498</t>
   </si>
   <si>
     <t xml:space="preserve">13.3137063980103</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5780906677246</t>
+    <t xml:space="preserve">13.5780916213989</t>
   </si>
   <si>
     <t xml:space="preserve">13.2948207855225</t>
@@ -878,37 +878,37 @@
     <t xml:space="preserve">12.5394334793091</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6905117034912</t>
+    <t xml:space="preserve">12.6905107498169</t>
   </si>
   <si>
     <t xml:space="preserve">12.6527414321899</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0673170089722</t>
+    <t xml:space="preserve">12.0673160552979</t>
   </si>
   <si>
     <t xml:space="preserve">11.9917783737183</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5007753372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2175045013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2930450439453</t>
+    <t xml:space="preserve">11.5007762908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2175035476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.293044090271</t>
   </si>
   <si>
     <t xml:space="preserve">11.2363901138306</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9531183242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5196599960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308143615723</t>
+    <t xml:space="preserve">10.9531192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.519660949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308134078979</t>
   </si>
   <si>
     <t xml:space="preserve">11.4818897247314</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">11.4252367019653</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5763130187988</t>
+    <t xml:space="preserve">11.5763139724731</t>
   </si>
   <si>
     <t xml:space="preserve">11.3119277954102</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">9.59342193603516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57453632354736</t>
+    <t xml:space="preserve">9.57453727722168</t>
   </si>
   <si>
     <t xml:space="preserve">9.0457649230957</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">9.72561550140381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87580394744873</t>
+    <t xml:space="preserve">8.87580490112305</t>
   </si>
   <si>
     <t xml:space="preserve">8.97022724151611</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">8.35647487640381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39424514770508</t>
+    <t xml:space="preserve">8.39424419403076</t>
   </si>
   <si>
     <t xml:space="preserve">8.34703254699707</t>
@@ -953,10 +953,10 @@
     <t xml:space="preserve">8.68695735931396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59253406524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82003879547119</t>
+    <t xml:space="preserve">8.59253311157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82003784179688</t>
   </si>
   <si>
     <t xml:space="preserve">10.9153499603271</t>
@@ -965,19 +965,19 @@
     <t xml:space="preserve">9.95223140716553</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4810028076172</t>
+    <t xml:space="preserve">10.4810037612915</t>
   </si>
   <si>
     <t xml:space="preserve">10.4243488311768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89557647705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.197732925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8964653015137</t>
+    <t xml:space="preserve">9.89557552337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1977338790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.896466255188</t>
   </si>
   <si>
     <t xml:space="preserve">11.8973550796509</t>
@@ -992,19 +992,19 @@
     <t xml:space="preserve">12.8415880203247</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9728937149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9746704101562</t>
+    <t xml:space="preserve">11.9728927612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9746694564819</t>
   </si>
   <si>
     <t xml:space="preserve">13.7291688919067</t>
   </si>
   <si>
-    <t xml:space="preserve">13.899130821228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1644048690796</t>
+    <t xml:space="preserve">13.8991317749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1644058227539</t>
   </si>
   <si>
     <t xml:space="preserve">15.3154830932617</t>
@@ -1016,13 +1016,13 @@
     <t xml:space="preserve">14.5034418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5609836578369</t>
+    <t xml:space="preserve">15.5609827041626</t>
   </si>
   <si>
     <t xml:space="preserve">16.0331020355225</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2597160339355</t>
+    <t xml:space="preserve">16.2597179412842</t>
   </si>
   <si>
     <t xml:space="preserve">15.6742916107178</t>
@@ -1031,19 +1031,19 @@
     <t xml:space="preserve">15.22105884552</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8811359405518</t>
+    <t xml:space="preserve">14.8811349868774</t>
   </si>
   <si>
     <t xml:space="preserve">14.7300577163696</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2957096099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3901329040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0502090454102</t>
+    <t xml:space="preserve">14.2957105636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3901338577271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0502080917358</t>
   </si>
   <si>
     <t xml:space="preserve">14.0690937042236</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">14.8212308883667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0685682296753</t>
+    <t xml:space="preserve">15.068567276001</t>
   </si>
   <si>
     <t xml:space="preserve">15.1636991500854</t>
@@ -1079,13 +1079,13 @@
     <t xml:space="preserve">15.030517578125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5442171096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5061664581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6964263916016</t>
+    <t xml:space="preserve">15.5442180633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5061674118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6964254379272</t>
   </si>
   <si>
     <t xml:space="preserve">15.6012964248657</t>
@@ -1094,13 +1094,13 @@
     <t xml:space="preserve">15.2778549194336</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8783092498779</t>
+    <t xml:space="preserve">14.8783102035522</t>
   </si>
   <si>
     <t xml:space="preserve">15.3539581298828</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1827259063721</t>
+    <t xml:space="preserve">15.1827249526978</t>
   </si>
   <si>
     <t xml:space="preserve">14.9163608551025</t>
@@ -1115,22 +1115,22 @@
     <t xml:space="preserve">15.2968807220459</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6774005889893</t>
+    <t xml:space="preserve">15.6773996353149</t>
   </si>
   <si>
     <t xml:space="preserve">15.2207765579224</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7451286315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8486328125</t>
+    <t xml:space="preserve">14.7451276779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8486318588257</t>
   </si>
   <si>
     <t xml:space="preserve">16.4574642181396</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2755813598633</t>
+    <t xml:space="preserve">17.2755832672119</t>
   </si>
   <si>
     <t xml:space="preserve">17.9985694885254</t>
@@ -1154,16 +1154,16 @@
     <t xml:space="preserve">18.1127262115479</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3410358428955</t>
+    <t xml:space="preserve">18.3410377502441</t>
   </si>
   <si>
     <t xml:space="preserve">18.2078533172607</t>
   </si>
   <si>
-    <t xml:space="preserve">18.607400894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6454524993896</t>
+    <t xml:space="preserve">18.6073989868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6454544067383</t>
   </si>
   <si>
     <t xml:space="preserve">17.9795436859131</t>
@@ -1181,13 +1181,13 @@
     <t xml:space="preserve">19.5016193389893</t>
   </si>
   <si>
-    <t xml:space="preserve">18.664478302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5503196716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3600616455078</t>
+    <t xml:space="preserve">18.6644763946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5503215789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3600635528564</t>
   </si>
   <si>
     <t xml:space="preserve">17.6941528320312</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">18.2839584350586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7892818450928</t>
+    <t xml:space="preserve">17.7892837524414</t>
   </si>
   <si>
     <t xml:space="preserve">18.1317501068115</t>
@@ -1205,13 +1205,13 @@
     <t xml:space="preserve">17.2375297546387</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9711666107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1149959564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7618808746338</t>
+    <t xml:space="preserve">16.9711647033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1149978637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7618789672852</t>
   </si>
   <si>
     <t xml:space="preserve">16.2481784820557</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">15.6583738327026</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0579204559326</t>
+    <t xml:space="preserve">16.057918548584</t>
   </si>
   <si>
     <t xml:space="preserve">16.8379859924316</t>
@@ -1229,13 +1229,13 @@
     <t xml:space="preserve">16.8950634002686</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5906448364258</t>
+    <t xml:space="preserve">16.5906467437744</t>
   </si>
   <si>
     <t xml:space="preserve">16.7238292694092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5716228485107</t>
+    <t xml:space="preserve">16.5716209411621</t>
   </si>
   <si>
     <t xml:space="preserve">17.1614246368408</t>
@@ -1259,16 +1259,16 @@
     <t xml:space="preserve">16.9901924133301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9331150054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9140872955322</t>
+    <t xml:space="preserve">16.9331130981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9140892028809</t>
   </si>
   <si>
     <t xml:space="preserve">17.0662975311279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1233730316162</t>
+    <t xml:space="preserve">17.1233749389648</t>
   </si>
   <si>
     <t xml:space="preserve">17.1043472290039</t>
@@ -1277,10 +1277,10 @@
     <t xml:space="preserve">16.0769462585449</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7154531478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2398023605347</t>
+    <t xml:space="preserve">15.7154521942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.239803314209</t>
   </si>
   <si>
     <t xml:space="preserve">14.9544124603271</t>
@@ -1289,31 +1289,31 @@
     <t xml:space="preserve">14.8022050857544</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6370754241943</t>
+    <t xml:space="preserve">17.637077331543</t>
   </si>
   <si>
     <t xml:space="preserve">16.8189582824707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9057111740112</t>
+    <t xml:space="preserve">15.9057102203369</t>
   </si>
   <si>
     <t xml:space="preserve">16.1720752716064</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5335674285889</t>
+    <t xml:space="preserve">16.5335693359375</t>
   </si>
   <si>
     <t xml:space="preserve">16.7809066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1424007415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7428550720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.256555557251</t>
+    <t xml:space="preserve">17.1423988342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7428531646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2565574645996</t>
   </si>
   <si>
     <t xml:space="preserve">17.3897380828857</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">17.1994781494141</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2268810272217</t>
+    <t xml:space="preserve">18.226879119873</t>
   </si>
   <si>
     <t xml:space="preserve">18.4171390533447</t>
@@ -1337,10 +1337,10 @@
     <t xml:space="preserve">18.8737640380859</t>
   </si>
   <si>
-    <t xml:space="preserve">18.245906829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3790874481201</t>
+    <t xml:space="preserve">18.2459049224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3790893554688</t>
   </si>
   <si>
     <t xml:space="preserve">16.8760375976562</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">16.8570117950439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6096725463867</t>
+    <t xml:space="preserve">16.6096744537354</t>
   </si>
   <si>
     <t xml:space="preserve">17.3326606750488</t>
@@ -1364,19 +1364,19 @@
     <t xml:space="preserve">16.1340236663818</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0388927459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8866853713989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3052577972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1911029815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2672061920166</t>
+    <t xml:space="preserve">16.0388946533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8866844177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3052597045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1911010742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.267204284668</t>
   </si>
   <si>
     <t xml:space="preserve">15.6393480300903</t>
@@ -1388,25 +1388,25 @@
     <t xml:space="preserve">14.4216861724854</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1256475448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7915544509888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9247360229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9627876281738</t>
+    <t xml:space="preserve">15.1256484985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7915563583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9247369766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9627885818481</t>
   </si>
   <si>
     <t xml:space="preserve">15.8105821609497</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0008392333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7535037994385</t>
+    <t xml:space="preserve">16.0008430480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7535047531128</t>
   </si>
   <si>
     <t xml:space="preserve">15.7344770431519</t>
@@ -1415,16 +1415,16 @@
     <t xml:space="preserve">15.9437637329102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1530513763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5145416259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4087657928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4468173980713</t>
+    <t xml:space="preserve">16.1530494689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5145435333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.408763885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4468154907227</t>
   </si>
   <si>
     <t xml:space="preserve">18.2649326324463</t>
@@ -1448,10 +1448,10 @@
     <t xml:space="preserve">18.3981132507324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4848670959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8844108581543</t>
+    <t xml:space="preserve">17.4848651885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8844127655029</t>
   </si>
   <si>
     <t xml:space="preserve">17.9224624633789</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">20.3577880859375</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9285678863525</t>
+    <t xml:space="preserve">20.9285697937012</t>
   </si>
   <si>
     <t xml:space="preserve">20.833438873291</t>
@@ -1484,10 +1484,10 @@
     <t xml:space="preserve">20.6431789398193</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5004825592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3102245330811</t>
+    <t xml:space="preserve">20.5004844665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3102226257324</t>
   </si>
   <si>
     <t xml:space="preserve">20.5956153869629</t>
@@ -1496,22 +1496,22 @@
     <t xml:space="preserve">20.9761352539062</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0236968994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5944747924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9749965667725</t>
+    <t xml:space="preserve">21.0236988067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5944766998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9749984741211</t>
   </si>
   <si>
     <t xml:space="preserve">22.3555164337158</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6896057128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2139587402344</t>
+    <t xml:space="preserve">21.6896076202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2139568328857</t>
   </si>
   <si>
     <t xml:space="preserve">20.4529190063477</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">19.8345737457275</t>
   </si>
   <si>
-    <t xml:space="preserve">19.549186706543</t>
+    <t xml:space="preserve">19.5491847991943</t>
   </si>
   <si>
     <t xml:space="preserve">20.0946102142334</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">20.3338317871094</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1424522399902</t>
+    <t xml:space="preserve">20.1424541473389</t>
   </si>
   <si>
     <t xml:space="preserve">19.807544708252</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">19.4247894287109</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2812576293945</t>
+    <t xml:space="preserve">19.2812595367432</t>
   </si>
   <si>
     <t xml:space="preserve">19.9989204406738</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">19.3291015625</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5252075195312</t>
+    <t xml:space="preserve">20.5252094268799</t>
   </si>
   <si>
     <t xml:space="preserve">20.190299987793</t>
@@ -1589,16 +1589,16 @@
     <t xml:space="preserve">19.1185855865479</t>
   </si>
   <si>
-    <t xml:space="preserve">18.850658416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1377239227295</t>
+    <t xml:space="preserve">18.8506565093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1377258300781</t>
   </si>
   <si>
     <t xml:space="preserve">18.9846229553223</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4295215606689</t>
+    <t xml:space="preserve">20.4295196533203</t>
   </si>
   <si>
     <t xml:space="preserve">20.7644309997559</t>
@@ -1607,19 +1607,19 @@
     <t xml:space="preserve">21.1950283050537</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6734733581543</t>
+    <t xml:space="preserve">21.6734714508057</t>
   </si>
   <si>
     <t xml:space="preserve">22.4868259429932</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8695812225342</t>
+    <t xml:space="preserve">22.8695793151855</t>
   </si>
   <si>
     <t xml:space="preserve">23.3958683013916</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6350879669189</t>
+    <t xml:space="preserve">23.6350898742676</t>
   </si>
   <si>
     <t xml:space="preserve">23.9221572875977</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">24.2092208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1613750457764</t>
+    <t xml:space="preserve">24.161376953125</t>
   </si>
   <si>
     <t xml:space="preserve">23.4437122344971</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2523365020752</t>
+    <t xml:space="preserve">23.2523345947266</t>
   </si>
   <si>
     <t xml:space="preserve">23.300178527832</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">23.3480224609375</t>
   </si>
   <si>
-    <t xml:space="preserve">23.682933807373</t>
+    <t xml:space="preserve">23.6829319000244</t>
   </si>
   <si>
     <t xml:space="preserve">23.8743114471436</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">24.3049087524414</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1519145965576</t>
+    <t xml:space="preserve">22.1519165039062</t>
   </si>
   <si>
     <t xml:space="preserve">22.1040725708008</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5346698760986</t>
+    <t xml:space="preserve">22.5346717834473</t>
   </si>
   <si>
     <t xml:space="preserve">22.3432941436768</t>
@@ -1685,37 +1685,37 @@
     <t xml:space="preserve">21.5299396514893</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2907180786133</t>
+    <t xml:space="preserve">21.2907199859619</t>
   </si>
   <si>
     <t xml:space="preserve">21.3385620117188</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1471843719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9558067321777</t>
+    <t xml:space="preserve">21.1471862792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9558086395264</t>
   </si>
   <si>
     <t xml:space="preserve">21.6256275177002</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2476043701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2617969512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1182632446289</t>
+    <t xml:space="preserve">22.2476024627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2617950439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1182613372803</t>
   </si>
   <si>
     <t xml:space="preserve">25.4531726837158</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8790416717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8311958312988</t>
+    <t xml:space="preserve">24.8790397644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8311977386475</t>
   </si>
   <si>
     <t xml:space="preserve">23.8264656066895</t>
@@ -1724,16 +1724,16 @@
     <t xml:space="preserve">24.0656871795654</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5919761657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2570667266846</t>
+    <t xml:space="preserve">24.5919742584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2570648193359</t>
   </si>
   <si>
     <t xml:space="preserve">24.7355079650879</t>
   </si>
   <si>
-    <t xml:space="preserve">24.400598526001</t>
+    <t xml:space="preserve">24.4006004333496</t>
   </si>
   <si>
     <t xml:space="preserve">24.9268856048584</t>
@@ -1745,19 +1745,19 @@
     <t xml:space="preserve">25.8837718963623</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1229934692383</t>
+    <t xml:space="preserve">26.1229915618896</t>
   </si>
   <si>
     <t xml:space="preserve">25.8359279632568</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7402381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7307758331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9652671813965</t>
+    <t xml:space="preserve">25.7402400970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7307777404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9652690887451</t>
   </si>
   <si>
     <t xml:space="preserve">22.6782035827637</t>
@@ -1769,10 +1769,10 @@
     <t xml:space="preserve">24.6876640319824</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1661071777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9747295379639</t>
+    <t xml:space="preserve">25.166109085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9747314453125</t>
   </si>
   <si>
     <t xml:space="preserve">25.2139511108398</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">24.3527545928955</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4484443664551</t>
+    <t xml:space="preserve">24.4484424591064</t>
   </si>
   <si>
     <t xml:space="preserve">25.3096408843994</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">25.0704174041748</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6445484161377</t>
+    <t xml:space="preserve">25.6445503234863</t>
   </si>
   <si>
     <t xml:space="preserve">25.5967063903809</t>
@@ -1805,16 +1805,16 @@
     <t xml:space="preserve">21.8170051574707</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8122730255127</t>
+    <t xml:space="preserve">20.8122749328613</t>
   </si>
   <si>
     <t xml:space="preserve">22.1997604370117</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2428760528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7213153839111</t>
+    <t xml:space="preserve">21.2428741455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7213172912598</t>
   </si>
   <si>
     <t xml:space="preserve">22.0083827972412</t>
@@ -1832,16 +1832,16 @@
     <t xml:space="preserve">19.568323135376</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9080696105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2381439208984</t>
+    <t xml:space="preserve">18.9080715179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2381420135498</t>
   </si>
   <si>
     <t xml:space="preserve">21.0514965057373</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7118549346924</t>
+    <t xml:space="preserve">19.711856842041</t>
   </si>
   <si>
     <t xml:space="preserve">18.544454574585</t>
@@ -1856,22 +1856,22 @@
     <t xml:space="preserve">17.1282615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6401424407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.525318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0037593841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2859859466553</t>
+    <t xml:space="preserve">18.6401443481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5253162384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0037612915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2859878540039</t>
   </si>
   <si>
     <t xml:space="preserve">22.0562267303467</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3911361694336</t>
+    <t xml:space="preserve">22.3911380767822</t>
   </si>
   <si>
     <t xml:space="preserve">22.7260475158691</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">21.8648490905762</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8601188659668</t>
+    <t xml:space="preserve">20.8601169586182</t>
   </si>
   <si>
     <t xml:space="preserve">20.6687431335449</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">22.295446395874</t>
   </si>
   <si>
-    <t xml:space="preserve">20.573055267334</t>
+    <t xml:space="preserve">20.5730533599854</t>
   </si>
   <si>
     <t xml:space="preserve">20.9079627990723</t>
@@ -1907,13 +1907,13 @@
     <t xml:space="preserve">18.6592807769775</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2956638336182</t>
+    <t xml:space="preserve">18.2956619262695</t>
   </si>
   <si>
     <t xml:space="preserve">18.2191143035889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5301532745361</t>
+    <t xml:space="preserve">17.5301551818848</t>
   </si>
   <si>
     <t xml:space="preserve">17.5110187530518</t>
@@ -2862,6 +2862,9 @@
   </si>
   <si>
     <t xml:space="preserve">17.4400005340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
   </si>
 </sst>
 </file>
@@ -42983,7 +42986,7 @@
     </row>
     <row r="1531">
       <c r="A1531" s="1" t="n">
-        <v>45457.6494328704</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B1531" t="n">
         <v>154196</v>
@@ -43004,6 +43007,32 @@
         <v>947</v>
       </c>
       <c r="H1531" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="1" t="n">
+        <v>45460.6495138889</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>89376</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>17.3600006103516</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>16.8199996948242</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>17.3199996948242</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1532" t="s">
+        <v>950</v>
+      </c>
+      <c r="H1532" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="954">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71937370300293</t>
+    <t xml:space="preserve">7.71937322616577</t>
   </si>
   <si>
     <t xml:space="preserve">CRL.MI</t>
@@ -53,22 +53,22 @@
     <t xml:space="preserve">7.8597264289856</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82978296279907</t>
+    <t xml:space="preserve">7.82978248596191</t>
   </si>
   <si>
     <t xml:space="preserve">8.01692008972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11236000061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81387662887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12171649932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57995748519897</t>
+    <t xml:space="preserve">8.11235904693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81387710571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1217155456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57995700836182</t>
   </si>
   <si>
     <t xml:space="preserve">7.43586206436157</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">7.66323280334473</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68194580078125</t>
+    <t xml:space="preserve">7.68194627761841</t>
   </si>
   <si>
     <t xml:space="preserve">7.78674268722534</t>
@@ -98,10 +98,10 @@
     <t xml:space="preserve">7.9439377784729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00007820129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06651020050049</t>
+    <t xml:space="preserve">8.00007724761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0665111541748</t>
   </si>
   <si>
     <t xml:space="preserve">8.14978790283203</t>
@@ -110,19 +110,19 @@
     <t xml:space="preserve">8.00943470001221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16569328308105</t>
+    <t xml:space="preserve">8.16569423675537</t>
   </si>
   <si>
     <t xml:space="preserve">7.95703601837158</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90650987625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9944634437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83352661132812</t>
+    <t xml:space="preserve">7.9065089225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99446487426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83352613449097</t>
   </si>
   <si>
     <t xml:space="preserve">7.93457984924316</t>
@@ -131,43 +131,43 @@
     <t xml:space="preserve">7.8877968788147</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03282737731934</t>
+    <t xml:space="preserve">8.03282642364502</t>
   </si>
   <si>
     <t xml:space="preserve">7.70159530639648</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81294059753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92709493637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88966751098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14043140411377</t>
+    <t xml:space="preserve">7.8129415512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92709541320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88966798782349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14043045043945</t>
   </si>
   <si>
     <t xml:space="preserve">8.20686340332031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26206970214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45481872558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61762714385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64101982116699</t>
+    <t xml:space="preserve">8.26206874847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45481967926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61762619018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64101886749268</t>
   </si>
   <si>
     <t xml:space="preserve">8.91330242156982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12289524078369</t>
+    <t xml:space="preserve">9.12289619445801</t>
   </si>
   <si>
     <t xml:space="preserve">8.75797939300537</t>
@@ -176,55 +176,55 @@
     <t xml:space="preserve">8.43984889984131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40242195129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62417793273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51470279693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6082706451416</t>
+    <t xml:space="preserve">8.40242004394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62417602539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51470375061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60827159881592</t>
   </si>
   <si>
     <t xml:space="preserve">8.87026214599609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90768814086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77295112609863</t>
+    <t xml:space="preserve">8.90768909454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77295017242432</t>
   </si>
   <si>
     <t xml:space="preserve">8.82347679138184</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9544734954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16967964172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03026390075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28196239471436</t>
+    <t xml:space="preserve">8.95447444915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16968059539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03026294708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28196144104004</t>
   </si>
   <si>
     <t xml:space="preserve">9.31003189086914</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50652408599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26324844360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28289699554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15470790863037</t>
+    <t xml:space="preserve">9.50652503967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2632474899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28289890289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15470886230469</t>
   </si>
   <si>
     <t xml:space="preserve">9.3530740737915</t>
@@ -236,37 +236,37 @@
     <t xml:space="preserve">9.18839263916016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92546558380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15751647949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.207106590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06394863128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82909297943115</t>
+    <t xml:space="preserve">8.9254674911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15751457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20710754394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0639476776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82909202575684</t>
   </si>
   <si>
     <t xml:space="preserve">8.6625394821167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12732982635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45762729644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56148719787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70183944702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74862480163574</t>
+    <t xml:space="preserve">8.1273307800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45762825012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56148624420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70183849334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74862384796143</t>
   </si>
   <si>
     <t xml:space="preserve">8.79540729522705</t>
@@ -275,31 +275,31 @@
     <t xml:space="preserve">8.96850776672363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17598628997803</t>
+    <t xml:space="preserve">8.17598533630371</t>
   </si>
   <si>
     <t xml:space="preserve">7.89247560501099</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06557464599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49411773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93482398986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93763065338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91423797607422</t>
+    <t xml:space="preserve">8.06557369232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49411678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93482303619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93763160705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91423892974854</t>
   </si>
   <si>
     <t xml:space="preserve">8.66066932678223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7561092376709</t>
+    <t xml:space="preserve">8.75610828399658</t>
   </si>
   <si>
     <t xml:space="preserve">8.85996913909912</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">8.49318218231201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71680927276611</t>
+    <t xml:space="preserve">8.71681022644043</t>
   </si>
   <si>
     <t xml:space="preserve">8.87868309020996</t>
@@ -329,13 +329,13 @@
     <t xml:space="preserve">8.23399829864502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33785820007324</t>
+    <t xml:space="preserve">8.33785915374756</t>
   </si>
   <si>
     <t xml:space="preserve">8.70464611053467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48663234710693</t>
+    <t xml:space="preserve">8.48663330078125</t>
   </si>
   <si>
     <t xml:space="preserve">8.6644115447998</t>
@@ -344,55 +344,55 @@
     <t xml:space="preserve">9.08359813690186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20336532592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13786697387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18090724945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31939029693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01061534881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24453353881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01716327667236</t>
+    <t xml:space="preserve">9.2033634185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13786602020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.180908203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31938934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0106143951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24453449249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.017165184021</t>
   </si>
   <si>
     <t xml:space="preserve">8.45575428009033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38370513916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42113590240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48943901062012</t>
+    <t xml:space="preserve">8.38370704650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42113494873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48943996429443</t>
   </si>
   <si>
     <t xml:space="preserve">8.350022315979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55680751800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42487716674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44920444488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65505504608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58955669403076</t>
+    <t xml:space="preserve">8.55680847167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42487907409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44920539855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65505409240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58955574035645</t>
   </si>
   <si>
     <t xml:space="preserve">8.37435054779053</t>
@@ -401,13 +401,13 @@
     <t xml:space="preserve">8.50628089904785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37060737609863</t>
+    <t xml:space="preserve">8.37060642242432</t>
   </si>
   <si>
     <t xml:space="preserve">8.30136775970459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5521297454834</t>
+    <t xml:space="preserve">8.55213165283203</t>
   </si>
   <si>
     <t xml:space="preserve">8.58020114898682</t>
@@ -419,16 +419,16 @@
     <t xml:space="preserve">8.86839008331299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93108081817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87961864471436</t>
+    <t xml:space="preserve">8.93107986450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87961769104004</t>
   </si>
   <si>
     <t xml:space="preserve">9.2660551071167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23049926757812</t>
+    <t xml:space="preserve">9.23049831390381</t>
   </si>
   <si>
     <t xml:space="preserve">9.06020450592041</t>
@@ -455,28 +455,28 @@
     <t xml:space="preserve">9.56640911102295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78535842895508</t>
+    <t xml:space="preserve">9.78535938262939</t>
   </si>
   <si>
     <t xml:space="preserve">9.82465744018555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87144184112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76851558685303</t>
+    <t xml:space="preserve">9.8714427947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76851654052734</t>
   </si>
   <si>
     <t xml:space="preserve">9.81904315948486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48968315124512</t>
+    <t xml:space="preserve">9.4896821975708</t>
   </si>
   <si>
     <t xml:space="preserve">9.79284381866455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6655912399292</t>
+    <t xml:space="preserve">9.66559219360352</t>
   </si>
   <si>
     <t xml:space="preserve">9.68430423736572</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">9.45412731170654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63564968109131</t>
+    <t xml:space="preserve">9.63564872741699</t>
   </si>
   <si>
     <t xml:space="preserve">9.50091075897217</t>
@@ -500,10 +500,10 @@
     <t xml:space="preserve">9.31377506256104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22581958770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10418128967285</t>
+    <t xml:space="preserve">9.22582054138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10418319702148</t>
   </si>
   <si>
     <t xml:space="preserve">8.53060913085938</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">9.17061519622803</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35681629180908</t>
+    <t xml:space="preserve">9.35681533813477</t>
   </si>
   <si>
     <t xml:space="preserve">9.13225269317627</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">9.27260589599609</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61880683898926</t>
+    <t xml:space="preserve">9.61880588531494</t>
   </si>
   <si>
     <t xml:space="preserve">9.56266593933105</t>
@@ -533,10 +533,10 @@
     <t xml:space="preserve">9.91822528839111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6375207901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71237564086914</t>
+    <t xml:space="preserve">9.63752174377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71237468719482</t>
   </si>
   <si>
     <t xml:space="preserve">9.93693923950195</t>
@@ -551,112 +551,115 @@
     <t xml:space="preserve">10.1802158355713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2363576889038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97436714172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1053619384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99308013916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1240758895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2550706863403</t>
+    <t xml:space="preserve">10.2363567352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.974365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1053628921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99307823181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1240749359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.255069732666</t>
   </si>
   <si>
     <t xml:space="preserve">10.2924976348877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84337139129639</t>
+    <t xml:space="preserve">9.8433723449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.95565319061279</t>
   </si>
   <si>
-    <t xml:space="preserve">10.011794090271</t>
+    <t xml:space="preserve">10.0117931365967</t>
   </si>
   <si>
     <t xml:space="preserve">10.049220085144</t>
   </si>
   <si>
+    <t xml:space="preserve">10.3299255371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3486385345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.498348236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.217643737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1989297866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3112115859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.704197883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7977657318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8539056777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9287614822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6106300354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6667718887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6293430328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5170612335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1615028381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0305070877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3676948547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1221933364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0655384063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1033086776733</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.3299245834351</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3486375808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4983472824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2176427841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1989297866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3112106323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.704197883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7977657318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.853907585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9287614822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6106300354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6667718887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6293420791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5170612335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1615028381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0305061340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.367693901062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1221942901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0655393600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1033086776733</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.1788463592529</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3865776062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4054622650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2732715606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0844230651855</t>
+    <t xml:space="preserve">10.3865785598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.405463218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2732706069946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0844221115112</t>
   </si>
   <si>
     <t xml:space="preserve">10.2355012893677</t>
@@ -680,43 +683,43 @@
     <t xml:space="preserve">10.6131944656372</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5754261016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5565414428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0088844299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.499888420105</t>
+    <t xml:space="preserve">10.5754270553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5565423965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.008885383606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4998874664307</t>
   </si>
   <si>
     <t xml:space="preserve">10.2166166305542</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99000072479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2543878555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2921562194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97111511230469</t>
+    <t xml:space="preserve">9.9900016784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2543869018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2921552658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.971116065979</t>
   </si>
   <si>
     <t xml:space="preserve">10.4432325363159</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0475435256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6698484420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2750482559204</t>
+    <t xml:space="preserve">11.0475425720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.669849395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2750473022461</t>
   </si>
   <si>
     <t xml:space="preserve">11.3685836791992</t>
@@ -725,16 +728,16 @@
     <t xml:space="preserve">11.8218154907227</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6140851974487</t>
+    <t xml:space="preserve">11.6140842437744</t>
   </si>
   <si>
     <t xml:space="preserve">11.7462759017944</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8407001495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7273921966553</t>
+    <t xml:space="preserve">11.8406991958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7273931503296</t>
   </si>
   <si>
     <t xml:space="preserve">12.180624961853</t>
@@ -743,13 +746,13 @@
     <t xml:space="preserve">12.3694715499878</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4638957977295</t>
+    <t xml:space="preserve">12.4638948440552</t>
   </si>
   <si>
     <t xml:space="preserve">12.6716260910034</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8227043151855</t>
+    <t xml:space="preserve">12.8227033615112</t>
   </si>
   <si>
     <t xml:space="preserve">12.4072399139404</t>
@@ -776,16 +779,16 @@
     <t xml:space="preserve">12.388355255127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4450092315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7471656799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9171276092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2192811965942</t>
+    <t xml:space="preserve">12.4450101852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.747166633606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9171266555786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2192821502686</t>
   </si>
   <si>
     <t xml:space="preserve">13.502552986145</t>
@@ -797,16 +800,16 @@
     <t xml:space="preserve">13.7480535507202</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3145952224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7102842330933</t>
+    <t xml:space="preserve">14.3145942687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7102832794189</t>
   </si>
   <si>
     <t xml:space="preserve">13.4458990097046</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3514766693115</t>
+    <t xml:space="preserve">13.3514757156372</t>
   </si>
   <si>
     <t xml:space="preserve">12.614972114563</t>
@@ -818,10 +821,10 @@
     <t xml:space="preserve">12.5205488204956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6338567733765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4261245727539</t>
+    <t xml:space="preserve">12.6338577270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4261255264282</t>
   </si>
   <si>
     <t xml:space="preserve">12.5016651153564</t>
@@ -836,13 +839,13 @@
     <t xml:space="preserve">13.6536302566528</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4081296920776</t>
+    <t xml:space="preserve">13.408130645752</t>
   </si>
   <si>
     <t xml:space="preserve">13.0870895385742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9360122680664</t>
+    <t xml:space="preserve">12.9360113143921</t>
   </si>
   <si>
     <t xml:space="preserve">12.7849349975586</t>
@@ -857,37 +860,37 @@
     <t xml:space="preserve">13.0493202209473</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1248598098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.332592010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3137054443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5780916213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2948198318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8793573379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5394344329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6905107498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6527404785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0673160552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9917774200439</t>
+    <t xml:space="preserve">13.1248588562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3325929641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3137063980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5780906677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2948207855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.879358291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5394334793091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6905117034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6527414321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0673170089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9917783737183</t>
   </si>
   <si>
     <t xml:space="preserve">11.5007753372192</t>
@@ -896,7 +899,7 @@
     <t xml:space="preserve">11.2175045013428</t>
   </si>
   <si>
-    <t xml:space="preserve">11.293044090271</t>
+    <t xml:space="preserve">11.2930450439453</t>
   </si>
   <si>
     <t xml:space="preserve">11.2363901138306</t>
@@ -905,19 +908,19 @@
     <t xml:space="preserve">10.9531183242798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5196590423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308134078979</t>
+    <t xml:space="preserve">11.5196599960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308143615723</t>
   </si>
   <si>
     <t xml:space="preserve">11.4818897247314</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4252376556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5763139724731</t>
+    <t xml:space="preserve">11.4252367019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5763130187988</t>
   </si>
   <si>
     <t xml:space="preserve">11.3119277954102</t>
@@ -935,7 +938,7 @@
     <t xml:space="preserve">9.72561550140381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87580299377441</t>
+    <t xml:space="preserve">8.87580394744873</t>
   </si>
   <si>
     <t xml:space="preserve">8.97022724151611</t>
@@ -953,7 +956,7 @@
     <t xml:space="preserve">8.68695735931396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59253311157227</t>
+    <t xml:space="preserve">8.59253406524658</t>
   </si>
   <si>
     <t xml:space="preserve">9.82003879547119</t>
@@ -962,16 +965,16 @@
     <t xml:space="preserve">10.9153499603271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95223045349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4810037612915</t>
+    <t xml:space="preserve">9.95223140716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4810028076172</t>
   </si>
   <si>
     <t xml:space="preserve">10.4243488311768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8955774307251</t>
+    <t xml:space="preserve">9.89557647705078</t>
   </si>
   <si>
     <t xml:space="preserve">10.197732925415</t>
@@ -983,16 +986,16 @@
     <t xml:space="preserve">11.8973550796509</t>
   </si>
   <si>
-    <t xml:space="preserve">12.086199760437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7093954086304</t>
+    <t xml:space="preserve">12.0862007141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7093963623047</t>
   </si>
   <si>
     <t xml:space="preserve">12.8415880203247</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9728927612305</t>
+    <t xml:space="preserve">11.9728937149048</t>
   </si>
   <si>
     <t xml:space="preserve">13.9746704101562</t>
@@ -1007,7 +1010,7 @@
     <t xml:space="preserve">15.1644048690796</t>
   </si>
   <si>
-    <t xml:space="preserve">15.315484046936</t>
+    <t xml:space="preserve">15.3154830932617</t>
   </si>
   <si>
     <t xml:space="preserve">15.2021741867065</t>
@@ -1040,7 +1043,7 @@
     <t xml:space="preserve">14.2957096099854</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3901319503784</t>
+    <t xml:space="preserve">14.3901329040527</t>
   </si>
   <si>
     <t xml:space="preserve">14.0502090454102</t>
@@ -1049,10 +1052,10 @@
     <t xml:space="preserve">14.0690937042236</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9180154800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3334789276123</t>
+    <t xml:space="preserve">13.9180164337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.333477973938</t>
   </si>
   <si>
     <t xml:space="preserve">14.5789804458618</t>
@@ -1070,7 +1073,7 @@
     <t xml:space="preserve">15.0685682296753</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1636981964111</t>
+    <t xml:space="preserve">15.1636991500854</t>
   </si>
   <si>
     <t xml:space="preserve">15.049542427063</t>
@@ -1079,10 +1082,7 @@
     <t xml:space="preserve">15.030517578125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2588291168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5442180633545</t>
+    <t xml:space="preserve">15.5442171096802</t>
   </si>
   <si>
     <t xml:space="preserve">15.5061664581299</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">15.6964263916016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6012954711914</t>
+    <t xml:space="preserve">15.6012964248657</t>
   </si>
   <si>
     <t xml:space="preserve">15.2778549194336</t>
@@ -1103,13 +1103,13 @@
     <t xml:space="preserve">15.3539581298828</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1827249526978</t>
+    <t xml:space="preserve">15.1827259063721</t>
   </si>
   <si>
     <t xml:space="preserve">14.9163608551025</t>
   </si>
   <si>
-    <t xml:space="preserve">15.411036491394</t>
+    <t xml:space="preserve">15.4110374450684</t>
   </si>
   <si>
     <t xml:space="preserve">15.2017507553101</t>
@@ -1121,16 +1121,16 @@
     <t xml:space="preserve">15.6774005889893</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2207775115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7451276779175</t>
+    <t xml:space="preserve">15.2207765579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7451286315918</t>
   </si>
   <si>
     <t xml:space="preserve">15.8486328125</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4574661254883</t>
+    <t xml:space="preserve">16.4574642181396</t>
   </si>
   <si>
     <t xml:space="preserve">17.2755813598633</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">17.1804504394531</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7512321472168</t>
+    <t xml:space="preserve">17.7512302398682</t>
   </si>
   <si>
     <t xml:space="preserve">17.7322063446045</t>
@@ -1160,16 +1160,16 @@
     <t xml:space="preserve">18.3410358428955</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2078552246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6073989868164</t>
+    <t xml:space="preserve">18.2078533172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.607400894165</t>
   </si>
   <si>
     <t xml:space="preserve">18.6454524993896</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9795417785645</t>
+    <t xml:space="preserve">17.9795436859131</t>
   </si>
   <si>
     <t xml:space="preserve">17.8463611602783</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">18.2839584350586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7892837524414</t>
+    <t xml:space="preserve">17.7892818450928</t>
   </si>
   <si>
     <t xml:space="preserve">18.1317501068115</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">16.1149959564209</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7618789672852</t>
+    <t xml:space="preserve">16.7618808746338</t>
   </si>
   <si>
     <t xml:space="preserve">16.2481784820557</t>
@@ -1223,10 +1223,10 @@
     <t xml:space="preserve">15.6583738327026</t>
   </si>
   <si>
-    <t xml:space="preserve">16.057918548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.837984085083</t>
+    <t xml:space="preserve">16.0579204559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8379859924316</t>
   </si>
   <si>
     <t xml:space="preserve">16.8950634002686</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">16.5906448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7238273620605</t>
+    <t xml:space="preserve">16.7238292694092</t>
   </si>
   <si>
     <t xml:space="preserve">16.5716228485107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1614265441895</t>
+    <t xml:space="preserve">17.1614246368408</t>
   </si>
   <si>
     <t xml:space="preserve">17.0092182159424</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">16.628698348999</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7999305725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6667518615723</t>
+    <t xml:space="preserve">16.7999324798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6667499542236</t>
   </si>
   <si>
     <t xml:space="preserve">16.6477241516113</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">16.9331150054932</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9140892028809</t>
+    <t xml:space="preserve">16.9140872955322</t>
   </si>
   <si>
     <t xml:space="preserve">17.0662975311279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1233749389648</t>
+    <t xml:space="preserve">17.1233730316162</t>
   </si>
   <si>
     <t xml:space="preserve">17.1043472290039</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">15.7154531478882</t>
   </si>
   <si>
-    <t xml:space="preserve">15.239803314209</t>
+    <t xml:space="preserve">15.2398023605347</t>
   </si>
   <si>
     <t xml:space="preserve">14.9544124603271</t>
@@ -1295,19 +1295,19 @@
     <t xml:space="preserve">17.6370754241943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8189563751221</t>
+    <t xml:space="preserve">16.8189582824707</t>
   </si>
   <si>
     <t xml:space="preserve">15.9057111740112</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1720733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5335693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7809047698975</t>
+    <t xml:space="preserve">16.1720752716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5335674285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7809066772461</t>
   </si>
   <si>
     <t xml:space="preserve">17.1424007415771</t>
@@ -1319,10 +1319,10 @@
     <t xml:space="preserve">17.256555557251</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3897361755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9521427154541</t>
+    <t xml:space="preserve">17.3897380828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9521408081055</t>
   </si>
   <si>
     <t xml:space="preserve">17.2185020446777</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">18.2268810272217</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4171409606934</t>
+    <t xml:space="preserve">18.4171390533447</t>
   </si>
   <si>
     <t xml:space="preserve">18.8737640380859</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">18.3790874481201</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8760395050049</t>
+    <t xml:space="preserve">16.8760375976562</t>
   </si>
   <si>
     <t xml:space="preserve">17.047269821167</t>
@@ -1364,10 +1364,10 @@
     <t xml:space="preserve">16.3623371124268</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1340217590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0388946533203</t>
+    <t xml:space="preserve">16.1340236663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0388927459717</t>
   </si>
   <si>
     <t xml:space="preserve">15.8866853713989</t>
@@ -1376,13 +1376,13 @@
     <t xml:space="preserve">16.3052577972412</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1911010742188</t>
+    <t xml:space="preserve">16.1911029815674</t>
   </si>
   <si>
     <t xml:space="preserve">16.2672061920166</t>
   </si>
   <si>
-    <t xml:space="preserve">15.639347076416</t>
+    <t xml:space="preserve">15.6393480300903</t>
   </si>
   <si>
     <t xml:space="preserve">14.7831792831421</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">15.8105821609497</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0008411407471</t>
+    <t xml:space="preserve">16.0008392333984</t>
   </si>
   <si>
     <t xml:space="preserve">15.7535037994385</t>
@@ -1418,13 +1418,13 @@
     <t xml:space="preserve">15.9437637329102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1530494689941</t>
+    <t xml:space="preserve">16.1530513763428</t>
   </si>
   <si>
     <t xml:space="preserve">16.5145416259766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.408763885498</t>
+    <t xml:space="preserve">17.4087657928467</t>
   </si>
   <si>
     <t xml:space="preserve">17.4468173980713</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">18.4551906585693</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9605140686035</t>
+    <t xml:space="preserve">17.9605159759521</t>
   </si>
   <si>
     <t xml:space="preserve">18.816686630249</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">20.0724010467529</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1675281524658</t>
+    <t xml:space="preserve">20.1675300598145</t>
   </si>
   <si>
     <t xml:space="preserve">19.7870101928711</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">20.9285678863525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8334369659424</t>
+    <t xml:space="preserve">20.833438873291</t>
   </si>
   <si>
     <t xml:space="preserve">20.6431789398193</t>
@@ -1499,28 +1499,28 @@
     <t xml:space="preserve">20.9761352539062</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0236988067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5944766998291</t>
+    <t xml:space="preserve">21.0236968994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5944747924805</t>
   </si>
   <si>
     <t xml:space="preserve">21.9749965667725</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3555183410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6896076202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2139568328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4529209136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1199645996094</t>
+    <t xml:space="preserve">22.3555164337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6896057128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2139587402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4529190063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1199626922607</t>
   </si>
   <si>
     <t xml:space="preserve">19.8345737457275</t>
@@ -2871,6 +2871,9 @@
   </si>
   <si>
     <t xml:space="preserve">17.2399997711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9200000762939</t>
   </si>
 </sst>
 </file>
@@ -10198,7 +10201,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G269" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -10224,7 +10227,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G270" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -10250,7 +10253,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G271" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -10276,7 +10279,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G272" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10302,7 +10305,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G273" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -10328,7 +10331,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G274" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -10354,7 +10357,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G275" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -10380,7 +10383,7 @@
         <v>10.3703145980835</v>
       </c>
       <c r="G276" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -10406,7 +10409,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G277" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10432,7 +10435,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G278" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10458,7 +10461,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G279" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10484,7 +10487,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G280" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10536,7 +10539,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G282" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10614,7 +10617,7 @@
         <v>10.3314752578735</v>
       </c>
       <c r="G285" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10640,7 +10643,7 @@
         <v>10.6421957015991</v>
       </c>
       <c r="G286" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10666,7 +10669,7 @@
         <v>11.0500173568726</v>
       </c>
       <c r="G287" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10692,7 +10695,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G288" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10718,7 +10721,7 @@
         <v>10.9140768051147</v>
       </c>
       <c r="G289" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10744,7 +10747,7 @@
         <v>10.8752374649048</v>
       </c>
       <c r="G290" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10770,7 +10773,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G291" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10796,7 +10799,7 @@
         <v>10.8558168411255</v>
       </c>
       <c r="G292" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10822,7 +10825,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G293" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10848,7 +10851,7 @@
         <v>10.2926349639893</v>
       </c>
       <c r="G294" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -10874,7 +10877,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G295" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10900,7 +10903,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G296" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10926,7 +10929,7 @@
         <v>10.5062561035156</v>
       </c>
       <c r="G297" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10952,7 +10955,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G298" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10978,7 +10981,7 @@
         <v>10.3314752578735</v>
       </c>
       <c r="G299" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -11004,7 +11007,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G300" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -11030,7 +11033,7 @@
         <v>10.2732152938843</v>
       </c>
       <c r="G301" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -11056,7 +11059,7 @@
         <v>10.3703145980835</v>
       </c>
       <c r="G302" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -11082,7 +11085,7 @@
         <v>10.5450963973999</v>
       </c>
       <c r="G303" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -11108,7 +11111,7 @@
         <v>10.5839357376099</v>
       </c>
       <c r="G304" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -11134,7 +11137,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G305" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -11160,7 +11163,7 @@
         <v>10.253794670105</v>
       </c>
       <c r="G306" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -11186,7 +11189,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G307" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -11212,7 +11215,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G308" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -11238,7 +11241,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G309" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -11264,7 +11267,7 @@
         <v>10.7392959594727</v>
       </c>
       <c r="G310" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -11290,7 +11293,7 @@
         <v>10.7392959594727</v>
       </c>
       <c r="G311" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -11316,7 +11319,7 @@
         <v>10.8752374649048</v>
       </c>
       <c r="G312" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -11342,7 +11345,7 @@
         <v>11.0500173568726</v>
       </c>
       <c r="G313" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -11368,7 +11371,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G314" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -11394,7 +11397,7 @@
         <v>10.972336769104</v>
       </c>
       <c r="G315" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -11420,7 +11423,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G316" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -11446,7 +11449,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G317" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -11472,7 +11475,7 @@
         <v>11.6908798217773</v>
       </c>
       <c r="G318" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -11498,7 +11501,7 @@
         <v>12.15696144104</v>
       </c>
       <c r="G319" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11524,7 +11527,7 @@
         <v>11.943341255188</v>
       </c>
       <c r="G320" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11550,7 +11553,7 @@
         <v>11.943341255188</v>
       </c>
       <c r="G321" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11576,7 +11579,7 @@
         <v>12.0792808532715</v>
       </c>
       <c r="G322" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11602,7 +11605,7 @@
         <v>12.176381111145</v>
       </c>
       <c r="G323" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11628,7 +11631,7 @@
         <v>12.0598611831665</v>
       </c>
       <c r="G324" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11654,7 +11657,7 @@
         <v>12.15696144104</v>
       </c>
       <c r="G325" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11680,7 +11683,7 @@
         <v>12.176381111145</v>
       </c>
       <c r="G326" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11706,7 +11709,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G327" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11732,7 +11735,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G328" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11758,7 +11761,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G329" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11784,7 +11787,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G330" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11810,7 +11813,7 @@
         <v>13.0308637619019</v>
       </c>
       <c r="G331" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11836,7 +11839,7 @@
         <v>13.186224937439</v>
       </c>
       <c r="G332" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11862,7 +11865,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G333" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11888,7 +11891,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G334" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11914,7 +11917,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G335" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11940,7 +11943,7 @@
         <v>12.2929019927979</v>
       </c>
       <c r="G336" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11966,7 +11969,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G337" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11992,7 +11995,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G338" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -12018,7 +12021,7 @@
         <v>12.0210208892822</v>
       </c>
       <c r="G339" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -12044,7 +12047,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G340" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -12070,7 +12073,7 @@
         <v>12.0792808532715</v>
       </c>
       <c r="G341" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -12096,7 +12099,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G342" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -12122,7 +12125,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G343" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -12148,7 +12151,7 @@
         <v>12.4871015548706</v>
       </c>
       <c r="G344" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -12174,7 +12177,7 @@
         <v>12.681303024292</v>
       </c>
       <c r="G345" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -12200,7 +12203,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G346" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -12226,7 +12229,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G347" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -12252,7 +12255,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G348" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -12278,7 +12281,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G349" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -12304,7 +12307,7 @@
         <v>12.7978229522705</v>
       </c>
       <c r="G350" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -12330,7 +12333,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G351" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -12356,7 +12359,7 @@
         <v>13.2833251953125</v>
       </c>
       <c r="G352" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -12382,7 +12385,7 @@
         <v>13.5940456390381</v>
       </c>
       <c r="G353" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -12408,7 +12411,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G354" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -12434,7 +12437,7 @@
         <v>13.9824476242065</v>
       </c>
       <c r="G355" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -12460,7 +12463,7 @@
         <v>14.1378078460693</v>
       </c>
       <c r="G356" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -12486,7 +12489,7 @@
         <v>14.7204103469849</v>
       </c>
       <c r="G357" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -12512,7 +12515,7 @@
         <v>14.1378078460693</v>
       </c>
       <c r="G358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12538,7 +12541,7 @@
         <v>14.0989675521851</v>
       </c>
       <c r="G359" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12564,7 +12567,7 @@
         <v>13.8270874023438</v>
       </c>
       <c r="G360" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12590,7 +12593,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G361" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12616,7 +12619,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G362" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12642,7 +12645,7 @@
         <v>12.9726037979126</v>
       </c>
       <c r="G363" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12668,7 +12671,7 @@
         <v>12.9337644577026</v>
       </c>
       <c r="G364" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12694,7 +12697,7 @@
         <v>12.8755035400391</v>
       </c>
       <c r="G365" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12720,7 +12723,7 @@
         <v>12.9920244216919</v>
       </c>
       <c r="G366" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12746,7 +12749,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G367" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12772,7 +12775,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G368" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12798,7 +12801,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G369" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12824,7 +12827,7 @@
         <v>12.7784032821655</v>
       </c>
       <c r="G370" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12850,7 +12853,7 @@
         <v>12.8560838699341</v>
       </c>
       <c r="G371" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12876,7 +12879,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G372" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12902,7 +12905,7 @@
         <v>15.2835922241211</v>
       </c>
       <c r="G373" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12928,7 +12931,7 @@
         <v>14.5650501251221</v>
       </c>
       <c r="G374" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12954,7 +12957,7 @@
         <v>14.0407075881958</v>
       </c>
       <c r="G375" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12980,7 +12983,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G376" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -13006,7 +13009,7 @@
         <v>13.4581060409546</v>
       </c>
       <c r="G377" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13032,7 +13035,7 @@
         <v>13.3027448654175</v>
       </c>
       <c r="G378" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13058,7 +13061,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G379" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13084,7 +13087,7 @@
         <v>13.1473846435547</v>
       </c>
       <c r="G380" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13110,7 +13113,7 @@
         <v>12.9531841278076</v>
       </c>
       <c r="G381" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -13136,7 +13139,7 @@
         <v>12.9531841278076</v>
       </c>
       <c r="G382" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -13162,7 +13165,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G383" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -13188,7 +13191,7 @@
         <v>12.8755035400391</v>
       </c>
       <c r="G384" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -13214,7 +13217,7 @@
         <v>13.380425453186</v>
       </c>
       <c r="G385" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -13240,7 +13243,7 @@
         <v>13.4192657470703</v>
       </c>
       <c r="G386" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -13266,7 +13269,7 @@
         <v>13.4969463348389</v>
       </c>
       <c r="G387" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13292,7 +13295,7 @@
         <v>13.7105674743652</v>
       </c>
       <c r="G388" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13318,7 +13321,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G389" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13344,7 +13347,7 @@
         <v>13.6911468505859</v>
       </c>
       <c r="G390" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13370,7 +13373,7 @@
         <v>13.9630270004272</v>
       </c>
       <c r="G391" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13396,7 +13399,7 @@
         <v>13.9630270004272</v>
       </c>
       <c r="G392" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13422,7 +13425,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G393" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13448,7 +13451,7 @@
         <v>13.4581060409546</v>
       </c>
       <c r="G394" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13474,7 +13477,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G395" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13500,7 +13503,7 @@
         <v>13.6717262268066</v>
       </c>
       <c r="G396" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13526,7 +13529,7 @@
         <v>13.2444849014282</v>
       </c>
       <c r="G397" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13552,7 +13555,7 @@
         <v>12.8949241638184</v>
       </c>
       <c r="G398" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13578,7 +13581,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G399" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13604,7 +13607,7 @@
         <v>13.0502843856812</v>
       </c>
       <c r="G400" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13630,7 +13633,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G401" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13656,7 +13659,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G402" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13682,7 +13685,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G403" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13708,7 +13711,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G404" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13734,7 +13737,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G405" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13760,7 +13763,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G406" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13786,7 +13789,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G407" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13812,7 +13815,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G408" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13838,7 +13841,7 @@
         <v>12.4871015548706</v>
       </c>
       <c r="G409" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13864,7 +13867,7 @@
         <v>12.4094219207764</v>
       </c>
       <c r="G410" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13890,7 +13893,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G411" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13916,7 +13919,7 @@
         <v>11.8268203735352</v>
       </c>
       <c r="G412" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13942,7 +13945,7 @@
         <v>11.5355186462402</v>
       </c>
       <c r="G413" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13968,7 +13971,7 @@
         <v>11.6131992340088</v>
       </c>
       <c r="G414" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13994,7 +13997,7 @@
         <v>11.5549392700195</v>
       </c>
       <c r="G415" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14020,7 +14023,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G416" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14046,7 +14049,7 @@
         <v>11.5549392700195</v>
       </c>
       <c r="G417" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14072,7 +14075,7 @@
         <v>11.2636375427246</v>
       </c>
       <c r="G418" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14098,7 +14101,7 @@
         <v>11.5355186462402</v>
       </c>
       <c r="G419" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14124,7 +14127,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G420" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14150,7 +14153,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G421" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14176,7 +14179,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G422" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14202,7 +14205,7 @@
         <v>11.8073997497559</v>
       </c>
       <c r="G423" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14228,7 +14231,7 @@
         <v>11.7491397857666</v>
       </c>
       <c r="G424" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14254,7 +14257,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G425" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14280,7 +14283,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G426" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14306,7 +14309,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G427" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14332,7 +14335,7 @@
         <v>11.7491397857666</v>
       </c>
       <c r="G428" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14358,7 +14361,7 @@
         <v>11.8073997497559</v>
       </c>
       <c r="G429" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14384,7 +14387,7 @@
         <v>11.9045000076294</v>
       </c>
       <c r="G430" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14410,7 +14413,7 @@
         <v>11.6326189041138</v>
       </c>
       <c r="G431" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14436,7 +14439,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G432" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14462,7 +14465,7 @@
         <v>10.972336769104</v>
       </c>
       <c r="G433" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14488,7 +14491,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G434" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14514,7 +14517,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G435" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14540,7 +14543,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G436" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14566,7 +14569,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G437" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14592,7 +14595,7 @@
         <v>10.9140768051147</v>
       </c>
       <c r="G438" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14618,7 +14621,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G439" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14644,7 +14647,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G440" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14670,7 +14673,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G441" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14696,7 +14699,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G442" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14722,7 +14725,7 @@
         <v>9.86539268493652</v>
       </c>
       <c r="G443" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14748,7 +14751,7 @@
         <v>9.84597301483154</v>
       </c>
       <c r="G444" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14774,7 +14777,7 @@
         <v>9.30221080780029</v>
       </c>
       <c r="G445" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14800,7 +14803,7 @@
         <v>10.0013341903687</v>
       </c>
       <c r="G446" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14826,7 +14829,7 @@
         <v>9.12743091583252</v>
       </c>
       <c r="G447" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14878,7 +14881,7 @@
         <v>9.22453117370605</v>
       </c>
       <c r="G449" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14904,7 +14907,7 @@
         <v>8.59337902069092</v>
       </c>
       <c r="G450" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14930,7 +14933,7 @@
         <v>8.6322193145752</v>
       </c>
       <c r="G451" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14956,7 +14959,7 @@
         <v>8.58366870880127</v>
       </c>
       <c r="G452" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14982,7 +14985,7 @@
         <v>8.93323040008545</v>
       </c>
       <c r="G453" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15008,7 +15011,7 @@
         <v>8.83613014221191</v>
       </c>
       <c r="G454" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15034,7 +15037,7 @@
         <v>10.0984344482422</v>
       </c>
       <c r="G455" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15060,7 +15063,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G456" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15086,7 +15089,7 @@
         <v>11.6326189041138</v>
       </c>
       <c r="G457" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15112,7 +15115,7 @@
         <v>11.2247982025146</v>
       </c>
       <c r="G458" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -15138,7 +15141,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G459" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15164,7 +15167,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G460" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -15190,7 +15193,7 @@
         <v>10.234375</v>
       </c>
       <c r="G461" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -15216,7 +15219,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G462" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15242,7 +15245,7 @@
         <v>10.7781372070312</v>
       </c>
       <c r="G463" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15268,7 +15271,7 @@
         <v>10.7198762893677</v>
       </c>
       <c r="G464" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15294,7 +15297,7 @@
         <v>10.2926349639893</v>
       </c>
       <c r="G465" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15320,7 +15323,7 @@
         <v>10.2732152938843</v>
       </c>
       <c r="G466" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15346,7 +15349,7 @@
         <v>10.1761140823364</v>
       </c>
       <c r="G467" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15372,7 +15375,7 @@
         <v>10.4868364334106</v>
       </c>
       <c r="G468" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15398,7 +15401,7 @@
         <v>11.2053775787354</v>
       </c>
       <c r="G469" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15424,7 +15427,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G470" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15450,7 +15453,7 @@
         <v>11.8268203735352</v>
       </c>
       <c r="G471" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15476,7 +15479,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G472" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15502,7 +15505,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G473" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15528,7 +15531,7 @@
         <v>12.2346420288086</v>
       </c>
       <c r="G474" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15554,7 +15557,7 @@
         <v>12.4288415908813</v>
       </c>
       <c r="G475" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15580,7 +15583,7 @@
         <v>13.0697040557861</v>
       </c>
       <c r="G476" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15606,7 +15609,7 @@
         <v>13.1473846435547</v>
       </c>
       <c r="G477" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15632,7 +15635,7 @@
         <v>13.2056446075439</v>
       </c>
       <c r="G478" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15658,7 +15661,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G479" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15684,7 +15687,7 @@
         <v>12.9337644577026</v>
       </c>
       <c r="G480" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15710,7 +15713,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G481" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15736,7 +15739,7 @@
         <v>12.3123216629028</v>
       </c>
       <c r="G482" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15762,7 +15765,7 @@
         <v>12.4288415908813</v>
       </c>
       <c r="G483" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15788,7 +15791,7 @@
         <v>12.7784032821655</v>
       </c>
       <c r="G484" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15814,7 +15817,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G485" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15840,7 +15843,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G486" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15866,7 +15869,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G487" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15892,7 +15895,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G488" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15918,7 +15921,7 @@
         <v>14.3708486557007</v>
       </c>
       <c r="G489" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15944,7 +15947,7 @@
         <v>14.1183881759644</v>
       </c>
       <c r="G490" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15970,7 +15973,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G491" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15996,7 +15999,7 @@
         <v>14.2931690216064</v>
       </c>
       <c r="G492" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16022,7 +16025,7 @@
         <v>15.5943126678467</v>
       </c>
       <c r="G493" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16048,7 +16051,7 @@
         <v>15.7496738433838</v>
       </c>
       <c r="G494" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16074,7 +16077,7 @@
         <v>15.633152961731</v>
       </c>
       <c r="G495" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16100,7 +16103,7 @@
         <v>14.9146108627319</v>
       </c>
       <c r="G496" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16126,7 +16129,7 @@
         <v>16.0021343231201</v>
       </c>
       <c r="G497" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16152,7 +16155,7 @@
         <v>16.4876365661621</v>
       </c>
       <c r="G498" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -16178,7 +16181,7 @@
         <v>16.7206764221191</v>
       </c>
       <c r="G499" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -16204,7 +16207,7 @@
         <v>16.1186542510986</v>
       </c>
       <c r="G500" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16230,7 +16233,7 @@
         <v>15.6525726318359</v>
       </c>
       <c r="G501" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16256,7 +16259,7 @@
         <v>15.3030118942261</v>
       </c>
       <c r="G502" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16282,7 +16285,7 @@
         <v>15.1476516723633</v>
       </c>
       <c r="G503" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16308,7 +16311,7 @@
         <v>14.7009897232056</v>
       </c>
       <c r="G504" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16334,7 +16337,7 @@
         <v>14.7009897232056</v>
       </c>
       <c r="G505" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16360,7 +16363,7 @@
         <v>14.7980899810791</v>
       </c>
       <c r="G506" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16386,7 +16389,7 @@
         <v>14.4485292434692</v>
       </c>
       <c r="G507" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16412,7 +16415,7 @@
         <v>14.4679489135742</v>
       </c>
       <c r="G508" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16438,7 +16441,7 @@
         <v>14.3125886917114</v>
       </c>
       <c r="G509" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16464,7 +16467,7 @@
         <v>14.7398300170898</v>
       </c>
       <c r="G510" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16490,7 +16493,7 @@
         <v>14.9922914505005</v>
       </c>
       <c r="G511" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16516,7 +16519,7 @@
         <v>15.4001121520996</v>
       </c>
       <c r="G512" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16542,7 +16545,7 @@
         <v>15.6914129257202</v>
       </c>
       <c r="G513" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16568,7 +16571,7 @@
         <v>15.128231048584</v>
       </c>
       <c r="G514" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16594,7 +16597,7 @@
         <v>15.3806915283203</v>
       </c>
       <c r="G515" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16620,7 +16623,7 @@
         <v>15.4777927398682</v>
       </c>
       <c r="G516" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16646,7 +16649,7 @@
         <v>15.3612718582153</v>
       </c>
       <c r="G517" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16672,7 +16675,7 @@
         <v>15.3418521881104</v>
       </c>
       <c r="G518" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16698,7 +16701,7 @@
         <v>15.5748929977417</v>
       </c>
       <c r="G519" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16750,7 +16753,7 @@
         <v>15.3806915283203</v>
       </c>
       <c r="G521" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17296,7 +17299,7 @@
         <v>15.3612718582153</v>
       </c>
       <c r="G542" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -21300,7 +21303,7 @@
         <v>15.3418521881104</v>
       </c>
       <c r="G696" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -43044,7 +43047,7 @@
     </row>
     <row r="1533">
       <c r="A1533" s="1" t="n">
-        <v>45461.6496412037</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B1533" t="n">
         <v>22910</v>
@@ -43065,6 +43068,32 @@
         <v>952</v>
       </c>
       <c r="H1533" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="1" t="n">
+        <v>45462.6493634259</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>104928</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>17.4200000762939</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>16.8799991607666</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>17.2399997711182</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>16.9200000762939</v>
+      </c>
+      <c r="G1534" t="s">
+        <v>953</v>
+      </c>
+      <c r="H1534" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="956">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63556337356567</t>
+    <t xml:space="preserve">7.63556289672852</t>
   </si>
   <si>
     <t xml:space="preserve">CRL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95949459075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86694383621216</t>
+    <t xml:space="preserve">7.95949554443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.866943359375</t>
   </si>
   <si>
     <t xml:space="preserve">7.77439212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74477386474609</t>
+    <t xml:space="preserve">7.74477291107178</t>
   </si>
   <si>
     <t xml:space="preserve">7.92987823486328</t>
@@ -71,16 +71,16 @@
     <t xml:space="preserve">7.4976601600647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35512924194336</t>
+    <t xml:space="preserve">7.35513019561768</t>
   </si>
   <si>
     <t xml:space="preserve">7.57910633087158</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51987314224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62630796432495</t>
+    <t xml:space="preserve">7.51987266540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62630748748779</t>
   </si>
   <si>
     <t xml:space="preserve">7.49673509597778</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">7.59854221343994</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70219993591309</t>
+    <t xml:space="preserve">7.7022008895874</t>
   </si>
   <si>
     <t xml:space="preserve">7.85768890380859</t>
@@ -104,85 +104,85 @@
     <t xml:space="preserve">7.97893238067627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06130504608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92247343063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0770378112793</t>
+    <t xml:space="preserve">8.06130409240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92247486114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07703685760498</t>
   </si>
   <si>
     <t xml:space="preserve">7.87064599990845</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82066822052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90766620635986</t>
+    <t xml:space="preserve">7.82066679000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90766763687134</t>
   </si>
   <si>
     <t xml:space="preserve">7.74847602844238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84843301773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80215787887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94561386108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61797857284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72811460494995</t>
+    <t xml:space="preserve">7.84843349456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80215692520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94561290740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6179780960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72811603546143</t>
   </si>
   <si>
     <t xml:space="preserve">7.84102964401245</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80400848388672</t>
+    <t xml:space="preserve">7.80400943756104</t>
   </si>
   <si>
     <t xml:space="preserve">8.05204772949219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11776065826416</t>
+    <t xml:space="preserve">8.11775970458984</t>
   </si>
   <si>
     <t xml:space="preserve">8.17236614227295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36302471160889</t>
+    <t xml:space="preserve">8.36302375793457</t>
   </si>
   <si>
     <t xml:space="preserve">8.52406406402588</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54720306396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81652927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02384662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66289329528809</t>
+    <t xml:space="preserve">8.54720211029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81653022766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02384853363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66289234161377</t>
   </si>
   <si>
     <t xml:space="preserve">8.34821510314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31119346618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53054332733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42225742340088</t>
+    <t xml:space="preserve">8.31119441986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53054237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4222583770752</t>
   </si>
   <si>
     <t xml:space="preserve">8.51480960845947</t>
@@ -203,34 +203,34 @@
     <t xml:space="preserve">8.857253074646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07012271881104</t>
+    <t xml:space="preserve">9.07012462615967</t>
   </si>
   <si>
     <t xml:space="preserve">8.93222045898438</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18118667602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20895195007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40330982208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16267681121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18211078643799</t>
+    <t xml:space="preserve">9.18118572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20895099639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40331172943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16267490386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18211269378662</t>
   </si>
   <si>
     <t xml:space="preserve">9.05531406402588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25152683258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12658023834229</t>
+    <t xml:space="preserve">9.25152587890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12657928466797</t>
   </si>
   <si>
     <t xml:space="preserve">9.08863353729248</t>
@@ -248,10 +248,10 @@
     <t xml:space="preserve">8.96553897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73323249816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56849002838135</t>
+    <t xml:space="preserve">8.73323345184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56848907470703</t>
   </si>
   <si>
     <t xml:space="preserve">8.03909015655518</t>
@@ -263,73 +263,73 @@
     <t xml:space="preserve">8.46853351593018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60736083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65363788604736</t>
+    <t xml:space="preserve">8.60736274719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65363883972168</t>
   </si>
   <si>
     <t xml:space="preserve">8.69991397857666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87113571166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08721733093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80678462982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97800540924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40189647674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83781623840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84059238433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81745433807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56663799285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66104221343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7637767791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63882923126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45279884338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40097045898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62217140197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7822847366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11220741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09924983978271</t>
+    <t xml:space="preserve">8.87113475799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08721828460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80678558349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97800636291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40189552307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83781719207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84059429168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81745529174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5666389465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66104125976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76377487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63883113861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45279979705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40096950531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62217044830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78228569030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11220836639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09925079345703</t>
   </si>
   <si>
     <t xml:space="preserve">8.1446008682251</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2473316192627</t>
+    <t xml:space="preserve">8.24733257293701</t>
   </si>
   <si>
     <t xml:space="preserve">8.61013889312744</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">8.39449214935303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57034015655518</t>
+    <t xml:space="preserve">8.57033920288086</t>
   </si>
   <si>
     <t xml:space="preserve">8.98497486114502</t>
@@ -347,13 +347,13 @@
     <t xml:space="preserve">9.10344123840332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03865528106689</t>
+    <t xml:space="preserve">9.03865623474121</t>
   </si>
   <si>
     <t xml:space="preserve">9.08123016357422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21820735931396</t>
+    <t xml:space="preserve">9.21820640563965</t>
   </si>
   <si>
     <t xml:space="preserve">8.91278457641602</t>
@@ -362,49 +362,49 @@
     <t xml:space="preserve">9.14416408538818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91926193237305</t>
+    <t xml:space="preserve">8.91926383972168</t>
   </si>
   <si>
     <t xml:space="preserve">8.36394882202148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29268264770508</t>
+    <t xml:space="preserve">8.29268455505371</t>
   </si>
   <si>
     <t xml:space="preserve">8.32970523834229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39726734161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25936603546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46390533447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33340644836426</t>
+    <t xml:space="preserve">8.39726829528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25936508178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46390628814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33340740203857</t>
   </si>
   <si>
     <t xml:space="preserve">8.35747146606445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56108665466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49629878997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28342819213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41392707824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27972602844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21123695373535</t>
+    <t xml:space="preserve">8.56108474731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49629783630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28342914581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41392803192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27972507476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21123790740967</t>
   </si>
   <si>
     <t xml:space="preserve">8.45927906036377</t>
@@ -422,61 +422,61 @@
     <t xml:space="preserve">8.83411407470703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78321075439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16545104980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13028335571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96183586120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89797592163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04143142700195</t>
+    <t xml:space="preserve">8.78320980072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.165452003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13028144836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96183681488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89797687530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04143238067627</t>
   </si>
   <si>
     <t xml:space="preserve">9.11639881134033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30150413513184</t>
+    <t xml:space="preserve">9.30150318145752</t>
   </si>
   <si>
     <t xml:space="preserve">9.27188777923584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42922592163086</t>
+    <t xml:space="preserve">9.42922496795654</t>
   </si>
   <si>
     <t xml:space="preserve">9.46254539489746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67911624908447</t>
+    <t xml:space="preserve">9.67911720275879</t>
   </si>
   <si>
     <t xml:space="preserve">9.71798896789551</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7642650604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66245651245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71243667602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38665199279785</t>
+    <t xml:space="preserve">9.76426696777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66245746612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71243572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38665103912354</t>
   </si>
   <si>
     <t xml:space="preserve">9.68652057647705</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56065082550049</t>
+    <t xml:space="preserve">9.56064987182617</t>
   </si>
   <si>
     <t xml:space="preserve">9.5791597366333</t>
@@ -497,16 +497,16 @@
     <t xml:space="preserve">9.32926940917969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21265602111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12565326690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00533580780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43799114227295</t>
+    <t xml:space="preserve">9.21265411376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12565422058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00533676147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43799018859863</t>
   </si>
   <si>
     <t xml:space="preserve">8.82300758361816</t>
@@ -515,10 +515,10 @@
     <t xml:space="preserve">9.07104778289795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25522899627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03310298919678</t>
+    <t xml:space="preserve">9.25522708892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03310203552246</t>
   </si>
   <si>
     <t xml:space="preserve">9.17193126678467</t>
@@ -527,70 +527,70 @@
     <t xml:space="preserve">9.51437377929688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45884323120117</t>
+    <t xml:space="preserve">9.45884132385254</t>
   </si>
   <si>
     <t xml:space="preserve">9.8105411529541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53288459777832</t>
+    <t xml:space="preserve">9.53288555145264</t>
   </si>
   <si>
     <t xml:space="preserve">9.60692596435547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82905101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7550106048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97713375091553</t>
+    <t xml:space="preserve">9.82905197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75501251220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97713565826416</t>
   </si>
   <si>
     <t xml:space="preserve">10.0696878433228</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1252193450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86607265472412</t>
+    <t xml:space="preserve">10.1252183914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8660717010498</t>
   </si>
   <si>
     <t xml:space="preserve">9.99564647674561</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88458347320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0141563415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1437301635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1807508468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73650074005127</t>
+    <t xml:space="preserve">9.88458156585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0141572952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1437292098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1807498931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73650169372559</t>
   </si>
   <si>
     <t xml:space="preserve">9.84756278991699</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9030933380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94011497497559</t>
+    <t xml:space="preserve">9.90309238433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94011306762695</t>
   </si>
   <si>
     <t xml:space="preserve">10.2177715301514</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2362823486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3843669891357</t>
+    <t xml:space="preserve">10.2362813949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3843650817871</t>
   </si>
   <si>
     <t xml:space="preserve">10.1067094802856</t>
@@ -599,16 +599,16 @@
     <t xml:space="preserve">10.0881986618042</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1992607116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5879812240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6805334091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7360649108887</t>
+    <t xml:space="preserve">10.1992616653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5879802703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6805324554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.73606300354</t>
   </si>
   <si>
     <t xml:space="preserve">10.8101062774658</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">10.5509605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139379501343</t>
+    <t xml:space="preserve">10.5139389038086</t>
   </si>
   <si>
     <t xml:space="preserve">10.4028759002686</t>
@@ -632,37 +632,40 @@
     <t xml:space="preserve">9.92160320281982</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2551317214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0122947692871</t>
+    <t xml:space="preserve">10.2551298141479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0122938156128</t>
   </si>
   <si>
     <t xml:space="preserve">9.95625495910645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99361515045166</t>
+    <t xml:space="preserve">9.99361419677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2177705764771</t>
   </si>
   <si>
     <t xml:space="preserve">10.0683336257935</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2738103866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2924890518188</t>
+    <t xml:space="preserve">10.2738094329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2924900054932</t>
   </si>
   <si>
     <t xml:space="preserve">10.161732673645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97493553161621</t>
+    <t xml:space="preserve">9.97493362426758</t>
   </si>
   <si>
     <t xml:space="preserve">10.1243724822998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80681991577148</t>
+    <t xml:space="preserve">9.80681896209717</t>
   </si>
   <si>
     <t xml:space="preserve">9.93757629394531</t>
@@ -671,7 +674,7 @@
     <t xml:space="preserve">10.2364501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6287240982056</t>
+    <t xml:space="preserve">10.6287231445312</t>
   </si>
   <si>
     <t xml:space="preserve">10.4792861938477</t>
@@ -695,7 +698,7 @@
     <t xml:space="preserve">10.1056938171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88153743743896</t>
+    <t xml:space="preserve">9.88153839111328</t>
   </si>
   <si>
     <t xml:space="preserve">10.1430530548096</t>
@@ -713,55 +716,55 @@
     <t xml:space="preserve">10.9275979995728</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5540046691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1417760848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2451515197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6934633255005</t>
+    <t xml:space="preserve">10.5540056228638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1417751312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.245153427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6934642791748</t>
   </si>
   <si>
     <t xml:space="preserve">11.4879884719849</t>
   </si>
   <si>
-    <t xml:space="preserve">11.618745803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7121438980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6000652313232</t>
+    <t xml:space="preserve">11.6187448501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7121429443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6000661849976</t>
   </si>
   <si>
     <t xml:space="preserve">12.0483779907227</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2351741790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3285713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.53404712677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6834869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2725343704224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6561040878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.674783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8242225646973</t>
+    <t xml:space="preserve">12.2351732254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3285722732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5340480804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6834850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2725324630737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6561050415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6747846603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8242216110229</t>
   </si>
   <si>
     <t xml:space="preserve">11.5627059936523</t>
@@ -773,13 +776,13 @@
     <t xml:space="preserve">12.1978149414062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2538537979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3098917007446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6087675094604</t>
+    <t xml:space="preserve">12.2538528442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3098926544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6087684631348</t>
   </si>
   <si>
     <t xml:space="preserve">12.7768831253052</t>
@@ -791,13 +794,13 @@
     <t xml:space="preserve">13.3559532165527</t>
   </si>
   <si>
-    <t xml:space="preserve">13.44935131073</t>
+    <t xml:space="preserve">13.4493522644043</t>
   </si>
   <si>
     <t xml:space="preserve">13.5987882614136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1591796875</t>
+    <t xml:space="preserve">14.1591777801514</t>
   </si>
   <si>
     <t xml:space="preserve">13.5614290237427</t>
@@ -809,13 +812,13 @@
     <t xml:space="preserve">13.2065162658691</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4780101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4406499862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3846111297607</t>
+    <t xml:space="preserve">12.478009223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4406509399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3846120834351</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966888427734</t>
@@ -824,46 +827,46 @@
     <t xml:space="preserve">12.2912130355835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3659315109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.700888633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0097417831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5053911209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2625541687012</t>
+    <t xml:space="preserve">12.3659324645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7008895874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0097427368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.505389213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2625551223755</t>
   </si>
   <si>
     <t xml:space="preserve">12.9450006484985</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7955627441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6461267471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4593305587769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8702831268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9076433181763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9823598861694</t>
+    <t xml:space="preserve">12.7955617904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6461277008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4593296051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8702821731567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9076414108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9823608398438</t>
   </si>
   <si>
     <t xml:space="preserve">13.187837600708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1691560745239</t>
+    <t xml:space="preserve">13.1691570281982</t>
   </si>
   <si>
     <t xml:space="preserve">13.4306716918945</t>
@@ -872,10 +875,10 @@
     <t xml:space="preserve">13.1504764556885</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7395238876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4032907485962</t>
+    <t xml:space="preserve">12.7395248413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4032917022705</t>
   </si>
   <si>
     <t xml:space="preserve">12.5527286529541</t>
@@ -884,19 +887,19 @@
     <t xml:space="preserve">12.5153684616089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9362983703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8615827560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3759107589722</t>
+    <t xml:space="preserve">11.93630027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8615818023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3759088516235</t>
   </si>
   <si>
     <t xml:space="preserve">11.0957145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1704330444336</t>
+    <t xml:space="preserve">11.1704339981079</t>
   </si>
   <si>
     <t xml:space="preserve">11.1143941879272</t>
@@ -905,31 +908,31 @@
     <t xml:space="preserve">10.8341989517212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3945894241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2077922821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3572301864624</t>
+    <t xml:space="preserve">11.394588470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2077941894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3572282791138</t>
   </si>
   <si>
     <t xml:space="preserve">11.3011913299561</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4506282806396</t>
+    <t xml:space="preserve">11.4506273269653</t>
   </si>
   <si>
     <t xml:space="preserve">11.189112663269</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4892635345459</t>
+    <t xml:space="preserve">9.48926448822021</t>
   </si>
   <si>
     <t xml:space="preserve">9.47058486938477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94755268096924</t>
+    <t xml:space="preserve">8.94755458831787</t>
   </si>
   <si>
     <t xml:space="preserve">9.62002277374268</t>
@@ -938,10 +941,10 @@
     <t xml:space="preserve">8.77943801879883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87283611297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26574802398682</t>
+    <t xml:space="preserve">8.87283515930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2657470703125</t>
   </si>
   <si>
     <t xml:space="preserve">8.3031063079834</t>
@@ -950,7 +953,7 @@
     <t xml:space="preserve">8.25640773773193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59264183044434</t>
+    <t xml:space="preserve">8.59264087677002</t>
   </si>
   <si>
     <t xml:space="preserve">8.49924373626709</t>
@@ -962,16 +965,16 @@
     <t xml:space="preserve">10.7968406677246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84417819976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.367208480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3111686706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78813934326172</t>
+    <t xml:space="preserve">9.8441801071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3672094345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3111696243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7881383895874</t>
   </si>
   <si>
     <t xml:space="preserve">10.0870141983032</t>
@@ -980,19 +983,19 @@
     <t xml:space="preserve">10.7781600952148</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7681827545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9549779891968</t>
+    <t xml:space="preserve">11.7681837081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9549798965454</t>
   </si>
   <si>
     <t xml:space="preserve">12.5714073181152</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7021656036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8429021835327</t>
+    <t xml:space="preserve">12.7021646499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8429012298584</t>
   </si>
   <si>
     <t xml:space="preserve">13.8229446411133</t>
@@ -1004,10 +1007,10 @@
     <t xml:space="preserve">13.7482271194458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9997634887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1492004394531</t>
+    <t xml:space="preserve">14.9997625350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1492013931274</t>
   </si>
   <si>
     <t xml:space="preserve">15.0371217727661</t>
@@ -1016,40 +1019,40 @@
     <t xml:space="preserve">14.3459749221802</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3920364379883</t>
+    <t xml:space="preserve">15.392035484314</t>
   </si>
   <si>
     <t xml:space="preserve">15.8590278625488</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0831813812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5041131973267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0558013916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7195692062378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5701322555542</t>
+    <t xml:space="preserve">16.0831832885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5041122436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0558004379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7195682525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5701313018799</t>
   </si>
   <si>
     <t xml:space="preserve">14.1404991149902</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2338962554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8976640701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9163436889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7669057846069</t>
+    <t xml:space="preserve">14.2338972091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8976631164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9163427352905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7669067382812</t>
   </si>
   <si>
     <t xml:space="preserve">14.1778573989868</t>
@@ -1058,7 +1061,7 @@
     <t xml:space="preserve">14.420693397522</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8129653930664</t>
+    <t xml:space="preserve">14.8129663467407</t>
   </si>
   <si>
     <t xml:space="preserve">15.0931606292725</t>
@@ -1070,7 +1073,7 @@
     <t xml:space="preserve">14.9049663543701</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9990634918213</t>
+    <t xml:space="preserve">14.9990644454956</t>
   </si>
   <si>
     <t xml:space="preserve">14.8861474990845</t>
@@ -1079,22 +1082,19 @@
     <t xml:space="preserve">14.8673286437988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0931615829468</t>
-  </si>
-  <si>
     <t xml:space="preserve">15.3754510879517</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3378133773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.526008605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4319095611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1119804382324</t>
+    <t xml:space="preserve">15.3378143310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5260076522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4319105148315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1119794845581</t>
   </si>
   <si>
     <t xml:space="preserve">14.7167730331421</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">15.1872577667236</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0178833007812</t>
+    <t xml:space="preserve">15.0178842544556</t>
   </si>
   <si>
     <t xml:space="preserve">14.7544116973877</t>
@@ -1112,22 +1112,22 @@
     <t xml:space="preserve">15.2437171936035</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0367040634155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1308002471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5071887969971</t>
+    <t xml:space="preserve">15.0367031097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1307992935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5071878433228</t>
   </si>
   <si>
     <t xml:space="preserve">15.0555229187012</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5850372314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6765604019165</t>
+    <t xml:space="preserve">14.5850381851196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6765613555908</t>
   </si>
   <si>
     <t xml:space="preserve">16.2787818908691</t>
@@ -1139,31 +1139,31 @@
     <t xml:space="preserve">17.8031558990479</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8433666229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9939193725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.558500289917</t>
+    <t xml:space="preserve">16.8433647155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9939212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5585021972656</t>
   </si>
   <si>
     <t xml:space="preserve">17.5396842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5208625793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.916072845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1419048309326</t>
+    <t xml:space="preserve">17.5208644866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9160709381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.141902923584</t>
   </si>
   <si>
     <t xml:space="preserve">18.0101680755615</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4053745269775</t>
+    <t xml:space="preserve">18.4053764343262</t>
   </si>
   <si>
     <t xml:space="preserve">18.4430141448975</t>
@@ -1181,16 +1181,16 @@
     <t xml:space="preserve">18.8194046020508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.289888381958</t>
+    <t xml:space="preserve">19.2898864746094</t>
   </si>
   <si>
     <t xml:space="preserve">18.4618339538574</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3489170074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1607265472412</t>
+    <t xml:space="preserve">18.3489189147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1607227325439</t>
   </si>
   <si>
     <t xml:space="preserve">17.5020446777344</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">17.9348888397217</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0503787994385</t>
+    <t xml:space="preserve">17.0503807067871</t>
   </si>
   <si>
     <t xml:space="preserve">16.7869052886963</t>
@@ -1217,10 +1217,10 @@
     <t xml:space="preserve">16.5798931121826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0717697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4883680343628</t>
+    <t xml:space="preserve">16.0717678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4883670806885</t>
   </si>
   <si>
     <t xml:space="preserve">15.8835754394531</t>
@@ -1229,10 +1229,10 @@
     <t xml:space="preserve">16.6551723480225</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7116279602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4105205535889</t>
+    <t xml:space="preserve">16.7116317749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4105186462402</t>
   </si>
   <si>
     <t xml:space="preserve">16.5422554016113</t>
@@ -1241,13 +1241,13 @@
     <t xml:space="preserve">16.3917026519775</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9751014709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8245468139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4481601715088</t>
+    <t xml:space="preserve">16.9750995635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8245449066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4481582641602</t>
   </si>
   <si>
     <t xml:space="preserve">16.6175327301025</t>
@@ -1262,31 +1262,31 @@
     <t xml:space="preserve">16.8057270050049</t>
   </si>
   <si>
-    <t xml:space="preserve">16.749267578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.730447769165</t>
+    <t xml:space="preserve">16.7492694854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7304496765137</t>
   </si>
   <si>
     <t xml:space="preserve">16.8810062408447</t>
   </si>
   <si>
-    <t xml:space="preserve">16.937463760376</t>
+    <t xml:space="preserve">16.9374618530273</t>
   </si>
   <si>
     <t xml:space="preserve">16.918643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9023952484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.544828414917</t>
+    <t xml:space="preserve">15.9023942947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5448274612427</t>
   </si>
   <si>
     <t xml:space="preserve">15.0743427276611</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7920503616333</t>
+    <t xml:space="preserve">14.7920513153076</t>
   </si>
   <si>
     <t xml:space="preserve">14.6414957046509</t>
@@ -1295,25 +1295,25 @@
     <t xml:space="preserve">17.4455871582031</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6363525390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7330198287964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9964895248413</t>
+    <t xml:space="preserve">16.6363506317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7330207824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9964904785156</t>
   </si>
   <si>
     <t xml:space="preserve">16.354061126709</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5987148284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9562816619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5610752105713</t>
+    <t xml:space="preserve">16.5987129211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9562835693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5610733032227</t>
   </si>
   <si>
     <t xml:space="preserve">17.0691986083984</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">17.2009334564209</t>
   </si>
   <si>
-    <t xml:space="preserve">16.768087387085</t>
+    <t xml:space="preserve">16.7680892944336</t>
   </si>
   <si>
     <t xml:space="preserve">17.0315589904785</t>
@@ -1331,10 +1331,10 @@
     <t xml:space="preserve">17.0127410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0289859771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2171821594238</t>
+    <t xml:space="preserve">18.0289878845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2171802520752</t>
   </si>
   <si>
     <t xml:space="preserve">18.6688480377197</t>
@@ -1343,16 +1343,16 @@
     <t xml:space="preserve">18.0478076934814</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1795444488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6928100585938</t>
+    <t xml:space="preserve">18.1795425415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6928119659424</t>
   </si>
   <si>
     <t xml:space="preserve">16.8621845245361</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6739902496338</t>
+    <t xml:space="preserve">16.6739921569824</t>
   </si>
   <si>
     <t xml:space="preserve">16.4293403625488</t>
@@ -1361,25 +1361,25 @@
     <t xml:space="preserve">17.1444759368896</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1846866607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.95885181427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8647575378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7142009735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1282291412354</t>
+    <t xml:space="preserve">16.1846885681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.958854675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8647565841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7142019271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.128231048584</t>
   </si>
   <si>
     <t xml:space="preserve">16.0153121948242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0905876159668</t>
+    <t xml:space="preserve">16.0905895233154</t>
   </si>
   <si>
     <t xml:space="preserve">15.4695491790771</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">14.6226758956909</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2651081085205</t>
+    <t xml:space="preserve">14.2651071548462</t>
   </si>
   <si>
     <t xml:space="preserve">14.96142578125</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">15.6201038360596</t>
   </si>
   <si>
-    <t xml:space="preserve">15.751838684082</t>
+    <t xml:space="preserve">15.7518396377563</t>
   </si>
   <si>
     <t xml:space="preserve">15.7894773483276</t>
@@ -1415,22 +1415,22 @@
     <t xml:space="preserve">15.563645362854</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7706594467163</t>
+    <t xml:space="preserve">15.7706604003906</t>
   </si>
   <si>
     <t xml:space="preserve">15.9776735305786</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3352394104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2197570800781</t>
+    <t xml:space="preserve">16.335241317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2197551727295</t>
   </si>
   <si>
     <t xml:space="preserve">17.2573947906494</t>
   </si>
   <si>
-    <t xml:space="preserve">18.06662940979</t>
+    <t xml:space="preserve">18.0666275024414</t>
   </si>
   <si>
     <t xml:space="preserve">17.7090587615967</t>
@@ -1439,10 +1439,10 @@
     <t xml:space="preserve">17.8972511291504</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2548217773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7655162811279</t>
+    <t xml:space="preserve">18.2548198699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7655143737793</t>
   </si>
   <si>
     <t xml:space="preserve">18.6123905181885</t>
@@ -1454,19 +1454,19 @@
     <t xml:space="preserve">17.2950325012207</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6902389526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.727876663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8784332275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8544731140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9485664367676</t>
+    <t xml:space="preserve">17.6902370452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7278747558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8784313201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.854471206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9485683441162</t>
   </si>
   <si>
     <t xml:space="preserve">19.5721797943115</t>
@@ -1478,10 +1478,10 @@
     <t xml:space="preserve">20.1367607116699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7013454437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6072483062744</t>
+    <t xml:space="preserve">20.701343536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6072463989258</t>
   </si>
   <si>
     <t xml:space="preserve">20.4190521240234</t>
@@ -1493,16 +1493,16 @@
     <t xml:space="preserve">20.0897121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3720054626465</t>
+    <t xml:space="preserve">20.3720035552979</t>
   </si>
   <si>
     <t xml:space="preserve">20.7483921051025</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7954387664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3600234985352</t>
+    <t xml:space="preserve">20.7954406738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3600215911865</t>
   </si>
   <si>
     <t xml:space="preserve">21.7364101409912</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">22.1127986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4541206359863</t>
+    <t xml:space="preserve">21.4541187286377</t>
   </si>
   <si>
     <t xml:space="preserve">20.9836349487305</t>
@@ -1520,22 +1520,22 @@
     <t xml:space="preserve">20.2308597564697</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9015197753906</t>
+    <t xml:space="preserve">19.901517868042</t>
   </si>
   <si>
     <t xml:space="preserve">19.6192264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3369388580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8764400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1130619049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9237651824951</t>
+    <t xml:space="preserve">19.3369369506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8764381408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1130638122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9237632751465</t>
   </si>
   <si>
     <t xml:space="preserve">19.5924911499023</t>
@@ -1544,13 +1544,13 @@
     <t xml:space="preserve">19.687141418457</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6398162841797</t>
+    <t xml:space="preserve">19.6398143768311</t>
   </si>
   <si>
     <t xml:space="preserve">19.8291168212891</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1665687561035</t>
+    <t xml:space="preserve">19.1665668487549</t>
   </si>
   <si>
     <t xml:space="preserve">18.9772682189941</t>
@@ -1565,10 +1565,10 @@
     <t xml:space="preserve">19.0719184875488</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7817897796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1192436218262</t>
+    <t xml:space="preserve">19.7817878723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1192417144775</t>
   </si>
   <si>
     <t xml:space="preserve">20.3023624420166</t>
@@ -1616,10 +1616,10 @@
     <t xml:space="preserve">22.2426834106445</t>
   </si>
   <si>
-    <t xml:space="preserve">22.621280670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1418552398682</t>
+    <t xml:space="preserve">22.6212825775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1418533325195</t>
   </si>
   <si>
     <t xml:space="preserve">23.3784790039062</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">23.6624279022217</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3311538696289</t>
+    <t xml:space="preserve">23.3311557769775</t>
   </si>
   <si>
     <t xml:space="preserve">23.2365055084229</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">23.7570781707764</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3723011016846</t>
+    <t xml:space="preserve">24.3723030090332</t>
   </si>
   <si>
     <t xml:space="preserve">23.9463768005371</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">23.425802230835</t>
   </si>
   <si>
-    <t xml:space="preserve">23.615104675293</t>
+    <t xml:space="preserve">23.6151065826416</t>
   </si>
   <si>
     <t xml:space="preserve">24.0410289764404</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">21.9114093780518</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8640842437744</t>
+    <t xml:space="preserve">21.864086151123</t>
   </si>
   <si>
     <t xml:space="preserve">22.2900085449219</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">22.1007080078125</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7221088409424</t>
+    <t xml:space="preserve">21.722110748291</t>
   </si>
   <si>
     <t xml:space="preserve">21.2961845397949</t>
@@ -1700,13 +1700,13 @@
     <t xml:space="preserve">20.7282886505127</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3908367156982</t>
+    <t xml:space="preserve">21.3908348083496</t>
   </si>
   <si>
     <t xml:space="preserve">22.0060577392578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9875221252441</t>
+    <t xml:space="preserve">24.9875240325928</t>
   </si>
   <si>
     <t xml:space="preserve">24.8455486297607</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">25.6027488708496</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8393707275391</t>
+    <t xml:space="preserve">25.8393726348877</t>
   </si>
   <si>
     <t xml:space="preserve">25.5554237365723</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">25.4607734680176</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4731273651123</t>
+    <t xml:space="preserve">23.4731292724609</t>
   </si>
   <si>
     <t xml:space="preserve">22.7159309387207</t>
@@ -1766,25 +1766,25 @@
     <t xml:space="preserve">22.4319839477539</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2838306427002</t>
+    <t xml:space="preserve">23.2838287353516</t>
   </si>
   <si>
     <t xml:space="preserve">24.4196262359619</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8928756713867</t>
+    <t xml:space="preserve">24.8928737640381</t>
   </si>
   <si>
     <t xml:space="preserve">24.7035751342773</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9401988983154</t>
+    <t xml:space="preserve">24.9402008056641</t>
   </si>
   <si>
     <t xml:space="preserve">24.0883522033691</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1830005645752</t>
+    <t xml:space="preserve">24.1830024719238</t>
   </si>
   <si>
     <t xml:space="preserve">25.0348491668701</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">24.798225402832</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3661212921143</t>
+    <t xml:space="preserve">25.3661231994629</t>
   </si>
   <si>
     <t xml:space="preserve">25.3187980651855</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">21.7694339752197</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5328102111816</t>
+    <t xml:space="preserve">21.532808303833</t>
   </si>
   <si>
     <t xml:space="preserve">20.3970127105713</t>
@@ -1835,22 +1835,22 @@
     <t xml:space="preserve">19.3558654785156</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7027816772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0184154510498</t>
+    <t xml:space="preserve">18.7027835845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0184135437012</t>
   </si>
   <si>
     <t xml:space="preserve">20.8229389190674</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4978408813477</t>
+    <t xml:space="preserve">19.497838973999</t>
   </si>
   <si>
     <t xml:space="preserve">18.3431148529053</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4534072875977</t>
+    <t xml:space="preserve">17.453405380249</t>
   </si>
   <si>
     <t xml:space="preserve">17.1694583892822</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">18.3241844177246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7974319458008</t>
+    <t xml:space="preserve">18.7974338531494</t>
   </si>
   <si>
     <t xml:space="preserve">20.0657386779785</t>
@@ -1877,13 +1877,13 @@
     <t xml:space="preserve">22.1480331420898</t>
   </si>
   <si>
-    <t xml:space="preserve">22.479305267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6274604797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.633638381958</t>
+    <t xml:space="preserve">22.4793071746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6274585723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6336364746094</t>
   </si>
   <si>
     <t xml:space="preserve">20.4443397521973</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">18.0970230102539</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0213069915771</t>
+    <t xml:space="preserve">18.0213050842285</t>
   </si>
   <si>
     <t xml:space="preserve">17.3398265838623</t>
@@ -2877,6 +2877,9 @@
   </si>
   <si>
     <t xml:space="preserve">17.6000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5</t>
   </si>
 </sst>
 </file>
@@ -10204,7 +10207,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G269" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -10230,7 +10233,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G270" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -10256,7 +10259,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G271" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -10282,7 +10285,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G272" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10308,7 +10311,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G273" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -10334,7 +10337,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G274" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -10360,7 +10363,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G275" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -10386,7 +10389,7 @@
         <v>10.3703145980835</v>
       </c>
       <c r="G276" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -10412,7 +10415,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G277" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10438,7 +10441,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G278" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10464,7 +10467,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G279" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10490,7 +10493,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G280" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10542,7 +10545,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G282" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10620,7 +10623,7 @@
         <v>10.3314752578735</v>
       </c>
       <c r="G285" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10646,7 +10649,7 @@
         <v>10.6421957015991</v>
       </c>
       <c r="G286" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10672,7 +10675,7 @@
         <v>11.0500173568726</v>
       </c>
       <c r="G287" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10698,7 +10701,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G288" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10724,7 +10727,7 @@
         <v>10.9140768051147</v>
       </c>
       <c r="G289" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10750,7 +10753,7 @@
         <v>10.8752374649048</v>
       </c>
       <c r="G290" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10776,7 +10779,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G291" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10802,7 +10805,7 @@
         <v>10.8558168411255</v>
       </c>
       <c r="G292" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10828,7 +10831,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G293" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10854,7 +10857,7 @@
         <v>10.2926349639893</v>
       </c>
       <c r="G294" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -10880,7 +10883,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G295" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10906,7 +10909,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G296" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10932,7 +10935,7 @@
         <v>10.5062561035156</v>
       </c>
       <c r="G297" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10958,7 +10961,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G298" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10984,7 +10987,7 @@
         <v>10.3314752578735</v>
       </c>
       <c r="G299" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -11010,7 +11013,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G300" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -11036,7 +11039,7 @@
         <v>10.2732152938843</v>
       </c>
       <c r="G301" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -11062,7 +11065,7 @@
         <v>10.3703145980835</v>
       </c>
       <c r="G302" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -11088,7 +11091,7 @@
         <v>10.5450963973999</v>
       </c>
       <c r="G303" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -11114,7 +11117,7 @@
         <v>10.5839357376099</v>
       </c>
       <c r="G304" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -11140,7 +11143,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G305" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -11166,7 +11169,7 @@
         <v>10.253794670105</v>
       </c>
       <c r="G306" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -11192,7 +11195,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G307" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -11218,7 +11221,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G308" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -11244,7 +11247,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G309" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -11270,7 +11273,7 @@
         <v>10.7392959594727</v>
       </c>
       <c r="G310" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -11296,7 +11299,7 @@
         <v>10.7392959594727</v>
       </c>
       <c r="G311" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -11322,7 +11325,7 @@
         <v>10.8752374649048</v>
       </c>
       <c r="G312" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -11348,7 +11351,7 @@
         <v>11.0500173568726</v>
       </c>
       <c r="G313" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -11374,7 +11377,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G314" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -11400,7 +11403,7 @@
         <v>10.972336769104</v>
       </c>
       <c r="G315" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -11426,7 +11429,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G316" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -11452,7 +11455,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G317" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -11478,7 +11481,7 @@
         <v>11.6908798217773</v>
       </c>
       <c r="G318" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -11504,7 +11507,7 @@
         <v>12.15696144104</v>
       </c>
       <c r="G319" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11530,7 +11533,7 @@
         <v>11.943341255188</v>
       </c>
       <c r="G320" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11556,7 +11559,7 @@
         <v>11.943341255188</v>
       </c>
       <c r="G321" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11582,7 +11585,7 @@
         <v>12.0792808532715</v>
       </c>
       <c r="G322" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11608,7 +11611,7 @@
         <v>12.176381111145</v>
       </c>
       <c r="G323" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11634,7 +11637,7 @@
         <v>12.0598611831665</v>
       </c>
       <c r="G324" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11660,7 +11663,7 @@
         <v>12.15696144104</v>
       </c>
       <c r="G325" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11686,7 +11689,7 @@
         <v>12.176381111145</v>
       </c>
       <c r="G326" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11712,7 +11715,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G327" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11738,7 +11741,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G328" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11764,7 +11767,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G329" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11790,7 +11793,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G330" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11816,7 +11819,7 @@
         <v>13.0308637619019</v>
       </c>
       <c r="G331" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11842,7 +11845,7 @@
         <v>13.186224937439</v>
       </c>
       <c r="G332" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11868,7 +11871,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G333" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11894,7 +11897,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G334" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11920,7 +11923,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G335" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11946,7 +11949,7 @@
         <v>12.2929019927979</v>
       </c>
       <c r="G336" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11972,7 +11975,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G337" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11998,7 +12001,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G338" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -12024,7 +12027,7 @@
         <v>12.0210208892822</v>
       </c>
       <c r="G339" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -12050,7 +12053,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G340" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -12076,7 +12079,7 @@
         <v>12.0792808532715</v>
       </c>
       <c r="G341" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -12102,7 +12105,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G342" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -12128,7 +12131,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G343" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -12154,7 +12157,7 @@
         <v>12.4871015548706</v>
       </c>
       <c r="G344" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -12180,7 +12183,7 @@
         <v>12.681303024292</v>
       </c>
       <c r="G345" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -12206,7 +12209,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G346" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -12232,7 +12235,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G347" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -12258,7 +12261,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G348" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -12284,7 +12287,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G349" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -12310,7 +12313,7 @@
         <v>12.7978229522705</v>
       </c>
       <c r="G350" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -12336,7 +12339,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G351" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -12362,7 +12365,7 @@
         <v>13.2833251953125</v>
       </c>
       <c r="G352" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -12388,7 +12391,7 @@
         <v>13.5940456390381</v>
       </c>
       <c r="G353" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -12414,7 +12417,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G354" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -12440,7 +12443,7 @@
         <v>13.9824476242065</v>
       </c>
       <c r="G355" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -12466,7 +12469,7 @@
         <v>14.1378078460693</v>
       </c>
       <c r="G356" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -12492,7 +12495,7 @@
         <v>14.7204103469849</v>
       </c>
       <c r="G357" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -12518,7 +12521,7 @@
         <v>14.1378078460693</v>
       </c>
       <c r="G358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12544,7 +12547,7 @@
         <v>14.0989675521851</v>
       </c>
       <c r="G359" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12570,7 +12573,7 @@
         <v>13.8270874023438</v>
       </c>
       <c r="G360" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12596,7 +12599,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G361" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12622,7 +12625,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G362" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12648,7 +12651,7 @@
         <v>12.9726037979126</v>
       </c>
       <c r="G363" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12674,7 +12677,7 @@
         <v>12.9337644577026</v>
       </c>
       <c r="G364" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12700,7 +12703,7 @@
         <v>12.8755035400391</v>
       </c>
       <c r="G365" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12726,7 +12729,7 @@
         <v>12.9920244216919</v>
       </c>
       <c r="G366" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12752,7 +12755,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G367" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12778,7 +12781,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G368" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12804,7 +12807,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G369" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12830,7 +12833,7 @@
         <v>12.7784032821655</v>
       </c>
       <c r="G370" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12856,7 +12859,7 @@
         <v>12.8560838699341</v>
       </c>
       <c r="G371" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12882,7 +12885,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G372" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12908,7 +12911,7 @@
         <v>15.2835922241211</v>
       </c>
       <c r="G373" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12934,7 +12937,7 @@
         <v>14.5650501251221</v>
       </c>
       <c r="G374" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12960,7 +12963,7 @@
         <v>14.0407075881958</v>
       </c>
       <c r="G375" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12986,7 +12989,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G376" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -13012,7 +13015,7 @@
         <v>13.4581060409546</v>
       </c>
       <c r="G377" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13038,7 +13041,7 @@
         <v>13.3027448654175</v>
       </c>
       <c r="G378" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13064,7 +13067,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G379" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13090,7 +13093,7 @@
         <v>13.1473846435547</v>
       </c>
       <c r="G380" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13116,7 +13119,7 @@
         <v>12.9531841278076</v>
       </c>
       <c r="G381" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -13142,7 +13145,7 @@
         <v>12.9531841278076</v>
       </c>
       <c r="G382" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -13168,7 +13171,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G383" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -13194,7 +13197,7 @@
         <v>12.8755035400391</v>
       </c>
       <c r="G384" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -13220,7 +13223,7 @@
         <v>13.380425453186</v>
       </c>
       <c r="G385" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -13246,7 +13249,7 @@
         <v>13.4192657470703</v>
       </c>
       <c r="G386" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -13272,7 +13275,7 @@
         <v>13.4969463348389</v>
       </c>
       <c r="G387" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13298,7 +13301,7 @@
         <v>13.7105674743652</v>
       </c>
       <c r="G388" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13324,7 +13327,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G389" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13350,7 +13353,7 @@
         <v>13.6911468505859</v>
       </c>
       <c r="G390" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13376,7 +13379,7 @@
         <v>13.9630270004272</v>
       </c>
       <c r="G391" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13402,7 +13405,7 @@
         <v>13.9630270004272</v>
       </c>
       <c r="G392" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13428,7 +13431,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G393" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13454,7 +13457,7 @@
         <v>13.4581060409546</v>
       </c>
       <c r="G394" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13480,7 +13483,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G395" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13506,7 +13509,7 @@
         <v>13.6717262268066</v>
       </c>
       <c r="G396" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13532,7 +13535,7 @@
         <v>13.2444849014282</v>
       </c>
       <c r="G397" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13558,7 +13561,7 @@
         <v>12.8949241638184</v>
       </c>
       <c r="G398" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13584,7 +13587,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G399" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13610,7 +13613,7 @@
         <v>13.0502843856812</v>
       </c>
       <c r="G400" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13636,7 +13639,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G401" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13662,7 +13665,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G402" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13688,7 +13691,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G403" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13714,7 +13717,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G404" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13740,7 +13743,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G405" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13766,7 +13769,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G406" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13792,7 +13795,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G407" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13818,7 +13821,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G408" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13844,7 +13847,7 @@
         <v>12.4871015548706</v>
       </c>
       <c r="G409" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13870,7 +13873,7 @@
         <v>12.4094219207764</v>
       </c>
       <c r="G410" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13896,7 +13899,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G411" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13922,7 +13925,7 @@
         <v>11.8268203735352</v>
       </c>
       <c r="G412" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13948,7 +13951,7 @@
         <v>11.5355186462402</v>
       </c>
       <c r="G413" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13974,7 +13977,7 @@
         <v>11.6131992340088</v>
       </c>
       <c r="G414" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14000,7 +14003,7 @@
         <v>11.5549392700195</v>
       </c>
       <c r="G415" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14026,7 +14029,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G416" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14052,7 +14055,7 @@
         <v>11.5549392700195</v>
       </c>
       <c r="G417" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14078,7 +14081,7 @@
         <v>11.2636375427246</v>
       </c>
       <c r="G418" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14104,7 +14107,7 @@
         <v>11.5355186462402</v>
       </c>
       <c r="G419" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14130,7 +14133,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G420" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14156,7 +14159,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G421" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14182,7 +14185,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G422" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14208,7 +14211,7 @@
         <v>11.8073997497559</v>
       </c>
       <c r="G423" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14234,7 +14237,7 @@
         <v>11.7491397857666</v>
       </c>
       <c r="G424" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14260,7 +14263,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G425" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14286,7 +14289,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G426" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14312,7 +14315,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G427" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14338,7 +14341,7 @@
         <v>11.7491397857666</v>
       </c>
       <c r="G428" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14364,7 +14367,7 @@
         <v>11.8073997497559</v>
       </c>
       <c r="G429" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14390,7 +14393,7 @@
         <v>11.9045000076294</v>
       </c>
       <c r="G430" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14416,7 +14419,7 @@
         <v>11.6326189041138</v>
       </c>
       <c r="G431" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14442,7 +14445,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G432" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14468,7 +14471,7 @@
         <v>10.972336769104</v>
       </c>
       <c r="G433" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14494,7 +14497,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G434" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14520,7 +14523,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G435" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14546,7 +14549,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G436" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14572,7 +14575,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G437" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14598,7 +14601,7 @@
         <v>10.9140768051147</v>
       </c>
       <c r="G438" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14624,7 +14627,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G439" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14650,7 +14653,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G440" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14676,7 +14679,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G441" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14702,7 +14705,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G442" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14728,7 +14731,7 @@
         <v>9.86539268493652</v>
       </c>
       <c r="G443" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14754,7 +14757,7 @@
         <v>9.84597301483154</v>
       </c>
       <c r="G444" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14780,7 +14783,7 @@
         <v>9.30221080780029</v>
       </c>
       <c r="G445" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14806,7 +14809,7 @@
         <v>10.0013341903687</v>
       </c>
       <c r="G446" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14832,7 +14835,7 @@
         <v>9.12743091583252</v>
       </c>
       <c r="G447" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14884,7 +14887,7 @@
         <v>9.22453117370605</v>
       </c>
       <c r="G449" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14910,7 +14913,7 @@
         <v>8.59337902069092</v>
       </c>
       <c r="G450" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14936,7 +14939,7 @@
         <v>8.6322193145752</v>
       </c>
       <c r="G451" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14962,7 +14965,7 @@
         <v>8.58366870880127</v>
       </c>
       <c r="G452" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14988,7 +14991,7 @@
         <v>8.93323040008545</v>
       </c>
       <c r="G453" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15014,7 +15017,7 @@
         <v>8.83613014221191</v>
       </c>
       <c r="G454" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15040,7 +15043,7 @@
         <v>10.0984344482422</v>
       </c>
       <c r="G455" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15066,7 +15069,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G456" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15092,7 +15095,7 @@
         <v>11.6326189041138</v>
       </c>
       <c r="G457" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15118,7 +15121,7 @@
         <v>11.2247982025146</v>
       </c>
       <c r="G458" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -15144,7 +15147,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G459" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15170,7 +15173,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G460" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -15196,7 +15199,7 @@
         <v>10.234375</v>
       </c>
       <c r="G461" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -15222,7 +15225,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G462" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15248,7 +15251,7 @@
         <v>10.7781372070312</v>
       </c>
       <c r="G463" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15274,7 +15277,7 @@
         <v>10.7198762893677</v>
       </c>
       <c r="G464" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15300,7 +15303,7 @@
         <v>10.2926349639893</v>
       </c>
       <c r="G465" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15326,7 +15329,7 @@
         <v>10.2732152938843</v>
       </c>
       <c r="G466" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15352,7 +15355,7 @@
         <v>10.1761140823364</v>
       </c>
       <c r="G467" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15378,7 +15381,7 @@
         <v>10.4868364334106</v>
       </c>
       <c r="G468" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15404,7 +15407,7 @@
         <v>11.2053775787354</v>
       </c>
       <c r="G469" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15430,7 +15433,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G470" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15456,7 +15459,7 @@
         <v>11.8268203735352</v>
       </c>
       <c r="G471" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15482,7 +15485,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G472" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15508,7 +15511,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G473" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15534,7 +15537,7 @@
         <v>12.2346420288086</v>
       </c>
       <c r="G474" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15560,7 +15563,7 @@
         <v>12.4288415908813</v>
       </c>
       <c r="G475" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15586,7 +15589,7 @@
         <v>13.0697040557861</v>
       </c>
       <c r="G476" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15612,7 +15615,7 @@
         <v>13.1473846435547</v>
       </c>
       <c r="G477" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15638,7 +15641,7 @@
         <v>13.2056446075439</v>
       </c>
       <c r="G478" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15664,7 +15667,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G479" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15690,7 +15693,7 @@
         <v>12.9337644577026</v>
       </c>
       <c r="G480" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15716,7 +15719,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G481" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15742,7 +15745,7 @@
         <v>12.3123216629028</v>
       </c>
       <c r="G482" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15768,7 +15771,7 @@
         <v>12.4288415908813</v>
       </c>
       <c r="G483" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15794,7 +15797,7 @@
         <v>12.7784032821655</v>
       </c>
       <c r="G484" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15820,7 +15823,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G485" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15846,7 +15849,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G486" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15872,7 +15875,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G487" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15898,7 +15901,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G488" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15924,7 +15927,7 @@
         <v>14.3708486557007</v>
       </c>
       <c r="G489" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15950,7 +15953,7 @@
         <v>14.1183881759644</v>
       </c>
       <c r="G490" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15976,7 +15979,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G491" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16002,7 +16005,7 @@
         <v>14.2931690216064</v>
       </c>
       <c r="G492" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16028,7 +16031,7 @@
         <v>15.5943126678467</v>
       </c>
       <c r="G493" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16054,7 +16057,7 @@
         <v>15.7496738433838</v>
       </c>
       <c r="G494" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16080,7 +16083,7 @@
         <v>15.633152961731</v>
       </c>
       <c r="G495" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16106,7 +16109,7 @@
         <v>14.9146108627319</v>
       </c>
       <c r="G496" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16132,7 +16135,7 @@
         <v>16.0021343231201</v>
       </c>
       <c r="G497" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16158,7 +16161,7 @@
         <v>16.4876365661621</v>
       </c>
       <c r="G498" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -16184,7 +16187,7 @@
         <v>16.7206764221191</v>
       </c>
       <c r="G499" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -16210,7 +16213,7 @@
         <v>16.1186542510986</v>
       </c>
       <c r="G500" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16236,7 +16239,7 @@
         <v>15.6525726318359</v>
       </c>
       <c r="G501" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16262,7 +16265,7 @@
         <v>15.3030118942261</v>
       </c>
       <c r="G502" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16288,7 +16291,7 @@
         <v>15.1476516723633</v>
       </c>
       <c r="G503" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16314,7 +16317,7 @@
         <v>14.7009897232056</v>
       </c>
       <c r="G504" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16340,7 +16343,7 @@
         <v>14.7009897232056</v>
       </c>
       <c r="G505" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16366,7 +16369,7 @@
         <v>14.7980899810791</v>
       </c>
       <c r="G506" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16392,7 +16395,7 @@
         <v>14.4485292434692</v>
       </c>
       <c r="G507" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16418,7 +16421,7 @@
         <v>14.4679489135742</v>
       </c>
       <c r="G508" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16444,7 +16447,7 @@
         <v>14.3125886917114</v>
       </c>
       <c r="G509" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16470,7 +16473,7 @@
         <v>14.7398300170898</v>
       </c>
       <c r="G510" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16496,7 +16499,7 @@
         <v>14.9922914505005</v>
       </c>
       <c r="G511" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16522,7 +16525,7 @@
         <v>15.4001121520996</v>
       </c>
       <c r="G512" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16548,7 +16551,7 @@
         <v>15.6914129257202</v>
       </c>
       <c r="G513" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16574,7 +16577,7 @@
         <v>15.128231048584</v>
       </c>
       <c r="G514" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16600,7 +16603,7 @@
         <v>15.3806915283203</v>
       </c>
       <c r="G515" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16626,7 +16629,7 @@
         <v>15.4777927398682</v>
       </c>
       <c r="G516" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16652,7 +16655,7 @@
         <v>15.3612718582153</v>
       </c>
       <c r="G517" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16678,7 +16681,7 @@
         <v>15.3418521881104</v>
       </c>
       <c r="G518" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16704,7 +16707,7 @@
         <v>15.5748929977417</v>
       </c>
       <c r="G519" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16756,7 +16759,7 @@
         <v>15.3806915283203</v>
       </c>
       <c r="G521" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17302,7 +17305,7 @@
         <v>15.3612718582153</v>
       </c>
       <c r="G542" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -21306,7 +21309,7 @@
         <v>15.3418521881104</v>
       </c>
       <c r="G696" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -43154,7 +43157,7 @@
     </row>
     <row r="1537">
       <c r="A1537" s="1" t="n">
-        <v>45467.6494791667</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B1537" t="n">
         <v>44446</v>
@@ -43166,7 +43169,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="E1537" t="n">
-        <v>17.8999996185303</v>
+        <v>17.8799991607666</v>
       </c>
       <c r="F1537" t="n">
         <v>17.6000003814697</v>
@@ -43175,6 +43178,32 @@
         <v>954</v>
       </c>
       <c r="H1537" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="1" t="n">
+        <v>45468.6496064815</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>121138</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>17.7000007629395</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>17.3600006103516</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>17.7000007629395</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G1538" t="s">
+        <v>955</v>
+      </c>
+      <c r="H1538" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="957">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,25 +44,25 @@
     <t xml:space="preserve">CRL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95949554443359</t>
+    <t xml:space="preserve">7.95949506759644</t>
   </si>
   <si>
     <t xml:space="preserve">7.866943359375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77439212799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74477291107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92987823486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02428150177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72904014587402</t>
+    <t xml:space="preserve">7.77439165115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74477386474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9298791885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02428245544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72903966903687</t>
   </si>
   <si>
     <t xml:space="preserve">8.03353691101074</t>
@@ -71,19 +71,19 @@
     <t xml:space="preserve">7.4976601600647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35513019561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57910633087158</t>
+    <t xml:space="preserve">7.35512924194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57910680770874</t>
   </si>
   <si>
     <t xml:space="preserve">7.51987266540527</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62630748748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49673509597778</t>
+    <t xml:space="preserve">7.62630701065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49673461914062</t>
   </si>
   <si>
     <t xml:space="preserve">7.5800313949585</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">7.7022008895874</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85768890380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91321897506714</t>
+    <t xml:space="preserve">7.85768842697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9132194519043</t>
   </si>
   <si>
     <t xml:space="preserve">7.97893238067627</t>
@@ -110,40 +110,40 @@
     <t xml:space="preserve">7.92247486114502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07703685760498</t>
+    <t xml:space="preserve">8.0770378112793</t>
   </si>
   <si>
     <t xml:space="preserve">7.87064599990845</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82066679000854</t>
+    <t xml:space="preserve">7.8206672668457</t>
   </si>
   <si>
     <t xml:space="preserve">7.90766763687134</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74847602844238</t>
+    <t xml:space="preserve">7.74847650527954</t>
   </si>
   <si>
     <t xml:space="preserve">7.84843349456787</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80215692520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94561290740967</t>
+    <t xml:space="preserve">7.80215787887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94561338424683</t>
   </si>
   <si>
     <t xml:space="preserve">7.6179780960083</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72811603546143</t>
+    <t xml:space="preserve">7.72811508178711</t>
   </si>
   <si>
     <t xml:space="preserve">7.84102964401245</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80400943756104</t>
+    <t xml:space="preserve">7.80400848388672</t>
   </si>
   <si>
     <t xml:space="preserve">8.05204772949219</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">8.11775970458984</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17236614227295</t>
+    <t xml:space="preserve">8.17236709594727</t>
   </si>
   <si>
     <t xml:space="preserve">8.36302375793457</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">8.52406406402588</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54720211029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81653022766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02384853363037</t>
+    <t xml:space="preserve">8.54720115661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81652927398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02384948730469</t>
   </si>
   <si>
     <t xml:space="preserve">8.66289234161377</t>
@@ -176,25 +176,25 @@
     <t xml:space="preserve">8.34821510314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31119441986084</t>
+    <t xml:space="preserve">8.31119346618652</t>
   </si>
   <si>
     <t xml:space="preserve">8.53054237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4222583770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51480960845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77395439147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8109769821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67770195007324</t>
+    <t xml:space="preserve">8.42225646972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51481056213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77395534515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81097602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67770099639893</t>
   </si>
   <si>
     <t xml:space="preserve">8.72768020629883</t>
@@ -203,43 +203,43 @@
     <t xml:space="preserve">8.857253074646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07012462615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93222045898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18118572235107</t>
+    <t xml:space="preserve">9.07012367248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93222141265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18118476867676</t>
   </si>
   <si>
     <t xml:space="preserve">9.20895099639893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40331172943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16267490386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18211269378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05531406402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25152587890625</t>
+    <t xml:space="preserve">9.40331077575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16267585754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1821117401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0553150177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25152683258057</t>
   </si>
   <si>
     <t xml:space="preserve">9.12657928466797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08863353729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82856178283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05809116363525</t>
+    <t xml:space="preserve">9.08863162994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8285608291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05809211730957</t>
   </si>
   <si>
     <t xml:space="preserve">9.10714340209961</t>
@@ -251,13 +251,13 @@
     <t xml:space="preserve">8.73323345184326</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56848907470703</t>
+    <t xml:space="preserve">8.56848812103271</t>
   </si>
   <si>
     <t xml:space="preserve">8.03909015655518</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36580181121826</t>
+    <t xml:space="preserve">8.36579990386963</t>
   </si>
   <si>
     <t xml:space="preserve">8.46853351593018</t>
@@ -278,13 +278,13 @@
     <t xml:space="preserve">8.08721828460693</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80678558349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97800636291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40189552307129</t>
+    <t xml:space="preserve">7.80678606033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97800540924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40189456939697</t>
   </si>
   <si>
     <t xml:space="preserve">8.83781719207764</t>
@@ -299,19 +299,19 @@
     <t xml:space="preserve">8.5666389465332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66104125976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76377487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63883113861084</t>
+    <t xml:space="preserve">8.66104221343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76377582550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63882923126221</t>
   </si>
   <si>
     <t xml:space="preserve">8.45279979705811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40096950531006</t>
+    <t xml:space="preserve">8.40097045898438</t>
   </si>
   <si>
     <t xml:space="preserve">8.62217044830322</t>
@@ -320,16 +320,16 @@
     <t xml:space="preserve">8.78228569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11220836639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09925079345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1446008682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24733257293701</t>
+    <t xml:space="preserve">8.11220741271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09924983978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14460182189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24733448028564</t>
   </si>
   <si>
     <t xml:space="preserve">8.61013889312744</t>
@@ -338,22 +338,22 @@
     <t xml:space="preserve">8.39449214935303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57033920288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98497486114502</t>
+    <t xml:space="preserve">8.57034111022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9849739074707</t>
   </si>
   <si>
     <t xml:space="preserve">9.10344123840332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03865623474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08123016357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21820640563965</t>
+    <t xml:space="preserve">9.03865528106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0812292098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21820735931396</t>
   </si>
   <si>
     <t xml:space="preserve">8.91278457641602</t>
@@ -362,91 +362,91 @@
     <t xml:space="preserve">9.14416408538818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91926383972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36394882202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29268455505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32970523834229</t>
+    <t xml:space="preserve">8.91926288604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36394786834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29268360137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32970428466797</t>
   </si>
   <si>
     <t xml:space="preserve">8.39726829528809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25936508178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46390628814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33340740203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35747146606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56108474731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49629783630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28342914581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41392803192139</t>
+    <t xml:space="preserve">8.25936603546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46390533447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33340835571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35747051239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56108570098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49629878997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28342819213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41392612457275</t>
   </si>
   <si>
     <t xml:space="preserve">8.27972507476807</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21123790740967</t>
+    <t xml:space="preserve">8.2112398147583</t>
   </si>
   <si>
     <t xml:space="preserve">8.45927906036377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48704433441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54442691802979</t>
+    <t xml:space="preserve">8.48704528808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54442596435547</t>
   </si>
   <si>
     <t xml:space="preserve">8.77210521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83411407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78320980072021</t>
+    <t xml:space="preserve">8.83411598205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78321075439453</t>
   </si>
   <si>
     <t xml:space="preserve">9.165452003479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13028144836426</t>
+    <t xml:space="preserve">9.13028240203857</t>
   </si>
   <si>
     <t xml:space="preserve">8.96183681488037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89797687530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04143238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11639881134033</t>
+    <t xml:space="preserve">8.89797592163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04143142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11639976501465</t>
   </si>
   <si>
     <t xml:space="preserve">9.30150318145752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27188777923584</t>
+    <t xml:space="preserve">9.27188682556152</t>
   </si>
   <si>
     <t xml:space="preserve">9.42922496795654</t>
@@ -461,28 +461,28 @@
     <t xml:space="preserve">9.71798896789551</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76426696777344</t>
+    <t xml:space="preserve">9.76426601409912</t>
   </si>
   <si>
     <t xml:space="preserve">9.66245746612549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71243572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38665103912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68652057647705</t>
+    <t xml:space="preserve">9.71243476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38665294647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68652153015137</t>
   </si>
   <si>
     <t xml:space="preserve">9.56064987182617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5791597366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35148239135742</t>
+    <t xml:space="preserve">9.57916069030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35148143768311</t>
   </si>
   <si>
     <t xml:space="preserve">9.53103256225586</t>
@@ -491,28 +491,28 @@
     <t xml:space="preserve">9.3977575302124</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19414329528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32926940917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21265411376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12565422058105</t>
+    <t xml:space="preserve">9.1941442489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.329270362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21265316009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12565326690674</t>
   </si>
   <si>
     <t xml:space="preserve">9.00533676147461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43799018859863</t>
+    <t xml:space="preserve">8.43799209594727</t>
   </si>
   <si>
     <t xml:space="preserve">8.82300758361816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07104778289795</t>
+    <t xml:space="preserve">9.07104873657227</t>
   </si>
   <si>
     <t xml:space="preserve">9.25522708892822</t>
@@ -524,28 +524,28 @@
     <t xml:space="preserve">9.17193126678467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51437377929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45884132385254</t>
+    <t xml:space="preserve">9.51437282562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45884323120117</t>
   </si>
   <si>
     <t xml:space="preserve">9.8105411529541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53288555145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60692596435547</t>
+    <t xml:space="preserve">9.532883644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60692691802979</t>
   </si>
   <si>
     <t xml:space="preserve">9.82905197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75501251220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97713565826416</t>
+    <t xml:space="preserve">9.7550106048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97713470458984</t>
   </si>
   <si>
     <t xml:space="preserve">10.0696878433228</t>
@@ -554,34 +554,34 @@
     <t xml:space="preserve">10.1252183914185</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8660717010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99564647674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88458156585693</t>
+    <t xml:space="preserve">9.86607265472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99564743041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88458251953125</t>
   </si>
   <si>
     <t xml:space="preserve">10.0141572952271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1437292098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1807498931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73650169372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84756278991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90309238433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94011306762695</t>
+    <t xml:space="preserve">10.1437301635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1807508468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73650074005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84756183624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9030933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94011402130127</t>
   </si>
   <si>
     <t xml:space="preserve">10.2177715301514</t>
@@ -590,31 +590,31 @@
     <t xml:space="preserve">10.2362813949585</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3843650817871</t>
+    <t xml:space="preserve">10.3843641281128</t>
   </si>
   <si>
     <t xml:space="preserve">10.1067094802856</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0881986618042</t>
+    <t xml:space="preserve">10.0881977081299</t>
   </si>
   <si>
     <t xml:space="preserve">10.1992616653442</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5879802703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6805324554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.73606300354</t>
+    <t xml:space="preserve">10.5879812240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6805334091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7360639572144</t>
   </si>
   <si>
     <t xml:space="preserve">10.8101062774658</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4954290390015</t>
+    <t xml:space="preserve">10.4954280853271</t>
   </si>
   <si>
     <t xml:space="preserve">10.5509605407715</t>
@@ -623,31 +623,31 @@
     <t xml:space="preserve">10.5139389038086</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4028759002686</t>
+    <t xml:space="preserve">10.4028749465942</t>
   </si>
   <si>
     <t xml:space="preserve">10.0511779785156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92160320281982</t>
+    <t xml:space="preserve">9.92160511016846</t>
   </si>
   <si>
     <t xml:space="preserve">10.2551298141479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0122938156128</t>
+    <t xml:space="preserve">10.0122947692871</t>
   </si>
   <si>
     <t xml:space="preserve">9.95625495910645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99361419677734</t>
+    <t xml:space="preserve">9.99361515045166</t>
   </si>
   <si>
     <t xml:space="preserve">10.2177705764771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0683336257935</t>
+    <t xml:space="preserve">10.0683326721191</t>
   </si>
   <si>
     <t xml:space="preserve">10.2738094329834</t>
@@ -659,13 +659,13 @@
     <t xml:space="preserve">10.161732673645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97493362426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1243724822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80681896209717</t>
+    <t xml:space="preserve">9.97493553161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1243715286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80681800842285</t>
   </si>
   <si>
     <t xml:space="preserve">9.93757629394531</t>
@@ -677,10 +677,10 @@
     <t xml:space="preserve">10.6287231445312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4792861938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4979658126831</t>
+    <t xml:space="preserve">10.4792852401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4979648590088</t>
   </si>
   <si>
     <t xml:space="preserve">10.4606075286865</t>
@@ -695,19 +695,19 @@
     <t xml:space="preserve">10.3858880996704</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1056938171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88153839111328</t>
+    <t xml:space="preserve">10.1056928634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88153743743896</t>
   </si>
   <si>
     <t xml:space="preserve">10.1430530548096</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1804122924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86285781860352</t>
+    <t xml:space="preserve">10.1804113388062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8628568649292</t>
   </si>
   <si>
     <t xml:space="preserve">10.3298482894897</t>
@@ -716,25 +716,25 @@
     <t xml:space="preserve">10.9275979995728</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5540056228638</t>
+    <t xml:space="preserve">10.5540037155151</t>
   </si>
   <si>
     <t xml:space="preserve">12.1417751312256</t>
   </si>
   <si>
-    <t xml:space="preserve">11.245153427124</t>
+    <t xml:space="preserve">11.2451524734497</t>
   </si>
   <si>
     <t xml:space="preserve">11.6934642791748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4879884719849</t>
+    <t xml:space="preserve">11.4879875183105</t>
   </si>
   <si>
     <t xml:space="preserve">11.6187448501587</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7121429443359</t>
+    <t xml:space="preserve">11.7121419906616</t>
   </si>
   <si>
     <t xml:space="preserve">11.6000661849976</t>
@@ -746,10 +746,10 @@
     <t xml:space="preserve">12.2351732254028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3285722732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5340480804443</t>
+    <t xml:space="preserve">12.3285713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.53404712677</t>
   </si>
   <si>
     <t xml:space="preserve">12.6834850311279</t>
@@ -773,40 +773,40 @@
     <t xml:space="preserve">12.0110168457031</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1978149414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2538528442383</t>
+    <t xml:space="preserve">12.1978139877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.253851890564</t>
   </si>
   <si>
     <t xml:space="preserve">12.3098926544189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6087684631348</t>
+    <t xml:space="preserve">12.6087675094604</t>
   </si>
   <si>
     <t xml:space="preserve">12.7768831253052</t>
   </si>
   <si>
-    <t xml:space="preserve">13.075758934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3559532165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4493522644043</t>
+    <t xml:space="preserve">13.0757579803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3559541702271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.44935131073</t>
   </si>
   <si>
     <t xml:space="preserve">13.5987882614136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1591777801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5614290237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2999153137207</t>
+    <t xml:space="preserve">14.1591787338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5614280700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2999143600464</t>
   </si>
   <si>
     <t xml:space="preserve">13.2065162658691</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">12.4406509399414</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3846120834351</t>
+    <t xml:space="preserve">12.3846111297607</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966888427734</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">12.2912130355835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3659324645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7008895874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0097427368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.505389213562</t>
+    <t xml:space="preserve">12.3659315109253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.700888633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0097417831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5053901672363</t>
   </si>
   <si>
     <t xml:space="preserve">13.2625551223755</t>
@@ -845,31 +845,31 @@
     <t xml:space="preserve">12.9450006484985</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7955617904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6461277008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4593296051025</t>
+    <t xml:space="preserve">12.7955627441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.646125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4593305587769</t>
   </si>
   <si>
     <t xml:space="preserve">12.8702821731567</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9076414108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9823608398438</t>
+    <t xml:space="preserve">12.907642364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9823598861694</t>
   </si>
   <si>
     <t xml:space="preserve">13.187837600708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1691570281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4306716918945</t>
+    <t xml:space="preserve">13.1691560745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4306707382202</t>
   </si>
   <si>
     <t xml:space="preserve">13.1504764556885</t>
@@ -878,64 +878,64 @@
     <t xml:space="preserve">12.7395248413086</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4032917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5527286529541</t>
+    <t xml:space="preserve">12.4032897949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5527267456055</t>
   </si>
   <si>
     <t xml:space="preserve">12.5153684616089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.93630027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8615818023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3759088516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0957145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1704339981079</t>
+    <t xml:space="preserve">11.9362983703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8615808486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3759098052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0957136154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1704330444336</t>
   </si>
   <si>
     <t xml:space="preserve">11.1143941879272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8341989517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.394588470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2077941894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3572282791138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3011913299561</t>
+    <t xml:space="preserve">10.8341979980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3945894241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2077932357788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3572292327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3011903762817</t>
   </si>
   <si>
     <t xml:space="preserve">11.4506273269653</t>
   </si>
   <si>
-    <t xml:space="preserve">11.189112663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48926448822021</t>
+    <t xml:space="preserve">11.1891117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4892635345459</t>
   </si>
   <si>
     <t xml:space="preserve">9.47058486938477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94755458831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62002277374268</t>
+    <t xml:space="preserve">8.94755363464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62002182006836</t>
   </si>
   <si>
     <t xml:space="preserve">8.77943801879883</t>
@@ -950,22 +950,22 @@
     <t xml:space="preserve">8.3031063079834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25640773773193</t>
+    <t xml:space="preserve">8.25640678405762</t>
   </si>
   <si>
     <t xml:space="preserve">8.59264087677002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49924373626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71342086791992</t>
+    <t xml:space="preserve">8.49924278259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71341991424561</t>
   </si>
   <si>
     <t xml:space="preserve">10.7968406677246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8441801071167</t>
+    <t xml:space="preserve">9.84417915344238</t>
   </si>
   <si>
     <t xml:space="preserve">10.3672094345093</t>
@@ -974,25 +974,25 @@
     <t xml:space="preserve">10.3111696243286</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7881383895874</t>
+    <t xml:space="preserve">9.78813743591309</t>
   </si>
   <si>
     <t xml:space="preserve">10.0870141983032</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7781600952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7681837081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9549798965454</t>
+    <t xml:space="preserve">10.7781610488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7681827545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9549789428711</t>
   </si>
   <si>
     <t xml:space="preserve">12.5714073181152</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7021646499634</t>
+    <t xml:space="preserve">12.7021636962891</t>
   </si>
   <si>
     <t xml:space="preserve">11.8429012298584</t>
@@ -1004,16 +1004,16 @@
     <t xml:space="preserve">13.5801086425781</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7482271194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9997625350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1492013931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0371217727661</t>
+    <t xml:space="preserve">13.7482261657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9997634887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1492004394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0371227264404</t>
   </si>
   <si>
     <t xml:space="preserve">14.3459749221802</t>
@@ -1022,25 +1022,25 @@
     <t xml:space="preserve">15.392035484314</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590278625488</t>
+    <t xml:space="preserve">15.8590269088745</t>
   </si>
   <si>
     <t xml:space="preserve">16.0831832885742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5041122436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0558004379272</t>
+    <t xml:space="preserve">15.5041131973267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0558023452759</t>
   </si>
   <si>
     <t xml:space="preserve">14.7195682525635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5701313018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1404991149902</t>
+    <t xml:space="preserve">14.5701322555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1405000686646</t>
   </si>
   <si>
     <t xml:space="preserve">14.2338972091675</t>
@@ -1052,13 +1052,13 @@
     <t xml:space="preserve">13.9163427352905</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7669067382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1778573989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.420693397522</t>
+    <t xml:space="preserve">13.7669057846069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1778583526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4206943511963</t>
   </si>
   <si>
     <t xml:space="preserve">14.8129663467407</t>
@@ -1067,10 +1067,10 @@
     <t xml:space="preserve">15.0931606292725</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603145599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9049663543701</t>
+    <t xml:space="preserve">14.6603136062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9049654006958</t>
   </si>
   <si>
     <t xml:space="preserve">14.9990644454956</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">14.8673286437988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3754510879517</t>
+    <t xml:space="preserve">15.375452041626</t>
   </si>
   <si>
     <t xml:space="preserve">15.3378143310547</t>
@@ -1094,37 +1094,37 @@
     <t xml:space="preserve">15.4319105148315</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1119794845581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7167730331421</t>
+    <t xml:space="preserve">15.1119804382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7167739868164</t>
   </si>
   <si>
     <t xml:space="preserve">15.1872577667236</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0178842544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7544116973877</t>
+    <t xml:space="preserve">15.0178833007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.754412651062</t>
   </si>
   <si>
     <t xml:space="preserve">15.2437171936035</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0367031097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1307992935181</t>
+    <t xml:space="preserve">15.0367021560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1308002471924</t>
   </si>
   <si>
     <t xml:space="preserve">15.5071878433228</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0555229187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5850381851196</t>
+    <t xml:space="preserve">15.0555219650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5850372314453</t>
   </si>
   <si>
     <t xml:space="preserve">15.6765613555908</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">17.0880184173584</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8031558990479</t>
+    <t xml:space="preserve">17.8031578063965</t>
   </si>
   <si>
     <t xml:space="preserve">16.8433647155762</t>
@@ -1151,22 +1151,22 @@
     <t xml:space="preserve">17.5396842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5208644866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9160709381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.141902923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0101680755615</t>
+    <t xml:space="preserve">17.5208625793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.916072845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1419048309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0101661682129</t>
   </si>
   <si>
     <t xml:space="preserve">18.4053764343262</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4430141448975</t>
+    <t xml:space="preserve">18.4430160522461</t>
   </si>
   <si>
     <t xml:space="preserve">17.7843360900879</t>
@@ -1175,10 +1175,10 @@
     <t xml:space="preserve">17.6525993347168</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1230869293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8194046020508</t>
+    <t xml:space="preserve">18.1230850219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8194026947021</t>
   </si>
   <si>
     <t xml:space="preserve">19.2898864746094</t>
@@ -1187,43 +1187,43 @@
     <t xml:space="preserve">18.4618339538574</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3489189147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1607227325439</t>
+    <t xml:space="preserve">18.3489151000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1607265472412</t>
   </si>
   <si>
     <t xml:space="preserve">17.5020446777344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0854473114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5961418151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9348888397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0503807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7869052886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9400339126587</t>
+    <t xml:space="preserve">18.0854454040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5961437225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9348907470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0503787994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7869071960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.940034866333</t>
   </si>
   <si>
     <t xml:space="preserve">16.5798931121826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0717678070068</t>
+    <t xml:space="preserve">16.0717697143555</t>
   </si>
   <si>
     <t xml:space="preserve">15.4883670806885</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8835754394531</t>
+    <t xml:space="preserve">15.8835744857788</t>
   </si>
   <si>
     <t xml:space="preserve">16.6551723480225</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">16.4105186462402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5422554016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3917026519775</t>
+    <t xml:space="preserve">16.54225730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3916988372803</t>
   </si>
   <si>
     <t xml:space="preserve">16.9750995635986</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">16.4481582641602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6175327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4857978820801</t>
+    <t xml:space="preserve">16.6175308227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4857959747314</t>
   </si>
   <si>
     <t xml:space="preserve">16.4669780731201</t>
@@ -1274,34 +1274,34 @@
     <t xml:space="preserve">16.9374618530273</t>
   </si>
   <si>
-    <t xml:space="preserve">16.918643951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9023942947388</t>
+    <t xml:space="preserve">16.9186420440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9023952484131</t>
   </si>
   <si>
     <t xml:space="preserve">15.5448274612427</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0743427276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7920513153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6414957046509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4455871582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6363506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7330207824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9964904785156</t>
+    <t xml:space="preserve">15.0743417739868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7920503616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6414947509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4455890655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6363525390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7330198287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9964914321899</t>
   </si>
   <si>
     <t xml:space="preserve">16.354061126709</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">16.5987129211426</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9562835693359</t>
+    <t xml:space="preserve">16.9562816619873</t>
   </si>
   <si>
     <t xml:space="preserve">16.5610733032227</t>
@@ -1319,19 +1319,19 @@
     <t xml:space="preserve">17.0691986083984</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2009334564209</t>
+    <t xml:space="preserve">17.2009353637695</t>
   </si>
   <si>
     <t xml:space="preserve">16.7680892944336</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0315589904785</t>
+    <t xml:space="preserve">17.0315608978271</t>
   </si>
   <si>
     <t xml:space="preserve">17.0127410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0289878845215</t>
+    <t xml:space="preserve">18.0289897918701</t>
   </si>
   <si>
     <t xml:space="preserve">18.2171802520752</t>
@@ -1340,13 +1340,13 @@
     <t xml:space="preserve">18.6688480377197</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0478076934814</t>
+    <t xml:space="preserve">18.0478057861328</t>
   </si>
   <si>
     <t xml:space="preserve">18.1795425415039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6928119659424</t>
+    <t xml:space="preserve">16.6928100585938</t>
   </si>
   <si>
     <t xml:space="preserve">16.8621845245361</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">16.6739921569824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4293403625488</t>
+    <t xml:space="preserve">16.4293384552002</t>
   </si>
   <si>
     <t xml:space="preserve">17.1444759368896</t>
@@ -1364,16 +1364,16 @@
     <t xml:space="preserve">16.1846885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">15.958854675293</t>
+    <t xml:space="preserve">15.9588537216187</t>
   </si>
   <si>
     <t xml:space="preserve">15.8647565841675</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7142019271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.128231048584</t>
+    <t xml:space="preserve">15.7142009735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1282291412354</t>
   </si>
   <si>
     <t xml:space="preserve">16.0153121948242</t>
@@ -1382,19 +1382,19 @@
     <t xml:space="preserve">16.0905895233154</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4695491790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6226758956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2651071548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.96142578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6201038360596</t>
+    <t xml:space="preserve">15.4695482254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6226749420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2651081085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9614267349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6201047897339</t>
   </si>
   <si>
     <t xml:space="preserve">15.7518396377563</t>
@@ -1403,34 +1403,34 @@
     <t xml:space="preserve">15.7894773483276</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6389236450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8271169662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.582465171814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.563645362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7706604003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9776735305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.335241317749</t>
+    <t xml:space="preserve">15.6389245986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8271198272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5824661254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5636463165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7706594467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9776744842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3352432250977</t>
   </si>
   <si>
     <t xml:space="preserve">17.2197551727295</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2573947906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0666275024414</t>
+    <t xml:space="preserve">17.2573928833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.06662940979</t>
   </si>
   <si>
     <t xml:space="preserve">17.7090587615967</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">18.2548198699951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7655143737793</t>
+    <t xml:space="preserve">17.7655162811279</t>
   </si>
   <si>
     <t xml:space="preserve">18.6123905181885</t>
@@ -1451,13 +1451,13 @@
     <t xml:space="preserve">18.1983623504639</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2950325012207</t>
+    <t xml:space="preserve">17.2950305938721</t>
   </si>
   <si>
     <t xml:space="preserve">17.6902370452881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7278747558594</t>
+    <t xml:space="preserve">17.727876663208</t>
   </si>
   <si>
     <t xml:space="preserve">17.8784313201904</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">19.854471206665</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9485683441162</t>
+    <t xml:space="preserve">19.9485664367676</t>
   </si>
   <si>
     <t xml:space="preserve">19.5721797943115</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">20.6072463989258</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4190521240234</t>
+    <t xml:space="preserve">20.4190540313721</t>
   </si>
   <si>
     <t xml:space="preserve">20.2779064178467</t>
@@ -1493,10 +1493,10 @@
     <t xml:space="preserve">20.0897121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3720035552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7483921051025</t>
+    <t xml:space="preserve">20.3720054626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7483940124512</t>
   </si>
   <si>
     <t xml:space="preserve">20.7954406738281</t>
@@ -1505,13 +1505,13 @@
     <t xml:space="preserve">21.3600215911865</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7364101409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1127986907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4541187286377</t>
+    <t xml:space="preserve">21.7364120483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1128005981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4541206359863</t>
   </si>
   <si>
     <t xml:space="preserve">20.9836349487305</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">19.6192264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3369369506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8764381408691</t>
+    <t xml:space="preserve">19.336935043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8764400482178</t>
   </si>
   <si>
     <t xml:space="preserve">20.1130638122559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9237632751465</t>
+    <t xml:space="preserve">19.9237651824951</t>
   </si>
   <si>
     <t xml:space="preserve">19.5924911499023</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">19.6398143768311</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8291168212891</t>
+    <t xml:space="preserve">19.8291149139404</t>
   </si>
   <si>
     <t xml:space="preserve">19.1665668487549</t>
@@ -1562,46 +1562,46 @@
     <t xml:space="preserve">19.2138900756836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0719184875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7817878723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1192417144775</t>
+    <t xml:space="preserve">19.0719203948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7817897796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1192436218262</t>
   </si>
   <si>
     <t xml:space="preserve">20.3023624420166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9710922241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.403190612793</t>
+    <t xml:space="preserve">19.9710903167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4031887054443</t>
   </si>
   <si>
     <t xml:space="preserve">18.5513439178467</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7595729827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.60813331604</t>
+    <t xml:space="preserve">18.7595748901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6081352233887</t>
   </si>
   <si>
     <t xml:space="preserve">18.9110126495361</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6459941864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9299449920654</t>
+    <t xml:space="preserve">18.6459922790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9299430847168</t>
   </si>
   <si>
     <t xml:space="preserve">18.7785034179688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2077140808105</t>
+    <t xml:space="preserve">20.2077121734619</t>
   </si>
   <si>
     <t xml:space="preserve">20.5389881134033</t>
@@ -1616,28 +1616,28 @@
     <t xml:space="preserve">22.2426834106445</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6212825775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1418533325195</t>
+    <t xml:space="preserve">22.621280670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1418571472168</t>
   </si>
   <si>
     <t xml:space="preserve">23.3784790039062</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6624279022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3311557769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2365055084229</t>
+    <t xml:space="preserve">23.6624298095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3311538696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2365036010742</t>
   </si>
   <si>
     <t xml:space="preserve">23.7570781707764</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3723030090332</t>
+    <t xml:space="preserve">24.3723011016846</t>
   </si>
   <si>
     <t xml:space="preserve">23.9463768005371</t>
@@ -1664,10 +1664,10 @@
     <t xml:space="preserve">23.425802230835</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6151065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0410289764404</t>
+    <t xml:space="preserve">23.615104675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0410270690918</t>
   </si>
   <si>
     <t xml:space="preserve">21.9114093780518</t>
@@ -1679,16 +1679,16 @@
     <t xml:space="preserve">22.2900085449219</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1007080078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.722110748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2961845397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0595607757568</t>
+    <t xml:space="preserve">22.1007099151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7221088409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2961864471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0595626831055</t>
   </si>
   <si>
     <t xml:space="preserve">21.1068859100342</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">22.0060577392578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9875240325928</t>
+    <t xml:space="preserve">24.9875221252441</t>
   </si>
   <si>
     <t xml:space="preserve">24.8455486297607</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">23.8044013977051</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3249740600586</t>
+    <t xml:space="preserve">24.3249759674072</t>
   </si>
   <si>
     <t xml:space="preserve">23.9937038421631</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4669494628906</t>
+    <t xml:space="preserve">24.4669513702393</t>
   </si>
   <si>
     <t xml:space="preserve">24.1356773376465</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">25.6027488708496</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8393726348877</t>
+    <t xml:space="preserve">25.8393707275391</t>
   </si>
   <si>
     <t xml:space="preserve">25.5554237365723</t>
@@ -1757,34 +1757,34 @@
     <t xml:space="preserve">25.4607734680176</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4731292724609</t>
+    <t xml:space="preserve">23.4731273651123</t>
   </si>
   <si>
     <t xml:space="preserve">22.7159309387207</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4319839477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2838287353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4196262359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8928737640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7035751342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9402008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0883522033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1830024719238</t>
+    <t xml:space="preserve">22.4319820404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2838325500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4196243286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8928775787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.703577041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9401988983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0883541107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1830005645752</t>
   </si>
   <si>
     <t xml:space="preserve">25.0348491668701</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">21.9587326049805</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0122375488281</t>
+    <t xml:space="preserve">21.0122356414795</t>
   </si>
   <si>
     <t xml:space="preserve">21.4854850769043</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">21.7694339752197</t>
   </si>
   <si>
-    <t xml:space="preserve">21.532808303833</t>
+    <t xml:space="preserve">21.5328102111816</t>
   </si>
   <si>
     <t xml:space="preserve">20.3970127105713</t>
@@ -1835,28 +1835,28 @@
     <t xml:space="preserve">19.3558654785156</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7027835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0184135437012</t>
+    <t xml:space="preserve">18.7027816772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0184154510498</t>
   </si>
   <si>
     <t xml:space="preserve">20.8229389190674</t>
   </si>
   <si>
-    <t xml:space="preserve">19.497838973999</t>
+    <t xml:space="preserve">19.4978408813477</t>
   </si>
   <si>
     <t xml:space="preserve">18.3431148529053</t>
   </si>
   <si>
-    <t xml:space="preserve">17.453405380249</t>
+    <t xml:space="preserve">17.4534072875977</t>
   </si>
   <si>
     <t xml:space="preserve">17.1694583892822</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9422988891602</t>
+    <t xml:space="preserve">16.9422969818115</t>
   </si>
   <si>
     <t xml:space="preserve">18.4377632141113</t>
@@ -1880,13 +1880,13 @@
     <t xml:space="preserve">22.4793071746826</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6274585723877</t>
+    <t xml:space="preserve">21.6274604797363</t>
   </si>
   <si>
     <t xml:space="preserve">20.6336364746094</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4443397521973</t>
+    <t xml:space="preserve">20.4443378448486</t>
   </si>
   <si>
     <t xml:space="preserve">20.1603889465332</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">18.8352928161621</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0533828735352</t>
+    <t xml:space="preserve">22.0533809661865</t>
   </si>
   <si>
     <t xml:space="preserve">20.3496894836426</t>
@@ -1907,22 +1907,22 @@
     <t xml:space="preserve">20.6809616088867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.456693649292</t>
+    <t xml:space="preserve">18.4566917419434</t>
   </si>
   <si>
     <t xml:space="preserve">18.0970230102539</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0213050842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3398265838623</t>
+    <t xml:space="preserve">18.0213069915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3398284912109</t>
   </si>
   <si>
     <t xml:space="preserve">17.3208999633789</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8914546966553</t>
+    <t xml:space="preserve">16.8914566040039</t>
   </si>
   <si>
     <t xml:space="preserve">17.063232421875</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">16.3761215209961</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9487133026123</t>
+    <t xml:space="preserve">16.9487152099609</t>
   </si>
   <si>
     <t xml:space="preserve">17.6549091339111</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">17.9412059783936</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3992786407471</t>
+    <t xml:space="preserve">18.3992805480957</t>
   </si>
   <si>
     <t xml:space="preserve">18.3801937103271</t>
@@ -1958,16 +1958,16 @@
     <t xml:space="preserve">18.3038463592529</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0863914489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7619209289551</t>
+    <t xml:space="preserve">19.086389541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7619228363037</t>
   </si>
   <si>
     <t xml:space="preserve">18.704662322998</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9146118164062</t>
+    <t xml:space="preserve">18.9146137237549</t>
   </si>
   <si>
     <t xml:space="preserve">18.0748100280762</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">18.8955268859863</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9929943084717</t>
+    <t xml:space="preserve">19.992992401123</t>
   </si>
   <si>
     <t xml:space="preserve">20.3270053863525</t>
@@ -2000,13 +2000,13 @@
     <t xml:space="preserve">21.04274559021</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1858940124512</t>
+    <t xml:space="preserve">21.1858921051025</t>
   </si>
   <si>
     <t xml:space="preserve">20.422435760498</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2356433868408</t>
+    <t xml:space="preserve">22.2356414794922</t>
   </si>
   <si>
     <t xml:space="preserve">22.8559513092041</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">22.4265079498291</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6173725128174</t>
+    <t xml:space="preserve">22.6173706054688</t>
   </si>
   <si>
     <t xml:space="preserve">22.76051902771</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">21.8062000274658</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5676212310791</t>
+    <t xml:space="preserve">21.5676193237305</t>
   </si>
   <si>
     <t xml:space="preserve">21.1381759643555</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">20.5655841827393</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8021297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3747215270996</t>
+    <t xml:space="preserve">19.8021278381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.374719619751</t>
   </si>
   <si>
     <t xml:space="preserve">20.0884246826172</t>
@@ -2066,13 +2066,13 @@
     <t xml:space="preserve">19.8975601196289</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3249702453613</t>
+    <t xml:space="preserve">19.3249683380127</t>
   </si>
   <si>
     <t xml:space="preserve">19.134105682373</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1818218231201</t>
+    <t xml:space="preserve">19.1818199157715</t>
   </si>
   <si>
     <t xml:space="preserve">18.6855754852295</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">18.4947109222412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0557250976562</t>
+    <t xml:space="preserve">18.0557270050049</t>
   </si>
   <si>
     <t xml:space="preserve">18.3611068725586</t>
@@ -2096,16 +2096,16 @@
     <t xml:space="preserve">17.9030323028564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.922119140625</t>
+    <t xml:space="preserve">17.9221172332764</t>
   </si>
   <si>
     <t xml:space="preserve">17.1204929351807</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2656745910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2295379638672</t>
+    <t xml:space="preserve">18.2656726837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2295398712158</t>
   </si>
   <si>
     <t xml:space="preserve">20.2315731048584</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">18.9336986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2847595214844</t>
+    <t xml:space="preserve">18.284761428833</t>
   </si>
   <si>
     <t xml:space="preserve">18.4183673858643</t>
@@ -2123,16 +2123,16 @@
     <t xml:space="preserve">18.647403717041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1893272399902</t>
+    <t xml:space="preserve">18.1893291473389</t>
   </si>
   <si>
     <t xml:space="preserve">18.34202003479</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6092300415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8041648864746</t>
+    <t xml:space="preserve">18.6092281341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.804162979126</t>
   </si>
   <si>
     <t xml:space="preserve">20.7564487457275</t>
@@ -2141,10 +2141,10 @@
     <t xml:space="preserve">20.661018371582</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6650867462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4762592315674</t>
+    <t xml:space="preserve">22.6650886535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.476261138916</t>
   </si>
   <si>
     <t xml:space="preserve">24.335147857666</t>
@@ -2159,10 +2159,10 @@
     <t xml:space="preserve">23.5716915130615</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8579864501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2833595275879</t>
+    <t xml:space="preserve">23.8579883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2833614349365</t>
   </si>
   <si>
     <t xml:space="preserve">23.0468158721924</t>
@@ -2183,10 +2183,10 @@
     <t xml:space="preserve">23.61940574646</t>
   </si>
   <si>
-    <t xml:space="preserve">24.526008605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3331108093262</t>
+    <t xml:space="preserve">24.5260105133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3331127166748</t>
   </si>
   <si>
     <t xml:space="preserve">22.5696544647217</t>
@@ -2234,19 +2234,19 @@
     <t xml:space="preserve">24.4305782318115</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2397155761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4803295135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0986022949219</t>
+    <t xml:space="preserve">24.2397136688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4803314208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0986042022705</t>
   </si>
   <si>
     <t xml:space="preserve">25.0031700134277</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9077377319336</t>
+    <t xml:space="preserve">24.9077396392822</t>
   </si>
   <si>
     <t xml:space="preserve">24.5737266540527</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">24.764591217041</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6691570281982</t>
+    <t xml:space="preserve">24.6691589355469</t>
   </si>
   <si>
     <t xml:space="preserve">25.1940326690674</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">24.8123054504395</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7189083099365</t>
+    <t xml:space="preserve">25.7189102172852</t>
   </si>
   <si>
     <t xml:space="preserve">25.9574890136719</t>
@@ -2279,13 +2279,13 @@
     <t xml:space="preserve">23.7625541687012</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7148380279541</t>
+    <t xml:space="preserve">23.7148399353027</t>
   </si>
   <si>
     <t xml:space="preserve">23.2853946685791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4285430908203</t>
+    <t xml:space="preserve">23.4285411834717</t>
   </si>
   <si>
     <t xml:space="preserve">23.1422462463379</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">23.9534187316895</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4721870422363</t>
+    <t xml:space="preserve">21.472188949585</t>
   </si>
   <si>
     <t xml:space="preserve">22.808235168457</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">25.7666263580322</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6732292175293</t>
+    <t xml:space="preserve">26.6732311248779</t>
   </si>
   <si>
     <t xml:space="preserve">26.5777969360352</t>
@@ -2880,6 +2880,9 @@
   </si>
   <si>
     <t xml:space="preserve">17.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3999996185303</t>
   </si>
 </sst>
 </file>
@@ -43183,7 +43186,7 @@
     </row>
     <row r="1538">
       <c r="A1538" s="1" t="n">
-        <v>45468.6496064815</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B1538" t="n">
         <v>121138</v>
@@ -43204,6 +43207,32 @@
         <v>955</v>
       </c>
       <c r="H1538" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="1" t="n">
+        <v>45469.6494097222</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>110045</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>17.6800003051758</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>17.2000007629395</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>17.6599998474121</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>17.3999996185303</v>
+      </c>
+      <c r="G1539" t="s">
+        <v>956</v>
+      </c>
+      <c r="H1539" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="958">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63556289672852</t>
+    <t xml:space="preserve">7.63556337356567</t>
   </si>
   <si>
     <t xml:space="preserve">CRL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95949506759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.866943359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77439165115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74477386474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9298791885376</t>
+    <t xml:space="preserve">7.95949554443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86694288253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77439308166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74477338790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92987966537476</t>
   </si>
   <si>
     <t xml:space="preserve">8.02428245544434</t>
@@ -68,19 +68,19 @@
     <t xml:space="preserve">8.03353691101074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4976601600647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35512924194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57910680770874</t>
+    <t xml:space="preserve">7.49766063690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35512971878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57910633087158</t>
   </si>
   <si>
     <t xml:space="preserve">7.51987266540527</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62630701065063</t>
+    <t xml:space="preserve">7.62630796432495</t>
   </si>
   <si>
     <t xml:space="preserve">7.49673461914062</t>
@@ -89,91 +89,91 @@
     <t xml:space="preserve">7.5800313949585</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59854221343994</t>
+    <t xml:space="preserve">7.5985426902771</t>
   </si>
   <si>
     <t xml:space="preserve">7.7022008895874</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85768842697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9132194519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97893238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06130409240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92247486114502</t>
+    <t xml:space="preserve">7.85768938064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91321992874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97893142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06130504608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9224739074707</t>
   </si>
   <si>
     <t xml:space="preserve">8.0770378112793</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87064599990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8206672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90766763687134</t>
+    <t xml:space="preserve">7.87064504623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82066822052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90766668319702</t>
   </si>
   <si>
     <t xml:space="preserve">7.74847650527954</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84843349456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80215787887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94561338424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6179780960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72811508178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84102964401245</t>
+    <t xml:space="preserve">7.84843254089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80215644836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94561433792114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61797857284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72811460494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84102869033813</t>
   </si>
   <si>
     <t xml:space="preserve">7.80400848388672</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05204772949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11775970458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17236709594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36302375793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52406406402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54720115661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81652927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02384948730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66289234161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34821510314941</t>
+    <t xml:space="preserve">8.0520486831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11776065826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17236614227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36302280426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5240650177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54720211029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8165283203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02384853363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66289329528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34821605682373</t>
   </si>
   <si>
     <t xml:space="preserve">8.31119346618652</t>
@@ -182,10 +182,10 @@
     <t xml:space="preserve">8.53054237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42225646972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51481056213379</t>
+    <t xml:space="preserve">8.42225742340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51480960845947</t>
   </si>
   <si>
     <t xml:space="preserve">8.77395534515381</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">8.72768020629883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.857253074646</t>
+    <t xml:space="preserve">8.85725212097168</t>
   </si>
   <si>
     <t xml:space="preserve">9.07012367248535</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">8.93222141265869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18118476867676</t>
+    <t xml:space="preserve">9.18118572235107</t>
   </si>
   <si>
     <t xml:space="preserve">9.20895099639893</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">9.40331077575684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16267585754395</t>
+    <t xml:space="preserve">9.16267681121826</t>
   </si>
   <si>
     <t xml:space="preserve">9.1821117401123</t>
@@ -233,34 +233,34 @@
     <t xml:space="preserve">9.12657928466797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08863162994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8285608291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05809211730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10714340209961</t>
+    <t xml:space="preserve">9.08863258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82856178283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05809116363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10714435577393</t>
   </si>
   <si>
     <t xml:space="preserve">8.96553897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73323345184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56848812103271</t>
+    <t xml:space="preserve">8.73323249816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56848907470703</t>
   </si>
   <si>
     <t xml:space="preserve">8.03909015655518</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36579990386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46853351593018</t>
+    <t xml:space="preserve">8.36580085754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46853256225586</t>
   </si>
   <si>
     <t xml:space="preserve">8.60736274719238</t>
@@ -272,19 +272,19 @@
     <t xml:space="preserve">8.69991397857666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87113475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08721828460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80678606033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97800540924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40189456939697</t>
+    <t xml:space="preserve">8.87113571166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08721733093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80678558349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97800636291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40189552307129</t>
   </si>
   <si>
     <t xml:space="preserve">8.83781719207764</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">8.84059429168701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81745529174805</t>
+    <t xml:space="preserve">8.81745338439941</t>
   </si>
   <si>
     <t xml:space="preserve">8.5666389465332</t>
@@ -302,19 +302,19 @@
     <t xml:space="preserve">8.66104221343994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76377582550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63882923126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45279979705811</t>
+    <t xml:space="preserve">8.76377391815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63883018493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45279884338379</t>
   </si>
   <si>
     <t xml:space="preserve">8.40097045898438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62217044830322</t>
+    <t xml:space="preserve">8.62217140197754</t>
   </si>
   <si>
     <t xml:space="preserve">8.78228569030762</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">8.11220741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09924983978271</t>
+    <t xml:space="preserve">8.09925079345703</t>
   </si>
   <si>
     <t xml:space="preserve">8.14460182189941</t>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">8.61013889312744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39449214935303</t>
+    <t xml:space="preserve">8.39449310302734</t>
   </si>
   <si>
     <t xml:space="preserve">8.57034111022949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9849739074707</t>
+    <t xml:space="preserve">8.98497486114502</t>
   </si>
   <si>
     <t xml:space="preserve">9.10344123840332</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">9.0812292098999</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21820735931396</t>
+    <t xml:space="preserve">9.21820640563965</t>
   </si>
   <si>
     <t xml:space="preserve">8.91278457641602</t>
@@ -362,25 +362,25 @@
     <t xml:space="preserve">9.14416408538818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91926288604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36394786834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29268360137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32970428466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39726829528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25936603546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46390533447266</t>
+    <t xml:space="preserve">8.91926383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36394882202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29268455505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32970523834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3972692489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25936412811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46390628814697</t>
   </si>
   <si>
     <t xml:space="preserve">8.33340835571289</t>
@@ -392,22 +392,22 @@
     <t xml:space="preserve">8.56108570098877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49629878997803</t>
+    <t xml:space="preserve">8.49629783630371</t>
   </si>
   <si>
     <t xml:space="preserve">8.28342819213867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41392612457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27972507476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2112398147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45927906036377</t>
+    <t xml:space="preserve">8.41392803192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27972602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21123886108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45927810668945</t>
   </si>
   <si>
     <t xml:space="preserve">8.48704528808594</t>
@@ -416,10 +416,10 @@
     <t xml:space="preserve">8.54442596435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77210521697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83411598205566</t>
+    <t xml:space="preserve">8.77210426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83411312103271</t>
   </si>
   <si>
     <t xml:space="preserve">8.78321075439453</t>
@@ -428,16 +428,16 @@
     <t xml:space="preserve">9.165452003479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13028240203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96183681488037</t>
+    <t xml:space="preserve">9.13028144836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96183776855469</t>
   </si>
   <si>
     <t xml:space="preserve">8.89797592163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04143142700195</t>
+    <t xml:space="preserve">9.04143238067627</t>
   </si>
   <si>
     <t xml:space="preserve">9.11639976501465</t>
@@ -446,10 +446,10 @@
     <t xml:space="preserve">9.30150318145752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27188682556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42922496795654</t>
+    <t xml:space="preserve">9.27188777923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42922592163086</t>
   </si>
   <si>
     <t xml:space="preserve">9.46254539489746</t>
@@ -467,22 +467,22 @@
     <t xml:space="preserve">9.66245746612549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71243476867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38665294647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68652153015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56064987182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57916069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35148143768311</t>
+    <t xml:space="preserve">9.71243667602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38665199279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68652057647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5606517791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5791597366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35148239135742</t>
   </si>
   <si>
     <t xml:space="preserve">9.53103256225586</t>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">9.1941442489624</t>
   </si>
   <si>
-    <t xml:space="preserve">9.329270362854</t>
+    <t xml:space="preserve">9.32926940917969</t>
   </si>
   <si>
     <t xml:space="preserve">9.21265316009521</t>
@@ -503,28 +503,28 @@
     <t xml:space="preserve">9.12565326690674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00533676147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43799209594727</t>
+    <t xml:space="preserve">9.00533580780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43799304962158</t>
   </si>
   <si>
     <t xml:space="preserve">8.82300758361816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07104873657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25522708892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03310203552246</t>
+    <t xml:space="preserve">9.07104778289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25522899627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03310108184814</t>
   </si>
   <si>
     <t xml:space="preserve">9.17193126678467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51437282562256</t>
+    <t xml:space="preserve">9.51437377929688</t>
   </si>
   <si>
     <t xml:space="preserve">9.45884323120117</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">9.97713470458984</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0696878433228</t>
+    <t xml:space="preserve">10.0696887969971</t>
   </si>
   <si>
     <t xml:space="preserve">10.1252183914185</t>
@@ -557,19 +557,19 @@
     <t xml:space="preserve">9.86607265472412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99564743041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88458251953125</t>
+    <t xml:space="preserve">9.99564647674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88458347320557</t>
   </si>
   <si>
     <t xml:space="preserve">10.0141572952271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1437301635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1807508468628</t>
+    <t xml:space="preserve">10.1437292098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1807498931885</t>
   </si>
   <si>
     <t xml:space="preserve">9.73650074005127</t>
@@ -581,22 +581,22 @@
     <t xml:space="preserve">9.9030933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94011402130127</t>
+    <t xml:space="preserve">9.94011306762695</t>
   </si>
   <si>
     <t xml:space="preserve">10.2177715301514</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2362813949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3843641281128</t>
+    <t xml:space="preserve">10.2362823486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3843660354614</t>
   </si>
   <si>
     <t xml:space="preserve">10.1067094802856</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0881977081299</t>
+    <t xml:space="preserve">10.0881986618042</t>
   </si>
   <si>
     <t xml:space="preserve">10.1992616653442</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">10.7360639572144</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8101062774658</t>
+    <t xml:space="preserve">10.8101053237915</t>
   </si>
   <si>
     <t xml:space="preserve">10.4954280853271</t>
@@ -620,25 +620,25 @@
     <t xml:space="preserve">10.5509605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139389038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4028749465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0511779785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92160511016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2551298141479</t>
+    <t xml:space="preserve">10.5139379501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4028759002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0511789321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92160415649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2551307678223</t>
   </si>
   <si>
     <t xml:space="preserve">10.0122947692871</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95625495910645</t>
+    <t xml:space="preserve">9.95625591278076</t>
   </si>
   <si>
     <t xml:space="preserve">9.99361515045166</t>
@@ -653,34 +653,34 @@
     <t xml:space="preserve">10.2738094329834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2924900054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.161732673645</t>
+    <t xml:space="preserve">10.2924890518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1617336273193</t>
   </si>
   <si>
     <t xml:space="preserve">9.97493553161621</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1243715286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80681800842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93757629394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2364501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6287231445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4792852401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4979648590088</t>
+    <t xml:space="preserve">10.1243724822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80681896209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93757724761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2364511489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6287240982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.479287147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4979658126831</t>
   </si>
   <si>
     <t xml:space="preserve">10.4606075286865</t>
@@ -692,40 +692,40 @@
     <t xml:space="preserve">9.90021705627441</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3858880996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1056928634644</t>
+    <t xml:space="preserve">10.3858890533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1056938171387</t>
   </si>
   <si>
     <t xml:space="preserve">9.88153743743896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1430530548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1804113388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8628568649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3298482894897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9275979995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5540037155151</t>
+    <t xml:space="preserve">10.1430540084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1804132461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86285781860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3298492431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9275989532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5540046691895</t>
   </si>
   <si>
     <t xml:space="preserve">12.1417751312256</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2451524734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6934642791748</t>
+    <t xml:space="preserve">11.2451515197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6934633255005</t>
   </si>
   <si>
     <t xml:space="preserve">11.4879875183105</t>
@@ -734,64 +734,64 @@
     <t xml:space="preserve">11.6187448501587</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7121419906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6000661849976</t>
+    <t xml:space="preserve">11.7121438980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6000652313232</t>
   </si>
   <si>
     <t xml:space="preserve">12.0483779907227</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2351732254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3285713195801</t>
+    <t xml:space="preserve">12.2351741790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3285722732544</t>
   </si>
   <si>
     <t xml:space="preserve">12.53404712677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6834850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2725324630737</t>
+    <t xml:space="preserve">12.6834869384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.272533416748</t>
   </si>
   <si>
     <t xml:space="preserve">11.6561050415039</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6747846603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8242216110229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5627059936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0110168457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1978139877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.253851890564</t>
+    <t xml:space="preserve">11.674783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8242225646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5627069473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0110177993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1978149414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2538537979126</t>
   </si>
   <si>
     <t xml:space="preserve">12.3098926544189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6087675094604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7768831253052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0757579803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3559541702271</t>
+    <t xml:space="preserve">12.6087684631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7768840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.075758934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3559532165527</t>
   </si>
   <si>
     <t xml:space="preserve">13.44935131073</t>
@@ -800,16 +800,16 @@
     <t xml:space="preserve">13.5987882614136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1591787338257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5614280700684</t>
+    <t xml:space="preserve">14.1591796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5614290237427</t>
   </si>
   <si>
     <t xml:space="preserve">13.2999143600464</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2065162658691</t>
+    <t xml:space="preserve">13.2065172195435</t>
   </si>
   <si>
     <t xml:space="preserve">12.478009223938</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">12.4406509399414</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3846111297607</t>
+    <t xml:space="preserve">12.3846101760864</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966888427734</t>
@@ -830,13 +830,13 @@
     <t xml:space="preserve">12.3659315109253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.700888633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0097417831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5053901672363</t>
+    <t xml:space="preserve">14.7008895874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0097427368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5053911209106</t>
   </si>
   <si>
     <t xml:space="preserve">13.2625551223755</t>
@@ -845,10 +845,10 @@
     <t xml:space="preserve">12.9450006484985</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7955627441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.646125793457</t>
+    <t xml:space="preserve">12.7955636978149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6461267471313</t>
   </si>
   <si>
     <t xml:space="preserve">12.4593305587769</t>
@@ -860,16 +860,16 @@
     <t xml:space="preserve">12.907642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9823598861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.187837600708</t>
+    <t xml:space="preserve">12.9823608398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1878385543823</t>
   </si>
   <si>
     <t xml:space="preserve">13.1691560745239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4306707382202</t>
+    <t xml:space="preserve">13.4306716918945</t>
   </si>
   <si>
     <t xml:space="preserve">13.1504764556885</t>
@@ -878,34 +878,34 @@
     <t xml:space="preserve">12.7395248413086</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4032897949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5527267456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5153684616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9362983703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8615808486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3759098052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0957136154175</t>
+    <t xml:space="preserve">12.4032907485962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5527276992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5153675079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9362993240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8615827560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3759107589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0957145690918</t>
   </si>
   <si>
     <t xml:space="preserve">11.1704330444336</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1143941879272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8341979980469</t>
+    <t xml:space="preserve">11.1143951416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8341989517212</t>
   </si>
   <si>
     <t xml:space="preserve">11.3945894241333</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">11.2077932357788</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3572292327881</t>
+    <t xml:space="preserve">11.3572301864624</t>
   </si>
   <si>
     <t xml:space="preserve">11.3011903762817</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">11.1891117095947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4892635345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47058486938477</t>
+    <t xml:space="preserve">9.48926258087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47058391571045</t>
   </si>
   <si>
     <t xml:space="preserve">8.94755363464355</t>
@@ -941,10 +941,10 @@
     <t xml:space="preserve">8.77943801879883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87283515930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2657470703125</t>
+    <t xml:space="preserve">8.87283611297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26574611663818</t>
   </si>
   <si>
     <t xml:space="preserve">8.3031063079834</t>
@@ -956,10 +956,10 @@
     <t xml:space="preserve">8.59264087677002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49924278259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71341991424561</t>
+    <t xml:space="preserve">8.49924373626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71342086791992</t>
   </si>
   <si>
     <t xml:space="preserve">10.7968406677246</t>
@@ -968,16 +968,16 @@
     <t xml:space="preserve">9.84417915344238</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3672094345093</t>
+    <t xml:space="preserve">10.367208480835</t>
   </si>
   <si>
     <t xml:space="preserve">10.3111696243286</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78813743591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0870141983032</t>
+    <t xml:space="preserve">9.7881383895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0870151519775</t>
   </si>
   <si>
     <t xml:space="preserve">10.7781610488892</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">11.7681827545166</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9549789428711</t>
+    <t xml:space="preserve">11.9549798965454</t>
   </si>
   <si>
     <t xml:space="preserve">12.5714073181152</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7021636962891</t>
+    <t xml:space="preserve">12.7021656036377</t>
   </si>
   <si>
     <t xml:space="preserve">11.8429012298584</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">13.8229446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5801086425781</t>
+    <t xml:space="preserve">13.5801095962524</t>
   </si>
   <si>
     <t xml:space="preserve">13.7482261657715</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9997634887695</t>
+    <t xml:space="preserve">14.9997625350952</t>
   </si>
   <si>
     <t xml:space="preserve">15.1492004394531</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">15.392035484314</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590269088745</t>
+    <t xml:space="preserve">15.8590288162231</t>
   </si>
   <si>
     <t xml:space="preserve">16.0831832885742</t>
@@ -1031,19 +1031,19 @@
     <t xml:space="preserve">15.5041131973267</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0558023452759</t>
+    <t xml:space="preserve">15.0558013916016</t>
   </si>
   <si>
     <t xml:space="preserve">14.7195682525635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5701322555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1405000686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2338972091675</t>
+    <t xml:space="preserve">14.5701313018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1404981613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2338962554932</t>
   </si>
   <si>
     <t xml:space="preserve">13.8976631164551</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">13.9163427352905</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7669057846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1778583526611</t>
+    <t xml:space="preserve">13.7669048309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1778573989868</t>
   </si>
   <si>
     <t xml:space="preserve">14.4206943511963</t>
@@ -1067,10 +1067,10 @@
     <t xml:space="preserve">15.0931606292725</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603136062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9049654006958</t>
+    <t xml:space="preserve">14.6603145599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9049673080444</t>
   </si>
   <si>
     <t xml:space="preserve">14.9990644454956</t>
@@ -1085,19 +1085,19 @@
     <t xml:space="preserve">15.375452041626</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3378143310547</t>
+    <t xml:space="preserve">15.3378133773804</t>
   </si>
   <si>
     <t xml:space="preserve">15.5260076522827</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4319105148315</t>
+    <t xml:space="preserve">15.4319095611572</t>
   </si>
   <si>
     <t xml:space="preserve">15.1119804382324</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7167739868164</t>
+    <t xml:space="preserve">14.7167730331421</t>
   </si>
   <si>
     <t xml:space="preserve">15.1872577667236</t>
@@ -1109,13 +1109,13 @@
     <t xml:space="preserve">14.754412651062</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2437171936035</t>
+    <t xml:space="preserve">15.2437162399292</t>
   </si>
   <si>
     <t xml:space="preserve">15.0367021560669</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1308002471924</t>
+    <t xml:space="preserve">15.1307992935181</t>
   </si>
   <si>
     <t xml:space="preserve">15.5071878433228</t>
@@ -1127,16 +1127,16 @@
     <t xml:space="preserve">14.5850372314453</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6765613555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2787818908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0880184173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8031578063965</t>
+    <t xml:space="preserve">15.6765604019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2787837982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.088020324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8031558990479</t>
   </si>
   <si>
     <t xml:space="preserve">16.8433647155762</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">18.1419048309326</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0101661682129</t>
+    <t xml:space="preserve">18.0101680755615</t>
   </si>
   <si>
     <t xml:space="preserve">18.4053764343262</t>
@@ -1172,13 +1172,13 @@
     <t xml:space="preserve">17.7843360900879</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6525993347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1230850219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8194026947021</t>
+    <t xml:space="preserve">17.6526012420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1230869293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8194046020508</t>
   </si>
   <si>
     <t xml:space="preserve">19.2898864746094</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">18.4618339538574</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3489151000977</t>
+    <t xml:space="preserve">18.3489170074463</t>
   </si>
   <si>
     <t xml:space="preserve">18.1607265472412</t>
@@ -1196,13 +1196,13 @@
     <t xml:space="preserve">17.5020446777344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0854454040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5961437225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9348907470703</t>
+    <t xml:space="preserve">18.0854473114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5961418151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9348888397217</t>
   </si>
   <si>
     <t xml:space="preserve">17.0503787994385</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">16.7869071960449</t>
   </si>
   <si>
-    <t xml:space="preserve">15.940034866333</t>
+    <t xml:space="preserve">15.9400329589844</t>
   </si>
   <si>
     <t xml:space="preserve">16.5798931121826</t>
@@ -1226,22 +1226,22 @@
     <t xml:space="preserve">15.8835744857788</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6551723480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7116317749023</t>
+    <t xml:space="preserve">16.6551704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7116298675537</t>
   </si>
   <si>
     <t xml:space="preserve">16.4105186462402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.54225730896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3916988372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9750995635986</t>
+    <t xml:space="preserve">16.5422534942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3917026519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9751014709473</t>
   </si>
   <si>
     <t xml:space="preserve">16.8245449066162</t>
@@ -1256,16 +1256,16 @@
     <t xml:space="preserve">16.4857959747314</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4669780731201</t>
+    <t xml:space="preserve">16.4669799804688</t>
   </si>
   <si>
     <t xml:space="preserve">16.8057270050049</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7492694854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7304496765137</t>
+    <t xml:space="preserve">16.749267578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.730447769165</t>
   </si>
   <si>
     <t xml:space="preserve">16.8810062408447</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">16.9374618530273</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9186420440674</t>
+    <t xml:space="preserve">16.918643951416</t>
   </si>
   <si>
     <t xml:space="preserve">15.9023952484131</t>
@@ -1292,10 +1292,10 @@
     <t xml:space="preserve">14.6414947509766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4455890655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6363525390625</t>
+    <t xml:space="preserve">17.4455852508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6363506317139</t>
   </si>
   <si>
     <t xml:space="preserve">15.7330198287964</t>
@@ -1310,10 +1310,10 @@
     <t xml:space="preserve">16.5987129211426</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9562816619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5610733032227</t>
+    <t xml:space="preserve">16.9562835693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5610752105713</t>
   </si>
   <si>
     <t xml:space="preserve">17.0691986083984</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">16.7680892944336</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0315608978271</t>
+    <t xml:space="preserve">17.0315589904785</t>
   </si>
   <si>
     <t xml:space="preserve">17.0127410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0289897918701</t>
+    <t xml:space="preserve">18.0289878845215</t>
   </si>
   <si>
     <t xml:space="preserve">18.2171802520752</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">18.6688480377197</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0478057861328</t>
+    <t xml:space="preserve">18.0478076934814</t>
   </si>
   <si>
     <t xml:space="preserve">18.1795425415039</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">16.6739921569824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4293384552002</t>
+    <t xml:space="preserve">16.4293403625488</t>
   </si>
   <si>
     <t xml:space="preserve">17.1444759368896</t>
@@ -1364,10 +1364,10 @@
     <t xml:space="preserve">16.1846885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9588537216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8647565841675</t>
+    <t xml:space="preserve">15.95885181427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8647556304932</t>
   </si>
   <si>
     <t xml:space="preserve">15.7142009735107</t>
@@ -1394,40 +1394,40 @@
     <t xml:space="preserve">14.9614267349243</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6201047897339</t>
+    <t xml:space="preserve">15.6201038360596</t>
   </si>
   <si>
     <t xml:space="preserve">15.7518396377563</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7894773483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6389245986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8271198272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5824661254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5636463165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7706594467163</t>
+    <t xml:space="preserve">15.789478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6389236450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8271179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.582465171814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.563645362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7706613540649</t>
   </si>
   <si>
     <t xml:space="preserve">15.9776744842529</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3352432250977</t>
+    <t xml:space="preserve">16.335241317749</t>
   </si>
   <si>
     <t xml:space="preserve">17.2197551727295</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2573928833008</t>
+    <t xml:space="preserve">17.2573947906494</t>
   </si>
   <si>
     <t xml:space="preserve">18.06662940979</t>
@@ -1448,22 +1448,22 @@
     <t xml:space="preserve">18.6123905181885</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1983623504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2950305938721</t>
+    <t xml:space="preserve">18.1983604431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2950325012207</t>
   </si>
   <si>
     <t xml:space="preserve">17.6902370452881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.727876663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8784313201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.854471206665</t>
+    <t xml:space="preserve">17.7278747558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8784332275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8544731140137</t>
   </si>
   <si>
     <t xml:space="preserve">19.9485664367676</t>
@@ -1490,22 +1490,22 @@
     <t xml:space="preserve">20.2779064178467</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0897121429443</t>
+    <t xml:space="preserve">20.089714050293</t>
   </si>
   <si>
     <t xml:space="preserve">20.3720054626465</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7483940124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7954406738281</t>
+    <t xml:space="preserve">20.7483921051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7954387664795</t>
   </si>
   <si>
     <t xml:space="preserve">21.3600215911865</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7364120483398</t>
+    <t xml:space="preserve">21.7364101409912</t>
   </si>
   <si>
     <t xml:space="preserve">22.1128005981445</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">21.4541206359863</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9836349487305</t>
+    <t xml:space="preserve">20.9836330413818</t>
   </si>
   <si>
     <t xml:space="preserve">20.2308597564697</t>
@@ -1526,13 +1526,13 @@
     <t xml:space="preserve">19.6192264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">19.336935043335</t>
+    <t xml:space="preserve">19.3369369506836</t>
   </si>
   <si>
     <t xml:space="preserve">19.8764400482178</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1130638122559</t>
+    <t xml:space="preserve">20.1130619049072</t>
   </si>
   <si>
     <t xml:space="preserve">19.9237651824951</t>
@@ -1544,13 +1544,13 @@
     <t xml:space="preserve">19.687141418457</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6398143768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8291149139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1665668487549</t>
+    <t xml:space="preserve">19.6398162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8291168212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1665687561035</t>
   </si>
   <si>
     <t xml:space="preserve">18.9772682189941</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">19.2138900756836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0719203948975</t>
+    <t xml:space="preserve">19.0719184875488</t>
   </si>
   <si>
     <t xml:space="preserve">19.7817897796631</t>
@@ -1574,34 +1574,34 @@
     <t xml:space="preserve">20.3023624420166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9710903167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4031887054443</t>
+    <t xml:space="preserve">19.9710922241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.403190612793</t>
   </si>
   <si>
     <t xml:space="preserve">18.5513439178467</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7595748901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6081352233887</t>
+    <t xml:space="preserve">18.7595729827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.60813331604</t>
   </si>
   <si>
     <t xml:space="preserve">18.9110126495361</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6459922790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9299430847168</t>
+    <t xml:space="preserve">18.6459941864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9299449920654</t>
   </si>
   <si>
     <t xml:space="preserve">18.7785034179688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2077121734619</t>
+    <t xml:space="preserve">20.2077140808105</t>
   </si>
   <si>
     <t xml:space="preserve">20.5389881134033</t>
@@ -1619,19 +1619,19 @@
     <t xml:space="preserve">22.621280670166</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1418571472168</t>
+    <t xml:space="preserve">23.1418552398682</t>
   </si>
   <si>
     <t xml:space="preserve">23.3784790039062</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6624298095703</t>
+    <t xml:space="preserve">23.6624279022217</t>
   </si>
   <si>
     <t xml:space="preserve">23.3311538696289</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2365036010742</t>
+    <t xml:space="preserve">23.2365055084229</t>
   </si>
   <si>
     <t xml:space="preserve">23.7570781707764</t>
@@ -1667,28 +1667,28 @@
     <t xml:space="preserve">23.615104675293</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0410270690918</t>
+    <t xml:space="preserve">24.0410289764404</t>
   </si>
   <si>
     <t xml:space="preserve">21.9114093780518</t>
   </si>
   <si>
-    <t xml:space="preserve">21.864086151123</t>
+    <t xml:space="preserve">21.8640842437744</t>
   </si>
   <si>
     <t xml:space="preserve">22.2900085449219</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1007099151611</t>
+    <t xml:space="preserve">22.1007080078125</t>
   </si>
   <si>
     <t xml:space="preserve">21.7221088409424</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2961864471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0595626831055</t>
+    <t xml:space="preserve">21.2961845397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0595607757568</t>
   </si>
   <si>
     <t xml:space="preserve">21.1068859100342</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">20.7282886505127</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3908348083496</t>
+    <t xml:space="preserve">21.3908367156982</t>
   </si>
   <si>
     <t xml:space="preserve">22.0060577392578</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">23.8044013977051</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3249759674072</t>
+    <t xml:space="preserve">24.3249740600586</t>
   </si>
   <si>
     <t xml:space="preserve">23.9937038421631</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4669513702393</t>
+    <t xml:space="preserve">24.4669494628906</t>
   </si>
   <si>
     <t xml:space="preserve">24.1356773376465</t>
@@ -1763,25 +1763,25 @@
     <t xml:space="preserve">22.7159309387207</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4319820404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2838325500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4196243286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8928775787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.703577041626</t>
+    <t xml:space="preserve">22.4319839477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2838306427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4196262359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8928756713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7035751342773</t>
   </si>
   <si>
     <t xml:space="preserve">24.9401988983154</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0883541107178</t>
+    <t xml:space="preserve">24.0883522033691</t>
   </si>
   <si>
     <t xml:space="preserve">24.1830005645752</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">24.798225402832</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3661231994629</t>
+    <t xml:space="preserve">25.3661212921143</t>
   </si>
   <si>
     <t xml:space="preserve">25.3187980651855</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">21.9587326049805</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0122356414795</t>
+    <t xml:space="preserve">21.0122375488281</t>
   </si>
   <si>
     <t xml:space="preserve">21.4854850769043</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">17.1694583892822</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9422969818115</t>
+    <t xml:space="preserve">16.9422988891602</t>
   </si>
   <si>
     <t xml:space="preserve">18.4377632141113</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">18.3241844177246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7974338531494</t>
+    <t xml:space="preserve">18.7974319458008</t>
   </si>
   <si>
     <t xml:space="preserve">20.0657386779785</t>
@@ -1877,16 +1877,16 @@
     <t xml:space="preserve">22.1480331420898</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4793071746826</t>
+    <t xml:space="preserve">22.479305267334</t>
   </si>
   <si>
     <t xml:space="preserve">21.6274604797363</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6336364746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4443378448486</t>
+    <t xml:space="preserve">20.633638381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4443397521973</t>
   </si>
   <si>
     <t xml:space="preserve">20.1603889465332</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">18.8352928161621</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0533809661865</t>
+    <t xml:space="preserve">22.0533828735352</t>
   </si>
   <si>
     <t xml:space="preserve">20.3496894836426</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">20.6809616088867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4566917419434</t>
+    <t xml:space="preserve">18.456693649292</t>
   </si>
   <si>
     <t xml:space="preserve">18.0970230102539</t>
@@ -1916,13 +1916,13 @@
     <t xml:space="preserve">18.0213069915771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3398284912109</t>
+    <t xml:space="preserve">17.3398265838623</t>
   </si>
   <si>
     <t xml:space="preserve">17.3208999633789</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8914566040039</t>
+    <t xml:space="preserve">16.8914546966553</t>
   </si>
   <si>
     <t xml:space="preserve">17.063232421875</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">16.3761215209961</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9487152099609</t>
+    <t xml:space="preserve">16.9487133026123</t>
   </si>
   <si>
     <t xml:space="preserve">17.6549091339111</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">17.9412059783936</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3992805480957</t>
+    <t xml:space="preserve">18.3992786407471</t>
   </si>
   <si>
     <t xml:space="preserve">18.3801937103271</t>
@@ -1958,16 +1958,16 @@
     <t xml:space="preserve">18.3038463592529</t>
   </si>
   <si>
-    <t xml:space="preserve">19.086389541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7619228363037</t>
+    <t xml:space="preserve">19.0863914489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7619209289551</t>
   </si>
   <si>
     <t xml:space="preserve">18.704662322998</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9146137237549</t>
+    <t xml:space="preserve">18.9146118164062</t>
   </si>
   <si>
     <t xml:space="preserve">18.0748100280762</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">18.8955268859863</t>
   </si>
   <si>
-    <t xml:space="preserve">19.992992401123</t>
+    <t xml:space="preserve">19.9929943084717</t>
   </si>
   <si>
     <t xml:space="preserve">20.3270053863525</t>
@@ -2000,13 +2000,13 @@
     <t xml:space="preserve">21.04274559021</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1858921051025</t>
+    <t xml:space="preserve">21.1858940124512</t>
   </si>
   <si>
     <t xml:space="preserve">20.422435760498</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2356414794922</t>
+    <t xml:space="preserve">22.2356433868408</t>
   </si>
   <si>
     <t xml:space="preserve">22.8559513092041</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">22.4265079498291</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6173706054688</t>
+    <t xml:space="preserve">22.6173725128174</t>
   </si>
   <si>
     <t xml:space="preserve">22.76051902771</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">21.8062000274658</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5676193237305</t>
+    <t xml:space="preserve">21.5676212310791</t>
   </si>
   <si>
     <t xml:space="preserve">21.1381759643555</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">20.5655841827393</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8021278381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.374719619751</t>
+    <t xml:space="preserve">19.8021297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3747215270996</t>
   </si>
   <si>
     <t xml:space="preserve">20.0884246826172</t>
@@ -2066,13 +2066,13 @@
     <t xml:space="preserve">19.8975601196289</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3249683380127</t>
+    <t xml:space="preserve">19.3249702453613</t>
   </si>
   <si>
     <t xml:space="preserve">19.134105682373</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1818199157715</t>
+    <t xml:space="preserve">19.1818218231201</t>
   </si>
   <si>
     <t xml:space="preserve">18.6855754852295</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">18.4947109222412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0557270050049</t>
+    <t xml:space="preserve">18.0557250976562</t>
   </si>
   <si>
     <t xml:space="preserve">18.3611068725586</t>
@@ -2096,16 +2096,16 @@
     <t xml:space="preserve">17.9030323028564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9221172332764</t>
+    <t xml:space="preserve">17.922119140625</t>
   </si>
   <si>
     <t xml:space="preserve">17.1204929351807</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2656726837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2295398712158</t>
+    <t xml:space="preserve">18.2656745910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2295379638672</t>
   </si>
   <si>
     <t xml:space="preserve">20.2315731048584</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">18.9336986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">18.284761428833</t>
+    <t xml:space="preserve">18.2847595214844</t>
   </si>
   <si>
     <t xml:space="preserve">18.4183673858643</t>
@@ -2123,16 +2123,16 @@
     <t xml:space="preserve">18.647403717041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1893291473389</t>
+    <t xml:space="preserve">18.1893272399902</t>
   </si>
   <si>
     <t xml:space="preserve">18.34202003479</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6092281341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.804162979126</t>
+    <t xml:space="preserve">18.6092300415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8041648864746</t>
   </si>
   <si>
     <t xml:space="preserve">20.7564487457275</t>
@@ -2141,10 +2141,10 @@
     <t xml:space="preserve">20.661018371582</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6650886535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.476261138916</t>
+    <t xml:space="preserve">22.6650867462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4762592315674</t>
   </si>
   <si>
     <t xml:space="preserve">24.335147857666</t>
@@ -2159,10 +2159,10 @@
     <t xml:space="preserve">23.5716915130615</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8579883575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2833614349365</t>
+    <t xml:space="preserve">23.8579864501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2833595275879</t>
   </si>
   <si>
     <t xml:space="preserve">23.0468158721924</t>
@@ -2183,10 +2183,10 @@
     <t xml:space="preserve">23.61940574646</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5260105133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3331127166748</t>
+    <t xml:space="preserve">24.526008605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3331108093262</t>
   </si>
   <si>
     <t xml:space="preserve">22.5696544647217</t>
@@ -2234,19 +2234,19 @@
     <t xml:space="preserve">24.4305782318115</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2397136688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4803314208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0986042022705</t>
+    <t xml:space="preserve">24.2397155761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4803295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0986022949219</t>
   </si>
   <si>
     <t xml:space="preserve">25.0031700134277</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9077396392822</t>
+    <t xml:space="preserve">24.9077377319336</t>
   </si>
   <si>
     <t xml:space="preserve">24.5737266540527</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">24.764591217041</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6691589355469</t>
+    <t xml:space="preserve">24.6691570281982</t>
   </si>
   <si>
     <t xml:space="preserve">25.1940326690674</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">24.8123054504395</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7189102172852</t>
+    <t xml:space="preserve">25.7189083099365</t>
   </si>
   <si>
     <t xml:space="preserve">25.9574890136719</t>
@@ -2279,13 +2279,13 @@
     <t xml:space="preserve">23.7625541687012</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7148399353027</t>
+    <t xml:space="preserve">23.7148380279541</t>
   </si>
   <si>
     <t xml:space="preserve">23.2853946685791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4285411834717</t>
+    <t xml:space="preserve">23.4285430908203</t>
   </si>
   <si>
     <t xml:space="preserve">23.1422462463379</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">23.9534187316895</t>
   </si>
   <si>
-    <t xml:space="preserve">21.472188949585</t>
+    <t xml:space="preserve">21.4721870422363</t>
   </si>
   <si>
     <t xml:space="preserve">22.808235168457</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">25.7666263580322</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6732311248779</t>
+    <t xml:space="preserve">26.6732292175293</t>
   </si>
   <si>
     <t xml:space="preserve">26.5777969360352</t>
@@ -2883,6 +2883,9 @@
   </si>
   <si>
     <t xml:space="preserve">17.3999996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4400005340576</t>
   </si>
 </sst>
 </file>
@@ -43212,7 +43215,7 @@
     </row>
     <row r="1539">
       <c r="A1539" s="1" t="n">
-        <v>45469.6494097222</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B1539" t="n">
         <v>110045</v>
@@ -43233,6 +43236,32 @@
         <v>956</v>
       </c>
       <c r="H1539" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="1" t="n">
+        <v>45470.6496180556</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>83126</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>17.4400005340576</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>17.0599994659424</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>17.6599998474121</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>17.4400005340576</v>
+      </c>
+      <c r="G1540" t="s">
+        <v>957</v>
+      </c>
+      <c r="H1540" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="961">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63556289672852</t>
+    <t xml:space="preserve">7.63556337356567</t>
   </si>
   <si>
     <t xml:space="preserve">CRL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95949602127075</t>
+    <t xml:space="preserve">7.95949554443359</t>
   </si>
   <si>
     <t xml:space="preserve">7.866943359375</t>
@@ -53,46 +53,46 @@
     <t xml:space="preserve">7.77439212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74477386474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92987823486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02428150177002</t>
+    <t xml:space="preserve">7.74477291107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92988014221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02428245544434</t>
   </si>
   <si>
     <t xml:space="preserve">7.72904014587402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03353691101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49766063690186</t>
+    <t xml:space="preserve">8.03353786468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4976601600647</t>
   </si>
   <si>
     <t xml:space="preserve">7.35512971878052</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57910537719727</t>
+    <t xml:space="preserve">7.57910633087158</t>
   </si>
   <si>
     <t xml:space="preserve">7.51987266540527</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62630796432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49673557281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58003187179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59854173660278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7022008895874</t>
+    <t xml:space="preserve">7.62630748748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49673461914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5800313949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59854221343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70220041275024</t>
   </si>
   <si>
     <t xml:space="preserve">7.85768890380859</t>
@@ -101,64 +101,64 @@
     <t xml:space="preserve">7.91321897506714</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97893190383911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06130504608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92247343063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07703685760498</t>
+    <t xml:space="preserve">7.97893238067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06130409240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92247438430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0770378112793</t>
   </si>
   <si>
     <t xml:space="preserve">7.87064504623413</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82066822052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90766668319702</t>
+    <t xml:space="preserve">7.82066679000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90766763687134</t>
   </si>
   <si>
     <t xml:space="preserve">7.74847650527954</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84843254089355</t>
+    <t xml:space="preserve">7.84843349456787</t>
   </si>
   <si>
     <t xml:space="preserve">7.80215740203857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94561338424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61797761917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72811412811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84102916717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80400848388672</t>
+    <t xml:space="preserve">7.94561290740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6179780960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72811508178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84102869033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80400943756104</t>
   </si>
   <si>
     <t xml:space="preserve">8.0520486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11776065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17236518859863</t>
+    <t xml:space="preserve">8.11775875091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17236614227295</t>
   </si>
   <si>
     <t xml:space="preserve">8.36302375793457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5240650177002</t>
+    <t xml:space="preserve">8.52406406402588</t>
   </si>
   <si>
     <t xml:space="preserve">8.54720306396484</t>
@@ -167,28 +167,28 @@
     <t xml:space="preserve">8.8165283203125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02384662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66289329528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34821510314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31119441986084</t>
+    <t xml:space="preserve">9.02384757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66289234161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34821605682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31119346618652</t>
   </si>
   <si>
     <t xml:space="preserve">8.53054237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42225742340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51480960845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77395534515381</t>
+    <t xml:space="preserve">8.4222583770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51481056213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77395629882812</t>
   </si>
   <si>
     <t xml:space="preserve">8.81097793579102</t>
@@ -197,37 +197,37 @@
     <t xml:space="preserve">8.67770099639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72768020629883</t>
+    <t xml:space="preserve">8.7276782989502</t>
   </si>
   <si>
     <t xml:space="preserve">8.857253074646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07012271881104</t>
+    <t xml:space="preserve">9.07012367248535</t>
   </si>
   <si>
     <t xml:space="preserve">8.93222141265869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18118762969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20895099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40331077575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16267585754395</t>
+    <t xml:space="preserve">9.18118572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20895195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40331172943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16267490386963</t>
   </si>
   <si>
     <t xml:space="preserve">9.1821117401123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05531311035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25152683258057</t>
+    <t xml:space="preserve">9.0553150177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25152587890625</t>
   </si>
   <si>
     <t xml:space="preserve">9.12657928466797</t>
@@ -242,61 +242,61 @@
     <t xml:space="preserve">9.05809116363525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10714340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96553993225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73323249816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56849002838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03909015655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36580181121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46853351593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60736274719238</t>
+    <t xml:space="preserve">9.10714435577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96553897857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73323345184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56848812103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03908920288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36580085754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46853256225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60736179351807</t>
   </si>
   <si>
     <t xml:space="preserve">8.65363883972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69991302490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87113571166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08721733093262</t>
+    <t xml:space="preserve">8.69991397857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87113475799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08721828460693</t>
   </si>
   <si>
     <t xml:space="preserve">7.80678606033325</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97800588607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40189456939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83781623840332</t>
+    <t xml:space="preserve">7.97800540924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40189552307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83781719207764</t>
   </si>
   <si>
     <t xml:space="preserve">8.84059429168701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81745529174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56663799285889</t>
+    <t xml:space="preserve">8.81745624542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56663990020752</t>
   </si>
   <si>
     <t xml:space="preserve">8.66104221343994</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">8.63883018493652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45279979705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40097141265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62217140197754</t>
+    <t xml:space="preserve">8.45280075073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40096950531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62217235565186</t>
   </si>
   <si>
     <t xml:space="preserve">8.78228569030762</t>
@@ -323,10 +323,10 @@
     <t xml:space="preserve">8.11220741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09925079345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14460182189941</t>
+    <t xml:space="preserve">8.09924983978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1446008682251</t>
   </si>
   <si>
     <t xml:space="preserve">8.24733257293701</t>
@@ -338,19 +338,19 @@
     <t xml:space="preserve">8.39449119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57034206390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98497581481934</t>
+    <t xml:space="preserve">8.57034015655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98497486114502</t>
   </si>
   <si>
     <t xml:space="preserve">9.10344123840332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03865432739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08123016357422</t>
+    <t xml:space="preserve">9.03865528106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0812292098999</t>
   </si>
   <si>
     <t xml:space="preserve">9.21820735931396</t>
@@ -362,13 +362,13 @@
     <t xml:space="preserve">9.14416408538818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91926288604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36394882202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29268264770508</t>
+    <t xml:space="preserve">8.91926383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3639497756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29268455505371</t>
   </si>
   <si>
     <t xml:space="preserve">8.32970523834229</t>
@@ -383,67 +383,67 @@
     <t xml:space="preserve">8.46390533447266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33340740203857</t>
+    <t xml:space="preserve">8.33340835571289</t>
   </si>
   <si>
     <t xml:space="preserve">8.35747051239014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56108570098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49629783630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2834300994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41392707824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2797269821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21123790740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45927810668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48704528808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54442501068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77210521697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83411502838135</t>
+    <t xml:space="preserve">8.56108474731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49629878997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28342914581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41392803192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27972602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21123886108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45928001403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48704433441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54442691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77210426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83411407470703</t>
   </si>
   <si>
     <t xml:space="preserve">8.78320980072021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16545295715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13028144836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96183776855469</t>
+    <t xml:space="preserve">9.165452003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13028049468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96183681488037</t>
   </si>
   <si>
     <t xml:space="preserve">8.89797592163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04143238067627</t>
+    <t xml:space="preserve">9.04143142700195</t>
   </si>
   <si>
     <t xml:space="preserve">9.11639881134033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30150413513184</t>
+    <t xml:space="preserve">9.30150318145752</t>
   </si>
   <si>
     <t xml:space="preserve">9.27188777923584</t>
@@ -455,10 +455,10 @@
     <t xml:space="preserve">9.46254539489746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67911624908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71798801422119</t>
+    <t xml:space="preserve">9.67911720275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71798896789551</t>
   </si>
   <si>
     <t xml:space="preserve">9.76426696777344</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">9.6624584197998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71243762969971</t>
+    <t xml:space="preserve">9.71243667602539</t>
   </si>
   <si>
     <t xml:space="preserve">9.38665103912354</t>
@@ -476,46 +476,46 @@
     <t xml:space="preserve">9.68652153015137</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5606517791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5791597366333</t>
+    <t xml:space="preserve">9.56065082550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57916069030762</t>
   </si>
   <si>
     <t xml:space="preserve">9.35148143768311</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53103351593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39775657653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1941442489624</t>
+    <t xml:space="preserve">9.53103256225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39775848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19414329528809</t>
   </si>
   <si>
     <t xml:space="preserve">9.32926940917969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21265506744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12565326690674</t>
+    <t xml:space="preserve">9.21265411376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12565422058105</t>
   </si>
   <si>
     <t xml:space="preserve">9.00533580780029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43799209594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82300853729248</t>
+    <t xml:space="preserve">8.43799114227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82300758361816</t>
   </si>
   <si>
     <t xml:space="preserve">9.07104778289795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25522899627686</t>
+    <t xml:space="preserve">9.25522804260254</t>
   </si>
   <si>
     <t xml:space="preserve">9.03310203552246</t>
@@ -524,25 +524,25 @@
     <t xml:space="preserve">9.17193126678467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51437473297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45884323120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81054210662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.532883644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6069278717041</t>
+    <t xml:space="preserve">9.51437282562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45884132385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81054019927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53288459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60692596435547</t>
   </si>
   <si>
     <t xml:space="preserve">9.82905197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7550106048584</t>
+    <t xml:space="preserve">9.75500965118408</t>
   </si>
   <si>
     <t xml:space="preserve">9.97713470458984</t>
@@ -551,34 +551,34 @@
     <t xml:space="preserve">10.0696878433228</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1252193450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86607360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99564647674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88458347320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0141582489014</t>
+    <t xml:space="preserve">10.1252183914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8660717010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99564743041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88458251953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0141572952271</t>
   </si>
   <si>
     <t xml:space="preserve">10.1437282562256</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1807508468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73649978637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84756374359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90309238433838</t>
+    <t xml:space="preserve">10.1807498931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73650074005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84756278991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9030933380127</t>
   </si>
   <si>
     <t xml:space="preserve">9.94011402130127</t>
@@ -590,13 +590,13 @@
     <t xml:space="preserve">10.2362813949585</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3843650817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1067085266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0881996154785</t>
+    <t xml:space="preserve">10.3843641281128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1067094802856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0881977081299</t>
   </si>
   <si>
     <t xml:space="preserve">10.1992607116699</t>
@@ -611,55 +611,55 @@
     <t xml:space="preserve">10.73606300354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8101053237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4954280853271</t>
+    <t xml:space="preserve">10.8101072311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4954271316528</t>
   </si>
   <si>
     <t xml:space="preserve">10.5509605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139389038086</t>
+    <t xml:space="preserve">10.5139379501343</t>
   </si>
   <si>
     <t xml:space="preserve">10.4028749465942</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0511779785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92160320281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2551298141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0122938156128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95625591278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99361419677734</t>
+    <t xml:space="preserve">10.0511789321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92160415649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2551307678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0122947692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95625495910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99361515045166</t>
   </si>
   <si>
     <t xml:space="preserve">10.2177705764771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0683336257935</t>
+    <t xml:space="preserve">10.0683326721191</t>
   </si>
   <si>
     <t xml:space="preserve">10.2738094329834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2924880981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.161732673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97493553161621</t>
+    <t xml:space="preserve">10.2924890518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1617317199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97493457794189</t>
   </si>
   <si>
     <t xml:space="preserve">10.1243724822998</t>
@@ -671,25 +671,25 @@
     <t xml:space="preserve">9.93757629394531</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2364511489868</t>
+    <t xml:space="preserve">10.2364492416382</t>
   </si>
   <si>
     <t xml:space="preserve">10.6287231445312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4792861938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4979667663574</t>
+    <t xml:space="preserve">10.4792852401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4979648590088</t>
   </si>
   <si>
     <t xml:space="preserve">10.4606065750122</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4419269561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90021705627441</t>
+    <t xml:space="preserve">10.4419279098511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9002161026001</t>
   </si>
   <si>
     <t xml:space="preserve">10.3858880996704</t>
@@ -698,46 +698,46 @@
     <t xml:space="preserve">10.1056938171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8815393447876</t>
+    <t xml:space="preserve">9.88153743743896</t>
   </si>
   <si>
     <t xml:space="preserve">10.1430540084839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1804132461548</t>
+    <t xml:space="preserve">10.1804113388062</t>
   </si>
   <si>
     <t xml:space="preserve">9.8628568649292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3298492431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9275989532471</t>
+    <t xml:space="preserve">10.3298482894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9275979995728</t>
   </si>
   <si>
     <t xml:space="preserve">10.5540046691895</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1417760848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2451524734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6934633255005</t>
+    <t xml:space="preserve">12.1417751312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.245153427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6934652328491</t>
   </si>
   <si>
     <t xml:space="preserve">11.4879884719849</t>
   </si>
   <si>
-    <t xml:space="preserve">11.618745803833</t>
+    <t xml:space="preserve">11.6187448501587</t>
   </si>
   <si>
     <t xml:space="preserve">11.7121429443359</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6000661849976</t>
+    <t xml:space="preserve">11.6000671386719</t>
   </si>
   <si>
     <t xml:space="preserve">12.0483779907227</t>
@@ -746,31 +746,31 @@
     <t xml:space="preserve">12.2351741790771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3285722732544</t>
+    <t xml:space="preserve">12.3285732269287</t>
   </si>
   <si>
     <t xml:space="preserve">12.5340480804443</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6834859848022</t>
+    <t xml:space="preserve">12.6834850311279</t>
   </si>
   <si>
     <t xml:space="preserve">12.272533416748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6561040878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.674783706665</t>
+    <t xml:space="preserve">11.6561050415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6747846603394</t>
   </si>
   <si>
     <t xml:space="preserve">11.8242216110229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5627069473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0110187530518</t>
+    <t xml:space="preserve">11.5627059936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0110177993774</t>
   </si>
   <si>
     <t xml:space="preserve">12.1978149414062</t>
@@ -779,22 +779,22 @@
     <t xml:space="preserve">12.2538528442383</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3098917007446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6087675094604</t>
+    <t xml:space="preserve">12.3098926544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6087684631348</t>
   </si>
   <si>
     <t xml:space="preserve">12.7768831253052</t>
   </si>
   <si>
-    <t xml:space="preserve">13.075758934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3559532165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4493522644043</t>
+    <t xml:space="preserve">13.0757579803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3559541702271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.44935131073</t>
   </si>
   <si>
     <t xml:space="preserve">13.5987882614136</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">14.1591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5614280700684</t>
+    <t xml:space="preserve">13.5614290237427</t>
   </si>
   <si>
     <t xml:space="preserve">13.2999143600464</t>
@@ -821,25 +821,25 @@
     <t xml:space="preserve">12.3846111297607</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4966888427734</t>
+    <t xml:space="preserve">12.4966897964478</t>
   </si>
   <si>
     <t xml:space="preserve">12.2912130355835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3659324645996</t>
+    <t xml:space="preserve">12.3659315109253</t>
   </si>
   <si>
     <t xml:space="preserve">14.700888633728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0097408294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5053911209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2625551223755</t>
+    <t xml:space="preserve">14.0097417831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5053901672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2625560760498</t>
   </si>
   <si>
     <t xml:space="preserve">12.9450006484985</t>
@@ -848,25 +848,25 @@
     <t xml:space="preserve">12.7955636978149</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6461267471313</t>
+    <t xml:space="preserve">12.646125793457</t>
   </si>
   <si>
     <t xml:space="preserve">12.4593305587769</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8702812194824</t>
+    <t xml:space="preserve">12.8702821731567</t>
   </si>
   <si>
     <t xml:space="preserve">12.907642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9823608398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.187837600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1691560745239</t>
+    <t xml:space="preserve">12.9823598861694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1878385543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1691570281982</t>
   </si>
   <si>
     <t xml:space="preserve">13.4306716918945</t>
@@ -878,31 +878,31 @@
     <t xml:space="preserve">12.7395248413086</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4032917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5527276992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5153675079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9362993240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8615818023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3759098052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0957145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1704330444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1143951416016</t>
+    <t xml:space="preserve">12.4032907485962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5527286529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5153684616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.93630027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8615808486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3759107589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0957136154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1704339981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1143941879272</t>
   </si>
   <si>
     <t xml:space="preserve">10.8341989517212</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">11.2077932357788</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3572292327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3011913299561</t>
+    <t xml:space="preserve">11.3572301864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3011922836304</t>
   </si>
   <si>
     <t xml:space="preserve">11.4506273269653</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">9.47058486938477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94755268096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62002277374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77943706512451</t>
+    <t xml:space="preserve">8.94755363464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62002182006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77943801879883</t>
   </si>
   <si>
     <t xml:space="preserve">8.87283611297607</t>
@@ -950,79 +950,79 @@
     <t xml:space="preserve">8.30310726165771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25640678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59264087677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49924278259277</t>
+    <t xml:space="preserve">8.25640773773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59264183044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49924373626709</t>
   </si>
   <si>
     <t xml:space="preserve">9.71342086791992</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7968416213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84417819976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3672094345093</t>
+    <t xml:space="preserve">10.7968406677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84417724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.367208480835</t>
   </si>
   <si>
     <t xml:space="preserve">10.3111696243286</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78813934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0870141983032</t>
+    <t xml:space="preserve">9.7881383895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0870151519775</t>
   </si>
   <si>
     <t xml:space="preserve">10.7781610488892</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7681827545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9549779891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5714063644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7021656036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8429021835327</t>
+    <t xml:space="preserve">11.7681837081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9549789428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5714082717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7021646499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8429012298584</t>
   </si>
   <si>
     <t xml:space="preserve">13.8229446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5801086425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7482261657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9997634887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1492013931274</t>
+    <t xml:space="preserve">13.5801076889038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7482252120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9997625350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1492004394531</t>
   </si>
   <si>
     <t xml:space="preserve">15.0371217727661</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3459749221802</t>
+    <t xml:space="preserve">14.3459758758545</t>
   </si>
   <si>
     <t xml:space="preserve">15.392035484314</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590288162231</t>
+    <t xml:space="preserve">15.8590278625488</t>
   </si>
   <si>
     <t xml:space="preserve">16.0831832885742</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">15.5041131973267</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0558004379272</t>
+    <t xml:space="preserve">15.0558013916016</t>
   </si>
   <si>
     <t xml:space="preserve">14.7195682525635</t>
@@ -1043,46 +1043,43 @@
     <t xml:space="preserve">14.1404991149902</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2338962554932</t>
+    <t xml:space="preserve">14.2338972091675</t>
   </si>
   <si>
     <t xml:space="preserve">13.8976631164551</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9163417816162</t>
+    <t xml:space="preserve">13.9163427352905</t>
   </si>
   <si>
     <t xml:space="preserve">13.7669057846069</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1778573989868</t>
+    <t xml:space="preserve">14.1778583526611</t>
   </si>
   <si>
     <t xml:space="preserve">14.4206943511963</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8129653930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0931606292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603155136108</t>
+    <t xml:space="preserve">14.812967300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0931615829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603145599365</t>
   </si>
   <si>
     <t xml:space="preserve">14.9049663543701</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9990644454956</t>
+    <t xml:space="preserve">14.9990634918213</t>
   </si>
   <si>
     <t xml:space="preserve">14.8861474990845</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8673276901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0931615829468</t>
+    <t xml:space="preserve">14.8673286437988</t>
   </si>
   <si>
     <t xml:space="preserve">15.375452041626</t>
@@ -1106,7 +1103,7 @@
     <t xml:space="preserve">15.1872577667236</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0178842544556</t>
+    <t xml:space="preserve">15.0178833007812</t>
   </si>
   <si>
     <t xml:space="preserve">14.7544116973877</t>
@@ -1118,37 +1115,37 @@
     <t xml:space="preserve">15.0367031097412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1307992935181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5071878433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0555219650269</t>
+    <t xml:space="preserve">15.1308002471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5071887969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0555229187012</t>
   </si>
   <si>
     <t xml:space="preserve">14.5850372314453</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6765604019165</t>
+    <t xml:space="preserve">15.6765613555908</t>
   </si>
   <si>
     <t xml:space="preserve">16.2787837982178</t>
   </si>
   <si>
-    <t xml:space="preserve">17.088020324707</t>
+    <t xml:space="preserve">17.0880184173584</t>
   </si>
   <si>
     <t xml:space="preserve">17.8031558990479</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8433666229248</t>
+    <t xml:space="preserve">16.8433647155762</t>
   </si>
   <si>
     <t xml:space="preserve">16.9939193725586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5585021972656</t>
+    <t xml:space="preserve">17.5585041046143</t>
   </si>
   <si>
     <t xml:space="preserve">17.5396842956543</t>
@@ -1157,19 +1154,19 @@
     <t xml:space="preserve">17.5208644866943</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9160709381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.141902923584</t>
+    <t xml:space="preserve">17.916072845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1419048309326</t>
   </si>
   <si>
     <t xml:space="preserve">18.0101699829102</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4053764343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4430141448975</t>
+    <t xml:space="preserve">18.4053745269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4430160522461</t>
   </si>
   <si>
     <t xml:space="preserve">17.7843341827393</t>
@@ -1187,22 +1184,22 @@
     <t xml:space="preserve">19.2898864746094</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4618339538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3489189147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1607246398926</t>
+    <t xml:space="preserve">18.4618358612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3489151000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1607227325439</t>
   </si>
   <si>
     <t xml:space="preserve">17.5020446777344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0854454040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5961437225342</t>
+    <t xml:space="preserve">18.0854473114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5961418151855</t>
   </si>
   <si>
     <t xml:space="preserve">17.9348907470703</t>
@@ -1211,34 +1208,34 @@
     <t xml:space="preserve">17.0503787994385</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7869052886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9400339126587</t>
+    <t xml:space="preserve">16.7869071960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9400329589844</t>
   </si>
   <si>
     <t xml:space="preserve">16.5798931121826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0717678070068</t>
+    <t xml:space="preserve">16.0717697143555</t>
   </si>
   <si>
     <t xml:space="preserve">15.4883680343628</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8835744857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6551723480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7116298675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4105186462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5422554016113</t>
+    <t xml:space="preserve">15.8835754394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6551704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7116317749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4105167388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5422534942627</t>
   </si>
   <si>
     <t xml:space="preserve">16.3917026519775</t>
@@ -1247,25 +1244,25 @@
     <t xml:space="preserve">16.9751014709473</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8245449066162</t>
+    <t xml:space="preserve">16.8245468139648</t>
   </si>
   <si>
     <t xml:space="preserve">16.4481582641602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6175327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4857959747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4669780731201</t>
+    <t xml:space="preserve">16.6175308227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4857978820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4669761657715</t>
   </si>
   <si>
     <t xml:space="preserve">16.8057270050049</t>
   </si>
   <si>
-    <t xml:space="preserve">16.749267578125</t>
+    <t xml:space="preserve">16.7492694854736</t>
   </si>
   <si>
     <t xml:space="preserve">16.7304496765137</t>
@@ -1274,28 +1271,28 @@
     <t xml:space="preserve">16.8810062408447</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9374618530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9186458587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9023942947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.544828414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0743417739868</t>
+    <t xml:space="preserve">16.937463760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9186420440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9023962020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5448274612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0743427276611</t>
   </si>
   <si>
     <t xml:space="preserve">14.7920503616333</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6414957046509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4455852508545</t>
+    <t xml:space="preserve">14.6414947509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4455871582031</t>
   </si>
   <si>
     <t xml:space="preserve">16.6363506317139</t>
@@ -1304,13 +1301,13 @@
     <t xml:space="preserve">15.7330198287964</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9964923858643</t>
+    <t xml:space="preserve">15.9964904785156</t>
   </si>
   <si>
     <t xml:space="preserve">16.354061126709</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5987129211426</t>
+    <t xml:space="preserve">16.5987110137939</t>
   </si>
   <si>
     <t xml:space="preserve">16.9562835693359</t>
@@ -1325,52 +1322,52 @@
     <t xml:space="preserve">17.2009334564209</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7680892944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0315589904785</t>
+    <t xml:space="preserve">16.7680912017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0315570831299</t>
   </si>
   <si>
     <t xml:space="preserve">17.0127410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0289859771729</t>
+    <t xml:space="preserve">18.0289878845215</t>
   </si>
   <si>
     <t xml:space="preserve">18.2171821594238</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6688461303711</t>
+    <t xml:space="preserve">18.6688480377197</t>
   </si>
   <si>
     <t xml:space="preserve">18.0478076934814</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1795444488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6928100585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8621826171875</t>
+    <t xml:space="preserve">18.1795425415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.692813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8621845245361</t>
   </si>
   <si>
     <t xml:space="preserve">16.6739921569824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4293403625488</t>
+    <t xml:space="preserve">16.4293384552002</t>
   </si>
   <si>
     <t xml:space="preserve">17.1444778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1846866607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9588527679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8647565841675</t>
+    <t xml:space="preserve">16.1846885681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.95885181427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8647575378418</t>
   </si>
   <si>
     <t xml:space="preserve">15.7142009735107</t>
@@ -1391,7 +1388,7 @@
     <t xml:space="preserve">14.6226758956909</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2651081085205</t>
+    <t xml:space="preserve">14.2651071548462</t>
   </si>
   <si>
     <t xml:space="preserve">14.96142578125</t>
@@ -1400,19 +1397,19 @@
     <t xml:space="preserve">15.6201028823853</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7518396377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7894763946533</t>
+    <t xml:space="preserve">15.751838684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7894773483276</t>
   </si>
   <si>
     <t xml:space="preserve">15.6389236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8271179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5824661254883</t>
+    <t xml:space="preserve">15.8271169662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.582465171814</t>
   </si>
   <si>
     <t xml:space="preserve">15.563645362854</t>
@@ -1427,7 +1424,7 @@
     <t xml:space="preserve">16.335241317749</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2197551727295</t>
+    <t xml:space="preserve">17.2197532653809</t>
   </si>
   <si>
     <t xml:space="preserve">17.2573947906494</t>
@@ -1439,22 +1436,22 @@
     <t xml:space="preserve">17.7090587615967</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8972511291504</t>
+    <t xml:space="preserve">17.897253036499</t>
   </si>
   <si>
     <t xml:space="preserve">18.2548198699951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7655162811279</t>
+    <t xml:space="preserve">17.7655143737793</t>
   </si>
   <si>
     <t xml:space="preserve">18.6123905181885</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1983604431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2950325012207</t>
+    <t xml:space="preserve">18.1983623504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2950305938721</t>
   </si>
   <si>
     <t xml:space="preserve">17.6902370452881</t>
@@ -1469,7 +1466,7 @@
     <t xml:space="preserve">19.854471206665</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9485683441162</t>
+    <t xml:space="preserve">19.9485664367676</t>
   </si>
   <si>
     <t xml:space="preserve">19.5721797943115</t>
@@ -1478,13 +1475,13 @@
     <t xml:space="preserve">19.6662750244141</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1367588043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7013454437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6072463989258</t>
+    <t xml:space="preserve">20.1367607116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.701343536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6072444915771</t>
   </si>
   <si>
     <t xml:space="preserve">20.4190521240234</t>
@@ -1499,46 +1496,46 @@
     <t xml:space="preserve">20.3720054626465</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7483921051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7954387664795</t>
+    <t xml:space="preserve">20.7483940124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7954406738281</t>
   </si>
   <si>
     <t xml:space="preserve">21.3600215911865</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7364120483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1127986907959</t>
+    <t xml:space="preserve">21.7364101409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1128005981445</t>
   </si>
   <si>
     <t xml:space="preserve">21.4541206359863</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9836349487305</t>
+    <t xml:space="preserve">20.9836330413818</t>
   </si>
   <si>
     <t xml:space="preserve">20.2308597564697</t>
   </si>
   <si>
-    <t xml:space="preserve">19.901517868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6192283630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3369369506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8764381408691</t>
+    <t xml:space="preserve">19.9015197753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6192264556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3369388580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8764400482178</t>
   </si>
   <si>
     <t xml:space="preserve">20.1130638122559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9237632751465</t>
+    <t xml:space="preserve">19.9237613677979</t>
   </si>
   <si>
     <t xml:space="preserve">19.5924911499023</t>
@@ -1547,28 +1544,28 @@
     <t xml:space="preserve">19.687141418457</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6398143768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8291168212891</t>
+    <t xml:space="preserve">19.6398162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8291149139404</t>
   </si>
   <si>
     <t xml:space="preserve">19.1665668487549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9772682189941</t>
+    <t xml:space="preserve">18.9772663116455</t>
   </si>
   <si>
     <t xml:space="preserve">19.3085422515869</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2138900756836</t>
+    <t xml:space="preserve">19.2138919830322</t>
   </si>
   <si>
     <t xml:space="preserve">19.0719184875488</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7817878723145</t>
+    <t xml:space="preserve">19.7817897796631</t>
   </si>
   <si>
     <t xml:space="preserve">19.1192417144775</t>
@@ -1577,19 +1574,19 @@
     <t xml:space="preserve">20.3023624420166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9710922241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.403190612793</t>
+    <t xml:space="preserve">19.9710903167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4031887054443</t>
   </si>
   <si>
     <t xml:space="preserve">18.5513439178467</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7595729827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.60813331604</t>
+    <t xml:space="preserve">18.7595748901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6081352233887</t>
   </si>
   <si>
     <t xml:space="preserve">18.9110126495361</t>
@@ -1598,7 +1595,7 @@
     <t xml:space="preserve">18.6459941864014</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9299449920654</t>
+    <t xml:space="preserve">18.9299430847168</t>
   </si>
   <si>
     <t xml:space="preserve">18.7785034179688</t>
@@ -1622,37 +1619,37 @@
     <t xml:space="preserve">22.6212825775146</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1418533325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3784790039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6624279022217</t>
+    <t xml:space="preserve">23.1418552398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3784770965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6624298095703</t>
   </si>
   <si>
     <t xml:space="preserve">23.3311557769775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2365055084229</t>
+    <t xml:space="preserve">23.2365016937256</t>
   </si>
   <si>
     <t xml:space="preserve">23.7570781707764</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3723030090332</t>
+    <t xml:space="preserve">24.3723011016846</t>
   </si>
   <si>
     <t xml:space="preserve">23.9463768005371</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8990535736084</t>
+    <t xml:space="preserve">23.8990516662598</t>
   </si>
   <si>
     <t xml:space="preserve">23.1891803741455</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9998798370361</t>
+    <t xml:space="preserve">22.9998817443848</t>
   </si>
   <si>
     <t xml:space="preserve">23.0472049713135</t>
@@ -1661,511 +1658,514 @@
     <t xml:space="preserve">23.709753036499</t>
   </si>
   <si>
+    <t xml:space="preserve">23.0945281982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4258041381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.615104675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0410270690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9114074707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8640842437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2900066375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1007099151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7221088409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2961864471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0595607757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1068859100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9175853729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7282867431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3908348083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0060577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9875259399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8455505371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1768226623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6089248657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5615997314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.567777633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8044013977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3249778747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9937038421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4669513702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1356773376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.65625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7447204589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.602746963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8393726348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5554237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4607715606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4731273651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7159290313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4319820404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2838306427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4196262359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8928737640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7035751342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9401988983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0883522033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1830043792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0348491668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7982234954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3661212921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3187980651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6747856140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3435115814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5801334381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.586311340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9587345123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0122394561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4854831695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7694339752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5328102111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3970127105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.491662979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3558673858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7027816772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0184154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8229370117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4978408813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3431148529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4534072875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1694583892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9422969818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4377632141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3241863250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7974319458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0657367706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8167591094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1480312347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4793071746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6274585723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6336364746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4443397521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1603889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8731536865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8352909088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0533809661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3496894836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6809616088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.456693649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0970249176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0213069915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3398246765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3208980560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8914566040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.063232421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0250587463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5097255706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3761215209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9487152099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6549091339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0938968658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9412059783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3992805480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3801937103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3038463592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.086389541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7619228363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.704662322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9146137237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0748100280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5519714355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.723747253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8955268859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.992992401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3270053863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8995971679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9950294494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0904598236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.04274559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1858921051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.422435760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2356414794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8559513092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4265079498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6173706054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.76051902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1879272460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6153354644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8062000274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5676193237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1381759643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9473114013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5655841827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8021278381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.374719619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0884246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8498458862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3726844787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7066974639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1838569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8975601196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3249683380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.134105682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1818199157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6855754852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4947109222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0557270050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3611068725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.845775604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5137977600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9030323028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9221172332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1204929351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2656726837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2295398712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2315731048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9336986541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.284761428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4183673858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.647403717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1893291473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.34202003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6092281341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.804162979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7564487457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.661018371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6650886535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.476261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.335147857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9554538726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5239753723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5716915130615</t>
+  </si>
+  <si>
     <t xml:space="preserve">23.0945301055908</t>
   </si>
   <si>
-    <t xml:space="preserve">23.425802230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6151065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0410289764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9114093780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.864086151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2900085449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1007080078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.722110748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2961845397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0595607757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1068859100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9175853729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7282886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3908348083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0060577392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9875240325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8455486297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1768226623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6089248657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5616016387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.567777633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8044013977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3249740600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9937038421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4669494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1356773376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.65625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.744722366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6027488708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8393726348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5554237365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4607734680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4731292724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7159309387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4319839477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2838287353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4196262359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8928737640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7035751342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9402008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0883522033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1830024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0348491668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.798225402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3661231994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3187980651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.674783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3435115814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.580135345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5863132476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9587326049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0122375488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4854850769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7694339752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.532808303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3970127105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4916648864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3558654785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7027835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0184135437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8229389190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.497838973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3431148529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.453405380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1694583892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9422988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4377632141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3241844177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7974338531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0657386779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8167572021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1480331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4793071746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6274585723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6336364746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4443397521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1603889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8731536865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8352928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0533828735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3496894836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6809616088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.456693649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0970230102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0213050842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3398265838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3208999633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8914546966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.063232421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0250587463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5097255706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3761215209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9487133026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6549091339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0938968658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9412059783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3992786407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3801937103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3038463592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0863914489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7619209289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.704662322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9146118164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0748100280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5519714355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.723747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8955268859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9929943084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3270053863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8995971679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9950294494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0904598236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.04274559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1858940124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.422435760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2356433868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8559513092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4265079498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6173725128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.76051902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1879272460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6153354644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8062000274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5676212310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1381759643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9473114013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5655841827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8021297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3747215270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0884246826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8498458862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3726844787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7066974639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1838569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8975601196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3249702453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.134105682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1818218231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6855754852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4947109222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0557250976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3611068725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.845775604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5137977600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9030323028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.922119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1204929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2656745910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2295379638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2315731048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9336986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2847595214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4183673858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.647403717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1893272399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.34202003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6092300415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8041648864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7564487457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.661018371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6650867462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4762592315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.335147857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9554538726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5239753723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5716915130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8579864501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2833595275879</t>
+    <t xml:space="preserve">23.8579883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2833614349365</t>
   </si>
   <si>
     <t xml:space="preserve">23.0468158721924</t>
@@ -2186,10 +2186,10 @@
     <t xml:space="preserve">23.61940574646</t>
   </si>
   <si>
-    <t xml:space="preserve">24.526008605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3331108093262</t>
+    <t xml:space="preserve">24.5260105133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3331127166748</t>
   </si>
   <si>
     <t xml:space="preserve">22.5696544647217</t>
@@ -2237,19 +2237,19 @@
     <t xml:space="preserve">24.4305782318115</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2397155761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4803295135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0986022949219</t>
+    <t xml:space="preserve">24.2397136688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4803314208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0986042022705</t>
   </si>
   <si>
     <t xml:space="preserve">25.0031700134277</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9077377319336</t>
+    <t xml:space="preserve">24.9077396392822</t>
   </si>
   <si>
     <t xml:space="preserve">24.5737266540527</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">24.764591217041</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6691570281982</t>
+    <t xml:space="preserve">24.6691589355469</t>
   </si>
   <si>
     <t xml:space="preserve">25.1940326690674</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">24.8123054504395</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7189083099365</t>
+    <t xml:space="preserve">25.7189102172852</t>
   </si>
   <si>
     <t xml:space="preserve">25.9574890136719</t>
@@ -2282,13 +2282,13 @@
     <t xml:space="preserve">23.7625541687012</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7148380279541</t>
+    <t xml:space="preserve">23.7148399353027</t>
   </si>
   <si>
     <t xml:space="preserve">23.2853946685791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4285430908203</t>
+    <t xml:space="preserve">23.4285411834717</t>
   </si>
   <si>
     <t xml:space="preserve">23.1422462463379</t>
@@ -2309,7 +2309,7 @@
     <t xml:space="preserve">23.9534187316895</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4721870422363</t>
+    <t xml:space="preserve">21.472188949585</t>
   </si>
   <si>
     <t xml:space="preserve">22.808235168457</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">25.7666263580322</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6732292175293</t>
+    <t xml:space="preserve">26.6732311248779</t>
   </si>
   <si>
     <t xml:space="preserve">26.5777969360352</t>
@@ -2892,6 +2892,9 @@
   </si>
   <si>
     <t xml:space="preserve">17.2999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0599994659424</t>
   </si>
 </sst>
 </file>
@@ -16719,7 +16722,7 @@
         <v>15.5748929977417</v>
       </c>
       <c r="G519" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16745,7 +16748,7 @@
         <v>15.8661937713623</v>
       </c>
       <c r="G520" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16797,7 +16800,7 @@
         <v>15.8273544311523</v>
       </c>
       <c r="G522" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16823,7 +16826,7 @@
         <v>16.0215549468994</v>
       </c>
       <c r="G523" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16849,7 +16852,7 @@
         <v>15.9244537353516</v>
       </c>
       <c r="G524" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16875,7 +16878,7 @@
         <v>15.5943126678467</v>
       </c>
       <c r="G525" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16901,7 +16904,7 @@
         <v>15.1864919662476</v>
       </c>
       <c r="G526" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16927,7 +16930,7 @@
         <v>15.5943126678467</v>
       </c>
       <c r="G527" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16953,7 +16956,7 @@
         <v>15.6719932556152</v>
       </c>
       <c r="G528" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16979,7 +16982,7 @@
         <v>15.4972133636475</v>
       </c>
       <c r="G529" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17005,7 +17008,7 @@
         <v>15.2253322601318</v>
       </c>
       <c r="G530" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17031,7 +17034,7 @@
         <v>15.7302541732788</v>
       </c>
       <c r="G531" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17057,7 +17060,7 @@
         <v>15.5166330337524</v>
       </c>
       <c r="G532" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17083,7 +17086,7 @@
         <v>15.613733291626</v>
       </c>
       <c r="G533" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17109,7 +17112,7 @@
         <v>15.8273544311523</v>
       </c>
       <c r="G534" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17135,7 +17138,7 @@
         <v>15.8273544311523</v>
       </c>
       <c r="G535" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -17161,7 +17164,7 @@
         <v>15.5943126678467</v>
       </c>
       <c r="G536" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -17187,7 +17190,7 @@
         <v>16.0021343231201</v>
       </c>
       <c r="G537" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -17213,7 +17216,7 @@
         <v>15.4972133636475</v>
       </c>
       <c r="G538" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -17239,7 +17242,7 @@
         <v>15.5360527038574</v>
       </c>
       <c r="G539" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -17265,7 +17268,7 @@
         <v>15.0505514144897</v>
       </c>
       <c r="G540" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17291,7 +17294,7 @@
         <v>15.0505514144897</v>
       </c>
       <c r="G541" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17343,7 +17346,7 @@
         <v>15.5360527038574</v>
       </c>
       <c r="G543" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17369,7 +17372,7 @@
         <v>15.5166330337524</v>
       </c>
       <c r="G544" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17395,7 +17398,7 @@
         <v>16.1769142150879</v>
       </c>
       <c r="G545" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17421,7 +17424,7 @@
         <v>16.7983570098877</v>
       </c>
       <c r="G546" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17447,7 +17450,7 @@
         <v>17.6334209442139</v>
       </c>
       <c r="G547" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17473,7 +17476,7 @@
         <v>18.3713836669922</v>
       </c>
       <c r="G548" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -17499,7 +17502,7 @@
         <v>18.3713836669922</v>
       </c>
       <c r="G549" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17525,7 +17528,7 @@
         <v>17.3809585571289</v>
       </c>
       <c r="G550" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17551,7 +17554,7 @@
         <v>17.536319732666</v>
       </c>
       <c r="G551" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17577,7 +17580,7 @@
         <v>18.1189212799072</v>
       </c>
       <c r="G552" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17603,7 +17606,7 @@
         <v>18.0995025634766</v>
       </c>
       <c r="G553" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17629,7 +17632,7 @@
         <v>18.0800819396973</v>
       </c>
       <c r="G554" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17655,7 +17658,7 @@
         <v>18.4879035949707</v>
       </c>
       <c r="G555" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17681,7 +17684,7 @@
         <v>18.7209434509277</v>
       </c>
       <c r="G556" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17707,7 +17710,7 @@
         <v>18.5850028991699</v>
       </c>
       <c r="G557" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17733,7 +17736,7 @@
         <v>18.9928245544434</v>
       </c>
       <c r="G558" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17759,7 +17762,7 @@
         <v>19.031665802002</v>
       </c>
       <c r="G559" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17785,7 +17788,7 @@
         <v>18.3519630432129</v>
       </c>
       <c r="G560" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17811,7 +17814,7 @@
         <v>18.2160224914551</v>
       </c>
       <c r="G561" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17837,7 +17840,7 @@
         <v>18.7015247344971</v>
       </c>
       <c r="G562" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17863,7 +17866,7 @@
         <v>19.4200668334961</v>
       </c>
       <c r="G563" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17889,7 +17892,7 @@
         <v>19.9055671691895</v>
       </c>
       <c r="G564" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17915,7 +17918,7 @@
         <v>19.0510845184326</v>
       </c>
       <c r="G565" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17941,7 +17944,7 @@
         <v>19.4200668334961</v>
       </c>
       <c r="G566" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17967,7 +17970,7 @@
         <v>18.4879035949707</v>
       </c>
       <c r="G567" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17993,7 +17996,7 @@
         <v>18.9345645904541</v>
       </c>
       <c r="G568" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18019,7 +18022,7 @@
         <v>18.740364074707</v>
       </c>
       <c r="G569" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18045,7 +18048,7 @@
         <v>18.060661315918</v>
       </c>
       <c r="G570" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18071,7 +18074,7 @@
         <v>18.6626834869385</v>
       </c>
       <c r="G571" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18097,7 +18100,7 @@
         <v>18.1577625274658</v>
       </c>
       <c r="G572" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18123,7 +18126,7 @@
         <v>18.5073223114014</v>
       </c>
       <c r="G573" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18149,7 +18152,7 @@
         <v>17.5945796966553</v>
       </c>
       <c r="G574" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18175,7 +18178,7 @@
         <v>17.3226985931396</v>
       </c>
       <c r="G575" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18201,7 +18204,7 @@
         <v>16.4487953186035</v>
       </c>
       <c r="G576" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18227,7 +18230,7 @@
         <v>17.1090774536133</v>
       </c>
       <c r="G577" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18253,7 +18256,7 @@
         <v>16.5847358703613</v>
       </c>
       <c r="G578" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18279,7 +18282,7 @@
         <v>15.9827136993408</v>
       </c>
       <c r="G579" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18305,7 +18308,7 @@
         <v>16.3905353546143</v>
       </c>
       <c r="G580" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18331,7 +18334,7 @@
         <v>17.1867599487305</v>
       </c>
       <c r="G581" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18357,7 +18360,7 @@
         <v>17.2450199127197</v>
       </c>
       <c r="G582" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18383,7 +18386,7 @@
         <v>16.9342975616455</v>
       </c>
       <c r="G583" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18409,7 +18412,7 @@
         <v>17.0702381134033</v>
       </c>
       <c r="G584" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18435,7 +18438,7 @@
         <v>16.9148788452148</v>
       </c>
       <c r="G585" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18461,7 +18464,7 @@
         <v>17.5168991088867</v>
       </c>
       <c r="G586" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18487,7 +18490,7 @@
         <v>17.3615398406982</v>
       </c>
       <c r="G587" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -18513,7 +18516,7 @@
         <v>16.9731388092041</v>
       </c>
       <c r="G588" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18539,7 +18542,7 @@
         <v>17.1479187011719</v>
       </c>
       <c r="G589" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18565,7 +18568,7 @@
         <v>17.0119781494141</v>
       </c>
       <c r="G590" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18591,7 +18594,7 @@
         <v>17.0119781494141</v>
       </c>
       <c r="G591" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18617,7 +18620,7 @@
         <v>16.9925575256348</v>
       </c>
       <c r="G592" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18643,7 +18646,7 @@
         <v>17.3615398406982</v>
       </c>
       <c r="G593" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18669,7 +18672,7 @@
         <v>17.3226985931396</v>
       </c>
       <c r="G594" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18695,7 +18698,7 @@
         <v>17.3421192169189</v>
       </c>
       <c r="G595" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18721,7 +18724,7 @@
         <v>17.2838592529297</v>
       </c>
       <c r="G596" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18747,7 +18750,7 @@
         <v>17.2644386291504</v>
       </c>
       <c r="G597" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18773,7 +18776,7 @@
         <v>17.4197998046875</v>
       </c>
       <c r="G598" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18799,7 +18802,7 @@
         <v>17.4780597686768</v>
       </c>
       <c r="G599" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18825,7 +18828,7 @@
         <v>17.2450199127197</v>
       </c>
       <c r="G600" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18851,7 +18854,7 @@
         <v>17.4586391448975</v>
       </c>
       <c r="G601" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18877,7 +18880,7 @@
         <v>17.3809585571289</v>
       </c>
       <c r="G602" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18903,7 +18906,7 @@
         <v>16.4099559783936</v>
       </c>
       <c r="G603" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18929,7 +18932,7 @@
         <v>16.0409755706787</v>
       </c>
       <c r="G604" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18955,7 +18958,7 @@
         <v>15.5554733276367</v>
       </c>
       <c r="G605" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18981,7 +18984,7 @@
         <v>15.2641716003418</v>
       </c>
       <c r="G606" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19007,7 +19010,7 @@
         <v>15.5360527038574</v>
       </c>
       <c r="G607" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19033,7 +19036,7 @@
         <v>15.5360527038574</v>
       </c>
       <c r="G608" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19059,7 +19062,7 @@
         <v>16.4099559783936</v>
       </c>
       <c r="G609" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19085,7 +19088,7 @@
         <v>15.6719932556152</v>
       </c>
       <c r="G610" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19111,7 +19114,7 @@
         <v>15.108811378479</v>
       </c>
       <c r="G611" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19137,7 +19140,7 @@
         <v>18.0024013519287</v>
       </c>
       <c r="G612" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19163,7 +19166,7 @@
         <v>17.1673374176025</v>
       </c>
       <c r="G613" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19189,7 +19192,7 @@
         <v>17.1673374176025</v>
       </c>
       <c r="G614" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19215,7 +19218,7 @@
         <v>16.5847358703613</v>
       </c>
       <c r="G615" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19241,7 +19244,7 @@
         <v>16.2351741790771</v>
       </c>
       <c r="G616" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19267,7 +19270,7 @@
         <v>16.9148788452148</v>
       </c>
       <c r="G617" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19293,7 +19296,7 @@
         <v>16.5070552825928</v>
       </c>
       <c r="G618" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19319,7 +19322,7 @@
         <v>16.9925575256348</v>
       </c>
       <c r="G619" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19345,7 +19348,7 @@
         <v>16.8760375976562</v>
       </c>
       <c r="G620" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19371,7 +19374,7 @@
         <v>17.2838592529297</v>
       </c>
       <c r="G621" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19397,7 +19400,7 @@
         <v>17.2450199127197</v>
       </c>
       <c r="G622" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19423,7 +19426,7 @@
         <v>17.3615398406982</v>
       </c>
       <c r="G623" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19449,7 +19452,7 @@
         <v>17.1284980773926</v>
       </c>
       <c r="G624" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19475,7 +19478,7 @@
         <v>17.6334209442139</v>
       </c>
       <c r="G625" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19501,7 +19504,7 @@
         <v>17.4974803924561</v>
       </c>
       <c r="G626" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19527,7 +19530,7 @@
         <v>16.9925575256348</v>
       </c>
       <c r="G627" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19553,7 +19556,7 @@
         <v>17.2644386291504</v>
       </c>
       <c r="G628" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19579,7 +19582,7 @@
         <v>16.9925575256348</v>
       </c>
       <c r="G629" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19605,7 +19608,7 @@
         <v>17.2644386291504</v>
       </c>
       <c r="G630" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19631,7 +19634,7 @@
         <v>17.0702381134033</v>
       </c>
       <c r="G631" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19657,7 +19660,7 @@
         <v>17.0896587371826</v>
       </c>
       <c r="G632" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19683,7 +19686,7 @@
         <v>17.4974803924561</v>
       </c>
       <c r="G633" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19709,7 +19712,7 @@
         <v>17.6140003204346</v>
       </c>
       <c r="G634" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19735,7 +19738,7 @@
         <v>17.7499408721924</v>
       </c>
       <c r="G635" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19761,7 +19764,7 @@
         <v>17.1090774536133</v>
       </c>
       <c r="G636" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19787,7 +19790,7 @@
         <v>17.303279876709</v>
       </c>
       <c r="G637" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19813,7 +19816,7 @@
         <v>17.575159072876</v>
       </c>
       <c r="G638" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19839,7 +19842,7 @@
         <v>17.1284980773926</v>
       </c>
       <c r="G639" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19865,7 +19868,7 @@
         <v>17.4780597686768</v>
       </c>
       <c r="G640" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19891,7 +19894,7 @@
         <v>17.5557403564453</v>
       </c>
       <c r="G641" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19917,7 +19920,7 @@
         <v>17.1090774536133</v>
       </c>
       <c r="G642" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19943,7 +19946,7 @@
         <v>17.4780597686768</v>
       </c>
       <c r="G643" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19969,7 +19972,7 @@
         <v>18.0800819396973</v>
       </c>
       <c r="G644" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19995,7 +19998,7 @@
         <v>18.2160224914551</v>
       </c>
       <c r="G645" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20021,7 +20024,7 @@
         <v>18.6044235229492</v>
       </c>
       <c r="G646" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20047,7 +20050,7 @@
         <v>18.7986240386963</v>
       </c>
       <c r="G647" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20073,7 +20076,7 @@
         <v>19.264705657959</v>
       </c>
       <c r="G648" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20099,7 +20102,7 @@
         <v>18.6238422393799</v>
       </c>
       <c r="G649" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20125,7 +20128,7 @@
         <v>18.7597846984863</v>
       </c>
       <c r="G650" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20151,7 +20154,7 @@
         <v>17.575159072876</v>
       </c>
       <c r="G651" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20177,7 +20180,7 @@
         <v>17.3421192169189</v>
       </c>
       <c r="G652" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20203,7 +20206,7 @@
         <v>17.303279876709</v>
       </c>
       <c r="G653" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20229,7 +20232,7 @@
         <v>17.0896587371826</v>
       </c>
       <c r="G654" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20255,7 +20258,7 @@
         <v>17.2255992889404</v>
       </c>
       <c r="G655" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20281,7 +20284,7 @@
         <v>17.4003791809082</v>
       </c>
       <c r="G656" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20307,7 +20310,7 @@
         <v>17.4780597686768</v>
       </c>
       <c r="G657" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20333,7 +20336,7 @@
         <v>17.2255992889404</v>
       </c>
       <c r="G658" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20359,7 +20362,7 @@
         <v>17.3615398406982</v>
       </c>
       <c r="G659" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20385,7 +20388,7 @@
         <v>17.2644386291504</v>
       </c>
       <c r="G660" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20411,7 +20414,7 @@
         <v>16.9925575256348</v>
       </c>
       <c r="G661" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20437,7 +20440,7 @@
         <v>17.2061786651611</v>
       </c>
       <c r="G662" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20463,7 +20466,7 @@
         <v>17.1284980773926</v>
       </c>
       <c r="G663" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20489,7 +20492,7 @@
         <v>17.1284980773926</v>
       </c>
       <c r="G664" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20515,7 +20518,7 @@
         <v>16.9731388092041</v>
       </c>
       <c r="G665" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20541,7 +20544,7 @@
         <v>17.2838592529297</v>
       </c>
       <c r="G666" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20567,7 +20570,7 @@
         <v>17.0896587371826</v>
       </c>
       <c r="G667" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20593,7 +20596,7 @@
         <v>16.9148788452148</v>
       </c>
       <c r="G668" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20619,7 +20622,7 @@
         <v>16.5070552825928</v>
       </c>
       <c r="G669" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20645,7 +20648,7 @@
         <v>16.9537181854248</v>
       </c>
       <c r="G670" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20671,7 +20674,7 @@
         <v>17.0119781494141</v>
       </c>
       <c r="G671" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20697,7 +20700,7 @@
         <v>17.575159072876</v>
       </c>
       <c r="G672" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20723,7 +20726,7 @@
         <v>17.6916809082031</v>
       </c>
       <c r="G673" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20749,7 +20752,7 @@
         <v>17.0702381134033</v>
       </c>
       <c r="G674" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20775,7 +20778,7 @@
         <v>17.1867599487305</v>
       </c>
       <c r="G675" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20801,7 +20804,7 @@
         <v>16.9925575256348</v>
       </c>
       <c r="G676" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20827,7 +20830,7 @@
         <v>16.9925575256348</v>
       </c>
       <c r="G677" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20853,7 +20856,7 @@
         <v>16.9537181854248</v>
       </c>
       <c r="G678" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20879,7 +20882,7 @@
         <v>17.2061786651611</v>
       </c>
       <c r="G679" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20905,7 +20908,7 @@
         <v>17.3226985931396</v>
       </c>
       <c r="G680" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20931,7 +20934,7 @@
         <v>16.9925575256348</v>
       </c>
       <c r="G681" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20957,7 +20960,7 @@
         <v>16.7012577056885</v>
       </c>
       <c r="G682" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20983,7 +20986,7 @@
         <v>16.4682159423828</v>
       </c>
       <c r="G683" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21009,7 +21012,7 @@
         <v>16.9925575256348</v>
       </c>
       <c r="G684" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21035,7 +21038,7 @@
         <v>16.8760375976562</v>
       </c>
       <c r="G685" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21061,7 +21064,7 @@
         <v>16.3711166381836</v>
       </c>
       <c r="G686" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -21087,7 +21090,7 @@
         <v>16.2157554626465</v>
       </c>
       <c r="G687" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21113,7 +21116,7 @@
         <v>16.9342975616455</v>
       </c>
       <c r="G688" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21139,7 +21142,7 @@
         <v>16.6429977416992</v>
       </c>
       <c r="G689" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21165,7 +21168,7 @@
         <v>16.5264759063721</v>
       </c>
       <c r="G690" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21191,7 +21194,7 @@
         <v>16.6041564941406</v>
       </c>
       <c r="G691" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21217,7 +21220,7 @@
         <v>15.9632940292358</v>
       </c>
       <c r="G692" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21243,7 +21246,7 @@
         <v>15.5166330337524</v>
       </c>
       <c r="G693" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21269,7 +21272,7 @@
         <v>15.0893907546997</v>
       </c>
       <c r="G694" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21295,7 +21298,7 @@
         <v>14.7204103469849</v>
       </c>
       <c r="G695" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21347,7 +21350,7 @@
         <v>15.0893907546997</v>
       </c>
       <c r="G697" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21373,7 +21376,7 @@
         <v>15.4389533996582</v>
       </c>
       <c r="G698" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21399,7 +21402,7 @@
         <v>15.4972133636475</v>
       </c>
       <c r="G699" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21425,7 +21428,7 @@
         <v>15.7302541732788</v>
       </c>
       <c r="G700" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21451,7 +21454,7 @@
         <v>16.1186542510986</v>
       </c>
       <c r="G701" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21477,7 +21480,7 @@
         <v>16.2545948028564</v>
       </c>
       <c r="G702" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21503,7 +21506,7 @@
         <v>16.2934341430664</v>
       </c>
       <c r="G703" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21529,7 +21532,7 @@
         <v>16.1380748748779</v>
       </c>
       <c r="G704" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21555,7 +21558,7 @@
         <v>16.332275390625</v>
       </c>
       <c r="G705" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21581,7 +21584,7 @@
         <v>16.1186542510986</v>
       </c>
       <c r="G706" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21607,7 +21610,7 @@
         <v>16.0798149108887</v>
       </c>
       <c r="G707" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21633,7 +21636,7 @@
         <v>16.0603942871094</v>
       </c>
       <c r="G708" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21659,7 +21662,7 @@
         <v>16.3905353546143</v>
       </c>
       <c r="G709" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21685,7 +21688,7 @@
         <v>16.2740154266357</v>
       </c>
       <c r="G710" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21711,7 +21714,7 @@
         <v>16.4876365661621</v>
       </c>
       <c r="G711" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21737,7 +21740,7 @@
         <v>16.856616973877</v>
       </c>
       <c r="G712" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21763,7 +21766,7 @@
         <v>16.9925575256348</v>
       </c>
       <c r="G713" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21789,7 +21792,7 @@
         <v>17.3421192169189</v>
       </c>
       <c r="G714" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21815,7 +21818,7 @@
         <v>17.7693614959717</v>
       </c>
       <c r="G715" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21841,7 +21844,7 @@
         <v>17.8082008361816</v>
       </c>
       <c r="G716" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21867,7 +21870,7 @@
         <v>18.6432647705078</v>
       </c>
       <c r="G717" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21893,7 +21896,7 @@
         <v>18.3519630432129</v>
       </c>
       <c r="G718" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21919,7 +21922,7 @@
         <v>18.3519630432129</v>
       </c>
       <c r="G719" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21945,7 +21948,7 @@
         <v>18.2742824554443</v>
       </c>
       <c r="G720" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21971,7 +21974,7 @@
         <v>18.4684829711914</v>
       </c>
       <c r="G721" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21997,7 +22000,7 @@
         <v>18.8374633789062</v>
       </c>
       <c r="G722" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -22023,7 +22026,7 @@
         <v>18.6432647705078</v>
       </c>
       <c r="G723" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22049,7 +22052,7 @@
         <v>18.3325424194336</v>
       </c>
       <c r="G724" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22075,7 +22078,7 @@
         <v>18.6432647705078</v>
       </c>
       <c r="G725" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -22101,7 +22104,7 @@
         <v>19.2064456939697</v>
       </c>
       <c r="G726" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22127,7 +22130,7 @@
         <v>18.779203414917</v>
       </c>
       <c r="G727" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22153,7 +22156,7 @@
         <v>18.5850028991699</v>
       </c>
       <c r="G728" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22179,7 +22182,7 @@
         <v>18.060661315918</v>
       </c>
       <c r="G729" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22205,7 +22208,7 @@
         <v>17.8470401763916</v>
       </c>
       <c r="G730" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22231,7 +22234,7 @@
         <v>17.7693614959717</v>
       </c>
       <c r="G731" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22257,7 +22260,7 @@
         <v>18.0800819396973</v>
       </c>
       <c r="G732" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22283,7 +22286,7 @@
         <v>18.254861831665</v>
       </c>
       <c r="G733" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22309,7 +22312,7 @@
         <v>18.293701171875</v>
       </c>
       <c r="G734" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22335,7 +22338,7 @@
         <v>18.4490623474121</v>
       </c>
       <c r="G735" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22361,7 +22364,7 @@
         <v>19.031665802002</v>
       </c>
       <c r="G736" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22387,7 +22390,7 @@
         <v>20.4881706237793</v>
       </c>
       <c r="G737" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22413,7 +22416,7 @@
         <v>20.5852699279785</v>
       </c>
       <c r="G738" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22439,7 +22442,7 @@
         <v>20.1968688964844</v>
       </c>
       <c r="G739" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22465,7 +22468,7 @@
         <v>20.2939682006836</v>
       </c>
       <c r="G740" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22491,7 +22494,7 @@
         <v>20.7794704437256</v>
       </c>
       <c r="G741" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22517,7 +22520,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G742" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22543,7 +22546,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G743" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22569,7 +22572,7 @@
         <v>21.0707721710205</v>
       </c>
       <c r="G744" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22595,7 +22598,7 @@
         <v>20.925121307373</v>
       </c>
       <c r="G745" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22621,7 +22624,7 @@
         <v>20.730920791626</v>
       </c>
       <c r="G746" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22647,7 +22650,7 @@
         <v>21.0707721710205</v>
       </c>
       <c r="G747" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22673,7 +22676,7 @@
         <v>21.0222225189209</v>
       </c>
       <c r="G748" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22699,7 +22702,7 @@
         <v>21.410623550415</v>
       </c>
       <c r="G749" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22725,7 +22728,7 @@
         <v>21.4591732025146</v>
       </c>
       <c r="G750" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22751,7 +22754,7 @@
         <v>22.0417747497559</v>
       </c>
       <c r="G751" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22777,7 +22780,7 @@
         <v>22.4301776885986</v>
       </c>
       <c r="G752" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22803,7 +22806,7 @@
         <v>22.8185787200928</v>
       </c>
       <c r="G753" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22829,7 +22832,7 @@
         <v>22.1388759613037</v>
       </c>
       <c r="G754" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22855,7 +22858,7 @@
         <v>21.0707721710205</v>
       </c>
       <c r="G755" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22881,7 +22884,7 @@
         <v>21.410623550415</v>
       </c>
       <c r="G756" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22907,7 +22910,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G757" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22933,7 +22936,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G758" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22959,7 +22962,7 @@
         <v>21.6533737182617</v>
       </c>
       <c r="G759" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22985,7 +22988,7 @@
         <v>21.0222225189209</v>
       </c>
       <c r="G760" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -23011,7 +23014,7 @@
         <v>20.8765716552734</v>
       </c>
       <c r="G761" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23037,7 +23040,7 @@
         <v>20.730920791626</v>
       </c>
       <c r="G762" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -23063,7 +23066,7 @@
         <v>20.7794704437256</v>
       </c>
       <c r="G763" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23089,7 +23092,7 @@
         <v>20.5367202758789</v>
       </c>
       <c r="G764" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23115,7 +23118,7 @@
         <v>20.4881706237793</v>
       </c>
       <c r="G765" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23141,7 +23144,7 @@
         <v>20.245418548584</v>
       </c>
       <c r="G766" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23167,7 +23170,7 @@
         <v>19.9541187286377</v>
       </c>
       <c r="G767" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23193,7 +23196,7 @@
         <v>20.3910694122314</v>
       </c>
       <c r="G768" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23219,7 +23222,7 @@
         <v>20.6338195800781</v>
       </c>
       <c r="G769" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23245,7 +23248,7 @@
         <v>20.4396190643311</v>
       </c>
       <c r="G770" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23271,7 +23274,7 @@
         <v>20.0997695922852</v>
       </c>
       <c r="G771" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23297,7 +23300,7 @@
         <v>20.1968688964844</v>
       </c>
       <c r="G772" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23323,7 +23326,7 @@
         <v>20.1483192443848</v>
       </c>
       <c r="G773" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23349,7 +23352,7 @@
         <v>20.3425197601318</v>
       </c>
       <c r="G774" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23375,7 +23378,7 @@
         <v>19.6628170013428</v>
       </c>
       <c r="G775" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23401,7 +23404,7 @@
         <v>19.4686164855957</v>
       </c>
       <c r="G776" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23427,7 +23430,7 @@
         <v>19.8084678649902</v>
       </c>
       <c r="G777" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23453,7 +23456,7 @@
         <v>19.7113666534424</v>
       </c>
       <c r="G778" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23479,7 +23482,7 @@
         <v>19.5657176971436</v>
       </c>
       <c r="G779" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23505,7 +23508,7 @@
         <v>20.2939682006836</v>
       </c>
       <c r="G780" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23531,7 +23534,7 @@
         <v>19.6142673492432</v>
       </c>
       <c r="G781" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23557,7 +23560,7 @@
         <v>20.4396190643311</v>
       </c>
       <c r="G782" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23583,7 +23586,7 @@
         <v>20.8280200958252</v>
       </c>
       <c r="G783" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23609,7 +23612,7 @@
         <v>20.4881706237793</v>
       </c>
       <c r="G784" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23635,7 +23638,7 @@
         <v>19.9055671691895</v>
       </c>
       <c r="G785" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23661,7 +23664,7 @@
         <v>19.8084678649902</v>
       </c>
       <c r="G786" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23687,7 +23690,7 @@
         <v>19.7113666534424</v>
       </c>
       <c r="G787" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23713,7 +23716,7 @@
         <v>19.031665802002</v>
       </c>
       <c r="G788" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23739,7 +23742,7 @@
         <v>19.2452869415283</v>
       </c>
       <c r="G789" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23765,7 +23768,7 @@
         <v>19.0899257659912</v>
       </c>
       <c r="G790" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23791,7 +23794,7 @@
         <v>19.4006462097168</v>
       </c>
       <c r="G791" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23817,7 +23820,7 @@
         <v>19.1287651062012</v>
       </c>
       <c r="G792" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23843,7 +23846,7 @@
         <v>19.4200668334961</v>
       </c>
       <c r="G793" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23869,7 +23872,7 @@
         <v>19.4200668334961</v>
       </c>
       <c r="G794" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23895,7 +23898,7 @@
         <v>19.264705657959</v>
       </c>
       <c r="G795" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23921,7 +23924,7 @@
         <v>19.4200668334961</v>
       </c>
       <c r="G796" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23947,7 +23950,7 @@
         <v>19.4686164855957</v>
       </c>
       <c r="G797" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23973,7 +23976,7 @@
         <v>19.4200668334961</v>
       </c>
       <c r="G798" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23999,7 +24002,7 @@
         <v>20.3910694122314</v>
       </c>
       <c r="G799" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -24025,7 +24028,7 @@
         <v>20.730920791626</v>
       </c>
       <c r="G800" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -24051,7 +24054,7 @@
         <v>21.0707721710205</v>
       </c>
       <c r="G801" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -24077,7 +24080,7 @@
         <v>20.8280200958252</v>
       </c>
       <c r="G802" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -24103,7 +24106,7 @@
         <v>21.5077228546143</v>
       </c>
       <c r="G803" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24129,7 +24132,7 @@
         <v>21.9932250976562</v>
       </c>
       <c r="G804" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24155,7 +24158,7 @@
         <v>22.8185787200928</v>
       </c>
       <c r="G805" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24181,7 +24184,7 @@
         <v>23.2069797515869</v>
       </c>
       <c r="G806" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24207,7 +24210,7 @@
         <v>23.7410316467285</v>
       </c>
       <c r="G807" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24233,7 +24236,7 @@
         <v>23.9837818145752</v>
       </c>
       <c r="G808" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24259,7 +24262,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G809" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24285,7 +24288,7 @@
         <v>23.9352321624756</v>
       </c>
       <c r="G810" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24311,7 +24314,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G811" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24337,7 +24340,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G812" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24363,7 +24366,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G813" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24389,7 +24392,7 @@
         <v>24.5663833618164</v>
       </c>
       <c r="G814" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24415,7 +24418,7 @@
         <v>24.5178337097168</v>
       </c>
       <c r="G815" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24441,7 +24444,7 @@
         <v>23.9352321624756</v>
       </c>
       <c r="G816" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24467,7 +24470,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G817" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24493,7 +24496,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G818" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24519,7 +24522,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G819" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24545,7 +24548,7 @@
         <v>23.9352321624756</v>
       </c>
       <c r="G820" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24571,7 +24574,7 @@
         <v>24.5663833618164</v>
       </c>
       <c r="G821" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24597,7 +24600,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G822" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24623,7 +24626,7 @@
         <v>24.5178337097168</v>
       </c>
       <c r="G823" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24649,7 +24652,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G824" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24675,7 +24678,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G825" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24701,7 +24704,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G826" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24727,7 +24730,7 @@
         <v>23.7410316467285</v>
       </c>
       <c r="G827" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24753,7 +24756,7 @@
         <v>23.9837818145752</v>
       </c>
       <c r="G828" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24779,7 +24782,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G829" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24805,7 +24808,7 @@
         <v>23.7410316467285</v>
       </c>
       <c r="G830" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24831,7 +24834,7 @@
         <v>23.7410316467285</v>
       </c>
       <c r="G831" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24857,7 +24860,7 @@
         <v>24.2265338897705</v>
       </c>
       <c r="G832" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24883,7 +24886,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G833" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24909,7 +24912,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G834" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24935,7 +24938,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G835" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24961,7 +24964,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G836" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24987,7 +24990,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G837" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -25013,7 +25016,7 @@
         <v>23.7410316467285</v>
       </c>
       <c r="G838" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -25039,7 +25042,7 @@
         <v>22.4787273406982</v>
       </c>
       <c r="G839" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -25065,7 +25068,7 @@
         <v>22.4301776885986</v>
       </c>
       <c r="G840" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -25091,7 +25094,7 @@
         <v>22.8671283721924</v>
       </c>
       <c r="G841" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -25117,7 +25120,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G842" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25143,7 +25146,7 @@
         <v>22.2845268249512</v>
       </c>
       <c r="G843" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25169,7 +25172,7 @@
         <v>21.8475742340088</v>
       </c>
       <c r="G844" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25195,7 +25198,7 @@
         <v>21.6048240661621</v>
       </c>
       <c r="G845" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25221,7 +25224,7 @@
         <v>21.6533737182617</v>
       </c>
       <c r="G846" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25247,7 +25250,7 @@
         <v>21.4591732025146</v>
       </c>
       <c r="G847" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25273,7 +25276,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G848" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25299,7 +25302,7 @@
         <v>21.9446754455566</v>
       </c>
       <c r="G849" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25325,7 +25328,7 @@
         <v>22.5758266448975</v>
       </c>
       <c r="G850" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25351,7 +25354,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G851" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25377,7 +25380,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G852" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25403,7 +25406,7 @@
         <v>25.4888362884521</v>
       </c>
       <c r="G853" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25429,7 +25432,7 @@
         <v>25.8286876678467</v>
       </c>
       <c r="G854" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25455,7 +25458,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G855" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25481,7 +25484,7 @@
         <v>25.4888362884521</v>
       </c>
       <c r="G856" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25507,7 +25510,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G857" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25533,7 +25536,7 @@
         <v>24.1779823303223</v>
       </c>
       <c r="G858" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25559,7 +25562,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G859" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25585,7 +25588,7 @@
         <v>24.4207324981689</v>
       </c>
       <c r="G860" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25611,7 +25614,7 @@
         <v>24.1779823303223</v>
       </c>
       <c r="G861" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25637,7 +25640,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G862" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25663,7 +25666,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G863" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25689,7 +25692,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G864" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25715,7 +25718,7 @@
         <v>24.6149349212646</v>
       </c>
       <c r="G865" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25741,7 +25744,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G866" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25767,7 +25770,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G867" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25793,7 +25796,7 @@
         <v>24.7605857849121</v>
       </c>
       <c r="G868" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25819,7 +25822,7 @@
         <v>24.7605857849121</v>
       </c>
       <c r="G869" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25845,7 +25848,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G870" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25871,7 +25874,7 @@
         <v>25.2946357727051</v>
       </c>
       <c r="G871" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25897,7 +25900,7 @@
         <v>25.4888362884521</v>
       </c>
       <c r="G872" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25923,7 +25926,7 @@
         <v>26.4112892150879</v>
       </c>
       <c r="G873" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25949,7 +25952,7 @@
         <v>26.2656402587891</v>
       </c>
       <c r="G874" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25975,7 +25978,7 @@
         <v>26.5083904266357</v>
       </c>
       <c r="G875" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -26001,7 +26004,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G876" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -26027,7 +26030,7 @@
         <v>26.1199893951416</v>
       </c>
       <c r="G877" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -26053,7 +26056,7 @@
         <v>26.1199893951416</v>
       </c>
       <c r="G878" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -26079,7 +26082,7 @@
         <v>24.5663833618164</v>
       </c>
       <c r="G879" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -26105,7 +26108,7 @@
         <v>24.4207324981689</v>
       </c>
       <c r="G880" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26131,7 +26134,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G881" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26157,7 +26160,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G882" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26183,7 +26186,7 @@
         <v>23.3040790557861</v>
       </c>
       <c r="G883" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26209,7 +26212,7 @@
         <v>23.0127792358398</v>
       </c>
       <c r="G884" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26235,7 +26238,7 @@
         <v>23.886682510376</v>
       </c>
       <c r="G885" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26261,7 +26264,7 @@
         <v>23.0127792358398</v>
       </c>
       <c r="G886" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26287,7 +26290,7 @@
         <v>23.7410316467285</v>
       </c>
       <c r="G887" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26313,7 +26316,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G888" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26339,7 +26342,7 @@
         <v>25.0518856048584</v>
       </c>
       <c r="G889" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26365,7 +26368,7 @@
         <v>24.6149349212646</v>
       </c>
       <c r="G890" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26391,7 +26394,7 @@
         <v>25.5373878479004</v>
       </c>
       <c r="G891" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26417,7 +26420,7 @@
         <v>25.4888362884521</v>
       </c>
       <c r="G892" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26443,7 +26446,7 @@
         <v>25.3431873321533</v>
       </c>
       <c r="G893" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26469,7 +26472,7 @@
         <v>25.2946357727051</v>
       </c>
       <c r="G894" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26495,7 +26498,7 @@
         <v>25.5859375</v>
       </c>
       <c r="G895" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26521,7 +26524,7 @@
         <v>25.3431873321533</v>
       </c>
       <c r="G896" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26547,7 +26550,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G897" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26573,7 +26576,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G898" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26599,7 +26602,7 @@
         <v>23.9837818145752</v>
       </c>
       <c r="G899" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26625,7 +26628,7 @@
         <v>24.7120342254639</v>
       </c>
       <c r="G900" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26651,7 +26654,7 @@
         <v>24.5178337097168</v>
       </c>
       <c r="G901" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26677,7 +26680,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G902" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26703,7 +26706,7 @@
         <v>24.7605857849121</v>
       </c>
       <c r="G903" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26729,7 +26732,7 @@
         <v>25.6830387115479</v>
       </c>
       <c r="G904" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26755,7 +26758,7 @@
         <v>25.8286876678467</v>
       </c>
       <c r="G905" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26781,7 +26784,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G906" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26807,7 +26810,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G907" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26833,7 +26836,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G908" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26859,7 +26862,7 @@
         <v>24.7605857849121</v>
       </c>
       <c r="G909" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26885,7 +26888,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G910" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26911,7 +26914,7 @@
         <v>24.4207324981689</v>
       </c>
       <c r="G911" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26937,7 +26940,7 @@
         <v>25.2946357727051</v>
       </c>
       <c r="G912" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26963,7 +26966,7 @@
         <v>26.0228881835938</v>
       </c>
       <c r="G913" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26989,7 +26992,7 @@
         <v>25.9743385314941</v>
       </c>
       <c r="G914" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -27015,7 +27018,7 @@
         <v>25.0518856048584</v>
       </c>
       <c r="G915" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -27041,7 +27044,7 @@
         <v>24.4207324981689</v>
       </c>
       <c r="G916" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -27067,7 +27070,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G917" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -27093,7 +27096,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G918" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -27119,7 +27122,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G919" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27145,7 +27148,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G920" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27171,7 +27174,7 @@
         <v>22.2359752655029</v>
       </c>
       <c r="G921" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27197,7 +27200,7 @@
         <v>21.896125793457</v>
       </c>
       <c r="G922" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27223,7 +27226,7 @@
         <v>22.1388759613037</v>
       </c>
       <c r="G923" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27249,7 +27252,7 @@
         <v>21.6048240661621</v>
       </c>
       <c r="G924" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27275,7 +27278,7 @@
         <v>21.1193218231201</v>
       </c>
       <c r="G925" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27301,7 +27304,7 @@
         <v>20.6338195800781</v>
       </c>
       <c r="G926" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27327,7 +27330,7 @@
         <v>21.9932250976562</v>
       </c>
       <c r="G927" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27353,7 +27356,7 @@
         <v>22.5272769927979</v>
       </c>
       <c r="G928" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27379,7 +27382,7 @@
         <v>21.9932250976562</v>
       </c>
       <c r="G929" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27405,7 +27408,7 @@
         <v>21.8475742340088</v>
       </c>
       <c r="G930" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27431,7 +27434,7 @@
         <v>21.5562744140625</v>
       </c>
       <c r="G931" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27457,7 +27460,7 @@
         <v>21.4591732025146</v>
       </c>
       <c r="G932" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27483,7 +27486,7 @@
         <v>22.0417747497559</v>
       </c>
       <c r="G933" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27509,7 +27512,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G934" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27535,7 +27538,7 @@
         <v>22.2359752655029</v>
       </c>
       <c r="G935" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27561,7 +27564,7 @@
         <v>22.0903244018555</v>
       </c>
       <c r="G936" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27587,7 +27590,7 @@
         <v>22.5758266448975</v>
       </c>
       <c r="G937" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27613,7 +27616,7 @@
         <v>21.9932250976562</v>
       </c>
       <c r="G938" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27639,7 +27642,7 @@
         <v>21.896125793457</v>
       </c>
       <c r="G939" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27665,7 +27668,7 @@
         <v>21.8475742340088</v>
       </c>
       <c r="G940" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27691,7 +27694,7 @@
         <v>20.925121307373</v>
       </c>
       <c r="G941" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27717,7 +27720,7 @@
         <v>21.0222225189209</v>
       </c>
       <c r="G942" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27743,7 +27746,7 @@
         <v>19.8570175170898</v>
       </c>
       <c r="G943" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27769,7 +27772,7 @@
         <v>19.1870250701904</v>
       </c>
       <c r="G944" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27795,7 +27798,7 @@
         <v>20.5367202758789</v>
       </c>
       <c r="G945" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27821,7 +27824,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G946" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27847,7 +27850,7 @@
         <v>20.0997695922852</v>
       </c>
       <c r="G947" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27873,7 +27876,7 @@
         <v>20.0026683807373</v>
       </c>
       <c r="G948" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27899,7 +27902,7 @@
         <v>18.8180446624756</v>
       </c>
       <c r="G949" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27925,7 +27928,7 @@
         <v>17.9053001403809</v>
       </c>
       <c r="G950" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27951,7 +27954,7 @@
         <v>17.6140003204346</v>
       </c>
       <c r="G951" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27977,7 +27980,7 @@
         <v>17.3809585571289</v>
       </c>
       <c r="G952" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -28003,7 +28006,7 @@
         <v>18.9151439666748</v>
       </c>
       <c r="G953" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -28029,7 +28032,7 @@
         <v>18.7986240386963</v>
       </c>
       <c r="G954" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -28055,7 +28058,7 @@
         <v>19.2841262817383</v>
       </c>
       <c r="G955" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -28081,7 +28084,7 @@
         <v>20.5852699279785</v>
       </c>
       <c r="G956" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -28107,7 +28110,7 @@
         <v>20.1968688964844</v>
       </c>
       <c r="G957" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28133,7 +28136,7 @@
         <v>21.1193218231201</v>
       </c>
       <c r="G958" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28159,7 +28162,7 @@
         <v>21.1193218231201</v>
       </c>
       <c r="G959" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28185,7 +28188,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G960" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28211,7 +28214,7 @@
         <v>21.6048240661621</v>
       </c>
       <c r="G961" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28237,7 +28240,7 @@
         <v>22.5272769927979</v>
       </c>
       <c r="G962" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28263,7 +28266,7 @@
         <v>22.5758266448975</v>
       </c>
       <c r="G963" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28289,7 +28292,7 @@
         <v>22.3816261291504</v>
       </c>
       <c r="G964" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28315,7 +28318,7 @@
         <v>22.7214775085449</v>
       </c>
       <c r="G965" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28341,7 +28344,7 @@
         <v>22.5272769927979</v>
       </c>
       <c r="G966" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28367,7 +28370,7 @@
         <v>23.0613288879395</v>
       </c>
       <c r="G967" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28393,7 +28396,7 @@
         <v>23.9352321624756</v>
       </c>
       <c r="G968" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28419,7 +28422,7 @@
         <v>22.5758266448975</v>
       </c>
       <c r="G969" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28445,7 +28448,7 @@
         <v>22.1874256134033</v>
       </c>
       <c r="G970" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28471,7 +28474,7 @@
         <v>21.1678714752197</v>
       </c>
       <c r="G971" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28497,7 +28500,7 @@
         <v>20.9736728668213</v>
       </c>
       <c r="G972" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28523,7 +28526,7 @@
         <v>21.0707721710205</v>
       </c>
       <c r="G973" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28549,7 +28552,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G974" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28575,7 +28578,7 @@
         <v>21.0707721710205</v>
       </c>
       <c r="G975" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28601,7 +28604,7 @@
         <v>21.1678714752197</v>
       </c>
       <c r="G976" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28627,7 +28630,7 @@
         <v>20.9736728668213</v>
       </c>
       <c r="G977" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28653,7 +28656,7 @@
         <v>21.1193218231201</v>
       </c>
       <c r="G978" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28679,7 +28682,7 @@
         <v>21.1678714752197</v>
       </c>
       <c r="G979" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28705,7 +28708,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G980" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28731,7 +28734,7 @@
         <v>21.4591732025146</v>
       </c>
       <c r="G981" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28757,7 +28760,7 @@
         <v>22.5272769927979</v>
       </c>
       <c r="G982" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28783,7 +28786,7 @@
         <v>22.4301776885986</v>
       </c>
       <c r="G983" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28809,7 +28812,7 @@
         <v>22.3816261291504</v>
       </c>
       <c r="G984" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28835,7 +28838,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G985" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28861,7 +28864,7 @@
         <v>22.2359752655029</v>
       </c>
       <c r="G986" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28887,7 +28890,7 @@
         <v>22.2845268249512</v>
       </c>
       <c r="G987" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28913,7 +28916,7 @@
         <v>22.3816261291504</v>
       </c>
       <c r="G988" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28939,7 +28942,7 @@
         <v>23.0613288879395</v>
       </c>
       <c r="G989" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28965,7 +28968,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G990" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28991,7 +28994,7 @@
         <v>22.4301776885986</v>
       </c>
       <c r="G991" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -29017,7 +29020,7 @@
         <v>22.1874256134033</v>
       </c>
       <c r="G992" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -29043,7 +29046,7 @@
         <v>20.6823711395264</v>
       </c>
       <c r="G993" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -29069,7 +29072,7 @@
         <v>19.3618068695068</v>
       </c>
       <c r="G994" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -29095,7 +29098,7 @@
         <v>19.3229656219482</v>
       </c>
       <c r="G995" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29121,7 +29124,7 @@
         <v>19.7113666534424</v>
       </c>
       <c r="G996" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29147,7 +29150,7 @@
         <v>19.9055671691895</v>
       </c>
       <c r="G997" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29173,7 +29176,7 @@
         <v>22.6243762969971</v>
       </c>
       <c r="G998" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29199,7 +29202,7 @@
         <v>21.6533737182617</v>
       </c>
       <c r="G999" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29225,7 +29228,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1000" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29251,7 +29254,7 @@
         <v>21.4591732025146</v>
       </c>
       <c r="G1001" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29277,7 +29280,7 @@
         <v>21.1678714752197</v>
       </c>
       <c r="G1002" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29303,7 +29306,7 @@
         <v>20.2939682006836</v>
       </c>
       <c r="G1003" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29329,7 +29332,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G1004" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29355,7 +29358,7 @@
         <v>20.730920791626</v>
       </c>
       <c r="G1005" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29381,7 +29384,7 @@
         <v>20.5367202758789</v>
       </c>
       <c r="G1006" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29407,7 +29410,7 @@
         <v>21.0707721710205</v>
       </c>
       <c r="G1007" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29433,7 +29436,7 @@
         <v>21.8475742340088</v>
       </c>
       <c r="G1008" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29459,7 +29462,7 @@
         <v>22.4301776885986</v>
       </c>
       <c r="G1009" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29485,7 +29488,7 @@
         <v>21.6533737182617</v>
       </c>
       <c r="G1010" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29511,7 +29514,7 @@
         <v>21.6533737182617</v>
       </c>
       <c r="G1011" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29537,7 +29540,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1012" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29563,7 +29566,7 @@
         <v>20.8765716552734</v>
       </c>
       <c r="G1013" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29589,7 +29592,7 @@
         <v>21.0707721710205</v>
       </c>
       <c r="G1014" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29615,7 +29618,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1015" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29641,7 +29644,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1016" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29667,7 +29670,7 @@
         <v>20.3910694122314</v>
       </c>
       <c r="G1017" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29693,7 +29696,7 @@
         <v>19.5657176971436</v>
       </c>
       <c r="G1018" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29719,7 +29722,7 @@
         <v>18.9345645904541</v>
       </c>
       <c r="G1019" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29745,7 +29748,7 @@
         <v>18.5655822753906</v>
       </c>
       <c r="G1020" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29771,7 +29774,7 @@
         <v>18.4879035949707</v>
       </c>
       <c r="G1021" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29797,7 +29800,7 @@
         <v>17.7887802124023</v>
       </c>
       <c r="G1022" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29823,7 +29826,7 @@
         <v>17.7693614959717</v>
       </c>
       <c r="G1023" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29849,7 +29852,7 @@
         <v>17.1867599487305</v>
       </c>
       <c r="G1024" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29875,7 +29878,7 @@
         <v>17.3615398406982</v>
       </c>
       <c r="G1025" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29901,7 +29904,7 @@
         <v>17.3226985931396</v>
       </c>
       <c r="G1026" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29927,7 +29930,7 @@
         <v>16.7983570098877</v>
       </c>
       <c r="G1027" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29953,7 +29956,7 @@
         <v>16.6624164581299</v>
       </c>
       <c r="G1028" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29979,7 +29982,7 @@
         <v>17.2450199127197</v>
       </c>
       <c r="G1029" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -30005,7 +30008,7 @@
         <v>17.9635601043701</v>
       </c>
       <c r="G1030" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -30031,7 +30034,7 @@
         <v>17.9635601043701</v>
       </c>
       <c r="G1031" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -30057,7 +30060,7 @@
         <v>18.4102230072021</v>
       </c>
       <c r="G1032" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -30083,7 +30086,7 @@
         <v>18.254861831665</v>
       </c>
       <c r="G1033" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -30109,7 +30112,7 @@
         <v>18.7209434509277</v>
       </c>
       <c r="G1034" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30135,7 +30138,7 @@
         <v>18.7015247344971</v>
       </c>
       <c r="G1035" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30161,7 +30164,7 @@
         <v>18.6238422393799</v>
       </c>
       <c r="G1036" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30187,7 +30190,7 @@
         <v>19.4200668334961</v>
       </c>
       <c r="G1037" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30213,7 +30216,7 @@
         <v>19.0899257659912</v>
       </c>
       <c r="G1038" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30239,7 +30242,7 @@
         <v>19.031665802002</v>
       </c>
       <c r="G1039" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30265,7 +30268,7 @@
         <v>19.2452869415283</v>
       </c>
       <c r="G1040" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30291,7 +30294,7 @@
         <v>18.7015247344971</v>
       </c>
       <c r="G1041" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30317,7 +30320,7 @@
         <v>18.3908023834229</v>
       </c>
       <c r="G1042" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30343,7 +30346,7 @@
         <v>18.8763046264648</v>
       </c>
       <c r="G1043" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30369,7 +30372,7 @@
         <v>19.0899257659912</v>
       </c>
       <c r="G1044" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30395,7 +30398,7 @@
         <v>19.0510845184326</v>
       </c>
       <c r="G1045" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30421,7 +30424,7 @@
         <v>19.225866317749</v>
       </c>
       <c r="G1046" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30447,7 +30450,7 @@
         <v>20.3425197601318</v>
       </c>
       <c r="G1047" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30473,7 +30476,7 @@
         <v>20.6823711395264</v>
       </c>
       <c r="G1048" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30499,7 +30502,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G1049" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30525,7 +30528,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1050" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30551,7 +30554,7 @@
         <v>21.4591732025146</v>
       </c>
       <c r="G1051" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30577,7 +30580,7 @@
         <v>21.410623550415</v>
       </c>
       <c r="G1052" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30603,7 +30606,7 @@
         <v>21.5562744140625</v>
       </c>
       <c r="G1053" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30629,7 +30632,7 @@
         <v>21.4591732025146</v>
       </c>
       <c r="G1054" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30655,7 +30658,7 @@
         <v>20.6823711395264</v>
       </c>
       <c r="G1055" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30681,7 +30684,7 @@
         <v>20.7794704437256</v>
       </c>
       <c r="G1056" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30707,7 +30710,7 @@
         <v>22.6243762969971</v>
       </c>
       <c r="G1057" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30733,7 +30736,7 @@
         <v>23.2555294036865</v>
       </c>
       <c r="G1058" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30759,7 +30762,7 @@
         <v>23.2555294036865</v>
       </c>
       <c r="G1059" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30785,7 +30788,7 @@
         <v>22.8185787200928</v>
       </c>
       <c r="G1060" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30811,7 +30814,7 @@
         <v>23.0127792358398</v>
       </c>
       <c r="G1061" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30837,7 +30840,7 @@
         <v>23.1584281921387</v>
       </c>
       <c r="G1062" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30863,7 +30866,7 @@
         <v>22.8185787200928</v>
       </c>
       <c r="G1063" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30889,7 +30892,7 @@
         <v>22.5758266448975</v>
       </c>
       <c r="G1064" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30915,7 +30918,7 @@
         <v>21.9932250976562</v>
       </c>
       <c r="G1065" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30941,7 +30944,7 @@
         <v>22.1874256134033</v>
       </c>
       <c r="G1066" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30967,7 +30970,7 @@
         <v>21.9446754455566</v>
       </c>
       <c r="G1067" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30993,7 +30996,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1068" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -31019,7 +31022,7 @@
         <v>21.5077228546143</v>
       </c>
       <c r="G1069" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -31045,7 +31048,7 @@
         <v>21.4591732025146</v>
       </c>
       <c r="G1070" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31071,7 +31074,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1071" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -31097,7 +31100,7 @@
         <v>20.925121307373</v>
       </c>
       <c r="G1072" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31123,7 +31126,7 @@
         <v>20.7794704437256</v>
       </c>
       <c r="G1073" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31149,7 +31152,7 @@
         <v>20.7794704437256</v>
       </c>
       <c r="G1074" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31175,7 +31178,7 @@
         <v>20.7794704437256</v>
       </c>
       <c r="G1075" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31201,7 +31204,7 @@
         <v>20.1483192443848</v>
       </c>
       <c r="G1076" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31227,7 +31230,7 @@
         <v>20.730920791626</v>
       </c>
       <c r="G1077" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31253,7 +31256,7 @@
         <v>20.4396190643311</v>
       </c>
       <c r="G1078" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31279,7 +31282,7 @@
         <v>20.1968688964844</v>
       </c>
       <c r="G1079" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31305,7 +31308,7 @@
         <v>19.7113666534424</v>
       </c>
       <c r="G1080" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31331,7 +31334,7 @@
         <v>20.0512180328369</v>
       </c>
       <c r="G1081" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31357,7 +31360,7 @@
         <v>20.5367202758789</v>
       </c>
       <c r="G1082" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31383,7 +31386,7 @@
         <v>20.245418548584</v>
       </c>
       <c r="G1083" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31409,7 +31412,7 @@
         <v>19.6628170013428</v>
       </c>
       <c r="G1084" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31435,7 +31438,7 @@
         <v>19.4686164855957</v>
       </c>
       <c r="G1085" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31461,7 +31464,7 @@
         <v>19.5171661376953</v>
       </c>
       <c r="G1086" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31487,7 +31490,7 @@
         <v>19.0122451782227</v>
       </c>
       <c r="G1087" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31513,7 +31516,7 @@
         <v>18.8180446624756</v>
       </c>
       <c r="G1088" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31539,7 +31542,7 @@
         <v>18.3713836669922</v>
       </c>
       <c r="G1089" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31565,7 +31568,7 @@
         <v>18.6821041107178</v>
       </c>
       <c r="G1090" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31591,7 +31594,7 @@
         <v>18.1577625274658</v>
       </c>
       <c r="G1091" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31617,7 +31620,7 @@
         <v>18.8374633789062</v>
       </c>
       <c r="G1092" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31643,7 +31646,7 @@
         <v>18.6238422393799</v>
       </c>
       <c r="G1093" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31669,7 +31672,7 @@
         <v>18.2160224914551</v>
       </c>
       <c r="G1094" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31695,7 +31698,7 @@
         <v>18.2354412078857</v>
       </c>
       <c r="G1095" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31721,7 +31724,7 @@
         <v>17.4197998046875</v>
       </c>
       <c r="G1096" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31747,7 +31750,7 @@
         <v>18.5850028991699</v>
       </c>
       <c r="G1097" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31773,7 +31776,7 @@
         <v>19.5657176971436</v>
       </c>
       <c r="G1098" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31799,7 +31802,7 @@
         <v>20.5852699279785</v>
       </c>
       <c r="G1099" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31825,7 +31828,7 @@
         <v>19.5657176971436</v>
       </c>
       <c r="G1100" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31851,7 +31854,7 @@
         <v>19.264705657959</v>
       </c>
       <c r="G1101" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31877,7 +31880,7 @@
         <v>18.6044235229492</v>
       </c>
       <c r="G1102" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31903,7 +31906,7 @@
         <v>18.740364074707</v>
       </c>
       <c r="G1103" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31929,7 +31932,7 @@
         <v>18.9734058380127</v>
       </c>
       <c r="G1104" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31955,7 +31958,7 @@
         <v>18.6238422393799</v>
       </c>
       <c r="G1105" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31981,7 +31984,7 @@
         <v>18.7015247344971</v>
       </c>
       <c r="G1106" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -32007,7 +32010,7 @@
         <v>18.5073223114014</v>
       </c>
       <c r="G1107" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -32033,7 +32036,7 @@
         <v>18.7209434509277</v>
       </c>
       <c r="G1108" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -32059,7 +32062,7 @@
         <v>18.8180446624756</v>
       </c>
       <c r="G1109" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32085,7 +32088,7 @@
         <v>18.7209434509277</v>
       </c>
       <c r="G1110" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -32111,7 +32114,7 @@
         <v>18.6626834869385</v>
       </c>
       <c r="G1111" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32137,7 +32140,7 @@
         <v>18.9345645904541</v>
       </c>
       <c r="G1112" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32163,7 +32166,7 @@
         <v>19.5171661376953</v>
       </c>
       <c r="G1113" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32189,7 +32192,7 @@
         <v>21.1678714752197</v>
       </c>
       <c r="G1114" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32215,7 +32218,7 @@
         <v>21.1193218231201</v>
       </c>
       <c r="G1115" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32241,7 +32244,7 @@
         <v>21.4591732025146</v>
       </c>
       <c r="G1116" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32267,7 +32270,7 @@
         <v>21.4591732025146</v>
       </c>
       <c r="G1117" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32293,7 +32296,7 @@
         <v>21.410623550415</v>
       </c>
       <c r="G1118" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32319,7 +32322,7 @@
         <v>21.0222225189209</v>
       </c>
       <c r="G1119" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32345,7 +32348,7 @@
         <v>21.1678714752197</v>
       </c>
       <c r="G1120" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32371,7 +32374,7 @@
         <v>20.6823711395264</v>
       </c>
       <c r="G1121" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32397,7 +32400,7 @@
         <v>21.1193218231201</v>
       </c>
       <c r="G1122" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32423,7 +32426,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G1123" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32449,7 +32452,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1124" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32475,7 +32478,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G1125" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32501,7 +32504,7 @@
         <v>23.0613288879395</v>
       </c>
       <c r="G1126" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32527,7 +32530,7 @@
         <v>23.886682510376</v>
       </c>
       <c r="G1127" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32553,7 +32556,7 @@
         <v>24.7605857849121</v>
       </c>
       <c r="G1128" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32579,7 +32582,7 @@
         <v>25.3917369842529</v>
       </c>
       <c r="G1129" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32605,7 +32608,7 @@
         <v>23.9352321624756</v>
       </c>
       <c r="G1130" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32631,7 +32634,7 @@
         <v>23.9352321624756</v>
       </c>
       <c r="G1131" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32657,7 +32660,7 @@
         <v>23.9837818145752</v>
       </c>
       <c r="G1132" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32683,7 +32686,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1133" t="s">
-        <v>549</v>
+        <v>715</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32709,7 +32712,7 @@
         <v>23.9837818145752</v>
       </c>
       <c r="G1134" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32761,7 +32764,7 @@
         <v>23.886682510376</v>
       </c>
       <c r="G1136" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32787,7 +32790,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1137" t="s">
-        <v>549</v>
+        <v>715</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32813,7 +32816,7 @@
         <v>23.2555294036865</v>
       </c>
       <c r="G1138" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32865,7 +32868,7 @@
         <v>23.0613288879395</v>
       </c>
       <c r="G1140" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33125,7 +33128,7 @@
         <v>24.7605857849121</v>
       </c>
       <c r="G1150" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33307,7 +33310,7 @@
         <v>23.0613288879395</v>
       </c>
       <c r="G1157" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33333,7 +33336,7 @@
         <v>23.0613288879395</v>
       </c>
       <c r="G1158" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33385,7 +33388,7 @@
         <v>23.0613288879395</v>
       </c>
       <c r="G1160" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33411,7 +33414,7 @@
         <v>22.8185787200928</v>
       </c>
       <c r="G1161" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33437,7 +33440,7 @@
         <v>22.8185787200928</v>
       </c>
       <c r="G1162" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33567,7 +33570,7 @@
         <v>22.5758266448975</v>
       </c>
       <c r="G1167" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33801,7 +33804,7 @@
         <v>22.8185787200928</v>
       </c>
       <c r="G1176" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33827,7 +33830,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1177" t="s">
-        <v>549</v>
+        <v>715</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33879,7 +33882,7 @@
         <v>23.2555294036865</v>
       </c>
       <c r="G1179" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33905,7 +33908,7 @@
         <v>23.0613288879395</v>
       </c>
       <c r="G1180" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -34009,7 +34012,7 @@
         <v>23.0613288879395</v>
       </c>
       <c r="G1184" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -34061,7 +34064,7 @@
         <v>25.3917369842529</v>
       </c>
       <c r="G1186" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -34139,7 +34142,7 @@
         <v>23.9352321624756</v>
       </c>
       <c r="G1189" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34347,7 +34350,7 @@
         <v>24.7605857849121</v>
       </c>
       <c r="G1197" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34789,7 +34792,7 @@
         <v>23.9352321624756</v>
       </c>
       <c r="G1214" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34841,7 +34844,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1216" t="s">
-        <v>549</v>
+        <v>715</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -35361,7 +35364,7 @@
         <v>23.1584281921387</v>
       </c>
       <c r="G1236" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35387,7 +35390,7 @@
         <v>23.0613288879395</v>
       </c>
       <c r="G1237" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35439,7 +35442,7 @@
         <v>23.0127792358398</v>
       </c>
       <c r="G1239" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35491,7 +35494,7 @@
         <v>21.9932250976562</v>
       </c>
       <c r="G1241" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35647,7 +35650,7 @@
         <v>23.1584281921387</v>
       </c>
       <c r="G1247" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35699,7 +35702,7 @@
         <v>23.9837818145752</v>
       </c>
       <c r="G1249" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35959,7 +35962,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1259" t="s">
-        <v>549</v>
+        <v>715</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35985,7 +35988,7 @@
         <v>23.886682510376</v>
       </c>
       <c r="G1260" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -36011,7 +36014,7 @@
         <v>23.1584281921387</v>
       </c>
       <c r="G1261" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -43273,7 +43276,7 @@
     </row>
     <row r="1541">
       <c r="A1541" s="1" t="n">
-        <v>45471.649537037</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B1541" t="n">
         <v>56238</v>
@@ -43294,6 +43297,32 @@
         <v>959</v>
       </c>
       <c r="H1541" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="1" t="n">
+        <v>45474.6495138889</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>51202</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>17.0599994659424</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>17.3199996948242</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>17.0599994659424</v>
+      </c>
+      <c r="G1542" t="s">
+        <v>960</v>
+      </c>
+      <c r="H1542" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63556337356567</t>
+    <t xml:space="preserve">7.63556289672852</t>
   </si>
   <si>
     <t xml:space="preserve">CRL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95949554443359</t>
+    <t xml:space="preserve">7.95949506759644</t>
   </si>
   <si>
     <t xml:space="preserve">7.866943359375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77439212799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74477291107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92988014221191</t>
+    <t xml:space="preserve">7.77439165115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74477386474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9298791885376</t>
   </si>
   <si>
     <t xml:space="preserve">8.02428245544434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72904014587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03353786468506</t>
+    <t xml:space="preserve">7.72903966903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03353691101074</t>
   </si>
   <si>
     <t xml:space="preserve">7.4976601600647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35512971878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57910633087158</t>
+    <t xml:space="preserve">7.35512924194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57910680770874</t>
   </si>
   <si>
     <t xml:space="preserve">7.51987266540527</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62630748748779</t>
+    <t xml:space="preserve">7.62630701065063</t>
   </si>
   <si>
     <t xml:space="preserve">7.49673461914062</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">7.59854221343994</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70220041275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85768890380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91321897506714</t>
+    <t xml:space="preserve">7.7022008895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85768842697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9132194519043</t>
   </si>
   <si>
     <t xml:space="preserve">7.97893238067627</t>
@@ -107,16 +107,16 @@
     <t xml:space="preserve">8.06130409240723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92247438430786</t>
+    <t xml:space="preserve">7.92247486114502</t>
   </si>
   <si>
     <t xml:space="preserve">8.0770378112793</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87064504623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82066679000854</t>
+    <t xml:space="preserve">7.87064599990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8206672668457</t>
   </si>
   <si>
     <t xml:space="preserve">7.90766763687134</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">7.84843349456787</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80215740203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94561290740967</t>
+    <t xml:space="preserve">7.80215787887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94561338424683</t>
   </si>
   <si>
     <t xml:space="preserve">7.6179780960083</t>
@@ -140,19 +140,19 @@
     <t xml:space="preserve">7.72811508178711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84102869033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80400943756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0520486831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11775875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17236614227295</t>
+    <t xml:space="preserve">7.84102964401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80400848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05204772949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11775970458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17236709594727</t>
   </si>
   <si>
     <t xml:space="preserve">8.36302375793457</t>
@@ -161,19 +161,19 @@
     <t xml:space="preserve">8.52406406402588</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54720306396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8165283203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02384757995605</t>
+    <t xml:space="preserve">8.54720115661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81652927398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02384948730469</t>
   </si>
   <si>
     <t xml:space="preserve">8.66289234161377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34821605682373</t>
+    <t xml:space="preserve">8.34821510314941</t>
   </si>
   <si>
     <t xml:space="preserve">8.31119346618652</t>
@@ -182,22 +182,22 @@
     <t xml:space="preserve">8.53054237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4222583770752</t>
+    <t xml:space="preserve">8.42225646972656</t>
   </si>
   <si>
     <t xml:space="preserve">8.51481056213379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77395629882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81097793579102</t>
+    <t xml:space="preserve">8.77395534515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81097602844238</t>
   </si>
   <si>
     <t xml:space="preserve">8.67770099639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7276782989502</t>
+    <t xml:space="preserve">8.72768020629883</t>
   </si>
   <si>
     <t xml:space="preserve">8.857253074646</t>
@@ -209,16 +209,16 @@
     <t xml:space="preserve">8.93222141265869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18118572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20895195007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40331172943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16267490386963</t>
+    <t xml:space="preserve">9.18118476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20895099639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40331077575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16267585754395</t>
   </si>
   <si>
     <t xml:space="preserve">9.1821117401123</t>
@@ -227,22 +227,22 @@
     <t xml:space="preserve">9.0553150177002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25152587890625</t>
+    <t xml:space="preserve">9.25152683258057</t>
   </si>
   <si>
     <t xml:space="preserve">9.12657928466797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08863353729248</t>
+    <t xml:space="preserve">9.08863162994385</t>
   </si>
   <si>
     <t xml:space="preserve">8.8285608291626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05809116363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10714435577393</t>
+    <t xml:space="preserve">9.05809211730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10714340209961</t>
   </si>
   <si>
     <t xml:space="preserve">8.96553897857666</t>
@@ -254,16 +254,16 @@
     <t xml:space="preserve">8.56848812103271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03908920288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36580085754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46853256225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60736179351807</t>
+    <t xml:space="preserve">8.03909015655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36579990386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46853351593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60736274719238</t>
   </si>
   <si>
     <t xml:space="preserve">8.65363883972168</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">7.97800540924072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40189552307129</t>
+    <t xml:space="preserve">8.40189456939697</t>
   </si>
   <si>
     <t xml:space="preserve">8.83781719207764</t>
@@ -293,28 +293,28 @@
     <t xml:space="preserve">8.84059429168701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81745624542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56663990020752</t>
+    <t xml:space="preserve">8.81745529174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5666389465332</t>
   </si>
   <si>
     <t xml:space="preserve">8.66104221343994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76377487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63883018493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45280075073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40096950531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62217235565186</t>
+    <t xml:space="preserve">8.76377582550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63882923126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45279979705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40097045898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62217044830322</t>
   </si>
   <si>
     <t xml:space="preserve">8.78228569030762</t>
@@ -326,22 +326,22 @@
     <t xml:space="preserve">8.09924983978271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1446008682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24733257293701</t>
+    <t xml:space="preserve">8.14460182189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24733448028564</t>
   </si>
   <si>
     <t xml:space="preserve">8.61013889312744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39449119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57034015655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98497486114502</t>
+    <t xml:space="preserve">8.39449214935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57034111022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9849739074707</t>
   </si>
   <si>
     <t xml:space="preserve">9.10344123840332</t>
@@ -356,28 +356,28 @@
     <t xml:space="preserve">9.21820735931396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91278553009033</t>
+    <t xml:space="preserve">8.91278457641602</t>
   </si>
   <si>
     <t xml:space="preserve">9.14416408538818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91926383972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3639497756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29268455505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32970523834229</t>
+    <t xml:space="preserve">8.91926288604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36394786834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29268360137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32970428466797</t>
   </si>
   <si>
     <t xml:space="preserve">8.39726829528809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25936508178711</t>
+    <t xml:space="preserve">8.25936603546143</t>
   </si>
   <si>
     <t xml:space="preserve">8.46390533447266</t>
@@ -389,46 +389,46 @@
     <t xml:space="preserve">8.35747051239014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56108474731445</t>
+    <t xml:space="preserve">8.56108570098877</t>
   </si>
   <si>
     <t xml:space="preserve">8.49629878997803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28342914581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41392803192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27972602844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21123886108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45928001403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48704433441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54442691802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77210426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83411407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78320980072021</t>
+    <t xml:space="preserve">8.28342819213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41392612457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27972507476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2112398147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45927906036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48704528808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54442596435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77210521697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83411598205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78321075439453</t>
   </si>
   <si>
     <t xml:space="preserve">9.165452003479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13028049468994</t>
+    <t xml:space="preserve">9.13028240203857</t>
   </si>
   <si>
     <t xml:space="preserve">8.96183681488037</t>
@@ -440,13 +440,13 @@
     <t xml:space="preserve">9.04143142700195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11639881134033</t>
+    <t xml:space="preserve">9.11639976501465</t>
   </si>
   <si>
     <t xml:space="preserve">9.30150318145752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27188777923584</t>
+    <t xml:space="preserve">9.27188682556152</t>
   </si>
   <si>
     <t xml:space="preserve">9.42922496795654</t>
@@ -461,22 +461,22 @@
     <t xml:space="preserve">9.71798896789551</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76426696777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6624584197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71243667602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38665103912354</t>
+    <t xml:space="preserve">9.76426601409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66245746612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71243476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38665294647217</t>
   </si>
   <si>
     <t xml:space="preserve">9.68652153015137</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56065082550049</t>
+    <t xml:space="preserve">9.56064987182617</t>
   </si>
   <si>
     <t xml:space="preserve">9.57916069030762</t>
@@ -488,34 +488,34 @@
     <t xml:space="preserve">9.53103256225586</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39775848388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19414329528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32926940917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21265411376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12565422058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00533580780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43799114227295</t>
+    <t xml:space="preserve">9.3977575302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1941442489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.329270362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21265316009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12565326690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00533676147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43799209594727</t>
   </si>
   <si>
     <t xml:space="preserve">8.82300758361816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07104778289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25522804260254</t>
+    <t xml:space="preserve">9.07104873657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25522708892822</t>
   </si>
   <si>
     <t xml:space="preserve">9.03310203552246</t>
@@ -527,22 +527,22 @@
     <t xml:space="preserve">9.51437282562256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45884132385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81054019927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53288459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60692596435547</t>
+    <t xml:space="preserve">9.45884323120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8105411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.532883644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60692691802979</t>
   </si>
   <si>
     <t xml:space="preserve">9.82905197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75500965118408</t>
+    <t xml:space="preserve">9.7550106048584</t>
   </si>
   <si>
     <t xml:space="preserve">9.97713470458984</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">10.1252183914185</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8660717010498</t>
+    <t xml:space="preserve">9.86607265472412</t>
   </si>
   <si>
     <t xml:space="preserve">9.99564743041992</t>
@@ -566,16 +566,16 @@
     <t xml:space="preserve">10.0141572952271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1437282562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1807498931885</t>
+    <t xml:space="preserve">10.1437301635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1807508468628</t>
   </si>
   <si>
     <t xml:space="preserve">9.73650074005127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84756278991699</t>
+    <t xml:space="preserve">9.84756183624268</t>
   </si>
   <si>
     <t xml:space="preserve">9.9030933380127</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">10.0881977081299</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1992607116699</t>
+    <t xml:space="preserve">10.1992616653442</t>
   </si>
   <si>
     <t xml:space="preserve">10.5879812240601</t>
@@ -608,31 +608,31 @@
     <t xml:space="preserve">10.6805334091187</t>
   </si>
   <si>
-    <t xml:space="preserve">10.73606300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8101072311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4954271316528</t>
+    <t xml:space="preserve">10.7360639572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8101062774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4954280853271</t>
   </si>
   <si>
     <t xml:space="preserve">10.5509605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139379501343</t>
+    <t xml:space="preserve">10.5139389038086</t>
   </si>
   <si>
     <t xml:space="preserve">10.4028749465942</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0511789321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92160415649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2551307678223</t>
+    <t xml:space="preserve">10.0511779785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92160511016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2551298141479</t>
   </si>
   <si>
     <t xml:space="preserve">10.0122947692871</t>
@@ -653,25 +653,25 @@
     <t xml:space="preserve">10.2738094329834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2924890518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1617317199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97493457794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1243724822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80681896209717</t>
+    <t xml:space="preserve">10.2924900054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.161732673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97493553161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1243715286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80681800842285</t>
   </si>
   <si>
     <t xml:space="preserve">9.93757629394531</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2364492416382</t>
+    <t xml:space="preserve">10.2364501953125</t>
   </si>
   <si>
     <t xml:space="preserve">10.6287231445312</t>
@@ -683,25 +683,25 @@
     <t xml:space="preserve">10.4979648590088</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4606065750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4419279098511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9002161026001</t>
+    <t xml:space="preserve">10.4606075286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4419269561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90021705627441</t>
   </si>
   <si>
     <t xml:space="preserve">10.3858880996704</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1056938171387</t>
+    <t xml:space="preserve">10.1056928634644</t>
   </si>
   <si>
     <t xml:space="preserve">9.88153743743896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1430540084839</t>
+    <t xml:space="preserve">10.1430530548096</t>
   </si>
   <si>
     <t xml:space="preserve">10.1804113388062</t>
@@ -716,46 +716,46 @@
     <t xml:space="preserve">10.9275979995728</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5540046691895</t>
+    <t xml:space="preserve">10.5540037155151</t>
   </si>
   <si>
     <t xml:space="preserve">12.1417751312256</t>
   </si>
   <si>
-    <t xml:space="preserve">11.245153427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6934652328491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4879884719849</t>
+    <t xml:space="preserve">11.2451524734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6934642791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4879875183105</t>
   </si>
   <si>
     <t xml:space="preserve">11.6187448501587</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7121429443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6000671386719</t>
+    <t xml:space="preserve">11.7121419906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6000661849976</t>
   </si>
   <si>
     <t xml:space="preserve">12.0483779907227</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2351741790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3285732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5340480804443</t>
+    <t xml:space="preserve">12.2351732254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3285713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.53404712677</t>
   </si>
   <si>
     <t xml:space="preserve">12.6834850311279</t>
   </si>
   <si>
-    <t xml:space="preserve">12.272533416748</t>
+    <t xml:space="preserve">12.2725324630737</t>
   </si>
   <si>
     <t xml:space="preserve">11.6561050415039</t>
@@ -770,19 +770,19 @@
     <t xml:space="preserve">11.5627059936523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0110177993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1978149414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2538528442383</t>
+    <t xml:space="preserve">12.0110168457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1978139877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.253851890564</t>
   </si>
   <si>
     <t xml:space="preserve">12.3098926544189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6087684631348</t>
+    <t xml:space="preserve">12.6087675094604</t>
   </si>
   <si>
     <t xml:space="preserve">12.7768831253052</t>
@@ -800,10 +800,10 @@
     <t xml:space="preserve">13.5987882614136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5614290237427</t>
+    <t xml:space="preserve">14.1591787338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5614280700684</t>
   </si>
   <si>
     <t xml:space="preserve">13.2999143600464</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">12.3846111297607</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4966897964478</t>
+    <t xml:space="preserve">12.4966888427734</t>
   </si>
   <si>
     <t xml:space="preserve">12.2912130355835</t>
@@ -839,13 +839,13 @@
     <t xml:space="preserve">13.5053901672363</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2625560760498</t>
+    <t xml:space="preserve">13.2625551223755</t>
   </si>
   <si>
     <t xml:space="preserve">12.9450006484985</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7955636978149</t>
+    <t xml:space="preserve">12.7955627441406</t>
   </si>
   <si>
     <t xml:space="preserve">12.646125793457</t>
@@ -863,13 +863,13 @@
     <t xml:space="preserve">12.9823598861694</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1878385543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1691570281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4306716918945</t>
+    <t xml:space="preserve">13.187837600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1691560745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4306707382202</t>
   </si>
   <si>
     <t xml:space="preserve">13.1504764556885</t>
@@ -878,34 +878,34 @@
     <t xml:space="preserve">12.7395248413086</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4032907485962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5527286529541</t>
+    <t xml:space="preserve">12.4032897949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5527267456055</t>
   </si>
   <si>
     <t xml:space="preserve">12.5153684616089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.93630027771</t>
+    <t xml:space="preserve">11.9362983703613</t>
   </si>
   <si>
     <t xml:space="preserve">11.8615808486938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3759107589722</t>
+    <t xml:space="preserve">11.3759098052979</t>
   </si>
   <si>
     <t xml:space="preserve">11.0957136154175</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1704339981079</t>
+    <t xml:space="preserve">11.1704330444336</t>
   </si>
   <si>
     <t xml:space="preserve">11.1143941879272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8341989517212</t>
+    <t xml:space="preserve">10.8341979980469</t>
   </si>
   <si>
     <t xml:space="preserve">11.3945894241333</t>
@@ -914,19 +914,19 @@
     <t xml:space="preserve">11.2077932357788</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3572301864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3011922836304</t>
+    <t xml:space="preserve">11.3572292327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3011903762817</t>
   </si>
   <si>
     <t xml:space="preserve">11.4506273269653</t>
   </si>
   <si>
-    <t xml:space="preserve">11.189112663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48926448822021</t>
+    <t xml:space="preserve">11.1891117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4892635345459</t>
   </si>
   <si>
     <t xml:space="preserve">9.47058486938477</t>
@@ -941,58 +941,58 @@
     <t xml:space="preserve">8.77943801879883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87283611297607</t>
+    <t xml:space="preserve">8.87283515930176</t>
   </si>
   <si>
     <t xml:space="preserve">8.2657470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30310726165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25640773773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59264183044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49924373626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71342086791992</t>
+    <t xml:space="preserve">8.3031063079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25640678405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59264087677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49924278259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71341991424561</t>
   </si>
   <si>
     <t xml:space="preserve">10.7968406677246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84417724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.367208480835</t>
+    <t xml:space="preserve">9.84417915344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3672094345093</t>
   </si>
   <si>
     <t xml:space="preserve">10.3111696243286</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7881383895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0870151519775</t>
+    <t xml:space="preserve">9.78813743591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0870141983032</t>
   </si>
   <si>
     <t xml:space="preserve">10.7781610488892</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7681837081909</t>
+    <t xml:space="preserve">11.7681827545166</t>
   </si>
   <si>
     <t xml:space="preserve">11.9549789428711</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5714082717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7021646499634</t>
+    <t xml:space="preserve">12.5714073181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7021636962891</t>
   </si>
   <si>
     <t xml:space="preserve">11.8429012298584</t>
@@ -1001,28 +1001,28 @@
     <t xml:space="preserve">13.8229446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5801076889038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7482252120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9997625350952</t>
+    <t xml:space="preserve">13.5801086425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7482261657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9997634887695</t>
   </si>
   <si>
     <t xml:space="preserve">15.1492004394531</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0371217727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3459758758545</t>
+    <t xml:space="preserve">15.0371227264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3459749221802</t>
   </si>
   <si>
     <t xml:space="preserve">15.392035484314</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590278625488</t>
+    <t xml:space="preserve">15.8590269088745</t>
   </si>
   <si>
     <t xml:space="preserve">16.0831832885742</t>
@@ -1031,16 +1031,16 @@
     <t xml:space="preserve">15.5041131973267</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0558013916016</t>
+    <t xml:space="preserve">15.0558023452759</t>
   </si>
   <si>
     <t xml:space="preserve">14.7195682525635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5701313018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1404991149902</t>
+    <t xml:space="preserve">14.5701322555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1405000686646</t>
   </si>
   <si>
     <t xml:space="preserve">14.2338972091675</t>
@@ -1061,19 +1061,19 @@
     <t xml:space="preserve">14.4206943511963</t>
   </si>
   <si>
-    <t xml:space="preserve">14.812967300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0931615829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6603145599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9049663543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9990634918213</t>
+    <t xml:space="preserve">14.8129663467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0931606292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603136062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9049654006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9990644454956</t>
   </si>
   <si>
     <t xml:space="preserve">14.8861474990845</t>
@@ -1085,19 +1085,19 @@
     <t xml:space="preserve">15.375452041626</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3378133773804</t>
+    <t xml:space="preserve">15.3378143310547</t>
   </si>
   <si>
     <t xml:space="preserve">15.5260076522827</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4319095611572</t>
+    <t xml:space="preserve">15.4319105148315</t>
   </si>
   <si>
     <t xml:space="preserve">15.1119804382324</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7167730331421</t>
+    <t xml:space="preserve">14.7167739868164</t>
   </si>
   <si>
     <t xml:space="preserve">15.1872577667236</t>
@@ -1106,22 +1106,22 @@
     <t xml:space="preserve">15.0178833007812</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7544116973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2437162399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0367031097412</t>
+    <t xml:space="preserve">14.754412651062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2437171936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0367021560669</t>
   </si>
   <si>
     <t xml:space="preserve">15.1308002471924</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5071887969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0555229187012</t>
+    <t xml:space="preserve">15.5071878433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0555219650269</t>
   </si>
   <si>
     <t xml:space="preserve">14.5850372314453</t>
@@ -1130,28 +1130,28 @@
     <t xml:space="preserve">15.6765613555908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2787837982178</t>
+    <t xml:space="preserve">16.2787818908691</t>
   </si>
   <si>
     <t xml:space="preserve">17.0880184173584</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8031558990479</t>
+    <t xml:space="preserve">17.8031578063965</t>
   </si>
   <si>
     <t xml:space="preserve">16.8433647155762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9939193725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5585041046143</t>
+    <t xml:space="preserve">16.9939212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5585021972656</t>
   </si>
   <si>
     <t xml:space="preserve">17.5396842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5208644866943</t>
+    <t xml:space="preserve">17.5208625793457</t>
   </si>
   <si>
     <t xml:space="preserve">17.916072845459</t>
@@ -1160,46 +1160,46 @@
     <t xml:space="preserve">18.1419048309326</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0101699829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4053745269775</t>
+    <t xml:space="preserve">18.0101661682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4053764343262</t>
   </si>
   <si>
     <t xml:space="preserve">18.4430160522461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7843341827393</t>
+    <t xml:space="preserve">17.7843360900879</t>
   </si>
   <si>
     <t xml:space="preserve">17.6525993347168</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1230869293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8194046020508</t>
+    <t xml:space="preserve">18.1230850219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8194026947021</t>
   </si>
   <si>
     <t xml:space="preserve">19.2898864746094</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4618358612061</t>
+    <t xml:space="preserve">18.4618339538574</t>
   </si>
   <si>
     <t xml:space="preserve">18.3489151000977</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1607227325439</t>
+    <t xml:space="preserve">18.1607265472412</t>
   </si>
   <si>
     <t xml:space="preserve">17.5020446777344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0854473114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5961418151855</t>
+    <t xml:space="preserve">18.0854454040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5961437225342</t>
   </si>
   <si>
     <t xml:space="preserve">17.9348907470703</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">16.7869071960449</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9400329589844</t>
+    <t xml:space="preserve">15.940034866333</t>
   </si>
   <si>
     <t xml:space="preserve">16.5798931121826</t>
@@ -1220,31 +1220,31 @@
     <t xml:space="preserve">16.0717697143555</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4883680343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8835754394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6551704406738</t>
+    <t xml:space="preserve">15.4883670806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8835744857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6551723480225</t>
   </si>
   <si>
     <t xml:space="preserve">16.7116317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4105167388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5422534942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3917026519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9751014709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8245468139648</t>
+    <t xml:space="preserve">16.4105186462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.54225730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3916988372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9750995635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8245449066162</t>
   </si>
   <si>
     <t xml:space="preserve">16.4481582641602</t>
@@ -1253,10 +1253,10 @@
     <t xml:space="preserve">16.6175308227539</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4857978820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4669761657715</t>
+    <t xml:space="preserve">16.4857959747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4669780731201</t>
   </si>
   <si>
     <t xml:space="preserve">16.8057270050049</t>
@@ -1271,19 +1271,19 @@
     <t xml:space="preserve">16.8810062408447</t>
   </si>
   <si>
-    <t xml:space="preserve">16.937463760376</t>
+    <t xml:space="preserve">16.9374618530273</t>
   </si>
   <si>
     <t xml:space="preserve">16.9186420440674</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9023962020874</t>
+    <t xml:space="preserve">15.9023952484131</t>
   </si>
   <si>
     <t xml:space="preserve">15.5448274612427</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0743427276611</t>
+    <t xml:space="preserve">15.0743417739868</t>
   </si>
   <si>
     <t xml:space="preserve">14.7920503616333</t>
@@ -1292,61 +1292,61 @@
     <t xml:space="preserve">14.6414947509766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4455871582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6363506317139</t>
+    <t xml:space="preserve">17.4455890655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6363525390625</t>
   </si>
   <si>
     <t xml:space="preserve">15.7330198287964</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9964904785156</t>
+    <t xml:space="preserve">15.9964914321899</t>
   </si>
   <si>
     <t xml:space="preserve">16.354061126709</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5987110137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9562835693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5610752105713</t>
+    <t xml:space="preserve">16.5987129211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9562816619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5610733032227</t>
   </si>
   <si>
     <t xml:space="preserve">17.0691986083984</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2009334564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7680912017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0315570831299</t>
+    <t xml:space="preserve">17.2009353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7680892944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0315608978271</t>
   </si>
   <si>
     <t xml:space="preserve">17.0127410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0289878845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2171821594238</t>
+    <t xml:space="preserve">18.0289897918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2171802520752</t>
   </si>
   <si>
     <t xml:space="preserve">18.6688480377197</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0478076934814</t>
+    <t xml:space="preserve">18.0478057861328</t>
   </si>
   <si>
     <t xml:space="preserve">18.1795425415039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.692813873291</t>
+    <t xml:space="preserve">16.6928100585938</t>
   </si>
   <si>
     <t xml:space="preserve">16.8621845245361</t>
@@ -1358,16 +1358,16 @@
     <t xml:space="preserve">16.4293384552002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1444778442383</t>
+    <t xml:space="preserve">17.1444759368896</t>
   </si>
   <si>
     <t xml:space="preserve">16.1846885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">15.95885181427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8647575378418</t>
+    <t xml:space="preserve">15.9588537216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8647565841675</t>
   </si>
   <si>
     <t xml:space="preserve">15.7142009735107</t>
@@ -1385,64 +1385,64 @@
     <t xml:space="preserve">15.4695482254028</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6226758956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2651071548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.96142578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6201028823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.751838684082</t>
+    <t xml:space="preserve">14.6226749420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2651081085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9614267349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6201047897339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7518396377563</t>
   </si>
   <si>
     <t xml:space="preserve">15.7894773483276</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6389236450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8271169662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.582465171814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.563645362854</t>
+    <t xml:space="preserve">15.6389245986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8271198272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5824661254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5636463165283</t>
   </si>
   <si>
     <t xml:space="preserve">15.7706594467163</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9776735305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.335241317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2197532653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2573947906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0666275024414</t>
+    <t xml:space="preserve">15.9776744842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3352432250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2197551727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2573928833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.06662940979</t>
   </si>
   <si>
     <t xml:space="preserve">17.7090587615967</t>
   </si>
   <si>
-    <t xml:space="preserve">17.897253036499</t>
+    <t xml:space="preserve">17.8972511291504</t>
   </si>
   <si>
     <t xml:space="preserve">18.2548198699951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7655143737793</t>
+    <t xml:space="preserve">17.7655162811279</t>
   </si>
   <si>
     <t xml:space="preserve">18.6123905181885</t>
@@ -1457,10 +1457,10 @@
     <t xml:space="preserve">17.6902370452881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7278747558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8784332275391</t>
+    <t xml:space="preserve">17.727876663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8784313201904</t>
   </si>
   <si>
     <t xml:space="preserve">19.854471206665</t>
@@ -1481,13 +1481,13 @@
     <t xml:space="preserve">20.701343536377</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6072444915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4190521240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.277904510498</t>
+    <t xml:space="preserve">20.6072463989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4190540313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2779064178467</t>
   </si>
   <si>
     <t xml:space="preserve">20.0897121429443</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">21.3600215911865</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7364101409912</t>
+    <t xml:space="preserve">21.7364120483398</t>
   </si>
   <si>
     <t xml:space="preserve">22.1128005981445</t>
@@ -1514,19 +1514,19 @@
     <t xml:space="preserve">21.4541206359863</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9836330413818</t>
+    <t xml:space="preserve">20.9836349487305</t>
   </si>
   <si>
     <t xml:space="preserve">20.2308597564697</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9015197753906</t>
+    <t xml:space="preserve">19.901517868042</t>
   </si>
   <si>
     <t xml:space="preserve">19.6192264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3369388580322</t>
+    <t xml:space="preserve">19.336935043335</t>
   </si>
   <si>
     <t xml:space="preserve">19.8764400482178</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">20.1130638122559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9237613677979</t>
+    <t xml:space="preserve">19.9237651824951</t>
   </si>
   <si>
     <t xml:space="preserve">19.5924911499023</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">19.687141418457</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6398162841797</t>
+    <t xml:space="preserve">19.6398143768311</t>
   </si>
   <si>
     <t xml:space="preserve">19.8291149139404</t>
@@ -1553,22 +1553,22 @@
     <t xml:space="preserve">19.1665668487549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9772663116455</t>
+    <t xml:space="preserve">18.9772682189941</t>
   </si>
   <si>
     <t xml:space="preserve">19.3085422515869</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2138919830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0719184875488</t>
+    <t xml:space="preserve">19.2138900756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0719203948975</t>
   </si>
   <si>
     <t xml:space="preserve">19.7817897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1192417144775</t>
+    <t xml:space="preserve">19.1192436218262</t>
   </si>
   <si>
     <t xml:space="preserve">20.3023624420166</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">18.9110126495361</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6459941864014</t>
+    <t xml:space="preserve">18.6459922790527</t>
   </si>
   <si>
     <t xml:space="preserve">18.9299430847168</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">18.7785034179688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2077140808105</t>
+    <t xml:space="preserve">20.2077121734619</t>
   </si>
   <si>
     <t xml:space="preserve">20.5389881134033</t>
@@ -1616,22 +1616,22 @@
     <t xml:space="preserve">22.2426834106445</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6212825775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1418552398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3784770965576</t>
+    <t xml:space="preserve">22.621280670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1418571472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3784790039062</t>
   </si>
   <si>
     <t xml:space="preserve">23.6624298095703</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3311557769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2365016937256</t>
+    <t xml:space="preserve">23.3311538696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2365036010742</t>
   </si>
   <si>
     <t xml:space="preserve">23.7570781707764</t>
@@ -1643,13 +1643,13 @@
     <t xml:space="preserve">23.9463768005371</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8990516662598</t>
+    <t xml:space="preserve">23.8990535736084</t>
   </si>
   <si>
     <t xml:space="preserve">23.1891803741455</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9998817443848</t>
+    <t xml:space="preserve">22.9998798370361</t>
   </si>
   <si>
     <t xml:space="preserve">23.0472049713135</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">23.709753036499</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0945281982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4258041381836</t>
+    <t xml:space="preserve">23.0945301055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.425802230835</t>
   </si>
   <si>
     <t xml:space="preserve">23.615104675293</t>
@@ -1670,13 +1670,13 @@
     <t xml:space="preserve">24.0410270690918</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9114074707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8640842437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2900066375732</t>
+    <t xml:space="preserve">21.9114093780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.864086151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2900085449219</t>
   </si>
   <si>
     <t xml:space="preserve">22.1007099151611</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">21.2961864471436</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0595607757568</t>
+    <t xml:space="preserve">21.0595626831055</t>
   </si>
   <si>
     <t xml:space="preserve">21.1068859100342</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">20.9175853729248</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7282867431641</t>
+    <t xml:space="preserve">20.7282886505127</t>
   </si>
   <si>
     <t xml:space="preserve">21.3908348083496</t>
@@ -1706,10 +1706,10 @@
     <t xml:space="preserve">22.0060577392578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9875259399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8455505371094</t>
+    <t xml:space="preserve">24.9875221252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8455486297607</t>
   </si>
   <si>
     <t xml:space="preserve">25.1768226623535</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">24.6089248657227</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5615997314453</t>
+    <t xml:space="preserve">24.5616016387939</t>
   </si>
   <si>
     <t xml:space="preserve">23.567777633667</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">23.8044013977051</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3249778747559</t>
+    <t xml:space="preserve">24.3249759674072</t>
   </si>
   <si>
     <t xml:space="preserve">23.9937038421631</t>
@@ -1742,82 +1742,82 @@
     <t xml:space="preserve">24.65625</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7447204589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.602746963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8393726348877</t>
+    <t xml:space="preserve">25.744722366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6027488708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8393707275391</t>
   </si>
   <si>
     <t xml:space="preserve">25.5554237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4607715606689</t>
+    <t xml:space="preserve">25.4607734680176</t>
   </si>
   <si>
     <t xml:space="preserve">23.4731273651123</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7159290313721</t>
+    <t xml:space="preserve">22.7159309387207</t>
   </si>
   <si>
     <t xml:space="preserve">22.4319820404053</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2838306427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4196262359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8928737640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7035751342773</t>
+    <t xml:space="preserve">23.2838325500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4196243286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8928775787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.703577041626</t>
   </si>
   <si>
     <t xml:space="preserve">24.9401988983154</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0883522033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1830043792725</t>
+    <t xml:space="preserve">24.0883541107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1830005645752</t>
   </si>
   <si>
     <t xml:space="preserve">25.0348491668701</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7982234954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3661212921143</t>
+    <t xml:space="preserve">24.798225402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3661231994629</t>
   </si>
   <si>
     <t xml:space="preserve">25.3187980651855</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6747856140137</t>
+    <t xml:space="preserve">21.674783706665</t>
   </si>
   <si>
     <t xml:space="preserve">21.3435115814209</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5801334381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.586311340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9587345123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0122394561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4854831695557</t>
+    <t xml:space="preserve">21.580135345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5863132476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9587326049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0122356414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4854850769043</t>
   </si>
   <si>
     <t xml:space="preserve">21.7694339752197</t>
@@ -1829,10 +1829,10 @@
     <t xml:space="preserve">20.3970127105713</t>
   </si>
   <si>
-    <t xml:space="preserve">20.491662979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3558673858643</t>
+    <t xml:space="preserve">20.4916648864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3558654785156</t>
   </si>
   <si>
     <t xml:space="preserve">18.7027816772461</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">20.0184154510498</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8229370117188</t>
+    <t xml:space="preserve">20.8229389190674</t>
   </si>
   <si>
     <t xml:space="preserve">19.4978408813477</t>
@@ -1862,31 +1862,31 @@
     <t xml:space="preserve">18.4377632141113</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3241863250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7974319458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0657367706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8167591094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1480312347412</t>
+    <t xml:space="preserve">18.3241844177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7974338531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0657386779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8167572021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1480331420898</t>
   </si>
   <si>
     <t xml:space="preserve">22.4793071746826</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6274585723877</t>
+    <t xml:space="preserve">21.6274604797363</t>
   </si>
   <si>
     <t xml:space="preserve">20.6336364746094</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4443397521973</t>
+    <t xml:space="preserve">20.4443378448486</t>
   </si>
   <si>
     <t xml:space="preserve">20.1603889465332</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">18.8731536865234</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8352909088135</t>
+    <t xml:space="preserve">18.8352928161621</t>
   </si>
   <si>
     <t xml:space="preserve">22.0533809661865</t>
@@ -1907,19 +1907,19 @@
     <t xml:space="preserve">20.6809616088867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.456693649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0970249176025</t>
+    <t xml:space="preserve">18.4566917419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0970230102539</t>
   </si>
   <si>
     <t xml:space="preserve">18.0213069915771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3398246765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3208980560303</t>
+    <t xml:space="preserve">17.3398284912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3208999633789</t>
   </si>
   <si>
     <t xml:space="preserve">16.8914566040039</t>
@@ -2159,9 +2159,6 @@
     <t xml:space="preserve">23.5716915130615</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0945301055908</t>
-  </si>
-  <si>
     <t xml:space="preserve">23.8579883575439</t>
   </si>
   <si>
@@ -2895,6 +2892,9 @@
   </si>
   <si>
     <t xml:space="preserve">17.0599994659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7999992370605</t>
   </si>
 </sst>
 </file>
@@ -32686,7 +32686,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1133" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32738,7 +32738,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1135" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32790,7 +32790,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1137" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32842,7 +32842,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1139" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32894,7 +32894,7 @@
         <v>23.4497299194336</v>
       </c>
       <c r="G1141" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32920,7 +32920,7 @@
         <v>23.3526306152344</v>
       </c>
       <c r="G1142" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32946,7 +32946,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1143" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32972,7 +32972,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1144" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32998,7 +32998,7 @@
         <v>22.7214775085449</v>
       </c>
       <c r="G1145" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -33024,7 +33024,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1146" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -33050,7 +33050,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1147" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -33076,7 +33076,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1148" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33102,7 +33102,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G1149" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33154,7 +33154,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1151" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33180,7 +33180,7 @@
         <v>23.7410316467285</v>
       </c>
       <c r="G1152" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33206,7 +33206,7 @@
         <v>22.9642276763916</v>
       </c>
       <c r="G1153" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33232,7 +33232,7 @@
         <v>22.5272769927979</v>
       </c>
       <c r="G1154" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33258,7 +33258,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1155" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33284,7 +33284,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1156" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33362,7 +33362,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1159" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33466,7 +33466,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1163" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33492,7 +33492,7 @@
         <v>22.2845268249512</v>
       </c>
       <c r="G1164" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33518,7 +33518,7 @@
         <v>22.1388759613037</v>
       </c>
       <c r="G1165" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33544,7 +33544,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1166" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33596,7 +33596,7 @@
         <v>22.2359752655029</v>
       </c>
       <c r="G1168" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33622,7 +33622,7 @@
         <v>22.0903244018555</v>
       </c>
       <c r="G1169" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33648,7 +33648,7 @@
         <v>21.896125793457</v>
       </c>
       <c r="G1170" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33674,7 +33674,7 @@
         <v>22.2845268249512</v>
       </c>
       <c r="G1171" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33700,7 +33700,7 @@
         <v>22.4787273406982</v>
       </c>
       <c r="G1172" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33726,7 +33726,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1173" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33752,7 +33752,7 @@
         <v>22.9642276763916</v>
       </c>
       <c r="G1174" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33778,7 +33778,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1175" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33830,7 +33830,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1177" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33856,7 +33856,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1178" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33934,7 +33934,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1181" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33960,7 +33960,7 @@
         <v>22.4787273406982</v>
       </c>
       <c r="G1182" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33986,7 +33986,7 @@
         <v>22.0417747497559</v>
       </c>
       <c r="G1183" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34038,7 +34038,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G1185" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -34090,7 +34090,7 @@
         <v>25.2946357727051</v>
       </c>
       <c r="G1187" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34116,7 +34116,7 @@
         <v>24.5663833618164</v>
       </c>
       <c r="G1188" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34168,7 +34168,7 @@
         <v>24.8576850891113</v>
       </c>
       <c r="G1190" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34194,7 +34194,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1191" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34220,7 +34220,7 @@
         <v>25.9257888793945</v>
       </c>
       <c r="G1192" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34246,7 +34246,7 @@
         <v>25.5373878479004</v>
       </c>
       <c r="G1193" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34272,7 +34272,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1194" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34298,7 +34298,7 @@
         <v>25.3431873321533</v>
       </c>
       <c r="G1195" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34324,7 +34324,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1196" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34376,7 +34376,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G1198" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34402,7 +34402,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G1199" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34428,7 +34428,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1200" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34454,7 +34454,7 @@
         <v>26.3627395629883</v>
       </c>
       <c r="G1201" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34480,7 +34480,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G1202" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34506,7 +34506,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1203" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34532,7 +34532,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G1204" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34558,7 +34558,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G1205" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34584,7 +34584,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1206" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34610,7 +34610,7 @@
         <v>25.9257888793945</v>
       </c>
       <c r="G1207" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34636,7 +34636,7 @@
         <v>26.1685390472412</v>
       </c>
       <c r="G1208" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34662,7 +34662,7 @@
         <v>26.4112892150879</v>
       </c>
       <c r="G1209" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34688,7 +34688,7 @@
         <v>25.9743385314941</v>
       </c>
       <c r="G1210" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34714,7 +34714,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1211" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34740,7 +34740,7 @@
         <v>24.1779823303223</v>
       </c>
       <c r="G1212" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34766,7 +34766,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1213" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34818,7 +34818,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1215" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34844,7 +34844,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1216" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34870,7 +34870,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G1217" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34896,7 +34896,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G1218" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34922,7 +34922,7 @@
         <v>23.5468292236328</v>
       </c>
       <c r="G1219" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34948,7 +34948,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1220" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34974,7 +34974,7 @@
         <v>23.5468292236328</v>
       </c>
       <c r="G1221" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35000,7 +35000,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1222" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -35026,7 +35026,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G1223" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -35052,7 +35052,7 @@
         <v>24.2265338897705</v>
       </c>
       <c r="G1224" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -35078,7 +35078,7 @@
         <v>24.6149349212646</v>
       </c>
       <c r="G1225" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -35104,7 +35104,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1226" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35130,7 +35130,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1227" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35156,7 +35156,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1228" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35182,7 +35182,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G1229" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35208,7 +35208,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1230" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35234,7 +35234,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1231" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35260,7 +35260,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1232" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35286,7 +35286,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G1233" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35312,7 +35312,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1234" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35338,7 +35338,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1235" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35416,7 +35416,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1238" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35468,7 +35468,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1240" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35520,7 +35520,7 @@
         <v>21.8475742340088</v>
       </c>
       <c r="G1242" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35546,7 +35546,7 @@
         <v>23.2069797515869</v>
       </c>
       <c r="G1243" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35572,7 +35572,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1244" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35598,7 +35598,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1245" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35624,7 +35624,7 @@
         <v>22.915678024292</v>
       </c>
       <c r="G1246" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35676,7 +35676,7 @@
         <v>23.2069797515869</v>
       </c>
       <c r="G1248" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35728,7 +35728,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1250" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35754,7 +35754,7 @@
         <v>24.2265338897705</v>
       </c>
       <c r="G1251" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35780,7 +35780,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1252" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35806,7 +35806,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1253" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35832,7 +35832,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G1254" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35858,7 +35858,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1255" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35884,7 +35884,7 @@
         <v>23.5468292236328</v>
       </c>
       <c r="G1256" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35910,7 +35910,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G1257" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35936,7 +35936,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1258" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35962,7 +35962,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1259" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -36040,7 +36040,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1262" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -36066,7 +36066,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1263" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -36092,7 +36092,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1264" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -36118,7 +36118,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1265" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36144,7 +36144,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G1266" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36170,7 +36170,7 @@
         <v>25.6830387115479</v>
       </c>
       <c r="G1267" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36196,7 +36196,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1268" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36222,7 +36222,7 @@
         <v>27.1395435333252</v>
       </c>
       <c r="G1269" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36248,7 +36248,7 @@
         <v>27.0424423217773</v>
       </c>
       <c r="G1270" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36274,7 +36274,7 @@
         <v>27.285192489624</v>
       </c>
       <c r="G1271" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36300,7 +36300,7 @@
         <v>26.8482418060303</v>
       </c>
       <c r="G1272" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36326,7 +36326,7 @@
         <v>26.4598407745361</v>
       </c>
       <c r="G1273" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36352,7 +36352,7 @@
         <v>27.0424423217773</v>
       </c>
       <c r="G1274" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36378,7 +36378,7 @@
         <v>27.1880931854248</v>
       </c>
       <c r="G1275" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36404,7 +36404,7 @@
         <v>27.1880931854248</v>
       </c>
       <c r="G1276" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36430,7 +36430,7 @@
         <v>27.1880931854248</v>
       </c>
       <c r="G1277" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36456,7 +36456,7 @@
         <v>27.3337421417236</v>
       </c>
       <c r="G1278" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36482,7 +36482,7 @@
         <v>26.7996921539307</v>
       </c>
       <c r="G1279" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36508,7 +36508,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1280" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36534,7 +36534,7 @@
         <v>26.1199893951416</v>
       </c>
       <c r="G1281" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36560,7 +36560,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1282" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36586,7 +36586,7 @@
         <v>26.3141899108887</v>
       </c>
       <c r="G1283" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36612,7 +36612,7 @@
         <v>26.071439743042</v>
       </c>
       <c r="G1284" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36638,7 +36638,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1285" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36664,7 +36664,7 @@
         <v>26.3627395629883</v>
       </c>
       <c r="G1286" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36690,7 +36690,7 @@
         <v>26.5569400787354</v>
       </c>
       <c r="G1287" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36716,7 +36716,7 @@
         <v>26.7996921539307</v>
       </c>
       <c r="G1288" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36742,7 +36742,7 @@
         <v>25.9743385314941</v>
       </c>
       <c r="G1289" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36768,7 +36768,7 @@
         <v>26.6054916381836</v>
       </c>
       <c r="G1290" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36794,7 +36794,7 @@
         <v>26.3627395629883</v>
       </c>
       <c r="G1291" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36820,7 +36820,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G1292" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36846,7 +36846,7 @@
         <v>26.4112892150879</v>
       </c>
       <c r="G1293" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36872,7 +36872,7 @@
         <v>26.1199893951416</v>
       </c>
       <c r="G1294" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36898,7 +36898,7 @@
         <v>26.2656402587891</v>
       </c>
       <c r="G1295" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36924,7 +36924,7 @@
         <v>25.5859375</v>
       </c>
       <c r="G1296" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36950,7 +36950,7 @@
         <v>25.6830387115479</v>
       </c>
       <c r="G1297" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36976,7 +36976,7 @@
         <v>25.7315883636475</v>
       </c>
       <c r="G1298" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -37002,7 +37002,7 @@
         <v>25.4888362884521</v>
       </c>
       <c r="G1299" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -37028,7 +37028,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1300" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -37054,7 +37054,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1301" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -37080,7 +37080,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1302" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -37106,7 +37106,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G1303" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37132,7 +37132,7 @@
         <v>25.1489868164062</v>
       </c>
       <c r="G1304" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37158,7 +37158,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1305" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37184,7 +37184,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G1306" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37210,7 +37210,7 @@
         <v>25.3917369842529</v>
       </c>
       <c r="G1307" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37236,7 +37236,7 @@
         <v>25.1489868164062</v>
       </c>
       <c r="G1308" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37262,7 +37262,7 @@
         <v>25.2946357727051</v>
       </c>
       <c r="G1309" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37288,7 +37288,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G1310" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37314,7 +37314,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1311" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37340,7 +37340,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G1312" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37366,7 +37366,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1313" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37392,7 +37392,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1314" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37418,7 +37418,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G1315" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37444,7 +37444,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1316" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37470,7 +37470,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1317" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37496,7 +37496,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1318" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37522,7 +37522,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1319" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37548,7 +37548,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G1320" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37574,7 +37574,7 @@
         <v>24.7605857849121</v>
       </c>
       <c r="G1321" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37600,7 +37600,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G1322" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37626,7 +37626,7 @@
         <v>24.5178337097168</v>
       </c>
       <c r="G1323" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37652,7 +37652,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G1324" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37678,7 +37678,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1325" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37704,7 +37704,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1326" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37730,7 +37730,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1327" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37756,7 +37756,7 @@
         <v>24.8576850891113</v>
       </c>
       <c r="G1328" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37782,7 +37782,7 @@
         <v>24.8576850891113</v>
       </c>
       <c r="G1329" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37808,7 +37808,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G1330" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37834,7 +37834,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G1331" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37860,7 +37860,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1332" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37886,7 +37886,7 @@
         <v>25.3917369842529</v>
       </c>
       <c r="G1333" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37912,7 +37912,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1334" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37938,7 +37938,7 @@
         <v>25.5859375</v>
       </c>
       <c r="G1335" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37964,7 +37964,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1336" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37990,7 +37990,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G1337" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -38016,7 +38016,7 @@
         <v>23.886682510376</v>
       </c>
       <c r="G1338" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -38042,7 +38042,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G1339" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -38068,7 +38068,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G1340" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -38094,7 +38094,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G1341" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -38120,7 +38120,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1342" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -38146,7 +38146,7 @@
         <v>23.3040790557861</v>
       </c>
       <c r="G1343" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -38172,7 +38172,7 @@
         <v>22.4301776885986</v>
       </c>
       <c r="G1344" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -38198,7 +38198,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1345" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38224,7 +38224,7 @@
         <v>21.5562744140625</v>
       </c>
       <c r="G1346" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -38250,7 +38250,7 @@
         <v>21.4591732025146</v>
       </c>
       <c r="G1347" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38276,7 +38276,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1348" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38302,7 +38302,7 @@
         <v>20.9736728668213</v>
       </c>
       <c r="G1349" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38328,7 +38328,7 @@
         <v>21.7019233703613</v>
       </c>
       <c r="G1350" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38354,7 +38354,7 @@
         <v>21.7019233703613</v>
       </c>
       <c r="G1351" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38380,7 +38380,7 @@
         <v>22.0417747497559</v>
       </c>
       <c r="G1352" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38406,7 +38406,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1353" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38432,7 +38432,7 @@
         <v>21.6533737182617</v>
       </c>
       <c r="G1354" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38458,7 +38458,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1355" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38484,7 +38484,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1356" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38510,7 +38510,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G1357" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38536,7 +38536,7 @@
         <v>20.4396190643311</v>
       </c>
       <c r="G1358" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38562,7 +38562,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1359" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38588,7 +38588,7 @@
         <v>21.5077228546143</v>
       </c>
       <c r="G1360" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38614,7 +38614,7 @@
         <v>21.7019233703613</v>
       </c>
       <c r="G1361" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38640,7 +38640,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G1362" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38666,7 +38666,7 @@
         <v>21.0222225189209</v>
       </c>
       <c r="G1363" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38692,7 +38692,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1364" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38718,7 +38718,7 @@
         <v>19.2841262817383</v>
       </c>
       <c r="G1365" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38744,7 +38744,7 @@
         <v>19.759916305542</v>
       </c>
       <c r="G1366" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38770,7 +38770,7 @@
         <v>18.9734058380127</v>
       </c>
       <c r="G1367" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38796,7 +38796,7 @@
         <v>18.8763046264648</v>
       </c>
       <c r="G1368" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38822,7 +38822,7 @@
         <v>18.8568840026855</v>
       </c>
       <c r="G1369" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38848,7 +38848,7 @@
         <v>18.3713836669922</v>
       </c>
       <c r="G1370" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38874,7 +38874,7 @@
         <v>18.0800819396973</v>
       </c>
       <c r="G1371" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38900,7 +38900,7 @@
         <v>18.0218200683594</v>
       </c>
       <c r="G1372" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38926,7 +38926,7 @@
         <v>18.1966018676758</v>
       </c>
       <c r="G1373" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -38952,7 +38952,7 @@
         <v>19.1093444824219</v>
       </c>
       <c r="G1374" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -38978,7 +38978,7 @@
         <v>19.1870250701904</v>
       </c>
       <c r="G1375" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -39004,7 +39004,7 @@
         <v>20.2939682006836</v>
       </c>
       <c r="G1376" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -39030,7 +39030,7 @@
         <v>20.5852699279785</v>
       </c>
       <c r="G1377" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -39056,7 +39056,7 @@
         <v>20.1968688964844</v>
       </c>
       <c r="G1378" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -39082,7 +39082,7 @@
         <v>20.8765716552734</v>
       </c>
       <c r="G1379" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -39108,7 +39108,7 @@
         <v>21.1678714752197</v>
       </c>
       <c r="G1380" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -39134,7 +39134,7 @@
         <v>21.6533737182617</v>
       </c>
       <c r="G1381" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39160,7 +39160,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1382" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -39186,7 +39186,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1383" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39212,7 +39212,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1384" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39238,7 +39238,7 @@
         <v>22.1874256134033</v>
       </c>
       <c r="G1385" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -39264,7 +39264,7 @@
         <v>20.9736728668213</v>
       </c>
       <c r="G1386" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39290,7 +39290,7 @@
         <v>21.0222225189209</v>
       </c>
       <c r="G1387" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39316,7 +39316,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1388" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39342,7 +39342,7 @@
         <v>20.25</v>
       </c>
       <c r="G1389" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39368,7 +39368,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1390" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39394,7 +39394,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1391" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39420,7 +39420,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1392" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39446,7 +39446,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1393" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39472,7 +39472,7 @@
         <v>22.5</v>
       </c>
       <c r="G1394" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39498,7 +39498,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1395" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39524,7 +39524,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1396" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39550,7 +39550,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1397" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39576,7 +39576,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1398" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39602,7 +39602,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1399" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39628,7 +39628,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1400" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39654,7 +39654,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1401" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39680,7 +39680,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1402" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39706,7 +39706,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1403" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39732,7 +39732,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1404" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39758,7 +39758,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1405" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39784,7 +39784,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1406" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39810,7 +39810,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1407" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39836,7 +39836,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1408" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39862,7 +39862,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1409" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39888,7 +39888,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G1410" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39914,7 +39914,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1411" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39940,7 +39940,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1412" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39966,7 +39966,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1413" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39992,7 +39992,7 @@
         <v>24.75</v>
       </c>
       <c r="G1414" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -40018,7 +40018,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1415" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -40044,7 +40044,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1416" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -40070,7 +40070,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1417" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -40096,7 +40096,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1418" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -40122,7 +40122,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -40148,7 +40148,7 @@
         <v>23.25</v>
       </c>
       <c r="G1420" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40174,7 +40174,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1421" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40200,7 +40200,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1422" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40226,7 +40226,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1423" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40252,7 +40252,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1424" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40278,7 +40278,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1425" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40304,7 +40304,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1426" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40330,7 +40330,7 @@
         <v>22.5</v>
       </c>
       <c r="G1427" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40356,7 +40356,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1428" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40382,7 +40382,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1429" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40408,7 +40408,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1430" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40434,7 +40434,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1431" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40460,7 +40460,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40486,7 +40486,7 @@
         <v>22.25</v>
       </c>
       <c r="G1433" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40512,7 +40512,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1434" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40538,7 +40538,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1435" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40564,7 +40564,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1436" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40590,7 +40590,7 @@
         <v>22.5</v>
       </c>
       <c r="G1437" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40616,7 +40616,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1438" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40642,7 +40642,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1439" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40668,7 +40668,7 @@
         <v>22.25</v>
       </c>
       <c r="G1440" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40694,7 +40694,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1441" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40720,7 +40720,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1442" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40746,7 +40746,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1443" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40772,7 +40772,7 @@
         <v>22.75</v>
       </c>
       <c r="G1444" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40798,7 +40798,7 @@
         <v>22.5</v>
       </c>
       <c r="G1445" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40824,7 +40824,7 @@
         <v>22.25</v>
       </c>
       <c r="G1446" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40850,7 +40850,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1447" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40876,7 +40876,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1448" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40902,7 +40902,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1449" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40928,7 +40928,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1450" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40954,7 +40954,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1451" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40980,7 +40980,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1452" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -41006,7 +41006,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1453" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -41032,7 +41032,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1454" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -41058,7 +41058,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1455" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -41084,7 +41084,7 @@
         <v>22</v>
       </c>
       <c r="G1456" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -41110,7 +41110,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1457" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -41136,7 +41136,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1458" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41162,7 +41162,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1459" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41188,7 +41188,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1460" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41214,7 +41214,7 @@
         <v>21.5</v>
       </c>
       <c r="G1461" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41240,7 +41240,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1462" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41266,7 +41266,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1463" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41292,7 +41292,7 @@
         <v>20</v>
       </c>
       <c r="G1464" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41318,7 +41318,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G1465" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41344,7 +41344,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G1466" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41370,7 +41370,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1467" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41396,7 +41396,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1468" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41422,7 +41422,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1469" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41448,7 +41448,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G1470" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41474,7 +41474,7 @@
         <v>19.5</v>
       </c>
       <c r="G1471" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41500,7 +41500,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G1472" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41526,7 +41526,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1473" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41552,7 +41552,7 @@
         <v>19.8600006103516</v>
       </c>
       <c r="G1474" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41578,7 +41578,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1475" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41604,7 +41604,7 @@
         <v>20.5</v>
       </c>
       <c r="G1476" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41630,7 +41630,7 @@
         <v>21</v>
       </c>
       <c r="G1477" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41656,7 +41656,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1478" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41682,7 +41682,7 @@
         <v>20.5</v>
       </c>
       <c r="G1479" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41708,7 +41708,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1480" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41734,7 +41734,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41760,7 +41760,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G1482" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41786,7 +41786,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1483" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41812,7 +41812,7 @@
         <v>19.8199996948242</v>
       </c>
       <c r="G1484" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41838,7 +41838,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G1485" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41864,7 +41864,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G1486" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41890,7 +41890,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1487" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41916,7 +41916,7 @@
         <v>19.0799999237061</v>
       </c>
       <c r="G1488" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41942,7 +41942,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1489" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41968,7 +41968,7 @@
         <v>18.5</v>
       </c>
       <c r="G1490" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -41994,7 +41994,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1491" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -42020,7 +42020,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1492" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -42046,7 +42046,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1493" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -42072,7 +42072,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1494" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -42098,7 +42098,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1495" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -42124,7 +42124,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G1496" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -42150,7 +42150,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1497" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42176,7 +42176,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1498" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42202,7 +42202,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1499" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42228,7 +42228,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1500" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42254,7 +42254,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G1501" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42280,7 +42280,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1502" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42306,7 +42306,7 @@
         <v>19.2199993133545</v>
       </c>
       <c r="G1503" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42332,7 +42332,7 @@
         <v>19.0799999237061</v>
       </c>
       <c r="G1504" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42358,7 +42358,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1505" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42384,7 +42384,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1506" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42410,7 +42410,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G1507" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42436,7 +42436,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1508" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42462,7 +42462,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G1509" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42488,7 +42488,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1510" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42514,7 +42514,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1511" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42540,7 +42540,7 @@
         <v>18.4599990844727</v>
       </c>
       <c r="G1512" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42566,7 +42566,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1513" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42592,7 +42592,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1514" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42618,7 +42618,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G1515" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42644,7 +42644,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1516" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42670,7 +42670,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1517" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42696,7 +42696,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1518" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42722,7 +42722,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1519" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42748,7 +42748,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1520" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42774,7 +42774,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1521" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42800,7 +42800,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1522" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42826,7 +42826,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1523" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42852,7 +42852,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G1524" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42878,7 +42878,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1525" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42904,7 +42904,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1526" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42930,7 +42930,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1527" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42956,7 +42956,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1528" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42982,7 +42982,7 @@
         <v>18</v>
       </c>
       <c r="G1529" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -43008,7 +43008,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1530" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43034,7 +43034,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1531" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43060,7 +43060,7 @@
         <v>17</v>
       </c>
       <c r="G1532" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -43086,7 +43086,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1533" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43112,7 +43112,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1534" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -43138,7 +43138,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1535" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43164,7 +43164,7 @@
         <v>17.5</v>
       </c>
       <c r="G1536" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43190,7 +43190,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1537" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43216,7 +43216,7 @@
         <v>17.5</v>
       </c>
       <c r="G1538" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43242,7 +43242,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1539" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43268,7 +43268,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1540" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43294,7 +43294,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1541" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43302,7 +43302,7 @@
     </row>
     <row r="1542">
       <c r="A1542" s="1" t="n">
-        <v>45474.6495138889</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B1542" t="n">
         <v>51202</v>
@@ -43320,9 +43320,35 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1542" t="s">
+        <v>959</v>
+      </c>
+      <c r="H1542" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="1" t="n">
+        <v>45475.649537037</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>78476</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>17.0400009155273</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>16.7000007629395</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>16.7999992370605</v>
+      </c>
+      <c r="G1543" t="s">
         <v>960</v>
       </c>
-      <c r="H1542" t="s">
+      <c r="H1543" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="962">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,61 +44,61 @@
     <t xml:space="preserve">CRL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95949506759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.866943359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77439165115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74477386474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9298791885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02428245544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72903966903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03353691101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4976601600647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35512924194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57910680770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51987266540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62630701065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49673461914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5800313949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59854221343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7022008895874</t>
+    <t xml:space="preserve">7.95949649810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86694288253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77439212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74477338790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92988014221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02428340911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72904062271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03353786468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49766063690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35512971878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57910633087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51987218856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62630748748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49673557281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58003187179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5985426902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70220041275024</t>
   </si>
   <si>
     <t xml:space="preserve">7.85768842697144</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9132194519043</t>
+    <t xml:space="preserve">7.91321992874146</t>
   </si>
   <si>
     <t xml:space="preserve">7.97893238067627</t>
@@ -107,28 +107,28 @@
     <t xml:space="preserve">8.06130409240723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92247486114502</t>
+    <t xml:space="preserve">7.92247438430786</t>
   </si>
   <si>
     <t xml:space="preserve">8.0770378112793</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87064599990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8206672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90766763687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74847650527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84843349456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80215787887573</t>
+    <t xml:space="preserve">7.87064695358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82066822052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90766620635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74847602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84843301773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80215692520142</t>
   </si>
   <si>
     <t xml:space="preserve">7.94561338424683</t>
@@ -137,16 +137,16 @@
     <t xml:space="preserve">7.6179780960083</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72811508178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84102964401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80400848388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05204772949219</t>
+    <t xml:space="preserve">7.72811365127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84103012084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80400800704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0520486831665</t>
   </si>
   <si>
     <t xml:space="preserve">8.11775970458984</t>
@@ -167,25 +167,25 @@
     <t xml:space="preserve">8.81652927398682</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02384948730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66289234161377</t>
+    <t xml:space="preserve">9.02384757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66289329528809</t>
   </si>
   <si>
     <t xml:space="preserve">8.34821510314941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31119346618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53054237365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42225646972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51481056213379</t>
+    <t xml:space="preserve">8.31119537353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53054428100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42225742340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51480865478516</t>
   </si>
   <si>
     <t xml:space="preserve">8.77395534515381</t>
@@ -197,19 +197,19 @@
     <t xml:space="preserve">8.67770099639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72768020629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.857253074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07012367248535</t>
+    <t xml:space="preserve">8.72767925262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85725212097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07012462615967</t>
   </si>
   <si>
     <t xml:space="preserve">8.93222141265869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18118476867676</t>
+    <t xml:space="preserve">9.18118572235107</t>
   </si>
   <si>
     <t xml:space="preserve">9.20895099639893</t>
@@ -218,13 +218,13 @@
     <t xml:space="preserve">9.40331077575684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16267585754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1821117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0553150177002</t>
+    <t xml:space="preserve">9.16267681121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18211078643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05531406402588</t>
   </si>
   <si>
     <t xml:space="preserve">9.25152683258057</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">9.12657928466797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08863162994385</t>
+    <t xml:space="preserve">9.08863258361816</t>
   </si>
   <si>
     <t xml:space="preserve">8.8285608291626</t>
@@ -242,25 +242,25 @@
     <t xml:space="preserve">9.05809211730957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10714340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96553897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73323345184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56848812103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03909015655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36579990386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46853351593018</t>
+    <t xml:space="preserve">9.10714435577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96553993225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73323249816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56848907470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03908824920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36580085754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46853256225586</t>
   </si>
   <si>
     <t xml:space="preserve">8.60736274719238</t>
@@ -269,52 +269,52 @@
     <t xml:space="preserve">8.65363883972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69991397857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87113475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08721828460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80678606033325</t>
+    <t xml:space="preserve">8.69991493225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87113571166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0872163772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80678510665894</t>
   </si>
   <si>
     <t xml:space="preserve">7.97800540924072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40189456939697</t>
+    <t xml:space="preserve">8.40189647674561</t>
   </si>
   <si>
     <t xml:space="preserve">8.83781719207764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84059429168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81745529174805</t>
+    <t xml:space="preserve">8.84059524536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81745433807373</t>
   </si>
   <si>
     <t xml:space="preserve">8.5666389465332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66104221343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76377582550049</t>
+    <t xml:space="preserve">8.66104316711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76377487182617</t>
   </si>
   <si>
     <t xml:space="preserve">8.63882923126221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45279979705811</t>
+    <t xml:space="preserve">8.45279788970947</t>
   </si>
   <si>
     <t xml:space="preserve">8.40097045898438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62217044830322</t>
+    <t xml:space="preserve">8.62217140197754</t>
   </si>
   <si>
     <t xml:space="preserve">8.78228569030762</t>
@@ -323,31 +323,31 @@
     <t xml:space="preserve">8.11220741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09924983978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14460182189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24733448028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61013889312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39449214935303</t>
+    <t xml:space="preserve">8.0992488861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14459991455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24733257293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61013984680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39449310302734</t>
   </si>
   <si>
     <t xml:space="preserve">8.57034111022949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9849739074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10344123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03865528106689</t>
+    <t xml:space="preserve">8.98497486114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10344314575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03865432739258</t>
   </si>
   <si>
     <t xml:space="preserve">9.0812292098999</t>
@@ -356,13 +356,13 @@
     <t xml:space="preserve">9.21820735931396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91278457641602</t>
+    <t xml:space="preserve">8.91278553009033</t>
   </si>
   <si>
     <t xml:space="preserve">9.14416408538818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91926288604736</t>
+    <t xml:space="preserve">8.91926383972168</t>
   </si>
   <si>
     <t xml:space="preserve">8.36394786834717</t>
@@ -371,19 +371,19 @@
     <t xml:space="preserve">8.29268360137939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32970428466797</t>
+    <t xml:space="preserve">8.32970523834229</t>
   </si>
   <si>
     <t xml:space="preserve">8.39726829528809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25936603546143</t>
+    <t xml:space="preserve">8.25936508178711</t>
   </si>
   <si>
     <t xml:space="preserve">8.46390533447266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33340835571289</t>
+    <t xml:space="preserve">8.33340740203857</t>
   </si>
   <si>
     <t xml:space="preserve">8.35747051239014</t>
@@ -392,25 +392,25 @@
     <t xml:space="preserve">8.56108570098877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49629878997803</t>
+    <t xml:space="preserve">8.49629783630371</t>
   </si>
   <si>
     <t xml:space="preserve">8.28342819213867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41392612457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27972507476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2112398147583</t>
+    <t xml:space="preserve">8.41392803192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2797269821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21123886108398</t>
   </si>
   <si>
     <t xml:space="preserve">8.45927906036377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48704528808594</t>
+    <t xml:space="preserve">8.48704433441162</t>
   </si>
   <si>
     <t xml:space="preserve">8.54442596435547</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">8.77210521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83411598205566</t>
+    <t xml:space="preserve">8.83411407470703</t>
   </si>
   <si>
     <t xml:space="preserve">8.78321075439453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.165452003479</t>
+    <t xml:space="preserve">9.16545104980469</t>
   </si>
   <si>
     <t xml:space="preserve">9.13028240203857</t>
@@ -437,70 +437,70 @@
     <t xml:space="preserve">8.89797592163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04143142700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11639976501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30150318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27188682556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42922496795654</t>
+    <t xml:space="preserve">9.04143238067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11639881134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30150413513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27188777923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42922592163086</t>
   </si>
   <si>
     <t xml:space="preserve">9.46254539489746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67911720275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71798896789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76426601409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66245746612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71243476867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38665294647217</t>
+    <t xml:space="preserve">9.67911624908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71798992156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7642650604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66245651245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71243572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38665103912354</t>
   </si>
   <si>
     <t xml:space="preserve">9.68652153015137</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56064987182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57916069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35148143768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53103256225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3977575302124</t>
+    <t xml:space="preserve">9.56065082550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5791597366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35148239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53103351593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39775657653809</t>
   </si>
   <si>
     <t xml:space="preserve">9.1941442489624</t>
   </si>
   <si>
-    <t xml:space="preserve">9.329270362854</t>
+    <t xml:space="preserve">9.32926845550537</t>
   </si>
   <si>
     <t xml:space="preserve">9.21265316009521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12565326690674</t>
+    <t xml:space="preserve">9.12565422058105</t>
   </si>
   <si>
     <t xml:space="preserve">9.00533676147461</t>
@@ -512,40 +512,40 @@
     <t xml:space="preserve">8.82300758361816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07104873657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25522708892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03310203552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17193126678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51437282562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45884323120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8105411529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.532883644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60692691802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82905197143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7550106048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97713470458984</t>
+    <t xml:space="preserve">9.07104969024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25522804260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03310012817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17193222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51437377929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45884227752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81054210662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53288459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60692596435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82905101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75500965118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97713375091553</t>
   </si>
   <si>
     <t xml:space="preserve">10.0696878433228</t>
@@ -554,10 +554,10 @@
     <t xml:space="preserve">10.1252183914185</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86607265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99564743041992</t>
+    <t xml:space="preserve">9.86607360839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99564647674561</t>
   </si>
   <si>
     <t xml:space="preserve">9.88458251953125</t>
@@ -581,16 +581,16 @@
     <t xml:space="preserve">9.9030933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94011402130127</t>
+    <t xml:space="preserve">9.94011306762695</t>
   </si>
   <si>
     <t xml:space="preserve">10.2177715301514</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2362813949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3843641281128</t>
+    <t xml:space="preserve">10.2362823486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3843660354614</t>
   </si>
   <si>
     <t xml:space="preserve">10.1067094802856</t>
@@ -599,10 +599,10 @@
     <t xml:space="preserve">10.0881977081299</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1992616653442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5879812240601</t>
+    <t xml:space="preserve">10.1992607116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5879821777344</t>
   </si>
   <si>
     <t xml:space="preserve">10.6805334091187</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">10.7360639572144</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8101062774658</t>
+    <t xml:space="preserve">10.8101053237915</t>
   </si>
   <si>
     <t xml:space="preserve">10.4954280853271</t>
@@ -620,25 +620,25 @@
     <t xml:space="preserve">10.5509605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139389038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4028749465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0511779785156</t>
+    <t xml:space="preserve">10.5139398574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4028759002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0511789321899</t>
   </si>
   <si>
     <t xml:space="preserve">9.92160511016846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2551298141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0122947692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95625495910645</t>
+    <t xml:space="preserve">10.2551317214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0122957229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95625591278076</t>
   </si>
   <si>
     <t xml:space="preserve">9.99361515045166</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">10.2738094329834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2924900054932</t>
+    <t xml:space="preserve">10.2924890518188</t>
   </si>
   <si>
     <t xml:space="preserve">10.161732673645</t>
@@ -662,25 +662,25 @@
     <t xml:space="preserve">9.97493553161621</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1243715286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80681800842285</t>
+    <t xml:space="preserve">10.1243724822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80681896209717</t>
   </si>
   <si>
     <t xml:space="preserve">9.93757629394531</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2364501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6287231445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4792852401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4979648590088</t>
+    <t xml:space="preserve">10.2364511489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6287240982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.479287147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4979658126831</t>
   </si>
   <si>
     <t xml:space="preserve">10.4606075286865</t>
@@ -689,28 +689,28 @@
     <t xml:space="preserve">10.4419269561768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90021705627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3858880996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1056928634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88153743743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1430530548096</t>
+    <t xml:space="preserve">9.90021800994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3858890533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1056938171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88153839111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1430540084839</t>
   </si>
   <si>
     <t xml:space="preserve">10.1804113388062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8628568649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3298482894897</t>
+    <t xml:space="preserve">9.86285877227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3298492431641</t>
   </si>
   <si>
     <t xml:space="preserve">10.9275979995728</t>
@@ -719,43 +719,43 @@
     <t xml:space="preserve">10.5540037155151</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1417751312256</t>
+    <t xml:space="preserve">12.1417760848999</t>
   </si>
   <si>
     <t xml:space="preserve">11.2451524734497</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6934642791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4879875183105</t>
+    <t xml:space="preserve">11.6934633255005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4879884719849</t>
   </si>
   <si>
     <t xml:space="preserve">11.6187448501587</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7121419906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6000661849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0483779907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2351732254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3285713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.53404712677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6834850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2725324630737</t>
+    <t xml:space="preserve">11.7121438980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6000652313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0483770370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2351741790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3285722732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5340480804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6834859848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.272533416748</t>
   </si>
   <si>
     <t xml:space="preserve">11.6561050415039</t>
@@ -764,28 +764,28 @@
     <t xml:space="preserve">11.6747846603394</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8242216110229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5627059936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0110168457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1978139877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.253851890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3098926544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6087675094604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7768831253052</t>
+    <t xml:space="preserve">11.8242225646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5627069473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0110187530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1978149414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2538537979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3098917007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6087684631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7768840789795</t>
   </si>
   <si>
     <t xml:space="preserve">13.0757579803467</t>
@@ -800,25 +800,25 @@
     <t xml:space="preserve">13.5987882614136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1591787338257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5614280700684</t>
+    <t xml:space="preserve">14.1591796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5614290237427</t>
   </si>
   <si>
     <t xml:space="preserve">13.2999143600464</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2065162658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.478009223938</t>
+    <t xml:space="preserve">13.2065172195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4780101776123</t>
   </si>
   <si>
     <t xml:space="preserve">12.4406509399414</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3846111297607</t>
+    <t xml:space="preserve">12.3846120834351</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966888427734</t>
@@ -833,13 +833,13 @@
     <t xml:space="preserve">14.700888633728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0097417831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5053901672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2625551223755</t>
+    <t xml:space="preserve">14.0097427368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5053911209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2625560760498</t>
   </si>
   <si>
     <t xml:space="preserve">12.9450006484985</t>
@@ -854,22 +854,22 @@
     <t xml:space="preserve">12.4593305587769</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8702821731567</t>
+    <t xml:space="preserve">12.8702831268311</t>
   </si>
   <si>
     <t xml:space="preserve">12.907642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9823598861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.187837600708</t>
+    <t xml:space="preserve">12.9823608398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1878385543823</t>
   </si>
   <si>
     <t xml:space="preserve">13.1691560745239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4306707382202</t>
+    <t xml:space="preserve">13.4306716918945</t>
   </si>
   <si>
     <t xml:space="preserve">13.1504764556885</t>
@@ -881,43 +881,43 @@
     <t xml:space="preserve">12.4032897949219</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5527267456055</t>
+    <t xml:space="preserve">12.5527276992798</t>
   </si>
   <si>
     <t xml:space="preserve">12.5153684616089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9362983703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8615808486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3759098052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0957136154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1704330444336</t>
+    <t xml:space="preserve">11.9362993240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8615818023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3759107589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0957145690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1704320907593</t>
   </si>
   <si>
     <t xml:space="preserve">11.1143941879272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8341979980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3945894241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2077932357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3572292327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3011903762817</t>
+    <t xml:space="preserve">10.8341989517212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3945903778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2077941894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3572301864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3011913299561</t>
   </si>
   <si>
     <t xml:space="preserve">11.4506273269653</t>
@@ -929,52 +929,52 @@
     <t xml:space="preserve">9.4892635345459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47058486938477</t>
+    <t xml:space="preserve">9.47058391571045</t>
   </si>
   <si>
     <t xml:space="preserve">8.94755363464355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62002182006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77943801879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87283515930176</t>
+    <t xml:space="preserve">9.62002277374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77943897247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87283611297607</t>
   </si>
   <si>
     <t xml:space="preserve">8.2657470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3031063079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25640678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59264087677002</t>
+    <t xml:space="preserve">8.30310726165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25640773773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5926399230957</t>
   </si>
   <si>
     <t xml:space="preserve">8.49924278259277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71341991424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7968406677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84417915344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3672094345093</t>
+    <t xml:space="preserve">9.71342086791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7968397140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84417819976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.367208480835</t>
   </si>
   <si>
     <t xml:space="preserve">10.3111696243286</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78813743591309</t>
+    <t xml:space="preserve">9.7881383895874</t>
   </si>
   <si>
     <t xml:space="preserve">10.0870141983032</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">12.5714073181152</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7021636962891</t>
+    <t xml:space="preserve">12.7021646499634</t>
   </si>
   <si>
     <t xml:space="preserve">11.8429012298584</t>
@@ -1001,16 +1001,16 @@
     <t xml:space="preserve">13.8229446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5801086425781</t>
+    <t xml:space="preserve">13.5801095962524</t>
   </si>
   <si>
     <t xml:space="preserve">13.7482261657715</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9997634887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1492004394531</t>
+    <t xml:space="preserve">14.9997625350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1491994857788</t>
   </si>
   <si>
     <t xml:space="preserve">15.0371227264404</t>
@@ -1025,22 +1025,22 @@
     <t xml:space="preserve">15.8590269088745</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0831832885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5041131973267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0558023452759</t>
+    <t xml:space="preserve">16.0831813812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.504114151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0558013916016</t>
   </si>
   <si>
     <t xml:space="preserve">14.7195682525635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5701322555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1405000686646</t>
+    <t xml:space="preserve">14.5701313018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1404991149902</t>
   </si>
   <si>
     <t xml:space="preserve">14.2338972091675</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">13.8976631164551</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9163427352905</t>
+    <t xml:space="preserve">13.9163417816162</t>
   </si>
   <si>
     <t xml:space="preserve">13.7669057846069</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1778583526611</t>
+    <t xml:space="preserve">14.1778573989868</t>
   </si>
   <si>
     <t xml:space="preserve">14.4206943511963</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">15.3378143310547</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5260076522827</t>
+    <t xml:space="preserve">15.5260066986084</t>
   </si>
   <si>
     <t xml:space="preserve">15.4319105148315</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">15.0178833007812</t>
   </si>
   <si>
-    <t xml:space="preserve">14.754412651062</t>
+    <t xml:space="preserve">14.7544116973877</t>
   </si>
   <si>
     <t xml:space="preserve">15.2437171936035</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">15.0367021560669</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1308002471924</t>
+    <t xml:space="preserve">15.1307992935181</t>
   </si>
   <si>
     <t xml:space="preserve">15.5071878433228</t>
@@ -1127,16 +1127,16 @@
     <t xml:space="preserve">14.5850372314453</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6765613555908</t>
+    <t xml:space="preserve">15.6765604019165</t>
   </si>
   <si>
     <t xml:space="preserve">16.2787818908691</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0880184173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8031578063965</t>
+    <t xml:space="preserve">17.088020324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8031558990479</t>
   </si>
   <si>
     <t xml:space="preserve">16.8433647155762</t>
@@ -1166,28 +1166,28 @@
     <t xml:space="preserve">18.4053764343262</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4430160522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7843360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6525993347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1230850219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8194026947021</t>
+    <t xml:space="preserve">18.4430179595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7843379974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6526012420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1230869293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8194046020508</t>
   </si>
   <si>
     <t xml:space="preserve">19.2898864746094</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4618339538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3489151000977</t>
+    <t xml:space="preserve">18.4618320465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3489170074463</t>
   </si>
   <si>
     <t xml:space="preserve">18.1607265472412</t>
@@ -1217,10 +1217,10 @@
     <t xml:space="preserve">16.5798931121826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0717697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4883670806885</t>
+    <t xml:space="preserve">16.0717678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4883680343628</t>
   </si>
   <si>
     <t xml:space="preserve">15.8835744857788</t>
@@ -1238,31 +1238,31 @@
     <t xml:space="preserve">16.54225730896</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3916988372803</t>
+    <t xml:space="preserve">16.3917007446289</t>
   </si>
   <si>
     <t xml:space="preserve">16.9750995635986</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8245449066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4481582641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6175308227539</t>
+    <t xml:space="preserve">16.8245468139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4481563568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6175327301025</t>
   </si>
   <si>
     <t xml:space="preserve">16.4857959747314</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4669780731201</t>
+    <t xml:space="preserve">16.4669761657715</t>
   </si>
   <si>
     <t xml:space="preserve">16.8057270050049</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7492694854736</t>
+    <t xml:space="preserve">16.749267578125</t>
   </si>
   <si>
     <t xml:space="preserve">16.7304496765137</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">16.9374618530273</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9186420440674</t>
+    <t xml:space="preserve">16.918643951416</t>
   </si>
   <si>
     <t xml:space="preserve">15.9023952484131</t>
@@ -1283,10 +1283,10 @@
     <t xml:space="preserve">15.5448274612427</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0743417739868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7920503616333</t>
+    <t xml:space="preserve">15.0743427276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7920513153076</t>
   </si>
   <si>
     <t xml:space="preserve">14.6414947509766</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">16.6363525390625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7330198287964</t>
+    <t xml:space="preserve">15.7330188751221</t>
   </si>
   <si>
     <t xml:space="preserve">15.9964914321899</t>
@@ -1322,16 +1322,16 @@
     <t xml:space="preserve">17.2009353637695</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7680892944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0315608978271</t>
+    <t xml:space="preserve">16.768087387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0315589904785</t>
   </si>
   <si>
     <t xml:space="preserve">17.0127410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0289897918701</t>
+    <t xml:space="preserve">18.0289878845215</t>
   </si>
   <si>
     <t xml:space="preserve">18.2171802520752</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">18.1795425415039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6928100585938</t>
+    <t xml:space="preserve">16.6928119659424</t>
   </si>
   <si>
     <t xml:space="preserve">16.8621845245361</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">16.6739921569824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4293384552002</t>
+    <t xml:space="preserve">16.4293403625488</t>
   </si>
   <si>
     <t xml:space="preserve">17.1444759368896</t>
@@ -1370,10 +1370,10 @@
     <t xml:space="preserve">15.8647565841675</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7142009735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1282291412354</t>
+    <t xml:space="preserve">15.7142000198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.128231048584</t>
   </si>
   <si>
     <t xml:space="preserve">16.0153121948242</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">15.4695482254028</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6226749420166</t>
+    <t xml:space="preserve">14.6226758956909</t>
   </si>
   <si>
     <t xml:space="preserve">14.2651081085205</t>
@@ -1400,31 +1400,31 @@
     <t xml:space="preserve">15.7518396377563</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7894773483276</t>
+    <t xml:space="preserve">15.789478302002</t>
   </si>
   <si>
     <t xml:space="preserve">15.6389245986938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8271198272705</t>
+    <t xml:space="preserve">15.8271188735962</t>
   </si>
   <si>
     <t xml:space="preserve">15.5824661254883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5636463165283</t>
+    <t xml:space="preserve">15.563645362854</t>
   </si>
   <si>
     <t xml:space="preserve">15.7706594467163</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9776744842529</t>
+    <t xml:space="preserve">15.9776725769043</t>
   </si>
   <si>
     <t xml:space="preserve">16.3352432250977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2197551727295</t>
+    <t xml:space="preserve">17.2197532653809</t>
   </si>
   <si>
     <t xml:space="preserve">17.2573928833008</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">18.06662940979</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7090587615967</t>
+    <t xml:space="preserve">17.709056854248</t>
   </si>
   <si>
     <t xml:space="preserve">17.8972511291504</t>
@@ -1454,19 +1454,19 @@
     <t xml:space="preserve">17.2950305938721</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6902370452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.727876663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8784313201904</t>
+    <t xml:space="preserve">17.6902389526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7278747558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8784332275391</t>
   </si>
   <si>
     <t xml:space="preserve">19.854471206665</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9485664367676</t>
+    <t xml:space="preserve">19.9485683441162</t>
   </si>
   <si>
     <t xml:space="preserve">19.5721797943115</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">20.0897121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3720054626465</t>
+    <t xml:space="preserve">20.3720035552979</t>
   </si>
   <si>
     <t xml:space="preserve">20.7483940124512</t>
@@ -1505,19 +1505,19 @@
     <t xml:space="preserve">21.3600215911865</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7364120483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1128005981445</t>
+    <t xml:space="preserve">21.7364101409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1127986907959</t>
   </si>
   <si>
     <t xml:space="preserve">21.4541206359863</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9836349487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2308597564697</t>
+    <t xml:space="preserve">20.9836330413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2308578491211</t>
   </si>
   <si>
     <t xml:space="preserve">19.901517868042</t>
@@ -2895,6 +2895,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.7999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9400005340576</t>
   </si>
 </sst>
 </file>
@@ -43328,7 +43331,7 @@
     </row>
     <row r="1543">
       <c r="A1543" s="1" t="n">
-        <v>45475.649537037</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B1543" t="n">
         <v>78476</v>
@@ -43349,6 +43352,32 @@
         <v>960</v>
       </c>
       <c r="H1543" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="1" t="n">
+        <v>45476.6495023148</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>47175</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>17.4400005340576</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>16.8600006103516</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>17.4400005340576</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>16.9400005340576</v>
+      </c>
+      <c r="G1544" t="s">
+        <v>961</v>
+      </c>
+      <c r="H1544" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="968">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,16 +50,16 @@
     <t xml:space="preserve">7.86694288253784</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77439260482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74477386474609</t>
+    <t xml:space="preserve">7.77439212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74477291107178</t>
   </si>
   <si>
     <t xml:space="preserve">7.92987966537476</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02428245544434</t>
+    <t xml:space="preserve">8.02428150177002</t>
   </si>
   <si>
     <t xml:space="preserve">7.72904014587402</t>
@@ -68,25 +68,25 @@
     <t xml:space="preserve">8.03353691101074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4976601600647</t>
+    <t xml:space="preserve">7.49766063690186</t>
   </si>
   <si>
     <t xml:space="preserve">7.35512971878052</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57910585403442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51987266540527</t>
+    <t xml:space="preserve">7.57910633087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51987218856812</t>
   </si>
   <si>
     <t xml:space="preserve">7.62630796432495</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49673557281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58003234863281</t>
+    <t xml:space="preserve">7.49673461914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5800313949585</t>
   </si>
   <si>
     <t xml:space="preserve">7.59854221343994</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">7.70220041275024</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85768890380859</t>
+    <t xml:space="preserve">7.85768842697144</t>
   </si>
   <si>
     <t xml:space="preserve">7.91321992874146</t>
@@ -107,61 +107,61 @@
     <t xml:space="preserve">8.06130504608154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92247295379639</t>
+    <t xml:space="preserve">7.9224739074707</t>
   </si>
   <si>
     <t xml:space="preserve">8.07703685760498</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87064504623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8206672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90766620635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74847602844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84843349456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80215692520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94561433792114</t>
+    <t xml:space="preserve">7.87064552307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82066679000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90766763687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7484769821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84843397140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80215787887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94561338424683</t>
   </si>
   <si>
     <t xml:space="preserve">7.61797761917114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72811460494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84102964401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80400800704956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05204963684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11776161193848</t>
+    <t xml:space="preserve">7.72811508178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84102869033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80400943756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05204772949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11776065826416</t>
   </si>
   <si>
     <t xml:space="preserve">8.17236614227295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36302280426025</t>
+    <t xml:space="preserve">8.36302471160889</t>
   </si>
   <si>
     <t xml:space="preserve">8.52406406402588</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54720211029053</t>
+    <t xml:space="preserve">8.54720306396484</t>
   </si>
   <si>
     <t xml:space="preserve">8.8165283203125</t>
@@ -170,10 +170,10 @@
     <t xml:space="preserve">9.02384757995605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66289329528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3482141494751</t>
+    <t xml:space="preserve">8.66289234161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34821605682373</t>
   </si>
   <si>
     <t xml:space="preserve">8.31119441986084</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">8.53054237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4222583770752</t>
+    <t xml:space="preserve">8.42225742340088</t>
   </si>
   <si>
     <t xml:space="preserve">8.51480865478516</t>
@@ -194,37 +194,37 @@
     <t xml:space="preserve">8.8109769821167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67770195007324</t>
+    <t xml:space="preserve">8.67770099639893</t>
   </si>
   <si>
     <t xml:space="preserve">8.72767925262451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85725116729736</t>
+    <t xml:space="preserve">8.857253074646</t>
   </si>
   <si>
     <t xml:space="preserve">9.07012367248535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93222236633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18118667602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20895195007324</t>
+    <t xml:space="preserve">8.93222141265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18118572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20895099639893</t>
   </si>
   <si>
     <t xml:space="preserve">9.40331172943115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16267585754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1821117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0553150177002</t>
+    <t xml:space="preserve">9.16267490386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18211078643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05531406402588</t>
   </si>
   <si>
     <t xml:space="preserve">9.25152683258057</t>
@@ -233,19 +233,19 @@
     <t xml:space="preserve">9.12657928466797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08863258361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82856178283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05809116363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10714435577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96553993225098</t>
+    <t xml:space="preserve">9.08863353729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8285608291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05809211730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10714340209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96553897857666</t>
   </si>
   <si>
     <t xml:space="preserve">8.73323249816895</t>
@@ -254,52 +254,52 @@
     <t xml:space="preserve">8.56848907470703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03909111022949</t>
+    <t xml:space="preserve">8.03908920288086</t>
   </si>
   <si>
     <t xml:space="preserve">8.36580085754395</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46853256225586</t>
+    <t xml:space="preserve">8.46853351593018</t>
   </si>
   <si>
     <t xml:space="preserve">8.60736179351807</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65363788604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69991397857666</t>
+    <t xml:space="preserve">8.65363883972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69991493225098</t>
   </si>
   <si>
     <t xml:space="preserve">8.87113475799561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08721828460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80678558349609</t>
+    <t xml:space="preserve">8.08721923828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80678606033325</t>
   </si>
   <si>
     <t xml:space="preserve">7.97800493240356</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40189647674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83781623840332</t>
+    <t xml:space="preserve">8.40189552307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83781814575195</t>
   </si>
   <si>
     <t xml:space="preserve">8.84059429168701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81745433807373</t>
+    <t xml:space="preserve">8.81745624542236</t>
   </si>
   <si>
     <t xml:space="preserve">8.5666389465332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66104412078857</t>
+    <t xml:space="preserve">8.66104316711426</t>
   </si>
   <si>
     <t xml:space="preserve">8.76377487182617</t>
@@ -308,16 +308,16 @@
     <t xml:space="preserve">8.63883018493652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45279979705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40097236633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62217044830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7822847366333</t>
+    <t xml:space="preserve">8.45280075073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40097045898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62217140197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78228569030762</t>
   </si>
   <si>
     <t xml:space="preserve">8.11220836639404</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">8.09924983978271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1446008682251</t>
+    <t xml:space="preserve">8.14460182189941</t>
   </si>
   <si>
     <t xml:space="preserve">8.24733352661133</t>
@@ -335,52 +335,52 @@
     <t xml:space="preserve">8.61013889312744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39449214935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57034206390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98497581481934</t>
+    <t xml:space="preserve">8.39449119567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57034111022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98497486114502</t>
   </si>
   <si>
     <t xml:space="preserve">9.10344123840332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03865432739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0812292098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21820831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91278457641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14416313171387</t>
+    <t xml:space="preserve">9.03865528106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08122825622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21820735931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91278553009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14416408538818</t>
   </si>
   <si>
     <t xml:space="preserve">8.91926383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36394786834717</t>
+    <t xml:space="preserve">8.3639497756958</t>
   </si>
   <si>
     <t xml:space="preserve">8.29268360137939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32970523834229</t>
+    <t xml:space="preserve">8.32970428466797</t>
   </si>
   <si>
     <t xml:space="preserve">8.39726829528809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25936412811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46390533447266</t>
+    <t xml:space="preserve">8.25936508178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46390438079834</t>
   </si>
   <si>
     <t xml:space="preserve">8.33340740203857</t>
@@ -389,10 +389,10 @@
     <t xml:space="preserve">8.35747051239014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56108570098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49629783630371</t>
+    <t xml:space="preserve">8.56108474731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49629878997803</t>
   </si>
   <si>
     <t xml:space="preserve">8.28342914581299</t>
@@ -407,43 +407,43 @@
     <t xml:space="preserve">8.21123886108398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45927810668945</t>
+    <t xml:space="preserve">8.45927906036377</t>
   </si>
   <si>
     <t xml:space="preserve">8.48704433441162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54442501068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77210521697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83411407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78321075439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.165452003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13028240203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96183776855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89797687530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04143238067627</t>
+    <t xml:space="preserve">8.54442596435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77210426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83411502838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78320980072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16545295715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13028144836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96183681488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89797592163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04143142700195</t>
   </si>
   <si>
     <t xml:space="preserve">9.11639881134033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30150508880615</t>
+    <t xml:space="preserve">9.30150318145752</t>
   </si>
   <si>
     <t xml:space="preserve">9.27188682556152</t>
@@ -455,115 +455,115 @@
     <t xml:space="preserve">9.46254539489746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67911720275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71798896789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76426601409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66245651245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71243762969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38665199279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68652153015137</t>
+    <t xml:space="preserve">9.67911624908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71798992156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76426696777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6624584197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71243667602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38665103912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68652248382568</t>
   </si>
   <si>
     <t xml:space="preserve">9.56065082550049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57916164398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35148239135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53103351593018</t>
+    <t xml:space="preserve">9.57916069030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35148143768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53103256225586</t>
   </si>
   <si>
     <t xml:space="preserve">9.3977575302124</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19414329528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32926940917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21265316009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12565326690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00533485412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43799209594727</t>
+    <t xml:space="preserve">9.19414234161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.329270362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21265411376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12565422058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00533580780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43799018859863</t>
   </si>
   <si>
     <t xml:space="preserve">8.82300758361816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07104778289795</t>
+    <t xml:space="preserve">9.07104873657227</t>
   </si>
   <si>
     <t xml:space="preserve">9.25522804260254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03310203552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17193126678467</t>
+    <t xml:space="preserve">9.03310298919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17193222045898</t>
   </si>
   <si>
     <t xml:space="preserve">9.51437282562256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45884323120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81054210662842</t>
+    <t xml:space="preserve">9.45884227752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8105411529541</t>
   </si>
   <si>
     <t xml:space="preserve">9.53288459777832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60692691802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82905197143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75500869750977</t>
+    <t xml:space="preserve">9.60692596435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82905292510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75500965118408</t>
   </si>
   <si>
     <t xml:space="preserve">9.97713470458984</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0696887969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1252202987671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86607360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99564647674561</t>
+    <t xml:space="preserve">10.0696878433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1252193450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86607265472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99564743041992</t>
   </si>
   <si>
     <t xml:space="preserve">9.88458251953125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0141572952271</t>
+    <t xml:space="preserve">10.0141582489014</t>
   </si>
   <si>
     <t xml:space="preserve">10.1437282562256</t>
@@ -584,22 +584,22 @@
     <t xml:space="preserve">9.94011402130127</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2362823486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3843650817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1067085266113</t>
+    <t xml:space="preserve">10.2177724838257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2362813949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3843641281128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1067094802856</t>
   </si>
   <si>
     <t xml:space="preserve">10.0881977081299</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1992597579956</t>
+    <t xml:space="preserve">10.1992607116699</t>
   </si>
   <si>
     <t xml:space="preserve">10.5879812240601</t>
@@ -611,13 +611,13 @@
     <t xml:space="preserve">10.73606300354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8101053237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4954290390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5509595870972</t>
+    <t xml:space="preserve">10.8101062774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4954280853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5509605407715</t>
   </si>
   <si>
     <t xml:space="preserve">10.5139389038086</t>
@@ -626,34 +626,34 @@
     <t xml:space="preserve">10.4028749465942</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0511779785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92160320281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2551298141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0122938156128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95625591278076</t>
+    <t xml:space="preserve">10.0511789321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92160415649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2551307678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0122947692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95625495910645</t>
   </si>
   <si>
     <t xml:space="preserve">9.99361515045166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2177724838257</t>
+    <t xml:space="preserve">10.2177715301514</t>
   </si>
   <si>
     <t xml:space="preserve">10.0683336257935</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2738084793091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2924880981445</t>
+    <t xml:space="preserve">10.2738094329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2924890518188</t>
   </si>
   <si>
     <t xml:space="preserve">10.161732673645</t>
@@ -662,10 +662,10 @@
     <t xml:space="preserve">9.97493457794189</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1243734359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80681896209717</t>
+    <t xml:space="preserve">10.1243724822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80681991577148</t>
   </si>
   <si>
     <t xml:space="preserve">9.93757629394531</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">10.6287231445312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4792861938477</t>
+    <t xml:space="preserve">10.4792852401733</t>
   </si>
   <si>
     <t xml:space="preserve">10.4979658126831</t>
@@ -686,37 +686,37 @@
     <t xml:space="preserve">10.4606075286865</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4419269561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90021705627441</t>
+    <t xml:space="preserve">10.4419279098511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9002161026001</t>
   </si>
   <si>
     <t xml:space="preserve">10.3858880996704</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1056938171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88153839111328</t>
+    <t xml:space="preserve">10.105694770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88153743743896</t>
   </si>
   <si>
     <t xml:space="preserve">10.1430540084839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1804122924805</t>
+    <t xml:space="preserve">10.1804113388062</t>
   </si>
   <si>
     <t xml:space="preserve">9.86285781860352</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3298492431641</t>
+    <t xml:space="preserve">10.3298482894897</t>
   </si>
   <si>
     <t xml:space="preserve">10.9275979995728</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5540046691895</t>
+    <t xml:space="preserve">10.5540056228638</t>
   </si>
   <si>
     <t xml:space="preserve">12.1417751312256</t>
@@ -725,19 +725,19 @@
     <t xml:space="preserve">11.245153427124</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6934633255005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4879875183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.618745803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7121438980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6000652313232</t>
+    <t xml:space="preserve">11.6934652328491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4879884719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6187448501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7121419906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6000671386719</t>
   </si>
   <si>
     <t xml:space="preserve">12.0483779907227</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">12.2351741790771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3285722732544</t>
+    <t xml:space="preserve">12.3285732269287</t>
   </si>
   <si>
     <t xml:space="preserve">12.5340480804443</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">12.6834859848022</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2725324630737</t>
+    <t xml:space="preserve">12.272533416748</t>
   </si>
   <si>
     <t xml:space="preserve">11.6561050415039</t>
@@ -764,22 +764,22 @@
     <t xml:space="preserve">11.6747846603394</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8242225646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5627069473267</t>
+    <t xml:space="preserve">11.8242216110229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5627059936523</t>
   </si>
   <si>
     <t xml:space="preserve">12.0110177993774</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1978149414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2538547515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3098917007446</t>
+    <t xml:space="preserve">12.1978139877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2538528442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3098926544189</t>
   </si>
   <si>
     <t xml:space="preserve">12.6087684631348</t>
@@ -788,10 +788,10 @@
     <t xml:space="preserve">12.7768831253052</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0757579803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3559522628784</t>
+    <t xml:space="preserve">13.075758934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3559541702271</t>
   </si>
   <si>
     <t xml:space="preserve">13.4493522644043</t>
@@ -800,16 +800,16 @@
     <t xml:space="preserve">13.5987882614136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1591787338257</t>
+    <t xml:space="preserve">14.1591796875</t>
   </si>
   <si>
     <t xml:space="preserve">13.5614290237427</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2999153137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2065153121948</t>
+    <t xml:space="preserve">13.2999143600464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2065162658691</t>
   </si>
   <si>
     <t xml:space="preserve">12.478009223938</t>
@@ -818,28 +818,28 @@
     <t xml:space="preserve">12.4406509399414</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3846111297607</t>
+    <t xml:space="preserve">12.3846120834351</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966888427734</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2912130355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3659324645996</t>
+    <t xml:space="preserve">12.2912139892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3659315109253</t>
   </si>
   <si>
     <t xml:space="preserve">14.700888633728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0097427368164</t>
+    <t xml:space="preserve">14.0097417831421</t>
   </si>
   <si>
     <t xml:space="preserve">13.5053901672363</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2625551223755</t>
+    <t xml:space="preserve">13.2625560760498</t>
   </si>
   <si>
     <t xml:space="preserve">12.9450006484985</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">12.7955627441406</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6461277008057</t>
+    <t xml:space="preserve">12.646125793457</t>
   </si>
   <si>
     <t xml:space="preserve">12.4593296051025</t>
@@ -860,13 +860,13 @@
     <t xml:space="preserve">12.907642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9823598861694</t>
+    <t xml:space="preserve">12.9823608398438</t>
   </si>
   <si>
     <t xml:space="preserve">13.187837600708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1691560745239</t>
+    <t xml:space="preserve">13.1691570281982</t>
   </si>
   <si>
     <t xml:space="preserve">13.4306726455688</t>
@@ -875,19 +875,19 @@
     <t xml:space="preserve">13.1504764556885</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7395248413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4032917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5527276992798</t>
+    <t xml:space="preserve">12.7395257949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4032907485962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5527286529541</t>
   </si>
   <si>
     <t xml:space="preserve">12.5153684616089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9362993240356</t>
+    <t xml:space="preserve">11.93630027771</t>
   </si>
   <si>
     <t xml:space="preserve">11.8615808486938</t>
@@ -899,10 +899,10 @@
     <t xml:space="preserve">11.0957136154175</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1704339981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1143941879272</t>
+    <t xml:space="preserve">11.1704330444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1143932342529</t>
   </si>
   <si>
     <t xml:space="preserve">10.8341989517212</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">11.3945894241333</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2077932357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3572301864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3011913299561</t>
+    <t xml:space="preserve">11.2077922821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3572292327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3011922836304</t>
   </si>
   <si>
     <t xml:space="preserve">11.4506273269653</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">11.189112663269</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48926544189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47058391571045</t>
+    <t xml:space="preserve">9.48926448822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47058582305908</t>
   </si>
   <si>
     <t xml:space="preserve">8.94755363464355</t>
@@ -938,22 +938,22 @@
     <t xml:space="preserve">9.62002182006836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77943801879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87283515930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26574611663818</t>
+    <t xml:space="preserve">8.77943897247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87283611297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2657470703125</t>
   </si>
   <si>
     <t xml:space="preserve">8.30310726165771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25640678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59264183044434</t>
+    <t xml:space="preserve">8.25640773773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59264087677002</t>
   </si>
   <si>
     <t xml:space="preserve">8.49924278259277</t>
@@ -971,25 +971,25 @@
     <t xml:space="preserve">10.367208480835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3111705780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78813934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0870141983032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7781610488892</t>
+    <t xml:space="preserve">10.3111696243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7881383895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0870151519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7781600952148</t>
   </si>
   <si>
     <t xml:space="preserve">11.7681827545166</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9549779891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5714073181152</t>
+    <t xml:space="preserve">11.9549789428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5714082717896</t>
   </si>
   <si>
     <t xml:space="preserve">12.7021646499634</t>
@@ -998,16 +998,16 @@
     <t xml:space="preserve">11.8429012298584</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8229446411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5801095962524</t>
+    <t xml:space="preserve">13.8229455947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5801086425781</t>
   </si>
   <si>
     <t xml:space="preserve">13.7482261657715</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9997615814209</t>
+    <t xml:space="preserve">14.9997625350952</t>
   </si>
   <si>
     <t xml:space="preserve">15.1492004394531</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">15.392035484314</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590278625488</t>
+    <t xml:space="preserve">15.8590269088745</t>
   </si>
   <si>
     <t xml:space="preserve">16.0831832885742</t>
@@ -1034,10 +1034,10 @@
     <t xml:space="preserve">15.0558013916016</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7195672988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5701303482056</t>
+    <t xml:space="preserve">14.7195682525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5701313018799</t>
   </si>
   <si>
     <t xml:space="preserve">14.1404991149902</t>
@@ -1046,25 +1046,25 @@
     <t xml:space="preserve">14.2338962554932</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8976631164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9163427352905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7669057846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1778573989868</t>
+    <t xml:space="preserve">13.8976621627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9163417816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7669067382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1778583526611</t>
   </si>
   <si>
     <t xml:space="preserve">14.4206943511963</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8129663467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0931606292725</t>
+    <t xml:space="preserve">14.812967300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0931615829468</t>
   </si>
   <si>
     <t xml:space="preserve">14.6603145599365</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">14.9049663543701</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9990644454956</t>
+    <t xml:space="preserve">14.9990634918213</t>
   </si>
   <si>
     <t xml:space="preserve">14.8861474990845</t>
@@ -1082,19 +1082,19 @@
     <t xml:space="preserve">14.8673286437988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3754510879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3378143310547</t>
+    <t xml:space="preserve">15.375452041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3378133773804</t>
   </si>
   <si>
     <t xml:space="preserve">15.5260076522827</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4319105148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1119794845581</t>
+    <t xml:space="preserve">15.4319095611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1119804382324</t>
   </si>
   <si>
     <t xml:space="preserve">14.7167730331421</t>
@@ -1103,19 +1103,19 @@
     <t xml:space="preserve">15.1872577667236</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0178842544556</t>
+    <t xml:space="preserve">15.0178833007812</t>
   </si>
   <si>
     <t xml:space="preserve">14.7544116973877</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2437171936035</t>
+    <t xml:space="preserve">15.2437162399292</t>
   </si>
   <si>
     <t xml:space="preserve">15.0367031097412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1307992935181</t>
+    <t xml:space="preserve">15.1308002471924</t>
   </si>
   <si>
     <t xml:space="preserve">15.5071878433228</t>
@@ -1124,13 +1124,13 @@
     <t xml:space="preserve">15.0555229187012</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5850381851196</t>
+    <t xml:space="preserve">14.5850372314453</t>
   </si>
   <si>
     <t xml:space="preserve">15.6765613555908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2787818908691</t>
+    <t xml:space="preserve">16.2787857055664</t>
   </si>
   <si>
     <t xml:space="preserve">17.0880184173584</t>
@@ -1139,13 +1139,13 @@
     <t xml:space="preserve">17.8031558990479</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8433647155762</t>
+    <t xml:space="preserve">16.8433666229248</t>
   </si>
   <si>
     <t xml:space="preserve">16.9939212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5585021972656</t>
+    <t xml:space="preserve">17.5585041046143</t>
   </si>
   <si>
     <t xml:space="preserve">17.5396842956543</t>
@@ -1154,19 +1154,19 @@
     <t xml:space="preserve">17.5208644866943</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9160709381104</t>
+    <t xml:space="preserve">17.916072845459</t>
   </si>
   <si>
     <t xml:space="preserve">18.141902923584</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0101680755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4053764343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4430141448975</t>
+    <t xml:space="preserve">18.0101699829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4053745269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4430160522461</t>
   </si>
   <si>
     <t xml:space="preserve">17.7843360900879</t>
@@ -1184,13 +1184,13 @@
     <t xml:space="preserve">19.2898864746094</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4618339538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3489189147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1607227325439</t>
+    <t xml:space="preserve">18.4618358612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3489170074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1607246398926</t>
   </si>
   <si>
     <t xml:space="preserve">17.5020446777344</t>
@@ -1199,16 +1199,16 @@
     <t xml:space="preserve">18.0854473114014</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5961418151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9348888397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0503807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7869052886963</t>
+    <t xml:space="preserve">17.5961437225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9348907470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0503787994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7869071960449</t>
   </si>
   <si>
     <t xml:space="preserve">15.9400339126587</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">16.5798931121826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0717678070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4883670806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8835754394531</t>
+    <t xml:space="preserve">16.0717697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4883680343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8835744857788</t>
   </si>
   <si>
     <t xml:space="preserve">16.6551723480225</t>
@@ -1241,10 +1241,10 @@
     <t xml:space="preserve">16.3917026519775</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9750995635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8245449066162</t>
+    <t xml:space="preserve">16.9751014709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8245468139648</t>
   </si>
   <si>
     <t xml:space="preserve">16.4481582641602</t>
@@ -1259,25 +1259,25 @@
     <t xml:space="preserve">16.4669780731201</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8057270050049</t>
+    <t xml:space="preserve">16.8057289123535</t>
   </si>
   <si>
     <t xml:space="preserve">16.7492694854736</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7304496765137</t>
+    <t xml:space="preserve">16.7304515838623</t>
   </si>
   <si>
     <t xml:space="preserve">16.8810062408447</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9374618530273</t>
+    <t xml:space="preserve">16.937463760376</t>
   </si>
   <si>
     <t xml:space="preserve">16.918643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9023942947388</t>
+    <t xml:space="preserve">15.9023962020874</t>
   </si>
   <si>
     <t xml:space="preserve">15.5448274612427</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">15.0743427276611</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7920513153076</t>
+    <t xml:space="preserve">14.7920503616333</t>
   </si>
   <si>
     <t xml:space="preserve">14.6414957046509</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">16.6363506317139</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7330207824707</t>
+    <t xml:space="preserve">15.7330198287964</t>
   </si>
   <si>
     <t xml:space="preserve">15.9964904785156</t>
   </si>
   <si>
-    <t xml:space="preserve">16.354061126709</t>
+    <t xml:space="preserve">16.3540630340576</t>
   </si>
   <si>
     <t xml:space="preserve">16.5987129211426</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">16.9562835693359</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5610733032227</t>
+    <t xml:space="preserve">16.5610752105713</t>
   </si>
   <si>
     <t xml:space="preserve">17.0691986083984</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">17.2009334564209</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7680892944336</t>
+    <t xml:space="preserve">16.7680912017822</t>
   </si>
   <si>
     <t xml:space="preserve">17.0315589904785</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">18.0289878845215</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2171802520752</t>
+    <t xml:space="preserve">18.2171821594238</t>
   </si>
   <si>
     <t xml:space="preserve">18.6688480377197</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">18.1795425415039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6928119659424</t>
+    <t xml:space="preserve">16.692813873291</t>
   </si>
   <si>
     <t xml:space="preserve">16.8621845245361</t>
@@ -1358,19 +1358,19 @@
     <t xml:space="preserve">16.4293403625488</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1444759368896</t>
+    <t xml:space="preserve">17.1444778442383</t>
   </si>
   <si>
     <t xml:space="preserve">16.1846885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">15.958854675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8647565841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7142019271851</t>
+    <t xml:space="preserve">15.9588527679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8647575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7142009735107</t>
   </si>
   <si>
     <t xml:space="preserve">16.128231048584</t>
@@ -1379,34 +1379,34 @@
     <t xml:space="preserve">16.0153121948242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0905895233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4695491790771</t>
+    <t xml:space="preserve">16.0905914306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4695482254028</t>
   </si>
   <si>
     <t xml:space="preserve">14.6226758956909</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2651071548462</t>
+    <t xml:space="preserve">14.2651081085205</t>
   </si>
   <si>
     <t xml:space="preserve">14.96142578125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6201038360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7518396377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7894773483276</t>
+    <t xml:space="preserve">15.6201028823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.751838684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7894763946533</t>
   </si>
   <si>
     <t xml:space="preserve">15.6389236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8271169662476</t>
+    <t xml:space="preserve">15.8271179199219</t>
   </si>
   <si>
     <t xml:space="preserve">15.582465171814</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">15.563645362854</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7706604003906</t>
+    <t xml:space="preserve">15.7706594467163</t>
   </si>
   <si>
     <t xml:space="preserve">15.9776735305786</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">17.7090587615967</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8972511291504</t>
+    <t xml:space="preserve">17.897253036499</t>
   </si>
   <si>
     <t xml:space="preserve">18.2548198699951</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">17.7278747558594</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8784313201904</t>
+    <t xml:space="preserve">17.8784332275391</t>
   </si>
   <si>
     <t xml:space="preserve">19.854471206665</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9485683441162</t>
+    <t xml:space="preserve">19.9485664367676</t>
   </si>
   <si>
     <t xml:space="preserve">19.5721797943115</t>
@@ -1481,22 +1481,22 @@
     <t xml:space="preserve">20.701343536377</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6072463989258</t>
+    <t xml:space="preserve">20.6072444915771</t>
   </si>
   <si>
     <t xml:space="preserve">20.4190521240234</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2779064178467</t>
+    <t xml:space="preserve">20.277904510498</t>
   </si>
   <si>
     <t xml:space="preserve">20.0897121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3720035552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7483921051025</t>
+    <t xml:space="preserve">20.3720054626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7483940124512</t>
   </si>
   <si>
     <t xml:space="preserve">20.7954406738281</t>
@@ -1511,10 +1511,10 @@
     <t xml:space="preserve">22.1127986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4541187286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9836349487305</t>
+    <t xml:space="preserve">21.4541206359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9836330413818</t>
   </si>
   <si>
     <t xml:space="preserve">20.2308597564697</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">19.3369369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8764381408691</t>
+    <t xml:space="preserve">19.8764400482178</t>
   </si>
   <si>
     <t xml:space="preserve">20.1130638122559</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">18.60813331604</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9110126495361</t>
+    <t xml:space="preserve">18.9110107421875</t>
   </si>
   <si>
     <t xml:space="preserve">18.6459941864014</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">18.9299449920654</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7785034179688</t>
+    <t xml:space="preserve">18.7785053253174</t>
   </si>
   <si>
     <t xml:space="preserve">20.2077140808105</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">20.9649105072021</t>
   </si>
   <si>
-    <t xml:space="preserve">21.438159942627</t>
+    <t xml:space="preserve">21.4381618499756</t>
   </si>
   <si>
     <t xml:space="preserve">22.2426834106445</t>
@@ -1619,19 +1619,19 @@
     <t xml:space="preserve">22.6212825775146</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1418533325195</t>
+    <t xml:space="preserve">23.1418552398682</t>
   </si>
   <si>
     <t xml:space="preserve">23.3784790039062</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6624279022217</t>
+    <t xml:space="preserve">23.6624298095703</t>
   </si>
   <si>
     <t xml:space="preserve">23.3311557769775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2365055084229</t>
+    <t xml:space="preserve">23.2365036010742</t>
   </si>
   <si>
     <t xml:space="preserve">23.7570781707764</t>
@@ -1658,507 +1658,510 @@
     <t xml:space="preserve">23.709753036499</t>
   </si>
   <si>
+    <t xml:space="preserve">23.0945281982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4258041381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.615104675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0410270690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9114093780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.864086151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2900085449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1007080078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.722110748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2961864471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0595607757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1068840026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9175872802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7282867431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3908348083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0060577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9875240325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8455505371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1768226623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6089248657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5615997314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.567777633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8044033050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3249759674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9937019348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4669494628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1356773376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.65625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7447204589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.602746963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8393726348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5554237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4607715606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4731273651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7159290313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4319839477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2838306427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4196262359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8928756713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7035751342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9401988983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0883522033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1830024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0348491668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.798225402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3661231994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3187980651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.674783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3435115814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.580135345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.586311340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9587326049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0122375488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4854831695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7694339752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.532808303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3970146179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.491662979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3558654785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7027816772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0184135437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8229389190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.497838973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3431148529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.453405380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1694583892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9422988891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4377632141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3241844177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7974338531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0657367706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8167591094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1480331420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4793071746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6274585723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6336364746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4443397521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1603889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8731536865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8352928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0533809661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3496894836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6809616088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.456693649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0970249176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0213050842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3398265838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3208999633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8914546966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.063232421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0250587463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5097255706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3761215209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9487133026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6549091339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0938968658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9412059783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3992786407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3801937103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3038463592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0863914489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7619209289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.704662322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9146118164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0748100280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5519714355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.723747253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8955268859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9929943084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3270053863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8995971679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9950294494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0904598236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.04274559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1858940124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.422435760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2356433868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8559513092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4265079498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6173725128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.76051902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1879272460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6153354644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8062000274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5676212310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1381759643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9473114013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5655841827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8021297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3747215270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0884246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8498458862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3726844787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7066974639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1838569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8975601196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3249702453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.134105682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1818218231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6855754852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4947109222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0557250976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3611068725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.845775604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5137977600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9030323028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.922119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1204929351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2656745910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2295379638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2315731048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9336986541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2847595214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4183673858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.647403717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1893272399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.34202003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6092300415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8041648864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7564487457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.661018371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6650867462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4762592315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.335147857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9554538726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5239753723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5716915130615</t>
+  </si>
+  <si>
     <t xml:space="preserve">23.0945301055908</t>
   </si>
   <si>
-    <t xml:space="preserve">23.425802230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6151065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0410289764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9114093780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.864086151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2900085449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1007080078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.722110748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2961845397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0595607757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1068859100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9175853729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7282886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3908348083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0060577392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9875240325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8455486297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1768226623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6089248657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5616016387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.567777633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8044013977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3249740600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9937038421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4669494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1356773376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.65625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.744722366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6027488708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8393726348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5554237365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4607734680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4731292724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7159309387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4319839477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2838287353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4196262359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8928737640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7035751342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9402008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0883522033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1830024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0348491668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.798225402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3661231994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3187980651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.674783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3435115814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.580135345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5863132476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9587326049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0122375488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4854850769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7694339752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.532808303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3970127105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4916648864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3558654785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7027835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0184135437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8229389190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.497838973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3431148529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.453405380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1694583892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9422988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4377632141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3241844177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7974338531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0657386779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8167572021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1480331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4793071746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6274585723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6336364746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4443397521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1603889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8731536865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8352928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0533828735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3496894836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6809616088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.456693649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0970230102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0213050842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3398265838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3208999633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8914546966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.063232421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0250587463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5097255706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3761215209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9487133026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6549091339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0938968658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9412059783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3992786407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3801937103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3038463592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0863914489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7619209289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.704662322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9146118164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0748100280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5519714355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.723747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8955268859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9929943084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3270053863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8995971679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9950294494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0904598236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.04274559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1858940124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.422435760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2356433868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8559513092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4265079498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6173725128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.76051902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1879272460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6153354644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8062000274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5676212310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1381759643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9473114013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5655841827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8021297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3747215270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0884246826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8498458862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3726844787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7066974639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1838569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8975601196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3249702453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.134105682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1818218231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6855754852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4947109222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0557250976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3611068725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.845775604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5137977600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9030323028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.922119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1204929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2656745910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2295379638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2315731048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9336986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2847595214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4183673858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.647403717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1893272399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.34202003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6092300415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8041648864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7564487457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.661018371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6650867462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4762592315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.335147857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9554538726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5239753723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5716915130615</t>
-  </si>
-  <si>
     <t xml:space="preserve">23.8579864501953</t>
   </si>
   <si>
@@ -2910,6 +2913,9 @@
   </si>
   <si>
     <t xml:space="preserve">18.3600006103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3199996948242</t>
   </si>
 </sst>
 </file>
@@ -32701,7 +32707,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1133" t="s">
-        <v>548</v>
+        <v>715</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32753,7 +32759,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1135" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32805,7 +32811,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1137" t="s">
-        <v>548</v>
+        <v>715</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32857,7 +32863,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1139" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32909,7 +32915,7 @@
         <v>23.4497299194336</v>
       </c>
       <c r="G1141" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32935,7 +32941,7 @@
         <v>23.3526306152344</v>
       </c>
       <c r="G1142" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32961,7 +32967,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1143" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32987,7 +32993,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1144" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -33013,7 +33019,7 @@
         <v>22.7214775085449</v>
       </c>
       <c r="G1145" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -33039,7 +33045,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1146" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -33065,7 +33071,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1147" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -33091,7 +33097,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1148" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33117,7 +33123,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G1149" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33169,7 +33175,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1151" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33195,7 +33201,7 @@
         <v>23.7410316467285</v>
       </c>
       <c r="G1152" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33221,7 +33227,7 @@
         <v>22.9642276763916</v>
       </c>
       <c r="G1153" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33247,7 +33253,7 @@
         <v>22.5272769927979</v>
       </c>
       <c r="G1154" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33273,7 +33279,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1155" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33299,7 +33305,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1156" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33377,7 +33383,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1159" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33481,7 +33487,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1163" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33507,7 +33513,7 @@
         <v>22.2845268249512</v>
       </c>
       <c r="G1164" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33533,7 +33539,7 @@
         <v>22.1388759613037</v>
       </c>
       <c r="G1165" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33559,7 +33565,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1166" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33611,7 +33617,7 @@
         <v>22.2359752655029</v>
       </c>
       <c r="G1168" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33637,7 +33643,7 @@
         <v>22.0903244018555</v>
       </c>
       <c r="G1169" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33663,7 +33669,7 @@
         <v>21.896125793457</v>
       </c>
       <c r="G1170" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33689,7 +33695,7 @@
         <v>22.2845268249512</v>
       </c>
       <c r="G1171" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33715,7 +33721,7 @@
         <v>22.4787273406982</v>
       </c>
       <c r="G1172" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33741,7 +33747,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1173" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33767,7 +33773,7 @@
         <v>22.9642276763916</v>
       </c>
       <c r="G1174" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33793,7 +33799,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1175" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33845,7 +33851,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1177" t="s">
-        <v>548</v>
+        <v>715</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33871,7 +33877,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1178" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33949,7 +33955,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1181" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33975,7 +33981,7 @@
         <v>22.4787273406982</v>
       </c>
       <c r="G1182" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34001,7 +34007,7 @@
         <v>22.0417747497559</v>
       </c>
       <c r="G1183" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34053,7 +34059,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G1185" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -34105,7 +34111,7 @@
         <v>25.2946357727051</v>
       </c>
       <c r="G1187" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34131,7 +34137,7 @@
         <v>24.5663833618164</v>
       </c>
       <c r="G1188" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34183,7 +34189,7 @@
         <v>24.8576850891113</v>
       </c>
       <c r="G1190" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34209,7 +34215,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1191" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34235,7 +34241,7 @@
         <v>25.9257888793945</v>
       </c>
       <c r="G1192" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34261,7 +34267,7 @@
         <v>25.5373878479004</v>
       </c>
       <c r="G1193" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34287,7 +34293,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1194" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34313,7 +34319,7 @@
         <v>25.3431873321533</v>
       </c>
       <c r="G1195" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34339,7 +34345,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1196" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34391,7 +34397,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G1198" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34417,7 +34423,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G1199" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34443,7 +34449,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1200" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34469,7 +34475,7 @@
         <v>26.3627395629883</v>
       </c>
       <c r="G1201" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34495,7 +34501,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G1202" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34521,7 +34527,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1203" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34547,7 +34553,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G1204" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34573,7 +34579,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G1205" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34599,7 +34605,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1206" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34625,7 +34631,7 @@
         <v>25.9257888793945</v>
       </c>
       <c r="G1207" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34651,7 +34657,7 @@
         <v>26.1685390472412</v>
       </c>
       <c r="G1208" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34677,7 +34683,7 @@
         <v>26.4112892150879</v>
       </c>
       <c r="G1209" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34703,7 +34709,7 @@
         <v>25.9743385314941</v>
       </c>
       <c r="G1210" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34729,7 +34735,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1211" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34755,7 +34761,7 @@
         <v>24.1779823303223</v>
       </c>
       <c r="G1212" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34781,7 +34787,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1213" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34833,7 +34839,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1215" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34859,7 +34865,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1216" t="s">
-        <v>548</v>
+        <v>715</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34885,7 +34891,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G1217" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34911,7 +34917,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G1218" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34937,7 +34943,7 @@
         <v>23.5468292236328</v>
       </c>
       <c r="G1219" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34963,7 +34969,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1220" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34989,7 +34995,7 @@
         <v>23.5468292236328</v>
       </c>
       <c r="G1221" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35015,7 +35021,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1222" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -35041,7 +35047,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G1223" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -35067,7 +35073,7 @@
         <v>24.2265338897705</v>
       </c>
       <c r="G1224" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -35093,7 +35099,7 @@
         <v>24.6149349212646</v>
       </c>
       <c r="G1225" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -35119,7 +35125,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1226" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35145,7 +35151,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1227" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35171,7 +35177,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1228" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35197,7 +35203,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G1229" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35223,7 +35229,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1230" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35249,7 +35255,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1231" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35275,7 +35281,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1232" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35301,7 +35307,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G1233" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35327,7 +35333,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1234" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35353,7 +35359,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1235" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35431,7 +35437,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1238" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35483,7 +35489,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1240" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35535,7 +35541,7 @@
         <v>21.8475742340088</v>
       </c>
       <c r="G1242" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35561,7 +35567,7 @@
         <v>23.2069797515869</v>
       </c>
       <c r="G1243" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35587,7 +35593,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1244" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35613,7 +35619,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1245" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35639,7 +35645,7 @@
         <v>22.915678024292</v>
       </c>
       <c r="G1246" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35691,7 +35697,7 @@
         <v>23.2069797515869</v>
       </c>
       <c r="G1248" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35743,7 +35749,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1250" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35769,7 +35775,7 @@
         <v>24.2265338897705</v>
       </c>
       <c r="G1251" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35795,7 +35801,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1252" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35821,7 +35827,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1253" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35847,7 +35853,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G1254" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35873,7 +35879,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1255" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35899,7 +35905,7 @@
         <v>23.5468292236328</v>
       </c>
       <c r="G1256" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35925,7 +35931,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G1257" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35951,7 +35957,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1258" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35977,7 +35983,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1259" t="s">
-        <v>548</v>
+        <v>715</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -36055,7 +36061,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1262" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -36081,7 +36087,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1263" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -36107,7 +36113,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1264" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -36133,7 +36139,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1265" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36159,7 +36165,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G1266" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36185,7 +36191,7 @@
         <v>25.6830387115479</v>
       </c>
       <c r="G1267" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36211,7 +36217,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1268" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36237,7 +36243,7 @@
         <v>27.1395435333252</v>
       </c>
       <c r="G1269" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36263,7 +36269,7 @@
         <v>27.0424423217773</v>
       </c>
       <c r="G1270" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36289,7 +36295,7 @@
         <v>27.285192489624</v>
       </c>
       <c r="G1271" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36315,7 +36321,7 @@
         <v>26.8482418060303</v>
       </c>
       <c r="G1272" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36341,7 +36347,7 @@
         <v>26.4598407745361</v>
       </c>
       <c r="G1273" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36367,7 +36373,7 @@
         <v>27.0424423217773</v>
       </c>
       <c r="G1274" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36393,7 +36399,7 @@
         <v>27.1880931854248</v>
       </c>
       <c r="G1275" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36419,7 +36425,7 @@
         <v>27.1880931854248</v>
       </c>
       <c r="G1276" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36445,7 +36451,7 @@
         <v>27.1880931854248</v>
       </c>
       <c r="G1277" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36471,7 +36477,7 @@
         <v>27.3337421417236</v>
       </c>
       <c r="G1278" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36497,7 +36503,7 @@
         <v>26.7996921539307</v>
       </c>
       <c r="G1279" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36523,7 +36529,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1280" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36549,7 +36555,7 @@
         <v>26.1199893951416</v>
       </c>
       <c r="G1281" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36575,7 +36581,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1282" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36601,7 +36607,7 @@
         <v>26.3141899108887</v>
       </c>
       <c r="G1283" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36627,7 +36633,7 @@
         <v>26.071439743042</v>
       </c>
       <c r="G1284" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36653,7 +36659,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1285" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36679,7 +36685,7 @@
         <v>26.3627395629883</v>
       </c>
       <c r="G1286" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36705,7 +36711,7 @@
         <v>26.5569400787354</v>
       </c>
       <c r="G1287" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36731,7 +36737,7 @@
         <v>26.7996921539307</v>
       </c>
       <c r="G1288" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36757,7 +36763,7 @@
         <v>25.9743385314941</v>
       </c>
       <c r="G1289" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36783,7 +36789,7 @@
         <v>26.6054916381836</v>
       </c>
       <c r="G1290" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36809,7 +36815,7 @@
         <v>26.3627395629883</v>
       </c>
       <c r="G1291" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36835,7 +36841,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G1292" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36861,7 +36867,7 @@
         <v>26.4112892150879</v>
       </c>
       <c r="G1293" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36887,7 +36893,7 @@
         <v>26.1199893951416</v>
       </c>
       <c r="G1294" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36913,7 +36919,7 @@
         <v>26.2656402587891</v>
       </c>
       <c r="G1295" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36939,7 +36945,7 @@
         <v>25.5859375</v>
       </c>
       <c r="G1296" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36965,7 +36971,7 @@
         <v>25.6830387115479</v>
       </c>
       <c r="G1297" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36991,7 +36997,7 @@
         <v>25.7315883636475</v>
       </c>
       <c r="G1298" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -37017,7 +37023,7 @@
         <v>25.4888362884521</v>
       </c>
       <c r="G1299" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -37043,7 +37049,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1300" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -37069,7 +37075,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1301" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -37095,7 +37101,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1302" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -37121,7 +37127,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G1303" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37147,7 +37153,7 @@
         <v>25.1489868164062</v>
       </c>
       <c r="G1304" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37173,7 +37179,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1305" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37199,7 +37205,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G1306" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37225,7 +37231,7 @@
         <v>25.3917369842529</v>
       </c>
       <c r="G1307" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37251,7 +37257,7 @@
         <v>25.1489868164062</v>
       </c>
       <c r="G1308" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37277,7 +37283,7 @@
         <v>25.2946357727051</v>
       </c>
       <c r="G1309" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37303,7 +37309,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G1310" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37329,7 +37335,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1311" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37355,7 +37361,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G1312" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37381,7 +37387,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1313" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37407,7 +37413,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1314" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37433,7 +37439,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G1315" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37459,7 +37465,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1316" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37485,7 +37491,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1317" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37511,7 +37517,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1318" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37537,7 +37543,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1319" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37563,7 +37569,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G1320" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37589,7 +37595,7 @@
         <v>24.7605857849121</v>
       </c>
       <c r="G1321" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37615,7 +37621,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G1322" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37641,7 +37647,7 @@
         <v>24.5178337097168</v>
       </c>
       <c r="G1323" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37667,7 +37673,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G1324" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37693,7 +37699,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1325" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37719,7 +37725,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1326" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37745,7 +37751,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1327" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37771,7 +37777,7 @@
         <v>24.8576850891113</v>
       </c>
       <c r="G1328" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37797,7 +37803,7 @@
         <v>24.8576850891113</v>
       </c>
       <c r="G1329" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37823,7 +37829,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G1330" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37849,7 +37855,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G1331" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37875,7 +37881,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1332" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37901,7 +37907,7 @@
         <v>25.3917369842529</v>
       </c>
       <c r="G1333" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37927,7 +37933,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1334" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37953,7 +37959,7 @@
         <v>25.5859375</v>
       </c>
       <c r="G1335" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37979,7 +37985,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1336" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -38005,7 +38011,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G1337" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -38031,7 +38037,7 @@
         <v>23.886682510376</v>
       </c>
       <c r="G1338" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -38057,7 +38063,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G1339" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -38083,7 +38089,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G1340" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -38109,7 +38115,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G1341" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -38135,7 +38141,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1342" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -38161,7 +38167,7 @@
         <v>23.3040790557861</v>
       </c>
       <c r="G1343" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -38187,7 +38193,7 @@
         <v>22.4301776885986</v>
       </c>
       <c r="G1344" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -38213,7 +38219,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1345" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38239,7 +38245,7 @@
         <v>21.5562744140625</v>
       </c>
       <c r="G1346" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -38265,7 +38271,7 @@
         <v>21.4591732025146</v>
       </c>
       <c r="G1347" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38291,7 +38297,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1348" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38317,7 +38323,7 @@
         <v>20.9736728668213</v>
       </c>
       <c r="G1349" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38343,7 +38349,7 @@
         <v>21.7019233703613</v>
       </c>
       <c r="G1350" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38369,7 +38375,7 @@
         <v>21.7019233703613</v>
       </c>
       <c r="G1351" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38395,7 +38401,7 @@
         <v>22.0417747497559</v>
       </c>
       <c r="G1352" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38421,7 +38427,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1353" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38447,7 +38453,7 @@
         <v>21.6533737182617</v>
       </c>
       <c r="G1354" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38473,7 +38479,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1355" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38499,7 +38505,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1356" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38525,7 +38531,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G1357" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38551,7 +38557,7 @@
         <v>20.4396190643311</v>
       </c>
       <c r="G1358" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38577,7 +38583,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1359" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38603,7 +38609,7 @@
         <v>21.5077228546143</v>
       </c>
       <c r="G1360" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38629,7 +38635,7 @@
         <v>21.7019233703613</v>
       </c>
       <c r="G1361" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38655,7 +38661,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G1362" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38681,7 +38687,7 @@
         <v>21.0222225189209</v>
       </c>
       <c r="G1363" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38707,7 +38713,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1364" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38733,7 +38739,7 @@
         <v>19.2841262817383</v>
       </c>
       <c r="G1365" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38759,7 +38765,7 @@
         <v>19.759916305542</v>
       </c>
       <c r="G1366" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38785,7 +38791,7 @@
         <v>18.9734058380127</v>
       </c>
       <c r="G1367" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38811,7 +38817,7 @@
         <v>18.8763046264648</v>
       </c>
       <c r="G1368" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38837,7 +38843,7 @@
         <v>18.8568840026855</v>
       </c>
       <c r="G1369" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38863,7 +38869,7 @@
         <v>18.3713836669922</v>
       </c>
       <c r="G1370" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38889,7 +38895,7 @@
         <v>18.0800819396973</v>
       </c>
       <c r="G1371" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38915,7 +38921,7 @@
         <v>18.0218200683594</v>
       </c>
       <c r="G1372" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38941,7 +38947,7 @@
         <v>18.1966018676758</v>
       </c>
       <c r="G1373" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -38967,7 +38973,7 @@
         <v>19.1093444824219</v>
       </c>
       <c r="G1374" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -38993,7 +38999,7 @@
         <v>19.1870250701904</v>
       </c>
       <c r="G1375" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -39019,7 +39025,7 @@
         <v>20.2939682006836</v>
       </c>
       <c r="G1376" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -39045,7 +39051,7 @@
         <v>20.5852699279785</v>
       </c>
       <c r="G1377" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -39071,7 +39077,7 @@
         <v>20.1968688964844</v>
       </c>
       <c r="G1378" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -39097,7 +39103,7 @@
         <v>20.8765716552734</v>
       </c>
       <c r="G1379" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -39123,7 +39129,7 @@
         <v>21.1678714752197</v>
       </c>
       <c r="G1380" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -39149,7 +39155,7 @@
         <v>21.6533737182617</v>
       </c>
       <c r="G1381" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39175,7 +39181,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1382" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -39201,7 +39207,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1383" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39227,7 +39233,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1384" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39253,7 +39259,7 @@
         <v>22.1874256134033</v>
       </c>
       <c r="G1385" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -39279,7 +39285,7 @@
         <v>20.9736728668213</v>
       </c>
       <c r="G1386" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39305,7 +39311,7 @@
         <v>21.0222225189209</v>
       </c>
       <c r="G1387" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39331,7 +39337,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1388" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39357,7 +39363,7 @@
         <v>20.25</v>
       </c>
       <c r="G1389" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39383,7 +39389,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1390" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39409,7 +39415,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1391" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39435,7 +39441,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1392" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39461,7 +39467,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1393" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39487,7 +39493,7 @@
         <v>22.5</v>
       </c>
       <c r="G1394" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39513,7 +39519,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1395" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39539,7 +39545,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1396" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39565,7 +39571,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1397" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39591,7 +39597,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1398" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39617,7 +39623,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1399" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39643,7 +39649,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1400" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39669,7 +39675,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1401" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39695,7 +39701,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1402" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39721,7 +39727,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1403" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39747,7 +39753,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1404" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39773,7 +39779,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1405" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39799,7 +39805,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1406" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39825,7 +39831,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1407" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39851,7 +39857,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1408" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39877,7 +39883,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1409" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39903,7 +39909,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G1410" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39929,7 +39935,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1411" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39955,7 +39961,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1412" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39981,7 +39987,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1413" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -40007,7 +40013,7 @@
         <v>24.75</v>
       </c>
       <c r="G1414" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -40033,7 +40039,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1415" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -40059,7 +40065,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1416" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -40085,7 +40091,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1417" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -40111,7 +40117,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1418" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -40137,7 +40143,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -40163,7 +40169,7 @@
         <v>23.25</v>
       </c>
       <c r="G1420" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40189,7 +40195,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1421" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40215,7 +40221,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1422" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40241,7 +40247,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1423" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40267,7 +40273,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1424" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40293,7 +40299,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1425" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40319,7 +40325,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1426" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40345,7 +40351,7 @@
         <v>22.5</v>
       </c>
       <c r="G1427" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40371,7 +40377,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1428" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40397,7 +40403,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1429" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40423,7 +40429,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1430" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40449,7 +40455,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1431" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40475,7 +40481,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40501,7 +40507,7 @@
         <v>22.25</v>
       </c>
       <c r="G1433" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40527,7 +40533,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1434" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40553,7 +40559,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1435" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40579,7 +40585,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1436" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40605,7 +40611,7 @@
         <v>22.5</v>
       </c>
       <c r="G1437" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40631,7 +40637,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1438" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40657,7 +40663,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1439" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40683,7 +40689,7 @@
         <v>22.25</v>
       </c>
       <c r="G1440" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40709,7 +40715,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1441" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40735,7 +40741,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1442" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40761,7 +40767,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1443" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40787,7 +40793,7 @@
         <v>22.75</v>
       </c>
       <c r="G1444" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40813,7 +40819,7 @@
         <v>22.5</v>
       </c>
       <c r="G1445" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40839,7 +40845,7 @@
         <v>22.25</v>
       </c>
       <c r="G1446" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40865,7 +40871,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1447" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40891,7 +40897,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1448" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40917,7 +40923,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1449" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40943,7 +40949,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1450" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40969,7 +40975,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1451" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40995,7 +41001,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1452" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -41021,7 +41027,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1453" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -41047,7 +41053,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1454" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -41073,7 +41079,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1455" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -41099,7 +41105,7 @@
         <v>22</v>
       </c>
       <c r="G1456" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -41125,7 +41131,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1457" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -41151,7 +41157,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1458" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41177,7 +41183,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1459" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41203,7 +41209,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1460" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41229,7 +41235,7 @@
         <v>21.5</v>
       </c>
       <c r="G1461" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41255,7 +41261,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1462" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41281,7 +41287,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1463" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41307,7 +41313,7 @@
         <v>20</v>
       </c>
       <c r="G1464" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41333,7 +41339,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G1465" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41359,7 +41365,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G1466" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41385,7 +41391,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1467" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41411,7 +41417,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1468" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41437,7 +41443,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1469" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41463,7 +41469,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G1470" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41489,7 +41495,7 @@
         <v>19.5</v>
       </c>
       <c r="G1471" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41515,7 +41521,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G1472" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41541,7 +41547,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1473" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41567,7 +41573,7 @@
         <v>19.8600006103516</v>
       </c>
       <c r="G1474" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41593,7 +41599,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1475" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41619,7 +41625,7 @@
         <v>20.5</v>
       </c>
       <c r="G1476" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41645,7 +41651,7 @@
         <v>21</v>
       </c>
       <c r="G1477" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41671,7 +41677,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1478" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41697,7 +41703,7 @@
         <v>20.5</v>
       </c>
       <c r="G1479" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41723,7 +41729,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1480" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41749,7 +41755,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41775,7 +41781,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G1482" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41801,7 +41807,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1483" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41827,7 +41833,7 @@
         <v>19.8199996948242</v>
       </c>
       <c r="G1484" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41853,7 +41859,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G1485" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41879,7 +41885,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G1486" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41905,7 +41911,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1487" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41931,7 +41937,7 @@
         <v>19.0799999237061</v>
       </c>
       <c r="G1488" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41957,7 +41963,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1489" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41983,7 +41989,7 @@
         <v>18.5</v>
       </c>
       <c r="G1490" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -42009,7 +42015,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1491" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -42035,7 +42041,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1492" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -42061,7 +42067,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1493" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -42087,7 +42093,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1494" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -42113,7 +42119,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1495" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -42139,7 +42145,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G1496" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -42165,7 +42171,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1497" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42191,7 +42197,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1498" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42217,7 +42223,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1499" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42243,7 +42249,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1500" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42269,7 +42275,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G1501" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42295,7 +42301,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1502" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42321,7 +42327,7 @@
         <v>19.2199993133545</v>
       </c>
       <c r="G1503" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42347,7 +42353,7 @@
         <v>19.0799999237061</v>
       </c>
       <c r="G1504" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42373,7 +42379,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1505" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42399,7 +42405,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1506" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42425,7 +42431,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G1507" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42451,7 +42457,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1508" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42477,7 +42483,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G1509" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42503,7 +42509,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1510" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42529,7 +42535,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1511" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42555,7 +42561,7 @@
         <v>18.4599990844727</v>
       </c>
       <c r="G1512" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42581,7 +42587,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1513" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42607,7 +42613,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1514" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42633,7 +42639,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G1515" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42659,7 +42665,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1516" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42685,7 +42691,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1517" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42711,7 +42717,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1518" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42737,7 +42743,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1519" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42763,7 +42769,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1520" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42789,7 +42795,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1521" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42815,7 +42821,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1522" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42841,7 +42847,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1523" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42867,7 +42873,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G1524" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42893,7 +42899,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1525" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42919,7 +42925,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1526" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42945,7 +42951,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1527" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42971,7 +42977,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1528" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42997,7 +43003,7 @@
         <v>18</v>
       </c>
       <c r="G1529" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -43023,7 +43029,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1530" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43049,7 +43055,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1531" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43075,7 +43081,7 @@
         <v>17</v>
       </c>
       <c r="G1532" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -43101,7 +43107,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1533" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43127,7 +43133,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1534" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -43153,7 +43159,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1535" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43179,7 +43185,7 @@
         <v>17.5</v>
       </c>
       <c r="G1536" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43205,7 +43211,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1537" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43231,7 +43237,7 @@
         <v>17.5</v>
       </c>
       <c r="G1538" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43257,7 +43263,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1539" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43283,7 +43289,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1540" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43309,7 +43315,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1541" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43335,7 +43341,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1542" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43361,7 +43367,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1543" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43387,7 +43393,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1544" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43413,7 +43419,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G1545" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43439,7 +43445,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1546" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43465,7 +43471,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1547" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43473,7 +43479,7 @@
     </row>
     <row r="1548">
       <c r="A1548" s="1" t="n">
-        <v>45482.6495833333</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B1548" t="n">
         <v>147389</v>
@@ -43491,9 +43497,35 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G1548" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1548" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="1" t="n">
+        <v>45483.6496064815</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>72801</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>18.6000003814697</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>18.3199996948242</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>18.3600006103516</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>18.3199996948242</v>
+      </c>
+      <c r="G1549" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1549" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="969">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">CRL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95949506759644</t>
+    <t xml:space="preserve">7.95949554443359</t>
   </si>
   <si>
     <t xml:space="preserve">7.86694288253784</t>
@@ -53,13 +53,13 @@
     <t xml:space="preserve">7.77439212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74477291107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92987966537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02428150177002</t>
+    <t xml:space="preserve">7.74477434158325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92987823486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02428340911865</t>
   </si>
   <si>
     <t xml:space="preserve">7.72904014587402</t>
@@ -68,19 +68,19 @@
     <t xml:space="preserve">8.03353691101074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49766063690186</t>
+    <t xml:space="preserve">7.4976601600647</t>
   </si>
   <si>
     <t xml:space="preserve">7.35512971878052</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57910633087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51987218856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62630796432495</t>
+    <t xml:space="preserve">7.57910680770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51987266540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62630748748779</t>
   </si>
   <si>
     <t xml:space="preserve">7.49673461914062</t>
@@ -92,61 +92,61 @@
     <t xml:space="preserve">7.59854221343994</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70220041275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85768842697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91321992874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97893190383911</t>
+    <t xml:space="preserve">7.7022008895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85768890380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91322088241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97893333435059</t>
   </si>
   <si>
     <t xml:space="preserve">8.06130504608154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9224739074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07703685760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87064552307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82066679000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90766763687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7484769821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84843397140503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80215787887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94561338424683</t>
+    <t xml:space="preserve">7.92247533798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0770378112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87064647674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82066822052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90766716003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74847650527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84843254089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80215740203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94561195373535</t>
   </si>
   <si>
     <t xml:space="preserve">7.61797761917114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72811508178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84102869033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80400943756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05204772949219</t>
+    <t xml:space="preserve">7.72811412811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84102916717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80400848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0520486831665</t>
   </si>
   <si>
     <t xml:space="preserve">8.11776065826416</t>
@@ -155,16 +155,16 @@
     <t xml:space="preserve">8.17236614227295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36302471160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52406406402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54720306396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8165283203125</t>
+    <t xml:space="preserve">8.36302375793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5240650177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54720115661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81652927398682</t>
   </si>
   <si>
     <t xml:space="preserve">9.02384757995605</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">8.66289234161377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34821605682373</t>
+    <t xml:space="preserve">8.34821510314941</t>
   </si>
   <si>
     <t xml:space="preserve">8.31119441986084</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">8.42225742340088</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51480865478516</t>
+    <t xml:space="preserve">8.51480960845947</t>
   </si>
   <si>
     <t xml:space="preserve">8.77395629882812</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">8.8109769821167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67770099639893</t>
+    <t xml:space="preserve">8.67770195007324</t>
   </si>
   <si>
     <t xml:space="preserve">8.72767925262451</t>
@@ -203,31 +203,31 @@
     <t xml:space="preserve">8.857253074646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07012367248535</t>
+    <t xml:space="preserve">9.07012271881104</t>
   </si>
   <si>
     <t xml:space="preserve">8.93222141265869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18118572235107</t>
+    <t xml:space="preserve">9.18118667602539</t>
   </si>
   <si>
     <t xml:space="preserve">9.20895099639893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40331172943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16267490386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18211078643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05531406402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25152683258057</t>
+    <t xml:space="preserve">9.40331268310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16267585754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1821117401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0553150177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25152492523193</t>
   </si>
   <si>
     <t xml:space="preserve">9.12657928466797</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">9.08863353729248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8285608291626</t>
+    <t xml:space="preserve">8.82856178283691</t>
   </si>
   <si>
     <t xml:space="preserve">9.05809211730957</t>
@@ -257,112 +257,112 @@
     <t xml:space="preserve">8.03908920288086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36580085754395</t>
+    <t xml:space="preserve">8.36580181121826</t>
   </si>
   <si>
     <t xml:space="preserve">8.46853351593018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60736179351807</t>
+    <t xml:space="preserve">8.60736274719238</t>
   </si>
   <si>
     <t xml:space="preserve">8.65363883972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69991493225098</t>
+    <t xml:space="preserve">8.69991302490234</t>
   </si>
   <si>
     <t xml:space="preserve">8.87113475799561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08721923828125</t>
+    <t xml:space="preserve">8.08721733093262</t>
   </si>
   <si>
     <t xml:space="preserve">7.80678606033325</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97800493240356</t>
+    <t xml:space="preserve">7.97800636291504</t>
   </si>
   <si>
     <t xml:space="preserve">8.40189552307129</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83781814575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84059429168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81745624542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5666389465332</t>
+    <t xml:space="preserve">8.83781719207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8405933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81745433807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56663799285889</t>
   </si>
   <si>
     <t xml:space="preserve">8.66104316711426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76377487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63883018493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45280075073242</t>
+    <t xml:space="preserve">8.76377391815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63882923126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45279979705811</t>
   </si>
   <si>
     <t xml:space="preserve">8.40097045898438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62217140197754</t>
+    <t xml:space="preserve">8.62217044830322</t>
   </si>
   <si>
     <t xml:space="preserve">8.78228569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11220836639404</t>
+    <t xml:space="preserve">8.11220741271973</t>
   </si>
   <si>
     <t xml:space="preserve">8.09924983978271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14460182189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24733352661133</t>
+    <t xml:space="preserve">8.1446008682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24733257293701</t>
   </si>
   <si>
     <t xml:space="preserve">8.61013889312744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39449119567871</t>
+    <t xml:space="preserve">8.39449214935303</t>
   </si>
   <si>
     <t xml:space="preserve">8.57034111022949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98497486114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10344123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03865528106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08122825622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21820735931396</t>
+    <t xml:space="preserve">8.98497581481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10344219207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03865432739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0812292098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21820831298828</t>
   </si>
   <si>
     <t xml:space="preserve">8.91278553009033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14416408538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91926383972168</t>
+    <t xml:space="preserve">9.14416313171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91926288604736</t>
   </si>
   <si>
     <t xml:space="preserve">8.3639497756958</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">8.29268360137939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32970428466797</t>
+    <t xml:space="preserve">8.3297061920166</t>
   </si>
   <si>
     <t xml:space="preserve">8.39726829528809</t>
@@ -380,16 +380,16 @@
     <t xml:space="preserve">8.25936508178711</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46390438079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33340740203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35747051239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56108474731445</t>
+    <t xml:space="preserve">8.46390533447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33340644836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35747146606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56108570098877</t>
   </si>
   <si>
     <t xml:space="preserve">8.49629878997803</t>
@@ -398,40 +398,40 @@
     <t xml:space="preserve">8.28342914581299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41392803192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27972602844238</t>
+    <t xml:space="preserve">8.41392707824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27972507476807</t>
   </si>
   <si>
     <t xml:space="preserve">8.21123886108398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45927906036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48704433441162</t>
+    <t xml:space="preserve">8.45927810668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48704528808594</t>
   </si>
   <si>
     <t xml:space="preserve">8.54442596435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77210426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83411502838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78320980072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16545295715332</t>
+    <t xml:space="preserve">8.77210521697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83411407470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78321170806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16545104980469</t>
   </si>
   <si>
     <t xml:space="preserve">9.13028144836426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96183681488037</t>
+    <t xml:space="preserve">8.96183586120605</t>
   </si>
   <si>
     <t xml:space="preserve">8.89797592163086</t>
@@ -440,19 +440,19 @@
     <t xml:space="preserve">9.04143142700195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11639881134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30150318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27188682556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42922592163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46254539489746</t>
+    <t xml:space="preserve">9.11639976501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30150413513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27188777923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42922687530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46254444122314</t>
   </si>
   <si>
     <t xml:space="preserve">9.67911624908447</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">9.71798992156982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76426696777344</t>
+    <t xml:space="preserve">9.76426601409912</t>
   </si>
   <si>
     <t xml:space="preserve">9.6624584197998</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">9.71243667602539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38665103912354</t>
+    <t xml:space="preserve">9.38665199279785</t>
   </si>
   <si>
     <t xml:space="preserve">9.68652248382568</t>
@@ -485,16 +485,16 @@
     <t xml:space="preserve">9.35148143768311</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53103256225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3977575302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19414234161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.329270362854</t>
+    <t xml:space="preserve">9.53103351593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39775848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1941442489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32926940917969</t>
   </si>
   <si>
     <t xml:space="preserve">9.21265411376953</t>
@@ -506,46 +506,46 @@
     <t xml:space="preserve">9.00533580780029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43799018859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82300758361816</t>
+    <t xml:space="preserve">8.43799114227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82300853729248</t>
   </si>
   <si>
     <t xml:space="preserve">9.07104873657227</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25522804260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03310298919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17193222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51437282562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45884227752686</t>
+    <t xml:space="preserve">9.25522899627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03310108184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17193126678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51437377929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45884323120117</t>
   </si>
   <si>
     <t xml:space="preserve">9.8105411529541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53288459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60692596435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82905292510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75500965118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97713470458984</t>
+    <t xml:space="preserve">9.53288555145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60692691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82905197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7550106048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97713565826416</t>
   </si>
   <si>
     <t xml:space="preserve">10.0696878433228</t>
@@ -557,25 +557,25 @@
     <t xml:space="preserve">9.86607265472412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99564743041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88458251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0141582489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1437282562256</t>
+    <t xml:space="preserve">9.99564647674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88458347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0141572952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1437292098999</t>
   </si>
   <si>
     <t xml:space="preserve">10.1807498931885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73649978637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84756278991699</t>
+    <t xml:space="preserve">9.73650074005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84756374359131</t>
   </si>
   <si>
     <t xml:space="preserve">9.9030933380127</t>
@@ -584,19 +584,19 @@
     <t xml:space="preserve">9.94011402130127</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2177724838257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2362813949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3843641281128</t>
+    <t xml:space="preserve">10.2177715301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2362823486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3843650817871</t>
   </si>
   <si>
     <t xml:space="preserve">10.1067094802856</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0881977081299</t>
+    <t xml:space="preserve">10.0881986618042</t>
   </si>
   <si>
     <t xml:space="preserve">10.1992607116699</t>
@@ -614,39 +614,36 @@
     <t xml:space="preserve">10.8101062774658</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4954280853271</t>
+    <t xml:space="preserve">10.4954290390015</t>
   </si>
   <si>
     <t xml:space="preserve">10.5509605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139389038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4028749465942</t>
+    <t xml:space="preserve">10.5139379501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4028759002686</t>
   </si>
   <si>
     <t xml:space="preserve">10.0511789321899</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92160415649414</t>
+    <t xml:space="preserve">9.92160511016846</t>
   </si>
   <si>
     <t xml:space="preserve">10.2551307678223</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0122947692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95625495910645</t>
+    <t xml:space="preserve">10.0122957229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95625591278076</t>
   </si>
   <si>
     <t xml:space="preserve">9.99361515045166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2177715301514</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.0683336257935</t>
   </si>
   <si>
@@ -659,7 +656,7 @@
     <t xml:space="preserve">10.161732673645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97493457794189</t>
+    <t xml:space="preserve">9.97493553161621</t>
   </si>
   <si>
     <t xml:space="preserve">10.1243724822998</t>
@@ -668,16 +665,16 @@
     <t xml:space="preserve">9.80681991577148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93757629394531</t>
+    <t xml:space="preserve">9.93757724761963</t>
   </si>
   <si>
     <t xml:space="preserve">10.2364501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6287231445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4792852401733</t>
+    <t xml:space="preserve">10.6287240982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4792861938477</t>
   </si>
   <si>
     <t xml:space="preserve">10.4979658126831</t>
@@ -686,16 +683,16 @@
     <t xml:space="preserve">10.4606075286865</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4419279098511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9002161026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3858880996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.105694770813</t>
+    <t xml:space="preserve">10.4419269561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90021705627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3858890533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1056938171387</t>
   </si>
   <si>
     <t xml:space="preserve">9.88153743743896</t>
@@ -704,28 +701,28 @@
     <t xml:space="preserve">10.1430540084839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1804113388062</t>
+    <t xml:space="preserve">10.1804122924805</t>
   </si>
   <si>
     <t xml:space="preserve">9.86285781860352</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3298482894897</t>
+    <t xml:space="preserve">10.3298492431641</t>
   </si>
   <si>
     <t xml:space="preserve">10.9275979995728</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5540056228638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1417751312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.245153427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6934652328491</t>
+    <t xml:space="preserve">10.5540037155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1417760848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2451524734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6934633255005</t>
   </si>
   <si>
     <t xml:space="preserve">11.4879884719849</t>
@@ -734,34 +731,34 @@
     <t xml:space="preserve">11.6187448501587</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7121419906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6000671386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0483779907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2351741790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3285732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5340480804443</t>
+    <t xml:space="preserve">11.7121429443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6000652313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0483770370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2351732254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3285722732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.53404712677</t>
   </si>
   <si>
     <t xml:space="preserve">12.6834859848022</t>
   </si>
   <si>
-    <t xml:space="preserve">12.272533416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6561050415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6747846603394</t>
+    <t xml:space="preserve">12.2725315093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6561040878296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.674783706665</t>
   </si>
   <si>
     <t xml:space="preserve">11.8242216110229</t>
@@ -770,22 +767,22 @@
     <t xml:space="preserve">11.5627059936523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0110177993774</t>
+    <t xml:space="preserve">12.0110158920288</t>
   </si>
   <si>
     <t xml:space="preserve">12.1978139877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2538528442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3098926544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6087684631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7768831253052</t>
+    <t xml:space="preserve">12.253851890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3098917007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6087665557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7768840789795</t>
   </si>
   <si>
     <t xml:space="preserve">13.075758934021</t>
@@ -797,34 +794,34 @@
     <t xml:space="preserve">13.4493522644043</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5987882614136</t>
+    <t xml:space="preserve">13.5987892150879</t>
   </si>
   <si>
     <t xml:space="preserve">14.1591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5614290237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2999143600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2065162658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.478009223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4406509399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3846120834351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4966888427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2912139892578</t>
+    <t xml:space="preserve">13.561429977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2999153137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2065181732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4780082702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4406499862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3846111297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4966878890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2912111282349</t>
   </si>
   <si>
     <t xml:space="preserve">12.3659315109253</t>
@@ -836,7 +833,7 @@
     <t xml:space="preserve">14.0097417831421</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5053901672363</t>
+    <t xml:space="preserve">13.5053911209106</t>
   </si>
   <si>
     <t xml:space="preserve">13.2625560760498</t>
@@ -845,13 +842,13 @@
     <t xml:space="preserve">12.9450006484985</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7955627441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.646125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4593296051025</t>
+    <t xml:space="preserve">12.7955636978149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6461267471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4593286514282</t>
   </si>
   <si>
     <t xml:space="preserve">12.8702821731567</t>
@@ -872,22 +869,22 @@
     <t xml:space="preserve">13.4306726455688</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1504764556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7395257949829</t>
+    <t xml:space="preserve">13.1504774093628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7395238876343</t>
   </si>
   <si>
     <t xml:space="preserve">12.4032907485962</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5527286529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5153684616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.93630027771</t>
+    <t xml:space="preserve">12.5527276992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5153675079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9362983703613</t>
   </si>
   <si>
     <t xml:space="preserve">11.8615808486938</t>
@@ -896,19 +893,19 @@
     <t xml:space="preserve">11.3759098052979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0957136154175</t>
+    <t xml:space="preserve">11.0957145690918</t>
   </si>
   <si>
     <t xml:space="preserve">11.1704330444336</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1143932342529</t>
+    <t xml:space="preserve">11.1143941879272</t>
   </si>
   <si>
     <t xml:space="preserve">10.8341989517212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3945894241333</t>
+    <t xml:space="preserve">11.394588470459</t>
   </si>
   <si>
     <t xml:space="preserve">11.2077922821045</t>
@@ -917,7 +914,7 @@
     <t xml:space="preserve">11.3572292327881</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3011922836304</t>
+    <t xml:space="preserve">11.3011913299561</t>
   </si>
   <si>
     <t xml:space="preserve">11.4506273269653</t>
@@ -926,31 +923,31 @@
     <t xml:space="preserve">11.189112663269</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48926448822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47058582305908</t>
+    <t xml:space="preserve">9.48926544189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47058486938477</t>
   </si>
   <si>
     <t xml:space="preserve">8.94755363464355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62002182006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77943897247314</t>
+    <t xml:space="preserve">9.62002277374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77943706512451</t>
   </si>
   <si>
     <t xml:space="preserve">8.87283611297607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2657470703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30310726165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25640773773193</t>
+    <t xml:space="preserve">8.26574802398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30310821533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25640678405762</t>
   </si>
   <si>
     <t xml:space="preserve">8.59264087677002</t>
@@ -968,16 +965,16 @@
     <t xml:space="preserve">9.84417819976807</t>
   </si>
   <si>
-    <t xml:space="preserve">10.367208480835</t>
+    <t xml:space="preserve">10.3672094345093</t>
   </si>
   <si>
     <t xml:space="preserve">10.3111696243286</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7881383895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0870151519775</t>
+    <t xml:space="preserve">9.78813934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0870141983032</t>
   </si>
   <si>
     <t xml:space="preserve">10.7781600952148</t>
@@ -986,28 +983,28 @@
     <t xml:space="preserve">11.7681827545166</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9549789428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5714082717896</t>
+    <t xml:space="preserve">11.9549779891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5714063644409</t>
   </si>
   <si>
     <t xml:space="preserve">12.7021646499634</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8429012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8229455947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5801086425781</t>
+    <t xml:space="preserve">11.8429002761841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8229446411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5801095962524</t>
   </si>
   <si>
     <t xml:space="preserve">13.7482261657715</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9997625350952</t>
+    <t xml:space="preserve">14.9997634887695</t>
   </si>
   <si>
     <t xml:space="preserve">15.1492004394531</t>
@@ -1022,19 +1019,19 @@
     <t xml:space="preserve">15.392035484314</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590269088745</t>
+    <t xml:space="preserve">15.8590278625488</t>
   </si>
   <si>
     <t xml:space="preserve">16.0831832885742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5041131973267</t>
+    <t xml:space="preserve">15.5041122436523</t>
   </si>
   <si>
     <t xml:space="preserve">15.0558013916016</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7195682525635</t>
+    <t xml:space="preserve">14.7195692062378</t>
   </si>
   <si>
     <t xml:space="preserve">14.5701313018799</t>
@@ -1046,13 +1043,13 @@
     <t xml:space="preserve">14.2338962554932</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8976621627808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9163417816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7669067382812</t>
+    <t xml:space="preserve">13.8976640701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9163436889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7669057846069</t>
   </si>
   <si>
     <t xml:space="preserve">14.1778583526611</t>
@@ -1061,27 +1058,30 @@
     <t xml:space="preserve">14.4206943511963</t>
   </si>
   <si>
-    <t xml:space="preserve">14.812967300415</t>
+    <t xml:space="preserve">14.8129663467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0931606292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603145599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9049663543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9990634918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8861474990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8673286437988</t>
   </si>
   <si>
     <t xml:space="preserve">15.0931615829468</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603145599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9049663543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9990634918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8861474990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8673286437988</t>
-  </si>
-  <si>
     <t xml:space="preserve">15.375452041626</t>
   </si>
   <si>
@@ -2916,6 +2916,9 @@
   </si>
   <si>
     <t xml:space="preserve">18.3199996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7199993133545</t>
   </si>
 </sst>
 </file>
@@ -10243,7 +10246,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G269" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -10269,7 +10272,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G270" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -10295,7 +10298,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G271" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -10321,7 +10324,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G272" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10347,7 +10350,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G273" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -10373,7 +10376,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G274" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -10399,7 +10402,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G275" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -10425,7 +10428,7 @@
         <v>10.3703145980835</v>
       </c>
       <c r="G276" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -10451,7 +10454,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G277" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10477,7 +10480,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G278" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10503,7 +10506,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G279" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10529,7 +10532,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G280" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10581,7 +10584,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G282" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10659,7 +10662,7 @@
         <v>10.3314752578735</v>
       </c>
       <c r="G285" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10685,7 +10688,7 @@
         <v>10.6421957015991</v>
       </c>
       <c r="G286" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10711,7 +10714,7 @@
         <v>11.0500173568726</v>
       </c>
       <c r="G287" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10737,7 +10740,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G288" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10763,7 +10766,7 @@
         <v>10.9140768051147</v>
       </c>
       <c r="G289" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10789,7 +10792,7 @@
         <v>10.8752374649048</v>
       </c>
       <c r="G290" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10815,7 +10818,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G291" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10841,7 +10844,7 @@
         <v>10.8558168411255</v>
       </c>
       <c r="G292" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10867,7 +10870,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G293" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10893,7 +10896,7 @@
         <v>10.2926349639893</v>
       </c>
       <c r="G294" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -10919,7 +10922,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G295" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10945,7 +10948,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G296" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10971,7 +10974,7 @@
         <v>10.5062561035156</v>
       </c>
       <c r="G297" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10997,7 +11000,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G298" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -11023,7 +11026,7 @@
         <v>10.3314752578735</v>
       </c>
       <c r="G299" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -11049,7 +11052,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G300" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -11075,7 +11078,7 @@
         <v>10.2732152938843</v>
       </c>
       <c r="G301" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -11101,7 +11104,7 @@
         <v>10.3703145980835</v>
       </c>
       <c r="G302" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -11127,7 +11130,7 @@
         <v>10.5450963973999</v>
       </c>
       <c r="G303" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -11153,7 +11156,7 @@
         <v>10.5839357376099</v>
       </c>
       <c r="G304" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -11179,7 +11182,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G305" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -11205,7 +11208,7 @@
         <v>10.253794670105</v>
       </c>
       <c r="G306" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -11231,7 +11234,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G307" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -11257,7 +11260,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G308" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -11283,7 +11286,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G309" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -11309,7 +11312,7 @@
         <v>10.7392959594727</v>
       </c>
       <c r="G310" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -11335,7 +11338,7 @@
         <v>10.7392959594727</v>
       </c>
       <c r="G311" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -11361,7 +11364,7 @@
         <v>10.8752374649048</v>
       </c>
       <c r="G312" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -11387,7 +11390,7 @@
         <v>11.0500173568726</v>
       </c>
       <c r="G313" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -11413,7 +11416,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G314" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -11439,7 +11442,7 @@
         <v>10.972336769104</v>
       </c>
       <c r="G315" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -11465,7 +11468,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G316" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -11491,7 +11494,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G317" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -11517,7 +11520,7 @@
         <v>11.6908798217773</v>
       </c>
       <c r="G318" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -11543,7 +11546,7 @@
         <v>12.15696144104</v>
       </c>
       <c r="G319" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11569,7 +11572,7 @@
         <v>11.943341255188</v>
       </c>
       <c r="G320" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11595,7 +11598,7 @@
         <v>11.943341255188</v>
       </c>
       <c r="G321" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11621,7 +11624,7 @@
         <v>12.0792808532715</v>
       </c>
       <c r="G322" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11647,7 +11650,7 @@
         <v>12.176381111145</v>
       </c>
       <c r="G323" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11673,7 +11676,7 @@
         <v>12.0598611831665</v>
       </c>
       <c r="G324" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11699,7 +11702,7 @@
         <v>12.15696144104</v>
       </c>
       <c r="G325" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11725,7 +11728,7 @@
         <v>12.176381111145</v>
       </c>
       <c r="G326" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11751,7 +11754,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G327" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11777,7 +11780,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G328" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11803,7 +11806,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G329" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11829,7 +11832,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G330" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11855,7 +11858,7 @@
         <v>13.0308637619019</v>
       </c>
       <c r="G331" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11881,7 +11884,7 @@
         <v>13.186224937439</v>
       </c>
       <c r="G332" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11907,7 +11910,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G333" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11933,7 +11936,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G334" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11959,7 +11962,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G335" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11985,7 +11988,7 @@
         <v>12.2929019927979</v>
       </c>
       <c r="G336" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -12011,7 +12014,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G337" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -12037,7 +12040,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G338" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -12063,7 +12066,7 @@
         <v>12.0210208892822</v>
       </c>
       <c r="G339" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -12089,7 +12092,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G340" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -12115,7 +12118,7 @@
         <v>12.0792808532715</v>
       </c>
       <c r="G341" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -12141,7 +12144,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G342" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -12167,7 +12170,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G343" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -12193,7 +12196,7 @@
         <v>12.4871015548706</v>
       </c>
       <c r="G344" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -12219,7 +12222,7 @@
         <v>12.681303024292</v>
       </c>
       <c r="G345" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -12245,7 +12248,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G346" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -12271,7 +12274,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G347" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -12297,7 +12300,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G348" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -12323,7 +12326,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G349" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -12349,7 +12352,7 @@
         <v>12.7978229522705</v>
       </c>
       <c r="G350" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -12375,7 +12378,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G351" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -12401,7 +12404,7 @@
         <v>13.2833251953125</v>
       </c>
       <c r="G352" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -12427,7 +12430,7 @@
         <v>13.5940456390381</v>
       </c>
       <c r="G353" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -12453,7 +12456,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G354" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -12479,7 +12482,7 @@
         <v>13.9824476242065</v>
       </c>
       <c r="G355" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -12505,7 +12508,7 @@
         <v>14.1378078460693</v>
       </c>
       <c r="G356" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -12531,7 +12534,7 @@
         <v>14.7204103469849</v>
       </c>
       <c r="G357" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -12557,7 +12560,7 @@
         <v>14.1378078460693</v>
       </c>
       <c r="G358" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12583,7 +12586,7 @@
         <v>14.0989675521851</v>
       </c>
       <c r="G359" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12609,7 +12612,7 @@
         <v>13.8270874023438</v>
       </c>
       <c r="G360" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12635,7 +12638,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G361" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12661,7 +12664,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G362" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12687,7 +12690,7 @@
         <v>12.9726037979126</v>
       </c>
       <c r="G363" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12713,7 +12716,7 @@
         <v>12.9337644577026</v>
       </c>
       <c r="G364" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12739,7 +12742,7 @@
         <v>12.8755035400391</v>
       </c>
       <c r="G365" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12765,7 +12768,7 @@
         <v>12.9920244216919</v>
       </c>
       <c r="G366" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12791,7 +12794,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G367" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12817,7 +12820,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G368" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12843,7 +12846,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G369" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12869,7 +12872,7 @@
         <v>12.7784032821655</v>
       </c>
       <c r="G370" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12895,7 +12898,7 @@
         <v>12.8560838699341</v>
       </c>
       <c r="G371" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12921,7 +12924,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G372" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12947,7 +12950,7 @@
         <v>15.2835922241211</v>
       </c>
       <c r="G373" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12973,7 +12976,7 @@
         <v>14.5650501251221</v>
       </c>
       <c r="G374" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12999,7 +13002,7 @@
         <v>14.0407075881958</v>
       </c>
       <c r="G375" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -13025,7 +13028,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G376" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -13051,7 +13054,7 @@
         <v>13.4581060409546</v>
       </c>
       <c r="G377" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13077,7 +13080,7 @@
         <v>13.3027448654175</v>
       </c>
       <c r="G378" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13103,7 +13106,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G379" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13129,7 +13132,7 @@
         <v>13.1473846435547</v>
       </c>
       <c r="G380" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13155,7 +13158,7 @@
         <v>12.9531841278076</v>
       </c>
       <c r="G381" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -13181,7 +13184,7 @@
         <v>12.9531841278076</v>
       </c>
       <c r="G382" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -13207,7 +13210,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G383" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -13233,7 +13236,7 @@
         <v>12.8755035400391</v>
       </c>
       <c r="G384" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -13259,7 +13262,7 @@
         <v>13.380425453186</v>
       </c>
       <c r="G385" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -13285,7 +13288,7 @@
         <v>13.4192657470703</v>
       </c>
       <c r="G386" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -13311,7 +13314,7 @@
         <v>13.4969463348389</v>
       </c>
       <c r="G387" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13337,7 +13340,7 @@
         <v>13.7105674743652</v>
       </c>
       <c r="G388" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13363,7 +13366,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G389" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13389,7 +13392,7 @@
         <v>13.6911468505859</v>
       </c>
       <c r="G390" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13415,7 +13418,7 @@
         <v>13.9630270004272</v>
       </c>
       <c r="G391" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13441,7 +13444,7 @@
         <v>13.9630270004272</v>
       </c>
       <c r="G392" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13467,7 +13470,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G393" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13493,7 +13496,7 @@
         <v>13.4581060409546</v>
       </c>
       <c r="G394" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13519,7 +13522,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G395" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13545,7 +13548,7 @@
         <v>13.6717262268066</v>
       </c>
       <c r="G396" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13571,7 +13574,7 @@
         <v>13.2444849014282</v>
       </c>
       <c r="G397" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13597,7 +13600,7 @@
         <v>12.8949241638184</v>
       </c>
       <c r="G398" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13623,7 +13626,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G399" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13649,7 +13652,7 @@
         <v>13.0502843856812</v>
       </c>
       <c r="G400" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13675,7 +13678,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G401" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13701,7 +13704,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G402" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13727,7 +13730,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G403" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13753,7 +13756,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G404" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13779,7 +13782,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G405" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13805,7 +13808,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G406" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13831,7 +13834,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G407" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13857,7 +13860,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G408" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13883,7 +13886,7 @@
         <v>12.4871015548706</v>
       </c>
       <c r="G409" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13909,7 +13912,7 @@
         <v>12.4094219207764</v>
       </c>
       <c r="G410" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13935,7 +13938,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G411" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13961,7 +13964,7 @@
         <v>11.8268203735352</v>
       </c>
       <c r="G412" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13987,7 +13990,7 @@
         <v>11.5355186462402</v>
       </c>
       <c r="G413" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14013,7 +14016,7 @@
         <v>11.6131992340088</v>
       </c>
       <c r="G414" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14039,7 +14042,7 @@
         <v>11.5549392700195</v>
       </c>
       <c r="G415" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14065,7 +14068,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G416" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14091,7 +14094,7 @@
         <v>11.5549392700195</v>
       </c>
       <c r="G417" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14117,7 +14120,7 @@
         <v>11.2636375427246</v>
       </c>
       <c r="G418" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14143,7 +14146,7 @@
         <v>11.5355186462402</v>
       </c>
       <c r="G419" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14169,7 +14172,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G420" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14195,7 +14198,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G421" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14221,7 +14224,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G422" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14247,7 +14250,7 @@
         <v>11.8073997497559</v>
       </c>
       <c r="G423" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14273,7 +14276,7 @@
         <v>11.7491397857666</v>
       </c>
       <c r="G424" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14299,7 +14302,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G425" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14325,7 +14328,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G426" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14351,7 +14354,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G427" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14377,7 +14380,7 @@
         <v>11.7491397857666</v>
       </c>
       <c r="G428" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14403,7 +14406,7 @@
         <v>11.8073997497559</v>
       </c>
       <c r="G429" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14429,7 +14432,7 @@
         <v>11.9045000076294</v>
       </c>
       <c r="G430" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14455,7 +14458,7 @@
         <v>11.6326189041138</v>
       </c>
       <c r="G431" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14481,7 +14484,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G432" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14507,7 +14510,7 @@
         <v>10.972336769104</v>
       </c>
       <c r="G433" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14533,7 +14536,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G434" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14559,7 +14562,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G435" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14585,7 +14588,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G436" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14611,7 +14614,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G437" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14637,7 +14640,7 @@
         <v>10.9140768051147</v>
       </c>
       <c r="G438" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14663,7 +14666,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G439" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14689,7 +14692,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G440" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14715,7 +14718,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G441" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14741,7 +14744,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G442" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14767,7 +14770,7 @@
         <v>9.86539268493652</v>
       </c>
       <c r="G443" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14793,7 +14796,7 @@
         <v>9.84597301483154</v>
       </c>
       <c r="G444" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14819,7 +14822,7 @@
         <v>9.30221080780029</v>
       </c>
       <c r="G445" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14845,7 +14848,7 @@
         <v>10.0013341903687</v>
       </c>
       <c r="G446" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14871,7 +14874,7 @@
         <v>9.12743091583252</v>
       </c>
       <c r="G447" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14923,7 +14926,7 @@
         <v>9.22453117370605</v>
       </c>
       <c r="G449" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14949,7 +14952,7 @@
         <v>8.59337902069092</v>
       </c>
       <c r="G450" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14975,7 +14978,7 @@
         <v>8.6322193145752</v>
       </c>
       <c r="G451" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15001,7 +15004,7 @@
         <v>8.58366870880127</v>
       </c>
       <c r="G452" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -15027,7 +15030,7 @@
         <v>8.93323040008545</v>
       </c>
       <c r="G453" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15053,7 +15056,7 @@
         <v>8.83613014221191</v>
       </c>
       <c r="G454" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15079,7 +15082,7 @@
         <v>10.0984344482422</v>
       </c>
       <c r="G455" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15105,7 +15108,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G456" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15131,7 +15134,7 @@
         <v>11.6326189041138</v>
       </c>
       <c r="G457" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15157,7 +15160,7 @@
         <v>11.2247982025146</v>
       </c>
       <c r="G458" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -15183,7 +15186,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G459" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15209,7 +15212,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G460" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -15235,7 +15238,7 @@
         <v>10.234375</v>
       </c>
       <c r="G461" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -15261,7 +15264,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G462" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15287,7 +15290,7 @@
         <v>10.7781372070312</v>
       </c>
       <c r="G463" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15313,7 +15316,7 @@
         <v>10.7198762893677</v>
       </c>
       <c r="G464" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15339,7 +15342,7 @@
         <v>10.2926349639893</v>
       </c>
       <c r="G465" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15365,7 +15368,7 @@
         <v>10.2732152938843</v>
       </c>
       <c r="G466" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15391,7 +15394,7 @@
         <v>10.1761140823364</v>
       </c>
       <c r="G467" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15417,7 +15420,7 @@
         <v>10.4868364334106</v>
       </c>
       <c r="G468" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15443,7 +15446,7 @@
         <v>11.2053775787354</v>
       </c>
       <c r="G469" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15469,7 +15472,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G470" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15495,7 +15498,7 @@
         <v>11.8268203735352</v>
       </c>
       <c r="G471" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15521,7 +15524,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G472" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15547,7 +15550,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G473" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15573,7 +15576,7 @@
         <v>12.2346420288086</v>
       </c>
       <c r="G474" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15599,7 +15602,7 @@
         <v>12.4288415908813</v>
       </c>
       <c r="G475" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15625,7 +15628,7 @@
         <v>13.0697040557861</v>
       </c>
       <c r="G476" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15651,7 +15654,7 @@
         <v>13.1473846435547</v>
       </c>
       <c r="G477" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15677,7 +15680,7 @@
         <v>13.2056446075439</v>
       </c>
       <c r="G478" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15703,7 +15706,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G479" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15729,7 +15732,7 @@
         <v>12.9337644577026</v>
       </c>
       <c r="G480" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15755,7 +15758,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G481" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15781,7 +15784,7 @@
         <v>12.3123216629028</v>
       </c>
       <c r="G482" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15807,7 +15810,7 @@
         <v>12.4288415908813</v>
       </c>
       <c r="G483" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15833,7 +15836,7 @@
         <v>12.7784032821655</v>
       </c>
       <c r="G484" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15859,7 +15862,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G485" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15885,7 +15888,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G486" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15911,7 +15914,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G487" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15937,7 +15940,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G488" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15963,7 +15966,7 @@
         <v>14.3708486557007</v>
       </c>
       <c r="G489" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15989,7 +15992,7 @@
         <v>14.1183881759644</v>
       </c>
       <c r="G490" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -16015,7 +16018,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G491" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16041,7 +16044,7 @@
         <v>14.2931690216064</v>
       </c>
       <c r="G492" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16067,7 +16070,7 @@
         <v>15.5943126678467</v>
       </c>
       <c r="G493" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16093,7 +16096,7 @@
         <v>15.7496738433838</v>
       </c>
       <c r="G494" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16119,7 +16122,7 @@
         <v>15.633152961731</v>
       </c>
       <c r="G495" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16145,7 +16148,7 @@
         <v>14.9146108627319</v>
       </c>
       <c r="G496" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16171,7 +16174,7 @@
         <v>16.0021343231201</v>
       </c>
       <c r="G497" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16197,7 +16200,7 @@
         <v>16.4876365661621</v>
       </c>
       <c r="G498" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -16223,7 +16226,7 @@
         <v>16.7206764221191</v>
       </c>
       <c r="G499" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -16249,7 +16252,7 @@
         <v>16.1186542510986</v>
       </c>
       <c r="G500" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16275,7 +16278,7 @@
         <v>15.6525726318359</v>
       </c>
       <c r="G501" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16301,7 +16304,7 @@
         <v>15.3030118942261</v>
       </c>
       <c r="G502" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16327,7 +16330,7 @@
         <v>15.1476516723633</v>
       </c>
       <c r="G503" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16353,7 +16356,7 @@
         <v>14.7009897232056</v>
       </c>
       <c r="G504" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16379,7 +16382,7 @@
         <v>14.7009897232056</v>
       </c>
       <c r="G505" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16405,7 +16408,7 @@
         <v>14.7980899810791</v>
       </c>
       <c r="G506" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16431,7 +16434,7 @@
         <v>14.4485292434692</v>
       </c>
       <c r="G507" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16457,7 +16460,7 @@
         <v>14.4679489135742</v>
       </c>
       <c r="G508" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16483,7 +16486,7 @@
         <v>14.3125886917114</v>
       </c>
       <c r="G509" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16509,7 +16512,7 @@
         <v>14.7398300170898</v>
       </c>
       <c r="G510" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16535,7 +16538,7 @@
         <v>14.9922914505005</v>
       </c>
       <c r="G511" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16561,7 +16564,7 @@
         <v>15.4001121520996</v>
       </c>
       <c r="G512" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16587,7 +16590,7 @@
         <v>15.6914129257202</v>
       </c>
       <c r="G513" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16613,7 +16616,7 @@
         <v>15.128231048584</v>
       </c>
       <c r="G514" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16639,7 +16642,7 @@
         <v>15.3806915283203</v>
       </c>
       <c r="G515" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16665,7 +16668,7 @@
         <v>15.4777927398682</v>
       </c>
       <c r="G516" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16691,7 +16694,7 @@
         <v>15.3612718582153</v>
       </c>
       <c r="G517" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16717,7 +16720,7 @@
         <v>15.3418521881104</v>
       </c>
       <c r="G518" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16743,7 +16746,7 @@
         <v>15.5748929977417</v>
       </c>
       <c r="G519" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16795,7 +16798,7 @@
         <v>15.3806915283203</v>
       </c>
       <c r="G521" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17341,7 +17344,7 @@
         <v>15.3612718582153</v>
       </c>
       <c r="G542" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -21345,7 +21348,7 @@
         <v>15.3418521881104</v>
       </c>
       <c r="G696" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -43505,13 +43508,13 @@
     </row>
     <row r="1549">
       <c r="A1549" s="1" t="n">
-        <v>45483.6496064815</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B1549" t="n">
         <v>72801</v>
       </c>
       <c r="C1549" t="n">
-        <v>18.6000003814697</v>
+        <v>18.6200008392334</v>
       </c>
       <c r="D1549" t="n">
         <v>18.3199996948242</v>
@@ -43526,6 +43529,32 @@
         <v>967</v>
       </c>
       <c r="H1549" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="1" t="n">
+        <v>45484.6495486111</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>85372</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>18.4400005340576</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>17.4599990844727</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>18.3199996948242</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>17.7199993133545</v>
+      </c>
+      <c r="G1550" t="s">
+        <v>968</v>
+      </c>
+      <c r="H1550" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -47,25 +47,25 @@
     <t xml:space="preserve">7.95949554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86694288253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77439212799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74477434158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92987823486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02428340911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72904014587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03353691101074</t>
+    <t xml:space="preserve">7.866943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77439260482788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74477386474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92987966537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02428245544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72903966903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03353595733643</t>
   </si>
   <si>
     <t xml:space="preserve">7.4976601600647</t>
@@ -74,106 +74,106 @@
     <t xml:space="preserve">7.35512971878052</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57910680770874</t>
+    <t xml:space="preserve">7.57910633087158</t>
   </si>
   <si>
     <t xml:space="preserve">7.51987266540527</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62630748748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49673461914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5800313949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59854221343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7022008895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85768890380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91322088241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97893333435059</t>
+    <t xml:space="preserve">7.62630796432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49673557281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58003187179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5985426902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70219993591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85768938064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91321992874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97893238067627</t>
   </si>
   <si>
     <t xml:space="preserve">8.06130504608154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92247533798218</t>
+    <t xml:space="preserve">7.92247295379639</t>
   </si>
   <si>
     <t xml:space="preserve">8.0770378112793</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87064647674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82066822052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90766716003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74847650527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84843254089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80215740203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94561195373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61797761917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72811412811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84102916717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80400848388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0520486831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11776065826416</t>
+    <t xml:space="preserve">7.87064504623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8206672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90766620635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74847602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84843397140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80215692520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94561386108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6179780960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72811508178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84102964401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80400800704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05204963684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11776161193848</t>
   </si>
   <si>
     <t xml:space="preserve">8.17236614227295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36302375793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5240650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54720115661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81652927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02384757995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66289234161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34821510314941</t>
+    <t xml:space="preserve">8.36302280426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52406406402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54720211029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8165283203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02384853363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66289329528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3482141494751</t>
   </si>
   <si>
     <t xml:space="preserve">8.31119441986084</t>
@@ -182,10 +182,10 @@
     <t xml:space="preserve">8.53054237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42225742340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51480960845947</t>
+    <t xml:space="preserve">8.4222583770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51480865478516</t>
   </si>
   <si>
     <t xml:space="preserve">8.77395629882812</t>
@@ -200,25 +200,25 @@
     <t xml:space="preserve">8.72767925262451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.857253074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07012271881104</t>
+    <t xml:space="preserve">8.85725212097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07012367248535</t>
   </si>
   <si>
     <t xml:space="preserve">8.93222141265869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18118667602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20895099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40331268310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16267585754395</t>
+    <t xml:space="preserve">9.18118572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20895195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40331172943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16267681121826</t>
   </si>
   <si>
     <t xml:space="preserve">9.1821117401123</t>
@@ -227,19 +227,19 @@
     <t xml:space="preserve">9.0553150177002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25152492523193</t>
+    <t xml:space="preserve">9.25152683258057</t>
   </si>
   <si>
     <t xml:space="preserve">9.12657928466797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08863353729248</t>
+    <t xml:space="preserve">9.08863162994385</t>
   </si>
   <si>
     <t xml:space="preserve">8.82856178283691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05809211730957</t>
+    <t xml:space="preserve">9.05809116363525</t>
   </si>
   <si>
     <t xml:space="preserve">9.10714340209961</t>
@@ -251,25 +251,25 @@
     <t xml:space="preserve">8.73323249816895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56848907470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03908920288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36580181121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46853351593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60736274719238</t>
+    <t xml:space="preserve">8.56849002838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03909111022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36580085754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46853256225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60736179351807</t>
   </si>
   <si>
     <t xml:space="preserve">8.65363883972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69991302490234</t>
+    <t xml:space="preserve">8.69991397857666</t>
   </si>
   <si>
     <t xml:space="preserve">8.87113475799561</t>
@@ -278,19 +278,19 @@
     <t xml:space="preserve">8.08721733093262</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80678606033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97800636291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40189552307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83781719207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8405933380127</t>
+    <t xml:space="preserve">7.80678558349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97800540924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40189647674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.837815284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84059429168701</t>
   </si>
   <si>
     <t xml:space="preserve">8.81745433807373</t>
@@ -302,34 +302,34 @@
     <t xml:space="preserve">8.66104316711426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76377391815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63882923126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45279979705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40097045898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62217044830322</t>
+    <t xml:space="preserve">8.76377582550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63883018493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45279884338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40097141265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62217140197754</t>
   </si>
   <si>
     <t xml:space="preserve">8.78228569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11220741271973</t>
+    <t xml:space="preserve">8.11220836639404</t>
   </si>
   <si>
     <t xml:space="preserve">8.09924983978271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1446008682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24733257293701</t>
+    <t xml:space="preserve">8.14459991455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24733352661133</t>
   </si>
   <si>
     <t xml:space="preserve">8.61013889312744</t>
@@ -344,55 +344,55 @@
     <t xml:space="preserve">8.98497581481934</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10344219207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03865432739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0812292098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21820831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91278553009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14416313171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91926288604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3639497756958</t>
+    <t xml:space="preserve">9.10344123840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03865528106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08123016357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21820735931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91278457641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14416408538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91926383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36394786834717</t>
   </si>
   <si>
     <t xml:space="preserve">8.29268360137939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3297061920166</t>
+    <t xml:space="preserve">8.32970523834229</t>
   </si>
   <si>
     <t xml:space="preserve">8.39726829528809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25936508178711</t>
+    <t xml:space="preserve">8.25936412811279</t>
   </si>
   <si>
     <t xml:space="preserve">8.46390533447266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33340644836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35747146606445</t>
+    <t xml:space="preserve">8.33340835571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35747051239014</t>
   </si>
   <si>
     <t xml:space="preserve">8.56108570098877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49629878997803</t>
+    <t xml:space="preserve">8.49629783630371</t>
   </si>
   <si>
     <t xml:space="preserve">8.28342914581299</t>
@@ -401,16 +401,16 @@
     <t xml:space="preserve">8.41392707824707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27972507476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21123886108398</t>
+    <t xml:space="preserve">8.27972602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21123790740967</t>
   </si>
   <si>
     <t xml:space="preserve">8.45927810668945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48704528808594</t>
+    <t xml:space="preserve">8.48704433441162</t>
   </si>
   <si>
     <t xml:space="preserve">8.54442596435547</t>
@@ -422,49 +422,49 @@
     <t xml:space="preserve">8.83411407470703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78321170806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16545104980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13028144836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96183586120605</t>
+    <t xml:space="preserve">8.78321075439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.165452003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13028240203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96183681488037</t>
   </si>
   <si>
     <t xml:space="preserve">8.89797592163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04143142700195</t>
+    <t xml:space="preserve">9.04143238067627</t>
   </si>
   <si>
     <t xml:space="preserve">9.11639976501465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30150413513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27188777923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42922687530518</t>
+    <t xml:space="preserve">9.30150508880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27188682556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42922592163086</t>
   </si>
   <si>
     <t xml:space="preserve">9.46254444122314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67911624908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71798992156982</t>
+    <t xml:space="preserve">9.67911720275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71798896789551</t>
   </si>
   <si>
     <t xml:space="preserve">9.76426601409912</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6624584197998</t>
+    <t xml:space="preserve">9.66245651245117</t>
   </si>
   <si>
     <t xml:space="preserve">9.71243667602539</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">9.38665199279785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68652248382568</t>
+    <t xml:space="preserve">9.68652057647705</t>
   </si>
   <si>
     <t xml:space="preserve">9.56065082550049</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">9.57916069030762</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35148143768311</t>
+    <t xml:space="preserve">9.35148334503174</t>
   </si>
   <si>
     <t xml:space="preserve">9.53103351593018</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">9.39775848388672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1941442489624</t>
+    <t xml:space="preserve">9.19414329528809</t>
   </si>
   <si>
     <t xml:space="preserve">9.32926940917969</t>
@@ -506,19 +506,19 @@
     <t xml:space="preserve">9.00533580780029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43799114227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82300853729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07104873657227</t>
+    <t xml:space="preserve">8.43799209594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82300662994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07104778289795</t>
   </si>
   <si>
     <t xml:space="preserve">9.25522899627686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03310108184814</t>
+    <t xml:space="preserve">9.03310203552246</t>
   </si>
   <si>
     <t xml:space="preserve">9.17193126678467</t>
@@ -527,37 +527,37 @@
     <t xml:space="preserve">9.51437377929688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45884323120117</t>
+    <t xml:space="preserve">9.45884227752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.8105411529541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53288555145264</t>
+    <t xml:space="preserve">9.53288459777832</t>
   </si>
   <si>
     <t xml:space="preserve">9.60692691802979</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82905197143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7550106048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97713565826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0696878433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1252193450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86607265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99564647674561</t>
+    <t xml:space="preserve">9.82905101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75500965118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97713470458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0696887969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1252202987671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86607360839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99564552307129</t>
   </si>
   <si>
     <t xml:space="preserve">9.88458347320557</t>
@@ -572,10 +572,10 @@
     <t xml:space="preserve">10.1807498931885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73650074005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84756374359131</t>
+    <t xml:space="preserve">9.73649978637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84756278991699</t>
   </si>
   <si>
     <t xml:space="preserve">9.9030933380127</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">9.94011402130127</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2177715301514</t>
+    <t xml:space="preserve">10.2177734375</t>
   </si>
   <si>
     <t xml:space="preserve">10.2362823486328</t>
@@ -593,19 +593,19 @@
     <t xml:space="preserve">10.3843650817871</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1067094802856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0881986618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1992607116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5879812240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6805324554443</t>
+    <t xml:space="preserve">10.1067085266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0881977081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1992597579956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5879821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6805334091187</t>
   </si>
   <si>
     <t xml:space="preserve">10.73606300354</t>
@@ -626,16 +626,16 @@
     <t xml:space="preserve">10.4028759002686</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0511789321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92160511016846</t>
+    <t xml:space="preserve">10.0511779785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92160320281982</t>
   </si>
   <si>
     <t xml:space="preserve">10.2551307678223</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0122957229614</t>
+    <t xml:space="preserve">10.0122947692871</t>
   </si>
   <si>
     <t xml:space="preserve">9.95625591278076</t>
@@ -644,6 +644,9 @@
     <t xml:space="preserve">9.99361515045166</t>
   </si>
   <si>
+    <t xml:space="preserve">10.2177724838257</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.0683336257935</t>
   </si>
   <si>
@@ -659,7 +662,7 @@
     <t xml:space="preserve">9.97493553161621</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1243724822998</t>
+    <t xml:space="preserve">10.1243734359741</t>
   </si>
   <si>
     <t xml:space="preserve">9.80681991577148</t>
@@ -686,10 +689,10 @@
     <t xml:space="preserve">10.4419269561768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90021705627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3858890533447</t>
+    <t xml:space="preserve">9.90021800994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3858880996704</t>
   </si>
   <si>
     <t xml:space="preserve">10.1056938171387</t>
@@ -707,16 +710,16 @@
     <t xml:space="preserve">9.86285781860352</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3298492431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9275979995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5540037155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1417760848999</t>
+    <t xml:space="preserve">10.3298501968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9275970458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5540046691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1417751312256</t>
   </si>
   <si>
     <t xml:space="preserve">11.2451524734497</t>
@@ -725,13 +728,13 @@
     <t xml:space="preserve">11.6934633255005</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4879884719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6187448501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7121429443359</t>
+    <t xml:space="preserve">11.4879875183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.618745803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7121438980103</t>
   </si>
   <si>
     <t xml:space="preserve">11.6000652313232</t>
@@ -740,19 +743,19 @@
     <t xml:space="preserve">12.0483770370483</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2351732254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3285722732544</t>
+    <t xml:space="preserve">12.2351741790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3285713195801</t>
   </si>
   <si>
     <t xml:space="preserve">12.53404712677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6834859848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2725315093994</t>
+    <t xml:space="preserve">12.6834850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2725324630737</t>
   </si>
   <si>
     <t xml:space="preserve">11.6561040878296</t>
@@ -761,34 +764,34 @@
     <t xml:space="preserve">11.674783706665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8242216110229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5627059936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0110158920288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1978139877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.253851890564</t>
+    <t xml:space="preserve">11.8242225646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5627069473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0110168457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1978149414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2538537979126</t>
   </si>
   <si>
     <t xml:space="preserve">12.3098917007446</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6087665557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7768840789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.075758934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3559541702271</t>
+    <t xml:space="preserve">12.6087675094604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7768831253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0757579803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3559532165527</t>
   </si>
   <si>
     <t xml:space="preserve">13.4493522644043</t>
@@ -797,7 +800,7 @@
     <t xml:space="preserve">13.5987892150879</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1591796875</t>
+    <t xml:space="preserve">14.1591787338257</t>
   </si>
   <si>
     <t xml:space="preserve">13.561429977417</t>
@@ -806,22 +809,22 @@
     <t xml:space="preserve">13.2999153137207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2065181732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4780082702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4406499862671</t>
+    <t xml:space="preserve">13.2065162658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.478009223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4406509399414</t>
   </si>
   <si>
     <t xml:space="preserve">12.3846111297607</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4966878890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2912111282349</t>
+    <t xml:space="preserve">12.4966888427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2912120819092</t>
   </si>
   <si>
     <t xml:space="preserve">12.3659315109253</t>
@@ -830,25 +833,25 @@
     <t xml:space="preserve">14.700888633728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0097417831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5053911209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2625560760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9450006484985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7955636978149</t>
+    <t xml:space="preserve">14.0097427368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5053901672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2625551223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9449996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7955627441406</t>
   </si>
   <si>
     <t xml:space="preserve">12.6461267471313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4593286514282</t>
+    <t xml:space="preserve">12.4593296051025</t>
   </si>
   <si>
     <t xml:space="preserve">12.8702821731567</t>
@@ -857,7 +860,7 @@
     <t xml:space="preserve">12.907642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9823608398438</t>
+    <t xml:space="preserve">12.9823598861694</t>
   </si>
   <si>
     <t xml:space="preserve">13.187837600708</t>
@@ -881,7 +884,7 @@
     <t xml:space="preserve">12.5527276992798</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5153675079346</t>
+    <t xml:space="preserve">12.5153684616089</t>
   </si>
   <si>
     <t xml:space="preserve">11.9362983703613</t>
@@ -890,13 +893,13 @@
     <t xml:space="preserve">11.8615808486938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3759098052979</t>
+    <t xml:space="preserve">11.3759107589722</t>
   </si>
   <si>
     <t xml:space="preserve">11.0957145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1704330444336</t>
+    <t xml:space="preserve">11.1704339981079</t>
   </si>
   <si>
     <t xml:space="preserve">11.1143941879272</t>
@@ -905,13 +908,13 @@
     <t xml:space="preserve">10.8341989517212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.394588470459</t>
+    <t xml:space="preserve">11.3945894241333</t>
   </si>
   <si>
     <t xml:space="preserve">11.2077922821045</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3572292327881</t>
+    <t xml:space="preserve">11.3572301864624</t>
   </si>
   <si>
     <t xml:space="preserve">11.3011913299561</t>
@@ -926,7 +929,7 @@
     <t xml:space="preserve">9.48926544189453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47058486938477</t>
+    <t xml:space="preserve">9.47058391571045</t>
   </si>
   <si>
     <t xml:space="preserve">8.94755363464355</t>
@@ -938,13 +941,13 @@
     <t xml:space="preserve">8.77943706512451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87283611297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26574802398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30310821533203</t>
+    <t xml:space="preserve">8.87283515930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2657470703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30310726165771</t>
   </si>
   <si>
     <t xml:space="preserve">8.25640678405762</t>
@@ -962,13 +965,13 @@
     <t xml:space="preserve">10.7968406677246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84417819976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3672094345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3111696243286</t>
+    <t xml:space="preserve">9.84417724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.367208480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3111705780029</t>
   </si>
   <si>
     <t xml:space="preserve">9.78813934326172</t>
@@ -977,7 +980,7 @@
     <t xml:space="preserve">10.0870141983032</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7781600952148</t>
+    <t xml:space="preserve">10.7781610488892</t>
   </si>
   <si>
     <t xml:space="preserve">11.7681827545166</t>
@@ -989,10 +992,10 @@
     <t xml:space="preserve">12.5714063644409</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7021646499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8429002761841</t>
+    <t xml:space="preserve">12.7021636962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8429012298584</t>
   </si>
   <si>
     <t xml:space="preserve">13.8229446411133</t>
@@ -1004,7 +1007,7 @@
     <t xml:space="preserve">13.7482261657715</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9997634887695</t>
+    <t xml:space="preserve">14.9997625350952</t>
   </si>
   <si>
     <t xml:space="preserve">15.1492004394531</t>
@@ -1025,13 +1028,13 @@
     <t xml:space="preserve">16.0831832885742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5041122436523</t>
+    <t xml:space="preserve">15.5041131973267</t>
   </si>
   <si>
     <t xml:space="preserve">15.0558013916016</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7195692062378</t>
+    <t xml:space="preserve">14.7195682525635</t>
   </si>
   <si>
     <t xml:space="preserve">14.5701313018799</t>
@@ -1043,7 +1046,7 @@
     <t xml:space="preserve">14.2338962554932</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8976640701294</t>
+    <t xml:space="preserve">13.8976631164551</t>
   </si>
   <si>
     <t xml:space="preserve">13.9163436889648</t>
@@ -1052,7 +1055,7 @@
     <t xml:space="preserve">13.7669057846069</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1778583526611</t>
+    <t xml:space="preserve">14.1778573989868</t>
   </si>
   <si>
     <t xml:space="preserve">14.4206943511963</t>
@@ -1070,7 +1073,7 @@
     <t xml:space="preserve">14.9049663543701</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9990634918213</t>
+    <t xml:space="preserve">14.9990644454956</t>
   </si>
   <si>
     <t xml:space="preserve">14.8861474990845</t>
@@ -1079,22 +1082,19 @@
     <t xml:space="preserve">14.8673286437988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0931615829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.375452041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3378133773804</t>
+    <t xml:space="preserve">15.3754510879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3378143310547</t>
   </si>
   <si>
     <t xml:space="preserve">15.5260076522827</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4319095611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1119804382324</t>
+    <t xml:space="preserve">15.4319105148315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1119794845581</t>
   </si>
   <si>
     <t xml:space="preserve">14.7167730331421</t>
@@ -1103,19 +1103,19 @@
     <t xml:space="preserve">15.1872577667236</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0178833007812</t>
+    <t xml:space="preserve">15.0178842544556</t>
   </si>
   <si>
     <t xml:space="preserve">14.7544116973877</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2437162399292</t>
+    <t xml:space="preserve">15.2437171936035</t>
   </si>
   <si>
     <t xml:space="preserve">15.0367031097412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1308002471924</t>
+    <t xml:space="preserve">15.1307992935181</t>
   </si>
   <si>
     <t xml:space="preserve">15.5071878433228</t>
@@ -1124,13 +1124,13 @@
     <t xml:space="preserve">15.0555229187012</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5850372314453</t>
+    <t xml:space="preserve">14.5850381851196</t>
   </si>
   <si>
     <t xml:space="preserve">15.6765613555908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2787857055664</t>
+    <t xml:space="preserve">16.2787818908691</t>
   </si>
   <si>
     <t xml:space="preserve">17.0880184173584</t>
@@ -1139,13 +1139,13 @@
     <t xml:space="preserve">17.8031558990479</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8433666229248</t>
+    <t xml:space="preserve">16.8433647155762</t>
   </si>
   <si>
     <t xml:space="preserve">16.9939212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5585041046143</t>
+    <t xml:space="preserve">17.5585021972656</t>
   </si>
   <si>
     <t xml:space="preserve">17.5396842956543</t>
@@ -1154,19 +1154,19 @@
     <t xml:space="preserve">17.5208644866943</t>
   </si>
   <si>
-    <t xml:space="preserve">17.916072845459</t>
+    <t xml:space="preserve">17.9160709381104</t>
   </si>
   <si>
     <t xml:space="preserve">18.141902923584</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0101699829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4053745269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4430160522461</t>
+    <t xml:space="preserve">18.0101680755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4053764343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4430141448975</t>
   </si>
   <si>
     <t xml:space="preserve">17.7843360900879</t>
@@ -1184,13 +1184,13 @@
     <t xml:space="preserve">19.2898864746094</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4618358612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3489170074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1607246398926</t>
+    <t xml:space="preserve">18.4618339538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3489189147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1607227325439</t>
   </si>
   <si>
     <t xml:space="preserve">17.5020446777344</t>
@@ -1199,16 +1199,16 @@
     <t xml:space="preserve">18.0854473114014</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5961437225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9348907470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0503787994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7869071960449</t>
+    <t xml:space="preserve">17.5961418151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9348888397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0503807067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7869052886963</t>
   </si>
   <si>
     <t xml:space="preserve">15.9400339126587</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">16.5798931121826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0717697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4883680343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8835744857788</t>
+    <t xml:space="preserve">16.0717678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4883670806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8835754394531</t>
   </si>
   <si>
     <t xml:space="preserve">16.6551723480225</t>
@@ -1241,10 +1241,10 @@
     <t xml:space="preserve">16.3917026519775</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9751014709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8245468139648</t>
+    <t xml:space="preserve">16.9750995635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8245449066162</t>
   </si>
   <si>
     <t xml:space="preserve">16.4481582641602</t>
@@ -1259,25 +1259,25 @@
     <t xml:space="preserve">16.4669780731201</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8057289123535</t>
+    <t xml:space="preserve">16.8057270050049</t>
   </si>
   <si>
     <t xml:space="preserve">16.7492694854736</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7304515838623</t>
+    <t xml:space="preserve">16.7304496765137</t>
   </si>
   <si>
     <t xml:space="preserve">16.8810062408447</t>
   </si>
   <si>
-    <t xml:space="preserve">16.937463760376</t>
+    <t xml:space="preserve">16.9374618530273</t>
   </si>
   <si>
     <t xml:space="preserve">16.918643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9023962020874</t>
+    <t xml:space="preserve">15.9023942947388</t>
   </si>
   <si>
     <t xml:space="preserve">15.5448274612427</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">15.0743427276611</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7920503616333</t>
+    <t xml:space="preserve">14.7920513153076</t>
   </si>
   <si>
     <t xml:space="preserve">14.6414957046509</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">16.6363506317139</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7330198287964</t>
+    <t xml:space="preserve">15.7330207824707</t>
   </si>
   <si>
     <t xml:space="preserve">15.9964904785156</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3540630340576</t>
+    <t xml:space="preserve">16.354061126709</t>
   </si>
   <si>
     <t xml:space="preserve">16.5987129211426</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">16.9562835693359</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5610752105713</t>
+    <t xml:space="preserve">16.5610733032227</t>
   </si>
   <si>
     <t xml:space="preserve">17.0691986083984</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">17.2009334564209</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7680912017822</t>
+    <t xml:space="preserve">16.7680892944336</t>
   </si>
   <si>
     <t xml:space="preserve">17.0315589904785</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">18.0289878845215</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2171821594238</t>
+    <t xml:space="preserve">18.2171802520752</t>
   </si>
   <si>
     <t xml:space="preserve">18.6688480377197</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">18.1795425415039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.692813873291</t>
+    <t xml:space="preserve">16.6928119659424</t>
   </si>
   <si>
     <t xml:space="preserve">16.8621845245361</t>
@@ -1358,19 +1358,19 @@
     <t xml:space="preserve">16.4293403625488</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1444778442383</t>
+    <t xml:space="preserve">17.1444759368896</t>
   </si>
   <si>
     <t xml:space="preserve">16.1846885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9588527679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8647575378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7142009735107</t>
+    <t xml:space="preserve">15.958854675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8647565841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7142019271851</t>
   </si>
   <si>
     <t xml:space="preserve">16.128231048584</t>
@@ -1379,34 +1379,34 @@
     <t xml:space="preserve">16.0153121948242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0905914306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4695482254028</t>
+    <t xml:space="preserve">16.0905895233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4695491790771</t>
   </si>
   <si>
     <t xml:space="preserve">14.6226758956909</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2651081085205</t>
+    <t xml:space="preserve">14.2651071548462</t>
   </si>
   <si>
     <t xml:space="preserve">14.96142578125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6201028823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.751838684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7894763946533</t>
+    <t xml:space="preserve">15.6201038360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7518396377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7894773483276</t>
   </si>
   <si>
     <t xml:space="preserve">15.6389236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8271179199219</t>
+    <t xml:space="preserve">15.8271169662476</t>
   </si>
   <si>
     <t xml:space="preserve">15.582465171814</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">15.563645362854</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7706594467163</t>
+    <t xml:space="preserve">15.7706604003906</t>
   </si>
   <si>
     <t xml:space="preserve">15.9776735305786</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">17.7090587615967</t>
   </si>
   <si>
-    <t xml:space="preserve">17.897253036499</t>
+    <t xml:space="preserve">17.8972511291504</t>
   </si>
   <si>
     <t xml:space="preserve">18.2548198699951</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">17.7278747558594</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8784332275391</t>
+    <t xml:space="preserve">17.8784313201904</t>
   </si>
   <si>
     <t xml:space="preserve">19.854471206665</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9485664367676</t>
+    <t xml:space="preserve">19.9485683441162</t>
   </si>
   <si>
     <t xml:space="preserve">19.5721797943115</t>
@@ -1481,22 +1481,22 @@
     <t xml:space="preserve">20.701343536377</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6072444915771</t>
+    <t xml:space="preserve">20.6072463989258</t>
   </si>
   <si>
     <t xml:space="preserve">20.4190521240234</t>
   </si>
   <si>
-    <t xml:space="preserve">20.277904510498</t>
+    <t xml:space="preserve">20.2779064178467</t>
   </si>
   <si>
     <t xml:space="preserve">20.0897121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3720054626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7483940124512</t>
+    <t xml:space="preserve">20.3720035552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7483921051025</t>
   </si>
   <si>
     <t xml:space="preserve">20.7954406738281</t>
@@ -1511,10 +1511,10 @@
     <t xml:space="preserve">22.1127986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4541206359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9836330413818</t>
+    <t xml:space="preserve">21.4541187286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9836349487305</t>
   </si>
   <si>
     <t xml:space="preserve">20.2308597564697</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">19.3369369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8764400482178</t>
+    <t xml:space="preserve">19.8764381408691</t>
   </si>
   <si>
     <t xml:space="preserve">20.1130638122559</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">18.60813331604</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9110107421875</t>
+    <t xml:space="preserve">18.9110126495361</t>
   </si>
   <si>
     <t xml:space="preserve">18.6459941864014</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">18.9299449920654</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7785053253174</t>
+    <t xml:space="preserve">18.7785034179688</t>
   </si>
   <si>
     <t xml:space="preserve">20.2077140808105</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">20.9649105072021</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4381618499756</t>
+    <t xml:space="preserve">21.438159942627</t>
   </si>
   <si>
     <t xml:space="preserve">22.2426834106445</t>
@@ -1619,19 +1619,19 @@
     <t xml:space="preserve">22.6212825775146</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1418552398682</t>
+    <t xml:space="preserve">23.1418533325195</t>
   </si>
   <si>
     <t xml:space="preserve">23.3784790039062</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6624298095703</t>
+    <t xml:space="preserve">23.6624279022217</t>
   </si>
   <si>
     <t xml:space="preserve">23.3311557769775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2365036010742</t>
+    <t xml:space="preserve">23.2365055084229</t>
   </si>
   <si>
     <t xml:space="preserve">23.7570781707764</t>
@@ -1658,16 +1658,16 @@
     <t xml:space="preserve">23.709753036499</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0945281982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4258041381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.615104675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0410270690918</t>
+    <t xml:space="preserve">23.0945301055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.425802230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6151065826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0410289764404</t>
   </si>
   <si>
     <t xml:space="preserve">21.9114093780518</t>
@@ -1685,19 +1685,19 @@
     <t xml:space="preserve">21.722110748291</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2961864471436</t>
+    <t xml:space="preserve">21.2961845397949</t>
   </si>
   <si>
     <t xml:space="preserve">21.0595607757568</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1068840026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9175872802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7282867431641</t>
+    <t xml:space="preserve">21.1068859100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9175853729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7282886505127</t>
   </si>
   <si>
     <t xml:space="preserve">21.3908348083496</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">24.9875240325928</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8455505371094</t>
+    <t xml:space="preserve">24.8455486297607</t>
   </si>
   <si>
     <t xml:space="preserve">25.1768226623535</t>
@@ -1718,19 +1718,19 @@
     <t xml:space="preserve">24.6089248657227</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5615997314453</t>
+    <t xml:space="preserve">24.5616016387939</t>
   </si>
   <si>
     <t xml:space="preserve">23.567777633667</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8044033050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3249759674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9937019348145</t>
+    <t xml:space="preserve">23.8044013977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3249740600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9937038421631</t>
   </si>
   <si>
     <t xml:space="preserve">24.4669494628906</t>
@@ -1742,10 +1742,10 @@
     <t xml:space="preserve">24.65625</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7447204589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.602746963501</t>
+    <t xml:space="preserve">25.744722366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6027488708496</t>
   </si>
   <si>
     <t xml:space="preserve">25.8393726348877</t>
@@ -1754,31 +1754,31 @@
     <t xml:space="preserve">25.5554237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4607715606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4731273651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7159290313721</t>
+    <t xml:space="preserve">25.4607734680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4731292724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7159309387207</t>
   </si>
   <si>
     <t xml:space="preserve">22.4319839477539</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2838306427002</t>
+    <t xml:space="preserve">23.2838287353516</t>
   </si>
   <si>
     <t xml:space="preserve">24.4196262359619</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8928756713867</t>
+    <t xml:space="preserve">24.8928737640381</t>
   </si>
   <si>
     <t xml:space="preserve">24.7035751342773</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9401988983154</t>
+    <t xml:space="preserve">24.9402008056641</t>
   </si>
   <si>
     <t xml:space="preserve">24.0883522033691</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">21.580135345459</t>
   </si>
   <si>
-    <t xml:space="preserve">20.586311340332</t>
+    <t xml:space="preserve">20.5863132476807</t>
   </si>
   <si>
     <t xml:space="preserve">21.9587326049805</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">21.0122375488281</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4854831695557</t>
+    <t xml:space="preserve">21.4854850769043</t>
   </si>
   <si>
     <t xml:space="preserve">21.7694339752197</t>
@@ -1826,16 +1826,16 @@
     <t xml:space="preserve">21.532808303833</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3970146179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.491662979126</t>
+    <t xml:space="preserve">20.3970127105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4916648864746</t>
   </si>
   <si>
     <t xml:space="preserve">19.3558654785156</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7027816772461</t>
+    <t xml:space="preserve">18.7027835845947</t>
   </si>
   <si>
     <t xml:space="preserve">20.0184135437012</t>
@@ -1868,10 +1868,10 @@
     <t xml:space="preserve">18.7974338531494</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0657367706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8167591094971</t>
+    <t xml:space="preserve">20.0657386779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8167572021484</t>
   </si>
   <si>
     <t xml:space="preserve">22.1480331420898</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">18.8352928161621</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0533809661865</t>
+    <t xml:space="preserve">22.0533828735352</t>
   </si>
   <si>
     <t xml:space="preserve">20.3496894836426</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">18.456693649292</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0970249176025</t>
+    <t xml:space="preserve">18.0970230102539</t>
   </si>
   <si>
     <t xml:space="preserve">18.0213050842285</t>
@@ -2159,9 +2159,6 @@
     <t xml:space="preserve">23.5716915130615</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0945301055908</t>
-  </si>
-  <si>
     <t xml:space="preserve">23.8579864501953</t>
   </si>
   <si>
@@ -2919,6 +2916,9 @@
   </si>
   <si>
     <t xml:space="preserve">17.7199993133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8199996948242</t>
   </si>
 </sst>
 </file>
@@ -10246,7 +10246,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G269" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -10272,7 +10272,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G270" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -10298,7 +10298,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G271" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -10324,7 +10324,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G272" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10350,7 +10350,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G273" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -10376,7 +10376,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G274" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -10402,7 +10402,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G275" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -10428,7 +10428,7 @@
         <v>10.3703145980835</v>
       </c>
       <c r="G276" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -10454,7 +10454,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G277" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10480,7 +10480,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G278" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10506,7 +10506,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G279" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10532,7 +10532,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G280" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10584,7 +10584,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G282" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10662,7 +10662,7 @@
         <v>10.3314752578735</v>
       </c>
       <c r="G285" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10688,7 +10688,7 @@
         <v>10.6421957015991</v>
       </c>
       <c r="G286" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10714,7 +10714,7 @@
         <v>11.0500173568726</v>
       </c>
       <c r="G287" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10740,7 +10740,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G288" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10766,7 +10766,7 @@
         <v>10.9140768051147</v>
       </c>
       <c r="G289" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10792,7 +10792,7 @@
         <v>10.8752374649048</v>
       </c>
       <c r="G290" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10818,7 +10818,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G291" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10844,7 +10844,7 @@
         <v>10.8558168411255</v>
       </c>
       <c r="G292" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10870,7 +10870,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G293" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10896,7 +10896,7 @@
         <v>10.2926349639893</v>
       </c>
       <c r="G294" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -10922,7 +10922,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G295" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10948,7 +10948,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G296" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10974,7 +10974,7 @@
         <v>10.5062561035156</v>
       </c>
       <c r="G297" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -11000,7 +11000,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G298" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -11026,7 +11026,7 @@
         <v>10.3314752578735</v>
       </c>
       <c r="G299" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -11052,7 +11052,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G300" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -11078,7 +11078,7 @@
         <v>10.2732152938843</v>
       </c>
       <c r="G301" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -11104,7 +11104,7 @@
         <v>10.3703145980835</v>
       </c>
       <c r="G302" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -11130,7 +11130,7 @@
         <v>10.5450963973999</v>
       </c>
       <c r="G303" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -11156,7 +11156,7 @@
         <v>10.5839357376099</v>
       </c>
       <c r="G304" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -11182,7 +11182,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G305" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -11208,7 +11208,7 @@
         <v>10.253794670105</v>
       </c>
       <c r="G306" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -11234,7 +11234,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G307" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -11260,7 +11260,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G308" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -11286,7 +11286,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G309" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -11312,7 +11312,7 @@
         <v>10.7392959594727</v>
       </c>
       <c r="G310" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -11338,7 +11338,7 @@
         <v>10.7392959594727</v>
       </c>
       <c r="G311" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -11364,7 +11364,7 @@
         <v>10.8752374649048</v>
       </c>
       <c r="G312" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -11390,7 +11390,7 @@
         <v>11.0500173568726</v>
       </c>
       <c r="G313" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -11416,7 +11416,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G314" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -11442,7 +11442,7 @@
         <v>10.972336769104</v>
       </c>
       <c r="G315" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -11468,7 +11468,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G316" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -11494,7 +11494,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G317" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -11520,7 +11520,7 @@
         <v>11.6908798217773</v>
       </c>
       <c r="G318" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -11546,7 +11546,7 @@
         <v>12.15696144104</v>
       </c>
       <c r="G319" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11572,7 +11572,7 @@
         <v>11.943341255188</v>
       </c>
       <c r="G320" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11598,7 +11598,7 @@
         <v>11.943341255188</v>
       </c>
       <c r="G321" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11624,7 +11624,7 @@
         <v>12.0792808532715</v>
       </c>
       <c r="G322" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11650,7 +11650,7 @@
         <v>12.176381111145</v>
       </c>
       <c r="G323" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11676,7 +11676,7 @@
         <v>12.0598611831665</v>
       </c>
       <c r="G324" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11702,7 +11702,7 @@
         <v>12.15696144104</v>
       </c>
       <c r="G325" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11728,7 +11728,7 @@
         <v>12.176381111145</v>
       </c>
       <c r="G326" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11754,7 +11754,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G327" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11780,7 +11780,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G328" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11806,7 +11806,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G329" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11832,7 +11832,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G330" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11858,7 +11858,7 @@
         <v>13.0308637619019</v>
       </c>
       <c r="G331" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11884,7 +11884,7 @@
         <v>13.186224937439</v>
       </c>
       <c r="G332" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11910,7 +11910,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G333" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11936,7 +11936,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G334" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11962,7 +11962,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G335" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11988,7 +11988,7 @@
         <v>12.2929019927979</v>
       </c>
       <c r="G336" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -12014,7 +12014,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G337" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -12040,7 +12040,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G338" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -12066,7 +12066,7 @@
         <v>12.0210208892822</v>
       </c>
       <c r="G339" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -12092,7 +12092,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G340" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -12118,7 +12118,7 @@
         <v>12.0792808532715</v>
       </c>
       <c r="G341" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -12144,7 +12144,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G342" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -12170,7 +12170,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G343" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -12196,7 +12196,7 @@
         <v>12.4871015548706</v>
       </c>
       <c r="G344" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -12222,7 +12222,7 @@
         <v>12.681303024292</v>
       </c>
       <c r="G345" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -12248,7 +12248,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G346" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -12274,7 +12274,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G347" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -12300,7 +12300,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G348" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -12326,7 +12326,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G349" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -12352,7 +12352,7 @@
         <v>12.7978229522705</v>
       </c>
       <c r="G350" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -12378,7 +12378,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G351" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -12404,7 +12404,7 @@
         <v>13.2833251953125</v>
       </c>
       <c r="G352" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -12430,7 +12430,7 @@
         <v>13.5940456390381</v>
       </c>
       <c r="G353" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -12456,7 +12456,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G354" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -12482,7 +12482,7 @@
         <v>13.9824476242065</v>
       </c>
       <c r="G355" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -12508,7 +12508,7 @@
         <v>14.1378078460693</v>
       </c>
       <c r="G356" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -12534,7 +12534,7 @@
         <v>14.7204103469849</v>
       </c>
       <c r="G357" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -12560,7 +12560,7 @@
         <v>14.1378078460693</v>
       </c>
       <c r="G358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12586,7 +12586,7 @@
         <v>14.0989675521851</v>
       </c>
       <c r="G359" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12612,7 +12612,7 @@
         <v>13.8270874023438</v>
       </c>
       <c r="G360" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12638,7 +12638,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G361" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12664,7 +12664,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G362" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12690,7 +12690,7 @@
         <v>12.9726037979126</v>
       </c>
       <c r="G363" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12716,7 +12716,7 @@
         <v>12.9337644577026</v>
       </c>
       <c r="G364" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12742,7 +12742,7 @@
         <v>12.8755035400391</v>
       </c>
       <c r="G365" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12768,7 +12768,7 @@
         <v>12.9920244216919</v>
       </c>
       <c r="G366" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12794,7 +12794,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G367" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12820,7 +12820,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G368" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12846,7 +12846,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G369" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12872,7 +12872,7 @@
         <v>12.7784032821655</v>
       </c>
       <c r="G370" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12898,7 +12898,7 @@
         <v>12.8560838699341</v>
       </c>
       <c r="G371" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12924,7 +12924,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G372" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12950,7 +12950,7 @@
         <v>15.2835922241211</v>
       </c>
       <c r="G373" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12976,7 +12976,7 @@
         <v>14.5650501251221</v>
       </c>
       <c r="G374" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13002,7 +13002,7 @@
         <v>14.0407075881958</v>
       </c>
       <c r="G375" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -13028,7 +13028,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G376" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -13054,7 +13054,7 @@
         <v>13.4581060409546</v>
       </c>
       <c r="G377" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13080,7 +13080,7 @@
         <v>13.3027448654175</v>
       </c>
       <c r="G378" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13106,7 +13106,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G379" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13132,7 +13132,7 @@
         <v>13.1473846435547</v>
       </c>
       <c r="G380" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13158,7 +13158,7 @@
         <v>12.9531841278076</v>
       </c>
       <c r="G381" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -13184,7 +13184,7 @@
         <v>12.9531841278076</v>
       </c>
       <c r="G382" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -13210,7 +13210,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G383" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -13236,7 +13236,7 @@
         <v>12.8755035400391</v>
       </c>
       <c r="G384" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -13262,7 +13262,7 @@
         <v>13.380425453186</v>
       </c>
       <c r="G385" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -13288,7 +13288,7 @@
         <v>13.4192657470703</v>
       </c>
       <c r="G386" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -13314,7 +13314,7 @@
         <v>13.4969463348389</v>
       </c>
       <c r="G387" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13340,7 +13340,7 @@
         <v>13.7105674743652</v>
       </c>
       <c r="G388" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13366,7 +13366,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G389" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13392,7 +13392,7 @@
         <v>13.6911468505859</v>
       </c>
       <c r="G390" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13418,7 +13418,7 @@
         <v>13.9630270004272</v>
       </c>
       <c r="G391" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13444,7 +13444,7 @@
         <v>13.9630270004272</v>
       </c>
       <c r="G392" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13470,7 +13470,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G393" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13496,7 +13496,7 @@
         <v>13.4581060409546</v>
       </c>
       <c r="G394" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13522,7 +13522,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G395" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13548,7 +13548,7 @@
         <v>13.6717262268066</v>
       </c>
       <c r="G396" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13574,7 +13574,7 @@
         <v>13.2444849014282</v>
       </c>
       <c r="G397" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13600,7 +13600,7 @@
         <v>12.8949241638184</v>
       </c>
       <c r="G398" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13626,7 +13626,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G399" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13652,7 +13652,7 @@
         <v>13.0502843856812</v>
       </c>
       <c r="G400" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13678,7 +13678,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G401" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13704,7 +13704,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G402" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13730,7 +13730,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G403" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13756,7 +13756,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G404" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13782,7 +13782,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G405" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13808,7 +13808,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G406" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13834,7 +13834,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G407" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13860,7 +13860,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G408" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13886,7 +13886,7 @@
         <v>12.4871015548706</v>
       </c>
       <c r="G409" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13912,7 +13912,7 @@
         <v>12.4094219207764</v>
       </c>
       <c r="G410" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13938,7 +13938,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G411" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13964,7 +13964,7 @@
         <v>11.8268203735352</v>
       </c>
       <c r="G412" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13990,7 +13990,7 @@
         <v>11.5355186462402</v>
       </c>
       <c r="G413" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14016,7 +14016,7 @@
         <v>11.6131992340088</v>
       </c>
       <c r="G414" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14042,7 +14042,7 @@
         <v>11.5549392700195</v>
       </c>
       <c r="G415" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14068,7 +14068,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G416" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14094,7 +14094,7 @@
         <v>11.5549392700195</v>
       </c>
       <c r="G417" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14120,7 +14120,7 @@
         <v>11.2636375427246</v>
       </c>
       <c r="G418" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14146,7 +14146,7 @@
         <v>11.5355186462402</v>
       </c>
       <c r="G419" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14172,7 +14172,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G420" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14198,7 +14198,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G421" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14224,7 +14224,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G422" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14250,7 +14250,7 @@
         <v>11.8073997497559</v>
       </c>
       <c r="G423" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14276,7 +14276,7 @@
         <v>11.7491397857666</v>
       </c>
       <c r="G424" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14302,7 +14302,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G425" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14328,7 +14328,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G426" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14354,7 +14354,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G427" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14380,7 +14380,7 @@
         <v>11.7491397857666</v>
       </c>
       <c r="G428" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14406,7 +14406,7 @@
         <v>11.8073997497559</v>
       </c>
       <c r="G429" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14432,7 +14432,7 @@
         <v>11.9045000076294</v>
       </c>
       <c r="G430" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14458,7 +14458,7 @@
         <v>11.6326189041138</v>
       </c>
       <c r="G431" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14484,7 +14484,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G432" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14510,7 +14510,7 @@
         <v>10.972336769104</v>
       </c>
       <c r="G433" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14536,7 +14536,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G434" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14562,7 +14562,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G435" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14588,7 +14588,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G436" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14614,7 +14614,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G437" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14640,7 +14640,7 @@
         <v>10.9140768051147</v>
       </c>
       <c r="G438" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14666,7 +14666,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G439" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14692,7 +14692,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G440" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14718,7 +14718,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G441" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14744,7 +14744,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G442" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14770,7 +14770,7 @@
         <v>9.86539268493652</v>
       </c>
       <c r="G443" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14796,7 +14796,7 @@
         <v>9.84597301483154</v>
       </c>
       <c r="G444" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14822,7 +14822,7 @@
         <v>9.30221080780029</v>
       </c>
       <c r="G445" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14848,7 +14848,7 @@
         <v>10.0013341903687</v>
       </c>
       <c r="G446" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14874,7 +14874,7 @@
         <v>9.12743091583252</v>
       </c>
       <c r="G447" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14926,7 +14926,7 @@
         <v>9.22453117370605</v>
       </c>
       <c r="G449" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14952,7 +14952,7 @@
         <v>8.59337902069092</v>
       </c>
       <c r="G450" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14978,7 +14978,7 @@
         <v>8.6322193145752</v>
       </c>
       <c r="G451" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15004,7 +15004,7 @@
         <v>8.58366870880127</v>
       </c>
       <c r="G452" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -15030,7 +15030,7 @@
         <v>8.93323040008545</v>
       </c>
       <c r="G453" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15056,7 +15056,7 @@
         <v>8.83613014221191</v>
       </c>
       <c r="G454" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15082,7 +15082,7 @@
         <v>10.0984344482422</v>
       </c>
       <c r="G455" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15108,7 +15108,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G456" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15134,7 +15134,7 @@
         <v>11.6326189041138</v>
       </c>
       <c r="G457" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15160,7 +15160,7 @@
         <v>11.2247982025146</v>
       </c>
       <c r="G458" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -15186,7 +15186,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G459" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15212,7 +15212,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G460" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -15238,7 +15238,7 @@
         <v>10.234375</v>
       </c>
       <c r="G461" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -15264,7 +15264,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G462" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15290,7 +15290,7 @@
         <v>10.7781372070312</v>
       </c>
       <c r="G463" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15316,7 +15316,7 @@
         <v>10.7198762893677</v>
       </c>
       <c r="G464" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15342,7 +15342,7 @@
         <v>10.2926349639893</v>
       </c>
       <c r="G465" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15368,7 +15368,7 @@
         <v>10.2732152938843</v>
       </c>
       <c r="G466" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15394,7 +15394,7 @@
         <v>10.1761140823364</v>
       </c>
       <c r="G467" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15420,7 +15420,7 @@
         <v>10.4868364334106</v>
       </c>
       <c r="G468" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15446,7 +15446,7 @@
         <v>11.2053775787354</v>
       </c>
       <c r="G469" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15472,7 +15472,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G470" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15498,7 +15498,7 @@
         <v>11.8268203735352</v>
       </c>
       <c r="G471" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15524,7 +15524,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G472" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15550,7 +15550,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G473" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15576,7 +15576,7 @@
         <v>12.2346420288086</v>
       </c>
       <c r="G474" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15602,7 +15602,7 @@
         <v>12.4288415908813</v>
       </c>
       <c r="G475" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15628,7 +15628,7 @@
         <v>13.0697040557861</v>
       </c>
       <c r="G476" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15654,7 +15654,7 @@
         <v>13.1473846435547</v>
       </c>
       <c r="G477" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15680,7 +15680,7 @@
         <v>13.2056446075439</v>
       </c>
       <c r="G478" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15706,7 +15706,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G479" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15732,7 +15732,7 @@
         <v>12.9337644577026</v>
       </c>
       <c r="G480" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15758,7 +15758,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G481" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15784,7 +15784,7 @@
         <v>12.3123216629028</v>
       </c>
       <c r="G482" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15810,7 +15810,7 @@
         <v>12.4288415908813</v>
       </c>
       <c r="G483" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15836,7 +15836,7 @@
         <v>12.7784032821655</v>
       </c>
       <c r="G484" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15862,7 +15862,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G485" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15888,7 +15888,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G486" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15914,7 +15914,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G487" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15940,7 +15940,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G488" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15966,7 +15966,7 @@
         <v>14.3708486557007</v>
       </c>
       <c r="G489" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15992,7 +15992,7 @@
         <v>14.1183881759644</v>
       </c>
       <c r="G490" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -16018,7 +16018,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G491" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16044,7 +16044,7 @@
         <v>14.2931690216064</v>
       </c>
       <c r="G492" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16070,7 +16070,7 @@
         <v>15.5943126678467</v>
       </c>
       <c r="G493" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16096,7 +16096,7 @@
         <v>15.7496738433838</v>
       </c>
       <c r="G494" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16122,7 +16122,7 @@
         <v>15.633152961731</v>
       </c>
       <c r="G495" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16148,7 +16148,7 @@
         <v>14.9146108627319</v>
       </c>
       <c r="G496" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16174,7 +16174,7 @@
         <v>16.0021343231201</v>
       </c>
       <c r="G497" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16200,7 +16200,7 @@
         <v>16.4876365661621</v>
       </c>
       <c r="G498" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -16226,7 +16226,7 @@
         <v>16.7206764221191</v>
       </c>
       <c r="G499" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -16252,7 +16252,7 @@
         <v>16.1186542510986</v>
       </c>
       <c r="G500" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16278,7 +16278,7 @@
         <v>15.6525726318359</v>
       </c>
       <c r="G501" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16304,7 +16304,7 @@
         <v>15.3030118942261</v>
       </c>
       <c r="G502" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16330,7 +16330,7 @@
         <v>15.1476516723633</v>
       </c>
       <c r="G503" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16356,7 +16356,7 @@
         <v>14.7009897232056</v>
       </c>
       <c r="G504" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16382,7 +16382,7 @@
         <v>14.7009897232056</v>
       </c>
       <c r="G505" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16408,7 +16408,7 @@
         <v>14.7980899810791</v>
       </c>
       <c r="G506" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16434,7 +16434,7 @@
         <v>14.4485292434692</v>
       </c>
       <c r="G507" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16460,7 +16460,7 @@
         <v>14.4679489135742</v>
       </c>
       <c r="G508" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16486,7 +16486,7 @@
         <v>14.3125886917114</v>
       </c>
       <c r="G509" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16512,7 +16512,7 @@
         <v>14.7398300170898</v>
       </c>
       <c r="G510" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16538,7 +16538,7 @@
         <v>14.9922914505005</v>
       </c>
       <c r="G511" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16564,7 +16564,7 @@
         <v>15.4001121520996</v>
       </c>
       <c r="G512" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16590,7 +16590,7 @@
         <v>15.6914129257202</v>
       </c>
       <c r="G513" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16616,7 +16616,7 @@
         <v>15.128231048584</v>
       </c>
       <c r="G514" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16642,7 +16642,7 @@
         <v>15.3806915283203</v>
       </c>
       <c r="G515" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16668,7 +16668,7 @@
         <v>15.4777927398682</v>
       </c>
       <c r="G516" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16694,7 +16694,7 @@
         <v>15.3612718582153</v>
       </c>
       <c r="G517" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16720,7 +16720,7 @@
         <v>15.3418521881104</v>
       </c>
       <c r="G518" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16746,7 +16746,7 @@
         <v>15.5748929977417</v>
       </c>
       <c r="G519" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16798,7 +16798,7 @@
         <v>15.3806915283203</v>
       </c>
       <c r="G521" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17344,7 +17344,7 @@
         <v>15.3612718582153</v>
       </c>
       <c r="G542" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -21348,7 +21348,7 @@
         <v>15.3418521881104</v>
       </c>
       <c r="G696" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -32710,7 +32710,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1133" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32762,7 +32762,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1135" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32814,7 +32814,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1137" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32866,7 +32866,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1139" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32918,7 +32918,7 @@
         <v>23.4497299194336</v>
       </c>
       <c r="G1141" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32944,7 +32944,7 @@
         <v>23.3526306152344</v>
       </c>
       <c r="G1142" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32970,7 +32970,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1143" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32996,7 +32996,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1144" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -33022,7 +33022,7 @@
         <v>22.7214775085449</v>
       </c>
       <c r="G1145" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -33048,7 +33048,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1146" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -33074,7 +33074,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1147" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -33100,7 +33100,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1148" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33126,7 +33126,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G1149" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33178,7 +33178,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1151" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33204,7 +33204,7 @@
         <v>23.7410316467285</v>
       </c>
       <c r="G1152" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33230,7 +33230,7 @@
         <v>22.9642276763916</v>
       </c>
       <c r="G1153" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33256,7 +33256,7 @@
         <v>22.5272769927979</v>
       </c>
       <c r="G1154" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33282,7 +33282,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1155" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33308,7 +33308,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1156" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33386,7 +33386,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1159" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33490,7 +33490,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1163" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33516,7 +33516,7 @@
         <v>22.2845268249512</v>
       </c>
       <c r="G1164" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33542,7 +33542,7 @@
         <v>22.1388759613037</v>
       </c>
       <c r="G1165" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33568,7 +33568,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1166" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33620,7 +33620,7 @@
         <v>22.2359752655029</v>
       </c>
       <c r="G1168" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33646,7 +33646,7 @@
         <v>22.0903244018555</v>
       </c>
       <c r="G1169" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33672,7 +33672,7 @@
         <v>21.896125793457</v>
       </c>
       <c r="G1170" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33698,7 +33698,7 @@
         <v>22.2845268249512</v>
       </c>
       <c r="G1171" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33724,7 +33724,7 @@
         <v>22.4787273406982</v>
       </c>
       <c r="G1172" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33750,7 +33750,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1173" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33776,7 +33776,7 @@
         <v>22.9642276763916</v>
       </c>
       <c r="G1174" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33802,7 +33802,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1175" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33854,7 +33854,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1177" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33880,7 +33880,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1178" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33958,7 +33958,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1181" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33984,7 +33984,7 @@
         <v>22.4787273406982</v>
       </c>
       <c r="G1182" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34010,7 +34010,7 @@
         <v>22.0417747497559</v>
       </c>
       <c r="G1183" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34062,7 +34062,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G1185" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -34114,7 +34114,7 @@
         <v>25.2946357727051</v>
       </c>
       <c r="G1187" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34140,7 +34140,7 @@
         <v>24.5663833618164</v>
       </c>
       <c r="G1188" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34192,7 +34192,7 @@
         <v>24.8576850891113</v>
       </c>
       <c r="G1190" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34218,7 +34218,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1191" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34244,7 +34244,7 @@
         <v>25.9257888793945</v>
       </c>
       <c r="G1192" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34270,7 +34270,7 @@
         <v>25.5373878479004</v>
       </c>
       <c r="G1193" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34296,7 +34296,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1194" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34322,7 +34322,7 @@
         <v>25.3431873321533</v>
       </c>
       <c r="G1195" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34348,7 +34348,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1196" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34400,7 +34400,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G1198" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34426,7 +34426,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G1199" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34452,7 +34452,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1200" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34478,7 +34478,7 @@
         <v>26.3627395629883</v>
       </c>
       <c r="G1201" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34504,7 +34504,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G1202" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34530,7 +34530,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1203" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34556,7 +34556,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G1204" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34582,7 +34582,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G1205" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34608,7 +34608,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1206" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34634,7 +34634,7 @@
         <v>25.9257888793945</v>
       </c>
       <c r="G1207" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34660,7 +34660,7 @@
         <v>26.1685390472412</v>
       </c>
       <c r="G1208" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34686,7 +34686,7 @@
         <v>26.4112892150879</v>
       </c>
       <c r="G1209" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34712,7 +34712,7 @@
         <v>25.9743385314941</v>
       </c>
       <c r="G1210" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34738,7 +34738,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1211" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34764,7 +34764,7 @@
         <v>24.1779823303223</v>
       </c>
       <c r="G1212" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34790,7 +34790,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1213" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34842,7 +34842,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1215" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34868,7 +34868,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1216" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34894,7 +34894,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G1217" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34920,7 +34920,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G1218" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34946,7 +34946,7 @@
         <v>23.5468292236328</v>
       </c>
       <c r="G1219" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34972,7 +34972,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1220" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34998,7 +34998,7 @@
         <v>23.5468292236328</v>
       </c>
       <c r="G1221" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35024,7 +35024,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1222" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -35050,7 +35050,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G1223" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -35076,7 +35076,7 @@
         <v>24.2265338897705</v>
       </c>
       <c r="G1224" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -35102,7 +35102,7 @@
         <v>24.6149349212646</v>
       </c>
       <c r="G1225" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -35128,7 +35128,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1226" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35154,7 +35154,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1227" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35180,7 +35180,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1228" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35206,7 +35206,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G1229" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35232,7 +35232,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1230" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35258,7 +35258,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1231" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35284,7 +35284,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1232" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35310,7 +35310,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G1233" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35336,7 +35336,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1234" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35362,7 +35362,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1235" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35440,7 +35440,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1238" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35492,7 +35492,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1240" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35544,7 +35544,7 @@
         <v>21.8475742340088</v>
       </c>
       <c r="G1242" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35570,7 +35570,7 @@
         <v>23.2069797515869</v>
       </c>
       <c r="G1243" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35596,7 +35596,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1244" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35622,7 +35622,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1245" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35648,7 +35648,7 @@
         <v>22.915678024292</v>
       </c>
       <c r="G1246" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35700,7 +35700,7 @@
         <v>23.2069797515869</v>
       </c>
       <c r="G1248" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35752,7 +35752,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1250" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35778,7 +35778,7 @@
         <v>24.2265338897705</v>
       </c>
       <c r="G1251" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35804,7 +35804,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1252" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35830,7 +35830,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1253" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35856,7 +35856,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G1254" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35882,7 +35882,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1255" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35908,7 +35908,7 @@
         <v>23.5468292236328</v>
       </c>
       <c r="G1256" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35934,7 +35934,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G1257" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35960,7 +35960,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1258" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35986,7 +35986,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1259" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -36064,7 +36064,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1262" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -36090,7 +36090,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1263" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -36116,7 +36116,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1264" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -36142,7 +36142,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1265" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36168,7 +36168,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G1266" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36194,7 +36194,7 @@
         <v>25.6830387115479</v>
       </c>
       <c r="G1267" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36220,7 +36220,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1268" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36246,7 +36246,7 @@
         <v>27.1395435333252</v>
       </c>
       <c r="G1269" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36272,7 +36272,7 @@
         <v>27.0424423217773</v>
       </c>
       <c r="G1270" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36298,7 +36298,7 @@
         <v>27.285192489624</v>
       </c>
       <c r="G1271" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36324,7 +36324,7 @@
         <v>26.8482418060303</v>
       </c>
       <c r="G1272" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36350,7 +36350,7 @@
         <v>26.4598407745361</v>
       </c>
       <c r="G1273" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36376,7 +36376,7 @@
         <v>27.0424423217773</v>
       </c>
       <c r="G1274" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36402,7 +36402,7 @@
         <v>27.1880931854248</v>
       </c>
       <c r="G1275" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36428,7 +36428,7 @@
         <v>27.1880931854248</v>
       </c>
       <c r="G1276" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36454,7 +36454,7 @@
         <v>27.1880931854248</v>
       </c>
       <c r="G1277" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36480,7 +36480,7 @@
         <v>27.3337421417236</v>
       </c>
       <c r="G1278" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36506,7 +36506,7 @@
         <v>26.7996921539307</v>
       </c>
       <c r="G1279" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36532,7 +36532,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1280" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36558,7 +36558,7 @@
         <v>26.1199893951416</v>
       </c>
       <c r="G1281" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36584,7 +36584,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1282" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36610,7 +36610,7 @@
         <v>26.3141899108887</v>
       </c>
       <c r="G1283" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36636,7 +36636,7 @@
         <v>26.071439743042</v>
       </c>
       <c r="G1284" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36662,7 +36662,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1285" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36688,7 +36688,7 @@
         <v>26.3627395629883</v>
       </c>
       <c r="G1286" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36714,7 +36714,7 @@
         <v>26.5569400787354</v>
       </c>
       <c r="G1287" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36740,7 +36740,7 @@
         <v>26.7996921539307</v>
       </c>
       <c r="G1288" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36766,7 +36766,7 @@
         <v>25.9743385314941</v>
       </c>
       <c r="G1289" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36792,7 +36792,7 @@
         <v>26.6054916381836</v>
       </c>
       <c r="G1290" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36818,7 +36818,7 @@
         <v>26.3627395629883</v>
       </c>
       <c r="G1291" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36844,7 +36844,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G1292" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36870,7 +36870,7 @@
         <v>26.4112892150879</v>
       </c>
       <c r="G1293" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36896,7 +36896,7 @@
         <v>26.1199893951416</v>
       </c>
       <c r="G1294" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36922,7 +36922,7 @@
         <v>26.2656402587891</v>
       </c>
       <c r="G1295" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36948,7 +36948,7 @@
         <v>25.5859375</v>
       </c>
       <c r="G1296" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36974,7 +36974,7 @@
         <v>25.6830387115479</v>
       </c>
       <c r="G1297" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -37000,7 +37000,7 @@
         <v>25.7315883636475</v>
       </c>
       <c r="G1298" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -37026,7 +37026,7 @@
         <v>25.4888362884521</v>
       </c>
       <c r="G1299" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -37052,7 +37052,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1300" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -37078,7 +37078,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1301" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -37104,7 +37104,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1302" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -37130,7 +37130,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G1303" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37156,7 +37156,7 @@
         <v>25.1489868164062</v>
       </c>
       <c r="G1304" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37182,7 +37182,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1305" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37208,7 +37208,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G1306" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37234,7 +37234,7 @@
         <v>25.3917369842529</v>
       </c>
       <c r="G1307" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37260,7 +37260,7 @@
         <v>25.1489868164062</v>
       </c>
       <c r="G1308" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37286,7 +37286,7 @@
         <v>25.2946357727051</v>
       </c>
       <c r="G1309" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37312,7 +37312,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G1310" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37338,7 +37338,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1311" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37364,7 +37364,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G1312" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37390,7 +37390,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1313" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37416,7 +37416,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1314" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37442,7 +37442,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G1315" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37468,7 +37468,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1316" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37494,7 +37494,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1317" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37520,7 +37520,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1318" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37546,7 +37546,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1319" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37572,7 +37572,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G1320" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37598,7 +37598,7 @@
         <v>24.7605857849121</v>
       </c>
       <c r="G1321" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37624,7 +37624,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G1322" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37650,7 +37650,7 @@
         <v>24.5178337097168</v>
       </c>
       <c r="G1323" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37676,7 +37676,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G1324" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37702,7 +37702,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1325" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37728,7 +37728,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1326" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37754,7 +37754,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1327" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37780,7 +37780,7 @@
         <v>24.8576850891113</v>
       </c>
       <c r="G1328" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37806,7 +37806,7 @@
         <v>24.8576850891113</v>
       </c>
       <c r="G1329" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37832,7 +37832,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G1330" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37858,7 +37858,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G1331" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37884,7 +37884,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1332" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37910,7 +37910,7 @@
         <v>25.3917369842529</v>
       </c>
       <c r="G1333" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37936,7 +37936,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1334" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37962,7 +37962,7 @@
         <v>25.5859375</v>
       </c>
       <c r="G1335" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37988,7 +37988,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1336" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -38014,7 +38014,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G1337" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -38040,7 +38040,7 @@
         <v>23.886682510376</v>
       </c>
       <c r="G1338" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -38066,7 +38066,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G1339" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -38092,7 +38092,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G1340" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -38118,7 +38118,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G1341" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -38144,7 +38144,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1342" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -38170,7 +38170,7 @@
         <v>23.3040790557861</v>
       </c>
       <c r="G1343" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -38196,7 +38196,7 @@
         <v>22.4301776885986</v>
       </c>
       <c r="G1344" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -38222,7 +38222,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1345" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38248,7 +38248,7 @@
         <v>21.5562744140625</v>
       </c>
       <c r="G1346" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -38274,7 +38274,7 @@
         <v>21.4591732025146</v>
       </c>
       <c r="G1347" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38300,7 +38300,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1348" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38326,7 +38326,7 @@
         <v>20.9736728668213</v>
       </c>
       <c r="G1349" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38352,7 +38352,7 @@
         <v>21.7019233703613</v>
       </c>
       <c r="G1350" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38378,7 +38378,7 @@
         <v>21.7019233703613</v>
       </c>
       <c r="G1351" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38404,7 +38404,7 @@
         <v>22.0417747497559</v>
       </c>
       <c r="G1352" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38430,7 +38430,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1353" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38456,7 +38456,7 @@
         <v>21.6533737182617</v>
       </c>
       <c r="G1354" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38482,7 +38482,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1355" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38508,7 +38508,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1356" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38534,7 +38534,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G1357" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38560,7 +38560,7 @@
         <v>20.4396190643311</v>
       </c>
       <c r="G1358" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38586,7 +38586,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1359" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38612,7 +38612,7 @@
         <v>21.5077228546143</v>
       </c>
       <c r="G1360" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38638,7 +38638,7 @@
         <v>21.7019233703613</v>
       </c>
       <c r="G1361" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38664,7 +38664,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G1362" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38690,7 +38690,7 @@
         <v>21.0222225189209</v>
       </c>
       <c r="G1363" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38716,7 +38716,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1364" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38742,7 +38742,7 @@
         <v>19.2841262817383</v>
       </c>
       <c r="G1365" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38768,7 +38768,7 @@
         <v>19.759916305542</v>
       </c>
       <c r="G1366" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38794,7 +38794,7 @@
         <v>18.9734058380127</v>
       </c>
       <c r="G1367" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38820,7 +38820,7 @@
         <v>18.8763046264648</v>
       </c>
       <c r="G1368" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38846,7 +38846,7 @@
         <v>18.8568840026855</v>
       </c>
       <c r="G1369" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38872,7 +38872,7 @@
         <v>18.3713836669922</v>
       </c>
       <c r="G1370" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38898,7 +38898,7 @@
         <v>18.0800819396973</v>
       </c>
       <c r="G1371" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38924,7 +38924,7 @@
         <v>18.0218200683594</v>
       </c>
       <c r="G1372" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38950,7 +38950,7 @@
         <v>18.1966018676758</v>
       </c>
       <c r="G1373" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -38976,7 +38976,7 @@
         <v>19.1093444824219</v>
       </c>
       <c r="G1374" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -39002,7 +39002,7 @@
         <v>19.1870250701904</v>
       </c>
       <c r="G1375" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -39028,7 +39028,7 @@
         <v>20.2939682006836</v>
       </c>
       <c r="G1376" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -39054,7 +39054,7 @@
         <v>20.5852699279785</v>
       </c>
       <c r="G1377" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -39080,7 +39080,7 @@
         <v>20.1968688964844</v>
       </c>
       <c r="G1378" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -39106,7 +39106,7 @@
         <v>20.8765716552734</v>
       </c>
       <c r="G1379" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -39132,7 +39132,7 @@
         <v>21.1678714752197</v>
       </c>
       <c r="G1380" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -39158,7 +39158,7 @@
         <v>21.6533737182617</v>
       </c>
       <c r="G1381" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39184,7 +39184,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1382" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -39210,7 +39210,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1383" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39236,7 +39236,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1384" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39262,7 +39262,7 @@
         <v>22.1874256134033</v>
       </c>
       <c r="G1385" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -39288,7 +39288,7 @@
         <v>20.9736728668213</v>
       </c>
       <c r="G1386" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39314,7 +39314,7 @@
         <v>21.0222225189209</v>
       </c>
       <c r="G1387" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39340,7 +39340,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1388" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39366,7 +39366,7 @@
         <v>20.25</v>
       </c>
       <c r="G1389" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39392,7 +39392,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1390" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39418,7 +39418,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1391" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39444,7 +39444,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1392" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39470,7 +39470,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1393" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39496,7 +39496,7 @@
         <v>22.5</v>
       </c>
       <c r="G1394" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39522,7 +39522,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1395" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39548,7 +39548,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1396" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39574,7 +39574,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1397" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39600,7 +39600,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1398" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39626,7 +39626,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1399" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39652,7 +39652,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1400" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39678,7 +39678,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1401" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39704,7 +39704,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1402" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39730,7 +39730,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1403" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39756,7 +39756,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1404" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39782,7 +39782,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1405" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39808,7 +39808,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1406" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39834,7 +39834,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1407" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39860,7 +39860,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1408" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39886,7 +39886,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1409" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39912,7 +39912,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G1410" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39938,7 +39938,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1411" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39964,7 +39964,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1412" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39990,7 +39990,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1413" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -40016,7 +40016,7 @@
         <v>24.75</v>
       </c>
       <c r="G1414" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -40042,7 +40042,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1415" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -40068,7 +40068,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1416" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -40094,7 +40094,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1417" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -40120,7 +40120,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1418" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -40146,7 +40146,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -40172,7 +40172,7 @@
         <v>23.25</v>
       </c>
       <c r="G1420" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40198,7 +40198,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1421" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40224,7 +40224,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1422" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40250,7 +40250,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1423" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40276,7 +40276,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1424" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40302,7 +40302,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1425" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40328,7 +40328,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1426" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40354,7 +40354,7 @@
         <v>22.5</v>
       </c>
       <c r="G1427" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40380,7 +40380,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1428" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40406,7 +40406,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1429" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40432,7 +40432,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1430" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40458,7 +40458,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1431" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40484,7 +40484,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40510,7 +40510,7 @@
         <v>22.25</v>
       </c>
       <c r="G1433" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40536,7 +40536,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1434" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40562,7 +40562,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1435" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40588,7 +40588,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1436" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40614,7 +40614,7 @@
         <v>22.5</v>
       </c>
       <c r="G1437" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40640,7 +40640,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1438" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40666,7 +40666,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1439" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40692,7 +40692,7 @@
         <v>22.25</v>
       </c>
       <c r="G1440" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40718,7 +40718,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1441" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40744,7 +40744,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1442" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40770,7 +40770,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1443" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40796,7 +40796,7 @@
         <v>22.75</v>
       </c>
       <c r="G1444" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40822,7 +40822,7 @@
         <v>22.5</v>
       </c>
       <c r="G1445" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40848,7 +40848,7 @@
         <v>22.25</v>
       </c>
       <c r="G1446" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40874,7 +40874,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1447" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40900,7 +40900,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1448" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40926,7 +40926,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1449" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40952,7 +40952,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1450" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40978,7 +40978,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1451" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -41004,7 +41004,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1452" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -41030,7 +41030,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1453" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -41056,7 +41056,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1454" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -41082,7 +41082,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1455" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -41108,7 +41108,7 @@
         <v>22</v>
       </c>
       <c r="G1456" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -41134,7 +41134,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1457" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -41160,7 +41160,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1458" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41186,7 +41186,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1459" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41212,7 +41212,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1460" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41238,7 +41238,7 @@
         <v>21.5</v>
       </c>
       <c r="G1461" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41264,7 +41264,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1462" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41290,7 +41290,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1463" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41316,7 +41316,7 @@
         <v>20</v>
       </c>
       <c r="G1464" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41342,7 +41342,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G1465" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41368,7 +41368,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G1466" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41394,7 +41394,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1467" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41420,7 +41420,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1468" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41446,7 +41446,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1469" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41472,7 +41472,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G1470" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41498,7 +41498,7 @@
         <v>19.5</v>
       </c>
       <c r="G1471" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41524,7 +41524,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G1472" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41550,7 +41550,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1473" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41576,7 +41576,7 @@
         <v>19.8600006103516</v>
       </c>
       <c r="G1474" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41602,7 +41602,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1475" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41628,7 +41628,7 @@
         <v>20.5</v>
       </c>
       <c r="G1476" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41654,7 +41654,7 @@
         <v>21</v>
       </c>
       <c r="G1477" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41680,7 +41680,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1478" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41706,7 +41706,7 @@
         <v>20.5</v>
       </c>
       <c r="G1479" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41732,7 +41732,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1480" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41758,7 +41758,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41784,7 +41784,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G1482" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41810,7 +41810,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1483" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41836,7 +41836,7 @@
         <v>19.8199996948242</v>
       </c>
       <c r="G1484" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41862,7 +41862,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G1485" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41888,7 +41888,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G1486" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41914,7 +41914,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1487" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41940,7 +41940,7 @@
         <v>19.0799999237061</v>
       </c>
       <c r="G1488" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41966,7 +41966,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1489" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41992,7 +41992,7 @@
         <v>18.5</v>
       </c>
       <c r="G1490" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -42018,7 +42018,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1491" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -42044,7 +42044,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1492" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -42070,7 +42070,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1493" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -42096,7 +42096,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1494" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -42122,7 +42122,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1495" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -42148,7 +42148,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G1496" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -42174,7 +42174,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1497" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42200,7 +42200,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1498" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42226,7 +42226,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1499" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42252,7 +42252,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1500" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42278,7 +42278,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G1501" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42304,7 +42304,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1502" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42330,7 +42330,7 @@
         <v>19.2199993133545</v>
       </c>
       <c r="G1503" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42356,7 +42356,7 @@
         <v>19.0799999237061</v>
       </c>
       <c r="G1504" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42382,7 +42382,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1505" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42408,7 +42408,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1506" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42434,7 +42434,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G1507" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42460,7 +42460,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1508" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42486,7 +42486,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G1509" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42512,7 +42512,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1510" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42538,7 +42538,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1511" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42564,7 +42564,7 @@
         <v>18.4599990844727</v>
       </c>
       <c r="G1512" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42590,7 +42590,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1513" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42616,7 +42616,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1514" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42642,7 +42642,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G1515" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42668,7 +42668,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1516" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42694,7 +42694,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1517" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42720,7 +42720,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1518" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42746,7 +42746,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1519" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42772,7 +42772,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1520" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42798,7 +42798,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1521" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42824,7 +42824,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1522" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42850,7 +42850,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1523" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42876,7 +42876,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G1524" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42902,7 +42902,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1525" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42928,7 +42928,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1526" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42954,7 +42954,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1527" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42980,7 +42980,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1528" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -43006,7 +43006,7 @@
         <v>18</v>
       </c>
       <c r="G1529" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -43032,7 +43032,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1530" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43058,7 +43058,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1531" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43084,7 +43084,7 @@
         <v>17</v>
       </c>
       <c r="G1532" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -43110,7 +43110,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1533" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43136,7 +43136,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1534" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -43162,7 +43162,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1535" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43188,7 +43188,7 @@
         <v>17.5</v>
       </c>
       <c r="G1536" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43214,7 +43214,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1537" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43240,7 +43240,7 @@
         <v>17.5</v>
       </c>
       <c r="G1538" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43266,7 +43266,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1539" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43292,7 +43292,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1540" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43318,7 +43318,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1541" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43344,7 +43344,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1542" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43370,7 +43370,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1543" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43396,7 +43396,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1544" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43422,7 +43422,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G1545" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43448,7 +43448,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1546" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43474,7 +43474,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1547" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43500,7 +43500,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G1548" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43526,7 +43526,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G1549" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43534,7 +43534,7 @@
     </row>
     <row r="1550">
       <c r="A1550" s="1" t="n">
-        <v>45484.6495486111</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B1550" t="n">
         <v>85372</v>
@@ -43552,9 +43552,35 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1550" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1550" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="1" t="n">
+        <v>45485.6495023148</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>97178</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>17.8999996185303</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>17.2199993133545</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>17.8999996185303</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>17.8199996948242</v>
+      </c>
+      <c r="G1551" t="s">
         <v>968</v>
       </c>
-      <c r="H1550" t="s">
+      <c r="H1551" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="970">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63556337356567</t>
+    <t xml:space="preserve">7.63556289672852</t>
   </si>
   <si>
     <t xml:space="preserve">CRL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95949554443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.866943359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77439260482788</t>
+    <t xml:space="preserve">7.95949506759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86694383621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77439212799072</t>
   </si>
   <si>
     <t xml:space="preserve">7.74477386474609</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92987966537476</t>
+    <t xml:space="preserve">7.92987823486328</t>
   </si>
   <si>
     <t xml:space="preserve">8.02428245544434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72903966903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03353595733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4976601600647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35512971878052</t>
+    <t xml:space="preserve">7.72904014587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03353691101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49766063690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3551287651062</t>
   </si>
   <si>
     <t xml:space="preserve">7.57910633087158</t>
@@ -80,169 +80,169 @@
     <t xml:space="preserve">7.51987266540527</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62630796432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49673557281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58003187179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5985426902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70219993591309</t>
+    <t xml:space="preserve">7.62630748748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49673509597778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5800313949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59854221343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70220041275024</t>
   </si>
   <si>
     <t xml:space="preserve">7.85768938064575</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91321992874146</t>
+    <t xml:space="preserve">7.91322040557861</t>
   </si>
   <si>
     <t xml:space="preserve">7.97893238067627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06130504608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92247295379639</t>
+    <t xml:space="preserve">8.06130409240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9224739074707</t>
   </si>
   <si>
     <t xml:space="preserve">8.0770378112793</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87064504623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8206672668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90766620635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74847602844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84843397140503</t>
+    <t xml:space="preserve">7.87064599990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82066822052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90766668319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74847650527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84843301773071</t>
   </si>
   <si>
     <t xml:space="preserve">7.80215692520142</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94561386108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6179780960083</t>
+    <t xml:space="preserve">7.94561338424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61797857284546</t>
   </si>
   <si>
     <t xml:space="preserve">7.72811508178711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84102964401245</t>
+    <t xml:space="preserve">7.84103012084961</t>
   </si>
   <si>
     <t xml:space="preserve">7.80400800704956</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05204963684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11776161193848</t>
+    <t xml:space="preserve">8.05204772949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11776065826416</t>
   </si>
   <si>
     <t xml:space="preserve">8.17236614227295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36302280426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52406406402588</t>
+    <t xml:space="preserve">8.36302375793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5240650177002</t>
   </si>
   <si>
     <t xml:space="preserve">8.54720211029053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8165283203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02384853363037</t>
+    <t xml:space="preserve">8.81652927398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02384662628174</t>
   </si>
   <si>
     <t xml:space="preserve">8.66289329528809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3482141494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31119441986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53054237365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4222583770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51480865478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77395629882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8109769821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67770195007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72767925262451</t>
+    <t xml:space="preserve">8.34821605682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31119346618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53054332733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42225742340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51480960845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77395439147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81097602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67770099639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72768020629883</t>
   </si>
   <si>
     <t xml:space="preserve">8.85725212097168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07012367248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93222141265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18118572235107</t>
+    <t xml:space="preserve">9.07012271881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93222045898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18118667602539</t>
   </si>
   <si>
     <t xml:space="preserve">9.20895195007324</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40331172943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16267681121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1821117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0553150177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25152683258057</t>
+    <t xml:space="preserve">9.40330982208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16267585754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18211078643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05531406402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25152778625488</t>
   </si>
   <si>
     <t xml:space="preserve">9.12657928466797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08863162994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82856178283691</t>
+    <t xml:space="preserve">9.08863353729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8285608291626</t>
   </si>
   <si>
     <t xml:space="preserve">9.05809116363525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10714340209961</t>
+    <t xml:space="preserve">9.10714435577393</t>
   </si>
   <si>
     <t xml:space="preserve">8.96553897857666</t>
@@ -251,16 +251,16 @@
     <t xml:space="preserve">8.73323249816895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56849002838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03909111022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36580085754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46853256225586</t>
+    <t xml:space="preserve">8.56848907470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03908920288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36580181121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46853351593018</t>
   </si>
   <si>
     <t xml:space="preserve">8.60736179351807</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">8.08721733093262</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80678558349609</t>
+    <t xml:space="preserve">7.80678510665894</t>
   </si>
   <si>
     <t xml:space="preserve">7.97800540924072</t>
@@ -287,61 +287,61 @@
     <t xml:space="preserve">8.40189647674561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.837815284729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84059429168701</t>
+    <t xml:space="preserve">8.83781719207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8405933380127</t>
   </si>
   <si>
     <t xml:space="preserve">8.81745433807373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56663799285889</t>
+    <t xml:space="preserve">8.5666389465332</t>
   </si>
   <si>
     <t xml:space="preserve">8.66104316711426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76377582550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63883018493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45279884338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40097141265869</t>
+    <t xml:space="preserve">8.7637767791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63882923126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45279979705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40097045898438</t>
   </si>
   <si>
     <t xml:space="preserve">8.62217140197754</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78228569030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11220836639404</t>
+    <t xml:space="preserve">8.7822847366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11220741271973</t>
   </si>
   <si>
     <t xml:space="preserve">8.09924983978271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14459991455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24733352661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61013889312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39449214935303</t>
+    <t xml:space="preserve">8.14460182189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24733257293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61013984680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39449310302734</t>
   </si>
   <si>
     <t xml:space="preserve">8.57034111022949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98497581481934</t>
+    <t xml:space="preserve">8.98497486114502</t>
   </si>
   <si>
     <t xml:space="preserve">9.10344123840332</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">9.03865528106689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08123016357422</t>
+    <t xml:space="preserve">9.0812292098999</t>
   </si>
   <si>
     <t xml:space="preserve">9.21820735931396</t>
@@ -359,13 +359,13 @@
     <t xml:space="preserve">8.91278457641602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14416408538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91926383972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36394786834717</t>
+    <t xml:space="preserve">9.14416313171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91926288604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36394882202148</t>
   </si>
   <si>
     <t xml:space="preserve">8.29268360137939</t>
@@ -377,25 +377,25 @@
     <t xml:space="preserve">8.39726829528809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25936412811279</t>
+    <t xml:space="preserve">8.25936603546143</t>
   </si>
   <si>
     <t xml:space="preserve">8.46390533447266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33340835571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35747051239014</t>
+    <t xml:space="preserve">8.33340740203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35747146606445</t>
   </si>
   <si>
     <t xml:space="preserve">8.56108570098877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49629783630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28342914581299</t>
+    <t xml:space="preserve">8.49629878997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28342819213867</t>
   </si>
   <si>
     <t xml:space="preserve">8.41392707824707</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">8.27972602844238</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21123790740967</t>
+    <t xml:space="preserve">8.21123886108398</t>
   </si>
   <si>
     <t xml:space="preserve">8.45927810668945</t>
@@ -413,22 +413,22 @@
     <t xml:space="preserve">8.48704433441162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54442596435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77210521697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83411407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78321075439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.165452003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13028240203857</t>
+    <t xml:space="preserve">8.54442691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77210426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83411502838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78321170806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16545104980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13028335571289</t>
   </si>
   <si>
     <t xml:space="preserve">8.96183681488037</t>
@@ -437,25 +437,25 @@
     <t xml:space="preserve">8.89797592163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04143238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11639976501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30150508880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27188682556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42922592163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46254444122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67911720275879</t>
+    <t xml:space="preserve">9.04143142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11639881134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30150318145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27188777923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42922496795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46254539489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67911624908447</t>
   </si>
   <si>
     <t xml:space="preserve">9.71798896789551</t>
@@ -464,10 +464,10 @@
     <t xml:space="preserve">9.76426601409912</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66245651245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71243667602539</t>
+    <t xml:space="preserve">9.66245746612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71243572235107</t>
   </si>
   <si>
     <t xml:space="preserve">9.38665199279785</t>
@@ -479,19 +479,19 @@
     <t xml:space="preserve">9.56065082550049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57916069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35148334503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53103351593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39775848388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19414329528809</t>
+    <t xml:space="preserve">9.5791597366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35148239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53103160858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3977575302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1941442489624</t>
   </si>
   <si>
     <t xml:space="preserve">9.32926940917969</t>
@@ -500,19 +500,19 @@
     <t xml:space="preserve">9.21265411376953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12565422058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00533580780029</t>
+    <t xml:space="preserve">9.12565231323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00533676147461</t>
   </si>
   <si>
     <t xml:space="preserve">8.43799209594727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82300662994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07104778289795</t>
+    <t xml:space="preserve">8.82300758361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07104873657227</t>
   </si>
   <si>
     <t xml:space="preserve">9.25522899627686</t>
@@ -527,16 +527,16 @@
     <t xml:space="preserve">9.51437377929688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45884227752686</t>
+    <t xml:space="preserve">9.45884323120117</t>
   </si>
   <si>
     <t xml:space="preserve">9.8105411529541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53288459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60692691802979</t>
+    <t xml:space="preserve">9.53288555145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60692596435547</t>
   </si>
   <si>
     <t xml:space="preserve">9.82905101776123</t>
@@ -545,70 +545,70 @@
     <t xml:space="preserve">9.75500965118408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97713470458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0696887969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1252202987671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86607360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99564552307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88458347320557</t>
+    <t xml:space="preserve">9.97713375091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0696878433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1252193450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86607265472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99564743041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88458251953125</t>
   </si>
   <si>
     <t xml:space="preserve">10.0141572952271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1437292098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1807498931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73649978637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84756278991699</t>
+    <t xml:space="preserve">10.1437301635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1807508468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73650169372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84756183624268</t>
   </si>
   <si>
     <t xml:space="preserve">9.9030933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94011402130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2362823486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3843650817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1067085266113</t>
+    <t xml:space="preserve">9.94011497497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2177705764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2362813949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3843660354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1067094802856</t>
   </si>
   <si>
     <t xml:space="preserve">10.0881977081299</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1992597579956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5879821777344</t>
+    <t xml:space="preserve">10.1992607116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5879812240601</t>
   </si>
   <si>
     <t xml:space="preserve">10.6805334091187</t>
   </si>
   <si>
-    <t xml:space="preserve">10.73606300354</t>
+    <t xml:space="preserve">10.7360649108887</t>
   </si>
   <si>
     <t xml:space="preserve">10.8101062774658</t>
@@ -629,24 +629,21 @@
     <t xml:space="preserve">10.0511779785156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92160320281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2551307678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0122947692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95625591278076</t>
+    <t xml:space="preserve">9.92160415649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2551298141479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0122938156128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95625495910645</t>
   </si>
   <si>
     <t xml:space="preserve">9.99361515045166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2177724838257</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.0683336257935</t>
   </si>
   <si>
@@ -662,25 +659,25 @@
     <t xml:space="preserve">9.97493553161621</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1243734359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80681991577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93757724761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2364501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6287240982056</t>
+    <t xml:space="preserve">10.1243724822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80681800842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93757629394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2364492416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6287231445312</t>
   </si>
   <si>
     <t xml:space="preserve">10.4792861938477</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4979658126831</t>
+    <t xml:space="preserve">10.4979648590088</t>
   </si>
   <si>
     <t xml:space="preserve">10.4606075286865</t>
@@ -689,31 +686,31 @@
     <t xml:space="preserve">10.4419269561768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90021800994873</t>
+    <t xml:space="preserve">9.90021705627441</t>
   </si>
   <si>
     <t xml:space="preserve">10.3858880996704</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1056938171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88153743743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1430540084839</t>
+    <t xml:space="preserve">10.1056928634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88153839111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1430530548096</t>
   </si>
   <si>
     <t xml:space="preserve">10.1804122924805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86285781860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3298501968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9275970458984</t>
+    <t xml:space="preserve">9.8628568649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3298482894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9275979995728</t>
   </si>
   <si>
     <t xml:space="preserve">10.5540046691895</t>
@@ -722,7 +719,7 @@
     <t xml:space="preserve">12.1417751312256</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2451524734497</t>
+    <t xml:space="preserve">11.2451515197754</t>
   </si>
   <si>
     <t xml:space="preserve">11.6934633255005</t>
@@ -731,10 +728,10 @@
     <t xml:space="preserve">11.4879875183105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.618745803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7121438980103</t>
+    <t xml:space="preserve">11.6187448501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7121429443359</t>
   </si>
   <si>
     <t xml:space="preserve">11.6000652313232</t>
@@ -743,19 +740,19 @@
     <t xml:space="preserve">12.0483770370483</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2351741790771</t>
+    <t xml:space="preserve">12.2351732254028</t>
   </si>
   <si>
     <t xml:space="preserve">12.3285713195801</t>
   </si>
   <si>
-    <t xml:space="preserve">12.53404712677</t>
+    <t xml:space="preserve">12.5340461730957</t>
   </si>
   <si>
     <t xml:space="preserve">12.6834850311279</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2725324630737</t>
+    <t xml:space="preserve">12.272533416748</t>
   </si>
   <si>
     <t xml:space="preserve">11.6561040878296</t>
@@ -767,16 +764,16 @@
     <t xml:space="preserve">11.8242225646973</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5627069473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0110168457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1978149414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2538537979126</t>
+    <t xml:space="preserve">11.5627059936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0110177993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1978139877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2538528442383</t>
   </si>
   <si>
     <t xml:space="preserve">12.3098917007446</t>
@@ -791,22 +788,22 @@
     <t xml:space="preserve">13.0757579803467</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3559532165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4493522644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5987892150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1591787338257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.561429977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2999153137207</t>
+    <t xml:space="preserve">13.3559522628784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4493503570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5987873077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1591796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5614290237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2999143600464</t>
   </si>
   <si>
     <t xml:space="preserve">13.2065162658691</t>
@@ -815,10 +812,10 @@
     <t xml:space="preserve">12.478009223938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4406509399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3846111297607</t>
+    <t xml:space="preserve">12.4406499862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3846101760864</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966888427734</t>
@@ -830,19 +827,19 @@
     <t xml:space="preserve">12.3659315109253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.700888633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0097427368164</t>
+    <t xml:space="preserve">14.7008895874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0097417831421</t>
   </si>
   <si>
     <t xml:space="preserve">13.5053901672363</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2625551223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9449996948242</t>
+    <t xml:space="preserve">13.2625541687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9450006484985</t>
   </si>
   <si>
     <t xml:space="preserve">12.7955627441406</t>
@@ -851,7 +848,7 @@
     <t xml:space="preserve">12.6461267471313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4593296051025</t>
+    <t xml:space="preserve">12.4593305587769</t>
   </si>
   <si>
     <t xml:space="preserve">12.8702821731567</t>
@@ -866,16 +863,16 @@
     <t xml:space="preserve">13.187837600708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1691570281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4306726455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1504774093628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7395238876343</t>
+    <t xml:space="preserve">13.1691551208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4306707382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1504755020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7395248413086</t>
   </si>
   <si>
     <t xml:space="preserve">12.4032907485962</t>
@@ -884,7 +881,7 @@
     <t xml:space="preserve">12.5527276992798</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5153684616089</t>
+    <t xml:space="preserve">12.5153675079346</t>
   </si>
   <si>
     <t xml:space="preserve">11.9362983703613</t>
@@ -893,31 +890,31 @@
     <t xml:space="preserve">11.8615808486938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3759107589722</t>
+    <t xml:space="preserve">11.3759098052979</t>
   </si>
   <si>
     <t xml:space="preserve">11.0957145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1704339981079</t>
+    <t xml:space="preserve">11.1704330444336</t>
   </si>
   <si>
     <t xml:space="preserve">11.1143941879272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8341989517212</t>
+    <t xml:space="preserve">10.8341979980469</t>
   </si>
   <si>
     <t xml:space="preserve">11.3945894241333</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2077922821045</t>
+    <t xml:space="preserve">11.2077932357788</t>
   </si>
   <si>
     <t xml:space="preserve">11.3572301864624</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3011913299561</t>
+    <t xml:space="preserve">11.3011903762817</t>
   </si>
   <si>
     <t xml:space="preserve">11.4506273269653</t>
@@ -926,22 +923,22 @@
     <t xml:space="preserve">11.189112663269</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48926544189453</t>
+    <t xml:space="preserve">9.4892635345459</t>
   </si>
   <si>
     <t xml:space="preserve">9.47058391571045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94755363464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62002277374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77943706512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87283515930176</t>
+    <t xml:space="preserve">8.94755268096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62002182006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77943801879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87283611297607</t>
   </si>
   <si>
     <t xml:space="preserve">8.2657470703125</t>
@@ -956,31 +953,31 @@
     <t xml:space="preserve">8.59264087677002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49924278259277</t>
+    <t xml:space="preserve">8.49924373626709</t>
   </si>
   <si>
     <t xml:space="preserve">9.71342086791992</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7968406677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84417724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.367208480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3111705780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78813934326172</t>
+    <t xml:space="preserve">10.7968416213989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84417819976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3672094345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3111696243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7881383895874</t>
   </si>
   <si>
     <t xml:space="preserve">10.0870141983032</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7781610488892</t>
+    <t xml:space="preserve">10.7781600952148</t>
   </si>
   <si>
     <t xml:space="preserve">11.7681827545166</t>
@@ -989,10 +986,10 @@
     <t xml:space="preserve">11.9549779891968</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5714063644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7021636962891</t>
+    <t xml:space="preserve">12.5714073181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7021646499634</t>
   </si>
   <si>
     <t xml:space="preserve">11.8429012298584</t>
@@ -1001,7 +998,7 @@
     <t xml:space="preserve">13.8229446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5801095962524</t>
+    <t xml:space="preserve">13.5801086425781</t>
   </si>
   <si>
     <t xml:space="preserve">13.7482261657715</t>
@@ -1013,22 +1010,22 @@
     <t xml:space="preserve">15.1492004394531</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0371217727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3459749221802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.392035484314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590278625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0831832885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5041131973267</t>
+    <t xml:space="preserve">15.0371227264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3459758758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3920364379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590288162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0831813812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.504114151001</t>
   </si>
   <si>
     <t xml:space="preserve">15.0558013916016</t>
@@ -1037,7 +1034,7 @@
     <t xml:space="preserve">14.7195682525635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5701313018799</t>
+    <t xml:space="preserve">14.5701322555542</t>
   </si>
   <si>
     <t xml:space="preserve">14.1404991149902</t>
@@ -1049,10 +1046,10 @@
     <t xml:space="preserve">13.8976631164551</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9163436889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7669057846069</t>
+    <t xml:space="preserve">13.9163427352905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7669048309326</t>
   </si>
   <si>
     <t xml:space="preserve">14.1778573989868</t>
@@ -1061,13 +1058,13 @@
     <t xml:space="preserve">14.4206943511963</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8129663467407</t>
+    <t xml:space="preserve">14.8129653930664</t>
   </si>
   <si>
     <t xml:space="preserve">15.0931606292725</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603145599365</t>
+    <t xml:space="preserve">14.6603136062622</t>
   </si>
   <si>
     <t xml:space="preserve">14.9049663543701</t>
@@ -1082,19 +1079,22 @@
     <t xml:space="preserve">14.8673286437988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3754510879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3378143310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5260076522827</t>
+    <t xml:space="preserve">15.0931615829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.375452041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3378133773804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.526008605957</t>
   </si>
   <si>
     <t xml:space="preserve">15.4319105148315</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1119794845581</t>
+    <t xml:space="preserve">15.1119804382324</t>
   </si>
   <si>
     <t xml:space="preserve">14.7167730331421</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">15.1872577667236</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0178842544556</t>
+    <t xml:space="preserve">15.0178833007812</t>
   </si>
   <si>
     <t xml:space="preserve">14.7544116973877</t>
@@ -1115,19 +1115,19 @@
     <t xml:space="preserve">15.0367031097412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1307992935181</t>
+    <t xml:space="preserve">15.1308002471924</t>
   </si>
   <si>
     <t xml:space="preserve">15.5071878433228</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0555229187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5850381851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6765613555908</t>
+    <t xml:space="preserve">15.0555219650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5850372314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6765604019165</t>
   </si>
   <si>
     <t xml:space="preserve">16.2787818908691</t>
@@ -1139,22 +1139,22 @@
     <t xml:space="preserve">17.8031558990479</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8433647155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9939212799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5585021972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5396842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5208644866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9160709381104</t>
+    <t xml:space="preserve">16.8433666229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9939193725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.558500289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5396862030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5208625793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.916072845459</t>
   </si>
   <si>
     <t xml:space="preserve">18.141902923584</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">18.4053764343262</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4430141448975</t>
+    <t xml:space="preserve">18.4430160522461</t>
   </si>
   <si>
     <t xml:space="preserve">17.7843360900879</t>
@@ -1175,61 +1175,61 @@
     <t xml:space="preserve">17.6525993347168</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1230869293213</t>
+    <t xml:space="preserve">18.1230850219727</t>
   </si>
   <si>
     <t xml:space="preserve">18.8194046020508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2898864746094</t>
+    <t xml:space="preserve">19.289888381958</t>
   </si>
   <si>
     <t xml:space="preserve">18.4618339538574</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3489189147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1607227325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5020446777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0854473114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5961418151855</t>
+    <t xml:space="preserve">18.3489170074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1607265472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.502046585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0854454040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5961437225342</t>
   </si>
   <si>
     <t xml:space="preserve">17.9348888397217</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0503807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7869052886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9400339126587</t>
+    <t xml:space="preserve">17.0503787994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7869071960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.940034866333</t>
   </si>
   <si>
     <t xml:space="preserve">16.5798931121826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0717678070068</t>
+    <t xml:space="preserve">16.0717697143555</t>
   </si>
   <si>
     <t xml:space="preserve">15.4883670806885</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8835754394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6551723480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7116317749023</t>
+    <t xml:space="preserve">15.8835744857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6551704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7116298675537</t>
   </si>
   <si>
     <t xml:space="preserve">16.4105186462402</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">16.5422554016113</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3917026519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9750995635986</t>
+    <t xml:space="preserve">16.3917007446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9751014709473</t>
   </si>
   <si>
     <t xml:space="preserve">16.8245449066162</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">16.4481582641602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6175327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4857978820801</t>
+    <t xml:space="preserve">16.6175308227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4857959747314</t>
   </si>
   <si>
     <t xml:space="preserve">16.4669780731201</t>
@@ -1271,46 +1271,46 @@
     <t xml:space="preserve">16.8810062408447</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9374618530273</t>
+    <t xml:space="preserve">16.937463760376</t>
   </si>
   <si>
     <t xml:space="preserve">16.918643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9023942947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5448274612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0743427276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7920513153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6414957046509</t>
+    <t xml:space="preserve">15.9023952484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.544828414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0743417739868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7920503616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6414947509766</t>
   </si>
   <si>
     <t xml:space="preserve">17.4455871582031</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6363506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7330207824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9964904785156</t>
+    <t xml:space="preserve">16.6363525390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7330198287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9964895248413</t>
   </si>
   <si>
     <t xml:space="preserve">16.354061126709</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5987129211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9562835693359</t>
+    <t xml:space="preserve">16.5987148284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9562816619873</t>
   </si>
   <si>
     <t xml:space="preserve">16.5610733032227</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">17.0691986083984</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2009334564209</t>
+    <t xml:space="preserve">17.2009353637695</t>
   </si>
   <si>
     <t xml:space="preserve">16.7680892944336</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0315589904785</t>
+    <t xml:space="preserve">17.0315608978271</t>
   </si>
   <si>
     <t xml:space="preserve">17.0127410888672</t>
@@ -1340,13 +1340,13 @@
     <t xml:space="preserve">18.6688480377197</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0478076934814</t>
+    <t xml:space="preserve">18.0478057861328</t>
   </si>
   <si>
     <t xml:space="preserve">18.1795425415039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6928119659424</t>
+    <t xml:space="preserve">16.6928100585938</t>
   </si>
   <si>
     <t xml:space="preserve">16.8621845245361</t>
@@ -1355,49 +1355,49 @@
     <t xml:space="preserve">16.6739921569824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4293403625488</t>
+    <t xml:space="preserve">16.4293384552002</t>
   </si>
   <si>
     <t xml:space="preserve">17.1444759368896</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1846885681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.958854675293</t>
+    <t xml:space="preserve">16.1846866607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.95885181427</t>
   </si>
   <si>
     <t xml:space="preserve">15.8647565841675</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7142019271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.128231048584</t>
+    <t xml:space="preserve">15.7142009735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1282291412354</t>
   </si>
   <si>
     <t xml:space="preserve">16.0153121948242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0905895233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4695491790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6226758956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2651071548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.96142578125</t>
+    <t xml:space="preserve">16.0905876159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4695482254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6226749420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2651081085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9614267349243</t>
   </si>
   <si>
     <t xml:space="preserve">15.6201038360596</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7518396377563</t>
+    <t xml:space="preserve">15.751838684082</t>
   </si>
   <si>
     <t xml:space="preserve">15.7894773483276</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">15.6389236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8271169662476</t>
+    <t xml:space="preserve">15.8271179199219</t>
   </si>
   <si>
     <t xml:space="preserve">15.582465171814</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">15.563645362854</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7706604003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9776735305786</t>
+    <t xml:space="preserve">15.7706594467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9776744842529</t>
   </si>
   <si>
     <t xml:space="preserve">16.335241317749</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">17.2197551727295</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2573947906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0666275024414</t>
+    <t xml:space="preserve">17.2573928833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.06662940979</t>
   </si>
   <si>
     <t xml:space="preserve">17.7090587615967</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">18.2548198699951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7655143737793</t>
+    <t xml:space="preserve">17.7655162811279</t>
   </si>
   <si>
     <t xml:space="preserve">18.6123905181885</t>
@@ -1457,16 +1457,16 @@
     <t xml:space="preserve">17.6902370452881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7278747558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8784313201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.854471206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9485683441162</t>
+    <t xml:space="preserve">17.727876663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8784332275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8544731140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9485664367676</t>
   </si>
   <si>
     <t xml:space="preserve">19.5721797943115</t>
@@ -1484,19 +1484,19 @@
     <t xml:space="preserve">20.6072463989258</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4190521240234</t>
+    <t xml:space="preserve">20.4190540313721</t>
   </si>
   <si>
     <t xml:space="preserve">20.2779064178467</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0897121429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3720035552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7483921051025</t>
+    <t xml:space="preserve">20.089714050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3720054626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7483940124512</t>
   </si>
   <si>
     <t xml:space="preserve">20.7954406738281</t>
@@ -1508,10 +1508,10 @@
     <t xml:space="preserve">21.7364101409912</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1127986907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4541187286377</t>
+    <t xml:space="preserve">22.1128005981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4541206359863</t>
   </si>
   <si>
     <t xml:space="preserve">20.9836349487305</t>
@@ -1529,13 +1529,13 @@
     <t xml:space="preserve">19.3369369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8764381408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1130638122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9237632751465</t>
+    <t xml:space="preserve">19.8764400482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1130619049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9237651824951</t>
   </si>
   <si>
     <t xml:space="preserve">19.5924911499023</t>
@@ -1544,13 +1544,13 @@
     <t xml:space="preserve">19.687141418457</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6398143768311</t>
+    <t xml:space="preserve">19.6398162841797</t>
   </si>
   <si>
     <t xml:space="preserve">19.8291168212891</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1665668487549</t>
+    <t xml:space="preserve">19.1665687561035</t>
   </si>
   <si>
     <t xml:space="preserve">18.9772682189941</t>
@@ -1565,10 +1565,10 @@
     <t xml:space="preserve">19.0719184875488</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7817878723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1192417144775</t>
+    <t xml:space="preserve">19.7817897796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1192436218262</t>
   </si>
   <si>
     <t xml:space="preserve">20.3023624420166</t>
@@ -1616,10 +1616,10 @@
     <t xml:space="preserve">22.2426834106445</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6212825775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1418533325195</t>
+    <t xml:space="preserve">22.621280670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1418552398682</t>
   </si>
   <si>
     <t xml:space="preserve">23.3784790039062</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">23.6624279022217</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3311557769775</t>
+    <t xml:space="preserve">23.3311538696289</t>
   </si>
   <si>
     <t xml:space="preserve">23.2365055084229</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">23.7570781707764</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3723030090332</t>
+    <t xml:space="preserve">24.3723011016846</t>
   </si>
   <si>
     <t xml:space="preserve">23.9463768005371</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">23.425802230835</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6151065826416</t>
+    <t xml:space="preserve">23.615104675293</t>
   </si>
   <si>
     <t xml:space="preserve">24.0410289764404</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">21.9114093780518</t>
   </si>
   <si>
-    <t xml:space="preserve">21.864086151123</t>
+    <t xml:space="preserve">21.8640842437744</t>
   </si>
   <si>
     <t xml:space="preserve">22.2900085449219</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">22.1007080078125</t>
   </si>
   <si>
-    <t xml:space="preserve">21.722110748291</t>
+    <t xml:space="preserve">21.7221088409424</t>
   </si>
   <si>
     <t xml:space="preserve">21.2961845397949</t>
@@ -1700,13 +1700,13 @@
     <t xml:space="preserve">20.7282886505127</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3908348083496</t>
+    <t xml:space="preserve">21.3908367156982</t>
   </si>
   <si>
     <t xml:space="preserve">22.0060577392578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9875240325928</t>
+    <t xml:space="preserve">24.9875221252441</t>
   </si>
   <si>
     <t xml:space="preserve">24.8455486297607</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">25.6027488708496</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8393726348877</t>
+    <t xml:space="preserve">25.8393707275391</t>
   </si>
   <si>
     <t xml:space="preserve">25.5554237365723</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">25.4607734680176</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4731292724609</t>
+    <t xml:space="preserve">23.4731273651123</t>
   </si>
   <si>
     <t xml:space="preserve">22.7159309387207</t>
@@ -1766,25 +1766,25 @@
     <t xml:space="preserve">22.4319839477539</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2838287353516</t>
+    <t xml:space="preserve">23.2838306427002</t>
   </si>
   <si>
     <t xml:space="preserve">24.4196262359619</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8928737640381</t>
+    <t xml:space="preserve">24.8928756713867</t>
   </si>
   <si>
     <t xml:space="preserve">24.7035751342773</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9402008056641</t>
+    <t xml:space="preserve">24.9401988983154</t>
   </si>
   <si>
     <t xml:space="preserve">24.0883522033691</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1830024719238</t>
+    <t xml:space="preserve">24.1830005645752</t>
   </si>
   <si>
     <t xml:space="preserve">25.0348491668701</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">24.798225402832</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3661231994629</t>
+    <t xml:space="preserve">25.3661212921143</t>
   </si>
   <si>
     <t xml:space="preserve">25.3187980651855</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">21.7694339752197</t>
   </si>
   <si>
-    <t xml:space="preserve">21.532808303833</t>
+    <t xml:space="preserve">21.5328102111816</t>
   </si>
   <si>
     <t xml:space="preserve">20.3970127105713</t>
@@ -1835,22 +1835,22 @@
     <t xml:space="preserve">19.3558654785156</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7027835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0184135437012</t>
+    <t xml:space="preserve">18.7027816772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0184154510498</t>
   </si>
   <si>
     <t xml:space="preserve">20.8229389190674</t>
   </si>
   <si>
-    <t xml:space="preserve">19.497838973999</t>
+    <t xml:space="preserve">19.4978408813477</t>
   </si>
   <si>
     <t xml:space="preserve">18.3431148529053</t>
   </si>
   <si>
-    <t xml:space="preserve">17.453405380249</t>
+    <t xml:space="preserve">17.4534072875977</t>
   </si>
   <si>
     <t xml:space="preserve">17.1694583892822</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">18.3241844177246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7974338531494</t>
+    <t xml:space="preserve">18.7974319458008</t>
   </si>
   <si>
     <t xml:space="preserve">20.0657386779785</t>
@@ -1877,13 +1877,13 @@
     <t xml:space="preserve">22.1480331420898</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4793071746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6274585723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6336364746094</t>
+    <t xml:space="preserve">22.479305267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6274604797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.633638381958</t>
   </si>
   <si>
     <t xml:space="preserve">20.4443397521973</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">18.0970230102539</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0213050842285</t>
+    <t xml:space="preserve">18.0213069915771</t>
   </si>
   <si>
     <t xml:space="preserve">17.3398265838623</t>
@@ -2919,6 +2919,9 @@
   </si>
   <si>
     <t xml:space="preserve">17.8199996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0799999237061</t>
   </si>
 </sst>
 </file>
@@ -10246,7 +10249,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G269" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -10272,7 +10275,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G270" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -10298,7 +10301,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G271" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -10324,7 +10327,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G272" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10350,7 +10353,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G273" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -10376,7 +10379,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G274" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -10402,7 +10405,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G275" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -10428,7 +10431,7 @@
         <v>10.3703145980835</v>
       </c>
       <c r="G276" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -10454,7 +10457,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G277" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10480,7 +10483,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G278" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10506,7 +10509,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G279" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10532,7 +10535,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G280" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10584,7 +10587,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G282" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10662,7 +10665,7 @@
         <v>10.3314752578735</v>
       </c>
       <c r="G285" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10688,7 +10691,7 @@
         <v>10.6421957015991</v>
       </c>
       <c r="G286" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10714,7 +10717,7 @@
         <v>11.0500173568726</v>
       </c>
       <c r="G287" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10740,7 +10743,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G288" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10766,7 +10769,7 @@
         <v>10.9140768051147</v>
       </c>
       <c r="G289" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10792,7 +10795,7 @@
         <v>10.8752374649048</v>
       </c>
       <c r="G290" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10818,7 +10821,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G291" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10844,7 +10847,7 @@
         <v>10.8558168411255</v>
       </c>
       <c r="G292" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10870,7 +10873,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G293" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10896,7 +10899,7 @@
         <v>10.2926349639893</v>
       </c>
       <c r="G294" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -10922,7 +10925,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G295" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10948,7 +10951,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G296" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10974,7 +10977,7 @@
         <v>10.5062561035156</v>
       </c>
       <c r="G297" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -11000,7 +11003,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G298" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -11026,7 +11029,7 @@
         <v>10.3314752578735</v>
       </c>
       <c r="G299" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -11052,7 +11055,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G300" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -11078,7 +11081,7 @@
         <v>10.2732152938843</v>
       </c>
       <c r="G301" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -11104,7 +11107,7 @@
         <v>10.3703145980835</v>
       </c>
       <c r="G302" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -11130,7 +11133,7 @@
         <v>10.5450963973999</v>
       </c>
       <c r="G303" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -11156,7 +11159,7 @@
         <v>10.5839357376099</v>
       </c>
       <c r="G304" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -11182,7 +11185,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G305" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -11208,7 +11211,7 @@
         <v>10.253794670105</v>
       </c>
       <c r="G306" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -11234,7 +11237,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G307" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -11260,7 +11263,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G308" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -11286,7 +11289,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G309" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -11312,7 +11315,7 @@
         <v>10.7392959594727</v>
       </c>
       <c r="G310" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -11338,7 +11341,7 @@
         <v>10.7392959594727</v>
       </c>
       <c r="G311" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -11364,7 +11367,7 @@
         <v>10.8752374649048</v>
       </c>
       <c r="G312" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -11390,7 +11393,7 @@
         <v>11.0500173568726</v>
       </c>
       <c r="G313" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -11416,7 +11419,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G314" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -11442,7 +11445,7 @@
         <v>10.972336769104</v>
       </c>
       <c r="G315" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -11468,7 +11471,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G316" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -11494,7 +11497,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G317" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -11520,7 +11523,7 @@
         <v>11.6908798217773</v>
       </c>
       <c r="G318" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -11546,7 +11549,7 @@
         <v>12.15696144104</v>
       </c>
       <c r="G319" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11572,7 +11575,7 @@
         <v>11.943341255188</v>
       </c>
       <c r="G320" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11598,7 +11601,7 @@
         <v>11.943341255188</v>
       </c>
       <c r="G321" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11624,7 +11627,7 @@
         <v>12.0792808532715</v>
       </c>
       <c r="G322" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11650,7 +11653,7 @@
         <v>12.176381111145</v>
       </c>
       <c r="G323" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11676,7 +11679,7 @@
         <v>12.0598611831665</v>
       </c>
       <c r="G324" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11702,7 +11705,7 @@
         <v>12.15696144104</v>
       </c>
       <c r="G325" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11728,7 +11731,7 @@
         <v>12.176381111145</v>
       </c>
       <c r="G326" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11754,7 +11757,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G327" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11780,7 +11783,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G328" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11806,7 +11809,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G329" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11832,7 +11835,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G330" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11858,7 +11861,7 @@
         <v>13.0308637619019</v>
       </c>
       <c r="G331" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11884,7 +11887,7 @@
         <v>13.186224937439</v>
       </c>
       <c r="G332" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11910,7 +11913,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G333" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11936,7 +11939,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G334" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11962,7 +11965,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G335" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11988,7 +11991,7 @@
         <v>12.2929019927979</v>
       </c>
       <c r="G336" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -12014,7 +12017,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G337" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -12040,7 +12043,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G338" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -12066,7 +12069,7 @@
         <v>12.0210208892822</v>
       </c>
       <c r="G339" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -12092,7 +12095,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G340" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -12118,7 +12121,7 @@
         <v>12.0792808532715</v>
       </c>
       <c r="G341" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -12144,7 +12147,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G342" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -12170,7 +12173,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G343" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -12196,7 +12199,7 @@
         <v>12.4871015548706</v>
       </c>
       <c r="G344" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -12222,7 +12225,7 @@
         <v>12.681303024292</v>
       </c>
       <c r="G345" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -12248,7 +12251,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G346" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -12274,7 +12277,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G347" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -12300,7 +12303,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G348" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -12326,7 +12329,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G349" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -12352,7 +12355,7 @@
         <v>12.7978229522705</v>
       </c>
       <c r="G350" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -12378,7 +12381,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G351" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -12404,7 +12407,7 @@
         <v>13.2833251953125</v>
       </c>
       <c r="G352" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -12430,7 +12433,7 @@
         <v>13.5940456390381</v>
       </c>
       <c r="G353" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -12456,7 +12459,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G354" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -12482,7 +12485,7 @@
         <v>13.9824476242065</v>
       </c>
       <c r="G355" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -12508,7 +12511,7 @@
         <v>14.1378078460693</v>
       </c>
       <c r="G356" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -12534,7 +12537,7 @@
         <v>14.7204103469849</v>
       </c>
       <c r="G357" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -12560,7 +12563,7 @@
         <v>14.1378078460693</v>
       </c>
       <c r="G358" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12586,7 +12589,7 @@
         <v>14.0989675521851</v>
       </c>
       <c r="G359" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12612,7 +12615,7 @@
         <v>13.8270874023438</v>
       </c>
       <c r="G360" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12638,7 +12641,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G361" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12664,7 +12667,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G362" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12690,7 +12693,7 @@
         <v>12.9726037979126</v>
       </c>
       <c r="G363" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12716,7 +12719,7 @@
         <v>12.9337644577026</v>
       </c>
       <c r="G364" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12742,7 +12745,7 @@
         <v>12.8755035400391</v>
       </c>
       <c r="G365" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12768,7 +12771,7 @@
         <v>12.9920244216919</v>
       </c>
       <c r="G366" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12794,7 +12797,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G367" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12820,7 +12823,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G368" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12846,7 +12849,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G369" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12872,7 +12875,7 @@
         <v>12.7784032821655</v>
       </c>
       <c r="G370" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12898,7 +12901,7 @@
         <v>12.8560838699341</v>
       </c>
       <c r="G371" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12924,7 +12927,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G372" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12950,7 +12953,7 @@
         <v>15.2835922241211</v>
       </c>
       <c r="G373" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12976,7 +12979,7 @@
         <v>14.5650501251221</v>
       </c>
       <c r="G374" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13002,7 +13005,7 @@
         <v>14.0407075881958</v>
       </c>
       <c r="G375" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -13028,7 +13031,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G376" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -13054,7 +13057,7 @@
         <v>13.4581060409546</v>
       </c>
       <c r="G377" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13080,7 +13083,7 @@
         <v>13.3027448654175</v>
       </c>
       <c r="G378" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13106,7 +13109,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G379" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13132,7 +13135,7 @@
         <v>13.1473846435547</v>
       </c>
       <c r="G380" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13158,7 +13161,7 @@
         <v>12.9531841278076</v>
       </c>
       <c r="G381" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -13184,7 +13187,7 @@
         <v>12.9531841278076</v>
       </c>
       <c r="G382" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -13210,7 +13213,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G383" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -13236,7 +13239,7 @@
         <v>12.8755035400391</v>
       </c>
       <c r="G384" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -13262,7 +13265,7 @@
         <v>13.380425453186</v>
       </c>
       <c r="G385" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -13288,7 +13291,7 @@
         <v>13.4192657470703</v>
       </c>
       <c r="G386" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -13314,7 +13317,7 @@
         <v>13.4969463348389</v>
       </c>
       <c r="G387" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13340,7 +13343,7 @@
         <v>13.7105674743652</v>
       </c>
       <c r="G388" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13366,7 +13369,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G389" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13392,7 +13395,7 @@
         <v>13.6911468505859</v>
       </c>
       <c r="G390" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13418,7 +13421,7 @@
         <v>13.9630270004272</v>
       </c>
       <c r="G391" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13444,7 +13447,7 @@
         <v>13.9630270004272</v>
       </c>
       <c r="G392" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13470,7 +13473,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G393" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13496,7 +13499,7 @@
         <v>13.4581060409546</v>
       </c>
       <c r="G394" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13522,7 +13525,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G395" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13548,7 +13551,7 @@
         <v>13.6717262268066</v>
       </c>
       <c r="G396" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13574,7 +13577,7 @@
         <v>13.2444849014282</v>
       </c>
       <c r="G397" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13600,7 +13603,7 @@
         <v>12.8949241638184</v>
       </c>
       <c r="G398" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13626,7 +13629,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G399" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13652,7 +13655,7 @@
         <v>13.0502843856812</v>
       </c>
       <c r="G400" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13678,7 +13681,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G401" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13704,7 +13707,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G402" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13730,7 +13733,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G403" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13756,7 +13759,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G404" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13782,7 +13785,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G405" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13808,7 +13811,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G406" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13834,7 +13837,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G407" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13860,7 +13863,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G408" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13886,7 +13889,7 @@
         <v>12.4871015548706</v>
       </c>
       <c r="G409" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13912,7 +13915,7 @@
         <v>12.4094219207764</v>
       </c>
       <c r="G410" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13938,7 +13941,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G411" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13964,7 +13967,7 @@
         <v>11.8268203735352</v>
       </c>
       <c r="G412" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13990,7 +13993,7 @@
         <v>11.5355186462402</v>
       </c>
       <c r="G413" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14016,7 +14019,7 @@
         <v>11.6131992340088</v>
       </c>
       <c r="G414" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14042,7 +14045,7 @@
         <v>11.5549392700195</v>
       </c>
       <c r="G415" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14068,7 +14071,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G416" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14094,7 +14097,7 @@
         <v>11.5549392700195</v>
       </c>
       <c r="G417" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14120,7 +14123,7 @@
         <v>11.2636375427246</v>
       </c>
       <c r="G418" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14146,7 +14149,7 @@
         <v>11.5355186462402</v>
       </c>
       <c r="G419" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14172,7 +14175,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G420" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14198,7 +14201,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G421" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14224,7 +14227,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G422" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14250,7 +14253,7 @@
         <v>11.8073997497559</v>
       </c>
       <c r="G423" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14276,7 +14279,7 @@
         <v>11.7491397857666</v>
       </c>
       <c r="G424" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14302,7 +14305,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G425" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14328,7 +14331,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G426" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14354,7 +14357,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G427" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14380,7 +14383,7 @@
         <v>11.7491397857666</v>
       </c>
       <c r="G428" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14406,7 +14409,7 @@
         <v>11.8073997497559</v>
       </c>
       <c r="G429" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14432,7 +14435,7 @@
         <v>11.9045000076294</v>
       </c>
       <c r="G430" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14458,7 +14461,7 @@
         <v>11.6326189041138</v>
       </c>
       <c r="G431" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14484,7 +14487,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G432" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14510,7 +14513,7 @@
         <v>10.972336769104</v>
       </c>
       <c r="G433" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14536,7 +14539,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G434" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14562,7 +14565,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G435" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14588,7 +14591,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G436" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14614,7 +14617,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G437" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14640,7 +14643,7 @@
         <v>10.9140768051147</v>
       </c>
       <c r="G438" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14666,7 +14669,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G439" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14692,7 +14695,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G440" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14718,7 +14721,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G441" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14744,7 +14747,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G442" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14770,7 +14773,7 @@
         <v>9.86539268493652</v>
       </c>
       <c r="G443" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14796,7 +14799,7 @@
         <v>9.84597301483154</v>
       </c>
       <c r="G444" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14822,7 +14825,7 @@
         <v>9.30221080780029</v>
       </c>
       <c r="G445" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14848,7 +14851,7 @@
         <v>10.0013341903687</v>
       </c>
       <c r="G446" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14874,7 +14877,7 @@
         <v>9.12743091583252</v>
       </c>
       <c r="G447" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14926,7 +14929,7 @@
         <v>9.22453117370605</v>
       </c>
       <c r="G449" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14952,7 +14955,7 @@
         <v>8.59337902069092</v>
       </c>
       <c r="G450" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14978,7 +14981,7 @@
         <v>8.6322193145752</v>
       </c>
       <c r="G451" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15004,7 +15007,7 @@
         <v>8.58366870880127</v>
       </c>
       <c r="G452" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -15030,7 +15033,7 @@
         <v>8.93323040008545</v>
       </c>
       <c r="G453" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15056,7 +15059,7 @@
         <v>8.83613014221191</v>
       </c>
       <c r="G454" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15082,7 +15085,7 @@
         <v>10.0984344482422</v>
       </c>
       <c r="G455" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15108,7 +15111,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G456" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15134,7 +15137,7 @@
         <v>11.6326189041138</v>
       </c>
       <c r="G457" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15160,7 +15163,7 @@
         <v>11.2247982025146</v>
       </c>
       <c r="G458" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -15186,7 +15189,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G459" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15212,7 +15215,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G460" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -15238,7 +15241,7 @@
         <v>10.234375</v>
       </c>
       <c r="G461" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -15264,7 +15267,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G462" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15290,7 +15293,7 @@
         <v>10.7781372070312</v>
       </c>
       <c r="G463" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15316,7 +15319,7 @@
         <v>10.7198762893677</v>
       </c>
       <c r="G464" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15342,7 +15345,7 @@
         <v>10.2926349639893</v>
       </c>
       <c r="G465" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15368,7 +15371,7 @@
         <v>10.2732152938843</v>
       </c>
       <c r="G466" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15394,7 +15397,7 @@
         <v>10.1761140823364</v>
       </c>
       <c r="G467" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15420,7 +15423,7 @@
         <v>10.4868364334106</v>
       </c>
       <c r="G468" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15446,7 +15449,7 @@
         <v>11.2053775787354</v>
       </c>
       <c r="G469" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15472,7 +15475,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G470" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15498,7 +15501,7 @@
         <v>11.8268203735352</v>
       </c>
       <c r="G471" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15524,7 +15527,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G472" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15550,7 +15553,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G473" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15576,7 +15579,7 @@
         <v>12.2346420288086</v>
       </c>
       <c r="G474" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15602,7 +15605,7 @@
         <v>12.4288415908813</v>
       </c>
       <c r="G475" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15628,7 +15631,7 @@
         <v>13.0697040557861</v>
       </c>
       <c r="G476" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15654,7 +15657,7 @@
         <v>13.1473846435547</v>
       </c>
       <c r="G477" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15680,7 +15683,7 @@
         <v>13.2056446075439</v>
       </c>
       <c r="G478" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15706,7 +15709,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G479" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15732,7 +15735,7 @@
         <v>12.9337644577026</v>
       </c>
       <c r="G480" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15758,7 +15761,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G481" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15784,7 +15787,7 @@
         <v>12.3123216629028</v>
       </c>
       <c r="G482" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15810,7 +15813,7 @@
         <v>12.4288415908813</v>
       </c>
       <c r="G483" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15836,7 +15839,7 @@
         <v>12.7784032821655</v>
       </c>
       <c r="G484" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15862,7 +15865,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G485" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15888,7 +15891,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G486" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15914,7 +15917,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G487" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15940,7 +15943,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G488" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15966,7 +15969,7 @@
         <v>14.3708486557007</v>
       </c>
       <c r="G489" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15992,7 +15995,7 @@
         <v>14.1183881759644</v>
       </c>
       <c r="G490" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -16018,7 +16021,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G491" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16044,7 +16047,7 @@
         <v>14.2931690216064</v>
       </c>
       <c r="G492" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16070,7 +16073,7 @@
         <v>15.5943126678467</v>
       </c>
       <c r="G493" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16096,7 +16099,7 @@
         <v>15.7496738433838</v>
       </c>
       <c r="G494" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16122,7 +16125,7 @@
         <v>15.633152961731</v>
       </c>
       <c r="G495" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16148,7 +16151,7 @@
         <v>14.9146108627319</v>
       </c>
       <c r="G496" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16174,7 +16177,7 @@
         <v>16.0021343231201</v>
       </c>
       <c r="G497" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16200,7 +16203,7 @@
         <v>16.4876365661621</v>
       </c>
       <c r="G498" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -16226,7 +16229,7 @@
         <v>16.7206764221191</v>
       </c>
       <c r="G499" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -16252,7 +16255,7 @@
         <v>16.1186542510986</v>
       </c>
       <c r="G500" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16278,7 +16281,7 @@
         <v>15.6525726318359</v>
       </c>
       <c r="G501" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16304,7 +16307,7 @@
         <v>15.3030118942261</v>
       </c>
       <c r="G502" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16330,7 +16333,7 @@
         <v>15.1476516723633</v>
       </c>
       <c r="G503" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16356,7 +16359,7 @@
         <v>14.7009897232056</v>
       </c>
       <c r="G504" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16382,7 +16385,7 @@
         <v>14.7009897232056</v>
       </c>
       <c r="G505" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16408,7 +16411,7 @@
         <v>14.7980899810791</v>
       </c>
       <c r="G506" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16434,7 +16437,7 @@
         <v>14.4485292434692</v>
       </c>
       <c r="G507" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16460,7 +16463,7 @@
         <v>14.4679489135742</v>
       </c>
       <c r="G508" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16486,7 +16489,7 @@
         <v>14.3125886917114</v>
       </c>
       <c r="G509" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16512,7 +16515,7 @@
         <v>14.7398300170898</v>
       </c>
       <c r="G510" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16538,7 +16541,7 @@
         <v>14.9922914505005</v>
       </c>
       <c r="G511" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16564,7 +16567,7 @@
         <v>15.4001121520996</v>
       </c>
       <c r="G512" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16590,7 +16593,7 @@
         <v>15.6914129257202</v>
       </c>
       <c r="G513" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16616,7 +16619,7 @@
         <v>15.128231048584</v>
       </c>
       <c r="G514" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16642,7 +16645,7 @@
         <v>15.3806915283203</v>
       </c>
       <c r="G515" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16668,7 +16671,7 @@
         <v>15.4777927398682</v>
       </c>
       <c r="G516" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16694,7 +16697,7 @@
         <v>15.3612718582153</v>
       </c>
       <c r="G517" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16720,7 +16723,7 @@
         <v>15.3418521881104</v>
       </c>
       <c r="G518" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16746,7 +16749,7 @@
         <v>15.5748929977417</v>
       </c>
       <c r="G519" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16798,7 +16801,7 @@
         <v>15.3806915283203</v>
       </c>
       <c r="G521" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17344,7 +17347,7 @@
         <v>15.3612718582153</v>
       </c>
       <c r="G542" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -21348,7 +21351,7 @@
         <v>15.3418521881104</v>
       </c>
       <c r="G696" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -43560,7 +43563,7 @@
     </row>
     <row r="1551">
       <c r="A1551" s="1" t="n">
-        <v>45485.6495023148</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B1551" t="n">
         <v>97178</v>
@@ -43581,6 +43584,32 @@
         <v>968</v>
       </c>
       <c r="H1551" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="1" t="n">
+        <v>45488.6523148148</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>87145</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>18.0599994659424</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>17.1399993896484</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>17.7999992370605</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>17.0799999237061</v>
+      </c>
+      <c r="G1552" t="s">
+        <v>969</v>
+      </c>
+      <c r="H1552" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="971">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63556289672852</t>
+    <t xml:space="preserve">7.63556337356567</t>
   </si>
   <si>
     <t xml:space="preserve">CRL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95949506759644</t>
+    <t xml:space="preserve">7.95949554443359</t>
   </si>
   <si>
     <t xml:space="preserve">7.86694383621216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77439212799072</t>
+    <t xml:space="preserve">7.77439260482788</t>
   </si>
   <si>
     <t xml:space="preserve">7.74477386474609</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92987823486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02428245544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72904014587402</t>
+    <t xml:space="preserve">7.92988061904907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02428150177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72903966903687</t>
   </si>
   <si>
     <t xml:space="preserve">8.03353691101074</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">7.49766063690186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3551287651062</t>
+    <t xml:space="preserve">7.35513019561768</t>
   </si>
   <si>
     <t xml:space="preserve">7.57910633087158</t>
@@ -83,28 +83,28 @@
     <t xml:space="preserve">7.62630748748779</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49673509597778</t>
+    <t xml:space="preserve">7.49673557281494</t>
   </si>
   <si>
     <t xml:space="preserve">7.5800313949585</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59854221343994</t>
+    <t xml:space="preserve">7.5985426902771</t>
   </si>
   <si>
     <t xml:space="preserve">7.70220041275024</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85768938064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91322040557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97893238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06130409240723</t>
+    <t xml:space="preserve">7.85768842697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9132194519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97893285751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06130504608154</t>
   </si>
   <si>
     <t xml:space="preserve">7.9224739074707</t>
@@ -116,22 +116,22 @@
     <t xml:space="preserve">7.87064599990845</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82066822052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90766668319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74847650527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84843301773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80215692520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94561338424683</t>
+    <t xml:space="preserve">7.8206672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90766763687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74847602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84843349456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80215740203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94561290740967</t>
   </si>
   <si>
     <t xml:space="preserve">7.61797857284546</t>
@@ -140,10 +140,10 @@
     <t xml:space="preserve">7.72811508178711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84103012084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80400800704956</t>
+    <t xml:space="preserve">7.84102964401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8040075302124</t>
   </si>
   <si>
     <t xml:space="preserve">8.05204772949219</t>
@@ -152,31 +152,31 @@
     <t xml:space="preserve">8.11776065826416</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17236614227295</t>
+    <t xml:space="preserve">8.17236709594727</t>
   </si>
   <si>
     <t xml:space="preserve">8.36302375793457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5240650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54720211029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81652927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02384662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66289329528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34821605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31119346618652</t>
+    <t xml:space="preserve">8.52406311035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54720115661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81653022766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02384757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66289234161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34821510314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31119441986084</t>
   </si>
   <si>
     <t xml:space="preserve">8.53054332733154</t>
@@ -188,25 +188,25 @@
     <t xml:space="preserve">8.51480960845947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77395439147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81097602844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67770099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72768020629883</t>
+    <t xml:space="preserve">8.77395534515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8109769821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67770290374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72767925262451</t>
   </si>
   <si>
     <t xml:space="preserve">8.85725212097168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07012271881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93222045898438</t>
+    <t xml:space="preserve">9.07012462615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93222141265869</t>
   </si>
   <si>
     <t xml:space="preserve">9.18118667602539</t>
@@ -215,37 +215,37 @@
     <t xml:space="preserve">9.20895195007324</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40330982208252</t>
+    <t xml:space="preserve">9.40331172943115</t>
   </si>
   <si>
     <t xml:space="preserve">9.16267585754395</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18211078643799</t>
+    <t xml:space="preserve">9.1821117401123</t>
   </si>
   <si>
     <t xml:space="preserve">9.05531406402588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25152778625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12657928466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08863353729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8285608291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05809116363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10714435577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96553897857666</t>
+    <t xml:space="preserve">9.25152683258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12658023834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08863258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82856273651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05809211730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10714340209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96553993225098</t>
   </si>
   <si>
     <t xml:space="preserve">8.73323249816895</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">8.03908920288086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36580181121826</t>
+    <t xml:space="preserve">8.36580085754395</t>
   </si>
   <si>
     <t xml:space="preserve">8.46853351593018</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">8.65363883972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69991397857666</t>
+    <t xml:space="preserve">8.69991493225098</t>
   </si>
   <si>
     <t xml:space="preserve">8.87113475799561</t>
@@ -281,43 +281,43 @@
     <t xml:space="preserve">7.80678510665894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97800540924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40189647674561</t>
+    <t xml:space="preserve">7.97800636291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40189743041992</t>
   </si>
   <si>
     <t xml:space="preserve">8.83781719207764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8405933380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81745433807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5666389465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66104316711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7637767791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63882923126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45279979705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40097045898438</t>
+    <t xml:space="preserve">8.84059429168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81745624542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56663799285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66104221343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76377582550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63883018493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45279884338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40097141265869</t>
   </si>
   <si>
     <t xml:space="preserve">8.62217140197754</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7822847366333</t>
+    <t xml:space="preserve">8.78228569030762</t>
   </si>
   <si>
     <t xml:space="preserve">8.11220741271973</t>
@@ -326,148 +326,148 @@
     <t xml:space="preserve">8.09924983978271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14460182189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24733257293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61013984680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39449310302734</t>
+    <t xml:space="preserve">8.14459991455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24733352661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61013889312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39449119567871</t>
   </si>
   <si>
     <t xml:space="preserve">8.57034111022949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98497486114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10344123840332</t>
+    <t xml:space="preserve">8.98497581481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10344219207764</t>
   </si>
   <si>
     <t xml:space="preserve">9.03865528106689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0812292098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21820735931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91278457641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14416313171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91926288604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36394882202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29268360137939</t>
+    <t xml:space="preserve">9.08123111724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21820831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91278553009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14416408538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.919264793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36394786834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29268169403076</t>
   </si>
   <si>
     <t xml:space="preserve">8.32970523834229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39726829528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25936603546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46390533447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33340740203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35747146606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56108570098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49629878997803</t>
+    <t xml:space="preserve">8.39726734161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25936412811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46390438079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33340930938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35747051239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56108474731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49629783630371</t>
   </si>
   <si>
     <t xml:space="preserve">8.28342819213867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41392707824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27972602844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21123886108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45927810668945</t>
+    <t xml:space="preserve">8.41392803192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27972507476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21123695373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45927906036377</t>
   </si>
   <si>
     <t xml:space="preserve">8.48704433441162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54442691802979</t>
+    <t xml:space="preserve">8.54442596435547</t>
   </si>
   <si>
     <t xml:space="preserve">8.77210426330566</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83411502838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78321170806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16545104980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13028335571289</t>
+    <t xml:space="preserve">8.83411407470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78321075439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16545295715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13028240203857</t>
   </si>
   <si>
     <t xml:space="preserve">8.96183681488037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89797592163086</t>
+    <t xml:space="preserve">8.89797687530518</t>
   </si>
   <si>
     <t xml:space="preserve">9.04143142700195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11639881134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30150318145752</t>
+    <t xml:space="preserve">9.11639976501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30150413513184</t>
   </si>
   <si>
     <t xml:space="preserve">9.27188777923584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42922496795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46254539489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67911624908447</t>
+    <t xml:space="preserve">9.42922592163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46254444122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67911815643311</t>
   </si>
   <si>
     <t xml:space="preserve">9.71798896789551</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76426601409912</t>
+    <t xml:space="preserve">9.7642650604248</t>
   </si>
   <si>
     <t xml:space="preserve">9.66245746612549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71243572235107</t>
+    <t xml:space="preserve">9.71243667602539</t>
   </si>
   <si>
     <t xml:space="preserve">9.38665199279785</t>
@@ -479,19 +479,19 @@
     <t xml:space="preserve">9.56065082550049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5791597366333</t>
+    <t xml:space="preserve">9.57916069030762</t>
   </si>
   <si>
     <t xml:space="preserve">9.35148239135742</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53103160858154</t>
+    <t xml:space="preserve">9.53103256225586</t>
   </si>
   <si>
     <t xml:space="preserve">9.3977575302124</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1941442489624</t>
+    <t xml:space="preserve">9.19414329528809</t>
   </si>
   <si>
     <t xml:space="preserve">9.32926940917969</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">9.21265411376953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12565231323242</t>
+    <t xml:space="preserve">9.12565422058105</t>
   </si>
   <si>
     <t xml:space="preserve">9.00533676147461</t>
@@ -512,37 +512,37 @@
     <t xml:space="preserve">8.82300758361816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07104873657227</t>
+    <t xml:space="preserve">9.07104778289795</t>
   </si>
   <si>
     <t xml:space="preserve">9.25522899627686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03310203552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17193126678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51437377929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45884323120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8105411529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53288555145264</t>
+    <t xml:space="preserve">9.03310108184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1719331741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51437473297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45884227752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81054210662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.532883644104</t>
   </si>
   <si>
     <t xml:space="preserve">9.60692596435547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82905101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75500965118408</t>
+    <t xml:space="preserve">9.82905197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7550106048584</t>
   </si>
   <si>
     <t xml:space="preserve">9.97713375091553</t>
@@ -557,94 +557,97 @@
     <t xml:space="preserve">9.86607265472412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99564743041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88458251953125</t>
+    <t xml:space="preserve">9.99564647674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88458347320557</t>
   </si>
   <si>
     <t xml:space="preserve">10.0141572952271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1437301635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1807508468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73650169372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84756183624268</t>
+    <t xml:space="preserve">10.1437292098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1807498931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73650074005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84756278991699</t>
   </si>
   <si>
     <t xml:space="preserve">9.9030933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94011497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2177705764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2362813949585</t>
+    <t xml:space="preserve">9.94011306762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2177724838257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2362823486328</t>
   </si>
   <si>
     <t xml:space="preserve">10.3843660354614</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1067094802856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0881977081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1992607116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5879812240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6805334091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7360649108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8101062774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4954290390015</t>
+    <t xml:space="preserve">10.1067085266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0881986618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1992597579956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5879821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6805324554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7360639572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8101053237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4954280853271</t>
   </si>
   <si>
     <t xml:space="preserve">10.5509605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139379501343</t>
+    <t xml:space="preserve">10.51393699646</t>
   </si>
   <si>
     <t xml:space="preserve">10.4028759002686</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0511779785156</t>
+    <t xml:space="preserve">10.0511789321899</t>
   </si>
   <si>
     <t xml:space="preserve">9.92160415649414</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2551298141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0122938156128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95625495910645</t>
+    <t xml:space="preserve">10.2551307678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0122957229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95625591278076</t>
   </si>
   <si>
     <t xml:space="preserve">9.99361515045166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0683336257935</t>
+    <t xml:space="preserve">10.2177715301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0683317184448</t>
   </si>
   <si>
     <t xml:space="preserve">10.2738094329834</t>
@@ -653,7 +656,7 @@
     <t xml:space="preserve">10.2924890518188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.161732673645</t>
+    <t xml:space="preserve">10.1617317199707</t>
   </si>
   <si>
     <t xml:space="preserve">9.97493553161621</t>
@@ -662,16 +665,16 @@
     <t xml:space="preserve">10.1243724822998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80681800842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93757629394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2364492416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6287231445312</t>
+    <t xml:space="preserve">9.80681991577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93757724761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2364501953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6287240982056</t>
   </si>
   <si>
     <t xml:space="preserve">10.4792861938477</t>
@@ -686,19 +689,19 @@
     <t xml:space="preserve">10.4419269561768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90021705627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3858880996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1056928634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88153839111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1430530548096</t>
+    <t xml:space="preserve">9.90021800994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3858890533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.105694770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88153648376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1430540084839</t>
   </si>
   <si>
     <t xml:space="preserve">10.1804122924805</t>
@@ -707,58 +710,58 @@
     <t xml:space="preserve">9.8628568649292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3298482894897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9275979995728</t>
+    <t xml:space="preserve">10.3298492431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9275970458984</t>
   </si>
   <si>
     <t xml:space="preserve">10.5540046691895</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1417751312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2451515197754</t>
+    <t xml:space="preserve">12.1417770385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2451524734497</t>
   </si>
   <si>
     <t xml:space="preserve">11.6934633255005</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4879875183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6187448501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7121429443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6000652313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0483770370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2351732254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3285713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5340461730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6834850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.272533416748</t>
+    <t xml:space="preserve">11.4879884719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.618745803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7121438980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6000661849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0483779907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2351741790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3285722732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5340480804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6834859848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2725324630737</t>
   </si>
   <si>
     <t xml:space="preserve">11.6561040878296</t>
   </si>
   <si>
-    <t xml:space="preserve">11.674783706665</t>
+    <t xml:space="preserve">11.6747846603394</t>
   </si>
   <si>
     <t xml:space="preserve">11.8242225646973</t>
@@ -770,10 +773,10 @@
     <t xml:space="preserve">12.0110177993774</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1978139877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2538528442383</t>
+    <t xml:space="preserve">12.1978149414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2538537979126</t>
   </si>
   <si>
     <t xml:space="preserve">12.3098917007446</t>
@@ -782,19 +785,19 @@
     <t xml:space="preserve">12.6087675094604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7768831253052</t>
+    <t xml:space="preserve">12.7768840789795</t>
   </si>
   <si>
     <t xml:space="preserve">13.0757579803467</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3559522628784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4493503570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5987873077393</t>
+    <t xml:space="preserve">13.3559532165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.44935131073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5987882614136</t>
   </si>
   <si>
     <t xml:space="preserve">14.1591796875</t>
@@ -803,40 +806,40 @@
     <t xml:space="preserve">13.5614290237427</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2999143600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2065162658691</t>
+    <t xml:space="preserve">13.2999153137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2065172195435</t>
   </si>
   <si>
     <t xml:space="preserve">12.478009223938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4406499862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3846101760864</t>
+    <t xml:space="preserve">12.4406509399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3846111297607</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966888427734</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2912120819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3659315109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7008895874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0097417831421</t>
+    <t xml:space="preserve">12.2912130355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.365930557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.700888633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0097427368164</t>
   </si>
   <si>
     <t xml:space="preserve">13.5053901672363</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2625541687012</t>
+    <t xml:space="preserve">13.2625551223755</t>
   </si>
   <si>
     <t xml:space="preserve">12.9450006484985</t>
@@ -845,13 +848,13 @@
     <t xml:space="preserve">12.7955627441406</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6461267471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4593305587769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8702821731567</t>
+    <t xml:space="preserve">12.646125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4593296051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8702831268311</t>
   </si>
   <si>
     <t xml:space="preserve">12.907642364502</t>
@@ -863,58 +866,58 @@
     <t xml:space="preserve">13.187837600708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1691551208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4306707382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1504755020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7395248413086</t>
+    <t xml:space="preserve">13.1691570281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4306716918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1504774093628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7395238876343</t>
   </si>
   <si>
     <t xml:space="preserve">12.4032907485962</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5527276992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5153675079346</t>
+    <t xml:space="preserve">12.5527286529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5153694152832</t>
   </si>
   <si>
     <t xml:space="preserve">11.9362983703613</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8615808486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3759098052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0957145690918</t>
+    <t xml:space="preserve">11.8615818023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3759107589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0957155227661</t>
   </si>
   <si>
     <t xml:space="preserve">11.1704330444336</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1143941879272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8341979980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3945894241333</t>
+    <t xml:space="preserve">11.1143932342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8341989517212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3945903778076</t>
   </si>
   <si>
     <t xml:space="preserve">11.2077932357788</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3572301864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3011903762817</t>
+    <t xml:space="preserve">11.3572292327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3011922836304</t>
   </si>
   <si>
     <t xml:space="preserve">11.4506273269653</t>
@@ -923,13 +926,13 @@
     <t xml:space="preserve">11.189112663269</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4892635345459</t>
+    <t xml:space="preserve">9.48926448822021</t>
   </si>
   <si>
     <t xml:space="preserve">9.47058391571045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94755268096924</t>
+    <t xml:space="preserve">8.94755363464355</t>
   </si>
   <si>
     <t xml:space="preserve">9.62002182006836</t>
@@ -941,31 +944,31 @@
     <t xml:space="preserve">8.87283611297607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2657470703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30310726165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25640678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59264087677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49924373626709</t>
+    <t xml:space="preserve">8.26574611663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3031063079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25640773773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5926399230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49924278259277</t>
   </si>
   <si>
     <t xml:space="preserve">9.71342086791992</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7968416213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84417819976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3672094345093</t>
+    <t xml:space="preserve">10.7968406677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84417724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.367208480835</t>
   </si>
   <si>
     <t xml:space="preserve">10.3111696243286</t>
@@ -977,10 +980,10 @@
     <t xml:space="preserve">10.0870141983032</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7781600952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7681827545166</t>
+    <t xml:space="preserve">10.7781610488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7681837081909</t>
   </si>
   <si>
     <t xml:space="preserve">11.9549779891968</t>
@@ -998,34 +1001,34 @@
     <t xml:space="preserve">13.8229446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5801086425781</t>
+    <t xml:space="preserve">13.5801095962524</t>
   </si>
   <si>
     <t xml:space="preserve">13.7482261657715</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9997625350952</t>
+    <t xml:space="preserve">14.9997634887695</t>
   </si>
   <si>
     <t xml:space="preserve">15.1492004394531</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0371227264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3459758758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3920364379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590288162231</t>
+    <t xml:space="preserve">15.0371217727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3459749221802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.392035484314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590269088745</t>
   </si>
   <si>
     <t xml:space="preserve">16.0831813812256</t>
   </si>
   <si>
-    <t xml:space="preserve">15.504114151001</t>
+    <t xml:space="preserve">15.5041131973267</t>
   </si>
   <si>
     <t xml:space="preserve">15.0558013916016</t>
@@ -1034,10 +1037,10 @@
     <t xml:space="preserve">14.7195682525635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5701322555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1404991149902</t>
+    <t xml:space="preserve">14.5701313018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1404981613159</t>
   </si>
   <si>
     <t xml:space="preserve">14.2338962554932</t>
@@ -1046,10 +1049,10 @@
     <t xml:space="preserve">13.8976631164551</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9163427352905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7669048309326</t>
+    <t xml:space="preserve">13.9163436889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7669057846069</t>
   </si>
   <si>
     <t xml:space="preserve">14.1778573989868</t>
@@ -1058,7 +1061,7 @@
     <t xml:space="preserve">14.4206943511963</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8129653930664</t>
+    <t xml:space="preserve">14.8129663467407</t>
   </si>
   <si>
     <t xml:space="preserve">15.0931606292725</t>
@@ -1079,16 +1082,13 @@
     <t xml:space="preserve">14.8673286437988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0931615829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.375452041626</t>
+    <t xml:space="preserve">15.3754510879517</t>
   </si>
   <si>
     <t xml:space="preserve">15.3378133773804</t>
   </si>
   <si>
-    <t xml:space="preserve">15.526008605957</t>
+    <t xml:space="preserve">15.5260076522827</t>
   </si>
   <si>
     <t xml:space="preserve">15.4319105148315</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">15.1872577667236</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0178833007812</t>
+    <t xml:space="preserve">15.0178842544556</t>
   </si>
   <si>
     <t xml:space="preserve">14.7544116973877</t>
@@ -1112,10 +1112,10 @@
     <t xml:space="preserve">15.2437171936035</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0367031097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1308002471924</t>
+    <t xml:space="preserve">15.0367021560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1307992935181</t>
   </si>
   <si>
     <t xml:space="preserve">15.5071878433228</t>
@@ -1127,28 +1127,28 @@
     <t xml:space="preserve">14.5850372314453</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6765604019165</t>
+    <t xml:space="preserve">15.6765613555908</t>
   </si>
   <si>
     <t xml:space="preserve">16.2787818908691</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0880184173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8031558990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8433666229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9939193725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.558500289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5396862030029</t>
+    <t xml:space="preserve">17.088020324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8031539916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8433647155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9939212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5585021972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5396842956543</t>
   </si>
   <si>
     <t xml:space="preserve">17.5208625793457</t>
@@ -1160,28 +1160,28 @@
     <t xml:space="preserve">18.141902923584</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0101680755615</t>
+    <t xml:space="preserve">18.0101661682129</t>
   </si>
   <si>
     <t xml:space="preserve">18.4053764343262</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4430160522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7843360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6525993347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1230850219727</t>
+    <t xml:space="preserve">18.4430179595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7843379974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6526012420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1230869293213</t>
   </si>
   <si>
     <t xml:space="preserve">18.8194046020508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.289888381958</t>
+    <t xml:space="preserve">19.2898864746094</t>
   </si>
   <si>
     <t xml:space="preserve">18.4618339538574</t>
@@ -1190,16 +1190,16 @@
     <t xml:space="preserve">18.3489170074463</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1607265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.502046585083</t>
+    <t xml:space="preserve">18.1607246398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5020446777344</t>
   </si>
   <si>
     <t xml:space="preserve">18.0854454040527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5961437225342</t>
+    <t xml:space="preserve">17.5961418151855</t>
   </si>
   <si>
     <t xml:space="preserve">17.9348888397217</t>
@@ -1211,16 +1211,16 @@
     <t xml:space="preserve">16.7869071960449</t>
   </si>
   <si>
-    <t xml:space="preserve">15.940034866333</t>
+    <t xml:space="preserve">15.9400329589844</t>
   </si>
   <si>
     <t xml:space="preserve">16.5798931121826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0717697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4883670806885</t>
+    <t xml:space="preserve">16.0717678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4883680343628</t>
   </si>
   <si>
     <t xml:space="preserve">15.8835744857788</t>
@@ -1229,28 +1229,28 @@
     <t xml:space="preserve">16.6551704406738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7116298675537</t>
+    <t xml:space="preserve">16.7116317749023</t>
   </si>
   <si>
     <t xml:space="preserve">16.4105186462402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5422554016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3917007446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9751014709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8245449066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4481582641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6175308227539</t>
+    <t xml:space="preserve">16.54225730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3917026519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9750995635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8245468139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4481563568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6175327301025</t>
   </si>
   <si>
     <t xml:space="preserve">16.4857959747314</t>
@@ -1259,37 +1259,37 @@
     <t xml:space="preserve">16.4669780731201</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8057270050049</t>
+    <t xml:space="preserve">16.8057289123535</t>
   </si>
   <si>
     <t xml:space="preserve">16.7492694854736</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7304496765137</t>
+    <t xml:space="preserve">16.730447769165</t>
   </si>
   <si>
     <t xml:space="preserve">16.8810062408447</t>
   </si>
   <si>
-    <t xml:space="preserve">16.937463760376</t>
+    <t xml:space="preserve">16.9374618530273</t>
   </si>
   <si>
     <t xml:space="preserve">16.918643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9023952484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.544828414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0743417739868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7920503616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6414947509766</t>
+    <t xml:space="preserve">15.9023933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5448274612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0743427276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7920513153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6414957046509</t>
   </si>
   <si>
     <t xml:space="preserve">17.4455871582031</t>
@@ -1298,37 +1298,37 @@
     <t xml:space="preserve">16.6363525390625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7330198287964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9964895248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.354061126709</t>
+    <t xml:space="preserve">15.7330207824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9964914321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3540592193604</t>
   </si>
   <si>
     <t xml:space="preserve">16.5987148284912</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9562816619873</t>
+    <t xml:space="preserve">16.9562835693359</t>
   </si>
   <si>
     <t xml:space="preserve">16.5610733032227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0691986083984</t>
+    <t xml:space="preserve">17.0691967010498</t>
   </si>
   <si>
     <t xml:space="preserve">17.2009353637695</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7680892944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0315608978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0127410888672</t>
+    <t xml:space="preserve">16.768087387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0315589904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0127429962158</t>
   </si>
   <si>
     <t xml:space="preserve">18.0289878845215</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">18.6688480377197</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0478057861328</t>
+    <t xml:space="preserve">18.0478076934814</t>
   </si>
   <si>
     <t xml:space="preserve">18.1795425415039</t>
@@ -1349,37 +1349,37 @@
     <t xml:space="preserve">16.6928100585938</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8621845245361</t>
+    <t xml:space="preserve">16.8621826171875</t>
   </si>
   <si>
     <t xml:space="preserve">16.6739921569824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4293384552002</t>
+    <t xml:space="preserve">16.4293403625488</t>
   </si>
   <si>
     <t xml:space="preserve">17.1444759368896</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1846866607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.95885181427</t>
+    <t xml:space="preserve">16.1846885681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9588537216187</t>
   </si>
   <si>
     <t xml:space="preserve">15.8647565841675</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7142009735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1282291412354</t>
+    <t xml:space="preserve">15.7142019271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.128231048584</t>
   </si>
   <si>
     <t xml:space="preserve">16.0153121948242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0905876159668</t>
+    <t xml:space="preserve">16.0905895233154</t>
   </si>
   <si>
     <t xml:space="preserve">15.4695482254028</t>
@@ -1391,22 +1391,22 @@
     <t xml:space="preserve">14.2651081085205</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9614267349243</t>
+    <t xml:space="preserve">14.96142578125</t>
   </si>
   <si>
     <t xml:space="preserve">15.6201038360596</t>
   </si>
   <si>
-    <t xml:space="preserve">15.751838684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7894773483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6389236450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8271179199219</t>
+    <t xml:space="preserve">15.7518396377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.789478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6389245986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8271169662476</t>
   </si>
   <si>
     <t xml:space="preserve">15.582465171814</t>
@@ -1418,10 +1418,10 @@
     <t xml:space="preserve">15.7706594467163</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9776744842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.335241317749</t>
+    <t xml:space="preserve">15.9776725769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3352432250977</t>
   </si>
   <si>
     <t xml:space="preserve">17.2197551727295</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">17.8972511291504</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2548198699951</t>
+    <t xml:space="preserve">18.2548217773438</t>
   </si>
   <si>
     <t xml:space="preserve">17.7655162811279</t>
@@ -1454,25 +1454,25 @@
     <t xml:space="preserve">17.2950325012207</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6902370452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.727876663208</t>
+    <t xml:space="preserve">17.6902389526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7278747558594</t>
   </si>
   <si>
     <t xml:space="preserve">17.8784332275391</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8544731140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9485664367676</t>
+    <t xml:space="preserve">19.854471206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9485683441162</t>
   </si>
   <si>
     <t xml:space="preserve">19.5721797943115</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6662750244141</t>
+    <t xml:space="preserve">19.6662731170654</t>
   </si>
   <si>
     <t xml:space="preserve">20.1367607116699</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">20.6072463989258</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4190540313721</t>
+    <t xml:space="preserve">20.4190521240234</t>
   </si>
   <si>
     <t xml:space="preserve">20.2779064178467</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">20.089714050293</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3720054626465</t>
+    <t xml:space="preserve">20.3720035552979</t>
   </si>
   <si>
     <t xml:space="preserve">20.7483940124512</t>
@@ -1502,13 +1502,13 @@
     <t xml:space="preserve">20.7954406738281</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3600215911865</t>
+    <t xml:space="preserve">21.3600196838379</t>
   </si>
   <si>
     <t xml:space="preserve">21.7364101409912</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1128005981445</t>
+    <t xml:space="preserve">22.1127986907959</t>
   </si>
   <si>
     <t xml:space="preserve">21.4541206359863</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">19.8764400482178</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1130619049072</t>
+    <t xml:space="preserve">20.1130638122559</t>
   </si>
   <si>
     <t xml:space="preserve">19.9237651824951</t>
@@ -1544,13 +1544,13 @@
     <t xml:space="preserve">19.687141418457</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6398162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8291168212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1665687561035</t>
+    <t xml:space="preserve">19.6398143768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8291149139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1665668487549</t>
   </si>
   <si>
     <t xml:space="preserve">18.9772682189941</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">19.2138900756836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0719184875488</t>
+    <t xml:space="preserve">19.0719203948975</t>
   </si>
   <si>
     <t xml:space="preserve">19.7817897796631</t>
@@ -1574,34 +1574,34 @@
     <t xml:space="preserve">20.3023624420166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9710922241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.403190612793</t>
+    <t xml:space="preserve">19.9710903167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4031887054443</t>
   </si>
   <si>
     <t xml:space="preserve">18.5513439178467</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7595729827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.60813331604</t>
+    <t xml:space="preserve">18.7595748901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6081352233887</t>
   </si>
   <si>
     <t xml:space="preserve">18.9110126495361</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6459941864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9299449920654</t>
+    <t xml:space="preserve">18.6459922790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9299430847168</t>
   </si>
   <si>
     <t xml:space="preserve">18.7785034179688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2077140808105</t>
+    <t xml:space="preserve">20.2077121734619</t>
   </si>
   <si>
     <t xml:space="preserve">20.5389881134033</t>
@@ -1619,19 +1619,19 @@
     <t xml:space="preserve">22.621280670166</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1418552398682</t>
+    <t xml:space="preserve">23.1418571472168</t>
   </si>
   <si>
     <t xml:space="preserve">23.3784790039062</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6624279022217</t>
+    <t xml:space="preserve">23.6624298095703</t>
   </si>
   <si>
     <t xml:space="preserve">23.3311538696289</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2365055084229</t>
+    <t xml:space="preserve">23.2365036010742</t>
   </si>
   <si>
     <t xml:space="preserve">23.7570781707764</t>
@@ -1667,28 +1667,28 @@
     <t xml:space="preserve">23.615104675293</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0410289764404</t>
+    <t xml:space="preserve">24.0410270690918</t>
   </si>
   <si>
     <t xml:space="preserve">21.9114093780518</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8640842437744</t>
+    <t xml:space="preserve">21.864086151123</t>
   </si>
   <si>
     <t xml:space="preserve">22.2900085449219</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1007080078125</t>
+    <t xml:space="preserve">22.1007099151611</t>
   </si>
   <si>
     <t xml:space="preserve">21.7221088409424</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2961845397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0595607757568</t>
+    <t xml:space="preserve">21.2961864471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0595626831055</t>
   </si>
   <si>
     <t xml:space="preserve">21.1068859100342</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">20.7282886505127</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3908367156982</t>
+    <t xml:space="preserve">21.3908348083496</t>
   </si>
   <si>
     <t xml:space="preserve">22.0060577392578</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">23.8044013977051</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3249740600586</t>
+    <t xml:space="preserve">24.3249759674072</t>
   </si>
   <si>
     <t xml:space="preserve">23.9937038421631</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4669494628906</t>
+    <t xml:space="preserve">24.4669513702393</t>
   </si>
   <si>
     <t xml:space="preserve">24.1356773376465</t>
@@ -1763,25 +1763,25 @@
     <t xml:space="preserve">22.7159309387207</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4319839477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2838306427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4196262359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8928756713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7035751342773</t>
+    <t xml:space="preserve">22.4319820404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2838325500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4196243286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8928775787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.703577041626</t>
   </si>
   <si>
     <t xml:space="preserve">24.9401988983154</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0883522033691</t>
+    <t xml:space="preserve">24.0883541107178</t>
   </si>
   <si>
     <t xml:space="preserve">24.1830005645752</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">24.798225402832</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3661212921143</t>
+    <t xml:space="preserve">25.3661231994629</t>
   </si>
   <si>
     <t xml:space="preserve">25.3187980651855</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">21.9587326049805</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0122375488281</t>
+    <t xml:space="preserve">21.0122356414795</t>
   </si>
   <si>
     <t xml:space="preserve">21.4854850769043</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">17.1694583892822</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9422988891602</t>
+    <t xml:space="preserve">16.9422969818115</t>
   </si>
   <si>
     <t xml:space="preserve">18.4377632141113</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">18.3241844177246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7974319458008</t>
+    <t xml:space="preserve">18.7974338531494</t>
   </si>
   <si>
     <t xml:space="preserve">20.0657386779785</t>
@@ -1877,16 +1877,16 @@
     <t xml:space="preserve">22.1480331420898</t>
   </si>
   <si>
-    <t xml:space="preserve">22.479305267334</t>
+    <t xml:space="preserve">22.4793071746826</t>
   </si>
   <si>
     <t xml:space="preserve">21.6274604797363</t>
   </si>
   <si>
-    <t xml:space="preserve">20.633638381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4443397521973</t>
+    <t xml:space="preserve">20.6336364746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4443378448486</t>
   </si>
   <si>
     <t xml:space="preserve">20.1603889465332</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">18.8352928161621</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0533828735352</t>
+    <t xml:space="preserve">22.0533809661865</t>
   </si>
   <si>
     <t xml:space="preserve">20.3496894836426</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">20.6809616088867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.456693649292</t>
+    <t xml:space="preserve">18.4566917419434</t>
   </si>
   <si>
     <t xml:space="preserve">18.0970230102539</t>
@@ -1916,13 +1916,13 @@
     <t xml:space="preserve">18.0213069915771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3398265838623</t>
+    <t xml:space="preserve">17.3398284912109</t>
   </si>
   <si>
     <t xml:space="preserve">17.3208999633789</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8914546966553</t>
+    <t xml:space="preserve">16.8914566040039</t>
   </si>
   <si>
     <t xml:space="preserve">17.063232421875</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">16.3761215209961</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9487133026123</t>
+    <t xml:space="preserve">16.9487152099609</t>
   </si>
   <si>
     <t xml:space="preserve">17.6549091339111</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">17.9412059783936</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3992786407471</t>
+    <t xml:space="preserve">18.3992805480957</t>
   </si>
   <si>
     <t xml:space="preserve">18.3801937103271</t>
@@ -1958,16 +1958,16 @@
     <t xml:space="preserve">18.3038463592529</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0863914489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7619209289551</t>
+    <t xml:space="preserve">19.086389541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7619228363037</t>
   </si>
   <si>
     <t xml:space="preserve">18.704662322998</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9146118164062</t>
+    <t xml:space="preserve">18.9146137237549</t>
   </si>
   <si>
     <t xml:space="preserve">18.0748100280762</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">18.8955268859863</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9929943084717</t>
+    <t xml:space="preserve">19.992992401123</t>
   </si>
   <si>
     <t xml:space="preserve">20.3270053863525</t>
@@ -2000,13 +2000,13 @@
     <t xml:space="preserve">21.04274559021</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1858940124512</t>
+    <t xml:space="preserve">21.1858921051025</t>
   </si>
   <si>
     <t xml:space="preserve">20.422435760498</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2356433868408</t>
+    <t xml:space="preserve">22.2356414794922</t>
   </si>
   <si>
     <t xml:space="preserve">22.8559513092041</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">22.4265079498291</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6173725128174</t>
+    <t xml:space="preserve">22.6173706054688</t>
   </si>
   <si>
     <t xml:space="preserve">22.76051902771</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">21.8062000274658</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5676212310791</t>
+    <t xml:space="preserve">21.5676193237305</t>
   </si>
   <si>
     <t xml:space="preserve">21.1381759643555</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">20.5655841827393</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8021297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3747215270996</t>
+    <t xml:space="preserve">19.8021278381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.374719619751</t>
   </si>
   <si>
     <t xml:space="preserve">20.0884246826172</t>
@@ -2066,13 +2066,13 @@
     <t xml:space="preserve">19.8975601196289</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3249702453613</t>
+    <t xml:space="preserve">19.3249683380127</t>
   </si>
   <si>
     <t xml:space="preserve">19.134105682373</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1818218231201</t>
+    <t xml:space="preserve">19.1818199157715</t>
   </si>
   <si>
     <t xml:space="preserve">18.6855754852295</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">18.4947109222412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0557250976562</t>
+    <t xml:space="preserve">18.0557270050049</t>
   </si>
   <si>
     <t xml:space="preserve">18.3611068725586</t>
@@ -2096,16 +2096,16 @@
     <t xml:space="preserve">17.9030323028564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.922119140625</t>
+    <t xml:space="preserve">17.9221172332764</t>
   </si>
   <si>
     <t xml:space="preserve">17.1204929351807</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2656745910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2295379638672</t>
+    <t xml:space="preserve">18.2656726837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2295398712158</t>
   </si>
   <si>
     <t xml:space="preserve">20.2315731048584</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">18.9336986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2847595214844</t>
+    <t xml:space="preserve">18.284761428833</t>
   </si>
   <si>
     <t xml:space="preserve">18.4183673858643</t>
@@ -2123,16 +2123,16 @@
     <t xml:space="preserve">18.647403717041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1893272399902</t>
+    <t xml:space="preserve">18.1893291473389</t>
   </si>
   <si>
     <t xml:space="preserve">18.34202003479</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6092300415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8041648864746</t>
+    <t xml:space="preserve">18.6092281341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.804162979126</t>
   </si>
   <si>
     <t xml:space="preserve">20.7564487457275</t>
@@ -2141,10 +2141,10 @@
     <t xml:space="preserve">20.661018371582</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6650867462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4762592315674</t>
+    <t xml:space="preserve">22.6650886535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.476261138916</t>
   </si>
   <si>
     <t xml:space="preserve">24.335147857666</t>
@@ -2159,10 +2159,10 @@
     <t xml:space="preserve">23.5716915130615</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8579864501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2833595275879</t>
+    <t xml:space="preserve">23.8579883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2833614349365</t>
   </si>
   <si>
     <t xml:space="preserve">23.0468158721924</t>
@@ -2183,10 +2183,10 @@
     <t xml:space="preserve">23.61940574646</t>
   </si>
   <si>
-    <t xml:space="preserve">24.526008605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3331108093262</t>
+    <t xml:space="preserve">24.5260105133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3331127166748</t>
   </si>
   <si>
     <t xml:space="preserve">22.5696544647217</t>
@@ -2234,19 +2234,19 @@
     <t xml:space="preserve">24.4305782318115</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2397155761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4803295135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0986022949219</t>
+    <t xml:space="preserve">24.2397136688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4803314208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0986042022705</t>
   </si>
   <si>
     <t xml:space="preserve">25.0031700134277</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9077377319336</t>
+    <t xml:space="preserve">24.9077396392822</t>
   </si>
   <si>
     <t xml:space="preserve">24.5737266540527</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">24.764591217041</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6691570281982</t>
+    <t xml:space="preserve">24.6691589355469</t>
   </si>
   <si>
     <t xml:space="preserve">25.1940326690674</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">24.8123054504395</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7189083099365</t>
+    <t xml:space="preserve">25.7189102172852</t>
   </si>
   <si>
     <t xml:space="preserve">25.9574890136719</t>
@@ -2279,13 +2279,13 @@
     <t xml:space="preserve">23.7625541687012</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7148380279541</t>
+    <t xml:space="preserve">23.7148399353027</t>
   </si>
   <si>
     <t xml:space="preserve">23.2853946685791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4285430908203</t>
+    <t xml:space="preserve">23.4285411834717</t>
   </si>
   <si>
     <t xml:space="preserve">23.1422462463379</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">23.9534187316895</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4721870422363</t>
+    <t xml:space="preserve">21.472188949585</t>
   </si>
   <si>
     <t xml:space="preserve">22.808235168457</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">25.7666263580322</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6732292175293</t>
+    <t xml:space="preserve">26.6732311248779</t>
   </si>
   <si>
     <t xml:space="preserve">26.5777969360352</t>
@@ -2922,6 +2922,9 @@
   </si>
   <si>
     <t xml:space="preserve">17.0799999237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3199996948242</t>
   </si>
 </sst>
 </file>
@@ -10249,7 +10252,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G269" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -10275,7 +10278,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G270" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -10301,7 +10304,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G271" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -10327,7 +10330,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G272" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10353,7 +10356,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G273" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -10379,7 +10382,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G274" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -10405,7 +10408,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G275" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -10431,7 +10434,7 @@
         <v>10.3703145980835</v>
       </c>
       <c r="G276" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -10457,7 +10460,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G277" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10483,7 +10486,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G278" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10509,7 +10512,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G279" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10535,7 +10538,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G280" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10587,7 +10590,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G282" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10665,7 +10668,7 @@
         <v>10.3314752578735</v>
       </c>
       <c r="G285" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10691,7 +10694,7 @@
         <v>10.6421957015991</v>
       </c>
       <c r="G286" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10717,7 +10720,7 @@
         <v>11.0500173568726</v>
       </c>
       <c r="G287" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10743,7 +10746,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G288" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10769,7 +10772,7 @@
         <v>10.9140768051147</v>
       </c>
       <c r="G289" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10795,7 +10798,7 @@
         <v>10.8752374649048</v>
       </c>
       <c r="G290" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10821,7 +10824,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G291" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10847,7 +10850,7 @@
         <v>10.8558168411255</v>
       </c>
       <c r="G292" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10873,7 +10876,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G293" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10899,7 +10902,7 @@
         <v>10.2926349639893</v>
       </c>
       <c r="G294" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -10925,7 +10928,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G295" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10951,7 +10954,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G296" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10977,7 +10980,7 @@
         <v>10.5062561035156</v>
       </c>
       <c r="G297" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -11003,7 +11006,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G298" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -11029,7 +11032,7 @@
         <v>10.3314752578735</v>
       </c>
       <c r="G299" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -11055,7 +11058,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G300" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -11081,7 +11084,7 @@
         <v>10.2732152938843</v>
       </c>
       <c r="G301" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -11107,7 +11110,7 @@
         <v>10.3703145980835</v>
       </c>
       <c r="G302" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -11133,7 +11136,7 @@
         <v>10.5450963973999</v>
       </c>
       <c r="G303" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -11159,7 +11162,7 @@
         <v>10.5839357376099</v>
       </c>
       <c r="G304" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -11185,7 +11188,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G305" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -11211,7 +11214,7 @@
         <v>10.253794670105</v>
       </c>
       <c r="G306" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -11237,7 +11240,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G307" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -11263,7 +11266,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G308" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -11289,7 +11292,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G309" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -11315,7 +11318,7 @@
         <v>10.7392959594727</v>
       </c>
       <c r="G310" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -11341,7 +11344,7 @@
         <v>10.7392959594727</v>
       </c>
       <c r="G311" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -11367,7 +11370,7 @@
         <v>10.8752374649048</v>
       </c>
       <c r="G312" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -11393,7 +11396,7 @@
         <v>11.0500173568726</v>
       </c>
       <c r="G313" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -11419,7 +11422,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G314" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -11445,7 +11448,7 @@
         <v>10.972336769104</v>
       </c>
       <c r="G315" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -11471,7 +11474,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G316" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -11497,7 +11500,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G317" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -11523,7 +11526,7 @@
         <v>11.6908798217773</v>
       </c>
       <c r="G318" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -11549,7 +11552,7 @@
         <v>12.15696144104</v>
       </c>
       <c r="G319" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11575,7 +11578,7 @@
         <v>11.943341255188</v>
       </c>
       <c r="G320" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11601,7 +11604,7 @@
         <v>11.943341255188</v>
       </c>
       <c r="G321" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11627,7 +11630,7 @@
         <v>12.0792808532715</v>
       </c>
       <c r="G322" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11653,7 +11656,7 @@
         <v>12.176381111145</v>
       </c>
       <c r="G323" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11679,7 +11682,7 @@
         <v>12.0598611831665</v>
       </c>
       <c r="G324" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11705,7 +11708,7 @@
         <v>12.15696144104</v>
       </c>
       <c r="G325" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11731,7 +11734,7 @@
         <v>12.176381111145</v>
       </c>
       <c r="G326" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11757,7 +11760,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G327" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11783,7 +11786,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G328" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11809,7 +11812,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G329" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11835,7 +11838,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G330" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11861,7 +11864,7 @@
         <v>13.0308637619019</v>
       </c>
       <c r="G331" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11887,7 +11890,7 @@
         <v>13.186224937439</v>
       </c>
       <c r="G332" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11913,7 +11916,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G333" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11939,7 +11942,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G334" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11965,7 +11968,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G335" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11991,7 +11994,7 @@
         <v>12.2929019927979</v>
       </c>
       <c r="G336" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -12017,7 +12020,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G337" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -12043,7 +12046,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G338" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -12069,7 +12072,7 @@
         <v>12.0210208892822</v>
       </c>
       <c r="G339" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -12095,7 +12098,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G340" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -12121,7 +12124,7 @@
         <v>12.0792808532715</v>
       </c>
       <c r="G341" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -12147,7 +12150,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G342" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -12173,7 +12176,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G343" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -12199,7 +12202,7 @@
         <v>12.4871015548706</v>
       </c>
       <c r="G344" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -12225,7 +12228,7 @@
         <v>12.681303024292</v>
       </c>
       <c r="G345" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -12251,7 +12254,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G346" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -12277,7 +12280,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G347" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -12303,7 +12306,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G348" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -12329,7 +12332,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G349" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -12355,7 +12358,7 @@
         <v>12.7978229522705</v>
       </c>
       <c r="G350" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -12381,7 +12384,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G351" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -12407,7 +12410,7 @@
         <v>13.2833251953125</v>
       </c>
       <c r="G352" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -12433,7 +12436,7 @@
         <v>13.5940456390381</v>
       </c>
       <c r="G353" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -12459,7 +12462,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G354" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -12485,7 +12488,7 @@
         <v>13.9824476242065</v>
       </c>
       <c r="G355" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -12511,7 +12514,7 @@
         <v>14.1378078460693</v>
       </c>
       <c r="G356" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -12537,7 +12540,7 @@
         <v>14.7204103469849</v>
       </c>
       <c r="G357" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -12563,7 +12566,7 @@
         <v>14.1378078460693</v>
       </c>
       <c r="G358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12589,7 +12592,7 @@
         <v>14.0989675521851</v>
       </c>
       <c r="G359" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12615,7 +12618,7 @@
         <v>13.8270874023438</v>
       </c>
       <c r="G360" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12641,7 +12644,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G361" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12667,7 +12670,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G362" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12693,7 +12696,7 @@
         <v>12.9726037979126</v>
       </c>
       <c r="G363" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12719,7 +12722,7 @@
         <v>12.9337644577026</v>
       </c>
       <c r="G364" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12745,7 +12748,7 @@
         <v>12.8755035400391</v>
       </c>
       <c r="G365" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12771,7 +12774,7 @@
         <v>12.9920244216919</v>
       </c>
       <c r="G366" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12797,7 +12800,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G367" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12823,7 +12826,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G368" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12849,7 +12852,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G369" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12875,7 +12878,7 @@
         <v>12.7784032821655</v>
       </c>
       <c r="G370" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12901,7 +12904,7 @@
         <v>12.8560838699341</v>
       </c>
       <c r="G371" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12927,7 +12930,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G372" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12953,7 +12956,7 @@
         <v>15.2835922241211</v>
       </c>
       <c r="G373" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12979,7 +12982,7 @@
         <v>14.5650501251221</v>
       </c>
       <c r="G374" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13005,7 +13008,7 @@
         <v>14.0407075881958</v>
       </c>
       <c r="G375" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -13031,7 +13034,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G376" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -13057,7 +13060,7 @@
         <v>13.4581060409546</v>
       </c>
       <c r="G377" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13083,7 +13086,7 @@
         <v>13.3027448654175</v>
       </c>
       <c r="G378" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13109,7 +13112,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G379" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13135,7 +13138,7 @@
         <v>13.1473846435547</v>
       </c>
       <c r="G380" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13161,7 +13164,7 @@
         <v>12.9531841278076</v>
       </c>
       <c r="G381" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -13187,7 +13190,7 @@
         <v>12.9531841278076</v>
       </c>
       <c r="G382" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -13213,7 +13216,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G383" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -13239,7 +13242,7 @@
         <v>12.8755035400391</v>
       </c>
       <c r="G384" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -13265,7 +13268,7 @@
         <v>13.380425453186</v>
       </c>
       <c r="G385" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -13291,7 +13294,7 @@
         <v>13.4192657470703</v>
       </c>
       <c r="G386" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -13317,7 +13320,7 @@
         <v>13.4969463348389</v>
       </c>
       <c r="G387" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13343,7 +13346,7 @@
         <v>13.7105674743652</v>
       </c>
       <c r="G388" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13369,7 +13372,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G389" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13395,7 +13398,7 @@
         <v>13.6911468505859</v>
       </c>
       <c r="G390" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13421,7 +13424,7 @@
         <v>13.9630270004272</v>
       </c>
       <c r="G391" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13447,7 +13450,7 @@
         <v>13.9630270004272</v>
       </c>
       <c r="G392" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13473,7 +13476,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G393" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13499,7 +13502,7 @@
         <v>13.4581060409546</v>
       </c>
       <c r="G394" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13525,7 +13528,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G395" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13551,7 +13554,7 @@
         <v>13.6717262268066</v>
       </c>
       <c r="G396" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13577,7 +13580,7 @@
         <v>13.2444849014282</v>
       </c>
       <c r="G397" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13603,7 +13606,7 @@
         <v>12.8949241638184</v>
       </c>
       <c r="G398" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13629,7 +13632,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G399" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13655,7 +13658,7 @@
         <v>13.0502843856812</v>
       </c>
       <c r="G400" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13681,7 +13684,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G401" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13707,7 +13710,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G402" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13733,7 +13736,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G403" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13759,7 +13762,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G404" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13785,7 +13788,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G405" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13811,7 +13814,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G406" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13837,7 +13840,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G407" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13863,7 +13866,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G408" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13889,7 +13892,7 @@
         <v>12.4871015548706</v>
       </c>
       <c r="G409" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13915,7 +13918,7 @@
         <v>12.4094219207764</v>
       </c>
       <c r="G410" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13941,7 +13944,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G411" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13967,7 +13970,7 @@
         <v>11.8268203735352</v>
       </c>
       <c r="G412" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13993,7 +13996,7 @@
         <v>11.5355186462402</v>
       </c>
       <c r="G413" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14019,7 +14022,7 @@
         <v>11.6131992340088</v>
       </c>
       <c r="G414" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14045,7 +14048,7 @@
         <v>11.5549392700195</v>
       </c>
       <c r="G415" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14071,7 +14074,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G416" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14097,7 +14100,7 @@
         <v>11.5549392700195</v>
       </c>
       <c r="G417" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14123,7 +14126,7 @@
         <v>11.2636375427246</v>
       </c>
       <c r="G418" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14149,7 +14152,7 @@
         <v>11.5355186462402</v>
       </c>
       <c r="G419" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14175,7 +14178,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G420" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14201,7 +14204,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G421" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14227,7 +14230,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G422" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14253,7 +14256,7 @@
         <v>11.8073997497559</v>
       </c>
       <c r="G423" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14279,7 +14282,7 @@
         <v>11.7491397857666</v>
       </c>
       <c r="G424" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14305,7 +14308,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G425" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14331,7 +14334,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G426" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14357,7 +14360,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G427" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14383,7 +14386,7 @@
         <v>11.7491397857666</v>
       </c>
       <c r="G428" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14409,7 +14412,7 @@
         <v>11.8073997497559</v>
       </c>
       <c r="G429" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14435,7 +14438,7 @@
         <v>11.9045000076294</v>
       </c>
       <c r="G430" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14461,7 +14464,7 @@
         <v>11.6326189041138</v>
       </c>
       <c r="G431" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14487,7 +14490,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G432" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14513,7 +14516,7 @@
         <v>10.972336769104</v>
       </c>
       <c r="G433" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14539,7 +14542,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G434" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14565,7 +14568,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G435" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14591,7 +14594,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G436" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14617,7 +14620,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G437" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14643,7 +14646,7 @@
         <v>10.9140768051147</v>
       </c>
       <c r="G438" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14669,7 +14672,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G439" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14695,7 +14698,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G440" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14721,7 +14724,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G441" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14747,7 +14750,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G442" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14773,7 +14776,7 @@
         <v>9.86539268493652</v>
       </c>
       <c r="G443" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14799,7 +14802,7 @@
         <v>9.84597301483154</v>
       </c>
       <c r="G444" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14825,7 +14828,7 @@
         <v>9.30221080780029</v>
       </c>
       <c r="G445" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14851,7 +14854,7 @@
         <v>10.0013341903687</v>
       </c>
       <c r="G446" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14877,7 +14880,7 @@
         <v>9.12743091583252</v>
       </c>
       <c r="G447" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14929,7 +14932,7 @@
         <v>9.22453117370605</v>
       </c>
       <c r="G449" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14955,7 +14958,7 @@
         <v>8.59337902069092</v>
       </c>
       <c r="G450" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14981,7 +14984,7 @@
         <v>8.6322193145752</v>
       </c>
       <c r="G451" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15007,7 +15010,7 @@
         <v>8.58366870880127</v>
       </c>
       <c r="G452" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -15033,7 +15036,7 @@
         <v>8.93323040008545</v>
       </c>
       <c r="G453" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15059,7 +15062,7 @@
         <v>8.83613014221191</v>
       </c>
       <c r="G454" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15085,7 +15088,7 @@
         <v>10.0984344482422</v>
       </c>
       <c r="G455" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15111,7 +15114,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G456" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15137,7 +15140,7 @@
         <v>11.6326189041138</v>
       </c>
       <c r="G457" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15163,7 +15166,7 @@
         <v>11.2247982025146</v>
       </c>
       <c r="G458" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -15189,7 +15192,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G459" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15215,7 +15218,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G460" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -15241,7 +15244,7 @@
         <v>10.234375</v>
       </c>
       <c r="G461" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -15267,7 +15270,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G462" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15293,7 +15296,7 @@
         <v>10.7781372070312</v>
       </c>
       <c r="G463" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15319,7 +15322,7 @@
         <v>10.7198762893677</v>
       </c>
       <c r="G464" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15345,7 +15348,7 @@
         <v>10.2926349639893</v>
       </c>
       <c r="G465" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15371,7 +15374,7 @@
         <v>10.2732152938843</v>
       </c>
       <c r="G466" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15397,7 +15400,7 @@
         <v>10.1761140823364</v>
       </c>
       <c r="G467" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15423,7 +15426,7 @@
         <v>10.4868364334106</v>
       </c>
       <c r="G468" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15449,7 +15452,7 @@
         <v>11.2053775787354</v>
       </c>
       <c r="G469" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15475,7 +15478,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G470" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15501,7 +15504,7 @@
         <v>11.8268203735352</v>
       </c>
       <c r="G471" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15527,7 +15530,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G472" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15553,7 +15556,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G473" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15579,7 +15582,7 @@
         <v>12.2346420288086</v>
       </c>
       <c r="G474" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15605,7 +15608,7 @@
         <v>12.4288415908813</v>
       </c>
       <c r="G475" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15631,7 +15634,7 @@
         <v>13.0697040557861</v>
       </c>
       <c r="G476" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15657,7 +15660,7 @@
         <v>13.1473846435547</v>
       </c>
       <c r="G477" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15683,7 +15686,7 @@
         <v>13.2056446075439</v>
       </c>
       <c r="G478" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15709,7 +15712,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G479" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15735,7 +15738,7 @@
         <v>12.9337644577026</v>
       </c>
       <c r="G480" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15761,7 +15764,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G481" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15787,7 +15790,7 @@
         <v>12.3123216629028</v>
       </c>
       <c r="G482" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15813,7 +15816,7 @@
         <v>12.4288415908813</v>
       </c>
       <c r="G483" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15839,7 +15842,7 @@
         <v>12.7784032821655</v>
       </c>
       <c r="G484" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15865,7 +15868,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G485" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15891,7 +15894,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G486" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15917,7 +15920,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G487" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15943,7 +15946,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G488" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15969,7 +15972,7 @@
         <v>14.3708486557007</v>
       </c>
       <c r="G489" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15995,7 +15998,7 @@
         <v>14.1183881759644</v>
       </c>
       <c r="G490" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -16021,7 +16024,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G491" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16047,7 +16050,7 @@
         <v>14.2931690216064</v>
       </c>
       <c r="G492" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16073,7 +16076,7 @@
         <v>15.5943126678467</v>
       </c>
       <c r="G493" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16099,7 +16102,7 @@
         <v>15.7496738433838</v>
       </c>
       <c r="G494" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16125,7 +16128,7 @@
         <v>15.633152961731</v>
       </c>
       <c r="G495" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16151,7 +16154,7 @@
         <v>14.9146108627319</v>
       </c>
       <c r="G496" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16177,7 +16180,7 @@
         <v>16.0021343231201</v>
       </c>
       <c r="G497" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16203,7 +16206,7 @@
         <v>16.4876365661621</v>
       </c>
       <c r="G498" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -16229,7 +16232,7 @@
         <v>16.7206764221191</v>
       </c>
       <c r="G499" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -16255,7 +16258,7 @@
         <v>16.1186542510986</v>
       </c>
       <c r="G500" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16281,7 +16284,7 @@
         <v>15.6525726318359</v>
       </c>
       <c r="G501" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16307,7 +16310,7 @@
         <v>15.3030118942261</v>
       </c>
       <c r="G502" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16333,7 +16336,7 @@
         <v>15.1476516723633</v>
       </c>
       <c r="G503" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16359,7 +16362,7 @@
         <v>14.7009897232056</v>
       </c>
       <c r="G504" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16385,7 +16388,7 @@
         <v>14.7009897232056</v>
       </c>
       <c r="G505" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16411,7 +16414,7 @@
         <v>14.7980899810791</v>
       </c>
       <c r="G506" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16437,7 +16440,7 @@
         <v>14.4485292434692</v>
       </c>
       <c r="G507" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16463,7 +16466,7 @@
         <v>14.4679489135742</v>
       </c>
       <c r="G508" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16489,7 +16492,7 @@
         <v>14.3125886917114</v>
       </c>
       <c r="G509" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16515,7 +16518,7 @@
         <v>14.7398300170898</v>
       </c>
       <c r="G510" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16541,7 +16544,7 @@
         <v>14.9922914505005</v>
       </c>
       <c r="G511" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16567,7 +16570,7 @@
         <v>15.4001121520996</v>
       </c>
       <c r="G512" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16593,7 +16596,7 @@
         <v>15.6914129257202</v>
       </c>
       <c r="G513" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16619,7 +16622,7 @@
         <v>15.128231048584</v>
       </c>
       <c r="G514" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16645,7 +16648,7 @@
         <v>15.3806915283203</v>
       </c>
       <c r="G515" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16671,7 +16674,7 @@
         <v>15.4777927398682</v>
       </c>
       <c r="G516" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16697,7 +16700,7 @@
         <v>15.3612718582153</v>
       </c>
       <c r="G517" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16723,7 +16726,7 @@
         <v>15.3418521881104</v>
       </c>
       <c r="G518" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16749,7 +16752,7 @@
         <v>15.5748929977417</v>
       </c>
       <c r="G519" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16801,7 +16804,7 @@
         <v>15.3806915283203</v>
       </c>
       <c r="G521" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17347,7 +17350,7 @@
         <v>15.3612718582153</v>
       </c>
       <c r="G542" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -21351,7 +21354,7 @@
         <v>15.3418521881104</v>
       </c>
       <c r="G696" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -43589,7 +43592,7 @@
     </row>
     <row r="1552">
       <c r="A1552" s="1" t="n">
-        <v>45488.6523148148</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B1552" t="n">
         <v>87145</v>
@@ -43598,7 +43601,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="D1552" t="n">
-        <v>17.1399993896484</v>
+        <v>17.0799999237061</v>
       </c>
       <c r="E1552" t="n">
         <v>17.7999992370605</v>
@@ -43610,6 +43613,32 @@
         <v>969</v>
       </c>
       <c r="H1552" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="1" t="n">
+        <v>45489.6493518519</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>48296</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>17.4200000762939</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>16.8799991607666</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>17.0200004577637</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>17.3199996948242</v>
+      </c>
+      <c r="G1553" t="s">
+        <v>970</v>
+      </c>
+      <c r="H1553" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="979">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,10 +44,10 @@
     <t xml:space="preserve">CRL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95949554443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86694383621216</t>
+    <t xml:space="preserve">7.95949506759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86694288253784</t>
   </si>
   <si>
     <t xml:space="preserve">7.77439260482788</t>
@@ -56,34 +56,34 @@
     <t xml:space="preserve">7.74477386474609</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92987775802612</t>
+    <t xml:space="preserve">7.92987871170044</t>
   </si>
   <si>
     <t xml:space="preserve">8.02428245544434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72903966903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03353595733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4976601600647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35513019561768</t>
+    <t xml:space="preserve">7.72904014587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03353691101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49765968322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35512971878052</t>
   </si>
   <si>
     <t xml:space="preserve">7.57910633087158</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51987266540527</t>
+    <t xml:space="preserve">7.51987314224243</t>
   </si>
   <si>
     <t xml:space="preserve">7.62630796432495</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49673509597778</t>
+    <t xml:space="preserve">7.49673461914062</t>
   </si>
   <si>
     <t xml:space="preserve">7.5800313949585</t>
@@ -92,55 +92,55 @@
     <t xml:space="preserve">7.59854221343994</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7022008895874</t>
+    <t xml:space="preserve">7.70220041275024</t>
   </si>
   <si>
     <t xml:space="preserve">7.85768938064575</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91321897506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97893238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06130504608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9224739074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0770378112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87064504623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82066822052002</t>
+    <t xml:space="preserve">7.9132194519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97893190383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06130409240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92247486114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07703685760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87064599990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82066869735718</t>
   </si>
   <si>
     <t xml:space="preserve">7.90766620635986</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74847602844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84843301773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80215740203857</t>
+    <t xml:space="preserve">7.7484769821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84843349456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80215835571289</t>
   </si>
   <si>
     <t xml:space="preserve">7.94561290740967</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61797857284546</t>
+    <t xml:space="preserve">7.6179780960083</t>
   </si>
   <si>
     <t xml:space="preserve">7.72811460494995</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84102964401245</t>
+    <t xml:space="preserve">7.84102916717529</t>
   </si>
   <si>
     <t xml:space="preserve">7.80400896072388</t>
@@ -149,25 +149,25 @@
     <t xml:space="preserve">8.0520486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11775970458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17236614227295</t>
+    <t xml:space="preserve">8.11776065826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17236518859863</t>
   </si>
   <si>
     <t xml:space="preserve">8.36302375793457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5240650177002</t>
+    <t xml:space="preserve">8.52406406402588</t>
   </si>
   <si>
     <t xml:space="preserve">8.54720211029053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8165283203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02384853363037</t>
+    <t xml:space="preserve">8.81652927398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02384757995605</t>
   </si>
   <si>
     <t xml:space="preserve">8.66289234161377</t>
@@ -182,19 +182,19 @@
     <t xml:space="preserve">8.53054237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4222583770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51480865478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77395534515381</t>
+    <t xml:space="preserve">8.42225742340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51480960845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77395629882812</t>
   </si>
   <si>
     <t xml:space="preserve">8.8109769821167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67770099639893</t>
+    <t xml:space="preserve">8.67770195007324</t>
   </si>
   <si>
     <t xml:space="preserve">8.72768020629883</t>
@@ -203,43 +203,43 @@
     <t xml:space="preserve">8.857253074646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07012367248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93222141265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18118572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20895099639893</t>
+    <t xml:space="preserve">9.07012271881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93222045898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18118667602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20895195007324</t>
   </si>
   <si>
     <t xml:space="preserve">9.40331077575684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16267681121826</t>
+    <t xml:space="preserve">9.16267585754395</t>
   </si>
   <si>
     <t xml:space="preserve">9.1821117401123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05531406402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25152683258057</t>
+    <t xml:space="preserve">9.0553150177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25152492523193</t>
   </si>
   <si>
     <t xml:space="preserve">9.12657928466797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08863162994385</t>
+    <t xml:space="preserve">9.08863258361816</t>
   </si>
   <si>
     <t xml:space="preserve">8.82856178283691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05809116363525</t>
+    <t xml:space="preserve">9.05809211730957</t>
   </si>
   <si>
     <t xml:space="preserve">9.10714435577393</t>
@@ -248,16 +248,16 @@
     <t xml:space="preserve">8.96553897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73323249816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56849002838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03909111022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36580181121826</t>
+    <t xml:space="preserve">8.73323345184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56848812103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03908920288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36580085754395</t>
   </si>
   <si>
     <t xml:space="preserve">8.46853351593018</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">8.60736179351807</t>
   </si>
   <si>
-    <t xml:space="preserve">8.653639793396</t>
+    <t xml:space="preserve">8.65363883972168</t>
   </si>
   <si>
     <t xml:space="preserve">8.69991397857666</t>
@@ -275,19 +275,19 @@
     <t xml:space="preserve">8.87113571166992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08721733093262</t>
+    <t xml:space="preserve">8.08721923828125</t>
   </si>
   <si>
     <t xml:space="preserve">7.80678606033325</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97800540924072</t>
+    <t xml:space="preserve">7.97800445556641</t>
   </si>
   <si>
     <t xml:space="preserve">8.40189647674561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.837815284729</t>
+    <t xml:space="preserve">8.83781719207764</t>
   </si>
   <si>
     <t xml:space="preserve">8.84059429168701</t>
@@ -296,16 +296,16 @@
     <t xml:space="preserve">8.81745529174805</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56663799285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66104221343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76377582550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63883018493652</t>
+    <t xml:space="preserve">8.5666389465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66104125976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76377487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63882923126221</t>
   </si>
   <si>
     <t xml:space="preserve">8.45279884338379</t>
@@ -314,28 +314,28 @@
     <t xml:space="preserve">8.40097045898438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62217140197754</t>
+    <t xml:space="preserve">8.62216949462891</t>
   </si>
   <si>
     <t xml:space="preserve">8.78228569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11220741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09925079345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14459991455078</t>
+    <t xml:space="preserve">8.11220836639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0992488861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1446008682251</t>
   </si>
   <si>
     <t xml:space="preserve">8.24733257293701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61013793945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39449214935303</t>
+    <t xml:space="preserve">8.61013889312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39449119567871</t>
   </si>
   <si>
     <t xml:space="preserve">8.57034111022949</t>
@@ -344,13 +344,13 @@
     <t xml:space="preserve">8.98497581481934</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10344123840332</t>
+    <t xml:space="preserve">9.10344314575195</t>
   </si>
   <si>
     <t xml:space="preserve">9.03865528106689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08123016357422</t>
+    <t xml:space="preserve">9.0812292098999</t>
   </si>
   <si>
     <t xml:space="preserve">9.21820735931396</t>
@@ -365,22 +365,22 @@
     <t xml:space="preserve">8.91926383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36394882202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29268264770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32970523834229</t>
+    <t xml:space="preserve">8.3639497756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29268169403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32970428466797</t>
   </si>
   <si>
     <t xml:space="preserve">8.39726734161377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25936508178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46390628814697</t>
+    <t xml:space="preserve">8.25936412811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46390533447266</t>
   </si>
   <si>
     <t xml:space="preserve">8.33340740203857</t>
@@ -389,25 +389,25 @@
     <t xml:space="preserve">8.35747051239014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56108570098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49629783630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2834300994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41392612457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27972602844238</t>
+    <t xml:space="preserve">8.56108474731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49629878997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28342914581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41392707824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2797269821167</t>
   </si>
   <si>
     <t xml:space="preserve">8.21123790740967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45927810668945</t>
+    <t xml:space="preserve">8.45927906036377</t>
   </si>
   <si>
     <t xml:space="preserve">8.48704433441162</t>
@@ -416,13 +416,13 @@
     <t xml:space="preserve">8.54442596435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77210521697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83411502838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78320980072021</t>
+    <t xml:space="preserve">8.77210426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83411312103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78321075439453</t>
   </si>
   <si>
     <t xml:space="preserve">9.165452003479</t>
@@ -434,16 +434,16 @@
     <t xml:space="preserve">8.96183586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89797687530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04143142700195</t>
+    <t xml:space="preserve">8.89797592163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04143238067627</t>
   </si>
   <si>
     <t xml:space="preserve">9.11639881134033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30150508880615</t>
+    <t xml:space="preserve">9.30150413513184</t>
   </si>
   <si>
     <t xml:space="preserve">9.27188777923584</t>
@@ -452,34 +452,34 @@
     <t xml:space="preserve">9.42922496795654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46254539489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67911720275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71798896789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76426601409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66245746612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71243667602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38665294647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68652057647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5606517791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57915878295898</t>
+    <t xml:space="preserve">9.46254444122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67911624908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71798992156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76426696777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6624584197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71243476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38665103912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68652153015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56065082550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57916069030762</t>
   </si>
   <si>
     <t xml:space="preserve">9.35148239135742</t>
@@ -488,13 +488,13 @@
     <t xml:space="preserve">9.53103351593018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39775848388672</t>
+    <t xml:space="preserve">9.39775657653809</t>
   </si>
   <si>
     <t xml:space="preserve">9.1941442489624</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32926940917969</t>
+    <t xml:space="preserve">9.329270362854</t>
   </si>
   <si>
     <t xml:space="preserve">9.21265411376953</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">8.43799209594727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82300758361816</t>
+    <t xml:space="preserve">8.82300853729248</t>
   </si>
   <si>
     <t xml:space="preserve">9.07104778289795</t>
@@ -527,112 +527,112 @@
     <t xml:space="preserve">9.51437377929688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45884227752686</t>
+    <t xml:space="preserve">9.45884323120117</t>
   </si>
   <si>
     <t xml:space="preserve">9.8105411529541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53288459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6069278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82905101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7550106048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97713470458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0696887969971</t>
+    <t xml:space="preserve">9.532883644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60692691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82905197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75500965118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97713565826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0696878433228</t>
   </si>
   <si>
     <t xml:space="preserve">10.1252193450928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86607360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99564647674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88458347320557</t>
+    <t xml:space="preserve">9.86607265472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99564838409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88458251953125</t>
   </si>
   <si>
     <t xml:space="preserve">10.0141572952271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1437292098999</t>
+    <t xml:space="preserve">10.1437282562256</t>
   </si>
   <si>
     <t xml:space="preserve">10.1807498931885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73649978637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84756374359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9030933380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94011306762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2177724838257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2362823486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3843660354614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1067085266113</t>
+    <t xml:space="preserve">9.73650074005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84756278991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90309429168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94011402130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2177705764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2362804412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3843650817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1067094802856</t>
   </si>
   <si>
     <t xml:space="preserve">10.0881986618042</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1992607116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5879821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6805334091187</t>
+    <t xml:space="preserve">10.1992597579956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5879812240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6805305480957</t>
   </si>
   <si>
     <t xml:space="preserve">10.73606300354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8101062774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4954290390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5509605407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.51393699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4028759002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0511779785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92160320281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2551307678223</t>
+    <t xml:space="preserve">10.8101053237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4954280853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5509595870972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5139379501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4028749465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0511789321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92160415649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2551298141479</t>
   </si>
   <si>
     <t xml:space="preserve">10.0122947692871</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">9.95625591278076</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99361515045166</t>
+    <t xml:space="preserve">9.99361610412598</t>
   </si>
   <si>
     <t xml:space="preserve">10.2177715301514</t>
@@ -650,16 +650,16 @@
     <t xml:space="preserve">10.0683336257935</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2738094329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2924900054932</t>
+    <t xml:space="preserve">10.2738103866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2924890518188</t>
   </si>
   <si>
     <t xml:space="preserve">10.161732673645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97493553161621</t>
+    <t xml:space="preserve">9.97493457794189</t>
   </si>
   <si>
     <t xml:space="preserve">10.1243724822998</t>
@@ -668,16 +668,16 @@
     <t xml:space="preserve">9.80681991577148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93757820129395</t>
+    <t xml:space="preserve">9.93757724761963</t>
   </si>
   <si>
     <t xml:space="preserve">10.2364501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6287240982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.479287147522</t>
+    <t xml:space="preserve">10.6287231445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4792861938477</t>
   </si>
   <si>
     <t xml:space="preserve">10.4979658126831</t>
@@ -689,31 +689,31 @@
     <t xml:space="preserve">10.4419269561768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90021800994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3858890533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1056938171387</t>
+    <t xml:space="preserve">9.9002161026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3858880996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1056928634644</t>
   </si>
   <si>
     <t xml:space="preserve">9.88153743743896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1430540084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1804132461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86285781860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3298501968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9275979995728</t>
+    <t xml:space="preserve">10.1430549621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1804122924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8628568649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3298482894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9275989532471</t>
   </si>
   <si>
     <t xml:space="preserve">10.5540046691895</t>
@@ -722,22 +722,22 @@
     <t xml:space="preserve">12.1417751312256</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2451515197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6934633255005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4879875183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.618745803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7121438980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6000652313232</t>
+    <t xml:space="preserve">11.2451524734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6934652328491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4879884719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6187448501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7121429443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6000661849976</t>
   </si>
   <si>
     <t xml:space="preserve">12.0483779907227</t>
@@ -746,52 +746,52 @@
     <t xml:space="preserve">12.2351741790771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3285713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5340461730957</t>
+    <t xml:space="preserve">12.3285722732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5340480804443</t>
   </si>
   <si>
     <t xml:space="preserve">12.6834859848022</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2725324630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6561040878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.674783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8242225646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5627069473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0110168457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1978149414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2538537979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3098917007446</t>
+    <t xml:space="preserve">12.2725315093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6561050415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6747846603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8242216110229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5627059936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0110177993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1978139877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2538528442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3098926544189</t>
   </si>
   <si>
     <t xml:space="preserve">12.6087675094604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7768831253052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.075758934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3559532165527</t>
+    <t xml:space="preserve">12.7768850326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0757570266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3559522628784</t>
   </si>
   <si>
     <t xml:space="preserve">13.4493522644043</t>
@@ -800,13 +800,13 @@
     <t xml:space="preserve">13.5987892150879</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1591796875</t>
+    <t xml:space="preserve">14.1591777801514</t>
   </si>
   <si>
     <t xml:space="preserve">13.5614290237427</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2999153137207</t>
+    <t xml:space="preserve">13.2999134063721</t>
   </si>
   <si>
     <t xml:space="preserve">13.2065162658691</t>
@@ -815,70 +815,70 @@
     <t xml:space="preserve">12.478009223938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4406509399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3846111297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4966888427734</t>
+    <t xml:space="preserve">12.4406518936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3846120834351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4966897964478</t>
   </si>
   <si>
     <t xml:space="preserve">12.2912120819092</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3659315109253</t>
+    <t xml:space="preserve">12.3659324645996</t>
   </si>
   <si>
     <t xml:space="preserve">14.700888633728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0097427368164</t>
+    <t xml:space="preserve">14.0097408294678</t>
   </si>
   <si>
     <t xml:space="preserve">13.5053901672363</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2625551223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9449996948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7955636978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6461267471313</t>
+    <t xml:space="preserve">13.2625560760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9450006484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7955627441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.646125793457</t>
   </si>
   <si>
     <t xml:space="preserve">12.4593296051025</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8702821731567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.907642364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9823598861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.187837600708</t>
+    <t xml:space="preserve">12.8702831268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9076414108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9823608398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1878385543823</t>
   </si>
   <si>
     <t xml:space="preserve">13.1691570281982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4306726455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1504774093628</t>
+    <t xml:space="preserve">13.4306716918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1504764556885</t>
   </si>
   <si>
     <t xml:space="preserve">12.7395238876343</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4032907485962</t>
+    <t xml:space="preserve">12.4032917022705</t>
   </si>
   <si>
     <t xml:space="preserve">12.5527276992798</t>
@@ -887,13 +887,13 @@
     <t xml:space="preserve">12.5153684616089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9362983703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8615818023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3759107589722</t>
+    <t xml:space="preserve">11.9362993240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8615808486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3759088516235</t>
   </si>
   <si>
     <t xml:space="preserve">11.0957145690918</t>
@@ -902,55 +902,55 @@
     <t xml:space="preserve">11.1704339981079</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1143951416016</t>
+    <t xml:space="preserve">11.1143941879272</t>
   </si>
   <si>
     <t xml:space="preserve">10.8341989517212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3945894241333</t>
+    <t xml:space="preserve">11.394588470459</t>
   </si>
   <si>
     <t xml:space="preserve">11.2077922821045</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3572292327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3011913299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.450626373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.189112663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48926448822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47058486938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94755268096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62002277374268</t>
+    <t xml:space="preserve">11.3572311401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3011922836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4506282806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1891117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4892635345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47058391571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94755363464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62002182006836</t>
   </si>
   <si>
     <t xml:space="preserve">8.77943706512451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87283515930176</t>
+    <t xml:space="preserve">8.87283706665039</t>
   </si>
   <si>
     <t xml:space="preserve">8.2657470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30310726165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25640678405762</t>
+    <t xml:space="preserve">8.3031063079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25640869140625</t>
   </si>
   <si>
     <t xml:space="preserve">8.59264087677002</t>
@@ -959,19 +959,19 @@
     <t xml:space="preserve">8.49924278259277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71342086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7968406677246</t>
+    <t xml:space="preserve">9.71342182159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7968416213989</t>
   </si>
   <si>
     <t xml:space="preserve">9.84417819976807</t>
   </si>
   <si>
-    <t xml:space="preserve">10.367208480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3111696243286</t>
+    <t xml:space="preserve">10.3672094345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3111686706543</t>
   </si>
   <si>
     <t xml:space="preserve">9.78813934326172</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">10.0870151519775</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7781610488892</t>
+    <t xml:space="preserve">10.7781600952148</t>
   </si>
   <si>
     <t xml:space="preserve">11.7681827545166</t>
@@ -989,16 +989,16 @@
     <t xml:space="preserve">11.9549789428711</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5714063644409</t>
+    <t xml:space="preserve">12.5714073181152</t>
   </si>
   <si>
     <t xml:space="preserve">12.7021646499634</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8429012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8229446411133</t>
+    <t xml:space="preserve">11.8429002761841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.822943687439</t>
   </si>
   <si>
     <t xml:space="preserve">13.5801095962524</t>
@@ -1007,13 +1007,13 @@
     <t xml:space="preserve">13.7482261657715</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9997634887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1492004394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0371217727661</t>
+    <t xml:space="preserve">14.9997625350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1492013931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0371227264404</t>
   </si>
   <si>
     <t xml:space="preserve">14.3459749221802</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">14.7195682525635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5701313018799</t>
+    <t xml:space="preserve">14.5701303482056</t>
   </si>
   <si>
     <t xml:space="preserve">14.1404991149902</t>
@@ -1046,16 +1046,16 @@
     <t xml:space="preserve">14.2338962554932</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8976631164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9163436889648</t>
+    <t xml:space="preserve">13.8976640701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9163427352905</t>
   </si>
   <si>
     <t xml:space="preserve">13.7669057846069</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1778573989868</t>
+    <t xml:space="preserve">14.1778583526611</t>
   </si>
   <si>
     <t xml:space="preserve">14.4206943511963</t>
@@ -1064,58 +1064,58 @@
     <t xml:space="preserve">14.8129663467407</t>
   </si>
   <si>
+    <t xml:space="preserve">15.0931596755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603145599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9049663543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9990634918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8861474990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8673286437988</t>
+  </si>
+  <si>
     <t xml:space="preserve">15.0931615829468</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603155136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9049673080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9990634918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8861474990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8673286437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0931606292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3754510879517</t>
+    <t xml:space="preserve">15.375452041626</t>
   </si>
   <si>
     <t xml:space="preserve">15.3378133773804</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5260076522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4319095611572</t>
+    <t xml:space="preserve">15.526008605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4319086074829</t>
   </si>
   <si>
     <t xml:space="preserve">15.1119804382324</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7167730331421</t>
+    <t xml:space="preserve">14.7167739868164</t>
   </si>
   <si>
     <t xml:space="preserve">15.1872577667236</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0178842544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.754412651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2437162399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0367031097412</t>
+    <t xml:space="preserve">15.0178833007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7544116973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2437171936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0367040634155</t>
   </si>
   <si>
     <t xml:space="preserve">15.1307992935181</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">14.5850372314453</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6765604019165</t>
+    <t xml:space="preserve">15.6765613555908</t>
   </si>
   <si>
     <t xml:space="preserve">16.2787837982178</t>
@@ -1139,16 +1139,16 @@
     <t xml:space="preserve">17.0880184173584</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8031558990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8433647155762</t>
+    <t xml:space="preserve">17.8031578063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8433666229248</t>
   </si>
   <si>
     <t xml:space="preserve">16.9939212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5585041046143</t>
+    <t xml:space="preserve">17.5585021972656</t>
   </si>
   <si>
     <t xml:space="preserve">17.5396842956543</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">17.7843360900879</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6525993347168</t>
+    <t xml:space="preserve">17.6526012420654</t>
   </si>
   <si>
     <t xml:space="preserve">18.1230869293213</t>
@@ -1184,25 +1184,25 @@
     <t xml:space="preserve">18.8194046020508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2898864746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4618339538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3489189147949</t>
+    <t xml:space="preserve">19.289888381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4618358612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3489170074463</t>
   </si>
   <si>
     <t xml:space="preserve">18.1607246398926</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5020446777344</t>
+    <t xml:space="preserve">17.5020427703857</t>
   </si>
   <si>
     <t xml:space="preserve">18.0854473114014</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5961437225342</t>
+    <t xml:space="preserve">17.5961418151855</t>
   </si>
   <si>
     <t xml:space="preserve">17.9348888397217</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">17.0503787994385</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7869052886963</t>
+    <t xml:space="preserve">16.7869071960449</t>
   </si>
   <si>
     <t xml:space="preserve">15.9400339126587</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">16.5798931121826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0717697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4883670806885</t>
+    <t xml:space="preserve">16.0717716217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4883680343628</t>
   </si>
   <si>
     <t xml:space="preserve">15.8835754394531</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">16.4105186462402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5422534942627</t>
+    <t xml:space="preserve">16.5422554016113</t>
   </si>
   <si>
     <t xml:space="preserve">16.3917026519775</t>
@@ -1247,40 +1247,40 @@
     <t xml:space="preserve">16.9751014709473</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8245449066162</t>
+    <t xml:space="preserve">16.8245468139648</t>
   </si>
   <si>
     <t xml:space="preserve">16.4481582641602</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6175327301025</t>
+    <t xml:space="preserve">16.6175308227539</t>
   </si>
   <si>
     <t xml:space="preserve">16.4857978820801</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4669799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8057270050049</t>
+    <t xml:space="preserve">16.4669761657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8057289123535</t>
   </si>
   <si>
     <t xml:space="preserve">16.749267578125</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7304496765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8810062408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9374618530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.918643951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9023962020874</t>
+    <t xml:space="preserve">16.730447769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8810043334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.937463760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9186420440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9023971557617</t>
   </si>
   <si>
     <t xml:space="preserve">15.5448274612427</t>
@@ -1289,22 +1289,22 @@
     <t xml:space="preserve">15.0743427276611</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7920503616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6414957046509</t>
+    <t xml:space="preserve">14.792049407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6414966583252</t>
   </si>
   <si>
     <t xml:space="preserve">17.4455852508545</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6363506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7330198287964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9964904785156</t>
+    <t xml:space="preserve">16.6363525390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7330207824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9964895248413</t>
   </si>
   <si>
     <t xml:space="preserve">16.354061126709</t>
@@ -1325,10 +1325,10 @@
     <t xml:space="preserve">17.2009334564209</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7680912017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0315589904785</t>
+    <t xml:space="preserve">16.768087387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0315570831299</t>
   </si>
   <si>
     <t xml:space="preserve">17.0127410888672</t>
@@ -1337,10 +1337,10 @@
     <t xml:space="preserve">18.0289859771729</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2171802520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6688480377197</t>
+    <t xml:space="preserve">18.2171821594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6688499450684</t>
   </si>
   <si>
     <t xml:space="preserve">18.0478076934814</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">16.8621845245361</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6739921569824</t>
+    <t xml:space="preserve">16.6739902496338</t>
   </si>
   <si>
     <t xml:space="preserve">16.4293403625488</t>
@@ -1364,13 +1364,13 @@
     <t xml:space="preserve">17.1444759368896</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1846885681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9588527679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8647565841675</t>
+    <t xml:space="preserve">16.1846866607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9588537216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8647584915161</t>
   </si>
   <si>
     <t xml:space="preserve">15.7142009735107</t>
@@ -1391,34 +1391,34 @@
     <t xml:space="preserve">14.6226758956909</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2651081085205</t>
+    <t xml:space="preserve">14.2651071548462</t>
   </si>
   <si>
     <t xml:space="preserve">14.96142578125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6201038360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7518396377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7894773483276</t>
+    <t xml:space="preserve">15.6201028823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.751838684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7894763946533</t>
   </si>
   <si>
     <t xml:space="preserve">15.6389226913452</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8271169662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.582465171814</t>
+    <t xml:space="preserve">15.8271179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5824661254883</t>
   </si>
   <si>
     <t xml:space="preserve">15.563645362854</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7706604003906</t>
+    <t xml:space="preserve">15.7706594467163</t>
   </si>
   <si>
     <t xml:space="preserve">15.9776735305786</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">16.3352394104004</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2197551727295</t>
+    <t xml:space="preserve">17.2197570800781</t>
   </si>
   <si>
     <t xml:space="preserve">17.2573947906494</t>
@@ -1442,79 +1442,79 @@
     <t xml:space="preserve">17.8972511291504</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2548198699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7655162811279</t>
+    <t xml:space="preserve">18.2548217773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7655143737793</t>
   </si>
   <si>
     <t xml:space="preserve">18.6123905181885</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1983604431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2950325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6902370452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7278747558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8784313201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.854471206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9485683441162</t>
+    <t xml:space="preserve">18.1983623504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2950305938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6902389526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.727876663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8784332275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8544731140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9485645294189</t>
   </si>
   <si>
     <t xml:space="preserve">19.5721797943115</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6662750244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1367607116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.701343536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6072444915771</t>
+    <t xml:space="preserve">19.6662731170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1367626190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7013454437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6072463989258</t>
   </si>
   <si>
     <t xml:space="preserve">20.4190521240234</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2779064178467</t>
+    <t xml:space="preserve">20.2779083251953</t>
   </si>
   <si>
     <t xml:space="preserve">20.0897121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3720054626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7483921051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7954387664795</t>
+    <t xml:space="preserve">20.3720035552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7483940124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7954406738281</t>
   </si>
   <si>
     <t xml:space="preserve">21.3600215911865</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7364101409912</t>
+    <t xml:space="preserve">21.7364120483398</t>
   </si>
   <si>
     <t xml:space="preserve">22.1127986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4541187286377</t>
+    <t xml:space="preserve">21.4541206359863</t>
   </si>
   <si>
     <t xml:space="preserve">20.9836330413818</t>
@@ -1529,10 +1529,10 @@
     <t xml:space="preserve">19.6192264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3369369506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8764381408691</t>
+    <t xml:space="preserve">19.3369388580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8764400482178</t>
   </si>
   <si>
     <t xml:space="preserve">20.1130638122559</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">18.60813331604</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9110126495361</t>
+    <t xml:space="preserve">18.9110107421875</t>
   </si>
   <si>
     <t xml:space="preserve">18.6459941864014</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">18.9299449920654</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7785034179688</t>
+    <t xml:space="preserve">18.7785053253174</t>
   </si>
   <si>
     <t xml:space="preserve">20.2077140808105</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">20.9649105072021</t>
   </si>
   <si>
-    <t xml:space="preserve">21.438159942627</t>
+    <t xml:space="preserve">21.4381618499756</t>
   </si>
   <si>
     <t xml:space="preserve">22.2426834106445</t>
@@ -1622,19 +1622,19 @@
     <t xml:space="preserve">22.6212825775146</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1418533325195</t>
+    <t xml:space="preserve">23.1418552398682</t>
   </si>
   <si>
     <t xml:space="preserve">23.3784790039062</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6624279022217</t>
+    <t xml:space="preserve">23.6624298095703</t>
   </si>
   <si>
     <t xml:space="preserve">23.3311557769775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2365055084229</t>
+    <t xml:space="preserve">23.2365036010742</t>
   </si>
   <si>
     <t xml:space="preserve">23.7570781707764</t>
@@ -1661,505 +1661,508 @@
     <t xml:space="preserve">23.709753036499</t>
   </si>
   <si>
+    <t xml:space="preserve">23.0945281982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4258041381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.615104675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0410270690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9114093780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.864086151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2900085449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1007080078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.722110748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2961864471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0595607757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1068840026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9175872802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7282867431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3908348083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0060577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9875240325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8455505371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1768226623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6089248657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5615997314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.567777633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8044033050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3249759674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9937019348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4669494628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1356773376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.65625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7447204589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.602746963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8393726348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5554237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4607715606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4731273651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7159290313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4319839477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2838306427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4196262359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8928756713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7035751342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9401988983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0883522033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1830024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0348491668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.798225402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3661231994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3187980651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.674783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3435115814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.580135345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.586311340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9587326049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0122375488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4854831695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7694339752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.532808303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3970146179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.491662979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3558654785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7027816772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0184135437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8229389190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.497838973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3431148529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.453405380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1694583892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9422988891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4377632141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3241844177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7974338531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0657367706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8167591094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1480331420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4793071746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6274585723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6336364746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4443397521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1603889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8731536865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8352928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0533809661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3496894836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6809616088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.456693649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0970249176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0213050842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3398265838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3208999633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8914546966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.063232421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0250587463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5097255706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3761215209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9487133026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6549091339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0938968658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9412059783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3992786407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3801937103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3038463592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0863914489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7619209289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.704662322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9146118164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0748100280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5519714355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.723747253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8955268859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9929943084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3270053863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8995971679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9950294494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0904598236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.04274559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1858940124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.422435760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2356433868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8559513092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4265079498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6173725128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.76051902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1879272460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6153354644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8062000274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5676212310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1381759643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9473114013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5655841827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8021297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3747215270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0884246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8498458862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3726844787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7066974639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1838569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8975601196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3249702453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.134105682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1818218231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6855754852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4947109222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0557250976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3611068725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.845775604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5137977600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9030323028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.922119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1204929351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2656745910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2295379638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2315731048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9336986541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2847595214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4183673858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.647403717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1893272399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.34202003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6092300415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8041648864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7564487457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.661018371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6650867462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4762592315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.335147857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9554538726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5239753723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5716915130615</t>
+  </si>
+  <si>
     <t xml:space="preserve">23.0945301055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.425802230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6151065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0410289764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9114093780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.864086151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2900085449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1007080078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.722110748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2961845397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0595607757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1068859100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9175853729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7282886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3908348083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0060577392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9875240325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8455486297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1768226623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6089248657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5616016387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.567777633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8044013977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3249740600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9937038421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4669494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1356773376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.65625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.744722366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6027488708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8393726348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5554237365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4607734680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4731292724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7159309387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4319839477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2838287353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4196262359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8928737640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7035751342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9402008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0883522033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1830024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0348491668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.798225402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3661231994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3187980651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.674783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3435115814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.580135345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5863132476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9587326049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0122375488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4854850769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7694339752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.532808303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3970127105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4916648864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3558654785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7027835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0184135437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8229389190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.497838973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3431148529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.453405380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1694583892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9422988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4377632141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3241844177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7974338531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0657386779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8167572021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1480331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4793071746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6274585723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6336364746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4443397521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1603889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8731536865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8352928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0533828735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3496894836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6809616088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.456693649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0970230102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0213050842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3398265838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3208999633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8914546966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.063232421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0250587463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5097255706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3761215209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9487133026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6549091339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0938968658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9412059783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3992786407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3801937103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3038463592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0863914489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7619209289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.704662322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9146118164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0748100280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5519714355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.723747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8955268859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9929943084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3270053863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8995971679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9950294494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0904598236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.04274559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1858940124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.422435760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2356433868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8559513092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4265079498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6173725128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.76051902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1879272460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6153354644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8062000274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5676212310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1381759643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9473114013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5655841827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8021297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3747215270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0884246826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8498458862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3726844787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7066974639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1838569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8975601196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3249702453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.134105682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1818218231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6855754852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4947109222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0557250976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3611068725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.845775604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5137977600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9030323028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.922119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1204929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2656745910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2295379638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2315731048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9336986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2847595214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4183673858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.647403717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1893272399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.34202003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6092300415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8041648864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7564487457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.661018371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6650867462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4762592315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.335147857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9554538726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5239753723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5716915130615</t>
   </si>
   <si>
     <t xml:space="preserve">23.8579864501953</t>
@@ -32737,7 +32740,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1133" t="s">
-        <v>549</v>
+        <v>716</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32789,7 +32792,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1135" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32841,7 +32844,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1137" t="s">
-        <v>549</v>
+        <v>716</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32893,7 +32896,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1139" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32945,7 +32948,7 @@
         <v>23.4497299194336</v>
       </c>
       <c r="G1141" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32971,7 +32974,7 @@
         <v>23.3526306152344</v>
       </c>
       <c r="G1142" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32997,7 +33000,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1143" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -33023,7 +33026,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1144" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -33049,7 +33052,7 @@
         <v>22.7214775085449</v>
       </c>
       <c r="G1145" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -33075,7 +33078,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1146" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -33101,7 +33104,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1147" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -33127,7 +33130,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1148" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33153,7 +33156,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G1149" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33205,7 +33208,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1151" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33231,7 +33234,7 @@
         <v>23.7410316467285</v>
       </c>
       <c r="G1152" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33257,7 +33260,7 @@
         <v>22.9642276763916</v>
       </c>
       <c r="G1153" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33283,7 +33286,7 @@
         <v>22.5272769927979</v>
       </c>
       <c r="G1154" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33309,7 +33312,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1155" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33335,7 +33338,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1156" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33413,7 +33416,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1159" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33517,7 +33520,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1163" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33543,7 +33546,7 @@
         <v>22.2845268249512</v>
       </c>
       <c r="G1164" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33569,7 +33572,7 @@
         <v>22.1388759613037</v>
       </c>
       <c r="G1165" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33595,7 +33598,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1166" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33647,7 +33650,7 @@
         <v>22.2359752655029</v>
       </c>
       <c r="G1168" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33673,7 +33676,7 @@
         <v>22.0903244018555</v>
       </c>
       <c r="G1169" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33699,7 +33702,7 @@
         <v>21.896125793457</v>
       </c>
       <c r="G1170" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33725,7 +33728,7 @@
         <v>22.2845268249512</v>
       </c>
       <c r="G1171" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33751,7 +33754,7 @@
         <v>22.4787273406982</v>
       </c>
       <c r="G1172" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33777,7 +33780,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1173" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33803,7 +33806,7 @@
         <v>22.9642276763916</v>
       </c>
       <c r="G1174" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33829,7 +33832,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1175" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33881,7 +33884,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1177" t="s">
-        <v>549</v>
+        <v>716</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33907,7 +33910,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1178" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33985,7 +33988,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1181" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -34011,7 +34014,7 @@
         <v>22.4787273406982</v>
       </c>
       <c r="G1182" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34037,7 +34040,7 @@
         <v>22.0417747497559</v>
       </c>
       <c r="G1183" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34089,7 +34092,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G1185" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -34141,7 +34144,7 @@
         <v>25.2946357727051</v>
       </c>
       <c r="G1187" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34167,7 +34170,7 @@
         <v>24.5663833618164</v>
       </c>
       <c r="G1188" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34219,7 +34222,7 @@
         <v>24.8576850891113</v>
       </c>
       <c r="G1190" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34245,7 +34248,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1191" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34271,7 +34274,7 @@
         <v>25.9257888793945</v>
       </c>
       <c r="G1192" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34297,7 +34300,7 @@
         <v>25.5373878479004</v>
       </c>
       <c r="G1193" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34323,7 +34326,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1194" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34349,7 +34352,7 @@
         <v>25.3431873321533</v>
       </c>
       <c r="G1195" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34375,7 +34378,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1196" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34427,7 +34430,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G1198" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34453,7 +34456,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G1199" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34479,7 +34482,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1200" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34505,7 +34508,7 @@
         <v>26.3627395629883</v>
       </c>
       <c r="G1201" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34531,7 +34534,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G1202" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34557,7 +34560,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1203" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34583,7 +34586,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G1204" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34609,7 +34612,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G1205" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34635,7 +34638,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1206" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34661,7 +34664,7 @@
         <v>25.9257888793945</v>
       </c>
       <c r="G1207" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34687,7 +34690,7 @@
         <v>26.1685390472412</v>
       </c>
       <c r="G1208" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34713,7 +34716,7 @@
         <v>26.4112892150879</v>
       </c>
       <c r="G1209" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34739,7 +34742,7 @@
         <v>25.9743385314941</v>
       </c>
       <c r="G1210" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34765,7 +34768,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1211" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34791,7 +34794,7 @@
         <v>24.1779823303223</v>
       </c>
       <c r="G1212" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34817,7 +34820,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1213" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34869,7 +34872,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1215" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34895,7 +34898,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1216" t="s">
-        <v>549</v>
+        <v>716</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34921,7 +34924,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G1217" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34947,7 +34950,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G1218" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34973,7 +34976,7 @@
         <v>23.5468292236328</v>
       </c>
       <c r="G1219" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34999,7 +35002,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1220" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -35025,7 +35028,7 @@
         <v>23.5468292236328</v>
       </c>
       <c r="G1221" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35051,7 +35054,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1222" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -35077,7 +35080,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G1223" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -35103,7 +35106,7 @@
         <v>24.2265338897705</v>
       </c>
       <c r="G1224" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -35129,7 +35132,7 @@
         <v>24.6149349212646</v>
       </c>
       <c r="G1225" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -35155,7 +35158,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1226" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35181,7 +35184,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1227" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35207,7 +35210,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1228" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35233,7 +35236,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G1229" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35259,7 +35262,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1230" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35285,7 +35288,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1231" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35311,7 +35314,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1232" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35337,7 +35340,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G1233" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35363,7 +35366,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1234" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35389,7 +35392,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1235" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35467,7 +35470,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1238" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35519,7 +35522,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1240" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35571,7 +35574,7 @@
         <v>21.8475742340088</v>
       </c>
       <c r="G1242" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35597,7 +35600,7 @@
         <v>23.2069797515869</v>
       </c>
       <c r="G1243" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35623,7 +35626,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1244" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35649,7 +35652,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1245" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35675,7 +35678,7 @@
         <v>22.915678024292</v>
       </c>
       <c r="G1246" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35727,7 +35730,7 @@
         <v>23.2069797515869</v>
       </c>
       <c r="G1248" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35779,7 +35782,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1250" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35805,7 +35808,7 @@
         <v>24.2265338897705</v>
       </c>
       <c r="G1251" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35831,7 +35834,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1252" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35857,7 +35860,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1253" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35883,7 +35886,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G1254" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35909,7 +35912,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1255" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35935,7 +35938,7 @@
         <v>23.5468292236328</v>
       </c>
       <c r="G1256" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35961,7 +35964,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G1257" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35987,7 +35990,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1258" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -36013,7 +36016,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1259" t="s">
-        <v>549</v>
+        <v>716</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -36091,7 +36094,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1262" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -36117,7 +36120,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1263" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -36143,7 +36146,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1264" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -36169,7 +36172,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1265" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36195,7 +36198,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G1266" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36221,7 +36224,7 @@
         <v>25.6830387115479</v>
       </c>
       <c r="G1267" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36247,7 +36250,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1268" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36273,7 +36276,7 @@
         <v>27.1395435333252</v>
       </c>
       <c r="G1269" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36299,7 +36302,7 @@
         <v>27.0424423217773</v>
       </c>
       <c r="G1270" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36325,7 +36328,7 @@
         <v>27.285192489624</v>
       </c>
       <c r="G1271" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36351,7 +36354,7 @@
         <v>26.8482418060303</v>
       </c>
       <c r="G1272" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36377,7 +36380,7 @@
         <v>26.4598407745361</v>
       </c>
       <c r="G1273" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36403,7 +36406,7 @@
         <v>27.0424423217773</v>
       </c>
       <c r="G1274" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36429,7 +36432,7 @@
         <v>27.1880931854248</v>
       </c>
       <c r="G1275" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36455,7 +36458,7 @@
         <v>27.1880931854248</v>
       </c>
       <c r="G1276" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36481,7 +36484,7 @@
         <v>27.1880931854248</v>
       </c>
       <c r="G1277" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36507,7 +36510,7 @@
         <v>27.3337421417236</v>
       </c>
       <c r="G1278" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36533,7 +36536,7 @@
         <v>26.7996921539307</v>
       </c>
       <c r="G1279" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36559,7 +36562,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1280" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36585,7 +36588,7 @@
         <v>26.1199893951416</v>
       </c>
       <c r="G1281" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36611,7 +36614,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1282" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36637,7 +36640,7 @@
         <v>26.3141899108887</v>
       </c>
       <c r="G1283" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36663,7 +36666,7 @@
         <v>26.071439743042</v>
       </c>
       <c r="G1284" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36689,7 +36692,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1285" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36715,7 +36718,7 @@
         <v>26.3627395629883</v>
       </c>
       <c r="G1286" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36741,7 +36744,7 @@
         <v>26.5569400787354</v>
       </c>
       <c r="G1287" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36767,7 +36770,7 @@
         <v>26.7996921539307</v>
       </c>
       <c r="G1288" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36793,7 +36796,7 @@
         <v>25.9743385314941</v>
       </c>
       <c r="G1289" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36819,7 +36822,7 @@
         <v>26.6054916381836</v>
       </c>
       <c r="G1290" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36845,7 +36848,7 @@
         <v>26.3627395629883</v>
       </c>
       <c r="G1291" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36871,7 +36874,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G1292" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36897,7 +36900,7 @@
         <v>26.4112892150879</v>
       </c>
       <c r="G1293" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36923,7 +36926,7 @@
         <v>26.1199893951416</v>
       </c>
       <c r="G1294" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36949,7 +36952,7 @@
         <v>26.2656402587891</v>
       </c>
       <c r="G1295" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36975,7 +36978,7 @@
         <v>25.5859375</v>
       </c>
       <c r="G1296" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -37001,7 +37004,7 @@
         <v>25.6830387115479</v>
       </c>
       <c r="G1297" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -37027,7 +37030,7 @@
         <v>25.7315883636475</v>
       </c>
       <c r="G1298" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -37053,7 +37056,7 @@
         <v>25.4888362884521</v>
       </c>
       <c r="G1299" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -37079,7 +37082,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1300" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -37105,7 +37108,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1301" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -37131,7 +37134,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1302" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -37157,7 +37160,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G1303" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37183,7 +37186,7 @@
         <v>25.1489868164062</v>
       </c>
       <c r="G1304" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37209,7 +37212,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1305" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37235,7 +37238,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G1306" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37261,7 +37264,7 @@
         <v>25.3917369842529</v>
       </c>
       <c r="G1307" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37287,7 +37290,7 @@
         <v>25.1489868164062</v>
       </c>
       <c r="G1308" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37313,7 +37316,7 @@
         <v>25.2946357727051</v>
       </c>
       <c r="G1309" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37339,7 +37342,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G1310" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37365,7 +37368,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1311" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37391,7 +37394,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G1312" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37417,7 +37420,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1313" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37443,7 +37446,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1314" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37469,7 +37472,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G1315" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37495,7 +37498,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1316" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37521,7 +37524,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1317" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37547,7 +37550,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1318" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37573,7 +37576,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1319" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37599,7 +37602,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G1320" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37625,7 +37628,7 @@
         <v>24.7605857849121</v>
       </c>
       <c r="G1321" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37651,7 +37654,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G1322" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37677,7 +37680,7 @@
         <v>24.5178337097168</v>
       </c>
       <c r="G1323" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37703,7 +37706,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G1324" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37729,7 +37732,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1325" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37755,7 +37758,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1326" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37781,7 +37784,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1327" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37807,7 +37810,7 @@
         <v>24.8576850891113</v>
       </c>
       <c r="G1328" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37833,7 +37836,7 @@
         <v>24.8576850891113</v>
       </c>
       <c r="G1329" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37859,7 +37862,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G1330" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37885,7 +37888,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G1331" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37911,7 +37914,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1332" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37937,7 +37940,7 @@
         <v>25.3917369842529</v>
       </c>
       <c r="G1333" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37963,7 +37966,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1334" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37989,7 +37992,7 @@
         <v>25.5859375</v>
       </c>
       <c r="G1335" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -38015,7 +38018,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1336" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -38041,7 +38044,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G1337" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -38067,7 +38070,7 @@
         <v>23.886682510376</v>
       </c>
       <c r="G1338" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -38093,7 +38096,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G1339" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -38119,7 +38122,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G1340" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -38145,7 +38148,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G1341" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -38171,7 +38174,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1342" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -38197,7 +38200,7 @@
         <v>23.3040790557861</v>
       </c>
       <c r="G1343" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -38223,7 +38226,7 @@
         <v>22.4301776885986</v>
       </c>
       <c r="G1344" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -38249,7 +38252,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1345" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38275,7 +38278,7 @@
         <v>21.5562744140625</v>
       </c>
       <c r="G1346" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -38301,7 +38304,7 @@
         <v>21.4591732025146</v>
       </c>
       <c r="G1347" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38327,7 +38330,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1348" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38353,7 +38356,7 @@
         <v>20.9736728668213</v>
       </c>
       <c r="G1349" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38379,7 +38382,7 @@
         <v>21.7019233703613</v>
       </c>
       <c r="G1350" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38405,7 +38408,7 @@
         <v>21.7019233703613</v>
       </c>
       <c r="G1351" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38431,7 +38434,7 @@
         <v>22.0417747497559</v>
       </c>
       <c r="G1352" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38457,7 +38460,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1353" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38483,7 +38486,7 @@
         <v>21.6533737182617</v>
       </c>
       <c r="G1354" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38509,7 +38512,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1355" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38535,7 +38538,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1356" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38561,7 +38564,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G1357" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38587,7 +38590,7 @@
         <v>20.4396190643311</v>
       </c>
       <c r="G1358" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38613,7 +38616,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1359" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38639,7 +38642,7 @@
         <v>21.5077228546143</v>
       </c>
       <c r="G1360" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38665,7 +38668,7 @@
         <v>21.7019233703613</v>
       </c>
       <c r="G1361" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38691,7 +38694,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G1362" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38717,7 +38720,7 @@
         <v>21.0222225189209</v>
       </c>
       <c r="G1363" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38743,7 +38746,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1364" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38769,7 +38772,7 @@
         <v>19.2841262817383</v>
       </c>
       <c r="G1365" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38795,7 +38798,7 @@
         <v>19.759916305542</v>
       </c>
       <c r="G1366" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38821,7 +38824,7 @@
         <v>18.9734058380127</v>
       </c>
       <c r="G1367" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38847,7 +38850,7 @@
         <v>18.8763046264648</v>
       </c>
       <c r="G1368" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38873,7 +38876,7 @@
         <v>18.8568840026855</v>
       </c>
       <c r="G1369" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38899,7 +38902,7 @@
         <v>18.3713836669922</v>
       </c>
       <c r="G1370" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38925,7 +38928,7 @@
         <v>18.0800819396973</v>
       </c>
       <c r="G1371" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38951,7 +38954,7 @@
         <v>18.0218200683594</v>
       </c>
       <c r="G1372" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38977,7 +38980,7 @@
         <v>18.1966018676758</v>
       </c>
       <c r="G1373" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -39003,7 +39006,7 @@
         <v>19.1093444824219</v>
       </c>
       <c r="G1374" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -39029,7 +39032,7 @@
         <v>19.1870250701904</v>
       </c>
       <c r="G1375" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -39055,7 +39058,7 @@
         <v>20.2939682006836</v>
       </c>
       <c r="G1376" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -39081,7 +39084,7 @@
         <v>20.5852699279785</v>
       </c>
       <c r="G1377" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -39107,7 +39110,7 @@
         <v>20.1968688964844</v>
       </c>
       <c r="G1378" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -39133,7 +39136,7 @@
         <v>20.8765716552734</v>
       </c>
       <c r="G1379" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -39159,7 +39162,7 @@
         <v>21.1678714752197</v>
       </c>
       <c r="G1380" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -39185,7 +39188,7 @@
         <v>21.6533737182617</v>
       </c>
       <c r="G1381" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39211,7 +39214,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1382" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -39237,7 +39240,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1383" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39263,7 +39266,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1384" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39289,7 +39292,7 @@
         <v>22.1874256134033</v>
       </c>
       <c r="G1385" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -39315,7 +39318,7 @@
         <v>20.9736728668213</v>
       </c>
       <c r="G1386" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39341,7 +39344,7 @@
         <v>21.0222225189209</v>
       </c>
       <c r="G1387" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39367,7 +39370,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1388" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39393,7 +39396,7 @@
         <v>20.25</v>
       </c>
       <c r="G1389" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39419,7 +39422,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1390" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39445,7 +39448,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1391" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39471,7 +39474,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1392" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39497,7 +39500,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1393" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39523,7 +39526,7 @@
         <v>22.5</v>
       </c>
       <c r="G1394" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39549,7 +39552,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1395" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39575,7 +39578,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1396" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39601,7 +39604,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1397" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39627,7 +39630,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1398" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39653,7 +39656,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1399" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39679,7 +39682,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1400" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39705,7 +39708,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1401" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39731,7 +39734,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1402" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39757,7 +39760,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1403" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39783,7 +39786,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1404" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39809,7 +39812,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1405" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39835,7 +39838,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1406" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39861,7 +39864,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1407" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39887,7 +39890,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1408" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39913,7 +39916,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1409" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39939,7 +39942,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G1410" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39965,7 +39968,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1411" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39991,7 +39994,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1412" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -40017,7 +40020,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1413" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -40043,7 +40046,7 @@
         <v>24.75</v>
       </c>
       <c r="G1414" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -40069,7 +40072,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1415" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -40095,7 +40098,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1416" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -40121,7 +40124,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1417" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -40147,7 +40150,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1418" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -40173,7 +40176,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -40199,7 +40202,7 @@
         <v>23.25</v>
       </c>
       <c r="G1420" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40225,7 +40228,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1421" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40251,7 +40254,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1422" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40277,7 +40280,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1423" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40303,7 +40306,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1424" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40329,7 +40332,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1425" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40355,7 +40358,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1426" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40381,7 +40384,7 @@
         <v>22.5</v>
       </c>
       <c r="G1427" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40407,7 +40410,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1428" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40433,7 +40436,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1429" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40459,7 +40462,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1430" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40485,7 +40488,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1431" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40511,7 +40514,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40537,7 +40540,7 @@
         <v>22.25</v>
       </c>
       <c r="G1433" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40563,7 +40566,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1434" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40589,7 +40592,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1435" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40615,7 +40618,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1436" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40641,7 +40644,7 @@
         <v>22.5</v>
       </c>
       <c r="G1437" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40667,7 +40670,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1438" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40693,7 +40696,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1439" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40719,7 +40722,7 @@
         <v>22.25</v>
       </c>
       <c r="G1440" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40745,7 +40748,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1441" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40771,7 +40774,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1442" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40797,7 +40800,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1443" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40823,7 +40826,7 @@
         <v>22.75</v>
       </c>
       <c r="G1444" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40849,7 +40852,7 @@
         <v>22.5</v>
       </c>
       <c r="G1445" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40875,7 +40878,7 @@
         <v>22.25</v>
       </c>
       <c r="G1446" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40901,7 +40904,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1447" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40927,7 +40930,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1448" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40953,7 +40956,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1449" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40979,7 +40982,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1450" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -41005,7 +41008,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1451" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -41031,7 +41034,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1452" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -41057,7 +41060,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1453" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -41083,7 +41086,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1454" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -41109,7 +41112,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1455" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -41135,7 +41138,7 @@
         <v>22</v>
       </c>
       <c r="G1456" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -41161,7 +41164,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1457" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -41187,7 +41190,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1458" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41213,7 +41216,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1459" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41239,7 +41242,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1460" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41265,7 +41268,7 @@
         <v>21.5</v>
       </c>
       <c r="G1461" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41291,7 +41294,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1462" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41317,7 +41320,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1463" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41343,7 +41346,7 @@
         <v>20</v>
       </c>
       <c r="G1464" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41369,7 +41372,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G1465" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41395,7 +41398,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G1466" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41421,7 +41424,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1467" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41447,7 +41450,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1468" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41473,7 +41476,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1469" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41499,7 +41502,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G1470" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41525,7 +41528,7 @@
         <v>19.5</v>
       </c>
       <c r="G1471" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41551,7 +41554,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G1472" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41577,7 +41580,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1473" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41603,7 +41606,7 @@
         <v>19.8600006103516</v>
       </c>
       <c r="G1474" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41629,7 +41632,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1475" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41655,7 +41658,7 @@
         <v>20.5</v>
       </c>
       <c r="G1476" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41681,7 +41684,7 @@
         <v>21</v>
       </c>
       <c r="G1477" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41707,7 +41710,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1478" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41733,7 +41736,7 @@
         <v>20.5</v>
       </c>
       <c r="G1479" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41759,7 +41762,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1480" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41785,7 +41788,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41811,7 +41814,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G1482" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41837,7 +41840,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1483" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41863,7 +41866,7 @@
         <v>19.8199996948242</v>
       </c>
       <c r="G1484" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41889,7 +41892,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G1485" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41915,7 +41918,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G1486" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41941,7 +41944,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1487" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41967,7 +41970,7 @@
         <v>19.0799999237061</v>
       </c>
       <c r="G1488" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41993,7 +41996,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1489" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -42019,7 +42022,7 @@
         <v>18.5</v>
       </c>
       <c r="G1490" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -42045,7 +42048,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1491" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -42071,7 +42074,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1492" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -42097,7 +42100,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1493" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -42123,7 +42126,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1494" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -42149,7 +42152,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1495" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -42175,7 +42178,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G1496" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -42201,7 +42204,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1497" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42227,7 +42230,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1498" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42253,7 +42256,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1499" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42279,7 +42282,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1500" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42305,7 +42308,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G1501" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42331,7 +42334,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1502" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42357,7 +42360,7 @@
         <v>19.2199993133545</v>
       </c>
       <c r="G1503" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42383,7 +42386,7 @@
         <v>19.0799999237061</v>
       </c>
       <c r="G1504" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42409,7 +42412,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1505" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42435,7 +42438,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1506" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42461,7 +42464,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G1507" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42487,7 +42490,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1508" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42513,7 +42516,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G1509" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42539,7 +42542,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1510" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42565,7 +42568,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1511" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42591,7 +42594,7 @@
         <v>18.4599990844727</v>
       </c>
       <c r="G1512" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42617,7 +42620,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1513" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42643,7 +42646,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1514" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42669,7 +42672,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G1515" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42695,7 +42698,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1516" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42721,7 +42724,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1517" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42747,7 +42750,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1518" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42773,7 +42776,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1519" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42799,7 +42802,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1520" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42825,7 +42828,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1521" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42851,7 +42854,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1522" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42877,7 +42880,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1523" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42903,7 +42906,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G1524" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42929,7 +42932,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1525" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42955,7 +42958,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1526" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42981,7 +42984,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1527" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -43007,7 +43010,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1528" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -43033,7 +43036,7 @@
         <v>18</v>
       </c>
       <c r="G1529" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -43059,7 +43062,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1530" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43085,7 +43088,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1531" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43111,7 +43114,7 @@
         <v>17</v>
       </c>
       <c r="G1532" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -43137,7 +43140,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1533" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43163,7 +43166,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1534" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -43189,7 +43192,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1535" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43215,7 +43218,7 @@
         <v>17.5</v>
       </c>
       <c r="G1536" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43241,7 +43244,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1537" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43267,7 +43270,7 @@
         <v>17.5</v>
       </c>
       <c r="G1538" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43293,7 +43296,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1539" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43319,7 +43322,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1540" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43345,7 +43348,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1541" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43371,7 +43374,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1542" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43397,7 +43400,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1543" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43423,7 +43426,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1544" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43449,7 +43452,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G1545" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43475,7 +43478,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1546" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43501,7 +43504,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1547" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43527,7 +43530,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G1548" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43553,7 +43556,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G1549" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43579,7 +43582,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1550" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43605,7 +43608,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1551" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43631,7 +43634,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1552" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43657,7 +43660,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G1553" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43683,7 +43686,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1554" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43709,7 +43712,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1555" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43735,7 +43738,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1556" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43761,7 +43764,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G1557" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43787,7 +43790,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1558" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43813,7 +43816,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1559" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43839,7 +43842,7 @@
         <v>17</v>
       </c>
       <c r="G1560" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43865,7 +43868,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1561" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43891,7 +43894,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1562" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43899,7 +43902,7 @@
     </row>
     <row r="1563">
       <c r="A1563" s="1" t="n">
-        <v>45503.6494560185</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B1563" t="n">
         <v>40403</v>
@@ -43917,9 +43920,35 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1563" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1563" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="1" t="n">
+        <v>45504.6493634259</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>67466</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>17.1399993896484</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>16.7000007629395</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>16.8799991607666</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>17.0599994659424</v>
+      </c>
+      <c r="G1564" t="s">
+        <v>961</v>
+      </c>
+      <c r="H1564" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -44,13 +44,13 @@
     <t xml:space="preserve">CRL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95949506759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86694383621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77439260482788</t>
+    <t xml:space="preserve">7.95949554443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.866943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77439212799072</t>
   </si>
   <si>
     <t xml:space="preserve">7.74477338790894</t>
@@ -65,16 +65,16 @@
     <t xml:space="preserve">7.72903966903687</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03353691101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49766063690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35512924194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57910585403442</t>
+    <t xml:space="preserve">8.03353595733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4976601600647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35512971878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57910633087158</t>
   </si>
   <si>
     <t xml:space="preserve">7.51987266540527</t>
@@ -89,28 +89,28 @@
     <t xml:space="preserve">7.5800313949585</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59854221343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7022008895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85768890380859</t>
+    <t xml:space="preserve">7.5985426902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70220041275024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85768938064575</t>
   </si>
   <si>
     <t xml:space="preserve">7.91321992874146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97893285751343</t>
+    <t xml:space="preserve">7.97893238067627</t>
   </si>
   <si>
     <t xml:space="preserve">8.06130504608154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92247486114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07703685760498</t>
+    <t xml:space="preserve">7.9224739074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0770378112793</t>
   </si>
   <si>
     <t xml:space="preserve">7.87064599990845</t>
@@ -119,40 +119,40 @@
     <t xml:space="preserve">7.8206672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90766668319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74847602844238</t>
+    <t xml:space="preserve">7.90766620635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74847650527954</t>
   </si>
   <si>
     <t xml:space="preserve">7.84843301773071</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80215740203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94561433792114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6179780960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72811412811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84103012084961</t>
+    <t xml:space="preserve">7.80215692520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94561290740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61797857284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72811460494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84102964401245</t>
   </si>
   <si>
     <t xml:space="preserve">7.80400848388672</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0520486831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11776161193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17236614227295</t>
+    <t xml:space="preserve">8.05204963684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11776065826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17236518859863</t>
   </si>
   <si>
     <t xml:space="preserve">8.36302471160889</t>
@@ -161,28 +161,28 @@
     <t xml:space="preserve">8.5240650177002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54720211029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81652927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02384757995605</t>
+    <t xml:space="preserve">8.54720115661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8165283203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02384853363037</t>
   </si>
   <si>
     <t xml:space="preserve">8.66289234161377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34821605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31119441986084</t>
+    <t xml:space="preserve">8.34821510314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31119346618652</t>
   </si>
   <si>
     <t xml:space="preserve">8.53054237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4222583770752</t>
+    <t xml:space="preserve">8.42225933074951</t>
   </si>
   <si>
     <t xml:space="preserve">8.51480960845947</t>
@@ -191,13 +191,13 @@
     <t xml:space="preserve">8.77395629882812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81097602844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67770099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72768020629883</t>
+    <t xml:space="preserve">8.8109769821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67770004272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72767925262451</t>
   </si>
   <si>
     <t xml:space="preserve">8.857253074646</t>
@@ -206,25 +206,25 @@
     <t xml:space="preserve">9.07012271881104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93222141265869</t>
+    <t xml:space="preserve">8.93222045898438</t>
   </si>
   <si>
     <t xml:space="preserve">9.18118572235107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20895099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40331172943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16267585754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18211078643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05531311035156</t>
+    <t xml:space="preserve">9.20895195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40331077575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16267681121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1821117401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05531406402588</t>
   </si>
   <si>
     <t xml:space="preserve">9.25152683258057</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">9.12657833099365</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08863258361816</t>
+    <t xml:space="preserve">9.08863162994385</t>
   </si>
   <si>
     <t xml:space="preserve">8.82856178283691</t>
@@ -245,10 +245,10 @@
     <t xml:space="preserve">9.10714340209961</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96553897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73323154449463</t>
+    <t xml:space="preserve">8.96553993225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73323249816895</t>
   </si>
   <si>
     <t xml:space="preserve">8.56848907470703</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">8.60736274719238</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65363788604736</t>
+    <t xml:space="preserve">8.653639793396</t>
   </si>
   <si>
     <t xml:space="preserve">8.69991397857666</t>
@@ -278,28 +278,28 @@
     <t xml:space="preserve">8.08721733093262</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80678510665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97800588607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40189552307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83781719207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84059429168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81745433807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5666389465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66104316711426</t>
+    <t xml:space="preserve">7.80678558349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97800540924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40189647674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83781623840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8405933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81745529174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56663799285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66104125976562</t>
   </si>
   <si>
     <t xml:space="preserve">8.76377487182617</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">8.63882923126221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45279979705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40097141265869</t>
+    <t xml:space="preserve">8.45279884338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40097045898438</t>
   </si>
   <si>
     <t xml:space="preserve">8.62217044830322</t>
@@ -320,46 +320,46 @@
     <t xml:space="preserve">8.7822847366333</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11220741271973</t>
+    <t xml:space="preserve">8.11220836639404</t>
   </si>
   <si>
     <t xml:space="preserve">8.09925079345703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14460182189941</t>
+    <t xml:space="preserve">8.1446008682251</t>
   </si>
   <si>
     <t xml:space="preserve">8.24733352661133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61013889312744</t>
+    <t xml:space="preserve">8.61013793945312</t>
   </si>
   <si>
     <t xml:space="preserve">8.39449119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57034206390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98497581481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10344123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03865432739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0812292098999</t>
+    <t xml:space="preserve">8.57034111022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98497486114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10344219207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03865528106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08123016357422</t>
   </si>
   <si>
     <t xml:space="preserve">9.21820735931396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91278553009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14416313171387</t>
+    <t xml:space="preserve">8.91278457641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14416408538818</t>
   </si>
   <si>
     <t xml:space="preserve">8.91926383972168</t>
@@ -371,19 +371,19 @@
     <t xml:space="preserve">8.29268264770508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32970428466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39726734161377</t>
+    <t xml:space="preserve">8.32970523834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39726829528809</t>
   </si>
   <si>
     <t xml:space="preserve">8.25936412811279</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46390438079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33340740203857</t>
+    <t xml:space="preserve">8.46390533447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33340835571289</t>
   </si>
   <si>
     <t xml:space="preserve">8.35746955871582</t>
@@ -395,7 +395,7 @@
     <t xml:space="preserve">8.49629783630371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28342914581299</t>
+    <t xml:space="preserve">8.2834300994873</t>
   </si>
   <si>
     <t xml:space="preserve">8.41392707824707</t>
@@ -404,28 +404,28 @@
     <t xml:space="preserve">8.2797269821167</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21123886108398</t>
+    <t xml:space="preserve">8.21123790740967</t>
   </si>
   <si>
     <t xml:space="preserve">8.45927810668945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48704528808594</t>
+    <t xml:space="preserve">8.48704433441162</t>
   </si>
   <si>
     <t xml:space="preserve">8.54442596435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77210426330566</t>
+    <t xml:space="preserve">8.77210521697998</t>
   </si>
   <si>
     <t xml:space="preserve">8.83411407470703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78320980072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16545295715332</t>
+    <t xml:space="preserve">8.78321075439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.165452003479</t>
   </si>
   <si>
     <t xml:space="preserve">9.13028144836426</t>
@@ -434,31 +434,31 @@
     <t xml:space="preserve">8.96183681488037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89797687530518</t>
+    <t xml:space="preserve">8.89797592163086</t>
   </si>
   <si>
     <t xml:space="preserve">9.04143238067627</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11639881134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30150508880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27188682556152</t>
+    <t xml:space="preserve">9.11639976501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30150413513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27188777923584</t>
   </si>
   <si>
     <t xml:space="preserve">9.42922592163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46254539489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67911624908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71798801422119</t>
+    <t xml:space="preserve">9.46254444122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67911720275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71798896789551</t>
   </si>
   <si>
     <t xml:space="preserve">9.76426696777344</t>
@@ -467,34 +467,34 @@
     <t xml:space="preserve">9.6624584197998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71243762969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38665103912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68652153015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5606517791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57916069030762</t>
+    <t xml:space="preserve">9.71243572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38665199279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68652057647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56065082550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5791597366333</t>
   </si>
   <si>
     <t xml:space="preserve">9.35148239135742</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53103256225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3977575302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19414329528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.329270362854</t>
+    <t xml:space="preserve">9.53103351593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39775848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1941442489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32926940917969</t>
   </si>
   <si>
     <t xml:space="preserve">9.21265506744385</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">9.12565422058105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00533580780029</t>
+    <t xml:space="preserve">9.00533676147461</t>
   </si>
   <si>
     <t xml:space="preserve">8.43799209594727</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">8.82300758361816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07104873657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25522804260254</t>
+    <t xml:space="preserve">9.07104778289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25522994995117</t>
   </si>
   <si>
     <t xml:space="preserve">9.03310203552246</t>
@@ -527,22 +527,22 @@
     <t xml:space="preserve">9.51437377929688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45884323120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81054210662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53288459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60692596435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82905292510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75500965118408</t>
+    <t xml:space="preserve">9.45884227752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8105411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.532883644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60692691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82905101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7550106048584</t>
   </si>
   <si>
     <t xml:space="preserve">9.97713470458984</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">10.1252193450928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86607456207275</t>
+    <t xml:space="preserve">9.86607360839844</t>
   </si>
   <si>
     <t xml:space="preserve">9.99564743041992</t>
@@ -563,25 +563,25 @@
     <t xml:space="preserve">9.88458347320557</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0141582489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1437282562256</t>
+    <t xml:space="preserve">10.0141572952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1437292098999</t>
   </si>
   <si>
     <t xml:space="preserve">10.1807498931885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73649883270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84756278991699</t>
+    <t xml:space="preserve">9.73649978637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84756374359131</t>
   </si>
   <si>
     <t xml:space="preserve">9.90309238433838</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94011306762695</t>
+    <t xml:space="preserve">9.94011402130127</t>
   </si>
   <si>
     <t xml:space="preserve">10.2177724838257</t>
@@ -590,10 +590,10 @@
     <t xml:space="preserve">10.2362823486328</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3843650817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.106707572937</t>
+    <t xml:space="preserve">10.3843660354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1067085266113</t>
   </si>
   <si>
     <t xml:space="preserve">10.0881986618042</t>
@@ -602,40 +602,40 @@
     <t xml:space="preserve">10.1992607116699</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5879812240601</t>
+    <t xml:space="preserve">10.5879821777344</t>
   </si>
   <si>
     <t xml:space="preserve">10.6805334091187</t>
   </si>
   <si>
-    <t xml:space="preserve">10.73606300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8101043701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4954280853271</t>
+    <t xml:space="preserve">10.7360639572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8101053237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4954290390015</t>
   </si>
   <si>
     <t xml:space="preserve">10.5509605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5139379501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4028759002686</t>
+    <t xml:space="preserve">10.51393699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4028768539429</t>
   </si>
   <si>
     <t xml:space="preserve">10.0511789321899</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92160320281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2551298141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0122938156128</t>
+    <t xml:space="preserve">9.92160224914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2551307678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0122947692871</t>
   </si>
   <si>
     <t xml:space="preserve">9.95625686645508</t>
@@ -650,31 +650,31 @@
     <t xml:space="preserve">10.0683336257935</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2738094329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2924890518188</t>
+    <t xml:space="preserve">10.2738103866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2924900054932</t>
   </si>
   <si>
     <t xml:space="preserve">10.161732673645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97493553161621</t>
+    <t xml:space="preserve">9.97493648529053</t>
   </si>
   <si>
     <t xml:space="preserve">10.1243734359741</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80681800842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93757629394531</t>
+    <t xml:space="preserve">9.80681896209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93757724761963</t>
   </si>
   <si>
     <t xml:space="preserve">10.2364501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6287221908569</t>
+    <t xml:space="preserve">10.6287231445312</t>
   </si>
   <si>
     <t xml:space="preserve">10.4792861938477</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">10.4419269561768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90021705627441</t>
+    <t xml:space="preserve">9.90021800994873</t>
   </si>
   <si>
     <t xml:space="preserve">10.3858890533447</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">10.105694770813</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88153839111328</t>
+    <t xml:space="preserve">9.88153743743896</t>
   </si>
   <si>
     <t xml:space="preserve">10.1430540084839</t>
@@ -710,10 +710,10 @@
     <t xml:space="preserve">9.86285781860352</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3298492431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9275989532471</t>
+    <t xml:space="preserve">10.3298501968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9275979995728</t>
   </si>
   <si>
     <t xml:space="preserve">10.5540046691895</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">12.1417760848999</t>
   </si>
   <si>
-    <t xml:space="preserve">11.245153427124</t>
+    <t xml:space="preserve">11.2451524734497</t>
   </si>
   <si>
     <t xml:space="preserve">11.6934633255005</t>
@@ -740,28 +740,28 @@
     <t xml:space="preserve">11.6000661849976</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0483779907227</t>
+    <t xml:space="preserve">12.0483770370483</t>
   </si>
   <si>
     <t xml:space="preserve">12.2351741790771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3285732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5340480804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6834869384766</t>
+    <t xml:space="preserve">12.3285722732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.53404712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6834859848022</t>
   </si>
   <si>
     <t xml:space="preserve">12.272533416748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6561040878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6747846603394</t>
+    <t xml:space="preserve">11.6561031341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.674783706665</t>
   </si>
   <si>
     <t xml:space="preserve">11.8242216110229</t>
@@ -770,19 +770,19 @@
     <t xml:space="preserve">11.5627059936523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0110177993774</t>
+    <t xml:space="preserve">12.0110168457031</t>
   </si>
   <si>
     <t xml:space="preserve">12.1978139877319</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2538537979126</t>
+    <t xml:space="preserve">12.2538528442383</t>
   </si>
   <si>
     <t xml:space="preserve">12.3098917007446</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6087684631348</t>
+    <t xml:space="preserve">12.6087675094604</t>
   </si>
   <si>
     <t xml:space="preserve">12.7768831253052</t>
@@ -791,25 +791,25 @@
     <t xml:space="preserve">13.075758934021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3559532165527</t>
+    <t xml:space="preserve">13.3559541702271</t>
   </si>
   <si>
     <t xml:space="preserve">13.4493522644043</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5987882614136</t>
+    <t xml:space="preserve">13.5987892150879</t>
   </si>
   <si>
     <t xml:space="preserve">14.1591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5614280700684</t>
+    <t xml:space="preserve">13.5614290237427</t>
   </si>
   <si>
     <t xml:space="preserve">13.2999153137207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2065162658691</t>
+    <t xml:space="preserve">13.2065172195435</t>
   </si>
   <si>
     <t xml:space="preserve">12.478009223938</t>
@@ -824,10 +824,10 @@
     <t xml:space="preserve">12.4966888427734</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2912130355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3659315109253</t>
+    <t xml:space="preserve">12.2912120819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.365930557251</t>
   </si>
   <si>
     <t xml:space="preserve">14.700888633728</t>
@@ -842,13 +842,13 @@
     <t xml:space="preserve">13.2625560760498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9450006484985</t>
+    <t xml:space="preserve">12.9449996948242</t>
   </si>
   <si>
     <t xml:space="preserve">12.7955627441406</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6461267471313</t>
+    <t xml:space="preserve">12.646125793457</t>
   </si>
   <si>
     <t xml:space="preserve">12.4593296051025</t>
@@ -860,25 +860,25 @@
     <t xml:space="preserve">12.9076414108276</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9823608398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1878366470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1691560745239</t>
+    <t xml:space="preserve">12.9823598861694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.187837600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1691570281982</t>
   </si>
   <si>
     <t xml:space="preserve">13.4306726455688</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1504764556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7395238876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4032917022705</t>
+    <t xml:space="preserve">13.1504774093628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.73952293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4032907485962</t>
   </si>
   <si>
     <t xml:space="preserve">12.5527276992798</t>
@@ -887,16 +887,16 @@
     <t xml:space="preserve">12.5153684616089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9362993240356</t>
+    <t xml:space="preserve">11.9362983703613</t>
   </si>
   <si>
     <t xml:space="preserve">11.8615818023682</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3759098052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0957136154175</t>
+    <t xml:space="preserve">11.3759107589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0957145690918</t>
   </si>
   <si>
     <t xml:space="preserve">11.1704330444336</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">11.3945894241333</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2077941894531</t>
+    <t xml:space="preserve">11.2077932357788</t>
   </si>
   <si>
     <t xml:space="preserve">11.3572301864624</t>
@@ -932,19 +932,19 @@
     <t xml:space="preserve">9.47058486938477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94755363464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62002182006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77943801879883</t>
+    <t xml:space="preserve">8.94755268096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62002277374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77943706512451</t>
   </si>
   <si>
     <t xml:space="preserve">8.87283611297607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26574611663818</t>
+    <t xml:space="preserve">8.2657470703125</t>
   </si>
   <si>
     <t xml:space="preserve">8.30310726165771</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">8.25640678405762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59264183044434</t>
+    <t xml:space="preserve">8.59264087677002</t>
   </si>
   <si>
     <t xml:space="preserve">8.49924373626709</t>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">11.9549789428711</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5714073181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7021656036377</t>
+    <t xml:space="preserve">12.5714063644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7021646499634</t>
   </si>
   <si>
     <t xml:space="preserve">11.8429012298584</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">13.7482271194458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9997625350952</t>
+    <t xml:space="preserve">14.9997634887695</t>
   </si>
   <si>
     <t xml:space="preserve">15.1492004394531</t>
@@ -1034,10 +1034,10 @@
     <t xml:space="preserve">15.0558013916016</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7195682525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5701303482056</t>
+    <t xml:space="preserve">14.7195692062378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5701313018799</t>
   </si>
   <si>
     <t xml:space="preserve">14.1404991149902</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">13.8976640701294</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9163427352905</t>
+    <t xml:space="preserve">13.9163436889648</t>
   </si>
   <si>
     <t xml:space="preserve">13.7669057846069</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">15.7399997711182</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5200004577637</t>
+    <t xml:space="preserve">15.7799997329712</t>
   </si>
 </sst>
 </file>
@@ -44009,10 +44009,10 @@
     </row>
     <row r="1567">
       <c r="A1567" s="1" t="n">
-        <v>45509.5993402778</v>
+        <v>45509.6496412037</v>
       </c>
       <c r="B1567" t="n">
-        <v>89501</v>
+        <v>155412</v>
       </c>
       <c r="C1567" t="n">
         <v>16.2600002288818</v>
@@ -44024,7 +44024,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="F1567" t="n">
-        <v>15.5200004577637</v>
+        <v>15.7799997329712</v>
       </c>
       <c r="G1567" t="s">
         <v>979</v>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="985">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,139 +44,139 @@
     <t xml:space="preserve">CRL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95949602127075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86694288253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77439165115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74477386474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92987871170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02428245544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72904014587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03353691101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49765968322754</t>
+    <t xml:space="preserve">7.95949649810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.866943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77439212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74477338790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92988014221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02428150177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72903966903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03353786468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49766063690186</t>
   </si>
   <si>
     <t xml:space="preserve">7.35512971878052</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57910633087158</t>
+    <t xml:space="preserve">7.57910585403442</t>
   </si>
   <si>
     <t xml:space="preserve">7.51987266540527</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62630796432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49673461914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58003187179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59854221343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7022008895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85768842697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91322088241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97893285751343</t>
+    <t xml:space="preserve">7.62630748748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49673509597778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5800313949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5985426902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70220041275024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85768890380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91321992874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97893333435059</t>
   </si>
   <si>
     <t xml:space="preserve">8.06130504608154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92247581481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07703590393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87064599990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82066822052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90766716003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74847650527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84843301773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80215787887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94561338424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61797761917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72811412811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84102869033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80400848388672</t>
+    <t xml:space="preserve">7.92247343063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07703876495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87064504623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8206672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90766763687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74847602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84843349456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80215740203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94561290740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6179780960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72811508178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84102916717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80400800704956</t>
   </si>
   <si>
     <t xml:space="preserve">8.0520486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11776161193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17236614227295</t>
+    <t xml:space="preserve">8.11775970458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17236709594727</t>
   </si>
   <si>
     <t xml:space="preserve">8.36302375793457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5240650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54720115661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81652927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02384662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66289329528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34821605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31119537353516</t>
+    <t xml:space="preserve">8.52406406402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54720211029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81653022766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02384757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66289234161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34821510314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31119346618652</t>
   </si>
   <si>
     <t xml:space="preserve">8.53054237365723</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">8.77395629882812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81097793579102</t>
+    <t xml:space="preserve">8.8109769821167</t>
   </si>
   <si>
     <t xml:space="preserve">8.67770195007324</t>
@@ -200,10 +200,10 @@
     <t xml:space="preserve">8.72767925262451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.857253074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07012367248535</t>
+    <t xml:space="preserve">8.85725116729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07012271881104</t>
   </si>
   <si>
     <t xml:space="preserve">8.93222141265869</t>
@@ -218,13 +218,13 @@
     <t xml:space="preserve">9.40331172943115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16267585754395</t>
+    <t xml:space="preserve">9.16267490386963</t>
   </si>
   <si>
     <t xml:space="preserve">9.1821117401123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0553150177002</t>
+    <t xml:space="preserve">9.05531406402588</t>
   </si>
   <si>
     <t xml:space="preserve">9.25152587890625</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">8.82856178283691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05809211730957</t>
+    <t xml:space="preserve">9.05809116363525</t>
   </si>
   <si>
     <t xml:space="preserve">9.10714435577393</t>
@@ -248,73 +248,73 @@
     <t xml:space="preserve">8.96553897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73323249816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56848907470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03909015655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36580181121826</t>
+    <t xml:space="preserve">8.73323345184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56848812103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03908920288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36580085754395</t>
   </si>
   <si>
     <t xml:space="preserve">8.46853351593018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60736179351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65363883972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69991397857666</t>
+    <t xml:space="preserve">8.60736274719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65363788604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69991493225098</t>
   </si>
   <si>
     <t xml:space="preserve">8.87113475799561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08721828460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80678558349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97800588607788</t>
+    <t xml:space="preserve">8.08721733093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80678606033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97800636291504</t>
   </si>
   <si>
     <t xml:space="preserve">8.40189552307129</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83781814575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84059429168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81745433807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56663799285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66104412078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76377391815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63882923126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45280075073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40097045898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62217044830322</t>
+    <t xml:space="preserve">8.83781623840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8405933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81745529174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5666389465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66104125976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76377487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63883113861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45279979705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40097141265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62217140197754</t>
   </si>
   <si>
     <t xml:space="preserve">8.7822847366333</t>
@@ -323,49 +323,49 @@
     <t xml:space="preserve">8.11220836639404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09925079345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14460182189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24733257293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61013793945312</t>
+    <t xml:space="preserve">8.09924983978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1446008682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24733352661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61013889312744</t>
   </si>
   <si>
     <t xml:space="preserve">8.39449119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57034206390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98497676849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10344123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03865432739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0812292098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21820831298828</t>
+    <t xml:space="preserve">8.57034111022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98497486114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10344219207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03865528106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08123016357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21820735931396</t>
   </si>
   <si>
     <t xml:space="preserve">8.91278553009033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14416313171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91926288604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36394882202148</t>
+    <t xml:space="preserve">9.14416408538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91926383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3639497756958</t>
   </si>
   <si>
     <t xml:space="preserve">8.29268360137939</t>
@@ -374,46 +374,46 @@
     <t xml:space="preserve">8.3297061920166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39726829528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25936412811279</t>
+    <t xml:space="preserve">8.39726734161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25936508178711</t>
   </si>
   <si>
     <t xml:space="preserve">8.46390533447266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33340644836426</t>
+    <t xml:space="preserve">8.33340835571289</t>
   </si>
   <si>
     <t xml:space="preserve">8.35747051239014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56108570098877</t>
+    <t xml:space="preserve">8.56108474731445</t>
   </si>
   <si>
     <t xml:space="preserve">8.49629878997803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2834300994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41392707824707</t>
+    <t xml:space="preserve">8.28342819213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41392803192139</t>
   </si>
   <si>
     <t xml:space="preserve">8.27972602844238</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21123886108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45927906036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48704528808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54442501068115</t>
+    <t xml:space="preserve">8.21123790740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45927810668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48704433441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54442596435547</t>
   </si>
   <si>
     <t xml:space="preserve">8.77210426330566</t>
@@ -422,22 +422,22 @@
     <t xml:space="preserve">8.83411407470703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78321075439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.165452003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13028144836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96183586120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89797592163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04143238067627</t>
+    <t xml:space="preserve">8.78320980072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16545295715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13028240203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96183776855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89797496795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04143142700195</t>
   </si>
   <si>
     <t xml:space="preserve">9.11639881134033</t>
@@ -446,19 +446,19 @@
     <t xml:space="preserve">9.30150413513184</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27188777923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42922687530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46254444122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67911624908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71798992156982</t>
+    <t xml:space="preserve">9.27188873291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42922592163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46254539489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67911720275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71798896789551</t>
   </si>
   <si>
     <t xml:space="preserve">9.76426601409912</t>
@@ -467,40 +467,40 @@
     <t xml:space="preserve">9.66245746612549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71243667602539</t>
+    <t xml:space="preserve">9.71243762969971</t>
   </si>
   <si>
     <t xml:space="preserve">9.38665199279785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68652248382568</t>
+    <t xml:space="preserve">9.68652153015137</t>
   </si>
   <si>
     <t xml:space="preserve">9.56065082550049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57916069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35148143768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53103446960449</t>
+    <t xml:space="preserve">9.57916164398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35148239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53103256225586</t>
   </si>
   <si>
     <t xml:space="preserve">9.3977575302124</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1941442489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32926940917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21265316009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12565326690674</t>
+    <t xml:space="preserve">9.19414329528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32926845550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21265411376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12565422058105</t>
   </si>
   <si>
     <t xml:space="preserve">9.00533580780029</t>
@@ -509,19 +509,19 @@
     <t xml:space="preserve">8.43799114227295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82300853729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07104873657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25522804260254</t>
+    <t xml:space="preserve">8.82300758361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07104778289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25522899627686</t>
   </si>
   <si>
     <t xml:space="preserve">9.03310203552246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17193222045898</t>
+    <t xml:space="preserve">9.17193126678467</t>
   </si>
   <si>
     <t xml:space="preserve">9.51437377929688</t>
@@ -536,58 +536,58 @@
     <t xml:space="preserve">9.53288459777832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60692691802979</t>
+    <t xml:space="preserve">9.60692596435547</t>
   </si>
   <si>
     <t xml:space="preserve">9.82905197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75500965118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97713470458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0696887969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1252193450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86607360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99564743041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88458251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0141563415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1437282562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1807489395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73650074005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84756278991699</t>
+    <t xml:space="preserve">9.7550106048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97713375091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0696878433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1252183914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8660717010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99564647674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88458347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0141572952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1437292098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1807498931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73649978637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84756374359131</t>
   </si>
   <si>
     <t xml:space="preserve">9.9030933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94011402130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2177724838257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2362823486328</t>
+    <t xml:space="preserve">9.94011306762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2177715301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2362813949585</t>
   </si>
   <si>
     <t xml:space="preserve">10.3843650817871</t>
@@ -596,31 +596,31 @@
     <t xml:space="preserve">10.1067094802856</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0881986618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1992597579956</t>
+    <t xml:space="preserve">10.0881977081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1992607116699</t>
   </si>
   <si>
     <t xml:space="preserve">10.5879812240601</t>
   </si>
   <si>
-    <t xml:space="preserve">10.68053150177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.73606300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8101053237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4954290390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5509595870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5139389038086</t>
+    <t xml:space="preserve">10.6805334091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7360639572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8101062774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4954280853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5509605407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5139360427856</t>
   </si>
   <si>
     <t xml:space="preserve">10.4028749465942</t>
@@ -629,37 +629,37 @@
     <t xml:space="preserve">10.0511789321899</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92160415649414</t>
+    <t xml:space="preserve">9.92160320281982</t>
   </si>
   <si>
     <t xml:space="preserve">10.2551298141479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0122947692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95625591278076</t>
+    <t xml:space="preserve">10.0122938156128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95625495910645</t>
   </si>
   <si>
     <t xml:space="preserve">9.99361515045166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2177715301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0683336257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2738084793091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2924880981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.161732673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97493457794189</t>
+    <t xml:space="preserve">10.2177705764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0683317184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2738094329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2924890518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1617317199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97493553161621</t>
   </si>
   <si>
     <t xml:space="preserve">10.1243724822998</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">9.80681896209717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93757629394531</t>
+    <t xml:space="preserve">9.93757724761963</t>
   </si>
   <si>
     <t xml:space="preserve">10.2364501953125</t>
@@ -680,103 +680,103 @@
     <t xml:space="preserve">10.4792861938477</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4979658126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4606075286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4419269561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9002161026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3858890533447</t>
+    <t xml:space="preserve">10.4979648590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4606065750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4419260025024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90021705627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3858880996704</t>
   </si>
   <si>
     <t xml:space="preserve">10.1056938171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88153839111328</t>
+    <t xml:space="preserve">9.88153743743896</t>
   </si>
   <si>
     <t xml:space="preserve">10.1430540084839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1804122924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86285781860352</t>
+    <t xml:space="preserve">10.1804113388062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8628568649292</t>
   </si>
   <si>
     <t xml:space="preserve">10.3298482894897</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9275989532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5540037155151</t>
+    <t xml:space="preserve">10.9275979995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5540046691895</t>
   </si>
   <si>
     <t xml:space="preserve">12.1417760848999</t>
   </si>
   <si>
-    <t xml:space="preserve">11.245153427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6934633255005</t>
+    <t xml:space="preserve">11.2451524734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6934642791748</t>
   </si>
   <si>
     <t xml:space="preserve">11.4879884719849</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6187448501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7121429443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6000652313232</t>
+    <t xml:space="preserve">11.618745803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7121438980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6000671386719</t>
   </si>
   <si>
     <t xml:space="preserve">12.0483779907227</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2351732254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3285732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5340480804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6834869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2725315093994</t>
+    <t xml:space="preserve">12.2351741790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3285722732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.53404712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6834859848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2725324630737</t>
   </si>
   <si>
     <t xml:space="preserve">11.6561050415039</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6747846603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8242216110229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5627059936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0110168457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1978139877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2538528442383</t>
+    <t xml:space="preserve">11.674783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8242225646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5627069473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0110177993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1978149414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2538537979126</t>
   </si>
   <si>
     <t xml:space="preserve">12.3098917007446</t>
@@ -788,94 +788,94 @@
     <t xml:space="preserve">12.7768840789795</t>
   </si>
   <si>
-    <t xml:space="preserve">13.075758934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3559532165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4493522644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5987882614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5614290237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2999153137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2065172195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4780082702637</t>
+    <t xml:space="preserve">13.0757579803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3559522628784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.44935131073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5987873077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1591787338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5614280700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2999143600464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2065162658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.478009223938</t>
   </si>
   <si>
     <t xml:space="preserve">12.4406499862671</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3846111297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4966878890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2912120819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3659324645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.700888633728</t>
+    <t xml:space="preserve">12.3846101760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4966888427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2912130355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3659315109253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7008895874023</t>
   </si>
   <si>
     <t xml:space="preserve">14.0097417831421</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5053911209106</t>
+    <t xml:space="preserve">13.5053901672363</t>
   </si>
   <si>
     <t xml:space="preserve">13.2625560760498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9450016021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7955636978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6461277008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4593286514282</t>
+    <t xml:space="preserve">12.9450006484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7955627441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.646125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4593305587769</t>
   </si>
   <si>
     <t xml:space="preserve">12.8702821731567</t>
   </si>
   <si>
-    <t xml:space="preserve">12.907642364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9823617935181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.187837600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1691560745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4306726455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1504764556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7395248413086</t>
+    <t xml:space="preserve">12.9076414108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9823598861694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1878366470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1691570281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4306716918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1504755020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7395238876343</t>
   </si>
   <si>
     <t xml:space="preserve">12.4032917022705</t>
@@ -884,52 +884,52 @@
     <t xml:space="preserve">12.5527276992798</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5153675079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9362993240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8615808486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3759088516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0957136154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1704330444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1143941879272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8341989517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.394588470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2077932357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3572292327881</t>
+    <t xml:space="preserve">12.5153694152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9362983703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8615818023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3759107589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0957145690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1704339981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1143951416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8341999053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3945903778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2077941894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3572301864624</t>
   </si>
   <si>
     <t xml:space="preserve">11.3011913299561</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4506273269653</t>
+    <t xml:space="preserve">11.4506282806396</t>
   </si>
   <si>
     <t xml:space="preserve">11.189112663269</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48926544189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47058486938477</t>
+    <t xml:space="preserve">9.48926448822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47058391571045</t>
   </si>
   <si>
     <t xml:space="preserve">8.94755363464355</t>
@@ -938,22 +938,22 @@
     <t xml:space="preserve">9.62002182006836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77943801879883</t>
+    <t xml:space="preserve">8.77943897247314</t>
   </si>
   <si>
     <t xml:space="preserve">8.87283611297607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2657470703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30310821533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25640678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59264183044434</t>
+    <t xml:space="preserve">8.26574611663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3031063079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25640773773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59264087677002</t>
   </si>
   <si>
     <t xml:space="preserve">8.49924278259277</t>
@@ -962,28 +962,28 @@
     <t xml:space="preserve">9.71342086791992</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7968406677246</t>
+    <t xml:space="preserve">10.7968416213989</t>
   </si>
   <si>
     <t xml:space="preserve">9.84417819976807</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3672094345093</t>
+    <t xml:space="preserve">10.367208480835</t>
   </si>
   <si>
     <t xml:space="preserve">10.3111696243286</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78813934326172</t>
+    <t xml:space="preserve">9.7881383895874</t>
   </si>
   <si>
     <t xml:space="preserve">10.0870141983032</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7781600952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7681827545166</t>
+    <t xml:space="preserve">10.7781610488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7681846618652</t>
   </si>
   <si>
     <t xml:space="preserve">11.9549779891968</t>
@@ -992,22 +992,22 @@
     <t xml:space="preserve">12.5714073181152</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7021656036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8429002761841</t>
+    <t xml:space="preserve">12.7021646499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8429012298584</t>
   </si>
   <si>
     <t xml:space="preserve">13.8229446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5801095962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7482261657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9997625350952</t>
+    <t xml:space="preserve">13.5801086425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7482271194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9997634887695</t>
   </si>
   <si>
     <t xml:space="preserve">15.1492004394531</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">15.0371217727661</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3459749221802</t>
+    <t xml:space="preserve">14.3459758758545</t>
   </si>
   <si>
     <t xml:space="preserve">15.392035484314</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">16.0831832885742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5041122436523</t>
+    <t xml:space="preserve">15.5041131973267</t>
   </si>
   <si>
     <t xml:space="preserve">15.0558013916016</t>
@@ -1037,55 +1037,55 @@
     <t xml:space="preserve">14.7195682525635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5701303482056</t>
+    <t xml:space="preserve">14.5701313018799</t>
   </si>
   <si>
     <t xml:space="preserve">14.1404991149902</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2338962554932</t>
+    <t xml:space="preserve">14.2338972091675</t>
   </si>
   <si>
     <t xml:space="preserve">13.8976640701294</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9163427352905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7669057846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1778583526611</t>
+    <t xml:space="preserve">13.9163436889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7669048309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1778573989868</t>
   </si>
   <si>
     <t xml:space="preserve">14.4206943511963</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8129663467407</t>
+    <t xml:space="preserve">14.8129653930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0931596755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603145599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9049663543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9990644454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8861474990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8673286437988</t>
   </si>
   <si>
     <t xml:space="preserve">15.0931606292725</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603145599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9049663543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9990634918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8861474990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8673286437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0931615829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.375452041626</t>
+    <t xml:space="preserve">15.3754510879517</t>
   </si>
   <si>
     <t xml:space="preserve">15.3378133773804</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">15.5260076522827</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4319095611572</t>
+    <t xml:space="preserve">15.4319105148315</t>
   </si>
   <si>
     <t xml:space="preserve">15.1119804382324</t>
@@ -1106,13 +1106,13 @@
     <t xml:space="preserve">15.1872577667236</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0178833007812</t>
+    <t xml:space="preserve">15.0178842544556</t>
   </si>
   <si>
     <t xml:space="preserve">14.7544116973877</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2437162399292</t>
+    <t xml:space="preserve">15.2437171936035</t>
   </si>
   <si>
     <t xml:space="preserve">15.0367031097412</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">15.5071878433228</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0555229187012</t>
+    <t xml:space="preserve">15.0555219650269</t>
   </si>
   <si>
     <t xml:space="preserve">14.5850372314453</t>
@@ -1133,22 +1133,22 @@
     <t xml:space="preserve">15.6765613555908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2787857055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0880184173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8031558990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8433666229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9939212799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5585041046143</t>
+    <t xml:space="preserve">16.2787818908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.088020324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8031539916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8433647155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9939193725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5585021972656</t>
   </si>
   <si>
     <t xml:space="preserve">17.5396842956543</t>
@@ -1160,16 +1160,16 @@
     <t xml:space="preserve">17.916072845459</t>
   </si>
   <si>
-    <t xml:space="preserve">18.141902923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0101699829102</t>
+    <t xml:space="preserve">18.1419048309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0101680755615</t>
   </si>
   <si>
     <t xml:space="preserve">18.4053745269775</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4430160522461</t>
+    <t xml:space="preserve">18.4430179595947</t>
   </si>
   <si>
     <t xml:space="preserve">17.7843360900879</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">18.3489170074463</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1607246398926</t>
+    <t xml:space="preserve">18.1607227325439</t>
   </si>
   <si>
     <t xml:space="preserve">17.5020446777344</t>
@@ -1202,19 +1202,19 @@
     <t xml:space="preserve">18.0854473114014</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5961437225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9348907470703</t>
+    <t xml:space="preserve">17.5961399078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9348888397217</t>
   </si>
   <si>
     <t xml:space="preserve">17.0503787994385</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7869071960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9400339126587</t>
+    <t xml:space="preserve">16.7869052886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9400329589844</t>
   </si>
   <si>
     <t xml:space="preserve">16.5798931121826</t>
@@ -1226,10 +1226,10 @@
     <t xml:space="preserve">15.4883680343628</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8835744857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6551723480225</t>
+    <t xml:space="preserve">15.8835754394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6551704406738</t>
   </si>
   <si>
     <t xml:space="preserve">16.7116317749023</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">16.3917026519775</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9751014709473</t>
+    <t xml:space="preserve">16.9750995635986</t>
   </si>
   <si>
     <t xml:space="preserve">16.8245468139648</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">16.6175327301025</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4857978820801</t>
+    <t xml:space="preserve">16.4857959747314</t>
   </si>
   <si>
     <t xml:space="preserve">16.4669780731201</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">16.7492694854736</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7304515838623</t>
+    <t xml:space="preserve">16.730447769165</t>
   </si>
   <si>
     <t xml:space="preserve">16.8810062408447</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">16.937463760376</t>
   </si>
   <si>
-    <t xml:space="preserve">16.918643951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9023962020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5448274612427</t>
+    <t xml:space="preserve">16.9186420440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9023942947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5448265075684</t>
   </si>
   <si>
     <t xml:space="preserve">15.0743427276611</t>
@@ -1298,46 +1298,46 @@
     <t xml:space="preserve">17.4455871582031</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6363506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7330198287964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9964904785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3540630340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5987129211426</t>
+    <t xml:space="preserve">16.6363525390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7330207824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9964923858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3540592193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5987148284912</t>
   </si>
   <si>
     <t xml:space="preserve">16.9562835693359</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5610752105713</t>
+    <t xml:space="preserve">16.5610733032227</t>
   </si>
   <si>
     <t xml:space="preserve">17.0691986083984</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2009334564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7680912017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0315589904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0127410888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0289878845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2171821594238</t>
+    <t xml:space="preserve">17.2009353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7680892944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0315570831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0127429962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0289859771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2171802520752</t>
   </si>
   <si>
     <t xml:space="preserve">18.6688480377197</t>
@@ -1346,13 +1346,13 @@
     <t xml:space="preserve">18.0478076934814</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1795425415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.692813873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8621845245361</t>
+    <t xml:space="preserve">18.1795444488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6928100585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8621826171875</t>
   </si>
   <si>
     <t xml:space="preserve">16.6739921569824</t>
@@ -1367,13 +1367,13 @@
     <t xml:space="preserve">16.1846885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9588527679443</t>
+    <t xml:space="preserve">15.9588537216187</t>
   </si>
   <si>
     <t xml:space="preserve">15.8647575378418</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7142009735107</t>
+    <t xml:space="preserve">15.7142019271851</t>
   </si>
   <si>
     <t xml:space="preserve">16.128231048584</t>
@@ -1382,34 +1382,34 @@
     <t xml:space="preserve">16.0153121948242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0905914306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4695482254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6226758956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2651081085205</t>
+    <t xml:space="preserve">16.0905876159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4695491790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6226749420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2651071548462</t>
   </si>
   <si>
     <t xml:space="preserve">14.96142578125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6201028823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.751838684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7894763946533</t>
+    <t xml:space="preserve">15.6201038360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7518396377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.789478302002</t>
   </si>
   <si>
     <t xml:space="preserve">15.6389236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8271179199219</t>
+    <t xml:space="preserve">15.8271169662476</t>
   </si>
   <si>
     <t xml:space="preserve">15.582465171814</t>
@@ -1424,28 +1424,28 @@
     <t xml:space="preserve">15.9776735305786</t>
   </si>
   <si>
-    <t xml:space="preserve">16.335241317749</t>
+    <t xml:space="preserve">16.3352432250977</t>
   </si>
   <si>
     <t xml:space="preserve">17.2197551727295</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2573947906494</t>
+    <t xml:space="preserve">17.2573928833008</t>
   </si>
   <si>
     <t xml:space="preserve">18.0666275024414</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7090587615967</t>
+    <t xml:space="preserve">17.7090606689453</t>
   </si>
   <si>
     <t xml:space="preserve">17.897253036499</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2548198699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7655143737793</t>
+    <t xml:space="preserve">18.2548217773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7655162811279</t>
   </si>
   <si>
     <t xml:space="preserve">18.6123905181885</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">18.1983623504639</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2950325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6902370452881</t>
+    <t xml:space="preserve">17.2950305938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6902389526367</t>
   </si>
   <si>
     <t xml:space="preserve">17.7278747558594</t>
@@ -1469,28 +1469,28 @@
     <t xml:space="preserve">19.854471206665</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9485664367676</t>
+    <t xml:space="preserve">19.9485683441162</t>
   </si>
   <si>
     <t xml:space="preserve">19.5721797943115</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6662750244141</t>
+    <t xml:space="preserve">19.6662731170654</t>
   </si>
   <si>
     <t xml:space="preserve">20.1367607116699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.701343536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6072444915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4190521240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.277904510498</t>
+    <t xml:space="preserve">20.7013454437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6072463989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4190502166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2779064178467</t>
   </si>
   <si>
     <t xml:space="preserve">20.0897121429443</t>
@@ -1505,10 +1505,10 @@
     <t xml:space="preserve">20.7954406738281</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3600215911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7364101409912</t>
+    <t xml:space="preserve">21.3600196838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7364120483398</t>
   </si>
   <si>
     <t xml:space="preserve">22.1127986907959</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">21.4541206359863</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9836330413818</t>
+    <t xml:space="preserve">20.9836349487305</t>
   </si>
   <si>
     <t xml:space="preserve">20.2308597564697</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">19.6192264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3369369506836</t>
+    <t xml:space="preserve">19.3369388580322</t>
   </si>
   <si>
     <t xml:space="preserve">19.8764400482178</t>
@@ -1547,64 +1547,64 @@
     <t xml:space="preserve">19.687141418457</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6398143768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8291168212891</t>
+    <t xml:space="preserve">19.6398162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8291149139404</t>
   </si>
   <si>
     <t xml:space="preserve">19.1665668487549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9772682189941</t>
+    <t xml:space="preserve">18.9772663116455</t>
   </si>
   <si>
     <t xml:space="preserve">19.3085422515869</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2138900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0719184875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7817878723145</t>
+    <t xml:space="preserve">19.2138919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0719203948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7817897796631</t>
   </si>
   <si>
     <t xml:space="preserve">19.1192417144775</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3023624420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9710922241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.403190612793</t>
+    <t xml:space="preserve">20.3023643493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9710903167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4031887054443</t>
   </si>
   <si>
     <t xml:space="preserve">18.5513439178467</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7595729827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.60813331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9110107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6459941864014</t>
+    <t xml:space="preserve">18.7595748901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6081352233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9110126495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6459922790527</t>
   </si>
   <si>
     <t xml:space="preserve">18.9299449920654</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7785053253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2077140808105</t>
+    <t xml:space="preserve">18.7785034179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2077121734619</t>
   </si>
   <si>
     <t xml:space="preserve">20.5389881134033</t>
@@ -1613,13 +1613,13 @@
     <t xml:space="preserve">20.9649105072021</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4381618499756</t>
+    <t xml:space="preserve">21.438159942627</t>
   </si>
   <si>
     <t xml:space="preserve">22.2426834106445</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6212825775146</t>
+    <t xml:space="preserve">22.621280670166</t>
   </si>
   <si>
     <t xml:space="preserve">23.1418552398682</t>
@@ -1634,13 +1634,13 @@
     <t xml:space="preserve">23.3311557769775</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2365036010742</t>
+    <t xml:space="preserve">23.2365016937256</t>
   </si>
   <si>
     <t xml:space="preserve">23.7570781707764</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3723030090332</t>
+    <t xml:space="preserve">24.3723011016846</t>
   </si>
   <si>
     <t xml:space="preserve">23.9463768005371</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">23.0945281982422</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4258041381836</t>
+    <t xml:space="preserve">23.425802230835</t>
   </si>
   <si>
     <t xml:space="preserve">23.615104675293</t>
@@ -1676,43 +1676,43 @@
     <t xml:space="preserve">21.9114093780518</t>
   </si>
   <si>
-    <t xml:space="preserve">21.864086151123</t>
+    <t xml:space="preserve">21.8640842437744</t>
   </si>
   <si>
     <t xml:space="preserve">22.2900085449219</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1007080078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.722110748291</t>
+    <t xml:space="preserve">22.1007099151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7221088409424</t>
   </si>
   <si>
     <t xml:space="preserve">21.2961864471436</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0595607757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1068840026855</t>
+    <t xml:space="preserve">21.0595626831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1068859100342</t>
   </si>
   <si>
     <t xml:space="preserve">20.9175872802734</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7282867431641</t>
+    <t xml:space="preserve">20.7282886505127</t>
   </si>
   <si>
     <t xml:space="preserve">21.3908348083496</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0060577392578</t>
+    <t xml:space="preserve">22.0060558319092</t>
   </si>
   <si>
     <t xml:space="preserve">24.9875240325928</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8455505371094</t>
+    <t xml:space="preserve">24.8455486297607</t>
   </si>
   <si>
     <t xml:space="preserve">25.1768226623535</t>
@@ -1721,13 +1721,13 @@
     <t xml:space="preserve">24.6089248657227</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5615997314453</t>
+    <t xml:space="preserve">24.5616016387939</t>
   </si>
   <si>
     <t xml:space="preserve">23.567777633667</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8044033050537</t>
+    <t xml:space="preserve">23.8044013977051</t>
   </si>
   <si>
     <t xml:space="preserve">24.3249759674072</t>
@@ -1736,10 +1736,10 @@
     <t xml:space="preserve">23.9937019348145</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4669494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1356773376465</t>
+    <t xml:space="preserve">24.4669513702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1356792449951</t>
   </si>
   <si>
     <t xml:space="preserve">24.65625</t>
@@ -1751,22 +1751,22 @@
     <t xml:space="preserve">25.602746963501</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8393726348877</t>
+    <t xml:space="preserve">25.8393707275391</t>
   </si>
   <si>
     <t xml:space="preserve">25.5554237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4607715606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4731273651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7159290313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4319839477539</t>
+    <t xml:space="preserve">25.4607734680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4731292724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7159309387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4319820404053</t>
   </si>
   <si>
     <t xml:space="preserve">23.2838306427002</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">24.8928756713867</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7035751342773</t>
+    <t xml:space="preserve">24.703577041626</t>
   </si>
   <si>
     <t xml:space="preserve">24.9401988983154</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">25.0348491668701</t>
   </si>
   <si>
-    <t xml:space="preserve">24.798225402832</t>
+    <t xml:space="preserve">24.7982234954834</t>
   </si>
   <si>
     <t xml:space="preserve">25.3661231994629</t>
@@ -1802,67 +1802,67 @@
     <t xml:space="preserve">25.3187980651855</t>
   </si>
   <si>
-    <t xml:space="preserve">21.674783706665</t>
+    <t xml:space="preserve">21.6747856140137</t>
   </si>
   <si>
     <t xml:space="preserve">21.3435115814209</t>
   </si>
   <si>
-    <t xml:space="preserve">21.580135345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.586311340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9587326049805</t>
+    <t xml:space="preserve">21.5801334381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5863132476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9587345123291</t>
   </si>
   <si>
     <t xml:space="preserve">21.0122375488281</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4854831695557</t>
+    <t xml:space="preserve">21.4854850769043</t>
   </si>
   <si>
     <t xml:space="preserve">21.7694339752197</t>
   </si>
   <si>
-    <t xml:space="preserve">21.532808303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3970146179199</t>
+    <t xml:space="preserve">21.5328102111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3970127105713</t>
   </si>
   <si>
     <t xml:space="preserve">20.491662979126</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3558654785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7027816772461</t>
+    <t xml:space="preserve">19.3558673858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7027835845947</t>
   </si>
   <si>
     <t xml:space="preserve">20.0184135437012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8229389190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.497838973999</t>
+    <t xml:space="preserve">20.8229370117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4978427886963</t>
   </si>
   <si>
     <t xml:space="preserve">18.3431148529053</t>
   </si>
   <si>
-    <t xml:space="preserve">17.453405380249</t>
+    <t xml:space="preserve">17.4534072875977</t>
   </si>
   <si>
     <t xml:space="preserve">17.1694583892822</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9422988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4377632141113</t>
+    <t xml:space="preserve">16.9422969818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.43776512146</t>
   </si>
   <si>
     <t xml:space="preserve">18.3241844177246</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">18.7974338531494</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0657367706299</t>
+    <t xml:space="preserve">20.0657386779785</t>
   </si>
   <si>
     <t xml:space="preserve">21.8167591094971</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">21.6274585723877</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6336364746094</t>
+    <t xml:space="preserve">20.6336345672607</t>
   </si>
   <si>
     <t xml:space="preserve">20.4443397521973</t>
@@ -1898,13 +1898,13 @@
     <t xml:space="preserve">18.8731536865234</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8352928161621</t>
+    <t xml:space="preserve">18.8352909088135</t>
   </si>
   <si>
     <t xml:space="preserve">22.0533809661865</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3496894836426</t>
+    <t xml:space="preserve">20.3496875762939</t>
   </si>
   <si>
     <t xml:space="preserve">20.6809616088867</t>
@@ -1913,19 +1913,19 @@
     <t xml:space="preserve">18.456693649292</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0970249176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0213050842285</t>
+    <t xml:space="preserve">18.0970230102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0213069915771</t>
   </si>
   <si>
     <t xml:space="preserve">17.3398265838623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3208999633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8914546966553</t>
+    <t xml:space="preserve">17.3208980560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8914566040039</t>
   </si>
   <si>
     <t xml:space="preserve">17.063232421875</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">16.3761215209961</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9487133026123</t>
+    <t xml:space="preserve">16.9487152099609</t>
   </si>
   <si>
     <t xml:space="preserve">17.6549091339111</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">17.9412059783936</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3992786407471</t>
+    <t xml:space="preserve">18.3992805480957</t>
   </si>
   <si>
     <t xml:space="preserve">18.3801937103271</t>
@@ -1961,16 +1961,16 @@
     <t xml:space="preserve">18.3038463592529</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0863914489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7619209289551</t>
+    <t xml:space="preserve">19.086389541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7619228363037</t>
   </si>
   <si>
     <t xml:space="preserve">18.704662322998</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9146118164062</t>
+    <t xml:space="preserve">18.9146137237549</t>
   </si>
   <si>
     <t xml:space="preserve">18.0748100280762</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">18.8955268859863</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9929943084717</t>
+    <t xml:space="preserve">19.992992401123</t>
   </si>
   <si>
     <t xml:space="preserve">20.3270053863525</t>
@@ -2003,13 +2003,13 @@
     <t xml:space="preserve">21.04274559021</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1858940124512</t>
+    <t xml:space="preserve">21.1858921051025</t>
   </si>
   <si>
     <t xml:space="preserve">20.422435760498</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2356433868408</t>
+    <t xml:space="preserve">22.2356414794922</t>
   </si>
   <si>
     <t xml:space="preserve">22.8559513092041</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">22.4265079498291</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6173725128174</t>
+    <t xml:space="preserve">22.6173706054688</t>
   </si>
   <si>
     <t xml:space="preserve">22.76051902771</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">21.8062000274658</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5676212310791</t>
+    <t xml:space="preserve">21.5676193237305</t>
   </si>
   <si>
     <t xml:space="preserve">21.1381759643555</t>
@@ -2045,10 +2045,10 @@
     <t xml:space="preserve">20.5655841827393</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8021297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3747215270996</t>
+    <t xml:space="preserve">19.8021278381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.374719619751</t>
   </si>
   <si>
     <t xml:space="preserve">20.0884246826172</t>
@@ -2069,13 +2069,13 @@
     <t xml:space="preserve">19.8975601196289</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3249702453613</t>
+    <t xml:space="preserve">19.3249683380127</t>
   </si>
   <si>
     <t xml:space="preserve">19.134105682373</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1818218231201</t>
+    <t xml:space="preserve">19.1818199157715</t>
   </si>
   <si>
     <t xml:space="preserve">18.6855754852295</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">18.4947109222412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0557250976562</t>
+    <t xml:space="preserve">18.0557270050049</t>
   </si>
   <si>
     <t xml:space="preserve">18.3611068725586</t>
@@ -2099,16 +2099,16 @@
     <t xml:space="preserve">17.9030323028564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.922119140625</t>
+    <t xml:space="preserve">17.9221172332764</t>
   </si>
   <si>
     <t xml:space="preserve">17.1204929351807</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2656745910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2295379638672</t>
+    <t xml:space="preserve">18.2656726837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2295398712158</t>
   </si>
   <si>
     <t xml:space="preserve">20.2315731048584</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">18.9336986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2847595214844</t>
+    <t xml:space="preserve">18.284761428833</t>
   </si>
   <si>
     <t xml:space="preserve">18.4183673858643</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">18.647403717041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1893272399902</t>
+    <t xml:space="preserve">18.1893291473389</t>
   </si>
   <si>
     <t xml:space="preserve">18.34202003479</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6092300415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8041648864746</t>
+    <t xml:space="preserve">18.6092281341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.804162979126</t>
   </si>
   <si>
     <t xml:space="preserve">20.7564487457275</t>
@@ -2144,10 +2144,10 @@
     <t xml:space="preserve">20.661018371582</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6650867462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4762592315674</t>
+    <t xml:space="preserve">22.6650886535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.476261138916</t>
   </si>
   <si>
     <t xml:space="preserve">24.335147857666</t>
@@ -2165,10 +2165,10 @@
     <t xml:space="preserve">23.0945301055908</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8579864501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2833595275879</t>
+    <t xml:space="preserve">23.8579883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2833614349365</t>
   </si>
   <si>
     <t xml:space="preserve">23.0468158721924</t>
@@ -2189,10 +2189,10 @@
     <t xml:space="preserve">23.61940574646</t>
   </si>
   <si>
-    <t xml:space="preserve">24.526008605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3331108093262</t>
+    <t xml:space="preserve">24.5260105133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3331127166748</t>
   </si>
   <si>
     <t xml:space="preserve">22.5696544647217</t>
@@ -2240,19 +2240,19 @@
     <t xml:space="preserve">24.4305782318115</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2397155761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4803295135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0986022949219</t>
+    <t xml:space="preserve">24.2397136688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4803314208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0986042022705</t>
   </si>
   <si>
     <t xml:space="preserve">25.0031700134277</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9077377319336</t>
+    <t xml:space="preserve">24.9077396392822</t>
   </si>
   <si>
     <t xml:space="preserve">24.5737266540527</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">24.764591217041</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6691570281982</t>
+    <t xml:space="preserve">24.6691589355469</t>
   </si>
   <si>
     <t xml:space="preserve">25.1940326690674</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">24.8123054504395</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7189083099365</t>
+    <t xml:space="preserve">25.7189102172852</t>
   </si>
   <si>
     <t xml:space="preserve">25.9574890136719</t>
@@ -2285,13 +2285,13 @@
     <t xml:space="preserve">23.7625541687012</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7148380279541</t>
+    <t xml:space="preserve">23.7148399353027</t>
   </si>
   <si>
     <t xml:space="preserve">23.2853946685791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4285430908203</t>
+    <t xml:space="preserve">23.4285411834717</t>
   </si>
   <si>
     <t xml:space="preserve">23.1422462463379</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">23.9534187316895</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4721870422363</t>
+    <t xml:space="preserve">21.472188949585</t>
   </si>
   <si>
     <t xml:space="preserve">22.808235168457</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">25.7666263580322</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6732292175293</t>
+    <t xml:space="preserve">26.6732311248779</t>
   </si>
   <si>
     <t xml:space="preserve">26.5777969360352</t>
@@ -2964,6 +2964,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.6800003051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5</t>
   </si>
 </sst>
 </file>
@@ -44073,7 +44076,7 @@
     </row>
     <row r="1569">
       <c r="A1569" s="1" t="n">
-        <v>45511.649375</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B1569" t="n">
         <v>66891</v>
@@ -44094,6 +44097,32 @@
         <v>983</v>
       </c>
       <c r="H1569" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="1" t="n">
+        <v>45512.6496412037</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>50805</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>16.5599994659424</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>16.1399993896484</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>16.5400009155273</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G1570" t="s">
+        <v>984</v>
+      </c>
+      <c r="H1570" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63556337356567</t>
+    <t xml:space="preserve">7.63556289672852</t>
   </si>
   <si>
     <t xml:space="preserve">CRL.MI</t>
@@ -47,28 +47,28 @@
     <t xml:space="preserve">7.95949649810791</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86694240570068</t>
+    <t xml:space="preserve">7.86694288253784</t>
   </si>
   <si>
     <t xml:space="preserve">7.77439212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74477434158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9298791885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02428150177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72903966903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03353691101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4976601600647</t>
+    <t xml:space="preserve">7.74477338790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92988014221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02428340911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72904062271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03353786468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49766063690186</t>
   </si>
   <si>
     <t xml:space="preserve">7.35512971878052</t>
@@ -77,85 +77,85 @@
     <t xml:space="preserve">7.57910633087158</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51987266540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62630844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49673461914062</t>
+    <t xml:space="preserve">7.51987218856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62630748748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49673557281494</t>
   </si>
   <si>
     <t xml:space="preserve">7.58003187179565</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59854221343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7022008895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85768890380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91322088241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97893285751343</t>
+    <t xml:space="preserve">7.5985426902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70220041275024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85768842697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91321992874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97893238067627</t>
   </si>
   <si>
     <t xml:space="preserve">8.06130409240723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92247486114502</t>
+    <t xml:space="preserve">7.92247438430786</t>
   </si>
   <si>
     <t xml:space="preserve">8.0770378112793</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87064552307129</t>
+    <t xml:space="preserve">7.87064695358276</t>
   </si>
   <si>
     <t xml:space="preserve">7.82066822052002</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90766668319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74847650527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84843254089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80215787887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94561290740967</t>
+    <t xml:space="preserve">7.90766620635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74847602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84843301773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80215692520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94561338424683</t>
   </si>
   <si>
     <t xml:space="preserve">7.6179780960083</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72811412811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84102869033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8040075302124</t>
+    <t xml:space="preserve">7.72811365127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84103012084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80400800704956</t>
   </si>
   <si>
     <t xml:space="preserve">8.0520486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11776065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17236614227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36302471160889</t>
+    <t xml:space="preserve">8.11775970458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17236709594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36302375793457</t>
   </si>
   <si>
     <t xml:space="preserve">8.52406406402588</t>
@@ -167,73 +167,73 @@
     <t xml:space="preserve">8.81652927398682</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02384662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66289234161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34821605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31119441986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53054332733154</t>
+    <t xml:space="preserve">9.02384757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66289329528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34821510314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31119537353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53054428100586</t>
   </si>
   <si>
     <t xml:space="preserve">8.42225742340088</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51481056213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77395725250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8109769821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67770195007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72768020629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.857253074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07012271881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93222045898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18118667602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20895195007324</t>
+    <t xml:space="preserve">8.51480865478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77395534515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81097602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67770099639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72767925262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85725212097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07012462615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93222141265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18118572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20895099639893</t>
   </si>
   <si>
     <t xml:space="preserve">9.40331077575684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16267585754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1821117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0553150177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25152492523193</t>
+    <t xml:space="preserve">9.16267681121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18211078643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05531406402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25152683258057</t>
   </si>
   <si>
     <t xml:space="preserve">9.12657928466797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08863353729248</t>
+    <t xml:space="preserve">9.08863258361816</t>
   </si>
   <si>
     <t xml:space="preserve">8.8285608291626</t>
@@ -245,52 +245,52 @@
     <t xml:space="preserve">9.10714435577393</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96553897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73323345184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56849002838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03909111022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36580181121826</t>
+    <t xml:space="preserve">8.96553993225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73323249816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56848907470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03908824920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36580085754395</t>
   </si>
   <si>
     <t xml:space="preserve">8.46853256225586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60736179351807</t>
+    <t xml:space="preserve">8.60736274719238</t>
   </si>
   <si>
     <t xml:space="preserve">8.65363883972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69991302490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87113475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08721828460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80678558349609</t>
+    <t xml:space="preserve">8.69991493225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87113571166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0872163772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80678510665894</t>
   </si>
   <si>
     <t xml:space="preserve">7.97800540924072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40189552307129</t>
+    <t xml:space="preserve">8.40189647674561</t>
   </si>
   <si>
     <t xml:space="preserve">8.83781719207764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8405933380127</t>
+    <t xml:space="preserve">8.84059524536133</t>
   </si>
   <si>
     <t xml:space="preserve">8.81745433807373</t>
@@ -302,52 +302,52 @@
     <t xml:space="preserve">8.66104316711426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76377391815186</t>
+    <t xml:space="preserve">8.76377487182617</t>
   </si>
   <si>
     <t xml:space="preserve">8.63882923126221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45279979705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40097141265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62216949462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7822847366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11220836639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09924983978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14460182189941</t>
+    <t xml:space="preserve">8.45279788970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40097045898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62217140197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78228569030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11220741271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0992488861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14459991455078</t>
   </si>
   <si>
     <t xml:space="preserve">8.24733257293701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61013889312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39449119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57034015655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98497581481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10344123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03865528106689</t>
+    <t xml:space="preserve">8.61013984680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39449310302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57034111022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98497486114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10344314575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03865432739258</t>
   </si>
   <si>
     <t xml:space="preserve">9.0812292098999</t>
@@ -365,25 +365,25 @@
     <t xml:space="preserve">8.91926383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36394882202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29268264770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3297061920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39726734161377</t>
+    <t xml:space="preserve">8.36394786834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29268360137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32970523834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39726829528809</t>
   </si>
   <si>
     <t xml:space="preserve">8.25936508178711</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46390438079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33340549468994</t>
+    <t xml:space="preserve">8.46390533447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33340740203857</t>
   </si>
   <si>
     <t xml:space="preserve">8.35747051239014</t>
@@ -392,40 +392,40 @@
     <t xml:space="preserve">8.56108570098877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49629878997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28342914581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41392707824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27972602844238</t>
+    <t xml:space="preserve">8.49629783630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28342819213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41392803192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2797269821167</t>
   </si>
   <si>
     <t xml:space="preserve">8.21123886108398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45927810668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48704528808594</t>
+    <t xml:space="preserve">8.45927906036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48704433441162</t>
   </si>
   <si>
     <t xml:space="preserve">8.54442596435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77210426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83411312103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78320980072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.165452003479</t>
+    <t xml:space="preserve">8.77210521697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83411407470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78321075439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16545104980469</t>
   </si>
   <si>
     <t xml:space="preserve">9.13028240203857</t>
@@ -437,34 +437,34 @@
     <t xml:space="preserve">8.89797592163086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04143047332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11639976501465</t>
+    <t xml:space="preserve">9.04143238067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11639881134033</t>
   </si>
   <si>
     <t xml:space="preserve">9.30150413513184</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27188873291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42922687530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46254444122314</t>
+    <t xml:space="preserve">9.27188777923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42922592163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46254539489746</t>
   </si>
   <si>
     <t xml:space="preserve">9.67911624908447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71799087524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76426696777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6624584197998</t>
+    <t xml:space="preserve">9.71798992156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7642650604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66245651245117</t>
   </si>
   <si>
     <t xml:space="preserve">9.71243572235107</t>
@@ -476,10 +476,10 @@
     <t xml:space="preserve">9.68652153015137</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56064987182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57916069030762</t>
+    <t xml:space="preserve">9.56065082550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5791597366333</t>
   </si>
   <si>
     <t xml:space="preserve">9.35148239135742</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">9.53103351593018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3977575302124</t>
+    <t xml:space="preserve">9.39775657653809</t>
   </si>
   <si>
     <t xml:space="preserve">9.1941442489624</t>
@@ -497,43 +497,43 @@
     <t xml:space="preserve">9.32926845550537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21265411376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12565326690674</t>
+    <t xml:space="preserve">9.21265316009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12565422058105</t>
   </si>
   <si>
     <t xml:space="preserve">9.00533676147461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43799114227295</t>
+    <t xml:space="preserve">8.43799209594727</t>
   </si>
   <si>
     <t xml:space="preserve">8.82300758361816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07104873657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25522899627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03310108184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17193031311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51437282562256</t>
+    <t xml:space="preserve">9.07104969024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25522804260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03310012817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17193222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51437377929688</t>
   </si>
   <si>
     <t xml:space="preserve">9.45884227752686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8105411529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53288555145264</t>
+    <t xml:space="preserve">9.81054210662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53288459777832</t>
   </si>
   <si>
     <t xml:space="preserve">9.60692596435547</t>
@@ -545,118 +545,121 @@
     <t xml:space="preserve">9.75500965118408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97713470458984</t>
+    <t xml:space="preserve">9.97713375091553</t>
   </si>
   <si>
     <t xml:space="preserve">10.0696878433228</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1252193450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86607265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99564743041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88458156585693</t>
+    <t xml:space="preserve">10.1252183914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86607360839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99564647674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88458251953125</t>
   </si>
   <si>
     <t xml:space="preserve">10.0141572952271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1437292098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1807498931885</t>
+    <t xml:space="preserve">10.1437301635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1807508468628</t>
   </si>
   <si>
     <t xml:space="preserve">9.73650074005127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84756278991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90309429168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94011402130127</t>
+    <t xml:space="preserve">9.84756183624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9030933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94011306762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2177715301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2362823486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3843660354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1067094802856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0881977081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1992607116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5879821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6805334091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7360639572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8101053237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4954280853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5509605407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5139398574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4028759002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0511789321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92160511016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2551317214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0122957229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95625591278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99361515045166</t>
   </si>
   <si>
     <t xml:space="preserve">10.2177705764771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2362813949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3843660354614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.10671043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0881986618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1992597579956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5879812240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6805324554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.73606300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8101062774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4954290390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5509595870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5139389038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4028749465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0511789321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92160511016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2551298141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0122957229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95625591278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99361515045166</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.0683326721191</t>
   </si>
   <si>
     <t xml:space="preserve">10.2738094329834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2924880981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1617317199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97493457794189</t>
+    <t xml:space="preserve">10.2924890518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.161732673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97493553161621</t>
   </si>
   <si>
     <t xml:space="preserve">10.1243724822998</t>
@@ -668,25 +671,25 @@
     <t xml:space="preserve">9.93757629394531</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2364501953125</t>
+    <t xml:space="preserve">10.2364511489868</t>
   </si>
   <si>
     <t xml:space="preserve">10.6287240982056</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4792861938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4979648590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4606065750122</t>
+    <t xml:space="preserve">10.479287147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4979658126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4606075286865</t>
   </si>
   <si>
     <t xml:space="preserve">10.4419269561768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9002161026001</t>
+    <t xml:space="preserve">9.90021800994873</t>
   </si>
   <si>
     <t xml:space="preserve">10.3858890533447</t>
@@ -695,7 +698,7 @@
     <t xml:space="preserve">10.1056938171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88153743743896</t>
+    <t xml:space="preserve">9.88153839111328</t>
   </si>
   <si>
     <t xml:space="preserve">10.1430540084839</t>
@@ -704,46 +707,46 @@
     <t xml:space="preserve">10.1804113388062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86285781860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3298482894897</t>
+    <t xml:space="preserve">9.86285877227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3298492431641</t>
   </si>
   <si>
     <t xml:space="preserve">10.9275979995728</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5540027618408</t>
+    <t xml:space="preserve">10.5540037155151</t>
   </si>
   <si>
     <t xml:space="preserve">12.1417760848999</t>
   </si>
   <si>
-    <t xml:space="preserve">11.245153427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6934652328491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4879894256592</t>
+    <t xml:space="preserve">11.2451524734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6934633255005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4879884719849</t>
   </si>
   <si>
     <t xml:space="preserve">11.6187448501587</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7121429443359</t>
+    <t xml:space="preserve">11.7121438980103</t>
   </si>
   <si>
     <t xml:space="preserve">11.6000652313232</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0483779907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2351732254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3285732269287</t>
+    <t xml:space="preserve">12.0483770370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2351741790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3285722732544</t>
   </si>
   <si>
     <t xml:space="preserve">12.5340480804443</t>
@@ -752,7 +755,7 @@
     <t xml:space="preserve">12.6834859848022</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2725315093994</t>
+    <t xml:space="preserve">12.272533416748</t>
   </si>
   <si>
     <t xml:space="preserve">11.6561050415039</t>
@@ -767,19 +770,19 @@
     <t xml:space="preserve">11.5627069473267</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0110168457031</t>
+    <t xml:space="preserve">12.0110187530518</t>
   </si>
   <si>
     <t xml:space="preserve">12.1978149414062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2538528442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3098926544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6087665557861</t>
+    <t xml:space="preserve">12.2538537979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3098917007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6087684631348</t>
   </si>
   <si>
     <t xml:space="preserve">12.7768840789795</t>
@@ -788,7 +791,7 @@
     <t xml:space="preserve">13.0757579803467</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3559532165527</t>
+    <t xml:space="preserve">13.3559541702271</t>
   </si>
   <si>
     <t xml:space="preserve">13.44935131073</t>
@@ -797,7 +800,7 @@
     <t xml:space="preserve">13.5987882614136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1591787338257</t>
+    <t xml:space="preserve">14.1591796875</t>
   </si>
   <si>
     <t xml:space="preserve">13.5614290237427</t>
@@ -809,133 +812,133 @@
     <t xml:space="preserve">13.2065172195435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4780082702637</t>
+    <t xml:space="preserve">12.4780101776123</t>
   </si>
   <si>
     <t xml:space="preserve">12.4406509399414</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3846111297607</t>
+    <t xml:space="preserve">12.3846120834351</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966888427734</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2912120819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3659324645996</t>
+    <t xml:space="preserve">12.2912130355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3659315109253</t>
   </si>
   <si>
     <t xml:space="preserve">14.700888633728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0097417831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5053901672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2625551223755</t>
+    <t xml:space="preserve">14.0097427368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5053911209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2625560760498</t>
   </si>
   <si>
     <t xml:space="preserve">12.9450006484985</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7955636978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6461267471313</t>
+    <t xml:space="preserve">12.7955627441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.646125793457</t>
   </si>
   <si>
     <t xml:space="preserve">12.4593305587769</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8702812194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9076414108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9823617935181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1878366470337</t>
+    <t xml:space="preserve">12.8702831268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.907642364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9823608398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1878385543823</t>
   </si>
   <si>
     <t xml:space="preserve">13.1691560745239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4306707382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1504755020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7395238876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4032917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5527286529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5153675079346</t>
+    <t xml:space="preserve">13.4306716918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1504764556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7395248413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4032897949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5527276992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5153684616089</t>
   </si>
   <si>
     <t xml:space="preserve">11.9362993240356</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8615808486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3759098052979</t>
+    <t xml:space="preserve">11.8615818023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3759107589722</t>
   </si>
   <si>
     <t xml:space="preserve">11.0957145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1704339981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1143951416016</t>
+    <t xml:space="preserve">11.1704320907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1143941879272</t>
   </si>
   <si>
     <t xml:space="preserve">10.8341989517212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3945894241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2077932357788</t>
+    <t xml:space="preserve">11.3945903778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2077941894531</t>
   </si>
   <si>
     <t xml:space="preserve">11.3572301864624</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3011922836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4506282806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.189112663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48926448822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47058486938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94755458831787</t>
+    <t xml:space="preserve">11.3011913299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4506273269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1891117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4892635345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47058391571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94755363464355</t>
   </si>
   <si>
     <t xml:space="preserve">9.62002277374268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77943706512451</t>
+    <t xml:space="preserve">8.77943897247314</t>
   </si>
   <si>
     <t xml:space="preserve">8.87283611297607</t>
@@ -947,10 +950,10 @@
     <t xml:space="preserve">8.30310726165771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25640678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59264183044434</t>
+    <t xml:space="preserve">8.25640773773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5926399230957</t>
   </si>
   <si>
     <t xml:space="preserve">8.49924278259277</t>
@@ -959,16 +962,16 @@
     <t xml:space="preserve">9.71342086791992</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7968406677246</t>
+    <t xml:space="preserve">10.7968397140503</t>
   </si>
   <si>
     <t xml:space="preserve">9.84417819976807</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3672094345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3111686706543</t>
+    <t xml:space="preserve">10.367208480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3111696243286</t>
   </si>
   <si>
     <t xml:space="preserve">9.7881383895874</t>
@@ -980,7 +983,7 @@
     <t xml:space="preserve">10.7781610488892</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7681837081909</t>
+    <t xml:space="preserve">11.7681827545166</t>
   </si>
   <si>
     <t xml:space="preserve">11.9549789428711</t>
@@ -989,25 +992,25 @@
     <t xml:space="preserve">12.5714073181152</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7021656036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8429002761841</t>
+    <t xml:space="preserve">12.7021646499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8429012298584</t>
   </si>
   <si>
     <t xml:space="preserve">13.8229446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5801086425781</t>
+    <t xml:space="preserve">13.5801095962524</t>
   </si>
   <si>
     <t xml:space="preserve">13.7482261657715</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9997634887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1492013931274</t>
+    <t xml:space="preserve">14.9997625350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1491994857788</t>
   </si>
   <si>
     <t xml:space="preserve">15.0371227264404</t>
@@ -1016,43 +1019,43 @@
     <t xml:space="preserve">14.3459749221802</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3920364379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590278625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0831832885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5041122436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0558023452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7195692062378</t>
+    <t xml:space="preserve">15.392035484314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590269088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0831813812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.504114151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0558013916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7195682525635</t>
   </si>
   <si>
     <t xml:space="preserve">14.5701313018799</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1405000686646</t>
+    <t xml:space="preserve">14.1404991149902</t>
   </si>
   <si>
     <t xml:space="preserve">14.2338972091675</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8976640701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9163427352905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7669038772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1778583526611</t>
+    <t xml:space="preserve">13.8976631164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9163417816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7669057846069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1778573989868</t>
   </si>
   <si>
     <t xml:space="preserve">14.4206943511963</t>
@@ -1064,13 +1067,13 @@
     <t xml:space="preserve">15.0931606292725</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603145599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9049663543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9990634918213</t>
+    <t xml:space="preserve">14.6603136062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9049654006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9990644454956</t>
   </si>
   <si>
     <t xml:space="preserve">14.8861474990845</t>
@@ -1079,25 +1082,22 @@
     <t xml:space="preserve">14.8673286437988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0931615829468</t>
-  </si>
-  <si>
     <t xml:space="preserve">15.375452041626</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3378133773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5260076522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4319095611572</t>
+    <t xml:space="preserve">15.3378143310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5260066986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4319105148315</t>
   </si>
   <si>
     <t xml:space="preserve">15.1119804382324</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7167730331421</t>
+    <t xml:space="preserve">14.7167739868164</t>
   </si>
   <si>
     <t xml:space="preserve">15.1872577667236</t>
@@ -1109,31 +1109,31 @@
     <t xml:space="preserve">14.7544116973877</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2437162399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0367031097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1308002471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5071887969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0555229187012</t>
+    <t xml:space="preserve">15.2437171936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0367021560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1307992935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5071878433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0555219650269</t>
   </si>
   <si>
     <t xml:space="preserve">14.5850372314453</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6765613555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2787837982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0880184173584</t>
+    <t xml:space="preserve">15.6765604019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2787818908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.088020324707</t>
   </si>
   <si>
     <t xml:space="preserve">17.8031558990479</t>
@@ -1142,16 +1142,16 @@
     <t xml:space="preserve">16.8433647155762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9939193725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5585041046143</t>
+    <t xml:space="preserve">16.9939212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5585021972656</t>
   </si>
   <si>
     <t xml:space="preserve">17.5396842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5208644866943</t>
+    <t xml:space="preserve">17.5208625793457</t>
   </si>
   <si>
     <t xml:space="preserve">17.916072845459</t>
@@ -1160,19 +1160,19 @@
     <t xml:space="preserve">18.1419048309326</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0101699829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4053745269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4430160522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7843341827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6525993347168</t>
+    <t xml:space="preserve">18.0101661682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4053764343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4430179595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7843379974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6526012420654</t>
   </si>
   <si>
     <t xml:space="preserve">18.1230869293213</t>
@@ -1184,22 +1184,22 @@
     <t xml:space="preserve">19.2898864746094</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4618358612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3489151000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1607227325439</t>
+    <t xml:space="preserve">18.4618320465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3489170074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1607265472412</t>
   </si>
   <si>
     <t xml:space="preserve">17.5020446777344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0854473114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5961418151855</t>
+    <t xml:space="preserve">18.0854454040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5961437225342</t>
   </si>
   <si>
     <t xml:space="preserve">17.9348907470703</t>
@@ -1211,49 +1211,49 @@
     <t xml:space="preserve">16.7869071960449</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9400329589844</t>
+    <t xml:space="preserve">15.940034866333</t>
   </si>
   <si>
     <t xml:space="preserve">16.5798931121826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0717697143555</t>
+    <t xml:space="preserve">16.0717678070068</t>
   </si>
   <si>
     <t xml:space="preserve">15.4883680343628</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8835754394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6551704406738</t>
+    <t xml:space="preserve">15.8835744857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6551723480225</t>
   </si>
   <si>
     <t xml:space="preserve">16.7116317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4105167388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5422534942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3917026519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9751014709473</t>
+    <t xml:space="preserve">16.4105186462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.54225730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3917007446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9750995635986</t>
   </si>
   <si>
     <t xml:space="preserve">16.8245468139648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4481582641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6175308227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4857978820801</t>
+    <t xml:space="preserve">16.4481563568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6175327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4857959747314</t>
   </si>
   <si>
     <t xml:space="preserve">16.4669761657715</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">16.8057270050049</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7492694854736</t>
+    <t xml:space="preserve">16.749267578125</t>
   </si>
   <si>
     <t xml:space="preserve">16.7304496765137</t>
@@ -1271,13 +1271,13 @@
     <t xml:space="preserve">16.8810062408447</t>
   </si>
   <si>
-    <t xml:space="preserve">16.937463760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9186420440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9023962020874</t>
+    <t xml:space="preserve">16.9374618530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.918643951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9023952484131</t>
   </si>
   <si>
     <t xml:space="preserve">15.5448274612427</t>
@@ -1286,46 +1286,46 @@
     <t xml:space="preserve">15.0743427276611</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7920503616333</t>
+    <t xml:space="preserve">14.7920513153076</t>
   </si>
   <si>
     <t xml:space="preserve">14.6414947509766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4455871582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6363506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7330198287964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9964904785156</t>
+    <t xml:space="preserve">17.4455890655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6363525390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7330188751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9964914321899</t>
   </si>
   <si>
     <t xml:space="preserve">16.354061126709</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5987110137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9562835693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5610752105713</t>
+    <t xml:space="preserve">16.5987129211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9562816619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5610733032227</t>
   </si>
   <si>
     <t xml:space="preserve">17.0691986083984</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2009334564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7680912017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0315570831299</t>
+    <t xml:space="preserve">17.2009353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.768087387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0315589904785</t>
   </si>
   <si>
     <t xml:space="preserve">17.0127410888672</t>
@@ -1334,19 +1334,19 @@
     <t xml:space="preserve">18.0289878845215</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2171821594238</t>
+    <t xml:space="preserve">18.2171802520752</t>
   </si>
   <si>
     <t xml:space="preserve">18.6688480377197</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0478076934814</t>
+    <t xml:space="preserve">18.0478057861328</t>
   </si>
   <si>
     <t xml:space="preserve">18.1795425415039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.692813873291</t>
+    <t xml:space="preserve">16.6928119659424</t>
   </si>
   <si>
     <t xml:space="preserve">16.8621845245361</t>
@@ -1355,25 +1355,25 @@
     <t xml:space="preserve">16.6739921569824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4293384552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1444778442383</t>
+    <t xml:space="preserve">16.4293403625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1444759368896</t>
   </si>
   <si>
     <t xml:space="preserve">16.1846885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">15.95885181427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8647575378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7142009735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1282291412354</t>
+    <t xml:space="preserve">15.9588537216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8647565841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7142000198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.128231048584</t>
   </si>
   <si>
     <t xml:space="preserve">16.0153121948242</t>
@@ -1388,28 +1388,28 @@
     <t xml:space="preserve">14.6226758956909</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2651071548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.96142578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6201028823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.751838684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7894773483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6389236450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8271169662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.582465171814</t>
+    <t xml:space="preserve">14.2651081085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9614267349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6201047897339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7518396377563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.789478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6389245986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8271188735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5824661254883</t>
   </si>
   <si>
     <t xml:space="preserve">15.563645362854</t>
@@ -1418,31 +1418,31 @@
     <t xml:space="preserve">15.7706594467163</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9776735305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.335241317749</t>
+    <t xml:space="preserve">15.9776725769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3352432250977</t>
   </si>
   <si>
     <t xml:space="preserve">17.2197532653809</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2573947906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0666275024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7090587615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.897253036499</t>
+    <t xml:space="preserve">17.2573928833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.06662940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.709056854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8972511291504</t>
   </si>
   <si>
     <t xml:space="preserve">18.2548198699951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7655143737793</t>
+    <t xml:space="preserve">17.7655162811279</t>
   </si>
   <si>
     <t xml:space="preserve">18.6123905181885</t>
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">17.2950305938721</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6902370452881</t>
+    <t xml:space="preserve">17.6902389526367</t>
   </si>
   <si>
     <t xml:space="preserve">17.7278747558594</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">19.854471206665</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9485664367676</t>
+    <t xml:space="preserve">19.9485683441162</t>
   </si>
   <si>
     <t xml:space="preserve">19.5721797943115</t>
@@ -1481,19 +1481,19 @@
     <t xml:space="preserve">20.701343536377</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6072444915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4190521240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.277904510498</t>
+    <t xml:space="preserve">20.6072463989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4190540313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2779064178467</t>
   </si>
   <si>
     <t xml:space="preserve">20.0897121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3720054626465</t>
+    <t xml:space="preserve">20.3720035552979</t>
   </si>
   <si>
     <t xml:space="preserve">20.7483940124512</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">21.7364101409912</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1128005981445</t>
+    <t xml:space="preserve">22.1127986907959</t>
   </si>
   <si>
     <t xml:space="preserve">21.4541206359863</t>
@@ -1517,16 +1517,16 @@
     <t xml:space="preserve">20.9836330413818</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2308597564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9015197753906</t>
+    <t xml:space="preserve">20.2308578491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.901517868042</t>
   </si>
   <si>
     <t xml:space="preserve">19.6192264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3369388580322</t>
+    <t xml:space="preserve">19.336935043335</t>
   </si>
   <si>
     <t xml:space="preserve">19.8764400482178</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">20.1130638122559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9237613677979</t>
+    <t xml:space="preserve">19.9237651824951</t>
   </si>
   <si>
     <t xml:space="preserve">19.5924911499023</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">19.687141418457</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6398162841797</t>
+    <t xml:space="preserve">19.6398143768311</t>
   </si>
   <si>
     <t xml:space="preserve">19.8291149139404</t>
@@ -1553,22 +1553,22 @@
     <t xml:space="preserve">19.1665668487549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9772663116455</t>
+    <t xml:space="preserve">18.9772682189941</t>
   </si>
   <si>
     <t xml:space="preserve">19.3085422515869</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2138919830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0719184875488</t>
+    <t xml:space="preserve">19.2138900756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0719203948975</t>
   </si>
   <si>
     <t xml:space="preserve">19.7817897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1192417144775</t>
+    <t xml:space="preserve">19.1192436218262</t>
   </si>
   <si>
     <t xml:space="preserve">20.3023624420166</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">18.9110126495361</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6459941864014</t>
+    <t xml:space="preserve">18.6459922790527</t>
   </si>
   <si>
     <t xml:space="preserve">18.9299430847168</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">18.7785034179688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2077140808105</t>
+    <t xml:space="preserve">20.2077121734619</t>
   </si>
   <si>
     <t xml:space="preserve">20.5389881134033</t>
@@ -1616,22 +1616,22 @@
     <t xml:space="preserve">22.2426834106445</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6212825775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1418552398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3784770965576</t>
+    <t xml:space="preserve">22.621280670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1418571472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3784790039062</t>
   </si>
   <si>
     <t xml:space="preserve">23.6624298095703</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3311557769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2365016937256</t>
+    <t xml:space="preserve">23.3311538696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2365036010742</t>
   </si>
   <si>
     <t xml:space="preserve">23.7570781707764</t>
@@ -1643,13 +1643,13 @@
     <t xml:space="preserve">23.9463768005371</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8990516662598</t>
+    <t xml:space="preserve">23.8990535736084</t>
   </si>
   <si>
     <t xml:space="preserve">23.1891803741455</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9998817443848</t>
+    <t xml:space="preserve">22.9998798370361</t>
   </si>
   <si>
     <t xml:space="preserve">23.0472049713135</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">23.709753036499</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0945281982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4258041381836</t>
+    <t xml:space="preserve">23.0945301055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.425802230835</t>
   </si>
   <si>
     <t xml:space="preserve">23.615104675293</t>
@@ -1670,13 +1670,13 @@
     <t xml:space="preserve">24.0410270690918</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9114074707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8640842437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2900066375732</t>
+    <t xml:space="preserve">21.9114093780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.864086151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2900085449219</t>
   </si>
   <si>
     <t xml:space="preserve">22.1007099151611</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">21.2961864471436</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0595607757568</t>
+    <t xml:space="preserve">21.0595626831055</t>
   </si>
   <si>
     <t xml:space="preserve">21.1068859100342</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">20.9175853729248</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7282867431641</t>
+    <t xml:space="preserve">20.7282886505127</t>
   </si>
   <si>
     <t xml:space="preserve">21.3908348083496</t>
@@ -1706,10 +1706,10 @@
     <t xml:space="preserve">22.0060577392578</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9875259399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8455505371094</t>
+    <t xml:space="preserve">24.9875221252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8455486297607</t>
   </si>
   <si>
     <t xml:space="preserve">25.1768226623535</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">24.6089248657227</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5615997314453</t>
+    <t xml:space="preserve">24.5616016387939</t>
   </si>
   <si>
     <t xml:space="preserve">23.567777633667</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">23.8044013977051</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3249778747559</t>
+    <t xml:space="preserve">24.3249759674072</t>
   </si>
   <si>
     <t xml:space="preserve">23.9937038421631</t>
@@ -1742,82 +1742,82 @@
     <t xml:space="preserve">24.65625</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7447204589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.602746963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8393726348877</t>
+    <t xml:space="preserve">25.744722366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6027488708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8393707275391</t>
   </si>
   <si>
     <t xml:space="preserve">25.5554237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4607715606689</t>
+    <t xml:space="preserve">25.4607734680176</t>
   </si>
   <si>
     <t xml:space="preserve">23.4731273651123</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7159290313721</t>
+    <t xml:space="preserve">22.7159309387207</t>
   </si>
   <si>
     <t xml:space="preserve">22.4319820404053</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2838306427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4196262359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8928737640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7035751342773</t>
+    <t xml:space="preserve">23.2838325500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4196243286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8928775787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.703577041626</t>
   </si>
   <si>
     <t xml:space="preserve">24.9401988983154</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0883522033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1830043792725</t>
+    <t xml:space="preserve">24.0883541107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1830005645752</t>
   </si>
   <si>
     <t xml:space="preserve">25.0348491668701</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7982234954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3661212921143</t>
+    <t xml:space="preserve">24.798225402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3661231994629</t>
   </si>
   <si>
     <t xml:space="preserve">25.3187980651855</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6747856140137</t>
+    <t xml:space="preserve">21.674783706665</t>
   </si>
   <si>
     <t xml:space="preserve">21.3435115814209</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5801334381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.586311340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9587345123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0122394561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4854831695557</t>
+    <t xml:space="preserve">21.580135345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5863132476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9587326049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0122356414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4854850769043</t>
   </si>
   <si>
     <t xml:space="preserve">21.7694339752197</t>
@@ -1829,10 +1829,10 @@
     <t xml:space="preserve">20.3970127105713</t>
   </si>
   <si>
-    <t xml:space="preserve">20.491662979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3558673858643</t>
+    <t xml:space="preserve">20.4916648864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3558654785156</t>
   </si>
   <si>
     <t xml:space="preserve">18.7027816772461</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">20.0184154510498</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8229370117188</t>
+    <t xml:space="preserve">20.8229389190674</t>
   </si>
   <si>
     <t xml:space="preserve">19.4978408813477</t>
@@ -1862,31 +1862,31 @@
     <t xml:space="preserve">18.4377632141113</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3241863250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7974319458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0657367706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8167591094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1480312347412</t>
+    <t xml:space="preserve">18.3241844177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7974338531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0657386779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8167572021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1480331420898</t>
   </si>
   <si>
     <t xml:space="preserve">22.4793071746826</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6274585723877</t>
+    <t xml:space="preserve">21.6274604797363</t>
   </si>
   <si>
     <t xml:space="preserve">20.6336364746094</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4443397521973</t>
+    <t xml:space="preserve">20.4443378448486</t>
   </si>
   <si>
     <t xml:space="preserve">20.1603889465332</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">18.8731536865234</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8352909088135</t>
+    <t xml:space="preserve">18.8352928161621</t>
   </si>
   <si>
     <t xml:space="preserve">22.0533809661865</t>
@@ -1907,19 +1907,19 @@
     <t xml:space="preserve">20.6809616088867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.456693649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0970249176025</t>
+    <t xml:space="preserve">18.4566917419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0970230102539</t>
   </si>
   <si>
     <t xml:space="preserve">18.0213069915771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3398246765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3208980560303</t>
+    <t xml:space="preserve">17.3398284912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3208999633789</t>
   </si>
   <si>
     <t xml:space="preserve">16.8914566040039</t>
@@ -2159,9 +2159,6 @@
     <t xml:space="preserve">23.5716915130615</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0945301055908</t>
-  </si>
-  <si>
     <t xml:space="preserve">23.8579883575439</t>
   </si>
   <si>
@@ -2967,6 +2964,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.4599990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1399993896484</t>
   </si>
 </sst>
 </file>
@@ -10294,7 +10294,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G269" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -10320,7 +10320,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G270" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -10346,7 +10346,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G271" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -10372,7 +10372,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G272" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10398,7 +10398,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G273" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -10424,7 +10424,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G274" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -10450,7 +10450,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G275" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -10476,7 +10476,7 @@
         <v>10.3703145980835</v>
       </c>
       <c r="G276" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -10502,7 +10502,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G277" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10528,7 +10528,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G278" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10554,7 +10554,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G279" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10580,7 +10580,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G280" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10632,7 +10632,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G282" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10710,7 +10710,7 @@
         <v>10.3314752578735</v>
       </c>
       <c r="G285" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10736,7 +10736,7 @@
         <v>10.6421957015991</v>
       </c>
       <c r="G286" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10762,7 +10762,7 @@
         <v>11.0500173568726</v>
       </c>
       <c r="G287" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10788,7 +10788,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G288" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10814,7 +10814,7 @@
         <v>10.9140768051147</v>
       </c>
       <c r="G289" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10840,7 +10840,7 @@
         <v>10.8752374649048</v>
       </c>
       <c r="G290" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10866,7 +10866,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G291" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10892,7 +10892,7 @@
         <v>10.8558168411255</v>
       </c>
       <c r="G292" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10918,7 +10918,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G293" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10944,7 +10944,7 @@
         <v>10.2926349639893</v>
       </c>
       <c r="G294" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -10970,7 +10970,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G295" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10996,7 +10996,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G296" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -11022,7 +11022,7 @@
         <v>10.5062561035156</v>
       </c>
       <c r="G297" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -11048,7 +11048,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G298" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -11074,7 +11074,7 @@
         <v>10.3314752578735</v>
       </c>
       <c r="G299" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -11100,7 +11100,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G300" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -11126,7 +11126,7 @@
         <v>10.2732152938843</v>
       </c>
       <c r="G301" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -11152,7 +11152,7 @@
         <v>10.3703145980835</v>
       </c>
       <c r="G302" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -11178,7 +11178,7 @@
         <v>10.5450963973999</v>
       </c>
       <c r="G303" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -11204,7 +11204,7 @@
         <v>10.5839357376099</v>
       </c>
       <c r="G304" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -11230,7 +11230,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G305" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -11256,7 +11256,7 @@
         <v>10.253794670105</v>
       </c>
       <c r="G306" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -11282,7 +11282,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G307" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -11308,7 +11308,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G308" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -11334,7 +11334,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G309" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -11360,7 +11360,7 @@
         <v>10.7392959594727</v>
       </c>
       <c r="G310" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -11386,7 +11386,7 @@
         <v>10.7392959594727</v>
       </c>
       <c r="G311" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -11412,7 +11412,7 @@
         <v>10.8752374649048</v>
       </c>
       <c r="G312" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -11438,7 +11438,7 @@
         <v>11.0500173568726</v>
       </c>
       <c r="G313" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -11464,7 +11464,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G314" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -11490,7 +11490,7 @@
         <v>10.972336769104</v>
       </c>
       <c r="G315" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -11516,7 +11516,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G316" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -11542,7 +11542,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G317" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -11568,7 +11568,7 @@
         <v>11.6908798217773</v>
       </c>
       <c r="G318" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -11594,7 +11594,7 @@
         <v>12.15696144104</v>
       </c>
       <c r="G319" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11620,7 +11620,7 @@
         <v>11.943341255188</v>
       </c>
       <c r="G320" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11646,7 +11646,7 @@
         <v>11.943341255188</v>
       </c>
       <c r="G321" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11672,7 +11672,7 @@
         <v>12.0792808532715</v>
       </c>
       <c r="G322" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11698,7 +11698,7 @@
         <v>12.176381111145</v>
       </c>
       <c r="G323" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11724,7 +11724,7 @@
         <v>12.0598611831665</v>
       </c>
       <c r="G324" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11750,7 +11750,7 @@
         <v>12.15696144104</v>
       </c>
       <c r="G325" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11776,7 +11776,7 @@
         <v>12.176381111145</v>
       </c>
       <c r="G326" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11802,7 +11802,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G327" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11828,7 +11828,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G328" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11854,7 +11854,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G329" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11880,7 +11880,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G330" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11906,7 +11906,7 @@
         <v>13.0308637619019</v>
       </c>
       <c r="G331" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11932,7 +11932,7 @@
         <v>13.186224937439</v>
       </c>
       <c r="G332" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11958,7 +11958,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G333" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11984,7 +11984,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G334" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -12010,7 +12010,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G335" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -12036,7 +12036,7 @@
         <v>12.2929019927979</v>
       </c>
       <c r="G336" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -12062,7 +12062,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G337" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -12088,7 +12088,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G338" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -12114,7 +12114,7 @@
         <v>12.0210208892822</v>
       </c>
       <c r="G339" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -12140,7 +12140,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G340" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -12166,7 +12166,7 @@
         <v>12.0792808532715</v>
       </c>
       <c r="G341" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -12192,7 +12192,7 @@
         <v>12.1375408172607</v>
       </c>
       <c r="G342" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -12218,7 +12218,7 @@
         <v>12.1181211471558</v>
       </c>
       <c r="G343" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -12244,7 +12244,7 @@
         <v>12.4871015548706</v>
       </c>
       <c r="G344" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -12270,7 +12270,7 @@
         <v>12.681303024292</v>
       </c>
       <c r="G345" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -12296,7 +12296,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G346" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -12322,7 +12322,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G347" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -12348,7 +12348,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G348" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -12374,7 +12374,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G349" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -12400,7 +12400,7 @@
         <v>12.7978229522705</v>
       </c>
       <c r="G350" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -12426,7 +12426,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G351" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -12452,7 +12452,7 @@
         <v>13.2833251953125</v>
       </c>
       <c r="G352" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -12478,7 +12478,7 @@
         <v>13.5940456390381</v>
       </c>
       <c r="G353" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -12504,7 +12504,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G354" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -12530,7 +12530,7 @@
         <v>13.9824476242065</v>
       </c>
       <c r="G355" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -12556,7 +12556,7 @@
         <v>14.1378078460693</v>
       </c>
       <c r="G356" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -12582,7 +12582,7 @@
         <v>14.7204103469849</v>
       </c>
       <c r="G357" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -12608,7 +12608,7 @@
         <v>14.1378078460693</v>
       </c>
       <c r="G358" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12634,7 +12634,7 @@
         <v>14.0989675521851</v>
       </c>
       <c r="G359" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12660,7 +12660,7 @@
         <v>13.8270874023438</v>
       </c>
       <c r="G360" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12686,7 +12686,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G361" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12712,7 +12712,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G362" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12738,7 +12738,7 @@
         <v>12.9726037979126</v>
       </c>
       <c r="G363" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12764,7 +12764,7 @@
         <v>12.9337644577026</v>
       </c>
       <c r="G364" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12790,7 +12790,7 @@
         <v>12.8755035400391</v>
       </c>
       <c r="G365" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12816,7 +12816,7 @@
         <v>12.9920244216919</v>
       </c>
       <c r="G366" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12842,7 +12842,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G367" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12868,7 +12868,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G368" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12894,7 +12894,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G369" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12920,7 +12920,7 @@
         <v>12.7784032821655</v>
       </c>
       <c r="G370" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12946,7 +12946,7 @@
         <v>12.8560838699341</v>
       </c>
       <c r="G371" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12972,7 +12972,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G372" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12998,7 +12998,7 @@
         <v>15.2835922241211</v>
       </c>
       <c r="G373" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -13024,7 +13024,7 @@
         <v>14.5650501251221</v>
       </c>
       <c r="G374" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13050,7 +13050,7 @@
         <v>14.0407075881958</v>
       </c>
       <c r="G375" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -13076,7 +13076,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G376" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -13102,7 +13102,7 @@
         <v>13.4581060409546</v>
       </c>
       <c r="G377" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13128,7 +13128,7 @@
         <v>13.3027448654175</v>
       </c>
       <c r="G378" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13154,7 +13154,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G379" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13180,7 +13180,7 @@
         <v>13.1473846435547</v>
       </c>
       <c r="G380" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13206,7 +13206,7 @@
         <v>12.9531841278076</v>
       </c>
       <c r="G381" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -13232,7 +13232,7 @@
         <v>12.9531841278076</v>
       </c>
       <c r="G382" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -13258,7 +13258,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G383" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -13284,7 +13284,7 @@
         <v>12.8755035400391</v>
       </c>
       <c r="G384" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -13310,7 +13310,7 @@
         <v>13.380425453186</v>
       </c>
       <c r="G385" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -13336,7 +13336,7 @@
         <v>13.4192657470703</v>
       </c>
       <c r="G386" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -13362,7 +13362,7 @@
         <v>13.4969463348389</v>
       </c>
       <c r="G387" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13388,7 +13388,7 @@
         <v>13.7105674743652</v>
       </c>
       <c r="G388" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13414,7 +13414,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G389" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13440,7 +13440,7 @@
         <v>13.6911468505859</v>
       </c>
       <c r="G390" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13466,7 +13466,7 @@
         <v>13.9630270004272</v>
       </c>
       <c r="G391" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13492,7 +13492,7 @@
         <v>13.9630270004272</v>
       </c>
       <c r="G392" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13518,7 +13518,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G393" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13544,7 +13544,7 @@
         <v>13.4581060409546</v>
       </c>
       <c r="G394" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -13570,7 +13570,7 @@
         <v>13.885347366333</v>
       </c>
       <c r="G395" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -13596,7 +13596,7 @@
         <v>13.6717262268066</v>
       </c>
       <c r="G396" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13622,7 +13622,7 @@
         <v>13.2444849014282</v>
       </c>
       <c r="G397" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13648,7 +13648,7 @@
         <v>12.8949241638184</v>
       </c>
       <c r="G398" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13674,7 +13674,7 @@
         <v>12.7589826583862</v>
       </c>
       <c r="G399" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13700,7 +13700,7 @@
         <v>13.0502843856812</v>
       </c>
       <c r="G400" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13726,7 +13726,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G401" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13752,7 +13752,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G402" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13778,7 +13778,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G403" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13804,7 +13804,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G404" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13830,7 +13830,7 @@
         <v>12.8172435760498</v>
       </c>
       <c r="G405" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13856,7 +13856,7 @@
         <v>12.7201433181763</v>
       </c>
       <c r="G406" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13882,7 +13882,7 @@
         <v>12.7395629882812</v>
       </c>
       <c r="G407" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13908,7 +13908,7 @@
         <v>12.5259428024292</v>
       </c>
       <c r="G408" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13934,7 +13934,7 @@
         <v>12.4871015548706</v>
       </c>
       <c r="G409" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13960,7 +13960,7 @@
         <v>12.4094219207764</v>
       </c>
       <c r="G410" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13986,7 +13986,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G411" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14012,7 +14012,7 @@
         <v>11.8268203735352</v>
       </c>
       <c r="G412" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -14038,7 +14038,7 @@
         <v>11.5355186462402</v>
       </c>
       <c r="G413" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14064,7 +14064,7 @@
         <v>11.6131992340088</v>
       </c>
       <c r="G414" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14090,7 +14090,7 @@
         <v>11.5549392700195</v>
       </c>
       <c r="G415" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14116,7 +14116,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G416" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14142,7 +14142,7 @@
         <v>11.5549392700195</v>
       </c>
       <c r="G417" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14168,7 +14168,7 @@
         <v>11.2636375427246</v>
       </c>
       <c r="G418" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14194,7 +14194,7 @@
         <v>11.5355186462402</v>
       </c>
       <c r="G419" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14220,7 +14220,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G420" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14246,7 +14246,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G421" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14272,7 +14272,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G422" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14298,7 +14298,7 @@
         <v>11.8073997497559</v>
       </c>
       <c r="G423" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14324,7 +14324,7 @@
         <v>11.7491397857666</v>
       </c>
       <c r="G424" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14350,7 +14350,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G425" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14376,7 +14376,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G426" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14402,7 +14402,7 @@
         <v>11.8462400436401</v>
       </c>
       <c r="G427" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14428,7 +14428,7 @@
         <v>11.7491397857666</v>
       </c>
       <c r="G428" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14454,7 +14454,7 @@
         <v>11.8073997497559</v>
       </c>
       <c r="G429" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -14480,7 +14480,7 @@
         <v>11.9045000076294</v>
       </c>
       <c r="G430" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14506,7 +14506,7 @@
         <v>11.6326189041138</v>
       </c>
       <c r="G431" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -14532,7 +14532,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G432" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -14558,7 +14558,7 @@
         <v>10.972336769104</v>
       </c>
       <c r="G433" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -14584,7 +14584,7 @@
         <v>11.3607387542725</v>
       </c>
       <c r="G434" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -14610,7 +14610,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G435" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14636,7 +14636,7 @@
         <v>10.7975568771362</v>
       </c>
       <c r="G436" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14662,7 +14662,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G437" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14688,7 +14688,7 @@
         <v>10.9140768051147</v>
       </c>
       <c r="G438" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14714,7 +14714,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G439" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14740,7 +14740,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G440" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14766,7 +14766,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G441" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14792,7 +14792,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G442" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14818,7 +14818,7 @@
         <v>9.86539268493652</v>
       </c>
       <c r="G443" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14844,7 +14844,7 @@
         <v>9.84597301483154</v>
       </c>
       <c r="G444" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14870,7 +14870,7 @@
         <v>9.30221080780029</v>
       </c>
       <c r="G445" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14896,7 +14896,7 @@
         <v>10.0013341903687</v>
       </c>
       <c r="G446" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14922,7 +14922,7 @@
         <v>9.12743091583252</v>
       </c>
       <c r="G447" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14974,7 +14974,7 @@
         <v>9.22453117370605</v>
       </c>
       <c r="G449" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15000,7 +15000,7 @@
         <v>8.59337902069092</v>
       </c>
       <c r="G450" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15026,7 +15026,7 @@
         <v>8.6322193145752</v>
       </c>
       <c r="G451" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15052,7 +15052,7 @@
         <v>8.58366870880127</v>
       </c>
       <c r="G452" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -15078,7 +15078,7 @@
         <v>8.93323040008545</v>
       </c>
       <c r="G453" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15104,7 +15104,7 @@
         <v>8.83613014221191</v>
       </c>
       <c r="G454" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15130,7 +15130,7 @@
         <v>10.0984344482422</v>
       </c>
       <c r="G455" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15156,7 +15156,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G456" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15182,7 +15182,7 @@
         <v>11.6326189041138</v>
       </c>
       <c r="G457" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15208,7 +15208,7 @@
         <v>11.2247982025146</v>
       </c>
       <c r="G458" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -15234,7 +15234,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G459" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15260,7 +15260,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G460" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -15286,7 +15286,7 @@
         <v>10.234375</v>
       </c>
       <c r="G461" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -15312,7 +15312,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G462" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15338,7 +15338,7 @@
         <v>10.7781372070312</v>
       </c>
       <c r="G463" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15364,7 +15364,7 @@
         <v>10.7198762893677</v>
       </c>
       <c r="G464" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15390,7 +15390,7 @@
         <v>10.2926349639893</v>
       </c>
       <c r="G465" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15416,7 +15416,7 @@
         <v>10.2732152938843</v>
       </c>
       <c r="G466" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15442,7 +15442,7 @@
         <v>10.1761140823364</v>
       </c>
       <c r="G467" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -15468,7 +15468,7 @@
         <v>10.4868364334106</v>
       </c>
       <c r="G468" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -15494,7 +15494,7 @@
         <v>11.2053775787354</v>
       </c>
       <c r="G469" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15520,7 +15520,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G470" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -15546,7 +15546,7 @@
         <v>11.8268203735352</v>
       </c>
       <c r="G471" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -15572,7 +15572,7 @@
         <v>11.6520395278931</v>
       </c>
       <c r="G472" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -15598,7 +15598,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G473" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15624,7 +15624,7 @@
         <v>12.2346420288086</v>
       </c>
       <c r="G474" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15650,7 +15650,7 @@
         <v>12.4288415908813</v>
       </c>
       <c r="G475" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15676,7 +15676,7 @@
         <v>13.0697040557861</v>
       </c>
       <c r="G476" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15702,7 +15702,7 @@
         <v>13.1473846435547</v>
       </c>
       <c r="G477" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15728,7 +15728,7 @@
         <v>13.2056446075439</v>
       </c>
       <c r="G478" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15754,7 +15754,7 @@
         <v>13.0114440917969</v>
       </c>
       <c r="G479" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15780,7 +15780,7 @@
         <v>12.9337644577026</v>
       </c>
       <c r="G480" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15806,7 +15806,7 @@
         <v>12.6230430603027</v>
       </c>
       <c r="G481" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15832,7 +15832,7 @@
         <v>12.3123216629028</v>
       </c>
       <c r="G482" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15858,7 +15858,7 @@
         <v>12.4288415908813</v>
       </c>
       <c r="G483" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15884,7 +15884,7 @@
         <v>12.7784032821655</v>
       </c>
       <c r="G484" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15910,7 +15910,7 @@
         <v>12.3317422866821</v>
       </c>
       <c r="G485" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15936,7 +15936,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G486" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15962,7 +15962,7 @@
         <v>13.1085453033447</v>
       </c>
       <c r="G487" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15988,7 +15988,7 @@
         <v>13.7882471084595</v>
       </c>
       <c r="G488" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16014,7 +16014,7 @@
         <v>14.3708486557007</v>
       </c>
       <c r="G489" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16040,7 +16040,7 @@
         <v>14.1183881759644</v>
       </c>
       <c r="G490" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -16066,7 +16066,7 @@
         <v>13.7299871444702</v>
       </c>
       <c r="G491" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16092,7 +16092,7 @@
         <v>14.2931690216064</v>
       </c>
       <c r="G492" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16118,7 +16118,7 @@
         <v>15.5943126678467</v>
       </c>
       <c r="G493" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16144,7 +16144,7 @@
         <v>15.7496738433838</v>
       </c>
       <c r="G494" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16170,7 +16170,7 @@
         <v>15.633152961731</v>
       </c>
       <c r="G495" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16196,7 +16196,7 @@
         <v>14.9146108627319</v>
       </c>
       <c r="G496" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16222,7 +16222,7 @@
         <v>16.0021343231201</v>
       </c>
       <c r="G497" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16248,7 +16248,7 @@
         <v>16.4876365661621</v>
       </c>
       <c r="G498" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -16274,7 +16274,7 @@
         <v>16.7206764221191</v>
       </c>
       <c r="G499" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -16300,7 +16300,7 @@
         <v>16.1186542510986</v>
       </c>
       <c r="G500" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16326,7 +16326,7 @@
         <v>15.6525726318359</v>
       </c>
       <c r="G501" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16352,7 +16352,7 @@
         <v>15.3030118942261</v>
       </c>
       <c r="G502" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16378,7 +16378,7 @@
         <v>15.1476516723633</v>
       </c>
       <c r="G503" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16404,7 +16404,7 @@
         <v>14.7009897232056</v>
       </c>
       <c r="G504" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16430,7 +16430,7 @@
         <v>14.7009897232056</v>
       </c>
       <c r="G505" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16456,7 +16456,7 @@
         <v>14.7980899810791</v>
       </c>
       <c r="G506" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -16482,7 +16482,7 @@
         <v>14.4485292434692</v>
       </c>
       <c r="G507" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16508,7 +16508,7 @@
         <v>14.4679489135742</v>
       </c>
       <c r="G508" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16534,7 +16534,7 @@
         <v>14.3125886917114</v>
       </c>
       <c r="G509" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16560,7 +16560,7 @@
         <v>14.7398300170898</v>
       </c>
       <c r="G510" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -16586,7 +16586,7 @@
         <v>14.9922914505005</v>
       </c>
       <c r="G511" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -16612,7 +16612,7 @@
         <v>15.4001121520996</v>
       </c>
       <c r="G512" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16638,7 +16638,7 @@
         <v>15.6914129257202</v>
       </c>
       <c r="G513" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16664,7 +16664,7 @@
         <v>15.128231048584</v>
       </c>
       <c r="G514" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16690,7 +16690,7 @@
         <v>15.3806915283203</v>
       </c>
       <c r="G515" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16716,7 +16716,7 @@
         <v>15.4777927398682</v>
       </c>
       <c r="G516" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16742,7 +16742,7 @@
         <v>15.3612718582153</v>
       </c>
       <c r="G517" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16768,7 +16768,7 @@
         <v>15.3418521881104</v>
       </c>
       <c r="G518" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16794,7 +16794,7 @@
         <v>15.5748929977417</v>
       </c>
       <c r="G519" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16846,7 +16846,7 @@
         <v>15.3806915283203</v>
       </c>
       <c r="G521" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17392,7 +17392,7 @@
         <v>15.3612718582153</v>
       </c>
       <c r="G542" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -21396,7 +21396,7 @@
         <v>15.3418521881104</v>
       </c>
       <c r="G696" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -32758,7 +32758,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1133" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32810,7 +32810,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1135" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32862,7 +32862,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1137" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32914,7 +32914,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1139" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32966,7 +32966,7 @@
         <v>23.4497299194336</v>
       </c>
       <c r="G1141" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32992,7 +32992,7 @@
         <v>23.3526306152344</v>
       </c>
       <c r="G1142" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33018,7 +33018,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1143" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -33044,7 +33044,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1144" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -33070,7 +33070,7 @@
         <v>22.7214775085449</v>
       </c>
       <c r="G1145" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -33096,7 +33096,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1146" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -33122,7 +33122,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1147" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -33148,7 +33148,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1148" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33174,7 +33174,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G1149" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33226,7 +33226,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1151" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33252,7 +33252,7 @@
         <v>23.7410316467285</v>
       </c>
       <c r="G1152" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33278,7 +33278,7 @@
         <v>22.9642276763916</v>
       </c>
       <c r="G1153" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33304,7 +33304,7 @@
         <v>22.5272769927979</v>
       </c>
       <c r="G1154" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33330,7 +33330,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1155" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33356,7 +33356,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1156" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33434,7 +33434,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1159" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33538,7 +33538,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1163" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33564,7 +33564,7 @@
         <v>22.2845268249512</v>
       </c>
       <c r="G1164" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33590,7 +33590,7 @@
         <v>22.1388759613037</v>
       </c>
       <c r="G1165" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33616,7 +33616,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1166" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33668,7 +33668,7 @@
         <v>22.2359752655029</v>
       </c>
       <c r="G1168" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33694,7 +33694,7 @@
         <v>22.0903244018555</v>
       </c>
       <c r="G1169" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33720,7 +33720,7 @@
         <v>21.896125793457</v>
       </c>
       <c r="G1170" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33746,7 +33746,7 @@
         <v>22.2845268249512</v>
       </c>
       <c r="G1171" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33772,7 +33772,7 @@
         <v>22.4787273406982</v>
       </c>
       <c r="G1172" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33798,7 +33798,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1173" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33824,7 +33824,7 @@
         <v>22.9642276763916</v>
       </c>
       <c r="G1174" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33850,7 +33850,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1175" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33902,7 +33902,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1177" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33928,7 +33928,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1178" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -34006,7 +34006,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1181" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -34032,7 +34032,7 @@
         <v>22.4787273406982</v>
       </c>
       <c r="G1182" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34058,7 +34058,7 @@
         <v>22.0417747497559</v>
       </c>
       <c r="G1183" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34110,7 +34110,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G1185" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -34162,7 +34162,7 @@
         <v>25.2946357727051</v>
       </c>
       <c r="G1187" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34188,7 +34188,7 @@
         <v>24.5663833618164</v>
       </c>
       <c r="G1188" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34240,7 +34240,7 @@
         <v>24.8576850891113</v>
       </c>
       <c r="G1190" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34266,7 +34266,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1191" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34292,7 +34292,7 @@
         <v>25.9257888793945</v>
       </c>
       <c r="G1192" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34318,7 +34318,7 @@
         <v>25.5373878479004</v>
       </c>
       <c r="G1193" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34344,7 +34344,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1194" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34370,7 +34370,7 @@
         <v>25.3431873321533</v>
       </c>
       <c r="G1195" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34396,7 +34396,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1196" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34448,7 +34448,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G1198" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34474,7 +34474,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G1199" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34500,7 +34500,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1200" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34526,7 +34526,7 @@
         <v>26.3627395629883</v>
       </c>
       <c r="G1201" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34552,7 +34552,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G1202" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34578,7 +34578,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1203" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34604,7 +34604,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G1204" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34630,7 +34630,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G1205" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34656,7 +34656,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1206" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34682,7 +34682,7 @@
         <v>25.9257888793945</v>
       </c>
       <c r="G1207" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34708,7 +34708,7 @@
         <v>26.1685390472412</v>
       </c>
       <c r="G1208" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34734,7 +34734,7 @@
         <v>26.4112892150879</v>
       </c>
       <c r="G1209" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34760,7 +34760,7 @@
         <v>25.9743385314941</v>
       </c>
       <c r="G1210" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34786,7 +34786,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1211" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34812,7 +34812,7 @@
         <v>24.1779823303223</v>
       </c>
       <c r="G1212" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34838,7 +34838,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1213" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34890,7 +34890,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1215" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34916,7 +34916,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1216" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34942,7 +34942,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G1217" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34968,7 +34968,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G1218" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34994,7 +34994,7 @@
         <v>23.5468292236328</v>
       </c>
       <c r="G1219" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -35020,7 +35020,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1220" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -35046,7 +35046,7 @@
         <v>23.5468292236328</v>
       </c>
       <c r="G1221" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35072,7 +35072,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1222" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -35098,7 +35098,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G1223" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -35124,7 +35124,7 @@
         <v>24.2265338897705</v>
       </c>
       <c r="G1224" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -35150,7 +35150,7 @@
         <v>24.6149349212646</v>
       </c>
       <c r="G1225" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -35176,7 +35176,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1226" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35202,7 +35202,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1227" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35228,7 +35228,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1228" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35254,7 +35254,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G1229" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35280,7 +35280,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1230" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35306,7 +35306,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1231" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35332,7 +35332,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1232" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35358,7 +35358,7 @@
         <v>23.8381309509277</v>
       </c>
       <c r="G1233" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35384,7 +35384,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1234" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35410,7 +35410,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1235" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35488,7 +35488,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1238" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35540,7 +35540,7 @@
         <v>22.6729278564453</v>
       </c>
       <c r="G1240" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35592,7 +35592,7 @@
         <v>21.8475742340088</v>
       </c>
       <c r="G1242" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35618,7 +35618,7 @@
         <v>23.2069797515869</v>
       </c>
       <c r="G1243" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35644,7 +35644,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1244" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35670,7 +35670,7 @@
         <v>23.1098785400391</v>
       </c>
       <c r="G1245" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35696,7 +35696,7 @@
         <v>22.915678024292</v>
       </c>
       <c r="G1246" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35748,7 +35748,7 @@
         <v>23.2069797515869</v>
       </c>
       <c r="G1248" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35800,7 +35800,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1250" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35826,7 +35826,7 @@
         <v>24.2265338897705</v>
       </c>
       <c r="G1251" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35852,7 +35852,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1252" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35878,7 +35878,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1253" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35904,7 +35904,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G1254" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35930,7 +35930,7 @@
         <v>23.5953807830811</v>
       </c>
       <c r="G1255" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35956,7 +35956,7 @@
         <v>23.5468292236328</v>
       </c>
       <c r="G1256" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35982,7 +35982,7 @@
         <v>23.6924800872803</v>
       </c>
       <c r="G1257" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -36008,7 +36008,7 @@
         <v>23.7895812988281</v>
       </c>
       <c r="G1258" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -36034,7 +36034,7 @@
         <v>23.4982795715332</v>
       </c>
       <c r="G1259" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -36112,7 +36112,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1262" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -36138,7 +36138,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1263" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -36164,7 +36164,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1264" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -36190,7 +36190,7 @@
         <v>24.0323314666748</v>
       </c>
       <c r="G1265" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36216,7 +36216,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G1266" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36242,7 +36242,7 @@
         <v>25.6830387115479</v>
       </c>
       <c r="G1267" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36268,7 +36268,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1268" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36294,7 +36294,7 @@
         <v>27.1395435333252</v>
       </c>
       <c r="G1269" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36320,7 +36320,7 @@
         <v>27.0424423217773</v>
       </c>
       <c r="G1270" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36346,7 +36346,7 @@
         <v>27.285192489624</v>
       </c>
       <c r="G1271" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36372,7 +36372,7 @@
         <v>26.8482418060303</v>
       </c>
       <c r="G1272" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36398,7 +36398,7 @@
         <v>26.4598407745361</v>
       </c>
       <c r="G1273" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36424,7 +36424,7 @@
         <v>27.0424423217773</v>
       </c>
       <c r="G1274" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36450,7 +36450,7 @@
         <v>27.1880931854248</v>
       </c>
       <c r="G1275" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36476,7 +36476,7 @@
         <v>27.1880931854248</v>
       </c>
       <c r="G1276" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36502,7 +36502,7 @@
         <v>27.1880931854248</v>
       </c>
       <c r="G1277" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36528,7 +36528,7 @@
         <v>27.3337421417236</v>
       </c>
       <c r="G1278" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36554,7 +36554,7 @@
         <v>26.7996921539307</v>
       </c>
       <c r="G1279" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36580,7 +36580,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1280" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36606,7 +36606,7 @@
         <v>26.1199893951416</v>
       </c>
       <c r="G1281" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36632,7 +36632,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1282" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36658,7 +36658,7 @@
         <v>26.3141899108887</v>
       </c>
       <c r="G1283" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36684,7 +36684,7 @@
         <v>26.071439743042</v>
       </c>
       <c r="G1284" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36710,7 +36710,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1285" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36736,7 +36736,7 @@
         <v>26.3627395629883</v>
       </c>
       <c r="G1286" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36762,7 +36762,7 @@
         <v>26.5569400787354</v>
       </c>
       <c r="G1287" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36788,7 +36788,7 @@
         <v>26.7996921539307</v>
       </c>
       <c r="G1288" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36814,7 +36814,7 @@
         <v>25.9743385314941</v>
       </c>
       <c r="G1289" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36840,7 +36840,7 @@
         <v>26.6054916381836</v>
       </c>
       <c r="G1290" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36866,7 +36866,7 @@
         <v>26.3627395629883</v>
       </c>
       <c r="G1291" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36892,7 +36892,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G1292" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36918,7 +36918,7 @@
         <v>26.4112892150879</v>
       </c>
       <c r="G1293" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36944,7 +36944,7 @@
         <v>26.1199893951416</v>
       </c>
       <c r="G1294" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36970,7 +36970,7 @@
         <v>26.2656402587891</v>
       </c>
       <c r="G1295" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36996,7 +36996,7 @@
         <v>25.5859375</v>
       </c>
       <c r="G1296" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -37022,7 +37022,7 @@
         <v>25.6830387115479</v>
       </c>
       <c r="G1297" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -37048,7 +37048,7 @@
         <v>25.7315883636475</v>
       </c>
       <c r="G1298" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -37074,7 +37074,7 @@
         <v>25.4888362884521</v>
       </c>
       <c r="G1299" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -37100,7 +37100,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1300" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -37126,7 +37126,7 @@
         <v>25.6344871520996</v>
       </c>
       <c r="G1301" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -37152,7 +37152,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1302" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -37178,7 +37178,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G1303" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37204,7 +37204,7 @@
         <v>25.1489868164062</v>
       </c>
       <c r="G1304" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37230,7 +37230,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1305" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37256,7 +37256,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G1306" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37282,7 +37282,7 @@
         <v>25.3917369842529</v>
       </c>
       <c r="G1307" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37308,7 +37308,7 @@
         <v>25.1489868164062</v>
       </c>
       <c r="G1308" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37334,7 +37334,7 @@
         <v>25.2946357727051</v>
       </c>
       <c r="G1309" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37360,7 +37360,7 @@
         <v>25.2460861206055</v>
       </c>
       <c r="G1310" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37386,7 +37386,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1311" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37412,7 +37412,7 @@
         <v>24.9547843933105</v>
       </c>
       <c r="G1312" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37438,7 +37438,7 @@
         <v>25.0033359527588</v>
       </c>
       <c r="G1313" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37464,7 +37464,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1314" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37490,7 +37490,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G1315" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37516,7 +37516,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1316" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37542,7 +37542,7 @@
         <v>24.6634845733643</v>
       </c>
       <c r="G1317" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37568,7 +37568,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1318" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37594,7 +37594,7 @@
         <v>24.2750835418701</v>
       </c>
       <c r="G1319" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37620,7 +37620,7 @@
         <v>24.8091354370117</v>
       </c>
       <c r="G1320" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37646,7 +37646,7 @@
         <v>24.7605857849121</v>
       </c>
       <c r="G1321" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37672,7 +37672,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G1322" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37698,7 +37698,7 @@
         <v>24.5178337097168</v>
       </c>
       <c r="G1323" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37724,7 +37724,7 @@
         <v>25.100435256958</v>
       </c>
       <c r="G1324" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37750,7 +37750,7 @@
         <v>24.3721828460693</v>
       </c>
       <c r="G1325" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37776,7 +37776,7 @@
         <v>24.1294326782227</v>
       </c>
       <c r="G1326" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37802,7 +37802,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1327" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37828,7 +37828,7 @@
         <v>24.8576850891113</v>
       </c>
       <c r="G1328" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37854,7 +37854,7 @@
         <v>24.8576850891113</v>
       </c>
       <c r="G1329" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37880,7 +37880,7 @@
         <v>24.3236331939697</v>
       </c>
       <c r="G1330" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37906,7 +37906,7 @@
         <v>25.1975364685059</v>
       </c>
       <c r="G1331" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37932,7 +37932,7 @@
         <v>25.4402866363525</v>
       </c>
       <c r="G1332" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37958,7 +37958,7 @@
         <v>25.3917369842529</v>
       </c>
       <c r="G1333" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37984,7 +37984,7 @@
         <v>26.2170906066895</v>
       </c>
       <c r="G1334" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -38010,7 +38010,7 @@
         <v>25.5859375</v>
       </c>
       <c r="G1335" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -38036,7 +38036,7 @@
         <v>24.4692840576172</v>
       </c>
       <c r="G1336" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -38062,7 +38062,7 @@
         <v>24.0808811187744</v>
       </c>
       <c r="G1337" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -38088,7 +38088,7 @@
         <v>23.886682510376</v>
       </c>
       <c r="G1338" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -38114,7 +38114,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G1339" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -38140,7 +38140,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G1340" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -38166,7 +38166,7 @@
         <v>23.6439304351807</v>
       </c>
       <c r="G1341" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -38192,7 +38192,7 @@
         <v>23.401180267334</v>
       </c>
       <c r="G1342" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -38218,7 +38218,7 @@
         <v>23.3040790557861</v>
       </c>
       <c r="G1343" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -38244,7 +38244,7 @@
         <v>22.4301776885986</v>
       </c>
       <c r="G1344" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -38270,7 +38270,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1345" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38296,7 +38296,7 @@
         <v>21.5562744140625</v>
       </c>
       <c r="G1346" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -38322,7 +38322,7 @@
         <v>21.4591732025146</v>
       </c>
       <c r="G1347" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38348,7 +38348,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1348" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38374,7 +38374,7 @@
         <v>20.9736728668213</v>
       </c>
       <c r="G1349" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38400,7 +38400,7 @@
         <v>21.7019233703613</v>
       </c>
       <c r="G1350" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38426,7 +38426,7 @@
         <v>21.7019233703613</v>
       </c>
       <c r="G1351" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38452,7 +38452,7 @@
         <v>22.0417747497559</v>
       </c>
       <c r="G1352" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38478,7 +38478,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1353" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38504,7 +38504,7 @@
         <v>21.6533737182617</v>
       </c>
       <c r="G1354" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38530,7 +38530,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1355" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38556,7 +38556,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1356" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38582,7 +38582,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G1357" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38608,7 +38608,7 @@
         <v>20.4396190643311</v>
       </c>
       <c r="G1358" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38634,7 +38634,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1359" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38660,7 +38660,7 @@
         <v>21.5077228546143</v>
       </c>
       <c r="G1360" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38686,7 +38686,7 @@
         <v>21.7019233703613</v>
       </c>
       <c r="G1361" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38712,7 +38712,7 @@
         <v>21.2649726867676</v>
       </c>
       <c r="G1362" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38738,7 +38738,7 @@
         <v>21.0222225189209</v>
       </c>
       <c r="G1363" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38764,7 +38764,7 @@
         <v>21.3135223388672</v>
       </c>
       <c r="G1364" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38790,7 +38790,7 @@
         <v>19.2841262817383</v>
       </c>
       <c r="G1365" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38816,7 +38816,7 @@
         <v>19.759916305542</v>
       </c>
       <c r="G1366" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38842,7 +38842,7 @@
         <v>18.9734058380127</v>
       </c>
       <c r="G1367" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38868,7 +38868,7 @@
         <v>18.8763046264648</v>
       </c>
       <c r="G1368" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38894,7 +38894,7 @@
         <v>18.8568840026855</v>
       </c>
       <c r="G1369" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38920,7 +38920,7 @@
         <v>18.3713836669922</v>
       </c>
       <c r="G1370" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38946,7 +38946,7 @@
         <v>18.0800819396973</v>
       </c>
       <c r="G1371" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38972,7 +38972,7 @@
         <v>18.0218200683594</v>
       </c>
       <c r="G1372" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38998,7 +38998,7 @@
         <v>18.1966018676758</v>
       </c>
       <c r="G1373" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -39024,7 +39024,7 @@
         <v>19.1093444824219</v>
       </c>
       <c r="G1374" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -39050,7 +39050,7 @@
         <v>19.1870250701904</v>
       </c>
       <c r="G1375" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -39076,7 +39076,7 @@
         <v>20.2939682006836</v>
       </c>
       <c r="G1376" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -39102,7 +39102,7 @@
         <v>20.5852699279785</v>
       </c>
       <c r="G1377" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -39128,7 +39128,7 @@
         <v>20.1968688964844</v>
       </c>
       <c r="G1378" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -39154,7 +39154,7 @@
         <v>20.8765716552734</v>
       </c>
       <c r="G1379" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -39180,7 +39180,7 @@
         <v>21.1678714752197</v>
       </c>
       <c r="G1380" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -39206,7 +39206,7 @@
         <v>21.6533737182617</v>
       </c>
       <c r="G1381" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39232,7 +39232,7 @@
         <v>21.2164211273193</v>
       </c>
       <c r="G1382" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -39258,7 +39258,7 @@
         <v>21.3620738983154</v>
       </c>
       <c r="G1383" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39284,7 +39284,7 @@
         <v>22.3330764770508</v>
       </c>
       <c r="G1384" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39310,7 +39310,7 @@
         <v>22.1874256134033</v>
       </c>
       <c r="G1385" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -39336,7 +39336,7 @@
         <v>20.9736728668213</v>
       </c>
       <c r="G1386" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39362,7 +39362,7 @@
         <v>21.0222225189209</v>
       </c>
       <c r="G1387" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39388,7 +39388,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1388" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39414,7 +39414,7 @@
         <v>20.25</v>
       </c>
       <c r="G1389" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39440,7 +39440,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1390" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39466,7 +39466,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1391" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39492,7 +39492,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1392" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39518,7 +39518,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1393" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39544,7 +39544,7 @@
         <v>22.5</v>
       </c>
       <c r="G1394" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39570,7 +39570,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1395" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39596,7 +39596,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1396" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39622,7 +39622,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1397" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39648,7 +39648,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1398" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39674,7 +39674,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1399" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39700,7 +39700,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1400" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39726,7 +39726,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1401" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39752,7 +39752,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1402" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39778,7 +39778,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1403" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39804,7 +39804,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1404" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39830,7 +39830,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1405" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39856,7 +39856,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1406" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39882,7 +39882,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1407" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39908,7 +39908,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1408" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39934,7 +39934,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1409" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39960,7 +39960,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G1410" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39986,7 +39986,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1411" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -40012,7 +40012,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1412" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -40038,7 +40038,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1413" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -40064,7 +40064,7 @@
         <v>24.75</v>
       </c>
       <c r="G1414" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -40090,7 +40090,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1415" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -40116,7 +40116,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1416" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -40142,7 +40142,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1417" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -40168,7 +40168,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1418" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -40194,7 +40194,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -40220,7 +40220,7 @@
         <v>23.25</v>
       </c>
       <c r="G1420" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40246,7 +40246,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1421" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40272,7 +40272,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1422" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40298,7 +40298,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1423" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40324,7 +40324,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1424" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40350,7 +40350,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1425" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40376,7 +40376,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1426" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40402,7 +40402,7 @@
         <v>22.5</v>
       </c>
       <c r="G1427" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40428,7 +40428,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1428" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40454,7 +40454,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1429" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40480,7 +40480,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1430" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40506,7 +40506,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1431" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40532,7 +40532,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40558,7 +40558,7 @@
         <v>22.25</v>
       </c>
       <c r="G1433" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40584,7 +40584,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1434" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40610,7 +40610,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1435" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40636,7 +40636,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1436" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40662,7 +40662,7 @@
         <v>22.5</v>
       </c>
       <c r="G1437" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40688,7 +40688,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1438" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40714,7 +40714,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1439" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40740,7 +40740,7 @@
         <v>22.25</v>
       </c>
       <c r="G1440" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40766,7 +40766,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1441" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40792,7 +40792,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1442" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40818,7 +40818,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1443" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40844,7 +40844,7 @@
         <v>22.75</v>
       </c>
       <c r="G1444" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40870,7 +40870,7 @@
         <v>22.5</v>
       </c>
       <c r="G1445" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40896,7 +40896,7 @@
         <v>22.25</v>
       </c>
       <c r="G1446" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40922,7 +40922,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1447" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40948,7 +40948,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1448" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40974,7 +40974,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1449" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -41000,7 +41000,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1450" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -41026,7 +41026,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1451" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -41052,7 +41052,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1452" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -41078,7 +41078,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1453" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -41104,7 +41104,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1454" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -41130,7 +41130,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1455" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -41156,7 +41156,7 @@
         <v>22</v>
       </c>
       <c r="G1456" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -41182,7 +41182,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1457" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -41208,7 +41208,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1458" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41234,7 +41234,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1459" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41260,7 +41260,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1460" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41286,7 +41286,7 @@
         <v>21.5</v>
       </c>
       <c r="G1461" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41312,7 +41312,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1462" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41338,7 +41338,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1463" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41364,7 +41364,7 @@
         <v>20</v>
       </c>
       <c r="G1464" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41390,7 +41390,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G1465" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41416,7 +41416,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G1466" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41442,7 +41442,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1467" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41468,7 +41468,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1468" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41494,7 +41494,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G1469" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41520,7 +41520,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G1470" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41546,7 +41546,7 @@
         <v>19.5</v>
       </c>
       <c r="G1471" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41572,7 +41572,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G1472" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41598,7 +41598,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1473" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41624,7 +41624,7 @@
         <v>19.8600006103516</v>
       </c>
       <c r="G1474" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41650,7 +41650,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1475" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41676,7 +41676,7 @@
         <v>20.5</v>
       </c>
       <c r="G1476" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41702,7 +41702,7 @@
         <v>21</v>
       </c>
       <c r="G1477" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41728,7 +41728,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1478" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41754,7 +41754,7 @@
         <v>20.5</v>
       </c>
       <c r="G1479" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41780,7 +41780,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1480" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41806,7 +41806,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41832,7 +41832,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G1482" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41858,7 +41858,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1483" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41884,7 +41884,7 @@
         <v>19.8199996948242</v>
       </c>
       <c r="G1484" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41910,7 +41910,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G1485" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41936,7 +41936,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G1486" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41962,7 +41962,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1487" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41988,7 +41988,7 @@
         <v>19.0799999237061</v>
       </c>
       <c r="G1488" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -42014,7 +42014,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1489" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -42040,7 +42040,7 @@
         <v>18.5</v>
       </c>
       <c r="G1490" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -42066,7 +42066,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1491" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -42092,7 +42092,7 @@
         <v>18.4200000762939</v>
       </c>
       <c r="G1492" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -42118,7 +42118,7 @@
         <v>17.9200000762939</v>
       </c>
       <c r="G1493" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -42144,7 +42144,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G1494" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -42170,7 +42170,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G1495" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -42196,7 +42196,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G1496" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -42222,7 +42222,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1497" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42248,7 +42248,7 @@
         <v>19.2800006866455</v>
       </c>
       <c r="G1498" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42274,7 +42274,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1499" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42300,7 +42300,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G1500" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42326,7 +42326,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G1501" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42352,7 +42352,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G1502" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42378,7 +42378,7 @@
         <v>19.2199993133545</v>
       </c>
       <c r="G1503" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42404,7 +42404,7 @@
         <v>19.0799999237061</v>
       </c>
       <c r="G1504" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42430,7 +42430,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1505" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42456,7 +42456,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G1506" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42482,7 +42482,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G1507" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42508,7 +42508,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1508" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42534,7 +42534,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G1509" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42560,7 +42560,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1510" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42586,7 +42586,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1511" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42612,7 +42612,7 @@
         <v>18.4599990844727</v>
       </c>
       <c r="G1512" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42638,7 +42638,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1513" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42664,7 +42664,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1514" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42690,7 +42690,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G1515" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42716,7 +42716,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1516" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42742,7 +42742,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G1517" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42768,7 +42768,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1518" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42794,7 +42794,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1519" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42820,7 +42820,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G1520" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42846,7 +42846,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1521" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42872,7 +42872,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1522" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42898,7 +42898,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1523" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42924,7 +42924,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G1524" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42950,7 +42950,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1525" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42976,7 +42976,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1526" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -43002,7 +43002,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1527" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -43028,7 +43028,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1528" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -43054,7 +43054,7 @@
         <v>18</v>
       </c>
       <c r="G1529" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -43080,7 +43080,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1530" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43106,7 +43106,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G1531" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43132,7 +43132,7 @@
         <v>17</v>
       </c>
       <c r="G1532" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -43158,7 +43158,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1533" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43184,7 +43184,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1534" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -43210,7 +43210,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1535" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43236,7 +43236,7 @@
         <v>17.5</v>
       </c>
       <c r="G1536" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43262,7 +43262,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1537" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43288,7 +43288,7 @@
         <v>17.5</v>
       </c>
       <c r="G1538" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43314,7 +43314,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1539" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43340,7 +43340,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1540" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43366,7 +43366,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1541" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43392,7 +43392,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1542" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43418,7 +43418,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1543" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43444,7 +43444,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1544" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43470,7 +43470,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G1545" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43496,7 +43496,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G1546" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43522,7 +43522,7 @@
         <v>17.7399997711182</v>
       </c>
       <c r="G1547" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43548,7 +43548,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G1548" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43574,7 +43574,7 @@
         <v>18.3199996948242</v>
       </c>
       <c r="G1549" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43600,7 +43600,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1550" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43626,7 +43626,7 @@
         <v>17.8199996948242</v>
       </c>
       <c r="G1551" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43652,7 +43652,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G1552" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43678,7 +43678,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G1553" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43704,7 +43704,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1554" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43730,7 +43730,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1555" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43756,7 +43756,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1556" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43782,7 +43782,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G1557" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43808,7 +43808,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1558" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43834,7 +43834,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G1559" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43860,7 +43860,7 @@
         <v>17</v>
       </c>
       <c r="G1560" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43886,7 +43886,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1561" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43912,7 +43912,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1562" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43938,7 +43938,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G1563" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43964,7 +43964,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G1564" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43990,7 +43990,7 @@
         <v>16.3199996948242</v>
       </c>
       <c r="G1565" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -44016,7 +44016,7 @@
         <v>15.7399997711182</v>
       </c>
       <c r="G1566" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -44042,7 +44042,7 @@
         <v>15.7799997329712</v>
       </c>
       <c r="G1567" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -44068,7 +44068,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1568" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -44094,7 +44094,7 @@
         <v>16.6800003051758</v>
       </c>
       <c r="G1569" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -44120,7 +44120,7 @@
         <v>16.5</v>
       </c>
       <c r="G1570" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -44128,7 +44128,7 @@
     </row>
     <row r="1571">
       <c r="A1571" s="1" t="n">
-        <v>45513.6495601852</v>
+        <v>45513.2916666667</v>
       </c>
       <c r="B1571" t="n">
         <v>18817</v>
@@ -44146,9 +44146,35 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G1571" t="s">
+        <v>983</v>
+      </c>
+      <c r="H1571" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="1" t="n">
+        <v>45516.6493402778</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>21247</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>16.7000007629395</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>16.1599998474121</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>16.7000007629395</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>16.1399993896484</v>
+      </c>
+      <c r="G1572" t="s">
         <v>984</v>
       </c>
-      <c r="H1571" t="s">
+      <c r="H1572" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CRL.MI.xlsx
+++ b/data/CRL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="987">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,52 +44,52 @@
     <t xml:space="preserve">CRL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95949649810791</t>
+    <t xml:space="preserve">7.95949554443359</t>
   </si>
   <si>
     <t xml:space="preserve">7.86694288253784</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77439212799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74477338790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92988014221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02428340911865</t>
+    <t xml:space="preserve">7.77439165115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74477386474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9298791885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02428245544434</t>
   </si>
   <si>
     <t xml:space="preserve">7.72904062271118</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03353786468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49766063690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35512971878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57910633087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51987218856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62630748748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49673557281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58003187179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5985426902771</t>
+    <t xml:space="preserve">8.03353595733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49766111373901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35513019561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57910585403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51987314224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62630796432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49673461914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5800313949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59854221343994</t>
   </si>
   <si>
     <t xml:space="preserve">7.70220041275024</t>
@@ -98,94 +98,94 @@
     <t xml:space="preserve">7.85768842697144</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91321992874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97893238067627</t>
+    <t xml:space="preserve">7.91321802139282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97893190383911</t>
   </si>
   <si>
     <t xml:space="preserve">8.06130409240723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92247438430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0770378112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87064695358276</t>
+    <t xml:space="preserve">7.9224739074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07703685760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87064647674561</t>
   </si>
   <si>
     <t xml:space="preserve">7.82066822052002</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90766620635986</t>
+    <t xml:space="preserve">7.90766763687134</t>
   </si>
   <si>
     <t xml:space="preserve">7.74847602844238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84843301773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80215692520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94561338424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6179780960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72811365127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84103012084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80400800704956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0520486831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11775970458984</t>
+    <t xml:space="preserve">7.84843254089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80215787887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94561386108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61797761917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72811460494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84103059768677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80400848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05204963684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11776065826416</t>
   </si>
   <si>
     <t xml:space="preserve">8.17236709594727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36302375793457</t>
+    <t xml:space="preserve">8.36302471160889</t>
   </si>
   <si>
     <t xml:space="preserve">8.52406406402588</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54720115661621</t>
+    <t xml:space="preserve">8.54720211029053</t>
   </si>
   <si>
     <t xml:space="preserve">8.81652927398682</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02384757995605</t>
+    <t xml:space="preserve">9.02384662628174</t>
   </si>
   <si>
     <t xml:space="preserve">8.66289329528809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34821510314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31119537353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53054428100586</t>
+    <t xml:space="preserve">8.34821605682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31119346618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53054332733154</t>
   </si>
   <si>
     <t xml:space="preserve">8.42225742340088</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51480865478516</t>
+    <t xml:space="preserve">8.51480960845947</t>
   </si>
   <si>
     <t xml:space="preserve">8.77395534515381</t>
@@ -194,19 +194,19 @@
     <t xml:space="preserve">8.81097602844238</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67770099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72767925262451</t>
+    <t xml:space="preserve">8.67770195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72768115997314</t>
   </si>
   <si>
     <t xml:space="preserve">8.85725212097168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07012462615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93222141265869</t>
+    <t xml:space="preserve">9.07012271881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93221950531006</t>
   </si>
   <si>
     <t xml:space="preserve">9.18118572235107</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">9.40331077575684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16267681121826</t>
+    <t xml:space="preserve">9.16267585754395</t>
   </si>
   <si>
     <t xml:space="preserve">9.18211078643799</t>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">9.05531406402588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25152683258057</t>
+    <t xml:space="preserve">9.25152587890625</t>
   </si>
   <si>
     <t xml:space="preserve">9.12657928466797</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">9.08863258361816</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8285608291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05809211730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10714435577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96553993225098</t>
+    <t xml:space="preserve">8.82855987548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05809116363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10714340209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96553897857666</t>
   </si>
   <si>
     <t xml:space="preserve">8.73323249816895</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">8.56848907470703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03908824920654</t>
+    <t xml:space="preserve">8.03909015655518</t>
   </si>
   <si>
     <t xml:space="preserve">8.36580085754395</t>
@@ -263,37 +263,37 @@
     <t xml:space="preserve">8.46853256225586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60736274719238</t>
+    <t xml:space="preserve">8.60736083984375</t>
   </si>
   <si>
     <t xml:space="preserve">8.65363883972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69991493225098</t>
+    <t xml:space="preserve">8.69991397857666</t>
   </si>
   <si>
     <t xml:space="preserve">8.87113571166992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0872163772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80678510665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97800540924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40189647674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83781719207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84059524536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81745433807373</t>
+    <t xml:space="preserve">8.08721828460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80678606033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97800636291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40189552307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83781623840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8405933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81745529174805</t>
   </si>
   <si>
     <t xml:space="preserve">8.5666389465332</t>
@@ -305,58 +305,58 @@
     <t xml:space="preserve">8.76377487182617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63882923126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45279788970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40097045898438</t>
+    <t xml:space="preserve">8.63883018493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45279979705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40096950531006</t>
   </si>
   <si>
     <t xml:space="preserve">8.62217140197754</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78228569030762</t>
+    <t xml:space="preserve">8.7822847366333</t>
   </si>
   <si>
     <t xml:space="preserve">8.11220741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0992488861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14459991455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24733257293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61013984680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39449310302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57034111022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98497486114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10344314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03865432739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0812292098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21820735931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91278553009033</t>
+    <t xml:space="preserve">8.09924983978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14460182189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24733352661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61013889312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39449214935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57034015655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98497581481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10344123840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03865528106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08123016357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21820831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91278457641602</t>
   </si>
   <si>
     <t xml:space="preserve">9.14416408538818</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">8.91926383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36394786834717</t>
+    <t xml:space="preserve">8.3639497756958</t>
   </si>
   <si>
     <t xml:space="preserve">8.29268360137939</t>
@@ -374,25 +374,25 @@
     <t xml:space="preserve">8.32970523834229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39726829528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25936508178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46390533447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33340740203857</t>
+    <t xml:space="preserve">8.39726734161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25936412811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46390438079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33340644836426</t>
   </si>
   <si>
     <t xml:space="preserve">8.35747051239014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56108570098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49629783630371</t>
+    <t xml:space="preserve">8.56108474731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49629878997803</t>
   </si>
   <si>
     <t xml:space="preserve">8.28342819213867</t>
@@ -401,70 +401,70 @@
     <t xml:space="preserve">8.41392803192139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2797269821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21123886108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45927906036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48704433441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54442596435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77210521697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83411407470703</t>
+    <t xml:space="preserve">8.27972602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2112398147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45927810668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4870433807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54442691802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77210426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83411502838135</t>
   </si>
   <si>
     <t xml:space="preserve">8.78321075439453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16545104980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13028240203857</t>
+    <t xml:space="preserve">9.165452003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13028144836426</t>
   </si>
   <si>
     <t xml:space="preserve">8.96183681488037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89797592163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04143238067627</t>
+    <t xml:space="preserve">8.89797687530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04143047332764</t>
   </si>
   <si>
     <t xml:space="preserve">9.11639881134033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30150413513184</t>
+    <t xml:space="preserve">9.30150318145752</t>
   </si>
   <si>
     <t xml:space="preserve">9.27188777923584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42922592163086</t>
+    <t xml:space="preserve">9.42922496795654</t>
   </si>
   <si>
     <t xml:space="preserve">9.46254539489746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67911624908447</t>
+    <t xml:space="preserve">9.67911720275879</t>
   </si>
   <si>
     <t xml:space="preserve">9.71798992156982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7642650604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66245651245117</t>
+    <t xml:space="preserve">9.76426601409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66245746612549</t>
   </si>
   <si>
     <t xml:space="preserve">9.71243572235107</t>
@@ -473,31 +473,31 @@
     <t xml:space="preserve">9.38665103912354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68652153015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56065082550049</t>
+    <t xml:space="preserve">9.68652248382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56064987182617</t>
   </si>
   <si>
     <t xml:space="preserve">9.5791597366333</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35148239135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53103351593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39775657653809</t>
+    <t xml:space="preserve">9.35148334503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53103256225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3977575302124</t>
   </si>
   <si>
     <t xml:space="preserve">9.1941442489624</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32926845550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21265316009521</t>
+    <t xml:space="preserve">9.32926940917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21265411376953</t>
   </si>
   <si>
     <t xml:space="preserve">9.12565422058105</t>
@@ -506,22 +506,22 @@
     <t xml:space="preserve">9.00533676147461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43799209594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82300758361816</t>
+    <t xml:space="preserve">8.43799114227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82300853729248</t>
   </si>
   <si>
     <t xml:space="preserve">9.07104969024658</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25522804260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03310012817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17193222045898</t>
+    <t xml:space="preserve">9.25522899627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03310203552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17193126678467</t>
   </si>
   <si>
     <t xml:space="preserve">9.51437377929688</t>
@@ -530,10 +530,10 @@
     <t xml:space="preserve">9.45884227752686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81054210662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53288459777832</t>
+    <t xml:space="preserve">9.8105411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53288555145264</t>
   </si>
   <si>
     <t xml:space="preserve">9.60692596435547</t>
@@ -542,37 +542,37 @@
     <t xml:space="preserve">9.82905101776123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75500965118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97713375091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0696878433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1252183914185</t>
+    <t xml:space="preserve">9.7550106048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97713470458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0696887969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1252202987671</t>
   </si>
   <si>
     <t xml:space="preserve">9.86607360839844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99564647674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88458251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0141572952271</t>
+    <t xml:space="preserve">9.99564743041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88458156585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0141563415527</t>
   </si>
   <si>
     <t xml:space="preserve">10.1437301635742</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1807508468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73650074005127</t>
+    <t xml:space="preserve">10.1807498931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73649978637695</t>
   </si>
   <si>
     <t xml:space="preserve">9.84756183624268</t>
@@ -581,46 +581,46 @@
     <t xml:space="preserve">9.9030933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94011306762695</t>
+    <t xml:space="preserve">9.94011402130127</t>
   </si>
   <si>
     <t xml:space="preserve">10.2177715301514</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2362823486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3843660354614</t>
+    <t xml:space="preserve">10.2362813949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3843650817871</t>
   </si>
   <si>
     <t xml:space="preserve">10.1067094802856</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0881977081299</t>
+    <t xml:space="preserve">10.0881996154785</t>
   </si>
   <si>
     <t xml:space="preserve">10.1992607116699</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5879821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6805334091187</t>
+    <t xml:space="preserve">10.5879812240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.68053150177</t>
   </si>
   <si>
     <t xml:space="preserve">10.7360639572144</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8101053237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4954280853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5509605407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5139398574829</t>
+    <t xml:space="preserve">10.8101062774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4954290390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5509595870972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5139379501343</t>
   </si>
   <si>
     <t xml:space="preserve">10.4028759002686</t>
@@ -629,22 +629,19 @@
     <t xml:space="preserve">10.0511789321899</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92160511016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2551317214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0122957229614</t>
+    <t xml:space="preserve">9.92160320281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2551298141479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0122938156128</t>
   </si>
   <si>
     <t xml:space="preserve">9.95625591278076</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99361515045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2177705764771</t>
+    <t xml:space="preserve">9.99361419677734</t>
   </si>
   <si>
     <t xml:space="preserve">10.0683326721191</t>
@@ -653,7 +650,7 @@
     <t xml:space="preserve">10.2738094329834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2924890518188</t>
+    <t xml:space="preserve">10.2924880981445</t>
   </si>
   <si>
     <t xml:space="preserve">10.161732673645</t>
@@ -662,7 +659,7 @@
     <t xml:space="preserve">9.97493553161621</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1243724822998</t>
+    <t xml:space="preserve">10.1243715286255</t>
   </si>
   <si>
     <t xml:space="preserve">9.80681896209717</t>
@@ -671,13 +668,13 @@
     <t xml:space="preserve">9.93757629394531</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2364511489868</t>
+    <t xml:space="preserve">10.2364501953125</t>
   </si>
   <si>
     <t xml:space="preserve">10.6287240982056</t>
   </si>
   <si>
-    <t xml:space="preserve">10.479287147522</t>
+    <t xml:space="preserve">10.4792861938477</t>
   </si>
   <si>
     <t xml:space="preserve">10.4979658126831</t>
@@ -689,28 +686,28 @@
     <t xml:space="preserve">10.4419269561768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90021800994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3858890533447</t>
+    <t xml:space="preserve">9.9002161026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3858880996704</t>
   </si>
   <si>
     <t xml:space="preserve">10.1056938171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88153839111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1430540084839</t>
+    <t xml:space="preserve">9.88153648376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1430530548096</t>
   </si>
   <si>
     <t xml:space="preserve">10.1804113388062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86285877227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3298492431641</t>
+    <t xml:space="preserve">9.8628568649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3298482894897</t>
   </si>
   <si>
     <t xml:space="preserve">10.9275979995728</t>
@@ -722,13 +719,13 @@
     <t xml:space="preserve">12.1417760848999</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2451524734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6934633255005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4879884719849</t>
+    <t xml:space="preserve">11.245153427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6934642791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4879894256592</t>
   </si>
   <si>
     <t xml:space="preserve">11.6187448501587</t>
@@ -737,16 +734,16 @@
     <t xml:space="preserve">11.7121438980103</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6000652313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0483770370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2351741790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3285722732544</t>
+    <t xml:space="preserve">11.6000661849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0483779907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2351732254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3285732269287</t>
   </si>
   <si>
     <t xml:space="preserve">12.5340480804443</t>
@@ -755,34 +752,34 @@
     <t xml:space="preserve">12.6834859848022</t>
   </si>
   <si>
-    <t xml:space="preserve">12.272533416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6561050415039</t>
+    <t xml:space="preserve">12.2725315093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6561059951782</t>
   </si>
   <si>
     <t xml:space="preserve">11.6747846603394</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8242225646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5627069473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0110187530518</t>
+    <t xml:space="preserve">11.8242216110229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5627059936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0110177993774</t>
   </si>
   <si>
     <t xml:space="preserve">12.1978149414062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2538537979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3098917007446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6087684631348</t>
+    <t xml:space="preserve">12.2538528442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3098926544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6087675094604</t>
   </si>
   <si>
     <t xml:space="preserve">12.7768840789795</t>
@@ -791,19 +788,19 @@
     <t xml:space="preserve">13.0757579803467</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3559541702271</t>
+    <t xml:space="preserve">13.3559522628784</t>
   </si>
   <si>
     <t xml:space="preserve">13.44935131073</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5987882614136</t>
+    <t xml:space="preserve">13.5987873077393</t>
   </si>
   <si>
     <t xml:space="preserve">14.1591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5614290237427</t>
+    <t xml:space="preserve">13.5614280700684</t>
   </si>
   <si>
     <t xml:space="preserve">13.2999143600464</t>
@@ -812,106 +809,106 @@
     <t xml:space="preserve">13.2065172195435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4780101776123</t>
+    <t xml:space="preserve">12.4780082702637</t>
   </si>
   <si>
     <t xml:space="preserve">12.4406509399414</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3846120834351</t>
+    <t xml:space="preserve">12.3846111297607</t>
   </si>
   <si>
     <t xml:space="preserve">12.4966888427734</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2912130355835</t>
+    <t xml:space="preserve">12.2912120819092</t>
   </si>
   <si>
     <t xml:space="preserve">12.3659315109253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.700888633728</t>
+    <t xml:space="preserve">14.7008876800537</t>
   </si>
   <si>
     <t xml:space="preserve">14.0097427368164</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5053911209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2625560760498</t>
+    <t xml:space="preserve">13.5053901672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2625551223755</t>
   </si>
   <si>
     <t xml:space="preserve">12.9450006484985</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7955627441406</t>
+    <t xml:space="preserve">12.7955636978149</t>
   </si>
   <si>
     <t xml:space="preserve">12.646125793457</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4593305587769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8702831268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.907642364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9823608398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1878385543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1691560745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4306716918945</t>
+    <t xml:space="preserve">12.4593296051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8702821731567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9076414108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9823617935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.187837600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1691570281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4306707382202</t>
   </si>
   <si>
     <t xml:space="preserve">13.1504764556885</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7395248413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4032897949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5527276992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5153684616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9362993240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8615818023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3759107589722</t>
+    <t xml:space="preserve">12.7395238876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4032907485962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5527286529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5153675079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.93630027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8615808486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3759098052979</t>
   </si>
   <si>
     <t xml:space="preserve">11.0957145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1704320907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1143941879272</t>
+    <t xml:space="preserve">11.1704330444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1143951416016</t>
   </si>
   <si>
     <t xml:space="preserve">10.8341989517212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3945903778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2077941894531</t>
+    <t xml:space="preserve">11.3945894241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2077922821045</t>
   </si>
   <si>
     <t xml:space="preserve">11.3572301864624</t>
@@ -920,13 +917,13 @@
     <t xml:space="preserve">11.3011913299561</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4506273269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1891117095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4892635345459</t>
+    <t xml:space="preserve">11.4506282806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.189112663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48926448822021</t>
   </si>
   <si>
     <t xml:space="preserve">9.47058391571045</t>
@@ -935,16 +932,16 @@
     <t xml:space="preserve">8.94755363464355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62002277374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77943897247314</t>
+    <t xml:space="preserve">9.62002182006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77943801879883</t>
   </si>
   <si>
     <t xml:space="preserve">8.87283611297607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2657470703125</t>
+    <t xml:space="preserve">8.26574611663818</t>
   </si>
   <si>
     <t xml:space="preserve">8.30310726165771</t>
@@ -953,7 +950,7 @@
     <t xml:space="preserve">8.25640773773193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5926399230957</t>
+    <t xml:space="preserve">8.59264087677002</t>
   </si>
   <si>
     <t xml:space="preserve">8.49924278259277</t>
@@ -962,16 +959,16 @@
     <t xml:space="preserve">9.71342086791992</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7968397140503</t>
+    <t xml:space="preserve">10.7968416213989</t>
   </si>
   <si>
     <t xml:space="preserve">9.84417819976807</t>
   </si>
   <si>
-    <t xml:space="preserve">10.367208480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3111696243286</t>
+    <t xml:space="preserve">10.3672094345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3111686706543</t>
   </si>
   <si>
     <t xml:space="preserve">9.7881383895874</t>
@@ -980,10 +977,10 @@
     <t xml:space="preserve">10.0870141983032</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7781610488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7681827545166</t>
+    <t xml:space="preserve">10.7781600952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7681837081909</t>
   </si>
   <si>
     <t xml:space="preserve">11.9549789428711</t>
@@ -1001,7 +998,7 @@
     <t xml:space="preserve">13.8229446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5801095962524</t>
+    <t xml:space="preserve">13.5801086425781</t>
   </si>
   <si>
     <t xml:space="preserve">13.7482261657715</t>
@@ -1010,25 +1007,25 @@
     <t xml:space="preserve">14.9997625350952</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1491994857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0371227264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3459749221802</t>
+    <t xml:space="preserve">15.1492013931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0371217727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3459758758545</t>
   </si>
   <si>
     <t xml:space="preserve">15.392035484314</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590269088745</t>
+    <t xml:space="preserve">15.8590278625488</t>
   </si>
   <si>
     <t xml:space="preserve">16.0831813812256</t>
   </si>
   <si>
-    <t xml:space="preserve">15.504114151001</t>
+    <t xml:space="preserve">15.5041131973267</t>
   </si>
   <si>
     <t xml:space="preserve">15.0558013916016</t>
@@ -1046,91 +1043,94 @@
     <t xml:space="preserve">14.2338972091675</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8976631164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9163417816162</t>
+    <t xml:space="preserve">13.8976640701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9163427352905</t>
   </si>
   <si>
     <t xml:space="preserve">13.7669057846069</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1778573989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4206943511963</t>
+    <t xml:space="preserve">14.1778583526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4206953048706</t>
   </si>
   <si>
     <t xml:space="preserve">14.8129663467407</t>
   </si>
   <si>
+    <t xml:space="preserve">15.0931596755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6603155136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9049663543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9990634918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8861474990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8673286437988</t>
+  </si>
+  <si>
     <t xml:space="preserve">15.0931606292725</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6603136062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9049654006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9990644454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8861474990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8673286437988</t>
-  </si>
-  <si>
     <t xml:space="preserve">15.375452041626</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3378143310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5260066986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4319105148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1119804382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7167739868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1872577667236</t>
+    <t xml:space="preserve">15.3378133773804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5260076522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4319095611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1119794845581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7167730331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1872587203979</t>
   </si>
   <si>
     <t xml:space="preserve">15.0178833007812</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7544116973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2437171936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0367021560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1307992935181</t>
+    <t xml:space="preserve">14.754412651062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2437162399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0367040634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1308002471924</t>
   </si>
   <si>
     <t xml:space="preserve">15.5071878433228</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0555219650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5850372314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6765604019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2787818908691</t>
+    <t xml:space="preserve">15.0555229187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.585036277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6765613555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2787837982178</t>
   </si>
   <si>
     <t xml:space="preserve">17.088020324707</t>
@@ -1139,19 +1139,19 @@
     <t xml:space="preserve">17.8031558990479</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8433647155762</t>
+    <t xml:space="preserve">16.8433628082275</t>
   </si>
   <si>
     <t xml:space="preserve">16.9939212799072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5585021972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5396842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5208625793457</t>
+    <t xml:space="preserve">17.5585041046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5396823883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5208644866943</t>
   </si>
   <si>
     <t xml:space="preserve">17.916072845459</t>
@@ -1160,82 +1160,82 @@
     <t xml:space="preserve">18.1419048309326</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0101661682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4053764343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4430179595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7843379974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6526012420654</t>
+    <t xml:space="preserve">18.0101699829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4053745269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4430160522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7843360900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6525993347168</t>
   </si>
   <si>
     <t xml:space="preserve">18.1230869293213</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8194046020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2898864746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4618320465088</t>
+    <t xml:space="preserve">18.8194026947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2898845672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4618339538574</t>
   </si>
   <si>
     <t xml:space="preserve">18.3489170074463</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1607265472412</t>
+    <t xml:space="preserve">18.1607227325439</t>
   </si>
   <si>
     <t xml:space="preserve">17.5020446777344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0854454040527</t>
+    <t xml:space="preserve">18.0854473114014</t>
   </si>
   <si>
     <t xml:space="preserve">17.5961437225342</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9348907470703</t>
+    <t xml:space="preserve">17.9348888397217</t>
   </si>
   <si>
     <t xml:space="preserve">17.0503787994385</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7869071960449</t>
+    <t xml:space="preserve">16.7869052886963</t>
   </si>
   <si>
     <t xml:space="preserve">15.940034866333</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5798931121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0717678070068</t>
+    <t xml:space="preserve">16.5798950195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0717716217041</t>
   </si>
   <si>
     <t xml:space="preserve">15.4883680343628</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8835744857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6551723480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7116317749023</t>
+    <t xml:space="preserve">15.8835754394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6551704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7116298675537</t>
   </si>
   <si>
     <t xml:space="preserve">16.4105186462402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.54225730896</t>
+    <t xml:space="preserve">16.5422554016113</t>
   </si>
   <si>
     <t xml:space="preserve">16.3917007446289</t>
@@ -1247,13 +1247,13 @@
     <t xml:space="preserve">16.8245468139648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4481563568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6175327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4857959747314</t>
+    <t xml:space="preserve">16.4481582641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6175308227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4857978820801</t>
   </si>
   <si>
     <t xml:space="preserve">16.4669761657715</t>
@@ -1268,16 +1268,16 @@
     <t xml:space="preserve">16.7304496765137</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8810062408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9374618530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.918643951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9023952484131</t>
+    <t xml:space="preserve">16.8810043334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.937463760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9186420440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9023962020874</t>
   </si>
   <si>
     <t xml:space="preserve">15.5448274612427</t>
@@ -1286,13 +1286,13 @@
     <t xml:space="preserve">15.0743427276611</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7920513153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6414947509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4455890655518</t>
+    <t xml:space="preserve">14.7920503616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6414957046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4455852508545</t>
   </si>
   <si>
     <t xml:space="preserve">16.6363525390625</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">15.7330188751221</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9964914321899</t>
+    <t xml:space="preserve">15.9964904785156</t>
   </si>
   <si>
     <t xml:space="preserve">16.354061126709</t>
@@ -1310,10 +1310,10 @@
     <t xml:space="preserve">16.5987129211426</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9562816619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5610733032227</t>
+    <t xml:space="preserve">16.9562835693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5610752105713</t>
   </si>
   <si>
     <t xml:space="preserve">17.0691986083984</t>
@@ -1322,19 +1322,19 @@
     <t xml:space="preserve">17.2009353637695</t>
   </si>
   <si>
-    <t xml:space="preserve">16.768087387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0315589904785</t>
+    <t xml:space="preserve">16.7680912017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0315570831299</t>
   </si>
   <si>
     <t xml:space="preserve">17.0127410888672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0289878845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2171802520752</t>
+    <t xml:space="preserve">18.0289859771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2171821594238</t>
   </si>
   <si>
     <t xml:space="preserve">18.6688480377197</t>
@@ -1355,31 +1355,31 @@
     <t xml:space="preserve">16.6739921569824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4293403625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1444759368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1846885681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9588537216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8647565841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7142000198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.128231048584</t>
+    <t xml:space="preserve">16.4293384552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1444778442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1846866607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.95885181427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8647575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7142009735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1282291412354</t>
   </si>
   <si>
     <t xml:space="preserve">16.0153121948242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0905895233154</t>
+    <t xml:space="preserve">16.0905876159668</t>
   </si>
   <si>
     <t xml:space="preserve">15.4695482254028</t>
@@ -1388,13 +1388,13 @@
     <t xml:space="preserve">14.6226758956909</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2651081085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9614267349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6201047897339</t>
+    <t xml:space="preserve">14.2651071548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.96142578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6201028823853</t>
   </si>
   <si>
     <t xml:space="preserve">15.7518396377563</t>
@@ -1403,25 +1403,25 @@
     <t xml:space="preserve">15.789478302002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6389245986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8271188735962</t>
+    <t xml:space="preserve">15.6389226913452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8271169662476</t>
   </si>
   <si>
     <t xml:space="preserve">15.5824661254883</t>
   </si>
   <si>
-    <t xml:space="preserve">15.563645362854</t>
+    <t xml:space="preserve">15.5636463165283</t>
   </si>
   <si>
     <t xml:space="preserve">15.7706594467163</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9776725769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3352432250977</t>
+    <t xml:space="preserve">15.9776735305786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.335241317749</t>
   </si>
   <si>
     <t xml:space="preserve">17.2197532653809</t>
@@ -1430,19 +1430,19 @@
     <t xml:space="preserve">17.2573928833008</t>
   </si>
   <si>
-    <t xml:space="preserve">18.06662940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.709056854248</t>
+    <t xml:space="preserve">18.0666275024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7090587615967</t>
   </si>
   <si>
     <t xml:space="preserve">17.8972511291504</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2548198699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7655162811279</t>
+    <t xml:space="preserve">18.2548217773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7655143737793</t>
   </si>
   <si>
     <t xml:space="preserve">18.6123905181885</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">17.6902389526367</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7278747558594</t>
+    <t xml:space="preserve">17.727876663208</t>
   </si>
   <si>
     <t xml:space="preserve">17.8784332275391</t>
@@ -1466,10 +1466,10 @@
     <t xml:space="preserve">19.854471206665</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9485683441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5721797943115</t>
+    <t xml:space="preserve">19.9485664367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5721817016602</t>
   </si>
   <si>
     <t xml:space="preserve">19.6662750244141</t>
@@ -1481,31 +1481,31 @@
     <t xml:space="preserve">20.701343536377</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6072463989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4190540313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2779064178467</t>
+    <t xml:space="preserve">20.6072444915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4190521240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.277904510498</t>
   </si>
   <si>
     <t xml:space="preserve">20.0897121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3720035552979</t>
+    <t xml:space="preserve">20.3720054626465</t>
   </si>
   <si>
     <t xml:space="preserve">20.7483940124512</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7954406738281</t>
+    <t xml:space="preserve">20.7954387664795</t>
   </si>
   <si>
     <t xml:space="preserve">21.3600215911865</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7364101409912</t>
+    <t xml:space="preserve">21.7364120483398</t>
   </si>
   <si>
     <t xml:space="preserve">22.1127986907959</t>
@@ -1517,16 +1517,16 @@
     <t xml:space="preserve">20.9836330413818</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2308578491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.901517868042</t>
+    <t xml:space="preserve">20.2308597564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9015197753906</t>
   </si>
   <si>
     <t xml:space="preserve">19.6192264556885</t>
   </si>
   <si>
-    <t xml:space="preserve">19.336935043335</t>
+    <t xml:space="preserve">19.3369388580322</t>
   </si>
   <si>
     <t xml:space="preserve">19.8764400482178</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">20.1130638122559</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9237651824951</t>
+    <t xml:space="preserve">19.9237613677979</t>
   </si>
   <si>
     <t xml:space="preserve">19.5924911499023</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">19.687141418457</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6398143768311</t>
+    <t xml:space="preserve">19.6398162841797</t>
   </si>
   <si>
     <t xml:space="preserve">19.8291149139404</t>
@@ -1553,22 +1553,22 @@
     <t xml:space="preserve">19.1665668487549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9772682189941</t>
+    <t xml:space="preserve">18.9772663116455</t>
   </si>
   <si>
     <t xml:space="preserve">19.3085422515869</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2138900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0719203948975</t>
+    <t xml:space="preserve">19.2138919830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0719184875488</t>
   </si>
   <si>
     <t xml:space="preserve">19.7817897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1192436218262</t>
+    <t xml:space="preserve">19.1192417144775</t>
   </si>
   <si>
     <t xml:space="preserve">20.3023624420166</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">18.9110126495361</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6459922790527</t>
+    <t xml:space="preserve">18.6459941864014</t>
   </si>
   <si>
     <t xml:space="preserve">18.9299430847168</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">18.7785034179688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2077121734619</t>
+    <t xml:space="preserve">20.2077140808105</t>
   </si>
   <si>
     <t xml:space="preserve">20.5389881134033</t>
@@ -1616,22 +1616,22 @@
     <t xml:space="preserve">22.2426834106445</t>
   </si>
   <si>
-    <t xml:space="preserve">22.621280670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1418571472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3784790039062</t>
+    <t xml:space="preserve">22.6212825775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1418552398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3784770965576</t>
   </si>
   <si>
     <t xml:space="preserve">23.6624298095703</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3311538696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2365036010742</t>
+    <t xml:space="preserve">23.3311557769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2365016937256</t>
   </si>
   <si>
     <t xml:space="preserve">23.7570781707764</t>
@@ -1643,13 +1643,13 @@
     <t xml:space="preserve">23.9463768005371</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8990535736084</t>
+    <t xml:space="preserve">23.8990516662598</t>
   </si>
   <si>
     <t xml:space="preserve">23.1891803741455</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9998798370361</t>
+    <t xml:space="preserve">22.9998817443848</t>
   </si>
   <si>
     <t xml:space="preserve">23.0472049713135</t>
@@ -1658,507 +1658,510 @@
     <t xml:space="preserve">23.709753036499</t>
   </si>
   <si>
+    <t xml:space="preserve">23.0945281982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4258041381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.615104675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0410270690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9114074707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8640842437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2900066375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1007099151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7221088409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2961864471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0595607757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1068859100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9175853729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7282867431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3908348083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0060577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9875259399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8455505371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1768226623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6089248657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5615997314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.567777633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8044013977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3249778747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9937038421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4669513702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1356773376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.65625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7447204589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.602746963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8393726348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5554237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4607715606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4731273651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7159290313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4319820404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2838306427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4196262359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8928737640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7035751342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9401988983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0883522033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1830043792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0348491668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7982234954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3661212921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3187980651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6747856140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3435115814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5801334381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.586311340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9587345123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0122394561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4854831695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7694339752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5328102111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3970127105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.491662979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3558673858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7027816772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0184154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8229370117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4978408813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3431148529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4534072875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1694583892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9422969818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4377632141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3241863250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7974319458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0657367706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8167591094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1480312347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4793071746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6274585723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6336364746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4443397521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1603889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8731536865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8352909088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0533809661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3496894836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6809616088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.456693649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0970249176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0213069915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3398246765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3208980560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8914566040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.063232421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0250587463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5097255706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3761215209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9487152099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6549091339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0938968658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9412059783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3992805480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3801937103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3038463592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.086389541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7619228363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.704662322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9146137237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0748100280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5519714355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.723747253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8955268859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.992992401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3270053863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8995971679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9950294494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0904598236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.04274559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1858921051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.422435760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2356414794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8559513092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4265079498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6173706054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.76051902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1879272460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6153354644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8062000274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5676193237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1381759643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9473114013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5655841827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8021278381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.374719619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0884246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8498458862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3726844787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7066974639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1838569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8975601196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3249683380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.134105682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1818199157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6855754852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4947109222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0557270050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3611068725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.845775604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5137977600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9030323028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9221172332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1204929351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2656726837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2295398712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2315731048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9336986541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.284761428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4183673858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.647403717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1893291473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.34202003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6092281341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.804162979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7564487457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.661018371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6650886535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.476261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.335147857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9554538726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5239753723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5716915130615</t>
+  </si>
+  <si>
     <t xml:space="preserve">23.0945301055908</t>
   </si>
   <si>
-    <t xml:space="preserve">23.425802230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.615104675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0410270690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9114093780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.864086151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2900085449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1007099151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7221088409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2961864471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0595626831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1068859100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9175853729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7282886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3908348083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0060577392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9875221252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8455486297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1768226623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6089248657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5616016387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.567777633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8044013977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3249759674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9937038421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4669513702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1356773376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.65625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.744722366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6027488708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8393707275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5554237365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4607734680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4731273651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7159309387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4319820404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2838325500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4196243286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8928775787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.703577041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9401988983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0883541107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1830005645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0348491668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.798225402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3661231994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3187980651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.674783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3435115814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.580135345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5863132476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9587326049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0122356414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4854850769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7694339752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5328102111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3970127105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4916648864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3558654785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7027816772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0184154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8229389190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4978408813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3431148529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4534072875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1694583892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9422969818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4377632141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3241844177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7974338531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0657386779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8167572021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1480331420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4793071746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6274604797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6336364746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4443378448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1603889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8731536865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8352928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0533809661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3496894836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6809616088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4566917419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0970230102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0213069915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3398284912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3208999633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8914566040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.063232421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0250587463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5097255706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3761215209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9487152099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6549091339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0938968658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9412059783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3992805480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3801937103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3038463592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.086389541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7619228363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.704662322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9146137237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0748100280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5519714355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.723747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8955268859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.992992401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3270053863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8995971679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9950294494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0904598236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.04274559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1858921051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.422435760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2356414794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8559513092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4265079498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6173706054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.76051902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1879272460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6153354644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8062000274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5676193237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1381759643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9473114013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5655841827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8021278381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.374719619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0884246826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8498458862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3726844787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7066974639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1838569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8975601196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3249683380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.134105682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1818199157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6855754852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4947109222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0557270050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3611068725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.845775604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5137977600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9030323028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9221172332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1204929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2656726837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2295398712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2315731048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9336986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.284761428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4183673858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.647403717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1893291473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.34202003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6092281341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.804162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7564487457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.661018371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6650886535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.476261138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.335147857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9554538726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5239753723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5716915130615</t>
-  </si>
-  <si>
     <t xml:space="preserve">23.8579883575439</t>
   </si>
   <si>
@@ -2967,6 +2970,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.1399993896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2399997711182</t>
   </si>
 </sst>
 </file>
@@ -10294,7 +10300,7 @@
         <v>10.6227760314941</v>
       </c>
       <c r="G269" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -10320,7 +10326,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G270" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -10346,7 +10352,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G271" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -10372,7 +10378,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G272" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -10398,7 +10404,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G273" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -10424,7 +10430,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G274" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -10450,7 +10456,7 @@
         <v>10.5645160675049</v>
       </c>
       <c r="G275" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -10476,7 +10482,7 @@
         <v>10.3703145980835</v>
       </c>
       <c r="G276" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -10502,7 +10508,7 @@
         <v>10.5256757736206</v>
       </c>
       <c r="G277" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -10528,7 +10534,7 @@
         <v>10.467414855957</v>
       </c>
       <c r="G278" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -10554,7 +10560,7 @@
         <v>10.6810359954834</v>
       </c>
       <c r="G279" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -10580,7 +10586,7 @@
         <v>10.7004556655884</v>
       </c>
       <c r="G280" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -10632,7 +10638,7 @@
         <v>10.1955347061157</v>
       </c>
       <c r="G282" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10710,7 +10716,7 @@
         <v>10.3314752578735</v>
       </c>
       <c r="G285" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10736,7 +10742,7 @@
         <v>10.6421957015991</v>
       </c>
       <c r="G286" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10762,7 +10768,7 @@
         <v>11.0500173568726</v>
       </c>
       <c r="G287" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10788,7 +10794,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G288" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10814,7 +10820,7 @@
         <v>10.9140768051147</v>
       </c>
       <c r="G289" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10840,7 +10846,7 @@
         <v>10.8752374649048</v>
       </c>
       <c r="G290" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10866,7 +10872,7 @@
         <v>10.8946571350098</v>
       </c>
       <c r="G291" t="s">
-        <v>221</v>
+        <v>220</v>
